--- a/result/0/analyze_output/mapping_result/com.gannett.news.local.11AliveNews.xlsx
+++ b/result/0/analyze_output/mapping_result/com.gannett.news.local.11AliveNews.xlsx
@@ -14,42 +14,378 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="125">
   <si>
     <t>bundle_id_list</t>
   </si>
   <si>
+    <t>com.gannett.news.local.11AliveNews</t>
+  </si>
+  <si>
     <t>className_list</t>
   </si>
   <si>
+    <t>ASIdentifierManager</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>API_list</t>
   </si>
   <si>
+    <t>- advertisingIdentifier</t>
+  </si>
+  <si>
     <t>return_list</t>
   </si>
   <si>
+    <t>63D56BFA-7EF8-4CC2-9280-6320991D020B</t>
+  </si>
+  <si>
     <t>invoke_list</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>url_list</t>
   </si>
   <si>
+    <t>https://s.amazon-adsystem.com/api3/update_dev_info</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=1Vgj5H2yF-yDocbOINTi_k4krjXMAHe4jJ7wBjVLMek6CA42Wsu2sCnPSanmxrLI2QwpgoZI0azuDPCd7FRj3At0M_4VZtHWbOZLwWrMlqFQg6FWDp1C8fwVba52m_ky-9fhg9x1Sbf5hiF2gEel2pFV_yDZ8VuDCT2F30Ppxe-NDrDUfbVLkw7JFYwRz0XPvG8SvJ3FxRDLheNcxFp3zHpjJ96GjmTjLzhT4uMmC-xTLtwwXigy-4HhbtjI5h3bJK9JrVb0LqjeQ6tYQlpkBPgXt0III8KS8hnjslHxU3OAG6LBKpxm5l5uZaM43UAcSkGM5qZ7Ilow2yTHOthBOg&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502621%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C318504748%2C318502926&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=2173263110223662935&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=265x60&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;preqs=0&amp;seq_num=1&amp;time_in_session=0&amp;preqs_in_session=0&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Fsplash_sponsor&amp;correlator=2514700210837225&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=is_lat%3D57198472%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26idtype%3Didfa&amp;is_lat=0&amp;blob=ABPQqLFAj6wQXwh_e4pORUPWbMz11q-56CsCGdi5Ep_gZXzjES_ol9knekYwDLIsI13oh-HMxKO9VEjwLuexgJYTaY44y-kKNOU1bYsTVvuaP7ls_3gGh0ntJ-qDvwoCRGGw-JCK8VspAwHtRXGxiAkVv33cKUKB5MxfDYSECNB-wjbVuADS4fu2lUQVdSxpUlqPI3oTWcR6qu5SXiLymgVkNbZ4UoUJh4Ct-lkuM4A3dzqeLgEP7_nmsQUtJdhl2nBwQgmQdfY7UDWFLRTjV4HG-ot-1570fud4L8MAMxiR8C9oL-4d1-1Yj-eSNg&amp;a3p=CrwHEgYIBhAEGAEaBggGEAQYZCKMB2VKeDlVOTl6b2pBUS9sL3lEQXdKNGVkTUh3SUp5b0RFQTdTMTlTYURTcStPcUwzVDFydnA5SCsvamRwcFgrNWVGbmIzMjgxK1h6WnZLTTQ0RjVWcVpDNUtKZTZhaXRVb1FtOXp0SDZlbzJpT2lHZmJFZlp0RWprQnRTTXY5TzFvNWJaaFJEeG5FVkd2WFVSdDI3cHo5STRNeE5JeEZJZEJSK2dTM0RxcEJIUzl6WGd6UkpIanU0QW9aYWt5RHFpNys1aFI0Ymx1YUxvSkZTYTFrOUFNYUVCTTRaRWtDUlBpeFRTQUx1bWtMRVdoQ2prWUNDaDhiUHREWjZCS3lrYTd4RUNGVEZnaG9HVzNVNU1hS2pLZU1wVVdiQUF4RFA2a3pKb1ppbXg5dktwenhiZ3FSWE1ycTF4emZRMVB4K1B6NG5FVFdvZE51OXAxeDlQKzE4YllPVUgvRXBEQSsvazFETjA0YTVnYVZ6SVJkWjJWQXlYSFRTYkxXdFVOYS9RVXU1ZStCOWhJOEl6cGpLcEZOYzBTblJwSU9TaUVhaCszclhsWWJjeTErUnBZR0Z1Z3EwVXQrRUpkUENuNW1jMXl2N1YrdERzNCtHanR1dFBCNnZmTHRnYzQ2OWV2WFFtUi93eVR5RW5aVkxQUGNiZ282N01LaUlBbk5mRzFyRC9sVFdRbGxKaUtzdEVwaW0xc1VFdzlNTVFIWTUvL0hQMUhEUXBXRzZLTkZwaU54L0VrSy9oVjc1SGtvdEFIakovMnV3NndPaGl6V3FpYTUyb3FxaHBtMUZqM3pIakVjczJYUFQvM25kNGFudXZhdmFaM3ZTYlZ6TVlBd2Vma2x3Wm4xZjZ0QWlBZXZsODZxb1NOV1p3VkZ3a2VnSWpoR3I0UkdubzZZbURQd0w2QkE0MHVzaklYSExhMkdhcE0xZ3BUSlN2Rllqa1ZIL3hVekVDMFN1VkNkNXVSOEZoc1YwK0xyZHV2aHQ5ZUZ0dXBzL3pqSGhha2ZGb2s5UGRva2g3YXUvdSswZkhUemMzbnl4aUtiREJzVU9SNVBzVDA4Qit2dzNXdzc0bllOVDBhd050d0F0ZGtjUnliQVFZYjJDUk1jWGpkZEsyRHcxMHZUcG5waXpRd2FaSVFNeVNCYlhvT3NjTVFjNXZZOGVXYXRIYjZmcWxsVys1bEU2NGhUQ3lDM3Y4Q3AyUVRvdz09KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=2682646976&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=pcwI9iO9lO1SDENOwZjgkWS8zxptdGSc2j8hXskETxnluynJgpcm07CA1poW72UlF1fIeJbkGGzehhnCMDe_yXOsaX0245X0-F3GA7vvySS55_sQNWGOu8PtI3c_-cEtrj3BxYFAEAYXw465Jzm6DnAtfPCzPkZN-Nq72UEEKTIi6NSiN8kBQ69BDXUiVEKvh7xGo4VhSG_41WbiEZVmMUZKWmhli5KxNL5furut1kGsvU3Bb6Gz8gJOrhXsRInUN5n7Dg7YdTY4WuR9-0AIqiQ5R3bO0o5MXPqBwP97jemH2MbpNGbpN64F7Qubg038VefJ2XYrki27akeB5Ng_KQ&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635405&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=265x60&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=0&amp;seq_num=1&amp;time_in_session=9160&amp;preqs_in_session=1&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Fsplash_sponsor&amp;correlator=1277712848268928&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=is_lat%3D21907336%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26idtype%3Didfa&amp;is_lat=0&amp;blob=ABPQqLEAdCtn3ZMbgdkbdc_HZT1N6GOxeEyUmdDjBVjgl_P4WTCHM6GtBwUGRzaMwc23bMqfFIQgoBJaivcZUfBDF6UAyxtLZ9iJY7GqKQItMXMlOV23lRwQnpRr5oQNcJUin_6fck4Y9EMG91fZtPIZm3d4t3S7LNmqp__IgRGb9TffwQARdXkFwyhoDLbS9C3mntID3X5mt9V6qYQLw2j2N7WJkZkzrqWdZ_XGKU5UBKseFXrsdZ4AwfMsROzdAjM6dv65FOXI-qhXX3nX2vXDtE-4KTD9Ex5iTM477Yft4hz_QkR_hVYjL_EB0A&amp;a3p=CrwHEgYIBhAEGAEaBggGEAQYZCKMB2VKeDlVOTl6b2pBUS9sL3lEQXdKSWZ5WTZVTklnaklnOFFCdGJiM0pvTktySTJydnRQVnVPdjNmTDFFNzdjdmR5OEx1ZnJ2Wjc4dm1EU1FaNTZKU2pjeEZxY1JkVTlFYXhPQnREdGJQY3hEUEFTS3VHOFBBUmJFWFlqY21VZURHSzcrTllrUzhSWXhKdTRqYnR2WG40QjFZZ0taalhSeUZIY0pMN2Rhc0VycnJiY2FiSVlpOXdOZUlVcFlxNHhwMWQ1OVFMSWp2UjdiUHNMQ3h5eUk3eENHeUJVR01SUXlSQkllNlN6b3BTMUdvUWc0R1FoYyt0djJoczBBbFpXTmNaSUZDTWxvSTNiTGJxVW10S3pLZVVwVVdkS0JqVVB1VE1tdG1JSGJOOGFyT0ZlV3FGTTJ0ckhMRDlUVTZIWS9QaThkTjVCdzI3V3JYSFUvN1h4dHI1NFg5UzRoQzh2TnJXSGZqdEtGcVhFa202am9yQjBxT20weVd0YW9iMnBncGRpOTlyMkVqd1ROcU1xb1cxVFJqSmpXUWNsQUkxVDV1Vy91dzJ0aHIrelYwSUhTMHJnNTI5RmZYSlpPU245a3M5MXZuUjd2VEJ4K2RYWGM2T1AxKzJmWWFUdnYxYTFmcXlIK0dZWEpTTnRYc2N4d3V5dnFzQWtEYWs0YjRXdGFmOGpKWkNTV21vbXhNQ2tNWFdoaGlvZzBLdEhIUGY1NzV3eGJXMWhoa2pCR1lqc2ZKSkN2NFZlK1I1S0l3QjR5ZjlydE9ZMDB3b2JWUU5jL1ZWRlMxbnRGZy9UUGpFYzBOWC9yODNIZG1hM2h1YXZlRzN2V2FWRE1iYXdnOEo3ODBPS3YyYnhVMDR1SDdwYU5pZEV5VHJMaEk4S0NKV0w0VldKRmxwa01XSkJZTUxCZ2FkSkdWdWVCNmE1dWh5bVN0SUZheVVqU1JVL0hCVHlWVWkxYXBYSmh1TXhRZGkrM3FhYkgxKzlYdzI4dGlPL1dXZi96REFwVlBDNFovanlicG9iMjc3eHNUUDkzY2ZMNk1vY2dHd3diRWhBUTZab2IvZUIwOEpZUkNpRzNHZlAwMnVKZmFVY2l4elprSVlBUkRud1Q4dXVsR0I0LzdKRW1wSFlnMHRERmp5STVRNk5yRVEyNFVRZTRpTjdsY2s5SE8zQzkyWE1lL2JNSTFCSkdEd1B0ZnU5b1QwQT09KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=2682646976&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=-wNzkLY-jUd8D8_LdhMr-48PFTr4Xn6A0PSATFuTyY3UkUtd_Xxmd3OWPaYlw7iOqytSZWrnKxfcKcWboXXp9J1h0WB8Fnrh-E_F_NN9USVB07aP9AXLPzZ_BK84ZY4sNlictne_J2P7MIAdSN53QLslzTAhU9w_5pYiMt1qeEIM9k8k5HhrLrcVKRUvg9esGDiyyK-qvKjnFwiIiHRT6c83kjO-MbcU-8Jc5IpgeqnE7EXFSu9Xp0u_xnUU1iYE_nvjcDzsUIAOISTQ1gwT15Nf9M-i2kfjhcjBbEiw2FIKl_gzQu86x_Dkom1DdJiZNjPSf-nfRD6kChqZ8Ih9OQ&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635408&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=265x60&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=1&amp;seq_num=3&amp;time_in_session=16580&amp;preqs_in_session=2&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Fpackage_sponsor%2Fnews%2Fpolitics%2Felections&amp;correlator=2978473437476582&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=is_lat%3D21907336%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26pgid%3D1f560f52-c390-4a98-8e96-20b6d2112084%26idtype%3Didfa%26guid%3D9ea51c3f-8f74-4c4f-82fd-980fe826e20e%20%7C%7C%7C%201f560f52-c390-4a98-8e96-20b6d2112084%20%7C%7C%7C%201f560f52-c390-4a98-8e96-20b6d2112084&amp;is_lat=0&amp;blob=ABPQqLGHJyE5GEm54Vz74Py9BNj1wBU4Rb3G7AEh_ysxPwXQWqw_-uekA7JzsoqpHTfSv8b38Jdg_AmDmEMr8ubjZt3PRgf8cBeJ9CPMREcfX1Xz9Mg_enh6VNt_ws5mxLxNjENrP1W6WrKkAngfDDw_zFXX6GfHIyOWO4FTw59Ms8QqnwCEPcE4e0ywE2V3Bom9APfSsKX82c6oQL5rCcPTxidDu55ZVCLAh_-m4pO-OmKXyFzS3mOhDgXMiWGg7NzU3obDzs2_B40K7eSno8sgB73Axpv427Ncjh5rN4DygK8p8iqOvwuBaLIKxQ&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=2682646976&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://aax.amazon-adsystem.com/e/msdk/ads?</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=WTnzWGSKfsQc-QUNelUGHDJ_b3ioEkeq80MMv_67nz6Ii0oM0thtjdIjTyo_izegcMhdPd5tyOzydqWgtGAVbCLJaKK4IY68_wJLJ54tkUQ1rOXfJj_LLqKPqrKk79P0SZrsQ3FneIdBSwR97TNq7BwoL6JbgkxdzFjAOwbdBn7JoDEewnGLsBBki03FXh9HFsKa7gpj8egq8KEPvMXW4df6QoFsj4S7hNQ0UBoZFVwSLwAP_2OcOjcuDHVNtj4p_rzJ0dNoA8IufFuIVbE8RZjGbM9asQbsYSuZ4FpFKJH1p2K2yE2WIi9SNi56UVhsk0W7c9v0rpvs1iwMkv3TBA&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635409&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=320x50&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=2&amp;seq_num=4&amp;time_in_session=16960&amp;preqs_in_session=3&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;content_url=https%3A%2F%2Fwww.11alive.com%2F&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Ffront_atf%2Fhome&amp;correlator=1234007146258674&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=amzn_h%3Daax.amazon-adsystem.com%26is_lat%3D21907336%26amzn_b%3DJDy_kGVMARH6-9wUJgUZ3ecAAAGG7eQbQAEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAsQr-U%26amznslots%3Dm320x50p1%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26amznp%3Dyw9yps%26amznrdr%3Ddefault%26idtype%3Didfa%26dc%3Diad%26pgid%3D1f560f52-c390-4a98-8e96-20b6d2112084&amp;is_lat=0&amp;blob=ABPQqLGHXkNglwJb_8ASZ3Im6-TfQp8h7A0WkwYBOruRLpvqSfNZ-1mysRRzrOdj_Y71x3oPpAcF6NOG6Fqzm6UMAVu5SyCstNSrq8Bsx_muKGzisXau22i1xns-hrLa-weDoEfv29eJKccZ-hvrQu0140Gg7cbGW5BUpalrf_coyGUatwBGZO0l-QmyAvBOUS2JYjE2-12t10mgVVwN7jkG17FiyKble-Aov59ShYPdcaQYmo_ci6Bap8P9eFtyM5_GWv_GsR5a0rDWgHu86cQpFZh5MHCScHovZRZbbSum-DTv4jmcfh3ijPTuiA&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=3519121124&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=mcqZkXKt-VlrBcMxMZdsrxD4VzOKgc8SiptQSnF_hmaP-g2xicFsHE4BGKopBiqLuj0oXygRmf1qnrwCAxbHoKxxkVTsaLe9eSGbk-1bcYhKu-uUnCJUbWDQLjziumpvv0Ws3z9M-cEgUp6VLDT3dN_Vnegz46Waz0GkJ3SyXhPMGzx7p4oKL-Oie37OORwIfsKN2aM3iO4QXp5UdcG7Lb0Bad-H6KInOXvdqbcMIF8Meaco0usr4h-Z1_tmGNMmS9RXnPFBC_f3mWSCTicx4qnlya0OCTflbLg-_h2tdFpGVY88XuRZCGIIvtaN7lWQgaQIwSjDBfkZ5dhBD2nXpg&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635410&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=265x60&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=3&amp;seq_num=5&amp;time_in_session=25090&amp;preqs_in_session=4&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Fpackage_sponsor_plus%2Fweather&amp;correlator=1156967905023430&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=is_lat%3D21907336%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26pgid%3Dbc2f0d07-abf9-459f-b529-9f2d49b77d6e%26idtype%3Didfa%26guid%3D92e36dde-9520-40d1-8388-a84b9e2b80ff%20%7C%7C%7C%20bc2f0d07-abf9-459f-b529-9f2d49b77d6e%20%7C%7C%7C%20bc2f0d07-abf9-459f-b529-9f2d49b77d6e&amp;is_lat=0&amp;blob=ABPQqLGn8vp0GTqAzs1V9heP-OpQoVxuLed2_YxhV5sNZv0-MQX0enbmxPg0NGalHc7HZ_a_KHpIrFTEz5qqQ0LRrry05vul20cdsjZYMLQ6VsXKKF-OWua5xR88NJ72AjO6RpcWe8Nabf5I5ki3q0hh9N4MOcFH-9J8uojTc-mEyxSPPgBFAJSn25uyfnT0KRbWxQqWysTfNYkMnEqA-NeeXJNNjfAE-z_5XCAdwgipaHG72wZcgE9IV0NFKrHLYQLJZAvIXLxyqw7IrKAZ8G1FBRXO2kg2MIEpSajWe49JP99UjKV0EBp3nl4dFQ&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=2682646976&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=pLOwiO2gYS2TjM69B6nCsGazZkWCPVG2I3_eyOv092z3lN894btgwb3vsEEQBxS4tzSLbSk3I_ww7xGajkkyEKENZGflOdZm479Oe3HoL-b9wVC_oJ8RkS-TLcRww88QgXTmjgr-RXCP9G22TJGaI8BN28r3GZCT6OnUJUNAftYhOCEfPqyTaH1jgw_KKyaMqxqJie0Y0z63BS5nogCguJg_L-fir-KhrrBCeD6gyBuYrxYn5ZNKYEyA0Zr06AJ5VHs9XdGTnjB-2JVPdbg3mvI90ouvlkC1Gk0gTslW00l8fTSFSH1MUmfYYuLNUvVjoBW1IuAFWmIhxeaDmAq9qA&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635411&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=320x50&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=4&amp;seq_num=6&amp;time_in_session=25740&amp;preqs_in_session=5&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;content_url=https%3A%2F%2Fwww.11alive.com%2Fweather&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Ffront_atf%2Fweather&amp;correlator=2085422979289230&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=is_lat%3D21907336%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26pgid%3Dbc2f0d07-abf9-459f-b529-9f2d49b77d6e%26idtype%3Didfa&amp;is_lat=0&amp;blob=ABPQqLFUg2nncMy1TlRMd9sDFl41KyejVo2fwXDTKnFVGVkY0s57zNNKtO8cgOIxtocISzSPW9bLcld_gmNNWe6Eb5LKSYd2_pCdgtJqOhNoHVvGurumKEp9m6BopKxNS2PugqQ0cP22S7HpC2Mo3XAQWOSiNiRGsLgBGXN7AfZZJYeqVAAQWr6yp3rY37cb60-MQav5CF4aWaSlD2L7mvf-jckI-jtt-hT8ADhB0Zt5mcGMw8B-WVSESbLnIZd9-A7_GbYemeu8A39WgKIJ8ZHj2dBx-HZ1eqJLzZ6spFwe5dVksvao_Sha3HdYOQ&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=1334126877&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=drzUMpFbEPFF1S-dDdjPMBFvgaOeZxfX0UcrRng1DLXiFQdDrWc_3VYs1EGWF60LtQwNkEig6YFyOjLilYEL0ZsQgLEwKcjftQD2RRxYUfmJul8S8Usj2V6V88INAhkBZ5YFcYa7eNvMSfaMZKLtkhjHPyyXWPcrxajAzIPBWtDf6qmkX3hzULzQ4uvEg391KFpStBlG60VKDhhtDhbh6EqMDjF6XXCJaeUJBINRiyFS_j48nQlungoYjT9fLMtZPaXt0DL6ThCEqNT6FSNNMEQGvSHzS6ulVh4PUmUS9XlZUvyVkIE-mRzMHryfJ2oMiPoubRXcqFAweNYRMv6FzA&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635413&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=320x50&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=5&amp;seq_num=8&amp;time_in_session=44730&amp;preqs_in_session=6&amp;dload=3384&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;content_url=https%3A%2F%2Fwww.11alive.com%2Fweather&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Ffront_atf%2Fweather&amp;correlator=2167501316825108&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=is_lat%3D21907336%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26pgid%3Dbc2f0d07-abf9-459f-b529-9f2d49b77d6e%26idtype%3Didfa&amp;is_lat=0&amp;blob=ABPQqLG2z8bXZ7uBDtnygMtxiKwv5u9TFvP43ZXjzwQ4UExqWPfOb8L0u-2J5du7H178LTFIpeY4a8xiQc_cwfjG-uwT_GXGacgMccPIQI2f86i25G7vcs1QqdGiisdS7TR7yDChfG3hlIEacQsLiMfyR0NAm5qEYoMToR2-P-Mwao1LvAD3q6mu4_GLKGbRsNcAH32a7jjQPKbQ26kthSIwkR7cKgmEoeq19nGCu4A_EzZaEMnfEtPfcpNLhzo550472fzImzrE5GrYCvJYnCqLTruAwUIzRRL9U1gkfOj1C1lbBZKoR9LRJGlP6w&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=1334126877&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=ak7mPM-eYZvI-BTYkkK0kQVxcDlwa2A70dJnpNPEbaNM-vEsLZY8DRNRKbICufQRtK_YNKeyssFVEPAm0DyUOzA7J1KE-Rvfs-qR4LzHiDFqjcG_mCzPJWJMi16meLR3F8NYXNT8wCGNHvAo2JO8va1NKc7hsc5ysguV1GdXMKAalRCZaQo9qIk0KHshfaCco7pzCCJeMf1RT7Jubh8QusOMniQD1veL3JwswL1HgE8ZFQgDR7F_NNPR31e-o0NUJOhaPG2NzVxA5Q01HypzVyViKTh2rLlmz9e3NvBZIYZEVtmlm6N5siD8r8lupcaJaBkF1i8vIim_-JUr_xXtug&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635414&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=300x250%7C320x50&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=6&amp;seq_num=9&amp;time_in_session=46210&amp;preqs_in_session=7&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;content_url=https%3A%2F%2Fwww.11alive.com%2Fweather&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Ffront_mid1%2Fweather&amp;correlator=3064563680331965&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=amzn_h%3Daax.amazon-adsystem.com%26is_lat%3D21907336%26amzn_b%3DJK5QIGtU9pUwj0706q77EPwAAAGG7eSNRgEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAoa0HU%26amznslots%3Dm300x250p120%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26amznp%3D16nylfk%26amznrdr%3Ddefault%26idtype%3Didfa%26dc%3Diad%26pgid%3Dbc2f0d07-abf9-459f-b529-9f2d49b77d6e&amp;is_lat=0&amp;blob=ABPQqLGl0VN-SPzq5D5V6AmC4zAc6jT4nzLMIwaCkzQ5g_yv2ENcqwaMGkLpFijwtTHLvdyR4GnYMGoudWbgD1_2kCosBnOHpXTnJCunOoT_PH7dHd2a8ZXCjbjF9u3HOOXcW0P7m-qDuddPzF2fBDruHthe5cQdxQDQszKZ9sFvBi4KGgDDQ73gk-p-nkTQ4052ax3dpmeki9zH_opXviBDB7ExcGcAWCyuy2ITVFsYnHrfnRtJsQzN7QHrLSE5Tx8MZrHukShbGQTx1zKiQPteAE-Twxj-rsgziXXos5UNPuTY3tPiNvtIl6cFDQ&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=234258847&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=ykuN0LCeZHvZ09tJ0hha1WjB_J2dmiI753WbXm_7pR8g5K4GDhi_4RDe22maPy_KgycS7yQG6DoUNVuLDqGFb77iec42RUT3msfAvKwqWuFEig5HZj8SN-u0soeG56rkzml_oA3oexIiW47qyV8GftsRu2-g-_BCVyu4B1b7daHhPPVbj5GPpoLYgbQkscsH6GdgeQo_naBIhGblVPTrWjbV4AbHmpHJlhdI2YGArXpd6jOkHmjdM96bbUElwhCUplv8u3GvnWtHC102mfQ5ModPYbIFtYshXCuDmxF_HiFBt7os21njJL5_BkXUfHZpXKYdTIunPVwRVG219c9qnQ&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635417&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=320x50&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=7&amp;seq_num=12&amp;time_in_session=55050&amp;preqs_in_session=8&amp;dload=1476&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;content_url=https%3A%2F%2Fwww.11alive.com%2F&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Ffront_atf%2Fhome&amp;correlator=2610634624589718&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=amzn_h%3Daax.amazon-adsystem.com%26is_lat%3D21907336%26amzn_b%3DJLO9r1QTK-afVCHoA2hN6d4AAAGG7eSvXQEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICB0o8rD%26amznslots%3Dm320x50p23%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26amznp%3D1b3s3k0%26amznrdr%3Ddefault%26idtype%3Didfa%26dc%3Diad%26pgid%3D1f560f52-c390-4a98-8e96-20b6d2112084&amp;is_lat=0&amp;blob=ABPQqLFiLGE5dd6pav0oG0pYNNhnTr2YX0gT0FGmlwzLoTPI78xruVcAUyXeros7957RGjU2cNojAykZEPW7yCJFXv-gw8w9MdX588aa3nHjOQGN3S-DfpoqDb7HJoZcB0HB7zfZp5ruG08r70eUfg2pS8l7KjxQFho7ISbT10ekBZ-xbgCfOwtpCUQT6FCgAn9O93uFaKQ4_vA0sNxhK2rJr_FA-dKk0FKiOhmjCoANXfuzAz9JPWcSjpvh4c8PHzI4na1PVoMjweXLPWOMOfEDhcZ-j8vwfmta-8MwY5oSmqDYOLcEWmtQbSaB8w&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=3519121124&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=-ZcOKFVT_OhR1kmXtRGC1yM07euiy0ZNBhalhAa4Kq3SDLiwOArGsNSv6taxTKuLfLkXQqfcSg96JVS5efXJv65cQrrW_8ZBOMiP9_EHZLeTZ7KZUZO3j4WO7k0pwVhhixFMwTTYO0dMMFoJMHHEtHa8Znon1EN5SGWejmPMUOiNnBoDd18Ap2FwdTG0yizEfoAEhiEYs0n6IQHUhqaPcoyyf7OKeNXcZdY-qfe0GGD70gtN6ypq5C6PItRST8iIqoSRJb8q4EoV9-3yBPMbW9sQVvAh4CIWJ7IxVaIpFyjnOanzXGIu4UPdsEDjzdNnWtyEwXSJLHszr58XhhWHFQ&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635418&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=265x60&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=8&amp;seq_num=13&amp;time_in_session=57660&amp;preqs_in_session=9&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Fpackage_sponsor%2Fnews%2Fpolitics%2Felections&amp;correlator=168500518327638&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=is_lat%3D21907336%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26pgid%3D1f560f52-c390-4a98-8e96-20b6d2112084%26idtype%3Didfa%26guid%3D9ea51c3f-8f74-4c4f-82fd-980fe826e20e%20%7C%7C%7C%201f560f52-c390-4a98-8e96-20b6d2112084%20%7C%7C%7C%201f560f52-c390-4a98-8e96-20b6d2112084&amp;is_lat=0&amp;blob=ABPQqLEEUIuLJuioke1gCeVpsNx25FlbrrfEmAhGqjpNQzLSueocpdwLYZqsINZxwnP_UBTz8YXTOeKv-4Dk8dc6u5VkR67XijPuulMI763enkdIC9BsVdRLIRFgJs6BQkq_kWvZGCj586-ghTTC1hA0Jecvp6Pj3JomEabCDAmvgBAIHwDAZH10hd43gu-3b5ZCpUzhgwXQspcYnZcOg20msDuW0Pj3r0Nc5fruYiN2BIXBWKD3ZDSJGpTLNuVBTQt4wO3qsXQ3HJ_Q8I9tcYD53Fr___PVcoc_SiDeJ73p3BPN0y8HpnF1BqU3ow&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=2682646976&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=L6MC6jM8BKRaWXEZO18uGEIcDk2OxeVb1ClRlYUlUW_awqHYxtcUF6EycRrh7dvIggggmQwSXZ2bwomwT5Q9i-smkxn-IeYpuggOlFFtVe8v_ZprHBkpTm6gsI0WNMLP4_U9L2Ku1ZJ-M6Av9soi1hhh-KmI1mIyRP1qZZdyBgyQ_EAsAosHhEYVthFtKp_Dy2KseBeYKZPRS6Eot6mbmbQ3nzbnP06Tn9kmh4IOtFwh1MtphjM7invJyjnJyicq4fVk-3lxnthkKYowNwrarrqQf85tDwYuAun0tumYzImjGTpucanHcfqNzgiib4AykRhhBhiAKSmptgcIiuaSNQ&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635419&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=320x50&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=9&amp;seq_num=14&amp;time_in_session=57940&amp;preqs_in_session=10&amp;dload=2651&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;content_url=https%3A%2F%2Fwww.11alive.com%2F&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Ffront_atf%2Fhome&amp;correlator=172414624367081&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=amzn_h%3Daax.amazon-adsystem.com%26is_lat%3D21907336%26amzn_b%3DJITA6zlsjXLURsHMztvk9HIAAAGG7eS7TAEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICCCynZl%26amznslots%3Dm320x50p49%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26amznp%3D1b3s3k0%26amznrdr%3Ddefault%26idtype%3Didfa%26dc%3Diad%26pgid%3D1f560f52-c390-4a98-8e96-20b6d2112084&amp;is_lat=0&amp;blob=ABPQqLFQQthfmcExIMsRC0mAfrrOQz-dVCUHdA8O37AcDbDJZOququMDnF3wDJLmOFAPEAC9LmgSkxDUEIvf7EqCsDaMDoeEiyf8zHoTwkQBR7537nTg5v_oFGJNNG-gFoP_Ss6RtRBuIumwq7LzOb5g_sq72EoMl5Z0oqY9tTXdAsoWdgDLGL1bLYMvIHBGdJejYxT8J_4kyY1tqKBbLwEvJulsz5NoN5n0aHPT2cdElQWVDCJOy4huSjw0I3g7g4iRphXw-IHvZG3zE2DW_hqrPWArlFyurUYidho69WgrPKZO6E1F57l0ox1G3w&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=3519121124&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=MBxAXFH42qHHdeIpLFJHvIW47IiCh7ZQ82hLypx7N_HDQRaUTN7cVQEb0B_2UgLcmkFYdstXb3bUKbgKrnnLwFmorRIHSnHzpqeoyGMq173VM-InEF-YZllVUa1wt8Cky46al_Q2dTcQ1B2U7rD0lcDNcYbeVgC2b8p7n7jlOMK-tDQnyqLZHTGxiOlZrkWYVzpYyefaqlFD3zcRqGFs4-_i-bdE64tOivzTQ_ZN_whYK0wjtsaJGcTbmI8zHDatXoAacuig_HhIHot8CfoAEqoODzjvZxfyKJ2JZ1WBDV5dMWBxVZnq5kV5_wAW_Ty4uCo0neXl3wgv-3yaBnoehA&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635420&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=265x60&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=10&amp;seq_num=15&amp;time_in_session=58580&amp;preqs_in_session=11&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Fpackage_sponsor%2Fnews%2Fpolitics%2Felections&amp;correlator=3291864239533233&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=is_lat%3D21907336%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26pgid%3D1f560f52-c390-4a98-8e96-20b6d2112084%26idtype%3Didfa%26guid%3D9ea51c3f-8f74-4c4f-82fd-980fe826e20e%20%7C%7C%7C%201f560f52-c390-4a98-8e96-20b6d2112084%20%7C%7C%7C%201f560f52-c390-4a98-8e96-20b6d2112084&amp;is_lat=0&amp;blob=ABPQqLGsdXvcqB3VXN3NOUMrgn_ca0MQcV5eqAJ5tx0-aHrUV2FJeK-pocRAMox03SR6Wf9rN16eDR_yBAIoI6zb5gDyLzPAbvDTTxZTQfm6oUZxN-IlyFIv-FZ-noORqDV-RKYkG1I3MfNFfKDMuRza1YeIw-B6UJMXSJYSB4-pGDG3lQBX00spn1g7T357c_hLHFr_Q9H4x9Vt53CQvX_rV6T0LV7wm92C-cBEcjnKhisx3xo2oR1utpMChKFAUmTF9Rh0yUN9N3pD83_nGNSSnA_n-DqNDVsLpKBjZBOVzgylHh2Av_lrKqz1lQ&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=2682646976&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=V2mL1vncZ4tlNjlmHHBExe4CbZBQg0wEpC93Nwz1hkCoQOEmvrOsdC9fKqncP_KGo3jycbhXVqV0Jg-hzNHwZB5UyWvthCJKZLIAagEr_uSxbtur7ynuyfCTRn1G-uBCo5rKkzI7uH9rEoA4xXqG6u0zyHafYYsxDh5XRspUVwDVWAmPpxo6hgFQJU7glZXNgg06_o5JsaI_KtvhxV-U0LJLbbyfI6yzPm73dC9f5kF1sJCLDwWf4D5OPWQCrgTi13bhN9jO6eMb0giOp_xh3HmhHwAypP1vVgDOqtI9G-dwe2uX2EXJvIfCeAYQAqcJQX_X1UFM9M9IJbZII7h-8Q&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635422&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=300x250%7C320x50&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=11&amp;seq_num=17&amp;time_in_session=64030&amp;preqs_in_session=12&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;content_url=https%3A%2F%2Fwww.11alive.com%2F&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Ffront_mid1%2Fhome&amp;correlator=1032218790955773&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=amzn_h%3Daax.amazon-adsystem.com%26is_lat%3D21907336%26amzn_b%3DJPL4dg17ZZRLlDbz7M3lWGoAAAGG7eTS0gEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICB85PbR%26amznslots%3Dm300x250p120%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26amznp%3D16nylfk%26amznrdr%3Ddefault%26idtype%3Didfa%26dc%3Diad%26pgid%3D1f560f52-c390-4a98-8e96-20b6d2112084&amp;is_lat=0&amp;blob=ABPQqLGWVY2EqmSRcdGDdyH8rr7iVhX3DNc2JZmiaIo5YM-dUs5F_uj_J19eP3yijgxxi3KROJhahDvTroJL0Oq_02NwPzfsHq37TwKBe7YcK3pJzS7FZXBipiM6NuGa6ykMOGiryDgF3dyDdATJlDg4e0hwfZGrVfnG6zXlD2lsb-sDLQC9KE07uzQC66QG-sEFI-23Rhpzqx1uwoKKLkJUM7qmwefqIzq39tUksVY-DeWYp-K3B_YqCr9KnStZ0wm2JxyJLM9eEOWYEWQPcosockhVPRKGoUgJEkTWsAsqLf_4LpcI0iLUC_8BvQ&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=3183022332&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=MzZfAatOJCvmqpUKeh30N8mNH_KKpVTgyvG-D8kDMGCWrY4uH1lj7ooBIEUw2cVzIDU-5b2cCJ958hip1l88c6g3WXLsSe_LnYlOZ1BG9jpWqxy6zCwnI4C9aMk6dYwsY4_E989Ct-vhjMi0hg-AQXIjIdU9Osfts4fdzSHdEV2N550NIqT8Cocgygi4NYpP89TX4LXxm1y99HTnNj82lAQuNKfTWIFbnlp-XQtux68mk-0qfUOAEmwooE4U-w-yIbZLt6XJraEk2oyBEz98E9weRGMDJtYHhQlW3AHbimBTKSXMCzmGr0A7_cCSvGLC2BlQlRkXYUWN_O2hQ95nRQ&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635424&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=265x60&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=12&amp;seq_num=19&amp;time_in_session=68380&amp;preqs_in_session=13&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Fpackage_sponsor%2Fnews%2Finvestigations&amp;correlator=1301067457452426&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=is_lat%3D21907336%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26pgid%3D1f560f52-c390-4a98-8e96-20b6d2112084%26idtype%3Didfa&amp;is_lat=0&amp;blob=ABPQqLEC7BRWS55sLXKYS6gA2CNGLnRUYw2HMEfuOCCGBjqA8c5Hf5aWsM6gwVhZVZnHGpWWvkNaNtWGYK-rHotUjCkFg9xNkZimu1ACmeaZejS5eCAZ6bWtNHqv1OSjDSBqMPY5nC68gYhxmSVShpInBSYsTooWuaJwwPGhsqTAjjIwWAB7wapVYVA5xVCuR5rlfW5HTE8IIpKhHOrwNtuYAHt3SMQplBUmQQYMMMynUVOLoPFeLt_HKv7Wo4dRanutxDDt-F_lEv06Xsqfj6Rr1xC_kod58EzWthqaeKVWnUK58G7QhTSeohP8yQ&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=2682646976&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=1Bn2NBr20r-_CIXv_98Dz8V_B52pC641rdqU1wDICJlQKR6Fu8LAKCDk8o41QJ8e4Hl_mxKhtUjIH97-S7RpZGiCCQxATKkFh1TN_zMAhsRxyncL4dPyXilPb1btvwk0kzUPALp2JWWBar1aK7K9d5Y02BPws7m6-xpwHPt97DGwCZNwuUT0XFvV7f6-lE7u2midF2K0dQe_SfzmP8ZWeOzQwmxDs1s2i5rf0sr_g9cNWQTYN9ERuYMgvSMyY_gGoxKGfeQgbZyb8T3Tk0qQ3MbuDY7jza8fZ6_mDgr3ACdaYn5RZxO0ALF_99qLs41PmFuRQFl-2qdQK0J7DH3edg&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635425&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=265x60&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=13&amp;seq_num=20&amp;time_in_session=69580&amp;preqs_in_session=14&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Fpackage_sponsor_plus%2Fweather&amp;correlator=808382060758645&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=is_lat%3D21907336%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26pgid%3Dbc2f0d07-abf9-459f-b529-9f2d49b77d6e%26idtype%3Didfa%26guid%3D92e36dde-9520-40d1-8388-a84b9e2b80ff%20%7C%7C%7C%20bc2f0d07-abf9-459f-b529-9f2d49b77d6e%20%7C%7C%7C%20bc2f0d07-abf9-459f-b529-9f2d49b77d6e&amp;is_lat=0&amp;blob=ABPQqLEMbLFFLl6wrs__Tygkbzyif4FKKsBgVNU0XHeStcoDtmUw7XMHQsDj2C-VG8xBXsYeiTSGZD4xr9kXxrSxhbjtwAXhKCp39aa1S_9eoSwAD8w2RZObRKQO6AXTCZoT2uHBjsLW-cIjLjlKThdcK-0NJq7zFD_XZrUBjPyDsHOu8AD1pmG8oPs2hvzz5Japo7YVDHGCwMtcBjvEVtkK5T1TJHsuecAO0X9QqerxkOILrhP-RuoTYfqrlQiMeChsJqrPysicsquf-qXZ5X5_dkaLSrI9p3Fd-PgqBLsoTFSKCFVkWxrVEYpzVQ&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=2682646976&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=MgQXI98IAcufz9uNq6Hp4IWpTzTLDj0qFPoTtidYfMyVRbRUIl7muLRuE4U3hrk3Kp5Xc5JsDaXnsnQX0VwCCWLU-eYeUH001KLOm076_vri0s2pPzH0uMt2Uu7ikAlQnh7V6cN24nPMwGBnCDOEQZqh_97XNKCFQD5Cf8WtEjdSHpTibkMrP-XVR9Ft6kdce2KpQOqFnbpf7xWeowNurCADIuucumLPfdhdy6L4PGCEZ1vQHrkVrOTE-1rZjncQV6cVWasfIGuvgTqanGrRSPjhxR3bjAA3toJ26yYA8bhmzTsnrhQuvMj3gsxz4wXD9fxvbahG_xq1ZpO_OHsopQ&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635426&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=320x50&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=14&amp;seq_num=21&amp;time_in_session=70030&amp;preqs_in_session=15&amp;dload=1770&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;content_url=https%3A%2F%2Fwww.11alive.com%2Fweather&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Ffront_atf%2Fweather&amp;correlator=2895432364411618&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=amzn_h%3Daax.amazon-adsystem.com%26is_lat%3D21907336%26amzn_b%3DJEGGWQSJ54jQd1qf7E2WnQcAAAGG7eTqeAEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICBaJcaU%26amznslots%3Dm320x50p17%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26amznp%3Dbiq680%26amznrdr%3Ddefault%26idtype%3Didfa%26dc%3Diad%26pgid%3Dbc2f0d07-abf9-459f-b529-9f2d49b77d6e&amp;is_lat=0&amp;blob=ABPQqLE_-5IkCjK6r9tap96_R0RqNQL6ousJNeG8-uK0cY-r_2e8tdUbbePbugRKsCsK_Sa-9b1gvM_hyQ7goENDDrUVzvbXXqau372XwiGcKIRib3PT27sZchhXtOaKTD-TxSKBUQPuSwlx2qCfVBVb9pHovWcfbTdD4KkUldURrsGS6QDEkNMjea-l-X77oaCbaWYaGLcOjo7Uz0Qf2KklKRHODSBTjgNS2LW8duUPIcv0_aKhvweM_KfGRthaTSukCaUm6KyEtxPoTm8VDTc7nT6dQMgON58vdXTbfX-F0lmz58VSCA3YiBv_5Q&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=1334126877&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=0fzmNNvlIJn3XXyV4LzemXQnLPpbWSeFCw-gNKOlRd_JJNkcjkXYsoFuydKh87f-cs0HJVfbmDy1SovLGO0OFukNZF0UemwgCWPpGfxQW4E9sxLPJ08rQ763lpxJW5PxTQ_Etol2da-Fxk6mcz0FedzljJVEUi4fvqEDpXvzyply8KCoTWII8EfniCXguvMYS9Mf_NlJ2n0oxWJcTrzzM7oEq84sZhMCFU4Vk6XFR_JZ07utZWiaz_e2az6k6809_RtgnE00fZOQ79dlCEDKARAv0ST3isY5nfooLDv-LZV6r4f-HSgQuSSv41aPx9n7_qXKa5rwCHiKGwYejgv2fg&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635428&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=320x50&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=15&amp;seq_num=23&amp;time_in_session=89850&amp;preqs_in_session=16&amp;dload=2209&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;content_url=https%3A%2F%2Fwww.11alive.com%2Fweather&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Ffront_atf%2Fweather&amp;correlator=2669118269423850&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=amzn_h%3Daax.amazon-adsystem.com%26is_lat%3D21907336%26amzn_b%3DJOwvhCct9gYkarbnqNxDgIwAAAGG7eU38QEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAYP5wO%26amznslots%3Dm320x50p45%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26amznp%3D1b3s3k0%26amznrdr%3Ddefault%26idtype%3Didfa%26dc%3Diad%26pgid%3Dbc2f0d07-abf9-459f-b529-9f2d49b77d6e&amp;is_lat=0&amp;blob=ABPQqLG_UP2U50-0OJqp5UeO3ZrO4WLMuhZuMcDIcvjQFTFa2G0ODGk1X8Zy6wWTqzDjFUDPe7jX3DgVVC5UaTUpybRmxCY0MPSZ9nffqvxtgczlFy3pcJdTFBUHYwlxtVXk0a-mVms8IgbgzNCJYcJJbHOJUYudWHdBDOo7fUvx_vCJogCaAUhCVTrjtcUUcvW5Fx9mia3c9XszIyUKkox4KDI73K7QrAbqvMBeLjv1lUdc8SUyIYvsvFoy-WJO4n2o1GqyoJZpU_zPHF3X98gAUDl4iHWIYPKrfKZERaibOf-sMfvDv9iBse_vdw&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=1334126877&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=HK3LoGMXDDuzOE2tpuoF9raX1lVC0AByH2KMMbMmYQwPCh65YQNX5E7PPUyIa-ZoJYG4y8VUMNX33wIsJoH3JfrrumsZOm78l8a6T2fE-H8z_STbAQFVxW8qtJICRu9-4V40beKIvxKbIh5owkr7k4btfnQ9pZ3yVfZZDUfoFwCJOxEbkYiqaAATORRhOlkjY2x-P6lcpa-IAx88V4SGOTajR0UecpR9rczgvxgbG9RoGO8n9tZWupgguNzLysCOMLmM788ciP-6qxEeLxHE4dlVbJ9uH9SSHq7ojlQQi_aHewqpFhBlTM3rsOyryuO4NG9fdZMH4NFxbUJgcOa1tw&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635430&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=300x250%7C320x50&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=16&amp;seq_num=25&amp;time_in_session=101700&amp;preqs_in_session=17&amp;dload=2315&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;content_url=https%3A%2F%2Fwww.11alive.com%2Fweather&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Ffront_mid1%2Fweather&amp;correlator=3545940251958212&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=amzn_h%3Daax.amazon-adsystem.com%26is_lat%3D21907336%26amzn_b%3DJPUNH9EkcFKXWfBuCotDxCQAAAGG7eVmQQEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAZ4NMf%26amznslots%3Dm300x250p120%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26amznp%3D16nylfk%26amznrdr%3Ddefault%26idtype%3Didfa%26dc%3Diad%26pgid%3Dbc2f0d07-abf9-459f-b529-9f2d49b77d6e&amp;is_lat=0&amp;blob=ABPQqLFW0H2ZEoqh04AkGIgpOiKmLv2o0KTvE6mO1bzOXKZ0obcRXMs1aOeT_OqwPtRlA4-BweK7LIcAL_bK1N-WeTbur4NfsgzUcbwczFF3SNxt1rG8zOCOkrkXf2en7CRK2G_7ojvcRKhWJYafrJy5_IMvRZ-xj53GJbeovY8Z6C0HhwD4FVayfdW44RoklIeG_M1BLC1PaVd_t-un_xiqytnAKuS6HNoq1eoSrSPkrYir1AZOiX0iAIRgWh7czRYAekU-JNqpcj6Saa6ecgvg59yk-7H1AwKUG-AgBZfEBWSd8o1TGITWrVB3Bw&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=234258847&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=8RnO5sdxvhX7xtl42UElqd1wxXeXPd-x7iPpV_pu-iFd3x8LaRsVeh7RoYIqksZTBtkvx64d0P7G393ZeCgNvSa0mCTsqh5Q_19O_TANYNSoOeXp5otVyiVEmN3U4GdWx6BP8om1zhgEOG9IwygYNo8E5wWTmLDbNel2dy79yLNXenXZelYZrL5RDEA7q-bB9P1vzAZ-qnWXhvVaIFDUVwz6l-VSv4yCePGlScO5TmNFKfF2Smlyd8pYFzzLarkoBk8ceJSsBx5udD_UHwE_68YxV9vWRM5zwWPz34U1fSZewC6ndXxtRVdOYh7fwT7mC_EVYNw6jNkpBmhd8JCK6g&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635431&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=320x50&amp;format=320x50_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=17&amp;seq_num=26&amp;time_in_session=103250&amp;preqs_in_session=18&amp;dload=1637&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;content_url=https%3A%2F%2Fwww.11alive.com%2F&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Ffront_atf%2Fhome&amp;correlator=1755796694080458&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=amzn_h%3Daax.amazon-adsystem.com%26is_lat%3D21907336%26amzn_b%3DJNXDzBPZeewuPCb4XbV8BhQAAAGG7eVsRwEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICDiIy4d%26amznslots%3Dm320x50p15%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26amznp%3Dyw9yps%26amznrdr%3Ddefault%26idtype%3Didfa%26dc%3Diad%26pgid%3D1f560f52-c390-4a98-8e96-20b6d2112084&amp;is_lat=0&amp;blob=ABPQqLEtdeutLOlZqQwyXyoHvgcP5sbmUmFgmedOKiXV7gwRr8NXlD94j0cx7Zvm40Vdxa2WSloOT9JN9j2eCV_RQKhblZr2ZunKqkJtqkz6btCtE5yOEoczUUlnahrg_-bnvwIqMp2b4aRiK2tHIP7aNV52SO9OKnDV_-8h8u5zUfIYKgCjLDDDmRSVDuYOVp_Yt5bvFSvtqfFu66yxqKPcwZBbw2pcqK_jGKyOZ3XWbIkRXl5D-Rt3vhZBt8KUoPHUlcpnau71jDwkA0V5YDqebbcuC-V7II939xmyUd4D7psTyqaJ-szzkmew3w&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=3519121124&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
+    <t>https://pubads.g.doubleclick.net/gampad/ads?os_version=12.2.0&amp;ms=yFBkpqLZiu4DJKXSI7gEOMVWU_DGi4PBDtm0h-aJ_85dWCKhsMQ7C4Q3pn4dyXGfnwbt5IN06IwHgsKb---keplI1fKV7quZ1RTtjrDxll-oJg7DY124j7GeV8vknJOIQXQsVXjHiEcO5wAPfObRrClaBFGISwOsXhmfiUr4Kb-lwYF7ARw2J5T9lUd81gPl1ZLCxxNghtTPC3AMHU1N_iOJvd7Uavy9enP-h3wkdOWG9CGxtKOn5tOEG25zPcrL2xFr4JtQGN2Argww3mwX4ZG-I8ClMobGhZoiDg9rJpgR903yp44XnYrbomsYJYS4_4L0sQoknbO4kmRR_BPYPw&amp;u_so=p&amp;omid_v=1.3.3-google_20200427&amp;hl=en&amp;submodel=iPhone10%2C1&amp;eid=318502926%2C318496669%2C318500618%2C318494274%2C318499306%2C318508819%2C44766145&amp;net=wi&amp;u_sd=2&amp;ios_jb=1&amp;js=afma-sdk-i-v8.11.0&amp;fbs_aiid=4D55E7218BFE4F87B713EAEE61D609D1&amp;u_h=667&amp;fbs_aeid=6010003963334635432&amp;u_w=375&amp;guci=0.0.0.0.0.0.0.0&amp;sdk_apis=7%2C8&amp;omid_p=Google%2Fafma-sdk-i-v8.11.0&amp;sz=300x250%7C320x50&amp;format=300x250_as&amp;an=44.0.52.iphone.com.gannett.news.local.11AliveNews&amp;u_audio=3&amp;swipeable=1&amp;skan=cstr6suwn9%2Cv9wttpbfk9%2Cn38lu8286q%2C2u9pt9hc89%2Cp78axxw29g%2C3rd42ekr43%2C3sh42y64q3%2C4468km3ulz%2C44jx6755aq%2C488r3q3dtq%2C4pfyvq9l8r%2C578prtvx9j%2C5a6flpkh64%2C5l3tpt7t6e%2C6xzpu9s2p8%2C7rz58n8ntl%2C7ug5zh24hu%2C8m87ys6875%2C8s468mfl3y%2C97r2b46745%2C9rd848q2bz%2Cc6k4g5qg8m%2Ccg4yq2srnc%2Ccj5566h2ga%2Cejvt5qm6ak%2Cf38h382jlk%2Cf73kdq92p3%2Chs6bdukanm%2Ckbd757ywx3%2Cklf5c3l5u5%2Cmlmmfzh3r3%2Cmls7yz5dvl%2Cppxm28t8ap%2Cprcb7njmu6%2Ctl55sbb4fm%2Cuw77j35x4d%2Cv72qych5uu%2Cwg4vff78zm%2Cyclnxrl5pm%2Cydx93a7ass%2Czmvfpc5aq8%2Cm8dbw4sv7c%2C4fzdc2evr5%2Cludvb6z3bs%2Cs39g8k73mm%2C3qy4746246%2Ct38b2kh725%2Cn6fk4nfna4%2Cav6w8kgt66%2Cy2ed4ez56y%2C424m5254lk%2Cecpz2srf59%2Czq492l623r%2Chjevpa356n%2C3qcr597p9d%2C2fnua5tdw4%2C9t245vhmpl%2Cmtkv5xtk9e%2Crx5hdcabgc%2Ck674qkevps%2Cwzmmz9fp6w%2Cg28c52eehv%2C9nlqeag3gk%2C5lm9lj6jb7%2Ce5fvkxwrpn%2Cr45fhb6rf7%2C52fl2v3hgk%2Cpwa73g5rt2%2C523jb4fst2%2Cggvn48r87g%2C24t9a8vw3c%2Cfeyaarzu9v%2Cn9x2a789qt%2Cglqzh8vgby%2Cgta9lk7p23%2C5tjdwbrq8w%2C22mmun2rn5%2C6g9af3uyq4%2Cu679fj5vs4%2C275upjj5gd%2Cx44k69ngh6%2C32z4fx6l9h%2Cw9q455wk68%2Cm5mvw97r93%2C89z7zv988g%2Chb56zgv37p%2Crvh3l7un93%2Cmp6xlyr22a%2Cqqp299437r%2Cb9bk5wbcq9%2Cbxvub5ada5%2Ckbmxgpxpgc%2C6v7lgmsu45%2Cm297p6643m%2C294l99pt4k&amp;loeid=44766145&amp;preqs=18&amp;seq_num=27&amp;time_in_session=103300&amp;preqs_in_session=19&amp;dload=2533&amp;output=html&amp;region=mobile_app&amp;u_tz=-240&amp;content_url=https%3A%2F%2Fwww.11alive.com%2F&amp;url=44.0.52.iphone.com.gannett.news.local.11AliveNews.adsenseformobileapps.com&amp;gdfp_req=1&amp;m_ast=afmajs&amp;impl=ifr&amp;iu=%2F32805352%2Fga-atlanta-WXIA-B3321_Apps%2Ffront_mid1%2Fhome&amp;correlator=72388861561800&amp;gsb=wi&amp;ogsb=wi&amp;apm_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;gmp_app_id=1%3A106384742036%3Aios%3Aae52fc20e9375334&amp;apm_app_type=1&amp;app_wp_code=ca-app-pub-2210273557910441&amp;app_code=2524230294&amp;caps=interactiveVideo_inlineVideo_mraid1_mraid2_mraid3_th_autoplay_mediation_av_sdkAdmobApiForAds_di_transparentBackground_sdkVideo_aso_sfv_dinm_dim_nav_navc_ct_scroll_dinmo_gls_saiMacro_omidEnabled_gcache_aboi_xSeconds&amp;cust_params=amzn_h%3Daax.amazon-adsystem.com%26is_lat%3D21907336%26amzn_b%3DJK_F9qUSCUg6XZTOUckYxH8AAAGG7eVsggEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICA6F3qb%26amznslots%3Dm300x250p120%26rdid%3D63D56BFA-7EF8-4CC2-9280-6320991D020B%26amznp%3D16nylfk%26amznrdr%3Ddefault%26idtype%3Didfa%26dc%3Diad%26pgid%3D1f560f52-c390-4a98-8e96-20b6d2112084&amp;is_lat=0&amp;blob=ABPQqLGMhiYaysZREczXwTE1hS_IesBBvaBJjWexBqpTns20eazXNflcTS-l2bbf0u_PfoNaggnDmLI40JGwEg5_47_kGA66VsGBjCgfbCmhhQ8pfamvDD-rH2SdrE3bfk9yR_FZOtYpFuQ7AfZCp-mOaFPkIEko8cz8fq1G6FD-J2JWswCLQGdB_TFsQN-DEhLQlcwkTRe3YBSg6oNn28MWFCrjIvf9MotNMcNxc9aZ_qlZflCbMdq05092rdyfk61DQyloHiY93Sj_siZLos-p8RBBKtjFNkVCSOKkax1qNktVmcsKQ4zfiJfhVA&amp;a3p=CqwJEgYIBhAEGAEaBggGEAQYZCL8CGVKeUZWRkZ6bXpnUS9pc01UKzBNWUNRTERIVDZJSkN3R1RDaWdKMmtvYVBCTnJrd0puWmFPOGxkTy8zdnQ4THBwUzkzOXlKV3U2dmwyMjgvNllkT2M1SExoT21CZnYwNXBJUzdqdU9iVGtTNFNleklOejNpWVpPN09JcjhDTHNoOFhSRHAzRUI2YjdYWWJLRmJSV1ZuT2Z5S21IMVFnK21NOGZRdzRReFhzcGFwQkRnMTNWSkt6anhvOUg3eDBZUEdoMjd0aDJnbVkyRHFVZnN3UFZuZHJCeldqL0E3blFURUxmZEJHM2JPbzMrRStySHF6em5tY3pFZk00QjUxMDduRHBETDRXbzFSWWJlaVlpbW5INFFYZVFxd3BPSkN5bU1zN29ISHdJOXFzOHFXLzB3QWJvdWF4U1Nabk1lWDBseWxUQmV2WmZ6dWZIemQzZXQwNzdkbmZvemkvSGIzdmpNUFdHSnc5Nzd0ZmYzVkNOMFpyS29oUVJyNm9rbjB0UjFJbklLMW5WdEZZb0RrL0RBR2xMemhLcUlyTGk1VHFKVkdndXhEempzcjE3YU0zVGJtLzI1ck5uSVdRQkJSYXg0QXZud2xYT3htNjJ4d2Zyai9ZQVB6NWJoKzdsWkEzSGJUdEFPaDM2NXk0SHozK0FpY1Fxcjh1Yk56aU01OVhJZ281aEoxVGp2YWplNkkxRXlTVmY4N3hXSVlKc1pCQkVYRmp3REJaN3RLYktJZ2FCVlMxWUxZcGdXaFRoS3NuWUw3NmhZMG5uVUFzY3krUDNmaGphWnVKWXR2YXVMKzZQaCs2REZoVXI3V0pyb3RJUWxsZ2IrbjJuTGR1dGNseS8xK2pqNDlCZGRadTBQemNUMTNhQUh1Um83OUpGdmN5TVMvSzgyKzZQNzdYbGNkTVBYVE5CRGtmRTAyN2prT2JOaEQ3dCt1NndCYUxHd2NYSGI5RHZoemhrNjJaeStUTTBnY0N4Wk0yRVlac1dZRmR3OEpKV1FSckNGZ1l6aTVySktDMncxeFdBVWJNQ200Yk41UCtIcEJLaEZpR1diVG1xWEtncWYxRUtFWXhuYWc3L29GSGpweFdYRlV2bG1wY1ZqRkpSNm96Q1dOSlV5V0xrUlYwN2xxcXpSNldDVnpYTCtxYUFGRFFHZnlzd0F2NTNzVURHN1pkTFJSblJnb1pKZGxIS0xjemJjSXlaNFJzS0hUYVFhNkNaZ1R5Vm5TVjV5aGxjKzNvaEUxRkpSS1NBcVlkaXpWOWxzSlF3aUJ5a2tISlY3UWI3NSt4aGQ3OTVjSWJkNHRQVDVtRTkzZjdsbkRZNHY5OUU1TS9sS2o2MTE1K0hXdmxmUG41OGUxb1dQSmt2UUV1dU93T2ZBdi9yeldLeDYxS0VpQmxGRHJ4WWJCcWJ2c2VJeVNJK1F6N3lISGZHWGg4RXhjT1VPVzRZVTNQR1k4OGtVWVJOSDN1MjZVNng3ZnVJMmRnT0wycFczS2xyY0JuYWVHRmVYVW9UK3MrL0FXa2RhL3c9KhtHQURNZWRpYXRpb25BZGFwdGVyRmFjZWJvb2s.&amp;adk=1561289525&amp;jsv=sdk_20230315_RC00</t>
+  </si>
+  <si>
     <t>request_header_list</t>
   </si>
   <si>
+    <t>[{'name': 'Host', 'value': 's.amazon-adsystem.com'}, {'name': 'Content-Type', 'value': 'application/x-www-form-urlencoded'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Accept', 'value': 'application/json'}, {'name': 'User-Agent', 'value': '11Alive/1 CFNetwork/978.0.7 Darwin/18.5.0'}, {'name': 'Accept-Language', 'value': 'en-us'}, {'name': 'Content-Length', 'value': '710'}, {'name': 'Accept-Encoding', 'value': 'br, gzip, deflate'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Host', 'value': 'pubads.g.doubleclick.net'}, {'name': 'Accept', 'value': '*/*'}, {'name': 'Cookie', 'value': 'IDE=AHWqTUl6dBtbSgNihezmTrmGMmBcoyz4ZVICfq8CQJdrkpEdLzlLe9V-Tdhz3qNJlgo'}, {'name': 'User-Agent', 'value': 'Mozilla/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Mobile/15E148'}, {'name': 'Accept-Language', 'value': 'en-us'}, {'name': 'Accept-Encoding', 'value': 'br, gzip, deflate'}, {'name': 'Connection', 'value': 'keep-alive'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Host', 'value': 'pubads.g.doubleclick.net'}, {'name': 'Accept', 'value': '*/*'}, {'name': 'Cookie', 'value': 'IDE=AHWqTUngIpUwoU8W7tnfv1RzEbvQ4Jdw6gij6kjegPtmS2Kkm0Tciu9JZqwk4sR20KY'}, {'name': 'User-Agent', 'value': 'Mozilla/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Mobile/15E148'}, {'name': 'Accept-Language', 'value': 'en-us'}, {'name': 'Accept-Encoding', 'value': 'br, gzip, deflate'}, {'name': 'Connection', 'value': 'keep-alive'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Host', 'value': 'aax.amazon-adsystem.com'}, {'name': 'Content-Type', 'value': 'application/json'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Accept', 'value': 'application/json'}, {'name': 'User-Agent', 'value': '11Alive/1 CFNetwork/978.0.7 Darwin/18.5.0'}, {'name': 'Content-Length', 'value': '3340'}, {'name': 'Accept-Language', 'value': 'en-us'}, {'name': 'Accept-Encoding', 'value': 'br, gzip, deflate'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Host', 'value': 'aax.amazon-adsystem.com'}, {'name': 'Content-Type', 'value': 'application/json'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Accept', 'value': 'application/json'}, {'name': 'User-Agent', 'value': '11Alive/1 CFNetwork/978.0.7 Darwin/18.5.0'}, {'name': 'Content-Length', 'value': '3348'}, {'name': 'Accept-Language', 'value': 'en-us'}, {'name': 'Accept-Encoding', 'value': 'br, gzip, deflate'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Host', 'value': 'aax.amazon-adsystem.com'}, {'name': 'Content-Type', 'value': 'application/json'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Accept', 'value': 'application/json'}, {'name': 'User-Agent', 'value': '11Alive/1 CFNetwork/978.0.7 Darwin/18.5.0'}, {'name': 'Content-Length', 'value': '3349'}, {'name': 'Accept-Language', 'value': 'en-us'}, {'name': 'Accept-Encoding', 'value': 'br, gzip, deflate'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Host', 'value': 'aax.amazon-adsystem.com'}, {'name': 'Content-Type', 'value': 'application/json'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Accept', 'value': 'application/json'}, {'name': 'User-Agent', 'value': '11Alive/1 CFNetwork/978.0.7 Darwin/18.5.0'}, {'name': 'Content-Length', 'value': '3341'}, {'name': 'Accept-Language', 'value': 'en-us'}, {'name': 'Accept-Encoding', 'value': 'br, gzip, deflate'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Host', 'value': 'aax.amazon-adsystem.com'}, {'name': 'Content-Type', 'value': 'application/json'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Accept', 'value': 'application/json'}, {'name': 'User-Agent', 'value': '11Alive/1 CFNetwork/978.0.7 Darwin/18.5.0'}, {'name': 'Content-Length', 'value': '3342'}, {'name': 'Accept-Language', 'value': 'en-us'}, {'name': 'Accept-Encoding', 'value': 'br, gzip, deflate'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Host', 'value': 'aax.amazon-adsystem.com'}, {'name': 'Content-Type', 'value': 'application/json'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Accept', 'value': 'application/json'}, {'name': 'User-Agent', 'value': '11Alive/1 CFNetwork/978.0.7 Darwin/18.5.0'}, {'name': 'Content-Length', 'value': '3350'}, {'name': 'Accept-Language', 'value': 'en-us'}, {'name': 'Accept-Encoding', 'value': 'br, gzip, deflate'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Host', 'value': 'aax.amazon-adsystem.com'}, {'name': 'Content-Type', 'value': 'application/json'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Accept', 'value': 'application/json'}, {'name': 'User-Agent', 'value': '11Alive/1 CFNetwork/978.0.7 Darwin/18.5.0'}, {'name': 'Content-Length', 'value': '3343'}, {'name': 'Accept-Language', 'value': 'en-us'}, {'name': 'Accept-Encoding', 'value': 'br, gzip, deflate'}]</t>
+  </si>
+  <si>
     <t>requestBody_list</t>
   </si>
   <si>
+    <t>{'params': [{'name': 'adId', 'value': 'A7AHj-jiDUvMrvajPlbhPfc'}, {'name': 'dt', 'value': 'iphone'}, {'name': 'app', 'value': 'app'}, {'name': 'aud', 'value': '3p'}, {'name': 'idfa', 'value': '63D56BFA-7EF8-4CC2-9280-6320991D020B'}, {'name': 'oo', 'value': '0'}, {'name': 'dinfo', 'value': '{"screenSize":"375x667","scalingFactor":"2.0","orientation":"portrait","connectionType":"Wifi","osVersion":"12.2","os":"iOS","language":"en","make":"Apple","hwv":"iPhone10,1","ppi":"326","country":"US","model":"iPhone10,1","carrier":"Verizon"}'}, {'name': 'ua', 'value': 'Mozilla/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Mobile/15E148'}, {'name': 'appId', 'value': '1fa510b854a0407eba6f0dc5e2b93730'}], 'mimeType': 'application/x-www-form-urlencoded'}</t>
+  </si>
+  <si>
+    <t>{'text': '', 'mimeType': ''}</t>
+  </si>
+  <si>
+    <t>{'text': '{"ats":"false","ad-id":"A7AHj-jiDUvMrvajPlbhPfc","pkg":{"pn":"com.gannett.news.local.11AliveNews","lbl":"11Alive","v":"1","vn":"44.0.52"},"geoloc":"39.174683, -86.491936, 65.000000, 0","idfa":"63D56BFA-7EF8-4CC2-9280-6320991D020B","isDTBMobile":"true","adsdk":"aps-ios-3.4.6","appId":"1fa510b854a0407eba6f0dc5e2b93730","pj":{"cstm":{"fwk":"native","cturl":"https:\\/\\/www.11alive.com\\/","sdur":"8","impd":"1"}},"fcoo":"false","oo":"false","skadn":["cstr6suwn9.skadnetwork","v9wttpbfk9.skadnetwork","n38lu8286q.skadnetwork","2u9pt9hc89.skadnetwork","p78axxw29g.skadnetwork","3rd42ekr43.skadnetwork","3sh42y64q3.skadnetwork","4468km3ulz.skadnetwork","44jx6755aq.skadnetwork","488r3q3dtq.skadnetwork","4pfyvq9l8r.skadnetwork","578prtvx9j.skadnetwork","5a6flpkh64.skadnetwork","5l3tpt7t6e.skadnetwork","6xzpu9s2p8.skadnetwork","7rz58n8ntl.skadnetwork","7ug5zh24hu.skadnetwork","8m87ys6875.skadnetwork","8s468mfl3y.skadnetwork","97r2b46745.skadnetwork","9rd848q2bz.skadnetwork","c6k4g5qg8m.skadnetwork","cg4yq2srnc.skadnetwork","cj5566h2ga.skadnetwork","ejvt5qm6ak.skadnetwork","f38h382jlk.skadnetwork","f73kdq92p3.skadnetwork","hs6bdukanm.skadnetwork","kbd757ywx3.skadnetwork","klf5c3l5u5.skadnetwork","mlmmfzh3r3.skadnetwork","mls7yz5dvl.skadnetwork","ppxm28t8ap.skadnetwork","prcb7njmu6.skadnetwork","tl55sbb4fm.skadnetwork","uw77j35x4d.skadnetwork","v72qych5uu.skadnetwork","wg4vff78zm.skadnetwork","yclnxrl5pm.skadnetwork","ydx93a7ass.skadnetwork","zmvfpc5aq8.skadnetwork","m8dbw4sv7c.skadnetwork","4fzdc2evr5.skadnetwork","ludvb6z3bs.skadnetwork","s39g8k73mm.skadnetwork","3qy4746246.skadnetwork","t38b2kh725.skadnetwork","n6fk4nfna4.skadnetwork","av6w8kgt66.skadnetwork","y2ed4ez56y.skadnetwork","424m5254lk.skadnetwork","ecpz2srf59.skadnetwork","zq492l623r.skadnetwork","hjevpa356n.skadnetwork","3qcr597p9d.skadnetwork","2fnua5tdw4.skadnetwork","9t245vhmpl.skadnetwork","mtkv5xtk9e.skadnetwork","rx5hdcabgc.skadnetwork","k674qkevps.skadnetwork","wzmmz9fp6w.skadnetwork","g28c52eehv.skadnetwork","9nlqeag3gk.skadnetwork","5lm9lj6jb7.skadnetwork","e5fvkxwrpn.skadnetwork","r45fhb6rf7.skadnetwork","52fl2v3hgk.skadnetwork","pwa73g5rt2.skadnetwork","523jb4fst2.skadnetwork","ggvn48r87g.skadnetwork","24t9a8vw3c.skadnetwork","feyaarzu9v.skadnetwork","n9x2a789qt.skadnetwork","glqzh8vgby.skadnetwork","gta9lk7p23.skadnetwork","5tjdwbrq8w.skadnetwork","22mmun2rn5.skadnetwork","6g9af3uyq4.skadnetwork","u679fj5vs4.skadnetwork","275upjj5gd.skadnetwork","x44k69ngh6.skadnetwork","32z4fx6l9h.skadnetwork","w9q455wk68.skadnetwork","m5mvw97r93.skadnetwork","89z7zv988g.skadnetwork","hb56zgv37p.skadnetwork","rvh3l7un93.skadnetwork","mp6xlyr22a.skadnetwork","qqp299437r.skadnetwork","b9bk5wbcq9.skadnetwork","bxvub5ada5.skadnetwork","kbmxgpxpgc.skadnetwork","6v7lgmsu45.skadnetwork","m297p6643m.skadnetwork","294l99pt4k.skadnetwork"],"dinfo":{"screenSize":"375x667","scalingFactor":"2.0","orientation":"portrait","connectionType":"Wifi","osVersion":"12.2","os":"iOS","language":"en","make":"Apple","hwv":"iPhone10,1","ppi":"326","country":"US","model":"iPhone10,1","carrier":"Verizon"},"ua":"Mozilla\\/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit\\/605.1.15 (KHTML, like Gecko) Mobile\\/15E148","slots":[{"slot":"6a2f6af8-e71d-4fbd-8356-a0933c099952","slotId":1,"sz":"320x50","supportedMediaTypes":["DISPLAY"]}],"mraid":["1.0","2.0","3.0"]}', 'mimeType': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{'text': '{"ats":"false","ad-id":"A7AHj-jiDUvMrvajPlbhPfc","pkg":{"pn":"com.gannett.news.local.11AliveNews","lbl":"11Alive","v":"1","vn":"44.0.52"},"geoloc":"39.174683, -86.491955, 65.000000, 0","idfa":"63D56BFA-7EF8-4CC2-9280-6320991D020B","isDTBMobile":"true","adsdk":"aps-ios-3.4.6","appId":"1fa510b854a0407eba6f0dc5e2b93730","pj":{"cstm":{"fwk":"native","cturl":"https:\\/\\/www.11alive.com\\/weather","sdur":"16","impd":"1"}},"fcoo":"false","oo":"false","skadn":["cstr6suwn9.skadnetwork","v9wttpbfk9.skadnetwork","n38lu8286q.skadnetwork","2u9pt9hc89.skadnetwork","p78axxw29g.skadnetwork","3rd42ekr43.skadnetwork","3sh42y64q3.skadnetwork","4468km3ulz.skadnetwork","44jx6755aq.skadnetwork","488r3q3dtq.skadnetwork","4pfyvq9l8r.skadnetwork","578prtvx9j.skadnetwork","5a6flpkh64.skadnetwork","5l3tpt7t6e.skadnetwork","6xzpu9s2p8.skadnetwork","7rz58n8ntl.skadnetwork","7ug5zh24hu.skadnetwork","8m87ys6875.skadnetwork","8s468mfl3y.skadnetwork","97r2b46745.skadnetwork","9rd848q2bz.skadnetwork","c6k4g5qg8m.skadnetwork","cg4yq2srnc.skadnetwork","cj5566h2ga.skadnetwork","ejvt5qm6ak.skadnetwork","f38h382jlk.skadnetwork","f73kdq92p3.skadnetwork","hs6bdukanm.skadnetwork","kbd757ywx3.skadnetwork","klf5c3l5u5.skadnetwork","mlmmfzh3r3.skadnetwork","mls7yz5dvl.skadnetwork","ppxm28t8ap.skadnetwork","prcb7njmu6.skadnetwork","tl55sbb4fm.skadnetwork","uw77j35x4d.skadnetwork","v72qych5uu.skadnetwork","wg4vff78zm.skadnetwork","yclnxrl5pm.skadnetwork","ydx93a7ass.skadnetwork","zmvfpc5aq8.skadnetwork","m8dbw4sv7c.skadnetwork","4fzdc2evr5.skadnetwork","ludvb6z3bs.skadnetwork","s39g8k73mm.skadnetwork","3qy4746246.skadnetwork","t38b2kh725.skadnetwork","n6fk4nfna4.skadnetwork","av6w8kgt66.skadnetwork","y2ed4ez56y.skadnetwork","424m5254lk.skadnetwork","ecpz2srf59.skadnetwork","zq492l623r.skadnetwork","hjevpa356n.skadnetwork","3qcr597p9d.skadnetwork","2fnua5tdw4.skadnetwork","9t245vhmpl.skadnetwork","mtkv5xtk9e.skadnetwork","rx5hdcabgc.skadnetwork","k674qkevps.skadnetwork","wzmmz9fp6w.skadnetwork","g28c52eehv.skadnetwork","9nlqeag3gk.skadnetwork","5lm9lj6jb7.skadnetwork","e5fvkxwrpn.skadnetwork","r45fhb6rf7.skadnetwork","52fl2v3hgk.skadnetwork","pwa73g5rt2.skadnetwork","523jb4fst2.skadnetwork","ggvn48r87g.skadnetwork","24t9a8vw3c.skadnetwork","feyaarzu9v.skadnetwork","n9x2a789qt.skadnetwork","glqzh8vgby.skadnetwork","gta9lk7p23.skadnetwork","5tjdwbrq8w.skadnetwork","22mmun2rn5.skadnetwork","6g9af3uyq4.skadnetwork","u679fj5vs4.skadnetwork","275upjj5gd.skadnetwork","x44k69ngh6.skadnetwork","32z4fx6l9h.skadnetwork","w9q455wk68.skadnetwork","m5mvw97r93.skadnetwork","89z7zv988g.skadnetwork","hb56zgv37p.skadnetwork","rvh3l7un93.skadnetwork","mp6xlyr22a.skadnetwork","qqp299437r.skadnetwork","b9bk5wbcq9.skadnetwork","bxvub5ada5.skadnetwork","kbmxgpxpgc.skadnetwork","6v7lgmsu45.skadnetwork","m297p6643m.skadnetwork","294l99pt4k.skadnetwork"],"dinfo":{"screenSize":"375x667","scalingFactor":"2.0","orientation":"portrait","connectionType":"Wifi","osVersion":"12.2","os":"iOS","language":"en","make":"Apple","hwv":"iPhone10,1","ppi":"326","country":"US","model":"iPhone10,1","carrier":"Verizon"},"ua":"Mozilla\\/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit\\/605.1.15 (KHTML, like Gecko) Mobile\\/15E148","slots":[{"slot":"6a2f6af8-e71d-4fbd-8356-a0933c099952","slotId":1,"sz":"320x50","supportedMediaTypes":["DISPLAY"]}],"mraid":["1.0","2.0","3.0"]}', 'mimeType': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{'text': '{"ats":"false","ad-id":"A7AHj-jiDUvMrvajPlbhPfc","pkg":{"pn":"com.gannett.news.local.11AliveNews","lbl":"11Alive","v":"1","vn":"44.0.52"},"geoloc":"39.174652, -86.491929, 65.000000, 2","idfa":"63D56BFA-7EF8-4CC2-9280-6320991D020B","isDTBMobile":"true","adsdk":"aps-ios-3.4.6","appId":"1fa510b854a0407eba6f0dc5e2b93730","pj":{"cstm":{"fwk":"native","cturl":"https:\\/\\/www.11alive.com\\/weather","sdur":"37","impd":"2"}},"fcoo":"false","oo":"false","skadn":["cstr6suwn9.skadnetwork","v9wttpbfk9.skadnetwork","n38lu8286q.skadnetwork","2u9pt9hc89.skadnetwork","p78axxw29g.skadnetwork","3rd42ekr43.skadnetwork","3sh42y64q3.skadnetwork","4468km3ulz.skadnetwork","44jx6755aq.skadnetwork","488r3q3dtq.skadnetwork","4pfyvq9l8r.skadnetwork","578prtvx9j.skadnetwork","5a6flpkh64.skadnetwork","5l3tpt7t6e.skadnetwork","6xzpu9s2p8.skadnetwork","7rz58n8ntl.skadnetwork","7ug5zh24hu.skadnetwork","8m87ys6875.skadnetwork","8s468mfl3y.skadnetwork","97r2b46745.skadnetwork","9rd848q2bz.skadnetwork","c6k4g5qg8m.skadnetwork","cg4yq2srnc.skadnetwork","cj5566h2ga.skadnetwork","ejvt5qm6ak.skadnetwork","f38h382jlk.skadnetwork","f73kdq92p3.skadnetwork","hs6bdukanm.skadnetwork","kbd757ywx3.skadnetwork","klf5c3l5u5.skadnetwork","mlmmfzh3r3.skadnetwork","mls7yz5dvl.skadnetwork","ppxm28t8ap.skadnetwork","prcb7njmu6.skadnetwork","tl55sbb4fm.skadnetwork","uw77j35x4d.skadnetwork","v72qych5uu.skadnetwork","wg4vff78zm.skadnetwork","yclnxrl5pm.skadnetwork","ydx93a7ass.skadnetwork","zmvfpc5aq8.skadnetwork","m8dbw4sv7c.skadnetwork","4fzdc2evr5.skadnetwork","ludvb6z3bs.skadnetwork","s39g8k73mm.skadnetwork","3qy4746246.skadnetwork","t38b2kh725.skadnetwork","n6fk4nfna4.skadnetwork","av6w8kgt66.skadnetwork","y2ed4ez56y.skadnetwork","424m5254lk.skadnetwork","ecpz2srf59.skadnetwork","zq492l623r.skadnetwork","hjevpa356n.skadnetwork","3qcr597p9d.skadnetwork","2fnua5tdw4.skadnetwork","9t245vhmpl.skadnetwork","mtkv5xtk9e.skadnetwork","rx5hdcabgc.skadnetwork","k674qkevps.skadnetwork","wzmmz9fp6w.skadnetwork","g28c52eehv.skadnetwork","9nlqeag3gk.skadnetwork","5lm9lj6jb7.skadnetwork","e5fvkxwrpn.skadnetwork","r45fhb6rf7.skadnetwork","52fl2v3hgk.skadnetwork","pwa73g5rt2.skadnetwork","523jb4fst2.skadnetwork","ggvn48r87g.skadnetwork","24t9a8vw3c.skadnetwork","feyaarzu9v.skadnetwork","n9x2a789qt.skadnetwork","glqzh8vgby.skadnetwork","gta9lk7p23.skadnetwork","5tjdwbrq8w.skadnetwork","22mmun2rn5.skadnetwork","6g9af3uyq4.skadnetwork","u679fj5vs4.skadnetwork","275upjj5gd.skadnetwork","x44k69ngh6.skadnetwork","32z4fx6l9h.skadnetwork","w9q455wk68.skadnetwork","m5mvw97r93.skadnetwork","89z7zv988g.skadnetwork","hb56zgv37p.skadnetwork","rvh3l7un93.skadnetwork","mp6xlyr22a.skadnetwork","qqp299437r.skadnetwork","b9bk5wbcq9.skadnetwork","bxvub5ada5.skadnetwork","kbmxgpxpgc.skadnetwork","6v7lgmsu45.skadnetwork","m297p6643m.skadnetwork","294l99pt4k.skadnetwork"],"dinfo":{"screenSize":"375x667","scalingFactor":"2.0","orientation":"portrait","connectionType":"Wifi","osVersion":"12.2","os":"iOS","language":"en","make":"Apple","hwv":"iPhone10,1","ppi":"326","country":"US","model":"iPhone10,1","carrier":"Verizon"},"ua":"Mozilla\\/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit\\/605.1.15 (KHTML, like Gecko) Mobile\\/15E148","slots":[{"slot":"a4471ce0-497e-41d2-bf80-d0638897a743","slotId":1,"sz":"300x250","supportedMediaTypes":["DISPLAY"]}],"mraid":["1.0","2.0","3.0"]}', 'mimeType': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{'text': '{"ats":"false","ad-id":"A7AHj-jiDUvMrvajPlbhPfc","pkg":{"pn":"com.gannett.news.local.11AliveNews","lbl":"11Alive","v":"1","vn":"44.0.52"},"geoloc":"39.174683, -86.491924, 10.000000, 0","idfa":"63D56BFA-7EF8-4CC2-9280-6320991D020B","isDTBMobile":"true","adsdk":"aps-ios-3.4.6","appId":"1fa510b854a0407eba6f0dc5e2b93730","pj":{"cstm":{"fwk":"native","cturl":"https:\\/\\/www.11alive.com\\/","sdur":"46","impd":"4"}},"fcoo":"false","oo":"false","skadn":["cstr6suwn9.skadnetwork","v9wttpbfk9.skadnetwork","n38lu8286q.skadnetwork","2u9pt9hc89.skadnetwork","p78axxw29g.skadnetwork","3rd42ekr43.skadnetwork","3sh42y64q3.skadnetwork","4468km3ulz.skadnetwork","44jx6755aq.skadnetwork","488r3q3dtq.skadnetwork","4pfyvq9l8r.skadnetwork","578prtvx9j.skadnetwork","5a6flpkh64.skadnetwork","5l3tpt7t6e.skadnetwork","6xzpu9s2p8.skadnetwork","7rz58n8ntl.skadnetwork","7ug5zh24hu.skadnetwork","8m87ys6875.skadnetwork","8s468mfl3y.skadnetwork","97r2b46745.skadnetwork","9rd848q2bz.skadnetwork","c6k4g5qg8m.skadnetwork","cg4yq2srnc.skadnetwork","cj5566h2ga.skadnetwork","ejvt5qm6ak.skadnetwork","f38h382jlk.skadnetwork","f73kdq92p3.skadnetwork","hs6bdukanm.skadnetwork","kbd757ywx3.skadnetwork","klf5c3l5u5.skadnetwork","mlmmfzh3r3.skadnetwork","mls7yz5dvl.skadnetwork","ppxm28t8ap.skadnetwork","prcb7njmu6.skadnetwork","tl55sbb4fm.skadnetwork","uw77j35x4d.skadnetwork","v72qych5uu.skadnetwork","wg4vff78zm.skadnetwork","yclnxrl5pm.skadnetwork","ydx93a7ass.skadnetwork","zmvfpc5aq8.skadnetwork","m8dbw4sv7c.skadnetwork","4fzdc2evr5.skadnetwork","ludvb6z3bs.skadnetwork","s39g8k73mm.skadnetwork","3qy4746246.skadnetwork","t38b2kh725.skadnetwork","n6fk4nfna4.skadnetwork","av6w8kgt66.skadnetwork","y2ed4ez56y.skadnetwork","424m5254lk.skadnetwork","ecpz2srf59.skadnetwork","zq492l623r.skadnetwork","hjevpa356n.skadnetwork","3qcr597p9d.skadnetwork","2fnua5tdw4.skadnetwork","9t245vhmpl.skadnetwork","mtkv5xtk9e.skadnetwork","rx5hdcabgc.skadnetwork","k674qkevps.skadnetwork","wzmmz9fp6w.skadnetwork","g28c52eehv.skadnetwork","9nlqeag3gk.skadnetwork","5lm9lj6jb7.skadnetwork","e5fvkxwrpn.skadnetwork","r45fhb6rf7.skadnetwork","52fl2v3hgk.skadnetwork","pwa73g5rt2.skadnetwork","523jb4fst2.skadnetwork","ggvn48r87g.skadnetwork","24t9a8vw3c.skadnetwork","feyaarzu9v.skadnetwork","n9x2a789qt.skadnetwork","glqzh8vgby.skadnetwork","gta9lk7p23.skadnetwork","5tjdwbrq8w.skadnetwork","22mmun2rn5.skadnetwork","6g9af3uyq4.skadnetwork","u679fj5vs4.skadnetwork","275upjj5gd.skadnetwork","x44k69ngh6.skadnetwork","32z4fx6l9h.skadnetwork","w9q455wk68.skadnetwork","m5mvw97r93.skadnetwork","89z7zv988g.skadnetwork","hb56zgv37p.skadnetwork","rvh3l7un93.skadnetwork","mp6xlyr22a.skadnetwork","qqp299437r.skadnetwork","b9bk5wbcq9.skadnetwork","bxvub5ada5.skadnetwork","kbmxgpxpgc.skadnetwork","6v7lgmsu45.skadnetwork","m297p6643m.skadnetwork","294l99pt4k.skadnetwork"],"dinfo":{"screenSize":"375x667","scalingFactor":"2.0","orientation":"portrait","connectionType":"Wifi","osVersion":"12.2","os":"iOS","language":"en","make":"Apple","hwv":"iPhone10,1","ppi":"326","country":"US","model":"iPhone10,1","carrier":"Verizon"},"ua":"Mozilla\\/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit\\/605.1.15 (KHTML, like Gecko) Mobile\\/15E148","slots":[{"slot":"6a2f6af8-e71d-4fbd-8356-a0933c099952","slotId":1,"sz":"320x50","supportedMediaTypes":["DISPLAY"]}],"mraid":["1.0","2.0","3.0"]}', 'mimeType': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{'text': '{"ats":"false","ad-id":"A7AHj-jiDUvMrvajPlbhPfc","pkg":{"pn":"com.gannett.news.local.11AliveNews","lbl":"11Alive","v":"1","vn":"44.0.52"},"geoloc":"39.174683, -86.491924, 10.000000, 0","idfa":"63D56BFA-7EF8-4CC2-9280-6320991D020B","isDTBMobile":"true","adsdk":"aps-ios-3.4.6","appId":"1fa510b854a0407eba6f0dc5e2b93730","pj":{"cstm":{"fwk":"native","cturl":"https:\\/\\/www.11alive.com\\/","sdur":"49","impd":"4"}},"fcoo":"false","oo":"false","skadn":["cstr6suwn9.skadnetwork","v9wttpbfk9.skadnetwork","n38lu8286q.skadnetwork","2u9pt9hc89.skadnetwork","p78axxw29g.skadnetwork","3rd42ekr43.skadnetwork","3sh42y64q3.skadnetwork","4468km3ulz.skadnetwork","44jx6755aq.skadnetwork","488r3q3dtq.skadnetwork","4pfyvq9l8r.skadnetwork","578prtvx9j.skadnetwork","5a6flpkh64.skadnetwork","5l3tpt7t6e.skadnetwork","6xzpu9s2p8.skadnetwork","7rz58n8ntl.skadnetwork","7ug5zh24hu.skadnetwork","8m87ys6875.skadnetwork","8s468mfl3y.skadnetwork","97r2b46745.skadnetwork","9rd848q2bz.skadnetwork","c6k4g5qg8m.skadnetwork","cg4yq2srnc.skadnetwork","cj5566h2ga.skadnetwork","ejvt5qm6ak.skadnetwork","f38h382jlk.skadnetwork","f73kdq92p3.skadnetwork","hs6bdukanm.skadnetwork","kbd757ywx3.skadnetwork","klf5c3l5u5.skadnetwork","mlmmfzh3r3.skadnetwork","mls7yz5dvl.skadnetwork","ppxm28t8ap.skadnetwork","prcb7njmu6.skadnetwork","tl55sbb4fm.skadnetwork","uw77j35x4d.skadnetwork","v72qych5uu.skadnetwork","wg4vff78zm.skadnetwork","yclnxrl5pm.skadnetwork","ydx93a7ass.skadnetwork","zmvfpc5aq8.skadnetwork","m8dbw4sv7c.skadnetwork","4fzdc2evr5.skadnetwork","ludvb6z3bs.skadnetwork","s39g8k73mm.skadnetwork","3qy4746246.skadnetwork","t38b2kh725.skadnetwork","n6fk4nfna4.skadnetwork","av6w8kgt66.skadnetwork","y2ed4ez56y.skadnetwork","424m5254lk.skadnetwork","ecpz2srf59.skadnetwork","zq492l623r.skadnetwork","hjevpa356n.skadnetwork","3qcr597p9d.skadnetwork","2fnua5tdw4.skadnetwork","9t245vhmpl.skadnetwork","mtkv5xtk9e.skadnetwork","rx5hdcabgc.skadnetwork","k674qkevps.skadnetwork","wzmmz9fp6w.skadnetwork","g28c52eehv.skadnetwork","9nlqeag3gk.skadnetwork","5lm9lj6jb7.skadnetwork","e5fvkxwrpn.skadnetwork","r45fhb6rf7.skadnetwork","52fl2v3hgk.skadnetwork","pwa73g5rt2.skadnetwork","523jb4fst2.skadnetwork","ggvn48r87g.skadnetwork","24t9a8vw3c.skadnetwork","feyaarzu9v.skadnetwork","n9x2a789qt.skadnetwork","glqzh8vgby.skadnetwork","gta9lk7p23.skadnetwork","5tjdwbrq8w.skadnetwork","22mmun2rn5.skadnetwork","6g9af3uyq4.skadnetwork","u679fj5vs4.skadnetwork","275upjj5gd.skadnetwork","x44k69ngh6.skadnetwork","32z4fx6l9h.skadnetwork","w9q455wk68.skadnetwork","m5mvw97r93.skadnetwork","89z7zv988g.skadnetwork","hb56zgv37p.skadnetwork","rvh3l7un93.skadnetwork","mp6xlyr22a.skadnetwork","qqp299437r.skadnetwork","b9bk5wbcq9.skadnetwork","bxvub5ada5.skadnetwork","kbmxgpxpgc.skadnetwork","6v7lgmsu45.skadnetwork","m297p6643m.skadnetwork","294l99pt4k.skadnetwork"],"dinfo":{"screenSize":"375x667","scalingFactor":"2.0","orientation":"portrait","connectionType":"Wifi","osVersion":"12.2","os":"iOS","language":"en","make":"Apple","hwv":"iPhone10,1","ppi":"326","country":"US","model":"iPhone10,1","carrier":"Verizon"},"ua":"Mozilla\\/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit\\/605.1.15 (KHTML, like Gecko) Mobile\\/15E148","slots":[{"slot":"6a2f6af8-e71d-4fbd-8356-a0933c099952","slotId":1,"sz":"320x50","supportedMediaTypes":["DISPLAY"]}],"mraid":["1.0","2.0","3.0"]}', 'mimeType': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{'text': '{"ats":"false","ad-id":"A7AHj-jiDUvMrvajPlbhPfc","pkg":{"pn":"com.gannett.news.local.11AliveNews","lbl":"11Alive","v":"1","vn":"44.0.52"},"geoloc":"39.174774, -86.492011, 10.000000, 0","idfa":"63D56BFA-7EF8-4CC2-9280-6320991D020B","isDTBMobile":"true","adsdk":"aps-ios-3.4.6","appId":"1fa510b854a0407eba6f0dc5e2b93730","pj":{"cstm":{"fwk":"native","cturl":"https:\\/\\/www.11alive.com\\/","sdur":"55","impd":"5"}},"fcoo":"false","oo":"false","skadn":["cstr6suwn9.skadnetwork","v9wttpbfk9.skadnetwork","n38lu8286q.skadnetwork","2u9pt9hc89.skadnetwork","p78axxw29g.skadnetwork","3rd42ekr43.skadnetwork","3sh42y64q3.skadnetwork","4468km3ulz.skadnetwork","44jx6755aq.skadnetwork","488r3q3dtq.skadnetwork","4pfyvq9l8r.skadnetwork","578prtvx9j.skadnetwork","5a6flpkh64.skadnetwork","5l3tpt7t6e.skadnetwork","6xzpu9s2p8.skadnetwork","7rz58n8ntl.skadnetwork","7ug5zh24hu.skadnetwork","8m87ys6875.skadnetwork","8s468mfl3y.skadnetwork","97r2b46745.skadnetwork","9rd848q2bz.skadnetwork","c6k4g5qg8m.skadnetwork","cg4yq2srnc.skadnetwork","cj5566h2ga.skadnetwork","ejvt5qm6ak.skadnetwork","f38h382jlk.skadnetwork","f73kdq92p3.skadnetwork","hs6bdukanm.skadnetwork","kbd757ywx3.skadnetwork","klf5c3l5u5.skadnetwork","mlmmfzh3r3.skadnetwork","mls7yz5dvl.skadnetwork","ppxm28t8ap.skadnetwork","prcb7njmu6.skadnetwork","tl55sbb4fm.skadnetwork","uw77j35x4d.skadnetwork","v72qych5uu.skadnetwork","wg4vff78zm.skadnetwork","yclnxrl5pm.skadnetwork","ydx93a7ass.skadnetwork","zmvfpc5aq8.skadnetwork","m8dbw4sv7c.skadnetwork","4fzdc2evr5.skadnetwork","ludvb6z3bs.skadnetwork","s39g8k73mm.skadnetwork","3qy4746246.skadnetwork","t38b2kh725.skadnetwork","n6fk4nfna4.skadnetwork","av6w8kgt66.skadnetwork","y2ed4ez56y.skadnetwork","424m5254lk.skadnetwork","ecpz2srf59.skadnetwork","zq492l623r.skadnetwork","hjevpa356n.skadnetwork","3qcr597p9d.skadnetwork","2fnua5tdw4.skadnetwork","9t245vhmpl.skadnetwork","mtkv5xtk9e.skadnetwork","rx5hdcabgc.skadnetwork","k674qkevps.skadnetwork","wzmmz9fp6w.skadnetwork","g28c52eehv.skadnetwork","9nlqeag3gk.skadnetwork","5lm9lj6jb7.skadnetwork","e5fvkxwrpn.skadnetwork","r45fhb6rf7.skadnetwork","52fl2v3hgk.skadnetwork","pwa73g5rt2.skadnetwork","523jb4fst2.skadnetwork","ggvn48r87g.skadnetwork","24t9a8vw3c.skadnetwork","feyaarzu9v.skadnetwork","n9x2a789qt.skadnetwork","glqzh8vgby.skadnetwork","gta9lk7p23.skadnetwork","5tjdwbrq8w.skadnetwork","22mmun2rn5.skadnetwork","6g9af3uyq4.skadnetwork","u679fj5vs4.skadnetwork","275upjj5gd.skadnetwork","x44k69ngh6.skadnetwork","32z4fx6l9h.skadnetwork","w9q455wk68.skadnetwork","m5mvw97r93.skadnetwork","89z7zv988g.skadnetwork","hb56zgv37p.skadnetwork","rvh3l7un93.skadnetwork","mp6xlyr22a.skadnetwork","qqp299437r.skadnetwork","b9bk5wbcq9.skadnetwork","bxvub5ada5.skadnetwork","kbmxgpxpgc.skadnetwork","6v7lgmsu45.skadnetwork","m297p6643m.skadnetwork","294l99pt4k.skadnetwork"],"dinfo":{"screenSize":"375x667","scalingFactor":"2.0","orientation":"portrait","connectionType":"Wifi","osVersion":"12.2","os":"iOS","language":"en","make":"Apple","hwv":"iPhone10,1","ppi":"326","country":"US","model":"iPhone10,1","carrier":"Verizon"},"ua":"Mozilla\\/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit\\/605.1.15 (KHTML, like Gecko) Mobile\\/15E148","slots":[{"slot":"a4471ce0-497e-41d2-bf80-d0638897a743","slotId":1,"sz":"300x250","supportedMediaTypes":["DISPLAY"]}],"mraid":["1.0","2.0","3.0"]}', 'mimeType': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{'text': '{"ats":"false","ad-id":"A7AHj-jiDUvMrvajPlbhPfc","pkg":{"pn":"com.gannett.news.local.11AliveNews","lbl":"11Alive","v":"1","vn":"44.0.52"},"geoloc":"39.174774, -86.492011, 10.000000, 0","idfa":"63D56BFA-7EF8-4CC2-9280-6320991D020B","isDTBMobile":"true","adsdk":"aps-ios-3.4.6","appId":"1fa510b854a0407eba6f0dc5e2b93730","pj":{"cstm":{"fwk":"native","cturl":"https:\\/\\/www.11alive.com\\/weather","sdur":"60","impd":"6"}},"fcoo":"false","oo":"false","skadn":["cstr6suwn9.skadnetwork","v9wttpbfk9.skadnetwork","n38lu8286q.skadnetwork","2u9pt9hc89.skadnetwork","p78axxw29g.skadnetwork","3rd42ekr43.skadnetwork","3sh42y64q3.skadnetwork","4468km3ulz.skadnetwork","44jx6755aq.skadnetwork","488r3q3dtq.skadnetwork","4pfyvq9l8r.skadnetwork","578prtvx9j.skadnetwork","5a6flpkh64.skadnetwork","5l3tpt7t6e.skadnetwork","6xzpu9s2p8.skadnetwork","7rz58n8ntl.skadnetwork","7ug5zh24hu.skadnetwork","8m87ys6875.skadnetwork","8s468mfl3y.skadnetwork","97r2b46745.skadnetwork","9rd848q2bz.skadnetwork","c6k4g5qg8m.skadnetwork","cg4yq2srnc.skadnetwork","cj5566h2ga.skadnetwork","ejvt5qm6ak.skadnetwork","f38h382jlk.skadnetwork","f73kdq92p3.skadnetwork","hs6bdukanm.skadnetwork","kbd757ywx3.skadnetwork","klf5c3l5u5.skadnetwork","mlmmfzh3r3.skadnetwork","mls7yz5dvl.skadnetwork","ppxm28t8ap.skadnetwork","prcb7njmu6.skadnetwork","tl55sbb4fm.skadnetwork","uw77j35x4d.skadnetwork","v72qych5uu.skadnetwork","wg4vff78zm.skadnetwork","yclnxrl5pm.skadnetwork","ydx93a7ass.skadnetwork","zmvfpc5aq8.skadnetwork","m8dbw4sv7c.skadnetwork","4fzdc2evr5.skadnetwork","ludvb6z3bs.skadnetwork","s39g8k73mm.skadnetwork","3qy4746246.skadnetwork","t38b2kh725.skadnetwork","n6fk4nfna4.skadnetwork","av6w8kgt66.skadnetwork","y2ed4ez56y.skadnetwork","424m5254lk.skadnetwork","ecpz2srf59.skadnetwork","zq492l623r.skadnetwork","hjevpa356n.skadnetwork","3qcr597p9d.skadnetwork","2fnua5tdw4.skadnetwork","9t245vhmpl.skadnetwork","mtkv5xtk9e.skadnetwork","rx5hdcabgc.skadnetwork","k674qkevps.skadnetwork","wzmmz9fp6w.skadnetwork","g28c52eehv.skadnetwork","9nlqeag3gk.skadnetwork","5lm9lj6jb7.skadnetwork","e5fvkxwrpn.skadnetwork","r45fhb6rf7.skadnetwork","52fl2v3hgk.skadnetwork","pwa73g5rt2.skadnetwork","523jb4fst2.skadnetwork","ggvn48r87g.skadnetwork","24t9a8vw3c.skadnetwork","feyaarzu9v.skadnetwork","n9x2a789qt.skadnetwork","glqzh8vgby.skadnetwork","gta9lk7p23.skadnetwork","5tjdwbrq8w.skadnetwork","22mmun2rn5.skadnetwork","6g9af3uyq4.skadnetwork","u679fj5vs4.skadnetwork","275upjj5gd.skadnetwork","x44k69ngh6.skadnetwork","32z4fx6l9h.skadnetwork","w9q455wk68.skadnetwork","m5mvw97r93.skadnetwork","89z7zv988g.skadnetwork","hb56zgv37p.skadnetwork","rvh3l7un93.skadnetwork","mp6xlyr22a.skadnetwork","qqp299437r.skadnetwork","b9bk5wbcq9.skadnetwork","bxvub5ada5.skadnetwork","kbmxgpxpgc.skadnetwork","6v7lgmsu45.skadnetwork","m297p6643m.skadnetwork","294l99pt4k.skadnetwork"],"dinfo":{"screenSize":"375x667","scalingFactor":"2.0","orientation":"portrait","connectionType":"Wifi","osVersion":"12.2","os":"iOS","language":"en","make":"Apple","hwv":"iPhone10,1","ppi":"326","country":"US","model":"iPhone10,1","carrier":"Verizon"},"ua":"Mozilla\\/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit\\/605.1.15 (KHTML, like Gecko) Mobile\\/15E148","slots":[{"slot":"6a2f6af8-e71d-4fbd-8356-a0933c099952","slotId":1,"sz":"320x50","supportedMediaTypes":["DISPLAY"]}],"mraid":["1.0","2.0","3.0"]}', 'mimeType': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{'text': '{"ats":"false","ad-id":"A7AHj-jiDUvMrvajPlbhPfc","pkg":{"pn":"com.gannett.news.local.11AliveNews","lbl":"11Alive","v":"1","vn":"44.0.52"},"geoloc":"39.174774, -86.492011, 10.000000, 18","idfa":"63D56BFA-7EF8-4CC2-9280-6320991D020B","isDTBMobile":"true","adsdk":"aps-ios-3.4.6","appId":"1fa510b854a0407eba6f0dc5e2b93730","pj":{"cstm":{"fwk":"native","cturl":"https:\\/\\/www.11alive.com\\/weather","sdur":"80","impd":"7"}},"fcoo":"false","oo":"false","skadn":["cstr6suwn9.skadnetwork","v9wttpbfk9.skadnetwork","n38lu8286q.skadnetwork","2u9pt9hc89.skadnetwork","p78axxw29g.skadnetwork","3rd42ekr43.skadnetwork","3sh42y64q3.skadnetwork","4468km3ulz.skadnetwork","44jx6755aq.skadnetwork","488r3q3dtq.skadnetwork","4pfyvq9l8r.skadnetwork","578prtvx9j.skadnetwork","5a6flpkh64.skadnetwork","5l3tpt7t6e.skadnetwork","6xzpu9s2p8.skadnetwork","7rz58n8ntl.skadnetwork","7ug5zh24hu.skadnetwork","8m87ys6875.skadnetwork","8s468mfl3y.skadnetwork","97r2b46745.skadnetwork","9rd848q2bz.skadnetwork","c6k4g5qg8m.skadnetwork","cg4yq2srnc.skadnetwork","cj5566h2ga.skadnetwork","ejvt5qm6ak.skadnetwork","f38h382jlk.skadnetwork","f73kdq92p3.skadnetwork","hs6bdukanm.skadnetwork","kbd757ywx3.skadnetwork","klf5c3l5u5.skadnetwork","mlmmfzh3r3.skadnetwork","mls7yz5dvl.skadnetwork","ppxm28t8ap.skadnetwork","prcb7njmu6.skadnetwork","tl55sbb4fm.skadnetwork","uw77j35x4d.skadnetwork","v72qych5uu.skadnetwork","wg4vff78zm.skadnetwork","yclnxrl5pm.skadnetwork","ydx93a7ass.skadnetwork","zmvfpc5aq8.skadnetwork","m8dbw4sv7c.skadnetwork","4fzdc2evr5.skadnetwork","ludvb6z3bs.skadnetwork","s39g8k73mm.skadnetwork","3qy4746246.skadnetwork","t38b2kh725.skadnetwork","n6fk4nfna4.skadnetwork","av6w8kgt66.skadnetwork","y2ed4ez56y.skadnetwork","424m5254lk.skadnetwork","ecpz2srf59.skadnetwork","zq492l623r.skadnetwork","hjevpa356n.skadnetwork","3qcr597p9d.skadnetwork","2fnua5tdw4.skadnetwork","9t245vhmpl.skadnetwork","mtkv5xtk9e.skadnetwork","rx5hdcabgc.skadnetwork","k674qkevps.skadnetwork","wzmmz9fp6w.skadnetwork","g28c52eehv.skadnetwork","9nlqeag3gk.skadnetwork","5lm9lj6jb7.skadnetwork","e5fvkxwrpn.skadnetwork","r45fhb6rf7.skadnetwork","52fl2v3hgk.skadnetwork","pwa73g5rt2.skadnetwork","523jb4fst2.skadnetwork","ggvn48r87g.skadnetwork","24t9a8vw3c.skadnetwork","feyaarzu9v.skadnetwork","n9x2a789qt.skadnetwork","glqzh8vgby.skadnetwork","gta9lk7p23.skadnetwork","5tjdwbrq8w.skadnetwork","22mmun2rn5.skadnetwork","6g9af3uyq4.skadnetwork","u679fj5vs4.skadnetwork","275upjj5gd.skadnetwork","x44k69ngh6.skadnetwork","32z4fx6l9h.skadnetwork","w9q455wk68.skadnetwork","m5mvw97r93.skadnetwork","89z7zv988g.skadnetwork","hb56zgv37p.skadnetwork","rvh3l7un93.skadnetwork","mp6xlyr22a.skadnetwork","qqp299437r.skadnetwork","b9bk5wbcq9.skadnetwork","bxvub5ada5.skadnetwork","kbmxgpxpgc.skadnetwork","6v7lgmsu45.skadnetwork","m297p6643m.skadnetwork","294l99pt4k.skadnetwork"],"dinfo":{"screenSize":"375x667","scalingFactor":"2.0","orientation":"portrait","connectionType":"Wifi","osVersion":"12.2","os":"iOS","language":"en","make":"Apple","hwv":"iPhone10,1","ppi":"326","country":"US","model":"iPhone10,1","carrier":"Verizon"},"ua":"Mozilla\\/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit\\/605.1.15 (KHTML, like Gecko) Mobile\\/15E148","slots":[{"slot":"6a2f6af8-e71d-4fbd-8356-a0933c099952","slotId":1,"sz":"320x50","supportedMediaTypes":["DISPLAY"]}],"mraid":["1.0","2.0","3.0"]}', 'mimeType': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{'text': '{"ats":"false","ad-id":"A7AHj-jiDUvMrvajPlbhPfc","pkg":{"pn":"com.gannett.news.local.11AliveNews","lbl":"11Alive","v":"1","vn":"44.0.52"},"geoloc":"39.174774, -86.492011, 10.000000, 30","idfa":"63D56BFA-7EF8-4CC2-9280-6320991D020B","isDTBMobile":"true","adsdk":"aps-ios-3.4.6","appId":"1fa510b854a0407eba6f0dc5e2b93730","pj":{"cstm":{"fwk":"native","cturl":"https:\\/\\/www.11alive.com\\/weather","sdur":"93","impd":"8"}},"fcoo":"false","oo":"false","skadn":["cstr6suwn9.skadnetwork","v9wttpbfk9.skadnetwork","n38lu8286q.skadnetwork","2u9pt9hc89.skadnetwork","p78axxw29g.skadnetwork","3rd42ekr43.skadnetwork","3sh42y64q3.skadnetwork","4468km3ulz.skadnetwork","44jx6755aq.skadnetwork","488r3q3dtq.skadnetwork","4pfyvq9l8r.skadnetwork","578prtvx9j.skadnetwork","5a6flpkh64.skadnetwork","5l3tpt7t6e.skadnetwork","6xzpu9s2p8.skadnetwork","7rz58n8ntl.skadnetwork","7ug5zh24hu.skadnetwork","8m87ys6875.skadnetwork","8s468mfl3y.skadnetwork","97r2b46745.skadnetwork","9rd848q2bz.skadnetwork","c6k4g5qg8m.skadnetwork","cg4yq2srnc.skadnetwork","cj5566h2ga.skadnetwork","ejvt5qm6ak.skadnetwork","f38h382jlk.skadnetwork","f73kdq92p3.skadnetwork","hs6bdukanm.skadnetwork","kbd757ywx3.skadnetwork","klf5c3l5u5.skadnetwork","mlmmfzh3r3.skadnetwork","mls7yz5dvl.skadnetwork","ppxm28t8ap.skadnetwork","prcb7njmu6.skadnetwork","tl55sbb4fm.skadnetwork","uw77j35x4d.skadnetwork","v72qych5uu.skadnetwork","wg4vff78zm.skadnetwork","yclnxrl5pm.skadnetwork","ydx93a7ass.skadnetwork","zmvfpc5aq8.skadnetwork","m8dbw4sv7c.skadnetwork","4fzdc2evr5.skadnetwork","ludvb6z3bs.skadnetwork","s39g8k73mm.skadnetwork","3qy4746246.skadnetwork","t38b2kh725.skadnetwork","n6fk4nfna4.skadnetwork","av6w8kgt66.skadnetwork","y2ed4ez56y.skadnetwork","424m5254lk.skadnetwork","ecpz2srf59.skadnetwork","zq492l623r.skadnetwork","hjevpa356n.skadnetwork","3qcr597p9d.skadnetwork","2fnua5tdw4.skadnetwork","9t245vhmpl.skadnetwork","mtkv5xtk9e.skadnetwork","rx5hdcabgc.skadnetwork","k674qkevps.skadnetwork","wzmmz9fp6w.skadnetwork","g28c52eehv.skadnetwork","9nlqeag3gk.skadnetwork","5lm9lj6jb7.skadnetwork","e5fvkxwrpn.skadnetwork","r45fhb6rf7.skadnetwork","52fl2v3hgk.skadnetwork","pwa73g5rt2.skadnetwork","523jb4fst2.skadnetwork","ggvn48r87g.skadnetwork","24t9a8vw3c.skadnetwork","feyaarzu9v.skadnetwork","n9x2a789qt.skadnetwork","glqzh8vgby.skadnetwork","gta9lk7p23.skadnetwork","5tjdwbrq8w.skadnetwork","22mmun2rn5.skadnetwork","6g9af3uyq4.skadnetwork","u679fj5vs4.skadnetwork","275upjj5gd.skadnetwork","x44k69ngh6.skadnetwork","32z4fx6l9h.skadnetwork","w9q455wk68.skadnetwork","m5mvw97r93.skadnetwork","89z7zv988g.skadnetwork","hb56zgv37p.skadnetwork","rvh3l7un93.skadnetwork","mp6xlyr22a.skadnetwork","qqp299437r.skadnetwork","b9bk5wbcq9.skadnetwork","bxvub5ada5.skadnetwork","kbmxgpxpgc.skadnetwork","6v7lgmsu45.skadnetwork","m297p6643m.skadnetwork","294l99pt4k.skadnetwork"],"dinfo":{"screenSize":"375x667","scalingFactor":"2.0","orientation":"portrait","connectionType":"Wifi","osVersion":"12.2","os":"iOS","language":"en","make":"Apple","hwv":"iPhone10,1","ppi":"326","country":"US","model":"iPhone10,1","carrier":"Verizon"},"ua":"Mozilla\\/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit\\/605.1.15 (KHTML, like Gecko) Mobile\\/15E148","slots":[{"slot":"a4471ce0-497e-41d2-bf80-d0638897a743","slotId":1,"sz":"300x250","supportedMediaTypes":["DISPLAY"]}],"mraid":["1.0","2.0","3.0"]}', 'mimeType': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{'text': '{"ats":"false","ad-id":"A7AHj-jiDUvMrvajPlbhPfc","pkg":{"pn":"com.gannett.news.local.11AliveNews","lbl":"11Alive","v":"1","vn":"44.0.52"},"geoloc":"39.174774, -86.492011, 10.000000, 32","idfa":"63D56BFA-7EF8-4CC2-9280-6320991D020B","isDTBMobile":"true","adsdk":"aps-ios-3.4.6","appId":"1fa510b854a0407eba6f0dc5e2b93730","pj":{"cstm":{"fwk":"native","cturl":"https:\\/\\/www.11alive.com\\/","sdur":"94","impd":"8"}},"fcoo":"false","oo":"false","skadn":["cstr6suwn9.skadnetwork","v9wttpbfk9.skadnetwork","n38lu8286q.skadnetwork","2u9pt9hc89.skadnetwork","p78axxw29g.skadnetwork","3rd42ekr43.skadnetwork","3sh42y64q3.skadnetwork","4468km3ulz.skadnetwork","44jx6755aq.skadnetwork","488r3q3dtq.skadnetwork","4pfyvq9l8r.skadnetwork","578prtvx9j.skadnetwork","5a6flpkh64.skadnetwork","5l3tpt7t6e.skadnetwork","6xzpu9s2p8.skadnetwork","7rz58n8ntl.skadnetwork","7ug5zh24hu.skadnetwork","8m87ys6875.skadnetwork","8s468mfl3y.skadnetwork","97r2b46745.skadnetwork","9rd848q2bz.skadnetwork","c6k4g5qg8m.skadnetwork","cg4yq2srnc.skadnetwork","cj5566h2ga.skadnetwork","ejvt5qm6ak.skadnetwork","f38h382jlk.skadnetwork","f73kdq92p3.skadnetwork","hs6bdukanm.skadnetwork","kbd757ywx3.skadnetwork","klf5c3l5u5.skadnetwork","mlmmfzh3r3.skadnetwork","mls7yz5dvl.skadnetwork","ppxm28t8ap.skadnetwork","prcb7njmu6.skadnetwork","tl55sbb4fm.skadnetwork","uw77j35x4d.skadnetwork","v72qych5uu.skadnetwork","wg4vff78zm.skadnetwork","yclnxrl5pm.skadnetwork","ydx93a7ass.skadnetwork","zmvfpc5aq8.skadnetwork","m8dbw4sv7c.skadnetwork","4fzdc2evr5.skadnetwork","ludvb6z3bs.skadnetwork","s39g8k73mm.skadnetwork","3qy4746246.skadnetwork","t38b2kh725.skadnetwork","n6fk4nfna4.skadnetwork","av6w8kgt66.skadnetwork","y2ed4ez56y.skadnetwork","424m5254lk.skadnetwork","ecpz2srf59.skadnetwork","zq492l623r.skadnetwork","hjevpa356n.skadnetwork","3qcr597p9d.skadnetwork","2fnua5tdw4.skadnetwork","9t245vhmpl.skadnetwork","mtkv5xtk9e.skadnetwork","rx5hdcabgc.skadnetwork","k674qkevps.skadnetwork","wzmmz9fp6w.skadnetwork","g28c52eehv.skadnetwork","9nlqeag3gk.skadnetwork","5lm9lj6jb7.skadnetwork","e5fvkxwrpn.skadnetwork","r45fhb6rf7.skadnetwork","52fl2v3hgk.skadnetwork","pwa73g5rt2.skadnetwork","523jb4fst2.skadnetwork","ggvn48r87g.skadnetwork","24t9a8vw3c.skadnetwork","feyaarzu9v.skadnetwork","n9x2a789qt.skadnetwork","glqzh8vgby.skadnetwork","gta9lk7p23.skadnetwork","5tjdwbrq8w.skadnetwork","22mmun2rn5.skadnetwork","6g9af3uyq4.skadnetwork","u679fj5vs4.skadnetwork","275upjj5gd.skadnetwork","x44k69ngh6.skadnetwork","32z4fx6l9h.skadnetwork","w9q455wk68.skadnetwork","m5mvw97r93.skadnetwork","89z7zv988g.skadnetwork","hb56zgv37p.skadnetwork","rvh3l7un93.skadnetwork","mp6xlyr22a.skadnetwork","qqp299437r.skadnetwork","b9bk5wbcq9.skadnetwork","bxvub5ada5.skadnetwork","kbmxgpxpgc.skadnetwork","6v7lgmsu45.skadnetwork","m297p6643m.skadnetwork","294l99pt4k.skadnetwork"],"dinfo":{"screenSize":"375x667","scalingFactor":"2.0","orientation":"portrait","connectionType":"Wifi","osVersion":"12.2","os":"iOS","language":"en","make":"Apple","hwv":"iPhone10,1","ppi":"326","country":"US","model":"iPhone10,1","carrier":"Verizon"},"ua":"Mozilla\\/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit\\/605.1.15 (KHTML, like Gecko) Mobile\\/15E148","slots":[{"slot":"a4471ce0-497e-41d2-bf80-d0638897a743","slotId":1,"sz":"300x250","supportedMediaTypes":["DISPLAY"]}],"mraid":["1.0","2.0","3.0"]}', 'mimeType': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{'text': '{"ats":"false","ad-id":"A7AHj-jiDUvMrvajPlbhPfc","pkg":{"pn":"com.gannett.news.local.11AliveNews","lbl":"11Alive","v":"1","vn":"44.0.52"},"geoloc":"39.174774, -86.492011, 10.000000, 32","idfa":"63D56BFA-7EF8-4CC2-9280-6320991D020B","isDTBMobile":"true","adsdk":"aps-ios-3.4.6","appId":"1fa510b854a0407eba6f0dc5e2b93730","pj":{"cstm":{"fwk":"native","cturl":"https:\\/\\/www.11alive.com\\/","sdur":"94","impd":"8"}},"fcoo":"false","oo":"false","skadn":["cstr6suwn9.skadnetwork","v9wttpbfk9.skadnetwork","n38lu8286q.skadnetwork","2u9pt9hc89.skadnetwork","p78axxw29g.skadnetwork","3rd42ekr43.skadnetwork","3sh42y64q3.skadnetwork","4468km3ulz.skadnetwork","44jx6755aq.skadnetwork","488r3q3dtq.skadnetwork","4pfyvq9l8r.skadnetwork","578prtvx9j.skadnetwork","5a6flpkh64.skadnetwork","5l3tpt7t6e.skadnetwork","6xzpu9s2p8.skadnetwork","7rz58n8ntl.skadnetwork","7ug5zh24hu.skadnetwork","8m87ys6875.skadnetwork","8s468mfl3y.skadnetwork","97r2b46745.skadnetwork","9rd848q2bz.skadnetwork","c6k4g5qg8m.skadnetwork","cg4yq2srnc.skadnetwork","cj5566h2ga.skadnetwork","ejvt5qm6ak.skadnetwork","f38h382jlk.skadnetwork","f73kdq92p3.skadnetwork","hs6bdukanm.skadnetwork","kbd757ywx3.skadnetwork","klf5c3l5u5.skadnetwork","mlmmfzh3r3.skadnetwork","mls7yz5dvl.skadnetwork","ppxm28t8ap.skadnetwork","prcb7njmu6.skadnetwork","tl55sbb4fm.skadnetwork","uw77j35x4d.skadnetwork","v72qych5uu.skadnetwork","wg4vff78zm.skadnetwork","yclnxrl5pm.skadnetwork","ydx93a7ass.skadnetwork","zmvfpc5aq8.skadnetwork","m8dbw4sv7c.skadnetwork","4fzdc2evr5.skadnetwork","ludvb6z3bs.skadnetwork","s39g8k73mm.skadnetwork","3qy4746246.skadnetwork","t38b2kh725.skadnetwork","n6fk4nfna4.skadnetwork","av6w8kgt66.skadnetwork","y2ed4ez56y.skadnetwork","424m5254lk.skadnetwork","ecpz2srf59.skadnetwork","zq492l623r.skadnetwork","hjevpa356n.skadnetwork","3qcr597p9d.skadnetwork","2fnua5tdw4.skadnetwork","9t245vhmpl.skadnetwork","mtkv5xtk9e.skadnetwork","rx5hdcabgc.skadnetwork","k674qkevps.skadnetwork","wzmmz9fp6w.skadnetwork","g28c52eehv.skadnetwork","9nlqeag3gk.skadnetwork","5lm9lj6jb7.skadnetwork","e5fvkxwrpn.skadnetwork","r45fhb6rf7.skadnetwork","52fl2v3hgk.skadnetwork","pwa73g5rt2.skadnetwork","523jb4fst2.skadnetwork","ggvn48r87g.skadnetwork","24t9a8vw3c.skadnetwork","feyaarzu9v.skadnetwork","n9x2a789qt.skadnetwork","glqzh8vgby.skadnetwork","gta9lk7p23.skadnetwork","5tjdwbrq8w.skadnetwork","22mmun2rn5.skadnetwork","6g9af3uyq4.skadnetwork","u679fj5vs4.skadnetwork","275upjj5gd.skadnetwork","x44k69ngh6.skadnetwork","32z4fx6l9h.skadnetwork","w9q455wk68.skadnetwork","m5mvw97r93.skadnetwork","89z7zv988g.skadnetwork","hb56zgv37p.skadnetwork","rvh3l7un93.skadnetwork","mp6xlyr22a.skadnetwork","qqp299437r.skadnetwork","b9bk5wbcq9.skadnetwork","bxvub5ada5.skadnetwork","kbmxgpxpgc.skadnetwork","6v7lgmsu45.skadnetwork","m297p6643m.skadnetwork","294l99pt4k.skadnetwork"],"dinfo":{"screenSize":"375x667","scalingFactor":"2.0","orientation":"portrait","connectionType":"Wifi","osVersion":"12.2","os":"iOS","language":"en","make":"Apple","hwv":"iPhone10,1","ppi":"326","country":"US","model":"iPhone10,1","carrier":"Verizon"},"ua":"Mozilla\\/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit\\/605.1.15 (KHTML, like Gecko) Mobile\\/15E148","slots":[{"slot":"6a2f6af8-e71d-4fbd-8356-a0933c099952","slotId":1,"sz":"320x50","supportedMediaTypes":["DISPLAY"]}],"mraid":["1.0","2.0","3.0"]}', 'mimeType': 'application/json'}</t>
+  </si>
+  <si>
     <t>response_header_list</t>
   </si>
   <si>
+    <t>[{'name': 'Server', 'value': 'Server'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:46:18 GMT'}, {'name': 'Content-Type', 'value': 'text/plain;charset=ISO-8859-1'}, {'name': 'Content-Length', 'value': '86'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'x-amz-rid', 'value': 'QSRQJFJDNA2M0HY7PK2X'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Expires', 'value': 'Thu, 01 Jan 1970 00:00:00 GMT'}, {'name': 'Vary', 'value': 'Content-Type,Accept-Encoding,User-Agent'}, {'name': 'Strict-Transport-Security', 'value': 'max-age=47474747; includeSubDomains; preload'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-MediationGroup-Id', 'value': '-2'}, {'name': 'Google-MediationTag-Id', 'value': '-2'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"BB1oDm_ATZIaxAqaCmtUP9KKewAPoqKayRgAAABABINje1yo4AViR_eXTgwRgyeamiPSjwBCyAUo0NC4wLjUyLmlwaG9uZS5jb20uZ2FubmV0dC5uZXdzLmxvY2FsLjExYWxpdmVuZXdzLmFkc2Vuc2Vmb3Jtb2JpbGVhcHBzLmNvbboBCWdmcF9pbWFnZcgBAtoBUmh0dHA6Ly80NC4wLjUyLmlwaG9uZS5jb20uZ2FubmV0dC5uZXdzLmxvY2FsLjExYWxpdmVuZXdzLmFkc2Vuc2Vmb3Jtb2JpbGVhcHBzLmNvbS_AAgLgAgDqAjMvMzI4MDUzNTIvZ2EtYXRsYW50YS1XWElBLUIzMzIxX0FwcHMvc3BsYXNoX3Nwb25zb3L4AvzRHoADAZAD4AOYA-ADqAMByAOZBOAEAdIFCBDr8s2FFzABkAYBoAYU2AYCqAfz0RuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHAeAHAdIIDwiAYRABGB0yAooCOgKAQNgIAoAKBZgLAdAVAfgWAYAXAQ","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":true,"malicious_reporting_enabled":true,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '265x60'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-Ad-Size', 'value': '265x60'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CMbq5pCU4v0CFSaBpgQddJEHOA","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":true,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CMbq5pCU4v0CFSaBpgQddJEHOA\\u0026creatives=crid0:138419994257,agcid0:0,ctype0:20,ctid0:0,cuid0:0,lp0:https://googleads.g.doubleclick.net/pcs/click%3Fxai%3DAKAOjssy81pjjjAMVeaKs4ybz78AKqTXVPF0PzJvR2iK3Q4C1nz5nIb1dreSEFsInpFeLr1nzYw1tVb9dRSj5kfZlsa3UKlnsKnwOFq-bcMKYJOUrNSfEsWsImYgSFtJPGPn_Eg_xbH5HIfSPBUZdvxLkkkZErj5s64ZRxQvuI3RyOvUmbCJVZdBAggQXIv9jB-Ivd2IRU--HZkSbOEM2uY8a9ra88CxOBniULfBuZRA69O3pDMffDljuv2pU42fdZ9Tgk5tLWScIqyl_zT_ue1eLQ9zkZKYddftKokBOMxRDBui-VZlqUGoJZVR7_OxIwfjEmLgSFaUzgWDmNn8rU-wOB5HKcIObL1CRhXL_hI445vqKXN4-np4hqSdESM8GVi0fYhR1aGz9WfGShIf0EwjyobB_AIT3s8scBA7bBf49atVOqcMPsLn_AfvXZs%26sai%3DAMfl-YQHuVSBP03fRHUnBOvOXCetnYFiGKRzXtIE-z7lKIAWF_yWyWTfFrMa89UmrjkENAVjbF14KHNJlv8WjRjRzGXp7ot3o882vECROa_TXqbPKh-YQaqoy-KrwIhvEHXEvp1rUSIuFdO_iexPupCvCIahTZf5h3UuDHomrqfrtRmk1sYGyW4dnxN2bOJFDSVjIPDoZ8sTTBd5e0vY5UTiFVDLhU1XdcuIbbxSlPQ%26sig%3DCg0ArKJSzDdiNxlUAVRC%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttps://www.superiorplumbing.com%253Futm_source%253Dtegna%2526utm_medium%253Dlocal%2526utm_campaign%253DSuperior_Plumbing_app,loginfo0:BB1oDm_ATZIaxAqaCmtUP9KKewAPoqKayRgAAABABINje1yo4AViR_eXTgwRgyeamiPSjwBCyAUo0NC4wLjUyLmlwaG9uZS5jb20uZ2FubmV0dC5uZXdzLmxvY2FsLjExYWxpdmVuZXdzLmFkc2Vuc2Vmb3Jtb2JpbGVhcHBzLmNvbboBCWdmcF9pbWFnZcgBAtoBUmh0dHA6Ly80NC4wLjUyLmlwaG9uZS5jb20uZ2FubmV0dC5uZXdzLmxvY2FsLjExYWxpdmVuZXdzLmFkc2Vuc2Vmb3Jtb2JpbGVhcHBzLmNvbS_AAgLgAgDqAjMvMzI4MDUzNTIvZ2EtYXRsYW50YS1XWElBLUIzMzIxX0FwcHMvc3BsYXNoX3Nwb25zb3L4AvzRHoADAZAD4AOYA-ADqAMByAOZBOAEAdIFCBDr8s2FFzABkAYBoAYU2AYCqAfz0RuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHAeAHAdIIDwiAYRABGB0yAooCOgKAQNgIAoAKBZgLAdAVAfgWAYAXAQ\\u0026creatives_pb=CrEECBQQkf3l04MEGAAgACgAMp8EQkIxb0RtX0FUWklheEFxYUNtdFVQOUtLZXdBUG9xS2F5UmdBQUFCQUJJTmplMXlvNEFWaVJfZVhUZ3dSZ3llYW1pUFNqd0JDeUFVbzBOQzR3TGpVeUxtbHdhRzl1WlM1amIyMHVaMkZ1Ym1WMGRDNXVaWGR6TG14dlkyRnNMakV4WVd4cGRtVnVaWGR6TG1Ga2MyVnVjMlZtYjNKdGIySnBiR1ZoY0hCekxtTnZiYm9CQ1dkbWNGOXBiV0ZuWmNnQkF0b0JVbWgwZEhBNkx5ODBOQzR3TGpVeUxtbHdhRzl1WlM1amIyMHVaMkZ1Ym1WMGRDNXVaWGR6TG14dlkyRnNMakV4WVd4cGRtVnVaWGR6TG1Ga2MyVnVjMlZtYjNKdGIySnBiR1ZoY0hCekxtTnZiU19BQWdMZ0FnRHFBak12TXpJNE1EVXpOVEl2WjJFdFlYUnNZVzUwWVMxWFdFbEJMVUl6TXpJeFgwRndjSE12YzNCc1lYTm9YM053YjI1emIzTDRBdnpSSG9BREFaQUQ0QU9ZQS1BRHFBTUJ5QU9aQk9BRUFkSUZDQkRyOHMyRkZ6QUJrQVlCb0FZVTJBWUNxQWZ6MFJ1b0I1YllHNmdIcXB1eEFxZ0hfNTZ4QXFnSDM1LXhBdGdIQWVBSEFkSUlEd2lBWVJBQkdCMHlBb29DT2dLQVFOZ0lBb0FLQlpnTEFkQVZBZmdXQVlBWEFR\\u0026debugDialog=AppID%3D461033172%26Creatives%3D138419994257%26Lineitems%3D6185777515\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CMbq5pCU4v0CFSaBpgQddJEHOA\\u0026creatives=crid0:138419994257,agcid0:0,ctype0:20,ctid0:0,cuid0:0,lp0:https://googleads.g.doubleclick.net/pcs/click%3Fxai%3DAKAOjssy81pjjjAMVeaKs4ybz78AKqTXVPF0PzJvR2iK3Q4C1nz5nIb1dreSEFsInpFeLr1nzYw1tVb9dRSj5kfZlsa3UKlnsKnwOFq-bcMKYJOUrNSfEsWsImYgSFtJPGPn_Eg_xbH5HIfSPBUZdvxLkkkZErj5s64ZRxQvuI3RyOvUmbCJVZdBAggQXIv9jB-Ivd2IRU--HZkSbOEM2uY8a9ra88CxOBniULfBuZRA69O3pDMffDljuv2pU42fdZ9Tgk5tLWScIqyl_zT_ue1eLQ9zkZKYddftKokBOMxRDBui-VZlqUGoJZVR7_OxIwfjEmLgSFaUzgWDmNn8rU-wOB5HKcIObL1CRhXL_hI445vqKXN4-np4hqSdESM8GVi0fYhR1aGz9WfGShIf0EwjyobB_AIT3s8scBA7bBf49atVOqcMPsLn_AfvXZs%26sai%3DAMfl-YQHuVSBP03fRHUnBOvOXCetnYFiGKRzXtIE-z7lKIAWF_yWyWTfFrMa89UmrjkENAVjbF14KHNJlv8WjRjRzGXp7ot3o882vECROa_TXqbPKh-YQaqoy-KrwIhvEHXEvp1rUSIuFdO_iexPupCvCIahTZf5h3UuDHomrqfrtRmk1sYGyW4dnxN2bOJFDSVjIPDoZ8sTTBd5e0vY5UTiFVDLhU1XdcuIbbxSlPQ%26sig%3DCg0ArKJSzDdiNxlUAVRC%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttps://www.superiorplumbing.com%253Futm_source%253Dtegna%2526utm_medium%253Dlocal%2526utm_campaign%253DSuperior_Plumbing_app,loginfo0:BB1oDm_ATZIaxAqaCmtUP9KKewAPoqKayRgAAABABINje1yo4AViR_eXTgwRgyeamiPSjwBCyAUo0NC4wLjUyLmlwaG9uZS5jb20uZ2FubmV0dC5uZXdzLmxvY2FsLjExYWxpdmVuZXdzLmFkc2Vuc2Vmb3Jtb2JpbGVhcHBzLmNvbboBCWdmcF9pbWFnZcgBAtoBUmh0dHA6Ly80NC4wLjUyLmlwaG9uZS5jb20uZ2FubmV0dC5uZXdzLmxvY2FsLjExYWxpdmVuZXdzLmFkc2Vuc2Vmb3Jtb2JpbGVhcHBzLmNvbS_AAgLgAgDqAjMvMzI4MDUzNTIvZ2EtYXRsYW50YS1XWElBLUIzMzIxX0FwcHMvc3BsYXNoX3Nwb25zb3L4AvzRHoADAZAD4AOYA-ADqAMByAOZBOAEAdIFCBDr8s2FFzABkAYBoAYU2AYCqAfz0RuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHAeAHAdIIDwiAYRABGB0yAooCOgKAQNgIAoAKBZgLAdAVAfgWAYAXAQ\\u0026creatives_pb=CrEECBQQkf3l04MEGAAgACgAMp8EQkIxb0RtX0FUWklheEFxYUNtdFVQOUtLZXdBUG9xS2F5UmdBQUFCQUJJTmplMXlvNEFWaVJfZVhUZ3dSZ3llYW1pUFNqd0JDeUFVbzBOQzR3TGpVeUxtbHdhRzl1WlM1amIyMHVaMkZ1Ym1WMGRDNXVaWGR6TG14dlkyRnNMakV4WVd4cGRtVnVaWGR6TG1Ga2MyVnVjMlZtYjNKdGIySnBiR1ZoY0hCekxtTnZiYm9CQ1dkbWNGOXBiV0ZuWmNnQkF0b0JVbWgwZEhBNkx5ODBOQzR3TGpVeUxtbHdhRzl1WlM1amIyMHVaMkZ1Ym1WMGRDNXVaWGR6TG14dlkyRnNMakV4WVd4cGRtVnVaWGR6TG1Ga2MyVnVjMlZtYjNKdGIySnBiR1ZoY0hCekxtTnZiU19BQWdMZ0FnRHFBak12TXpJNE1EVXpOVEl2WjJFdFlYUnNZVzUwWVMxWFdFbEJMVUl6TXpJeFgwRndjSE12YzNCc1lYTm9YM053YjI1emIzTDRBdnpSSG9BREFaQUQ0QU9ZQS1BRHFBTUJ5QU9aQk9BRUFkSUZDQkRyOHMyRkZ6QUJrQVlCb0FZVTJBWUNxQWZ6MFJ1b0I1YllHNmdIcXB1eEFxZ0hfNTZ4QXFnSDM1LXhBdGdIQWVBSEFkSUlEd2lBWVJBQkdCMHlBb29DT2dLQVFOZ0lBb0FLQlpnTEFkQVZBZmdXQVlBWEFR\\u0026debugDialog=AppID%3D461033172%26Creatives%3D138419994257%26Lineitems%3D6185777515\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CMbq5pCU4v0CFSaBpgQddJEHOA'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AppID=461033172&amp;Creatives=138419994257&amp;Lineitems=6185777515'}, {'name': 'X-Afma-Gws-Query-Id', 'value': 'm_ATZLtphPYGv7COoAY'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://securepubads.g.doubleclick.net/pcs/view?xai=AKAOjsuQ11PfhHv4BIlW_1x_eBbQakWFiUeP_bO9V56bL1g6ActjUAI0WJx_7yC6WBDoyvDxg7vsq9v373se8a-nrYQlauYPvFCDUz-N1qrVlJQIAMiPXs_Fu-r6bdW5V1U8BqmXSaEVyLnBX-BOPwqLRmXDaxHic7dtO5GTH47eOX-XFtEqwOHSeSMLVuyG7nFg-0zNRkGrcXPZ0x-CQrrBX5OtcDoMGlZNBeTrdsbigSyI8WS0ak-YJ6h9cU1PSZeyw6_GwEvgD95z0IFHQ9eI4g_0sM9jot1gRNf847_Rlu6cHodkwyBPI4QK0m9Qrhqb8CfNrO5RD6B5r-Fcm_SgQgqUNW-ZRlcLXrdw794xbWYzy6WhkQpo1rBcGZpVOgeKKkV1V8I5hiL0RSEi3lSBUHqlK9cfoqUlO0B82XF07RaiuZ0eFhPeumKg7oJe3R0&amp;sai=AMfl-YR3VFpxjAgMOvakCCayfmm511e_ervfLexywN2twsQpSkH-1iVHEP1HZ_rqqB_RrE0CjIy7v1lxyFT62nFzz0vFNnoalJ1cdcZSmsNPzuImoBLZ5wsunYvcut-aJmxUwkCV3VV_2GDkE0B7EKRVnv4hOtzJ-5WT75tl-tYHTKcWnsQC-VEGvtxggfDymOC_ibleSE_j82C-sa1AZjuO5wASqJyGjN9kpht91OA&amp;sig=Cg0ArKJSzNSQMzXa_7IqEAE&amp;uach_m=[UACH]&amp;fbs_aeid=[gw_fbsaeid]&amp;adurl='}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:46:19 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '75940'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Set-Cookie', 'value': 'IDE=AHWqTUngIpUwoU8W7tnfv1RzEbvQ4Jdw6gij6kjegPtmS2Kkm0Tciu9JZqwk4sR20KY; expires=Thu, 18-Apr-2024 17:45:13 GMT; path=/; domain=.doubleclick.net; Secure; HttpOnly'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-MediationGroup-Id', 'value': '-2'}, {'name': 'Google-MediationTag-Id', 'value': '-2'}, {'name': 'X-Afma-Gws-Query-Id', 'value': 'o_ATZK6-F97x48APtcS8wAY'}, {'name': 'X-Afma-Ad-Size', 'value': '265x60'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CK6j5ZSU4v0CFUb3GAIdv5YEoA","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AppID=461033172&amp;Creatives=138419994257&amp;Lineitems=6185777515'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '265x60'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CK6j5ZSU4v0CFUb3GAIdv5YEoA'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":true,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CK6j5ZSU4v0CFUb3GAIdv5YEoA\\u0026creatives=crid0:138419994257,agcid0:0,ctype0:20,ctid0:0,cuid0:0,lp0:https://googleads.g.doubleclick.net/pcs/click%3Fxai%3DAKAOjsuR02eJGFt9rliE1KobIhZLBPVMnnAL1DvzDQY4oPRGi0EcF6oDysFCirWmiixzfMpDrO31U7bGGYg-7TK9WA3X-qNtvheaFnDeEqQoNpCKxhmYbssdbcgkCbfVCPehjuzGJ59jfZGc5BqEVQ-u4yfYbAEdT1RTFjAMWKHQrlwORbEyeLJJGJV4r4bnDRcHhOXhw2uUN9C9TbdcgwKztyTCmIg6BUVHBhdokPmubZ2QhCWN0bFQSuY0Kl6ge2RjW7H2oaBTBbHo4GoOO7Q7tDJ2LCPba5GTsnHQlgrMacknEQglm7Yujqo8sLBaRPGrIDZwLu5X8pP6CMIC35ppn5bewBOlbvzkvBaFlzxi1g7hNRcJLUoJgpJs7pEdV63zf0r1LvQyEmMk-G_qoXzJln24HiTiK7OKv3J_n2OGrct-CWtn8lCPsrXpz3o%26sai%3DAMfl-YSJ4tJap3xkLQ4wdpgLDB5n2QxVjII51hEyAj9W3WsVBbfX7fMJVwSYalplMOtLB1ky787XmEVUJc_IMxnlEu1RcZ6A_2tghbvfR37L1Lm539Kdi-_dOY0KSA-z_Ya_euT6AUh5rCSUgUCOGNfdSaVxxYxOEpctIy5qWVjqLFayjLevlFlF-ZrK9FhTEppLPOA6V0GL08MPGOSk_m2ymtKngj_0eAyvDqq1lmM%26sig%3DCg0ArKJSzB0UKEEj0Bhv%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttps://www.superiorplumbing.com%253Futm_source%253Dtegna%2526utm_medium%253Dlocal%2526utm_campaign%253DSuperior_Plumbing_app,loginfo0:Bhlrio_ATZO7FGMbu48APv62SgAroqKayRgAAABABINje1yo4AViR_eXTgwRgyeamiPSjwBCyAUo0NC4wLjUyLmlwaG9uZS5jb20uZ2FubmV0dC5uZXdzLmxvY2FsLjExYWxpdmVuZXdzLmFkc2Vuc2Vmb3Jtb2JpbGVhcHBzLmNvbboBCWdmcF9pbWFnZcgBAtoBUmh0dHA6Ly80NC4wLjUyLmlwaG9uZS5jb20uZ2FubmV0dC5uZXdzLmxvY2FsLjExYWxpdmVuZXdzLmFkc2Vuc2Vmb3Jtb2JpbGVhcHBzLmNvbS_AAgLgAgDqAjMvMzI4MDUzNTIvZ2EtYXRsYW50YS1XWElBLUIzMzIxX0FwcHMvc3BsYXNoX3Nwb25zb3L4AvzRHoADAZAD4AOYA-ADqAMByAOZBOAEAdIFCBDr8s2FFzABkAYBoAYU2AYCqAfz0RuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHAeAHAdIIDwiAYRABGB0yAooCOgKAQNgIAoAKBZgLAdAVAfgWAYAXAQ\\u0026creatives_pb=CrEECBQQkf3l04MEGAAgACgAMp8EQmhscmlvX0FUWk83RkdNYnU0OEFQdjYyU2dBcm9xS2F5UmdBQUFCQUJJTmplMXlvNEFWaVJfZVhUZ3dSZ3llYW1pUFNqd0JDeUFVbzBOQzR3TGpVeUxtbHdhRzl1WlM1amIyMHVaMkZ1Ym1WMGRDNXVaWGR6TG14dlkyRnNMakV4WVd4cGRtVnVaWGR6TG1Ga2MyVnVjMlZtYjNKdGIySnBiR1ZoY0hCekxtTnZiYm9CQ1dkbWNGOXBiV0ZuWmNnQkF0b0JVbWgwZEhBNkx5ODBOQzR3TGpVeUxtbHdhRzl1WlM1amIyMHVaMkZ1Ym1WMGRDNXVaWGR6TG14dlkyRnNMakV4WVd4cGRtVnVaWGR6TG1Ga2MyVnVjMlZtYjNKdGIySnBiR1ZoY0hCekxtTnZiU19BQWdMZ0FnRHFBak12TXpJNE1EVXpOVEl2WjJFdFlYUnNZVzUwWVMxWFdFbEJMVUl6TXpJeFgwRndjSE12YzNCc1lYTm9YM053YjI1emIzTDRBdnpSSG9BREFaQUQ0QU9ZQS1BRHFBTUJ5QU9aQk9BRUFkSUZDQkRyOHMyRkZ6QUJrQVlCb0FZVTJBWUNxQWZ6MFJ1b0I1YllHNmdIcXB1eEFxZ0hfNTZ4QXFnSDM1LXhBdGdIQWVBSEFkSUlEd2lBWVJBQkdCMHlBb29DT2dLQVFOZ0lBb0FLQlpnTEFkQVZBZmdXQVlBWEFR\\u0026debugDialog=AppID%3D461033172%26Creatives%3D138419994257%26Lineitems%3D6185777515\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CK6j5ZSU4v0CFUb3GAIdv5YEoA\\u0026creatives=crid0:138419994257,agcid0:0,ctype0:20,ctid0:0,cuid0:0,lp0:https://googleads.g.doubleclick.net/pcs/click%3Fxai%3DAKAOjsuR02eJGFt9rliE1KobIhZLBPVMnnAL1DvzDQY4oPRGi0EcF6oDysFCirWmiixzfMpDrO31U7bGGYg-7TK9WA3X-qNtvheaFnDeEqQoNpCKxhmYbssdbcgkCbfVCPehjuzGJ59jfZGc5BqEVQ-u4yfYbAEdT1RTFjAMWKHQrlwORbEyeLJJGJV4r4bnDRcHhOXhw2uUN9C9TbdcgwKztyTCmIg6BUVHBhdokPmubZ2QhCWN0bFQSuY0Kl6ge2RjW7H2oaBTBbHo4GoOO7Q7tDJ2LCPba5GTsnHQlgrMacknEQglm7Yujqo8sLBaRPGrIDZwLu5X8pP6CMIC35ppn5bewBOlbvzkvBaFlzxi1g7hNRcJLUoJgpJs7pEdV63zf0r1LvQyEmMk-G_qoXzJln24HiTiK7OKv3J_n2OGrct-CWtn8lCPsrXpz3o%26sai%3DAMfl-YSJ4tJap3xkLQ4wdpgLDB5n2QxVjII51hEyAj9W3WsVBbfX7fMJVwSYalplMOtLB1ky787XmEVUJc_IMxnlEu1RcZ6A_2tghbvfR37L1Lm539Kdi-_dOY0KSA-z_Ya_euT6AUh5rCSUgUCOGNfdSaVxxYxOEpctIy5qWVjqLFayjLevlFlF-ZrK9FhTEppLPOA6V0GL08MPGOSk_m2ymtKngj_0eAyvDqq1lmM%26sig%3DCg0ArKJSzB0UKEEj0Bhv%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttps://www.superiorplumbing.com%253Futm_source%253Dtegna%2526utm_medium%253Dlocal%2526utm_campaign%253DSuperior_Plumbing_app,loginfo0:Bhlrio_ATZO7FGMbu48APv62SgAroqKayRgAAABABINje1yo4AViR_eXTgwRgyeamiPSjwBCyAUo0NC4wLjUyLmlwaG9uZS5jb20uZ2FubmV0dC5uZXdzLmxvY2FsLjExYWxpdmVuZXdzLmFkc2Vuc2Vmb3Jtb2JpbGVhcHBzLmNvbboBCWdmcF9pbWFnZcgBAtoBUmh0dHA6Ly80NC4wLjUyLmlwaG9uZS5jb20uZ2FubmV0dC5uZXdzLmxvY2FsLjExYWxpdmVuZXdzLmFkc2Vuc2Vmb3Jtb2JpbGVhcHBzLmNvbS_AAgLgAgDqAjMvMzI4MDUzNTIvZ2EtYXRsYW50YS1XWElBLUIzMzIxX0FwcHMvc3BsYXNoX3Nwb25zb3L4AvzRHoADAZAD4AOYA-ADqAMByAOZBOAEAdIFCBDr8s2FFzABkAYBoAYU2AYCqAfz0RuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHAeAHAdIIDwiAYRABGB0yAooCOgKAQNgIAoAKBZgLAdAVAfgWAYAXAQ\\u0026creatives_pb=CrEECBQQkf3l04MEGAAgACgAMp8EQmhscmlvX0FUWk83RkdNYnU0OEFQdjYyU2dBcm9xS2F5UmdBQUFCQUJJTmplMXlvNEFWaVJfZVhUZ3dSZ3llYW1pUFNqd0JDeUFVbzBOQzR3TGpVeUxtbHdhRzl1WlM1amIyMHVaMkZ1Ym1WMGRDNXVaWGR6TG14dlkyRnNMakV4WVd4cGRtVnVaWGR6TG1Ga2MyVnVjMlZtYjNKdGIySnBiR1ZoY0hCekxtTnZiYm9CQ1dkbWNGOXBiV0ZuWmNnQkF0b0JVbWgwZEhBNkx5ODBOQzR3TGpVeUxtbHdhRzl1WlM1amIyMHVaMkZ1Ym1WMGRDNXVaWGR6TG14dlkyRnNMakV4WVd4cGRtVnVaWGR6TG1Ga2MyVnVjMlZtYjNKdGIySnBiR1ZoY0hCekxtTnZiU19BQWdMZ0FnRHFBak12TXpJNE1EVXpOVEl2WjJFdFlYUnNZVzUwWVMxWFdFbEJMVUl6TXpJeFgwRndjSE12YzNCc1lYTm9YM053YjI1emIzTDRBdnpSSG9BREFaQUQ0QU9ZQS1BRHFBTUJ5QU9aQk9BRUFkSUZDQkRyOHMyRkZ6QUJrQVlCb0FZVTJBWUNxQWZ6MFJ1b0I1YllHNmdIcXB1eEFxZ0hfNTZ4QXFnSDM1LXhBdGdIQWVBSEFkSUlEd2lBWVJBQkdCMHlBb29DT2dLQVFOZ0lBb0FLQlpnTEFkQVZBZmdXQVlBWEFR\\u0026debugDialog=AppID%3D461033172%26Creatives%3D138419994257%26Lineitems%3D6185777515\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://securepubads.g.doubleclick.net/pcs/view?xai=AKAOjstTeCDWnuzXoJVyIT0HwScZaJMtFjOJndv9Qx3q3L-uM5pNdvT9Z9W__zoLjOPSYNZxaywIoOoKy86bGkpmZbVCgksSXltWbNjkEATCFma7xfykAi8K2zPn9URhj6Rcxs48k3HWzcL77dx5PjDT1zowHjpyKUKwQq1I0MWQzKW-OhRBUx0310T46Din6kBcrBYRuPlzuZeBHKBQAzQYLnU55vpg1aM8jVCwxHiJOquy7sUB9mCzjbUtkTdMTOW_Anvo74mhXi7pccLhDltc2khCWxWBDqm1rgH25be9DFg-xPCIB1cPZE78U2PO-6GUxtmNUbxb7S9gg-jXqcSuRJQElQUDZ6vgzkcDWNmcArOeVA70End7daolhy5m9Qa4D8B2JXLqQ4nkYbJiC0mQabPZIdmPxdnxma9GNgmkifrNaKuZNzG89gN-KL75mME&amp;sai=AMfl-YTRX-qeJlVNXgkKagj9QRpyQeeqsMoUlMSbn08icTGzcQ1QVm1PqnRJvFBQfjwljGXI-8DEgiS7VPltp-st_9AsX0CzwRgau0tvj5gp8kmm5jVOPeIUQ53NUcxRpugvkpB-v4w6Hv8zNJY4NHsHrZ2XvQG2P3g4mXoUt-Io1_MaIY8qB-jH1avEoo1PEUdNpGzFIUdVqtkLMHBF9JrLK8Yb2Jg_nJzEn4LietM&amp;sig=Cg0ArKJSzHJzv3pUHb16EAE&amp;uach_m=[UACH]&amp;fbs_aeid=[gw_fbsaeid]&amp;adurl='}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"Bhlrio_ATZO7FGMbu48APv62SgAroqKayRgAAABABINje1yo4AViR_eXTgwRgyeamiPSjwBCyAUo0NC4wLjUyLmlwaG9uZS5jb20uZ2FubmV0dC5uZXdzLmxvY2FsLjExYWxpdmVuZXdzLmFkc2Vuc2Vmb3Jtb2JpbGVhcHBzLmNvbboBCWdmcF9pbWFnZcgBAtoBUmh0dHA6Ly80NC4wLjUyLmlwaG9uZS5jb20uZ2FubmV0dC5uZXdzLmxvY2FsLjExYWxpdmVuZXdzLmFkc2Vuc2Vmb3Jtb2JpbGVhcHBzLmNvbS_AAgLgAgDqAjMvMzI4MDUzNTIvZ2EtYXRsYW50YS1XWElBLUIzMzIxX0FwcHMvc3BsYXNoX3Nwb25zb3L4AvzRHoADAZAD4AOYA-ADqAMByAOZBOAEAdIFCBDr8s2FFzABkAYBoAYU2AYCqAfz0RuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHAeAHAdIIDwiAYRABGB0yAooCOgKAQNgIAoAKBZgLAdAVAfgWAYAXAQ","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":true,"malicious_reporting_enabled":true,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:46:27 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '75944'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-LineItem-Id', 'value': '-2'}, {'name': 'Google-Creative-Id', 'value': '-2'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Gws-Query-Id', 'value': 'qvATZObxIPWLmtUP5v6skAU'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:46:34 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '0'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Content-Type', 'value': 'text/javascript;charset=UTF-8'}, {'name': 'Content-Length', 'value': '597'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Server', 'value': 'Server'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:46:34 GMT'}, {'name': 'x-amz-rid', 'value': '5C5YA364A4HS3880GRCQ'}, {'name': 'Vary', 'value': 'Content-Type,Accept-Encoding,User-Agent'}, {'name': 'Strict-Transport-Security', 'value': 'max-age=47474747; includeSubDomains; preload'}, {'name': 'X-Cache', 'value': 'Miss from cloudfront'}, {'name': 'Via', 'value': '1.1 224ff291656c355124a517edfd057cea.cloudfront.net (CloudFront)'}, {'name': 'X-Amz-Cf-Pop', 'value': 'ORD56-P6'}, {'name': 'X-Amz-Cf-Id', 'value': 'hFmPjLolEwHDgV3spGeNTo7F_OX84wFahCbrOM8QNDzI9r3nzOWu2Q=='}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'X-Afma-Gws-Query-Id', 'value': 'qvATZPHKOOq8grAP-aOimA4'}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"Cy10bqvATZPiAO83o18cPyNeZ2APY95_Eb5i69oS4EcCNtwEQASCgq7UlYMnmpoj0o8AQoAHF_8-7KKgDAaoEiAJP0C6S7hVtx9G-onNNyppE08hc9Xw2d1uhImqebhhFn16FwegLs4prNupujLfJ4HC3e7tzrSMVOK_rOBbRZ2QHiDrONzMC1KfztSQ5ziCqj6XTBzJxXVLLNE-Mygca0RjBtjkOhipMIigIvXBBw_LI89ronN-tgZC49JURR0FNbdVW5OdG-CpMK-ZjRE_PdLlTYkzoSYBIh1ZeA98z9JHmY9lY1OQBK2wLhT_SiHffYsh80W_dwwAp4nXu26SZQMaV-o2Aw-yB4cMjqShAAEIwQOcMO3hivQnneWR84u6jXjgAjHBap8r1IV-a35rqBZxSokPOEDA8aXmPylRmEGhXQAmo8Peh1ObABP2P6aaeBIgFmtT_tT2QBgGgBhqAB8W3oJsDmAcBqAfNm7ECqAeZnbECqAemvhuoB9XJG6gHoQGoB63KG6gHrs0bqAf-nrECqAfz0RuoB5bYG6gHqpuxAqgH_56xAqgH35-xAqgHjtwbqAfJnLECuAeZucT8nMajzlrAB5rZA9gHAfoHGWNvbS5ldmVyeXBsYXRlLkV2ZXJ5UGxhdGWYCAGgCPWppgSwCAK4CAHSCA8IgGEQARgdMgKKAjoCgECxCb9jJxD_E6r_kAsF0AsDmAzP94WsnAT6DAIIAJoNAQOqDQJVU7gT4QKCFBgaFm1vYmlsZWFwcDo6MS00NjEwMzMxNzKIFAWwFQHQFQGYFgHKFjoKCjE0NzEzMTE4MzcaJgj4ytTUwrDn9eMBEMTPo5rTnu-jZBgAIAAqCTQ2MTAzMzE3MjABIK38AygB-BYBgBcB","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":false,"malicious_reporting_enabled":false,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '320x50'}, {'name': 'X-Afma-Ad-Size', 'value': '320x50'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AdGroup+Creative+ID+0=599158267160&amp;AdGroup+ID+0=145573431293&amp;App+ID=461033172&amp;Backend+Query+ID=CPj9spiU4v0CFU309QIdyGsGOw&amp;Creative+ID+0=646957119035&amp;Customer+ID+0=867514699&amp;Landing+Page+0=https://apps.apple.com/app/id1471311837%3Fmt%3D8%26gclid%3DEAIaIQobChMI-P2ymJTi_QIVTfT1Ah3IawY7EAEYASAAEgKNSfD_BwE&amp;URL+Clickstring+0=Cy10bqvATZPiAO83o18cPyNeZ2APY95_Eb5i69oS4EcCNtwEQASCgq7UlYMnmpoj0o8AQoAHF_8-7KKgDAaoEiAJP0C6S7hVtx9G-onNNyppE08hc9Xw2d1uhImqebhhFn16FwegLs4prNupujLfJ4HC3e7tzrSMVOK_rOBbRZ2QHiDrONzMC1KfztSQ5ziCqj6XTBzJxXVLLNE-Mygca0RjBtjkOhipMIigIvXBBw_LI89ronN-tgZC49JURR0FNbdVW5OdG-CpMK-ZjRE_PdLlTYkzoSYBIh1ZeA98z9JHmY9lY1OQBK2wLhT_SiHffYsh80W_dwwAp4nXu26SZQMaV-o2Aw-yB4cMjqShAAEIwQOcMO3hivQnneWR84u6jXjgAjHBap8r1IV-a35rqBZxSokPOEDA8aXmPylRmEGhXQAmo8Peh1ObABP2P6aaeBIgFmtT_tT2QBgGgBhqAB8W3oJsDmAcBqAfNm7ECqAeZnbECqAemvhuoB9XJG6gHoQGoB63KG6gHrs0bqAf-nrECqAfz0RuoB5bYG6gHqpuxAqgH_56xAqgH35-xAqgHjtwbqAfJnLECuAeZucT8nMajzlrAB5rZA9gHAfoHGWNvbS5ldmVyeXBsYXRlLkV2ZXJ5UGxhdGWYCAGgCPWppgSwCAK4CAHSCA8IgGEQARgdMgKKAjoCgECxCb9jJxD_E6r_kAsF0AsDmAzP94WsnAT6DAIIAJoNAQOqDQJVU7gT4QKCFBgaFm1vYmlsZWFwcDo6MS00NjEwMzMxNzKIFAWwFQHQFQGYFgHKFjoKCjE0NzEzMTE4MzcaJgj4ytTUwrDn9eMBEMTPo5rTnu-jZBgAIAAqCTQ2MTAzMzE3MjABIK38AygB-BYBgBcB'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CPj9spiU4v0CFU309QIdyGsGOw","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":false,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CPj9spiU4v0CFU309QIdyGsGOw\\u0026creatives=crid0:646957119035,agcid0:599158267160,ctype0:26,ctid0:353,cuid0:867514699,lp0:https://googleads.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCy10bqvATZPiAO83o18cPyNeZ2APY95_Eb5i69oS4EcCNtwEQASCgq7UlYMnmpoj0o8AQoAHF_8-7KKgDAaoEiAJP0C6S7hVtx9G-onNNyppE08hc9Xw2d1uhImqebhhFn16FwegLs4prNupujLfJ4HC3e7tzrSMVOK_rOBbRZ2QHiDrONzMC1KfztSQ5ziCqj6XTBzJxXVLLNE-Mygca0RjBtjkOhipMIigIvXBBw_LI89ronN-tgZC49JURR0FNbdVW5OdG-CpMK-ZjRE_PdLlTYkzoSYBIh1ZeA98z9JHmY9lY1OQBK2wLhT_SiHffYsh80W_dwwAp4nXu26SZQMaV-o2Aw-yB4cMjqShAAEIwQOcMO3hivQnneWR84u6jXjgAjHBap8r1IV-a35rqBZxSokPOEDA8aXmPylRmEGhXQAmo8Peh1ObABP2P6aaeBIgFmtT_tT2QBgGgBhqAB8W3oJsDmAcBqAfNm7ECqAeZnbECqAemvhuoB9XJG6gHoQGoB63KG6gHrs0bqAf-nrECqAfz0RuoB5bYG6gHqpuxAqgH_56xAqgH35-xAqgHjtwbqAfJnLECuAeZucT8nMajzlrAB5rZA9gHAfoHGWNvbS5ldmVyeXBsYXRlLkV2ZXJ5UGxhdGWYCAGgCPWppgSwCAK4CAHSCA8IgGEQARgdMgKKAjoCgECxCb9jJxD_E6r_kAsF0AsDmAzP94WsnAT6DAIIAJoNAQOqDQJVU7gT4QKCFBgaFm1vYmlsZWFwcDo6MS00NjEwMzMxNzKIFAWwFQHQFQGYFgHKFjoKCjE0NzEzMTE4MzcaJgj4ytTUwrDn9eMBEMTPo5rTnu-jZBgAIAAqCTQ2MTAzMzE3MjABIK38AygB-BYBgBcB%26ae%3D1%26num%3D1%26cid%3DCAQShgEA1BOcpje2wp9BfR5m22_H7E1yQzJWaDTJ3eFtW9bM7cZ-HxsaJ8SDnTCsG_9fS7w8tnGJRVOen4q4AMrWbd54lPUOnIYxwTqPQmVDiwl7KUDy605Fm2xs1iBqZ62woLr_1f57Q8HDr0g9h906F666ZXRhMtw9cGKQw6NGX_IYJLiiR7xuhRgB%26sig%3DAOD64_2AgyTpB_hTot-1AeM9ChcAbOjlVg%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttps://apps.apple.com/app/id1471311837%253Fmt%253D8%2526gclid%253DEAIaIQobChMI-P2ymJTi_QIVTfT1Ah3IawY7EAEYASAAEgKNSfD_BwE,loginfo0:Cy10bqvATZPiAO83o18cPyNeZ2APY95_Eb5i69oS4EcCNtwEQASCgq7UlYMnmpoj0o8AQoAHF_8-7KKgDAaoEiAJP0C6S7hVtx9G-onNNyppE08hc9Xw2d1uhImqebhhFn16FwegLs4prNupujLfJ4HC3e7tzrSMVOK_rOBbRZ2QHiDrONzMC1KfztSQ5ziCqj6XTBzJxXVLLNE-Mygca0RjBtjkOhipMIigIvXBBw_LI89ronN-tgZC49JURR0FNbdVW5OdG-CpMK-ZjRE_PdLlTYkzoSYBIh1ZeA98z9JHmY9lY1OQBK2wLhT_SiHffYsh80W_dwwAp4nXu26SZQMaV-o2Aw-yB4cMjqShAAEIwQOcMO3hivQnneWR84u6jXjgAjHBap8r1IV-a35rqBZxSokPOEDA8aXmPylRmEGhXQAmo8Peh1ObABP2P6aaeBIgFmtT_tT2QBgGgBhqAB8W3oJsDmAcBqAfNm7ECqAeZnbECqAemvhuoB9XJG6gHoQGoB63KG6gHrs0bqAf-nrECqAfz0RuoB5bYG6gHqpuxAqgH_56xAqgH35-xAqgHjtwbqAfJnLECuAeZucT8nMajzlrAB5rZA9gHAfoHGWNvbS5ldmVyeXBsYXRlLkV2ZXJ5UGxhdGWYCAGgCPWppgSwCAK4CAHSCA8IgGEQARgdMgKKAjoCgECxCb9jJxD_E6r_kAsF0AsDmAzP94WsnAT6DAIIAJoNAQOqDQJVU7gT4QKCFBgaFm1vYmlsZWFwcDo6MS00NjEwMzMxNzKIFAWwFQHQFQGYFgHKFjoKCjE0NzEzMTE4MzcaJgj4ytTUwrDn9eMBEMTPo5rTnu-jZBgAIAAqCTQ2MTAzMzE3MjABIK38AygB-BYBgBcB\\u0026creatives_pb=CpkHCBoQu-yYjeoSGJi69oS4ESDhAijL8tSdAzL9BkN5MTBicXZBVFpQaUFPODNvMThjUHlOZVoyQVBZOTVfRWI1aTY5b1M0RWNDTnR3RVFBU0NncTdVbFlNbm1wb2owbzhBUW9BSEZfOC03S0tnREFhb0VpQUpQMEM2UzdoVnR4OUctb25OTnlwcEUwOGhjOVh3MmQxdWhJbXFlYmhoRm4xNkZ3ZWdMczRwck51cHVqTGZKNEhDM2U3dHpyU01WT0tfck9CYlJaMlFIaURyT056TUMxS2Z6dFNRNXppQ3FqNlhUQnpKeFhWTExORS1NeWdjYTBSakJ0amtPaGlwTUlpZ0l2WEJCd19MSTg5cm9uTi10Z1pDNDlKVVJSMEZOYmRWVzVPZEctQ3BNSy1aalJFX1BkTGxUWWt6b1NZQkloMVplQTk4ejlKSG1ZOWxZMU9RQksyd0xoVF9TaUhmZllzaDgwV19kd3dBcDRuWHUyNlNaUU1hVi1vMkF3LXlCNGNNanFTaEFBRUl3UU9jTU8zaGl2UW5uZVdSODR1NmpYamdBakhCYXA4cjFJVi1hMzVycUJaeFNva1BPRURBOGFYbVB5bFJtRUdoWFFBbW84UGVoMU9iQUJQMlA2YWFlQklnRm10VF90VDJRQmdHZ0JocUFCOFczb0pzRG1BY0JxQWZObTdFQ3FBZVpuYkVDcUFlbXZodW9COVhKRzZnSG9RR29CNjNLRzZnSHJzMGJxQWYtbnJFQ3FBZnowUnVvQjViWUc2Z0hxcHV4QXFnSF81NnhBcWdIMzUteEFxZ0hqdHdicUFmSm5MRUN1QWVadWNUOG5NYWp6bHJBQjVyWkE5Z0hBZm9IR1dOdmJTNWxkbVZ5ZVhCc1lYUmxMa1YyWlhKNVVHeGhkR1dZQ0FHZ0NQV3BwZ1N3Q0FLNENBSFNDQThJZ0dFUUFSZ2RNZ0tLQWpvQ2dFQ3hDYjlqSnhEX0U2cl9rQXNGMEFzRG1BelA5NFdzbkFUNkRBSUlBSm9OQVFPcURRSlZVN2dUNFFLQ0ZCZ2FGbTF2WW1sc1pXRndjRG82TVMwME5qRXdNek14TnpLSUZBV3dGUUhRRlFHWUZnSEtGam9LQ2pFME56RXpNVEU0TXpjYUpnajR5dFRVd3JEbjllTUJFTVRQbzVyVG51LWpaQmdBSUFBcUNUUTJNVEF6TXpFM01qQUJJSzM4QXlnQi1CWUJnQmNC\\u0026debugDialog=AppID%3D461033172%26Creatives%3D646957119035%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CPj9spiU4v0CFU309QIdyGsGOw\\u0026creatives=crid0:646957119035,agcid0:599158267160,ctype0:26,ctid0:353,cuid0:867514699,lp0:https://googleads.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCy10bqvATZPiAO83o18cPyNeZ2APY95_Eb5i69oS4EcCNtwEQASCgq7UlYMnmpoj0o8AQoAHF_8-7KKgDAaoEiAJP0C6S7hVtx9G-onNNyppE08hc9Xw2d1uhImqebhhFn16FwegLs4prNupujLfJ4HC3e7tzrSMVOK_rOBbRZ2QHiDrONzMC1KfztSQ5ziCqj6XTBzJxXVLLNE-Mygca0RjBtjkOhipMIigIvXBBw_LI89ronN-tgZC49JURR0FNbdVW5OdG-CpMK-ZjRE_PdLlTYkzoSYBIh1ZeA98z9JHmY9lY1OQBK2wLhT_SiHffYsh80W_dwwAp4nXu26SZQMaV-o2Aw-yB4cMjqShAAEIwQOcMO3hivQnneWR84u6jXjgAjHBap8r1IV-a35rqBZxSokPOEDA8aXmPylRmEGhXQAmo8Peh1ObABP2P6aaeBIgFmtT_tT2QBgGgBhqAB8W3oJsDmAcBqAfNm7ECqAeZnbECqAemvhuoB9XJG6gHoQGoB63KG6gHrs0bqAf-nrECqAfz0RuoB5bYG6gHqpuxAqgH_56xAqgH35-xAqgHjtwbqAfJnLECuAeZucT8nMajzlrAB5rZA9gHAfoHGWNvbS5ldmVyeXBsYXRlLkV2ZXJ5UGxhdGWYCAGgCPWppgSwCAK4CAHSCA8IgGEQARgdMgKKAjoCgECxCb9jJxD_E6r_kAsF0AsDmAzP94WsnAT6DAIIAJoNAQOqDQJVU7gT4QKCFBgaFm1vYmlsZWFwcDo6MS00NjEwMzMxNzKIFAWwFQHQFQGYFgHKFjoKCjE0NzEzMTE4MzcaJgj4ytTUwrDn9eMBEMTPo5rTnu-jZBgAIAAqCTQ2MTAzMzE3MjABIK38AygB-BYBgBcB%26ae%3D1%26num%3D1%26cid%3DCAQShgEA1BOcpje2wp9BfR5m22_H7E1yQzJWaDTJ3eFtW9bM7cZ-HxsaJ8SDnTCsG_9fS7w8tnGJRVOen4q4AMrWbd54lPUOnIYxwTqPQmVDiwl7KUDy605Fm2xs1iBqZ62woLr_1f57Q8HDr0g9h906F666ZXRhMtw9cGKQw6NGX_IYJLiiR7xuhRgB%26sig%3DAOD64_2AgyTpB_hTot-1AeM9ChcAbOjlVg%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttps://apps.apple.com/app/id1471311837%253Fmt%253D8%2526gclid%253DEAIaIQobChMI-P2ymJTi_QIVTfT1Ah3IawY7EAEYASAAEgKNSfD_BwE,loginfo0:Cy10bqvATZPiAO83o18cPyNeZ2APY95_Eb5i69oS4EcCNtwEQASCgq7UlYMnmpoj0o8AQoAHF_8-7KKgDAaoEiAJP0C6S7hVtx9G-onNNyppE08hc9Xw2d1uhImqebhhFn16FwegLs4prNupujLfJ4HC3e7tzrSMVOK_rOBbRZ2QHiDrONzMC1KfztSQ5ziCqj6XTBzJxXVLLNE-Mygca0RjBtjkOhipMIigIvXBBw_LI89ronN-tgZC49JURR0FNbdVW5OdG-CpMK-ZjRE_PdLlTYkzoSYBIh1ZeA98z9JHmY9lY1OQBK2wLhT_SiHffYsh80W_dwwAp4nXu26SZQMaV-o2Aw-yB4cMjqShAAEIwQOcMO3hivQnneWR84u6jXjgAjHBap8r1IV-a35rqBZxSokPOEDA8aXmPylRmEGhXQAmo8Peh1ObABP2P6aaeBIgFmtT_tT2QBgGgBhqAB8W3oJsDmAcBqAfNm7ECqAeZnbECqAemvhuoB9XJG6gHoQGoB63KG6gHrs0bqAf-nrECqAfz0RuoB5bYG6gHqpuxAqgH_56xAqgH35-xAqgHjtwbqAfJnLECuAeZucT8nMajzlrAB5rZA9gHAfoHGWNvbS5ldmVyeXBsYXRlLkV2ZXJ5UGxhdGWYCAGgCPWppgSwCAK4CAHSCA8IgGEQARgdMgKKAjoCgECxCb9jJxD_E6r_kAsF0AsDmAzP94WsnAT6DAIIAJoNAQOqDQJVU7gT4QKCFBgaFm1vYmlsZWFwcDo6MS00NjEwMzMxNzKIFAWwFQHQFQGYFgHKFjoKCjE0NzEzMTE4MzcaJgj4ytTUwrDn9eMBEMTPo5rTnu-jZBgAIAAqCTQ2MTAzMzE3MjABIK38AygB-BYBgBcB\\u0026creatives_pb=CpkHCBoQu-yYjeoSGJi69oS4ESDhAijL8tSdAzL9BkN5MTBicXZBVFpQaUFPODNvMThjUHlOZVoyQVBZOTVfRWI1aTY5b1M0RWNDTnR3RVFBU0NncTdVbFlNbm1wb2owbzhBUW9BSEZfOC03S0tnREFhb0VpQUpQMEM2UzdoVnR4OUctb25OTnlwcEUwOGhjOVh3MmQxdWhJbXFlYmhoRm4xNkZ3ZWdMczRwck51cHVqTGZKNEhDM2U3dHpyU01WT0tfck9CYlJaMlFIaURyT056TUMxS2Z6dFNRNXppQ3FqNlhUQnpKeFhWTExORS1NeWdjYTBSakJ0amtPaGlwTUlpZ0l2WEJCd19MSTg5cm9uTi10Z1pDNDlKVVJSMEZOYmRWVzVPZEctQ3BNSy1aalJFX1BkTGxUWWt6b1NZQkloMVplQTk4ejlKSG1ZOWxZMU9RQksyd0xoVF9TaUhmZllzaDgwV19kd3dBcDRuWHUyNlNaUU1hVi1vMkF3LXlCNGNNanFTaEFBRUl3UU9jTU8zaGl2UW5uZVdSODR1NmpYamdBakhCYXA4cjFJVi1hMzVycUJaeFNva1BPRURBOGFYbVB5bFJtRUdoWFFBbW84UGVoMU9iQUJQMlA2YWFlQklnRm10VF90VDJRQmdHZ0JocUFCOFczb0pzRG1BY0JxQWZObTdFQ3FBZVpuYkVDcUFlbXZodW9COVhKRzZnSG9RR29CNjNLRzZnSHJzMGJxQWYtbnJFQ3FBZnowUnVvQjViWUc2Z0hxcHV4QXFnSF81NnhBcWdIMzUteEFxZ0hqdHdicUFmSm5MRUN1QWVadWNUOG5NYWp6bHJBQjVyWkE5Z0hBZm9IR1dOdmJTNWxkbVZ5ZVhCc1lYUmxMa1YyWlhKNVVHeGhkR1dZQ0FHZ0NQV3BwZ1N3Q0FLNENBSFNDQThJZ0dFUUFSZ2RNZ0tLQWpvQ2dFQ3hDYjlqSnhEX0U2cl9rQXNGMEFzRG1BelA5NFdzbkFUNkRBSUlBSm9OQVFPcURRSlZVN2dUNFFLQ0ZCZ2FGbTF2WW1sc1pXRndjRG82TVMwME5qRXdNek14TnpLSUZBV3dGUUhRRlFHWUZnSEtGam9LQ2pFME56RXpNVEU0TXpjYUpnajR5dFRVd3JEbjllTUJFTVRQbzVyVG51LWpaQmdBSUFBcUNUUTJNVEF6TXpFM01qQUJJSzM4QXlnQi1CWUJnQmNC\\u0026debugDialog=AppID%3D461033172%26Creatives%3D646957119035%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Bidding-Data', 'value': '{"bidding_data":[{"buyer_network_id":1203298,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1321765,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1182088,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1297865,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1256517,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174565,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174568,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1,"external_label":"Won","external_description":"Won the auction. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1503477,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1289820,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1446796,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1234559,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"}]}'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://pagead2.googleadservices.com/pagead/adview?ai=C6WxIqvATZPiAO83o18cPyNeZ2APY95_Eb5i69oS4EcCNtwEQASCgq7UlYMnmpoj0o8AQoAHF_8-7KKgDAaoEhQJP0C6S7hVtx9G-onNNyppE08hc9Xw2d1uhImqebhhFn16FwegLs4prNupujLfJ4HC3e7tzrSMVOK_rOBbRZ2QHiDrONzMC1KfztSQ5ziCqj6XTBzJxXVLLNE-Mygca0RjBtjkOhipMIigIvXBBw_LI89ronN-tgZC49JURR0FNbdVW5OdG-CpMK-ZjRE_PdLlTYkzoSYBIh1ZeA98z9JHmY9lY1OQBK2wLhT_SiHffYsh80W_dwwAp4nXu26SZQMaV-o2Aw-yB4cMjqShAAEIwQOcMO3hivQnneWR84u6jHDohHp34WKhq3jI2A7h68dpxqMfHPijc372tWqqkOkRPr45PkmjABP2P6aaeBIgFmtT_tT2QBgGgBhqAB8W3oJsDmAcBqAfNm7ECqAeZnbECqAemvhuoB9XJG6gHoQGoB63KG6gHrs0bqAf-nrECqAfz0RuoB5bYG6gHqpuxAqgH_56xAqgH35-xAqgHjtwbqAfJnLECuAeZucT8nMajzlrAB5rZA9gHAfoHGWNvbS5ldmVyeXBsYXRlLkV2ZXJ5UGxhdGWYCAGgCPWppgSwCAK4CAHSCA8IgGEQARgdMgKKAjoCgECxCb9jJxD_E6r_gAoDkAsFmAzP94WsnAT6DAIIAKoNAlVTuBPhAoIUGBoWbW9iaWxlYXBwOjoxLTQ2MTAzMzE3MogUBdAVAZgWAcoWOgoKMTQ3MTMxMTgzNxomCPjK1NTCsOf14wEQxM-jmtOe76NkGAAgACoJNDYxMDMzMTcyMAEgrfwDKAH4FgGAFwGyFxoKGAgAEhRwdWItMzY4Njk4MTQwNzgzOTY0Mg&amp;sigh=W274zi3qCgA&amp;cid=CAQShgEA1BOcpje2wp9BfR5m22_H7E1yQzJWaDTJ3eFtW9bM7cZ-HxsaJ8SDnTCsG_9fS7w8tnGJRVOen4q4AMrWbd54lPUOnIYxwTqPQmVDiwl7KUDy605Fm2xs1iBqZ62woLr_1f57Q8HDr0g9h906F666ZXRhMtw9cGKQw6NGX_IYJLiiR7xuhRgB&amp;gvr=1&amp;fbs_aeid=[gw_fbsaeid]'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CPj9spiU4v0CFU309QIdyGsGOw'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:46:35 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '68045'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-LineItem-Id', 'value': '-2'}, {'name': 'Google-Creative-Id', 'value': '-2'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Gws-Query-Id', 'value': 's_ATZIHrB-S7grAPqtCm-A4'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:46:43 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '0'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Content-Type', 'value': 'text/javascript;charset=UTF-8'}, {'name': 'Content-Length', 'value': '220'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Server', 'value': 'Server'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:46:43 GMT'}, {'name': 'x-amz-rid', 'value': 'MYGY7TR8FZ7YRBVGNCYJ'}, {'name': 'Vary', 'value': 'Content-Type,Accept-Encoding,User-Agent'}, {'name': 'Strict-Transport-Security', 'value': 'max-age=47474747; includeSubDomains; preload'}, {'name': 'X-Cache', 'value': 'Miss from cloudfront'}, {'name': 'Via', 'value': '1.1 05ddc5aa7d9c3a72d9d340fdc67e52c2.cloudfront.net (CloudFront)'}, {'name': 'X-Amz-Cf-Pop', 'value': 'ORD56-P6'}, {'name': 'X-Amz-Cf-Id', 'value': 'k4DqZfVkzxx7FbVP59b9JsELw6RSBp6DmZUbJjcUJc2whmrO1dE_wg=='}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-MediationGroup-Id', 'value': '87897'}, {'name': 'Google-MediationTag-Id', 'value': '141946'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CMDWzZyU4v0CFYKLAAAdn_4KNw'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-Gws-Query-Id', 'value': 's_ATZKm_LauQgrAP1J6K2A8'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CMDWzZyU4v0CFYKLAAAdn_4KNw","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://pubads.g.doubleclick.net/pagead/adview?ai=CFgEes_ATZICxMIKXgrAPn_2ruAP-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMByAMCqgSMAk_Q8Hmvk18Ql4PWbMdL3e6T8MR4lkbhk8oeLkuiYy7hIyhkzukxaHgfLJ2QWn1s9pqWQE_pa2eukzXW6CaF9YvugQPJtueJOy7M94MA22toCnfVaVrOO-Id1bYnvZ_37m4XODO8VaiA9QeF4F4RP9pqjzT4vHwi5wTM3Pw3pZW7tsPFtiNyv1Eo4I2TIhSz1qqDvy5zz0wIoZhDYYMy74Zhf0Am3FWcke_keFHiyjdAi94HgUftWA5MP_AfGqn142n7Lhjvl2Yf8nmZHT-fU4xYpFMw3IizN9dclwyq_hHh3hHF9q82L4hL_mpXZhHUSUNWUj_GFkMwkkLYqy0XTOyWJZHDq9kr_hc7JOPgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBAgAoD-gsCCAGADAHQFQGAFwGyFxwKGhIUcHViLTM2ODY5ODE0MDc4Mzk2NDIYyPoa&amp;sigh=oKnKOazaxkE&amp;uach_m=[UACH]&amp;cid=CAQShgEA1BOcpnoJoCXDGJEZRk9D2XxLCoDo_1oN6BLhivnbRUO55as_3Kva8YqX0g5E06FEvFJTz8KPpk2bzabLTGUd_TVmxCnCtEI4npRtdC8ggimYIuP6-lx_c2rfxOSdfdLFfq7mdlutRbG2ZvpGFFiCiV7laaiQ8xWvkarW8aqN3-Qe6gy9mxgB&amp;tpd=AGWhJmtlNgGENtmuAwLTl9E9dLOo2KL93pCY8m8ivlXQhQe1GO9FdZeEoEvly3Ki8DObzB6HImYwtL78Y1R1I5N-SJob_5Y51J2L17Hk0bj2HodZfl0MMHffvWY-E-nsLAm0C_n5VxvJ36V4B06GxhaJKV_DBylNFDdJdeWAzWZudNvL2ABP82-KJexvBkpUb8Ugq3QOdHZz9v06N6FOjMlrVI3W5bVFXbjK9n6y_Hs3chaKRs7Op9yJZME8tqLrchG6H4d0kpctbCTrdoQ9VgzTPcXyETiMdxI_rDsrzIIYjKw6xWbohv7Hk3-iQFsCu9rqB3H900_EfyzC1Qus9ZcXpAmRBgRuU9Hd9DYkk_RpUBcodHsssVP7QSE3OCh9Ii1WN3Ilz3I7lSF2TJIAUUZnubNMze5OKJ3qRjfq--TdfhF6-G5wPDGCjyNPbd5elR-L7sxCPuMB7aIr9tm4lMfByg55JlfUckypS4SeZ-RVl3PsuAtvKD7yIHJSOmMg22nqgjECg3A4XFtQ4hfBYLDGKXTSqTfGkDxySdrKffB7opJBgie6G0QWN9pbotoNGGb4jqBQdWYOyy_KWY0trkeFvHD-K0Vz63l75NUEEs_cdoSVdZ7Ws7ydRx2yqziQ6QAm0uc3UVE93Rn4eIWU-mSU5oicr8sNsY7itYvOaLMMtJ-0_mCHdf3i3rcj1mF_NHSJAKltuTz7YejLBIxeIEeufnXWIof8wvDa9vR1G_nu5wT6uQti3TAmT2IpnpxsMW_1fWV_FV9MIJjLw8HsrT3QXJTJFqrPnIwvntw8TBBgIAiIngjqSuZfTnTsHi0MscdX9gdxGpCUsESipITZ74FBrijU8ef6JRMz0-_VlaykunJNjvIw5bnh-wERLzE3d3aNj-F5FJy2fINSgLpuXYEuQMH3rwM82J59W1X69LX7oQZ3vJrfHTBsrbqnUPf3jF1JlzVoZe3-KSLOa4jCvlDJIVXIpKcKI_XUMvL0PV3DkHMZK7D8pB88JmJIUns4ZsY16tJJdCQRkRqJbYT76kRM2-NQECH0x7x58PtUyoCAd85LFRjgaiKd4nMcltr98bE_Hid6d--HbYxrZE3XTbdsn5uGC0n6o-lZ3zzKk_jDJ40Fbr2Wo2jMgvAdHR09KakCRCEEYRNBSIvTWvkUDnwWKDHqc73V_mL_s006ElMABygDzTbLPP9zp8LeAEWZWPm-9UORrqZu3EPTeXEEzIxJZTik13Z4liY4HN2gAgqdL1dCsy4zxUI64XLvstuqfwrkNIyBTPwBOimsegkGAMa3b8nH4Iag7vsbaWUJbrFIyvRLcJ_P6Pkdsc5gCw37VpmMSKWndtdcDyETNKEpqud_OchdYEESPSOihi41SEb0c5hHqD81eCgfmJcwg2wveb58TKgf5zOYmQ4boyK19A1l9r25RVk8hDN6GplQZerL_qsLWIrGFu6kxOwzeRinE0piBSV8euQO49U-K5rZjH_CKR0VRDDIZiJKAqE0c7bmSvIyy1Y0kQ&amp;fbs_aeid=[gw_fbsaeid]'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":true,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CMDWzZyU4v0CFYKLAAAdn_4KNw\\u0026creatives=crid0:97256181262,agcid0:97359194062,ctype0:33,ctid0:0,cuid0:154007422,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCKBOss_ATZICxMIKXgrAPn_2ruAP-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMByAMCqgSPAk_Q8Hmvk18Ql4PWbMdL3e6T8MR4lkbhk8oeLkuiYy7hIyhkzukxaHgfLJ2QWn1s9pqWQE_pa2eukzXW6CaF9YvugQPJtueJOy7M94MA22toCnfVaVrOO-Id1bYnvZ_37m4XODO8VaiA9QeF4F4RP9pqjzT4vHwi5wTM3Pw3pZW7tsPFtiNyv1Eo4I2TIhSz1qqDvy5zz0wIoZhDYYMy74Zhf0Am3FWcke_keFHiyjdAi94HgUftWA5MP_AfGqn142n7Lhjvl2Yf8nmZHT-fU4xYpFMw3IizN9dclwyq_hHh3hHF9q82L8pJ3viC_frg4qgV7-vYr7-HrmrRhTW35yCInGd9tfUzKajIEEha7BPgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE%26num%3D1%26sig%3DAOD64_2y_-koOkCcDDxA8U8kfrDopslPyw%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CKBOss_ATZICxMIKXgrAPn_2ruAP-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMByAMCqgSPAk_Q8Hmvk18Ql4PWbMdL3e6T8MR4lkbhk8oeLkuiYy7hIyhkzukxaHgfLJ2QWn1s9pqWQE_pa2eukzXW6CaF9YvugQPJtueJOy7M94MA22toCnfVaVrOO-Id1bYnvZ_37m4XODO8VaiA9QeF4F4RP9pqjzT4vHwi5wTM3Pw3pZW7tsPFtiNyv1Eo4I2TIhSz1qqDvy5zz0wIoZhDYYMy74Zhf0Am3FWcke_keFHiyjdAi94HgUftWA5MP_AfGqn142n7Lhjvl2Yf8nmZHT-fU4xYpFMw3IizN9dclwyq_hHh3hHF9q82L8pJ3viC_frg4qgV7-vYr7-HrmrRhTW35yCInGd9tfUzKajIEEha7BPgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE\\u0026creatives_pb=Cu4ECCEQjpyup-oCGM7PvdjqAiAAKP7ut0ky1ARDS0JPc3NfQVRaSUN4TUlLWGdyQVBuXzJydUFQLTBfZXZYTTdQdmRqcUFzQ050d0VRQVNBQVlNbm1wb2owbzhBUWdnRWVZMkV0YldJdFlYQndMWEIxWWkwek5qZzJPVGd4TkRBM09ETTVOalF5eUFFSjRBSUFxQU1CeUFNQ3FnU1BBa19ROEhtdmsxOFFsNFBXYk1kTDNlNlQ4TVI0bGtiaGs4b2VMa3VpWXk3aEl5aGt6dWt4YUhnZkxKMlFXbjFzOXBxV1FFX3BhMmV1a3pYVzZDYUY5WXZ1Z1FQSnR1ZUpPeTdNOTRNQTIydG9DbmZWYVZyT08tSWQxYlludlpfMzdtNFhPRE84VmFpQTlRZUY0RjRSUDlwcWp6VDR2SHdpNXdUTTNQdzNwWlc3dHNQRnRpTnl2MUVvNEkyVEloU3oxcXFEdnk1enowd0lvWmhEWVlNeTc0WmhmMEFtM0ZXY2tlX2tlRkhpeWpkQWk5NEhnVWZ0V0E1TVBfQWZHcW4xNDJuN0xoanZsMllmOG5tWkhULWZVNHhZcEZNdzNJaXpOOWRjbHd5cV9oSGgzaEhGOXE4Mkw4cEozdmlDX2ZyZzRxZ1Y3LXZZcjctSHJtclJoVFczNXlDSW5HZDl0ZlV6S2FqSUVFaGE3QlBnQkFHQUJ2WG5zdE9ydXZ5aUc2QUdJYWdIcHI0YnFBZVcyQnVvQjZxYnNRS29CXy1lc1FLb0I5LWZzUUxZQndEU0NBMElnR0VRQVRJQ2lnSTZBb0JBLWdzQ0NBR0FEQUhRRlFHQUZ3RQ\\u0026debugDialog=AppID%3D461033172%26Creatives%3D97256181262%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CMDWzZyU4v0CFYKLAAAdn_4KNw\\u0026creatives=crid0:97256181262,agcid0:97359194062,ctype0:33,ctid0:0,cuid0:154007422,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCKBOss_ATZICxMIKXgrAPn_2ruAP-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMByAMCqgSPAk_Q8Hmvk18Ql4PWbMdL3e6T8MR4lkbhk8oeLkuiYy7hIyhkzukxaHgfLJ2QWn1s9pqWQE_pa2eukzXW6CaF9YvugQPJtueJOy7M94MA22toCnfVaVrOO-Id1bYnvZ_37m4XODO8VaiA9QeF4F4RP9pqjzT4vHwi5wTM3Pw3pZW7tsPFtiNyv1Eo4I2TIhSz1qqDvy5zz0wIoZhDYYMy74Zhf0Am3FWcke_keFHiyjdAi94HgUftWA5MP_AfGqn142n7Lhjvl2Yf8nmZHT-fU4xYpFMw3IizN9dclwyq_hHh3hHF9q82L8pJ3viC_frg4qgV7-vYr7-HrmrRhTW35yCInGd9tfUzKajIEEha7BPgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE%26num%3D1%26sig%3DAOD64_2y_-koOkCcDDxA8U8kfrDopslPyw%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CKBOss_ATZICxMIKXgrAPn_2ruAP-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMByAMCqgSPAk_Q8Hmvk18Ql4PWbMdL3e6T8MR4lkbhk8oeLkuiYy7hIyhkzukxaHgfLJ2QWn1s9pqWQE_pa2eukzXW6CaF9YvugQPJtueJOy7M94MA22toCnfVaVrOO-Id1bYnvZ_37m4XODO8VaiA9QeF4F4RP9pqjzT4vHwi5wTM3Pw3pZW7tsPFtiNyv1Eo4I2TIhSz1qqDvy5zz0wIoZhDYYMy74Zhf0Am3FWcke_keFHiyjdAi94HgUftWA5MP_AfGqn142n7Lhjvl2Yf8nmZHT-fU4xYpFMw3IizN9dclwyq_hHh3hHF9q82L8pJ3viC_frg4qgV7-vYr7-HrmrRhTW35yCInGd9tfUzKajIEEha7BPgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE\\u0026creatives_pb=Cu4ECCEQjpyup-oCGM7PvdjqAiAAKP7ut0ky1ARDS0JPc3NfQVRaSUN4TUlLWGdyQVBuXzJydUFQLTBfZXZYTTdQdmRqcUFzQ050d0VRQVNBQVlNbm1wb2owbzhBUWdnRWVZMkV0YldJdFlYQndMWEIxWWkwek5qZzJPVGd4TkRBM09ETTVOalF5eUFFSjRBSUFxQU1CeUFNQ3FnU1BBa19ROEhtdmsxOFFsNFBXYk1kTDNlNlQ4TVI0bGtiaGs4b2VMa3VpWXk3aEl5aGt6dWt4YUhnZkxKMlFXbjFzOXBxV1FFX3BhMmV1a3pYVzZDYUY5WXZ1Z1FQSnR1ZUpPeTdNOTRNQTIydG9DbmZWYVZyT08tSWQxYlludlpfMzdtNFhPRE84VmFpQTlRZUY0RjRSUDlwcWp6VDR2SHdpNXdUTTNQdzNwWlc3dHNQRnRpTnl2MUVvNEkyVEloU3oxcXFEdnk1enowd0lvWmhEWVlNeTc0WmhmMEFtM0ZXY2tlX2tlRkhpeWpkQWk5NEhnVWZ0V0E1TVBfQWZHcW4xNDJuN0xoanZsMllmOG5tWkhULWZVNHhZcEZNdzNJaXpOOWRjbHd5cV9oSGgzaEhGOXE4Mkw4cEozdmlDX2ZyZzRxZ1Y3LXZZcjctSHJtclJoVFczNXlDSW5HZDl0ZlV6S2FqSUVFaGE3QlBnQkFHQUJ2WG5zdE9ydXZ5aUc2QUdJYWdIcHI0YnFBZVcyQnVvQjZxYnNRS29CXy1lc1FLb0I5LWZzUUxZQndEU0NBMElnR0VRQVRJQ2lnSTZBb0JBLWdzQ0NBR0FEQUhRRlFHQUZ3RQ\\u0026debugDialog=AppID%3D461033172%26Creatives%3D97256181262%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AdGroup+Creative+ID+0=97359194062&amp;AdGroup+ID+0=25972665742&amp;App+ID=461033172&amp;Backend+Query+ID=CMDWzZyU4v0CFYKLAAAdn_4KNw&amp;Creative+ID+0=97256181262&amp;Customer+ID+0=154007422&amp;Landing+Page+0=http://ignore_this_destination.com&amp;URL+Clickstring+0=CKBOss_ATZICxMIKXgrAPn_2ruAP-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMByAMCqgSPAk_Q8Hmvk18Ql4PWbMdL3e6T8MR4lkbhk8oeLkuiYy7hIyhkzukxaHgfLJ2QWn1s9pqWQE_pa2eukzXW6CaF9YvugQPJtueJOy7M94MA22toCnfVaVrOO-Id1bYnvZ_37m4XODO8VaiA9QeF4F4RP9pqjzT4vHwi5wTM3Pw3pZW7tsPFtiNyv1Eo4I2TIhSz1qqDvy5zz0wIoZhDYYMy74Zhf0Am3FWcke_keFHiyjdAi94HgUftWA5MP_AfGqn142n7Lhjvl2Yf8nmZHT-fU4xYpFMw3IizN9dclwyq_hHh3hHF9q82L8pJ3viC_frg4qgV7-vYr7-HrmrRhTW35yCInGd9tfUzKajIEEha7BPgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"CKBOss_ATZICxMIKXgrAPn_2ruAP-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMByAMCqgSPAk_Q8Hmvk18Ql4PWbMdL3e6T8MR4lkbhk8oeLkuiYy7hIyhkzukxaHgfLJ2QWn1s9pqWQE_pa2eukzXW6CaF9YvugQPJtueJOy7M94MA22toCnfVaVrOO-Id1bYnvZ_37m4XODO8VaiA9QeF4F4RP9pqjzT4vHwi5wTM3Pw3pZW7tsPFtiNyv1Eo4I2TIhSz1qqDvy5zz0wIoZhDYYMy74Zhf0Am3FWcke_keFHiyjdAi94HgUftWA5MP_AfGqn142n7Lhjvl2Yf8nmZHT-fU4xYpFMw3IizN9dclwyq_hHh3hHF9q82L8pJ3viC_frg4qgV7-vYr7-HrmrRhTW35yCInGd9tfUzKajIEEha7BPgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":true,"malicious_reporting_enabled":true,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '320x50'}, {'name': 'X-Afma-Bidding-Data', 'value': '{"bidding_data":[{"buyer_network_id":1203298,"external_label":"Won","external_description":"Won the auction. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1503477,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174565,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174568,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1289820,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1256517,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1446796,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1321765,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1234559,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1182088,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1297865,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"}]}'}, {'name': 'X-Afma-Ad-Size', 'value': '320x50'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:46:44 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '31684'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-MediationGroup-Id', 'value': '87897'}, {'name': 'Google-MediationTag-Id', 'value': '141946'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://pubads.g.doubleclick.net/pagead/adview?ai=CPnYAxvATZIWPMef8BO_jrbgO_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjAJP0FOH2VxAS5iG1qIIUDzytB9GMFTJLXcGAzFMboVhSUUuW3KIosMmZRaTCyCT9qrwo1axur2-0hlRvPH_NrC2xe23rU-qzcpqJFucIPjvWUXQNeqAYoKhFMTXdj-DjyE5IB-3mMQ3z_CdTRa9CpkCvZYAle2kLVsMVuauUfyW_rUhrOpWvIPd5B4yFwMMrAFYbu5hBxVCgWjLPHFNetnofEmkpbfAZwkvaBf4MMA_kLEMso18o3OizDrRiZ-L91IiSJwZCyCVk8rJIftt1r9fbBg8tZllqxjdWzQVhHTxWbFbuIBW7ZopVoS1OZb8hR-DH5AShH8mtP4BF4fk9zaimWGEmm-86nT2kHes4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQIAKA_oLAggBgAwB0BUBgBcBshccChoSFHB1Yi0zNjg2OTgxNDA3ODM5NjQyGMj6Gg&amp;sigh=AFsrHizh-qM&amp;uach_m=[UACH]&amp;cid=CAQShgEA1BOcpv2t_60dXKP09V-BmdEHjtAnDN99zzPYbAzqt6OU_MgaYO6wGjE75QYgeCq5aBQ6TFMB1S5k4ABmtOc083wQXklh7nnrggH-3xHeE2045k_78KdF5UTyKtRiLZjki_35fCGdi5r7dQi4PJnfe6Y4GsgPv3Cur0FTvebOJiFlIe8iGxgB&amp;tpd=AGWhJmsVAQzqHBUCelNA7vkPNL0kuUNYdxRdciUU0RSzjSrEJiZWURbYHRrzAjxwoyVuPSPqko-fQoZDxgsgAdaPqqacndzZzZcl9wjmQqt7kim4tNkdFhkAPPlVPbzZCWeN5-mHO3FGkwWMeQLBMfh-J-Quo_uJLwRvSdaHR7aRTyJwF6dwZxwqKuUA9a0tQpSChi5Ea9Wkbrhv39prS8uGl9lBxkAKMH1TjGLXTE-wmqmgC1uthosWBRjeNpArE1WA64mf6-oC6WehmYZrg4KZ4WDq7JBKGoFxozBntVlCRinK-dtVjHF14SgYAYE20zejALwQo2ZaeAzv5mLt587lK4bjULHieh7wx8y3x_vh9w_FVX-S99p7Sc23sgoBZ4e_xr0PuB5JlQsoMkuByM2w1rH7QkyS-tM51dyyz8Vr-kXjrr7T1DQPVrgySJdKHQlNrZiBrBuQhuNz7rQdyRRE1xWd0F-uYx1GYCBtrrBGQMdUQHSAKimJywArr7swVfSckxuH_F9y90y8F045GVw7XKWlIURD1yMVVM-hlGZYc9kTYp3uBztc0Uo1D_wKzgNqstG0eIEggu3LiMsxm27N66y0AR7UGoqvwk65-DI4KMCQE2JypdtwC6-JiNnWZVIzcm7gxXf9_-OUSHsxZ_XF66gY1vfyhEqq2Er26_zEWOYMqRFd-pL3-m6kudMRe1ieXwWUbdAdceG4HJtDr5Iw4DDeBnIYwLck_xddJBe4Rdysr35udyVFygCUeNQG0P7BkQp9er_cIOdS74uFzrmqU_l_dI1d3UFd2x0RF5RbRPn52llQWCe5J20w-HD66olCnt_jCPeWvVoTdI607tyMzvp6Wi1W_CnTO9gimoGKo_5GsIRq9Lf0jwC1rRWd8rgVFQZWEoo2UhYCO2dd7JYQXLIbc6NcCn51kc3-simMJfTgpJE9v3wuvjxMnqVnjeY-q2qFL769EZnuNc59MLYQQ7prDIhEbKo0h9mqWFWzazJsFYLS913V89m9K1GSw_zjz9ENsQbifrqn6hbuGJPDu11ew00yfHGv9MTkvSApyTUP2hVL04pXLCpQcb_gc_FvwEYE9pg6ScqfjxC5Gx1nEFLToPUGcQkDubpdqnZpdVm0k7tzlF4gN7byXLaefyj8I6g-It-qt9-qASTsbWTsN4ZaT0gGZK00JNijaLVHXu-DBqQ9bsBzgIhZJbkI9zz3TKVWpOfg90NxP8XI8OuP-VbKQXqAyvhiUB2-JUmBHb9ORhK_vYOJK-c4d6FJ-yH1GCxDNdZflIIe1Hg6HgtTQZuuIjQ58kd30qMz0yFLLqgU3PSnRM_eujkBfj1yC53zTgv5NHCn5sTVk2n84eK9VVQ_IVNNsR6NH6ws-6Eekqbr6anD7LKXl2uf3hH-TjIJr6vvYr6mr_d52WWt0MXMnZxKaLkR5n0fAvD2PdIddFyg-sUspLj5zDnvcc-jXDRgSH84g4SVSDgNnhIFOR3iDsr-Qz3tnFPoArd9jJZ9ZQe6XeDlsg&amp;fbs_aeid=[gw_fbsaeid]'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CIWK1qWU4v0CFWc-AQod73EL5w","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-Ad-Size', 'value': '320x50'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Gws-Query-Id', 'value': 'xvATZNCOLpS7BM2cnrgJ'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CIWK1qWU4v0CFWc-AQod73EL5w'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Bidding-Data', 'value': '{"bidding_data":[{"buyer_network_id":1203298,"external_label":"Won","external_description":"Won the auction. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1446796,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174568,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174565,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1503477,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1289820,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1182088,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1234559,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1256517,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1321765,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1297865,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"}]}'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AdGroup+Creative+ID+0=97359194062&amp;AdGroup+ID+0=25972665742&amp;App+ID=461033172&amp;Backend+Query+ID=CIWK1qWU4v0CFWc-AQod73EL5w&amp;Creative+ID+0=97256181262&amp;Customer+ID+0=154007422&amp;Landing+Page+0=http://ignore_this_destination.com&amp;URL+Clickstring+0=Cn1KVxvATZIWPMef8BO_jrbgO_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0FOH2VxAS5iG1qIIUDzytB9GMFTJLXcGAzFMboVhSUUuW3KIosMmZRaTCyCT9qrwo1axur2-0hlRvPH_NrC2xe23rU-qzcpqJFucIPjvWUXQNeqAYoKhFMTXdj-DjyE5IB-3mMQ3z_CdTRa9CpkCvZYAle2kLVsMVuauUfyW_rUhrOpWvIPd5B4yFwMMrAFYbu5hBxVCgWjLPHFNetnofEmkpbfAZwkvaBf4MMA_kLEMso18o3OizDrRiZ-L91IiSJwZCyCVk8rJIftt1r9fbBg8tZllqxjdWzQVhHTxWbFbuIBW7ZprVKQn7A0XsbRoXC3GmsbaA8IpHqn8V51uh9hyJHGQ8qNJY0MH9lgq4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '320x50'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":true,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CIWK1qWU4v0CFWc-AQod73EL5w\\u0026creatives=crid0:97256181262,agcid0:97359194062,ctype0:33,ctid0:0,cuid0:154007422,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCn1KVxvATZIWPMef8BO_jrbgO_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0FOH2VxAS5iG1qIIUDzytB9GMFTJLXcGAzFMboVhSUUuW3KIosMmZRaTCyCT9qrwo1axur2-0hlRvPH_NrC2xe23rU-qzcpqJFucIPjvWUXQNeqAYoKhFMTXdj-DjyE5IB-3mMQ3z_CdTRa9CpkCvZYAle2kLVsMVuauUfyW_rUhrOpWvIPd5B4yFwMMrAFYbu5hBxVCgWjLPHFNetnofEmkpbfAZwkvaBf4MMA_kLEMso18o3OizDrRiZ-L91IiSJwZCyCVk8rJIftt1r9fbBg8tZllqxjdWzQVhHTxWbFbuIBW7ZprVKQn7A0XsbRoXC3GmsbaA8IpHqn8V51uh9hyJHGQ8qNJY0MH9lgq4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB%26num%3D1%26sig%3DAOD64_2YtZbG2rucjzEK_KpSOHfhYV1QaQ%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:Cn1KVxvATZIWPMef8BO_jrbgO_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0FOH2VxAS5iG1qIIUDzytB9GMFTJLXcGAzFMboVhSUUuW3KIosMmZRaTCyCT9qrwo1axur2-0hlRvPH_NrC2xe23rU-qzcpqJFucIPjvWUXQNeqAYoKhFMTXdj-DjyE5IB-3mMQ3z_CdTRa9CpkCvZYAle2kLVsMVuauUfyW_rUhrOpWvIPd5B4yFwMMrAFYbu5hBxVCgWjLPHFNetnofEmkpbfAZwkvaBf4MMA_kLEMso18o3OizDrRiZ-L91IiSJwZCyCVk8rJIftt1r9fbBg8tZllqxjdWzQVhHTxWbFbuIBW7ZprVKQn7A0XsbRoXC3GmsbaA8IpHqn8V51uh9hyJHGQ8qNJY0MH9lgq4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB\\u0026creatives_pb=CucECCEQjpyup-oCGM7PvdjqAiAAKP7ut0kyzQRDbjFLVnh2QVRaSVdQTWVmOEJPX2pyYmdPX3RQM3Ixek96NzNZNmdMQWpiY0JFQUVnQUdESjVxYUk5S1BBRUlJQkhtTmhMVzFpTFdGd2NDMXdkV0l0TXpZNE5qazRNVFF3Tnpnek9UWTBNc2dCQ2VBQ0FLZ0RBYW9FandKUDBGT0gyVnhBUzVpRzFxSUlVRHp5dEI5R01GVEpMWGNHQXpGTWJvVmhTVVV1VzNLSW9zTW1aUmFUQ3lDVDlxcndvMWF4dXIyLTBobFJ2UEhfTnJDMnhlMjNyVS1xemNwcUpGdWNJUGp2V1VYUU5lcUFZb0toRk1UWGRqLURqeUU1SUItM21NUTN6X0NkVFJhOUNwa0N2WllBbGUya0xWc01WdWF1VWZ5V19yVWhyT3BXdklQZDVCNHlGd01NckFGWWJ1NWhCeFZDZ1dqTFBIRk5ldG5vZkVta3BiZkFad2t2YUJmNE1NQV9rTEVNc28xOG8zT2l6RHJSaVotTDkxSWlTSndaQ3lDVms4ckpJZnR0MXI5ZmJCZzh0WmxscXhqZFd6UVZoSFR4V2JGYnVJQlc3WnByVktRbjdBMFhzYlJvWEMzR21zYmFBOElwSHFuOFY1MXVoOWh5SkhHUThxTkpZME1IOWxncTRBUUJnQWIxNTdMVHE3cjhvaHVnQmlHb0I2YS1HNmdIbHRnYnFBZXFtN0VDcUFmX25yRUNxQWZmbjdFQzJBY0EwZ2dOQ0lCaEVBRXlBb29DT2dLQVFQb0xBZ2dCZ0F3QjBCVUJnQmNC\\u0026debugDialog=AppID%3D461033172%26Creatives%3D97256181262%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CIWK1qWU4v0CFWc-AQod73EL5w\\u0026creatives=crid0:97256181262,agcid0:97359194062,ctype0:33,ctid0:0,cuid0:154007422,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCn1KVxvATZIWPMef8BO_jrbgO_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0FOH2VxAS5iG1qIIUDzytB9GMFTJLXcGAzFMboVhSUUuW3KIosMmZRaTCyCT9qrwo1axur2-0hlRvPH_NrC2xe23rU-qzcpqJFucIPjvWUXQNeqAYoKhFMTXdj-DjyE5IB-3mMQ3z_CdTRa9CpkCvZYAle2kLVsMVuauUfyW_rUhrOpWvIPd5B4yFwMMrAFYbu5hBxVCgWjLPHFNetnofEmkpbfAZwkvaBf4MMA_kLEMso18o3OizDrRiZ-L91IiSJwZCyCVk8rJIftt1r9fbBg8tZllqxjdWzQVhHTxWbFbuIBW7ZprVKQn7A0XsbRoXC3GmsbaA8IpHqn8V51uh9hyJHGQ8qNJY0MH9lgq4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB%26num%3D1%26sig%3DAOD64_2YtZbG2rucjzEK_KpSOHfhYV1QaQ%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:Cn1KVxvATZIWPMef8BO_jrbgO_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0FOH2VxAS5iG1qIIUDzytB9GMFTJLXcGAzFMboVhSUUuW3KIosMmZRaTCyCT9qrwo1axur2-0hlRvPH_NrC2xe23rU-qzcpqJFucIPjvWUXQNeqAYoKhFMTXdj-DjyE5IB-3mMQ3z_CdTRa9CpkCvZYAle2kLVsMVuauUfyW_rUhrOpWvIPd5B4yFwMMrAFYbu5hBxVCgWjLPHFNetnofEmkpbfAZwkvaBf4MMA_kLEMso18o3OizDrRiZ-L91IiSJwZCyCVk8rJIftt1r9fbBg8tZllqxjdWzQVhHTxWbFbuIBW7ZprVKQn7A0XsbRoXC3GmsbaA8IpHqn8V51uh9hyJHGQ8qNJY0MH9lgq4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB\\u0026creatives_pb=CucECCEQjpyup-oCGM7PvdjqAiAAKP7ut0kyzQRDbjFLVnh2QVRaSVdQTWVmOEJPX2pyYmdPX3RQM3Ixek96NzNZNmdMQWpiY0JFQUVnQUdESjVxYUk5S1BBRUlJQkhtTmhMVzFpTFdGd2NDMXdkV0l0TXpZNE5qazRNVFF3Tnpnek9UWTBNc2dCQ2VBQ0FLZ0RBYW9FandKUDBGT0gyVnhBUzVpRzFxSUlVRHp5dEI5R01GVEpMWGNHQXpGTWJvVmhTVVV1VzNLSW9zTW1aUmFUQ3lDVDlxcndvMWF4dXIyLTBobFJ2UEhfTnJDMnhlMjNyVS1xemNwcUpGdWNJUGp2V1VYUU5lcUFZb0toRk1UWGRqLURqeUU1SUItM21NUTN6X0NkVFJhOUNwa0N2WllBbGUya0xWc01WdWF1VWZ5V19yVWhyT3BXdklQZDVCNHlGd01NckFGWWJ1NWhCeFZDZ1dqTFBIRk5ldG5vZkVta3BiZkFad2t2YUJmNE1NQV9rTEVNc28xOG8zT2l6RHJSaVotTDkxSWlTSndaQ3lDVms4ckpJZnR0MXI5ZmJCZzh0WmxscXhqZFd6UVZoSFR4V2JGYnVJQlc3WnByVktRbjdBMFhzYlJvWEMzR21zYmFBOElwSHFuOFY1MXVoOWh5SkhHUThxTkpZME1IOWxncTRBUUJnQWIxNTdMVHE3cjhvaHVnQmlHb0I2YS1HNmdIbHRnYnFBZXFtN0VDcUFmX25yRUNxQWZmbjdFQzJBY0EwZ2dOQ0lCaEVBRXlBb29DT2dLQVFQb0xBZ2dCZ0F3QjBCVUJnQmNC\\u0026debugDialog=AppID%3D461033172%26Creatives%3D97256181262%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"Cn1KVxvATZIWPMef8BO_jrbgO_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0FOH2VxAS5iG1qIIUDzytB9GMFTJLXcGAzFMboVhSUUuW3KIosMmZRaTCyCT9qrwo1axur2-0hlRvPH_NrC2xe23rU-qzcpqJFucIPjvWUXQNeqAYoKhFMTXdj-DjyE5IB-3mMQ3z_CdTRa9CpkCvZYAle2kLVsMVuauUfyW_rUhrOpWvIPd5B4yFwMMrAFYbu5hBxVCgWjLPHFNetnofEmkpbfAZwkvaBf4MMA_kLEMso18o3OizDrRiZ-L91IiSJwZCyCVk8rJIftt1r9fbBg8tZllqxjdWzQVhHTxWbFbuIBW7ZprVKQn7A0XsbRoXC3GmsbaA8IpHqn8V51uh9hyJHGQ8qNJY0MH9lgq4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":true,"malicious_reporting_enabled":true,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:03 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '31666'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Content-Type', 'value': 'text/javascript;charset=UTF-8'}, {'name': 'Content-Length', 'value': '618'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Server', 'value': 'Server'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:04 GMT'}, {'name': 'x-amz-rid', 'value': 'HA5VGBA4PAFW9BNJM76G'}, {'name': 'Vary', 'value': 'Content-Type,Accept-Encoding,User-Agent'}, {'name': 'Strict-Transport-Security', 'value': 'max-age=47474747; includeSubDomains; preload'}, {'name': 'X-Cache', 'value': 'Miss from cloudfront'}, {'name': 'Via', 'value': '1.1 88a1a7ad0454e586dd16517855f87aea.cloudfront.net (CloudFront)'}, {'name': 'X-Amz-Cf-Pop', 'value': 'ORD56-P6'}, {'name': 'X-Amz-Cf-Id', 'value': 'NrQz-aHM_vzty7lhduxlYfNjr55WVHVP0MYN1bK7JX42FQdLP6VcgA=='}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"CKyZyyPATZNiFD4G1BaT1u5AD2PefxG-ovfaEuBHAjbcBEAEgoKu1JWDJ5qaI9KPAEKABxf_PuyioAwGqBMYBT9AuM0cSW60U2HTVjPSZ3a_O7zUH_tkJcjdvBKetgkQ2n6rgNA5GmCyV6Bxa2HTvpaU3KnjBbLpbhAl87XGdTX2YBT0GKuCx13HEkuwd9uQvYimJRQnXtOcI6YMbYn4Z_qkl61jzmBWh797WJlt7QGBl16vuM0t2BFNP1PBsRK2UoMikOZ2p_WjSNO1jrTPAeGzpirtcDX13MuRIuoqTwGvIB1Cau5PLd4krk8ZydrpJiKGKEOD1EWaczLNhJFWk326ahhoQwAT9j-mmngSIBZrU_7U9kAYBoAYagAfFt6CbA5gHAagHzZuxAqgHmZ2xAqgHpr4bqAfVyRuoB6EBqAetyhuoB67NG6gH_p6xAqgH89EbqAeW2BuoB6qbsQKoB_-esQKoB9-fsQKoB47cG6gHyZyxArgHmbnE_JzGo85awAea2QPYBwH6Bxljb20uZXZlcnlwbGF0ZS5FdmVyeVBsYXRlmAgBoAj1qaYEsAgCuAgB0ggPCIBhEAEYHTICigI6AoBAsQm_YycQ_xOq_5ALBdALA5gMz_eFrJwE-gwCCACaDQEDqg0CVVO4E-ECghQYGhZtb2JpbGVhcHA6OjEtNDYxMDMzMTcyiBQFsBUB0BUBmBYByhY6CgoxNDcxMzExODM3GiYI-MrU1MKw5_XjARCFlJfE_pPRj1IYACAAKgk0NjEwMzMxNzIwASCt_AMoAfgWAYAXAQ","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":false,"malicious_reporting_enabled":false,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CNiJrqaU4v0CFYFaAQodpPoOMg'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CNiJrqaU4v0CFYFaAQodpPoOMg","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'X-Afma-Ad-Size', 'value': '300x250'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":false,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CNiJrqaU4v0CFYFaAQodpPoOMg\\u0026creatives=crid0:646957119047,agcid0:599158267560,ctype0:26,ctid0:353,cuid0:867514699,lp0:https://googleads.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCKyZyyPATZNiFD4G1BaT1u5AD2PefxG-ovfaEuBHAjbcBEAEgoKu1JWDJ5qaI9KPAEKABxf_PuyioAwGqBMYBT9AuM0cSW60U2HTVjPSZ3a_O7zUH_tkJcjdvBKetgkQ2n6rgNA5GmCyV6Bxa2HTvpaU3KnjBbLpbhAl87XGdTX2YBT0GKuCx13HEkuwd9uQvYimJRQnXtOcI6YMbYn4Z_qkl61jzmBWh797WJlt7QGBl16vuM0t2BFNP1PBsRK2UoMikOZ2p_WjSNO1jrTPAeGzpirtcDX13MuRIuoqTwGvIB1Cau5PLd4krk8ZydrpJiKGKEOD1EWaczLNhJFWk326ahhoQwAT9j-mmngSIBZrU_7U9kAYBoAYagAfFt6CbA5gHAagHzZuxAqgHmZ2xAqgHpr4bqAfVyRuoB6EBqAetyhuoB67NG6gH_p6xAqgH89EbqAeW2BuoB6qbsQKoB_-esQKoB9-fsQKoB47cG6gHyZyxArgHmbnE_JzGo85awAea2QPYBwH6Bxljb20uZXZlcnlwbGF0ZS5FdmVyeVBsYXRlmAgBoAj1qaYEsAgCuAgB0ggPCIBhEAEYHTICigI6AoBAsQm_YycQ_xOq_5ALBdALA5gMz_eFrJwE-gwCCACaDQEDqg0CVVO4E-ECghQYGhZtb2JpbGVhcHA6OjEtNDYxMDMzMTcyiBQFsBUB0BUBmBYByhY6CgoxNDcxMzExODM3GiYI-MrU1MKw5_XjARCFlJfE_pPRj1IYACAAKgk0NjEwMzMxNzIwASCt_AMoAfgWAYAXAQ%26ae%3D1%26num%3D1%26cid%3DCAQShgEA1BOcpslrMvtf76iUcoaH-FpUDKR2KzJ4wIX49ulnfYbizY6n_Z1q71qW06nVbXmQvaSi06aDRDVkktym42hkie1n18mFk3osG18x0zz0PcRWi2-58kw7TaM1rpcMuWcMaeFNIR1poLmk2kxg-EZbHbJ6Hfyo4RbXOYEQ7ML8In3hTWclMxgB%26sig%3DAOD64_0wudCiEQbknADNSoQJvgQw8Q2zMw%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttps://apps.apple.com/app/id1471311837%253Fmt%253D8%2526gclid%253DEAIaIQobChMI2ImuppTi_QIVgVoBCh2k-g4yEAEYASAAEgItYPD_BwE,loginfo0:CKyZyyPATZNiFD4G1BaT1u5AD2PefxG-ovfaEuBHAjbcBEAEgoKu1JWDJ5qaI9KPAEKABxf_PuyioAwGqBMYBT9AuM0cSW60U2HTVjPSZ3a_O7zUH_tkJcjdvBKetgkQ2n6rgNA5GmCyV6Bxa2HTvpaU3KnjBbLpbhAl87XGdTX2YBT0GKuCx13HEkuwd9uQvYimJRQnXtOcI6YMbYn4Z_qkl61jzmBWh797WJlt7QGBl16vuM0t2BFNP1PBsRK2UoMikOZ2p_WjSNO1jrTPAeGzpirtcDX13MuRIuoqTwGvIB1Cau5PLd4krk8ZydrpJiKGKEOD1EWaczLNhJFWk326ahhoQwAT9j-mmngSIBZrU_7U9kAYBoAYagAfFt6CbA5gHAagHzZuxAqgHmZ2xAqgHpr4bqAfVyRuoB6EBqAetyhuoB67NG6gH_p6xAqgH89EbqAeW2BuoB6qbsQKoB_-esQKoB9-fsQKoB47cG6gHyZyxArgHmbnE_JzGo85awAea2QPYBwH6Bxljb20uZXZlcnlwbGF0ZS5FdmVyeVBsYXRlmAgBoAj1qaYEsAgCuAgB0ggPCIBhEAEYHTICigI6AoBAsQm_YycQ_xOq_5ALBdALA5gMz_eFrJwE-gwCCACaDQEDqg0CVVO4E-ECghQYGhZtb2JpbGVhcHA6OjEtNDYxMDMzMTcyiBQFsBUB0BUBmBYByhY6CgoxNDcxMzExODM3GiYI-MrU1MKw5_XjARCFlJfE_pPRj1IYACAAKgk0NjEwMzMxNzIwASCt_AMoAfgWAYAXAQ\\u0026creatives_pb=Cr8GCBoQx-yYjeoSGKi99oS4ESDhAijL8tSdAzKjBkNLeVp5eVBBVFpOaUZENEcxQmFUMXU1QUQyUGVmeEctb3ZmYUV1QkhBamJjQkVBRWdvS3UxSldESjVxYUk5S1BBRUtBQnhmX1B1eWlvQXdHcUJNWUJUOUF1TTBjU1c2MFUySFRWalBTWjNhX083elVIX3RrSmNqZHZCS2V0Z2tRMm42cmdOQTVHbUN5VjZCeGEySFR2cGFVM0tuakJiTHBiaEFsODdYR2RUWDJZQlQwR0t1Q3gxM0hFa3V3ZDl1UXZZaW1KUlFuWHRPY0k2WU1iWW40Wl9xa2w2MWp6bUJXaDc5N1dKbHQ3UUdCbDE2dnVNMHQyQkZOUDFQQnNSSzJVb01pa09aMnBfV2pTTk8xanJUUEFlR3pwaXJ0Y0RYMTNNdVJJdW9xVHdHdklCMUNhdTVQTGQ0a3JrOFp5ZHJwSmlLR0tFT0QxRVdhY3pMTmhKRldrMzI2YWhob1F3QVQ5ai1tbW5nU0lCWnJVXzdVOWtBWUJvQVlhZ0FmRnQ2Q2JBNWdIQWFnSHpadXhBcWdIbVoyeEFxZ0hwcjRicUFmVnlSdW9CNkVCcUFldHlodW9CNjdORzZnSF9wNnhBcWdIODlFYnFBZVcyQnVvQjZxYnNRS29CXy1lc1FLb0I5LWZzUUtvQjQ3Y0c2Z0h5Wnl4QXJnSG1ibkVfSnpHbzg1YXdBZWEyUVBZQndINkJ4bGpiMjB1WlhabGNubHdiR0YwWlM1RmRtVnllVkJzWVhSbG1BZ0JvQWoxcWFZRXNBZ0N1QWdCMGdnUENJQmhFQUVZSFRJQ2lnSTZBb0JBc1FtX1l5Y1FfeE9xXzVBTEJkQUxBNWdNel9lRnJKd0UtZ3dDQ0FDYURRRURxZzBDVlZPNEUtRUNnaFFZR2hadGIySnBiR1ZoY0hBNk9qRXRORFl4TURNek1UY3lpQlFGc0JVQjBCVUJtQllCeWhZNkNnb3hORGN4TXpFeE9ETTNHaVlJLU1yVTFNS3c1X1hqQVJDRmxKZkVfcFBSajFJWUFDQUFLZ2swTmpFd016TXhOekl3QVNDdF9BTW9BZmdXQVlBWEFR\\u0026debugDialog=AppID%3D461033172%26Creatives%3D646957119047%26Lineitems%3D116141472\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CNiJrqaU4v0CFYFaAQodpPoOMg\\u0026creatives=crid0:646957119047,agcid0:599158267560,ctype0:26,ctid0:353,cuid0:867514699,lp0:https://googleads.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCKyZyyPATZNiFD4G1BaT1u5AD2PefxG-ovfaEuBHAjbcBEAEgoKu1JWDJ5qaI9KPAEKABxf_PuyioAwGqBMYBT9AuM0cSW60U2HTVjPSZ3a_O7zUH_tkJcjdvBKetgkQ2n6rgNA5GmCyV6Bxa2HTvpaU3KnjBbLpbhAl87XGdTX2YBT0GKuCx13HEkuwd9uQvYimJRQnXtOcI6YMbYn4Z_qkl61jzmBWh797WJlt7QGBl16vuM0t2BFNP1PBsRK2UoMikOZ2p_WjSNO1jrTPAeGzpirtcDX13MuRIuoqTwGvIB1Cau5PLd4krk8ZydrpJiKGKEOD1EWaczLNhJFWk326ahhoQwAT9j-mmngSIBZrU_7U9kAYBoAYagAfFt6CbA5gHAagHzZuxAqgHmZ2xAqgHpr4bqAfVyRuoB6EBqAetyhuoB67NG6gH_p6xAqgH89EbqAeW2BuoB6qbsQKoB_-esQKoB9-fsQKoB47cG6gHyZyxArgHmbnE_JzGo85awAea2QPYBwH6Bxljb20uZXZlcnlwbGF0ZS5FdmVyeVBsYXRlmAgBoAj1qaYEsAgCuAgB0ggPCIBhEAEYHTICigI6AoBAsQm_YycQ_xOq_5ALBdALA5gMz_eFrJwE-gwCCACaDQEDqg0CVVO4E-ECghQYGhZtb2JpbGVhcHA6OjEtNDYxMDMzMTcyiBQFsBUB0BUBmBYByhY6CgoxNDcxMzExODM3GiYI-MrU1MKw5_XjARCFlJfE_pPRj1IYACAAKgk0NjEwMzMxNzIwASCt_AMoAfgWAYAXAQ%26ae%3D1%26num%3D1%26cid%3DCAQShgEA1BOcpslrMvtf76iUcoaH-FpUDKR2KzJ4wIX49ulnfYbizY6n_Z1q71qW06nVbXmQvaSi06aDRDVkktym42hkie1n18mFk3osG18x0zz0PcRWi2-58kw7TaM1rpcMuWcMaeFNIR1poLmk2kxg-EZbHbJ6Hfyo4RbXOYEQ7ML8In3hTWclMxgB%26sig%3DAOD64_0wudCiEQbknADNSoQJvgQw8Q2zMw%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttps://apps.apple.com/app/id1471311837%253Fmt%253D8%2526gclid%253DEAIaIQobChMI2ImuppTi_QIVgVoBCh2k-g4yEAEYASAAEgItYPD_BwE,loginfo0:CKyZyyPATZNiFD4G1BaT1u5AD2PefxG-ovfaEuBHAjbcBEAEgoKu1JWDJ5qaI9KPAEKABxf_PuyioAwGqBMYBT9AuM0cSW60U2HTVjPSZ3a_O7zUH_tkJcjdvBKetgkQ2n6rgNA5GmCyV6Bxa2HTvpaU3KnjBbLpbhAl87XGdTX2YBT0GKuCx13HEkuwd9uQvYimJRQnXtOcI6YMbYn4Z_qkl61jzmBWh797WJlt7QGBl16vuM0t2BFNP1PBsRK2UoMikOZ2p_WjSNO1jrTPAeGzpirtcDX13MuRIuoqTwGvIB1Cau5PLd4krk8ZydrpJiKGKEOD1EWaczLNhJFWk326ahhoQwAT9j-mmngSIBZrU_7U9kAYBoAYagAfFt6CbA5gHAagHzZuxAqgHmZ2xAqgHpr4bqAfVyRuoB6EBqAetyhuoB67NG6gH_p6xAqgH89EbqAeW2BuoB6qbsQKoB_-esQKoB9-fsQKoB47cG6gHyZyxArgHmbnE_JzGo85awAea2QPYBwH6Bxljb20uZXZlcnlwbGF0ZS5FdmVyeVBsYXRlmAgBoAj1qaYEsAgCuAgB0ggPCIBhEAEYHTICigI6AoBAsQm_YycQ_xOq_5ALBdALA5gMz_eFrJwE-gwCCACaDQEDqg0CVVO4E-ECghQYGhZtb2JpbGVhcHA6OjEtNDYxMDMzMTcyiBQFsBUB0BUBmBYByhY6CgoxNDcxMzExODM3GiYI-MrU1MKw5_XjARCFlJfE_pPRj1IYACAAKgk0NjEwMzMxNzIwASCt_AMoAfgWAYAXAQ\\u0026creatives_pb=Cr8GCBoQx-yYjeoSGKi99oS4ESDhAijL8tSdAzKjBkNLeVp5eVBBVFpOaUZENEcxQmFUMXU1QUQyUGVmeEctb3ZmYUV1QkhBamJjQkVBRWdvS3UxSldESjVxYUk5S1BBRUtBQnhmX1B1eWlvQXdHcUJNWUJUOUF1TTBjU1c2MFUySFRWalBTWjNhX083elVIX3RrSmNqZHZCS2V0Z2tRMm42cmdOQTVHbUN5VjZCeGEySFR2cGFVM0tuakJiTHBiaEFsODdYR2RUWDJZQlQwR0t1Q3gxM0hFa3V3ZDl1UXZZaW1KUlFuWHRPY0k2WU1iWW40Wl9xa2w2MWp6bUJXaDc5N1dKbHQ3UUdCbDE2dnVNMHQyQkZOUDFQQnNSSzJVb01pa09aMnBfV2pTTk8xanJUUEFlR3pwaXJ0Y0RYMTNNdVJJdW9xVHdHdklCMUNhdTVQTGQ0a3JrOFp5ZHJwSmlLR0tFT0QxRVdhY3pMTmhKRldrMzI2YWhob1F3QVQ5ai1tbW5nU0lCWnJVXzdVOWtBWUJvQVlhZ0FmRnQ2Q2JBNWdIQWFnSHpadXhBcWdIbVoyeEFxZ0hwcjRicUFmVnlSdW9CNkVCcUFldHlodW9CNjdORzZnSF9wNnhBcWdIODlFYnFBZVcyQnVvQjZxYnNRS29CXy1lc1FLb0I5LWZzUUtvQjQ3Y0c2Z0h5Wnl4QXJnSG1ibkVfSnpHbzg1YXdBZWEyUVBZQndINkJ4bGpiMjB1WlhabGNubHdiR0YwWlM1RmRtVnllVkJzWVhSbG1BZ0JvQWoxcWFZRXNBZ0N1QWdCMGdnUENJQmhFQUVZSFRJQ2lnSTZBb0JBc1FtX1l5Y1FfeE9xXzVBTEJkQUxBNWdNel9lRnJKd0UtZ3dDQ0FDYURRRURxZzBDVlZPNEUtRUNnaFFZR2hadGIySnBiR1ZoY0hBNk9qRXRORFl4TURNek1UY3lpQlFGc0JVQjBCVUJtQllCeWhZNkNnb3hORGN4TXpFeE9ETTNHaVlJLU1yVTFNS3c1X1hqQVJDRmxKZkVfcFBSajFJWUFDQUFLZ2swTmpFd016TXhOekl3QVNDdF9BTW9BZmdXQVlBWEFR\\u0026debugDialog=AppID%3D461033172%26Creatives%3D646957119047%26Lineitems%3D116141472\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-Gws-Query-Id', 'value': 'yPATZLWaDO-FmtUP1tS14AI'}, {'name': 'X-Afma-Bidding-Data', 'value': '{"bidding_data":[{"buyer_network_id":1256517,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1234559,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1321765,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1203298,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174568,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1,"external_label":"Won","external_description":"Won the auction. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1446796,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1289820,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1418116,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174565,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1503477,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1182088,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1297865,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"}]}'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '300x250'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://pagead2.googleadservices.com/pagead/adview?ai=C8yARyPATZNiFD4G1BaT1u5AD2PefxG-ovfaEuBHAjbcBEAEgoKu1JWDJ5qaI9KPAEKABxf_PuyioAwGqBMMBT9AuM0cSW60U2HTVjPSZ3a_O7zUH_tkJcjdvBKetgkQ2n6rgNA5GmCyV6Bxa2HTvpaU3KnjBbLpbhAl87XGdTX2YBT0GKuCx13HEkuwd9uQvYimJRQnXtOcI6YMbYn4Z_qkl61jzmBWh797WJlt7QGBl16vuM0t2BFNP1PBsRK2UoMikOZ2p_WjSNO1jrTPAeGzpirtcDX13MuRIusiR4fklpa_4JGym21UJAzI0VbDNgY-S8FYxM_ZiDplNPLojOAwFwAT9j-mmngSIBZrU_7U9kAYBoAYagAfFt6CbA5gHAagHzZuxAqgHmZ2xAqgHpr4bqAfVyRuoB6EBqAetyhuoB67NG6gH_p6xAqgH89EbqAeW2BuoB6qbsQKoB_-esQKoB9-fsQKoB47cG6gHyZyxArgHmbnE_JzGo85awAea2QPYBwH6Bxljb20uZXZlcnlwbGF0ZS5FdmVyeVBsYXRlmAgBoAj1qaYEsAgCuAgB0ggPCIBhEAEYHTICigI6AoBAsQm_YycQ_xOq_4AKA5ALBZgMz_eFrJwE-gwCCACqDQJVU7gT4QKCFBgaFm1vYmlsZWFwcDo6MS00NjEwMzMxNzKIFAXQFQGYFgHKFjoKCjE0NzEzMTE4MzcaJgj4ytTUwrDn9eMBEIWUl8T-k9GPUhgAIAAqCTQ2MTAzMzE3MjABIK38AygB-BYBgBcBshcaChgIABIUcHViLTM2ODY5ODE0MDc4Mzk2NDI&amp;sigh=MAqVf6VcSX0&amp;cid=CAQShgEA1BOcpslrMvtf76iUcoaH-FpUDKR2KzJ4wIX49ulnfYbizY6n_Z1q71qW06nVbXmQvaSi06aDRDVkktym42hkie1n18mFk3osG18x0zz0PcRWi2-58kw7TaM1rpcMuWcMaeFNIR1poLmk2kxg-EZbHbJ6Hfyo4RbXOYEQ7ML8In3hTWclMxgB&amp;gvr=1&amp;fbs_aeid=[gw_fbsaeid]'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AdGroup+Creative+ID+0=599158267560&amp;AdGroup+ID+0=145573431293&amp;App+ID=461033172&amp;Backend+Query+ID=CNiJrqaU4v0CFYFaAQodpPoOMg&amp;Creative+ID+0=646957119047&amp;Customer+ID+0=867514699&amp;Landing+Page+0=https://apps.apple.com/app/id1471311837%3Fmt%3D8%26gclid%3DEAIaIQobChMI2ImuppTi_QIVgVoBCh2k-g4yEAEYASAAEgItYPD_BwE&amp;URL+Clickstring+0=CKyZyyPATZNiFD4G1BaT1u5AD2PefxG-ovfaEuBHAjbcBEAEgoKu1JWDJ5qaI9KPAEKABxf_PuyioAwGqBMYBT9AuM0cSW60U2HTVjPSZ3a_O7zUH_tkJcjdvBKetgkQ2n6rgNA5GmCyV6Bxa2HTvpaU3KnjBbLpbhAl87XGdTX2YBT0GKuCx13HEkuwd9uQvYimJRQnXtOcI6YMbYn4Z_qkl61jzmBWh797WJlt7QGBl16vuM0t2BFNP1PBsRK2UoMikOZ2p_WjSNO1jrTPAeGzpirtcDX13MuRIuoqTwGvIB1Cau5PLd4krk8ZydrpJiKGKEOD1EWaczLNhJFWk326ahhoQwAT9j-mmngSIBZrU_7U9kAYBoAYagAfFt6CbA5gHAagHzZuxAqgHmZ2xAqgHpr4bqAfVyRuoB6EBqAetyhuoB67NG6gH_p6xAqgH89EbqAeW2BuoB6qbsQKoB_-esQKoB9-fsQKoB47cG6gHyZyxArgHmbnE_JzGo85awAea2QPYBwH6Bxljb20uZXZlcnlwbGF0ZS5FdmVyeVBsYXRlmAgBoAj1qaYEsAgCuAgB0ggPCIBhEAEYHTICigI6AoBAsQm_YycQ_xOq_5ALBdALA5gMz_eFrJwE-gwCCACaDQEDqg0CVVO4E-ECghQYGhZtb2JpbGVhcHA6OjEtNDYxMDMzMTcyiBQFsBUB0BUBmBYByhY6CgoxNDcxMzExODM3GiYI-MrU1MKw5_XjARCFlJfE_pPRj1IYACAAKgk0NjEwMzMxNzIwASCt_AMoAfgWAYAXAQ'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:05 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '64653'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Content-Type', 'value': 'text/javascript;charset=UTF-8'}, {'name': 'Content-Length', 'value': '601'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Server', 'value': 'Server'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:12 GMT'}, {'name': 'x-amz-rid', 'value': '606FY80D4X6R7NE6EACE'}, {'name': 'Vary', 'value': 'Content-Type,Accept-Encoding,User-Agent'}, {'name': 'Strict-Transport-Security', 'value': 'max-age=47474747; includeSubDomains; preload'}, {'name': 'X-Cache', 'value': 'Miss from cloudfront'}, {'name': 'Via', 'value': '1.1 95e502091eaf0f984b0833da9c69d01e.cloudfront.net (CloudFront)'}, {'name': 'X-Amz-Cf-Pop', 'value': 'ORD56-P6'}, {'name': 'X-Amz-Cf-Id', 'value': 'DKK8YSjz4nWp8pB8aE2d8ZUvQXBYQVn1v8REdEJhUzrBNs54txidSQ=='}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-MediationGroup-Id', 'value': '87897'}, {'name': 'Google-MediationTag-Id', 'value': '97443'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":true,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CJmkyaqU4v0CFSHz9QId-40JYQ\\u0026creatives=crid0:111426038729,agcid0:111666674849,ctype0:33,ctid0:0,cuid0:188550329,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCEHHs0fATZNn3BKHm18cP-5umiAaeoaGuXKH56P6fA8CNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSfAk_QcgubT4spLUSLhIcKYzuo1ZLHNJvOaqzG5ipOyDWmDYtiusW_DklVi7UM70OwegMXwjNXcQjH4A1ELrZltwZ5DE6dR3XW8Zlt5U4_Pg4MGhW-SUiLlULzXe4j1stcktmPYQGdIqfCulFacpGIMGJpJ7R00TNhGtzkUelGv59qYcRNqVcV0INAg33G8y_95f_g5p2Sy1ReUgayfuTqE1JbKm_U7jW-H_sUwIT5lWZ1fTF4nyEKEi7iVaMiG9h4vRYrzbINjSz19QjI5i_wVr71YSdoFiNKKoL1vsPR2WzcYKhuUe64KbuSjZ4qcDuzy54tw-JhzLjTPeFpyNCFcAUMDYDzbzLwQTe-vXiTj0rp7SOp3QrdGeP28tkgY_Mb4AQBgAat9KGuz-jno9wBoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ%26num%3D1%26sig%3DAOD64_0YIevBvo2fdZ8UE7xvQWUQLKYVAA%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CEHHs0fATZNn3BKHm18cP-5umiAaeoaGuXKH56P6fA8CNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSfAk_QcgubT4spLUSLhIcKYzuo1ZLHNJvOaqzG5ipOyDWmDYtiusW_DklVi7UM70OwegMXwjNXcQjH4A1ELrZltwZ5DE6dR3XW8Zlt5U4_Pg4MGhW-SUiLlULzXe4j1stcktmPYQGdIqfCulFacpGIMGJpJ7R00TNhGtzkUelGv59qYcRNqVcV0INAg33G8y_95f_g5p2Sy1ReUgayfuTqE1JbKm_U7jW-H_sUwIT5lWZ1fTF4nyEKEi7iVaMiG9h4vRYrzbINjSz19QjI5i_wVr71YSdoFiNKKoL1vsPR2WzcYKhuUe64KbuSjZ4qcDuzy54tw-JhzLjTPeFpyNCFcAUMDYDzbzLwQTe-vXiTj0rp7SOp3QrdGeP28tkgY_Mb4AQBgAat9KGuz-jno9wBoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ\\u0026creatives_pb=CoEFCCEQydeJjJ8DGKH56P6fAyAAKLmZ9Fky5wRDRUhIczBmQVRaTm4zQktIbTE4Y1AtNXVtaUFhZW9hR3VYS0g1NlA2ZkE4Q050d0VRQVNBQVlNbm1wb2owbzhBUWdnRWVZMkV0YldJdFlYQndMWEIxWWkwek5qZzJPVGd4TkRBM09ETTVOalF5eUFFSjRBSUFxQU1CcWdTZkFrX1FjZ3ViVDRzcExVU0xoSWNLWXp1bzFaTEhOSnZPYXF6RzVpcE95RFdtRFl0aXVzV19Ea2xWaTdVTTcwT3dlZ01Yd2pOWGNRakg0QTFFTHJabHR3WjVERTZkUjNYVzhabHQ1VTRfUGc0TUdoVy1TVWlMbFVMelhlNGoxc3Rja3RtUFlRR2RJcWZDdWxGYWNwR0lNR0pwSjdSMDBUTmhHdHprVWVsR3Y1OXFZY1JOcVZjVjBJTkFnMzNHOHlfOTVmX2c1cDJTeTFSZVVnYXlmdVRxRTFKYkttX1U3alctSF9zVXdJVDVsV1oxZlRGNG55RUtFaTdpVmFNaUc5aDR2UllyemJJTmpTejE5UWpJNWlfd1ZyNzFZU2RvRmlOS0tvTDF2c1BSMld6Y1lLaHVVZTY0S2J1U2paNHFjRHV6eTU0dHctSmh6TGpUUGVGcHlOQ0ZjQVVNRFlEemJ6THdRVGUtdlhpVGowcnA3U09wM1FyZEdlUDI4dGtnWV9NYjRBUUJnQWF0OUtHdXotam5vOXdCb0FZaHFBZW12aHVvQjViWUc2Z0hxcHV4QXFnSF81NnhBcWdIMzUteEF0Z0hBTklJRFFpQVlSQUJNZ0tLQWpvQ2dFRDZDd0lJQVlBTUFkQVZBWUFYQVE\\u0026debugDialog=AppID%3D461033172%26Creatives%3D111426038729%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CJmkyaqU4v0CFSHz9QId-40JYQ\\u0026creatives=crid0:111426038729,agcid0:111666674849,ctype0:33,ctid0:0,cuid0:188550329,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCEHHs0fATZNn3BKHm18cP-5umiAaeoaGuXKH56P6fA8CNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSfAk_QcgubT4spLUSLhIcKYzuo1ZLHNJvOaqzG5ipOyDWmDYtiusW_DklVi7UM70OwegMXwjNXcQjH4A1ELrZltwZ5DE6dR3XW8Zlt5U4_Pg4MGhW-SUiLlULzXe4j1stcktmPYQGdIqfCulFacpGIMGJpJ7R00TNhGtzkUelGv59qYcRNqVcV0INAg33G8y_95f_g5p2Sy1ReUgayfuTqE1JbKm_U7jW-H_sUwIT5lWZ1fTF4nyEKEi7iVaMiG9h4vRYrzbINjSz19QjI5i_wVr71YSdoFiNKKoL1vsPR2WzcYKhuUe64KbuSjZ4qcDuzy54tw-JhzLjTPeFpyNCFcAUMDYDzbzLwQTe-vXiTj0rp7SOp3QrdGeP28tkgY_Mb4AQBgAat9KGuz-jno9wBoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ%26num%3D1%26sig%3DAOD64_0YIevBvo2fdZ8UE7xvQWUQLKYVAA%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CEHHs0fATZNn3BKHm18cP-5umiAaeoaGuXKH56P6fA8CNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSfAk_QcgubT4spLUSLhIcKYzuo1ZLHNJvOaqzG5ipOyDWmDYtiusW_DklVi7UM70OwegMXwjNXcQjH4A1ELrZltwZ5DE6dR3XW8Zlt5U4_Pg4MGhW-SUiLlULzXe4j1stcktmPYQGdIqfCulFacpGIMGJpJ7R00TNhGtzkUelGv59qYcRNqVcV0INAg33G8y_95f_g5p2Sy1ReUgayfuTqE1JbKm_U7jW-H_sUwIT5lWZ1fTF4nyEKEi7iVaMiG9h4vRYrzbINjSz19QjI5i_wVr71YSdoFiNKKoL1vsPR2WzcYKhuUe64KbuSjZ4qcDuzy54tw-JhzLjTPeFpyNCFcAUMDYDzbzLwQTe-vXiTj0rp7SOp3QrdGeP28tkgY_Mb4AQBgAat9KGuz-jno9wBoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ\\u0026creatives_pb=CoEFCCEQydeJjJ8DGKH56P6fAyAAKLmZ9Fky5wRDRUhIczBmQVRaTm4zQktIbTE4Y1AtNXVtaUFhZW9hR3VYS0g1NlA2ZkE4Q050d0VRQVNBQVlNbm1wb2owbzhBUWdnRWVZMkV0YldJdFlYQndMWEIxWWkwek5qZzJPVGd4TkRBM09ETTVOalF5eUFFSjRBSUFxQU1CcWdTZkFrX1FjZ3ViVDRzcExVU0xoSWNLWXp1bzFaTEhOSnZPYXF6RzVpcE95RFdtRFl0aXVzV19Ea2xWaTdVTTcwT3dlZ01Yd2pOWGNRakg0QTFFTHJabHR3WjVERTZkUjNYVzhabHQ1VTRfUGc0TUdoVy1TVWlMbFVMelhlNGoxc3Rja3RtUFlRR2RJcWZDdWxGYWNwR0lNR0pwSjdSMDBUTmhHdHprVWVsR3Y1OXFZY1JOcVZjVjBJTkFnMzNHOHlfOTVmX2c1cDJTeTFSZVVnYXlmdVRxRTFKYkttX1U3alctSF9zVXdJVDVsV1oxZlRGNG55RUtFaTdpVmFNaUc5aDR2UllyemJJTmpTejE5UWpJNWlfd1ZyNzFZU2RvRmlOS0tvTDF2c1BSMld6Y1lLaHVVZTY0S2J1U2paNHFjRHV6eTU0dHctSmh6TGpUUGVGcHlOQ0ZjQVVNRFlEemJ6THdRVGUtdlhpVGowcnA3U09wM1FyZEdlUDI4dGtnWV9NYjRBUUJnQWF0OUtHdXotam5vOXdCb0FZaHFBZW12aHVvQjViWUc2Z0hxcHV4QXFnSF81NnhBcWdIMzUteEF0Z0hBTklJRFFpQVlSQUJNZ0tLQWpvQ2dFRDZDd0lJQVlBTUFkQVZBWUFYQVE\\u0026debugDialog=AppID%3D461033172%26Creatives%3D111426038729%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '320x50'}, {'name': 'X-Afma-Ad-Size', 'value': '320x50'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CJmkyaqU4v0CFSHz9QId-40JYQ'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'X-Afma-Gws-Query-Id', 'value': '0fATZPuGAuXC18cPuc-iiAw'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AdGroup+Creative+ID+0=111666674849&amp;AdGroup+ID+0=29548645649&amp;App+ID=461033172&amp;Backend+Query+ID=CJmkyaqU4v0CFSHz9QId-40JYQ&amp;Creative+ID+0=111426038729&amp;Customer+ID+0=188550329&amp;Landing+Page+0=http://ignore_this_destination.com&amp;URL+Clickstring+0=CEHHs0fATZNn3BKHm18cP-5umiAaeoaGuXKH56P6fA8CNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSfAk_QcgubT4spLUSLhIcKYzuo1ZLHNJvOaqzG5ipOyDWmDYtiusW_DklVi7UM70OwegMXwjNXcQjH4A1ELrZltwZ5DE6dR3XW8Zlt5U4_Pg4MGhW-SUiLlULzXe4j1stcktmPYQGdIqfCulFacpGIMGJpJ7R00TNhGtzkUelGv59qYcRNqVcV0INAg33G8y_95f_g5p2Sy1ReUgayfuTqE1JbKm_U7jW-H_sUwIT5lWZ1fTF4nyEKEi7iVaMiG9h4vRYrzbINjSz19QjI5i_wVr71YSdoFiNKKoL1vsPR2WzcYKhuUe64KbuSjZ4qcDuzy54tw-JhzLjTPeFpyNCFcAUMDYDzbzLwQTe-vXiTj0rp7SOp3QrdGeP28tkgY_Mb4AQBgAat9KGuz-jno9wBoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ'}, {'name': 'X-Afma-Bidding-Data', 'value': '{"bidding_data":[{"buyer_network_id":1174568,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1203298,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1234559,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1446796,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1321765,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1289820,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1182088,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1297865,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1256517,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174565,"external_label":"Won","external_description":"Won the auction. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1503477,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"}]}'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://pubads.g.doubleclick.net/pagead/adview?ai=CQpIa0fATZNn3BKHm18cP-5umiAaeoaGuXKH56P6fA8CNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgScAk_QcgubT4spLUSLhIcKYzuo1ZLHNJvOaqzG5ipOyDWmDYtiusW_DklVi7UM70OwegMXwjNXcQjH4A1ELrZltwZ5DE6dR3XW8Zlt5U4_Pg4MGhW-SUiLlULzXe4j1stcktmPYQGdIqfCulFacpGIMGJpJ7R00TNhGtzkUelGv59qYcRNqVcV0INAg33G8y_95f_g5p2Sy1ReUgayfuTqE1JbKm_U7jW-H_sUwIT5lWZ1fTF4nyEKEi7iVaMiG9h4vRYrzbINjSz19QjI5i_wVr71YSdoFiNKKoL1vsPR2WzcYKhuUe64KbuSjZ4qcDuzy54tw-JhzPrRHHO5QULvyJdx1GKKsvjIVj06tFaLSoUTlP5pYRTxATFaeLOY4AQBgAat9KGuz-jno9wBoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgECACgP6CwIIAYAMAdAVAYAXAbIXHAoaEhRwdWItMzY4Njk4MTQwNzgzOTY0MhjI-ho&amp;sigh=G8bBMAw-wxc&amp;uach_m=[UACH]&amp;cid=CAQShgEA1BOcpjjAdkvdtEkbDaFssP48sTc4BDTaODT18EIxN7RaTSEjc8Re0SFYUPuvV3gwI99ow4ZavtJ3ah5nNWumqmMxzOm4xw9WUK4On4hA6lhM-IGOGNwGII-_TCrbGf6jdzQ3D0-tx58Rzm23DVgwL8ZcimPxFMi9S0AP3Vo_64LUX9cPyBgB&amp;fbs_aeid=[gw_fbsaeid]'}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"CEHHs0fATZNn3BKHm18cP-5umiAaeoaGuXKH56P6fA8CNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSfAk_QcgubT4spLUSLhIcKYzuo1ZLHNJvOaqzG5ipOyDWmDYtiusW_DklVi7UM70OwegMXwjNXcQjH4A1ELrZltwZ5DE6dR3XW8Zlt5U4_Pg4MGhW-SUiLlULzXe4j1stcktmPYQGdIqfCulFacpGIMGJpJ7R00TNhGtzkUelGv59qYcRNqVcV0INAg33G8y_95f_g5p2Sy1ReUgayfuTqE1JbKm_U7jW-H_sUwIT5lWZ1fTF4nyEKEi7iVaMiG9h4vRYrzbINjSz19QjI5i_wVr71YSdoFiNKKoL1vsPR2WzcYKhuUe64KbuSjZ4qcDuzy54tw-JhzLjTPeFpyNCFcAUMDYDzbzLwQTe-vXiTj0rp7SOp3QrdGeP28tkgY_Mb4AQBgAat9KGuz-jno9wBoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":true,"malicious_reporting_enabled":true,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CJmkyaqU4v0CFSHz9QId-40JYQ","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:13 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '32050'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Content-Type', 'value': 'text/javascript;charset=UTF-8'}, {'name': 'Content-Length', 'value': '601'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Server', 'value': 'Server'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:15 GMT'}, {'name': 'x-amz-rid', 'value': 'CKZYCH299JRDM4JP3P2Y'}, {'name': 'Vary', 'value': 'Content-Type,Accept-Encoding,User-Agent'}, {'name': 'Strict-Transport-Security', 'value': 'max-age=47474747; includeSubDomains; preload'}, {'name': 'X-Cache', 'value': 'Miss from cloudfront'}, {'name': 'Via', 'value': '1.1 b90806651a118b36ba53c2be6c347c46.cloudfront.net (CloudFront)'}, {'name': 'X-Amz-Cf-Pop', 'value': 'ORD56-P6'}, {'name': 'X-Amz-Cf-Id', 'value': 'lhEFDU6W1dytIhlK_aiMluIT_M1XcTA1J0nvQbJcUoBVr-Vropzmqw=='}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-LineItem-Id', 'value': '-2'}, {'name': 'Google-Creative-Id', 'value': '-2'}, {'name': 'X-Afma-Gws-Query-Id', 'value': '0_ATZM75JqHj48APuYCMeA'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:15 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '0'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-MediationGroup-Id', 'value': '87897'}, {'name': 'Google-MediationTag-Id', 'value': '158627'}, {'name': 'X-Afma-Bidding-Data', 'value': '{"bidding_data":[{"buyer_network_id":1234559,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1321765,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1297865,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1182088,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1446796,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1203298,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174565,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174568,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1256517,"external_label":"Won","external_description":"Won the auction. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1503477,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1289820,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"}]}'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CPSkgqyU4v0CFWqlAAAdhZ0KCA","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-Ad-Size', 'value': '320x50'}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"C4ho71PATZPTqBurKgrAPhbuqQNG8npBc3vvt6PECwI23ARABIABgyeamiPSjwBCCAR5jYS1tYi1hcHAtcHViLTM2ODY5ODE0MDc4Mzk2NDLIAQngAgCoAwGqBJ0CT9C6TXdzCM52U-rEpt_FZGENpXQU9V7d9wdTVB-qDWruNJ94s2UbmAN1rU52Nwhk7-ycnkWPggOyGdQYeOs3Pb1YArnUSrSp1D9dS2NylzE49E3QhZ8P9Ya73XRwALNhlK6Rvat-vulbsL8F4jYazKF9fVdM5IPPR5HBbrMPKJRELD8rqYUN3LM1swyOJHARylHoWJuYxSkcuZfeG4R3y-TQaaxI-Gve0ewdiOw8Ol-Gn5s39LIkIWiVA7sHgXKCR9ZIP1RUruZhmTmOSLc7W0k0R6KJ7HouDETh7guc2R4r4V5vGEqJ1kBpzlV7w_juajL4aTQnj_u-quRvPcLhHRFJFGZCWI0sagd6phEvWoqtR1hUesBMawfAQ8gI4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":true,"malicious_reporting_enabled":true,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '320x50'}, {'name': 'X-Afma-Gws-Query-Id', 'value': '1PATZIKdBJ6rgrAP9ZCMmA4'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":true,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CPSkgqyU4v0CFWqlAAAdhZ0KCA\\u0026creatives=crid0:99126823926,agcid0:99272588766,ctype0:33,ctid0:0,cuid0:198200285,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DC4ho71PATZPTqBurKgrAPhbuqQNG8npBc3vvt6PECwI23ARABIABgyeamiPSjwBCCAR5jYS1tYi1hcHAtcHViLTM2ODY5ODE0MDc4Mzk2NDLIAQngAgCoAwGqBJ0CT9C6TXdzCM52U-rEpt_FZGENpXQU9V7d9wdTVB-qDWruNJ94s2UbmAN1rU52Nwhk7-ycnkWPggOyGdQYeOs3Pb1YArnUSrSp1D9dS2NylzE49E3QhZ8P9Ya73XRwALNhlK6Rvat-vulbsL8F4jYazKF9fVdM5IPPR5HBbrMPKJRELD8rqYUN3LM1swyOJHARylHoWJuYxSkcuZfeG4R3y-TQaaxI-Gve0ewdiOw8Ol-Gn5s39LIkIWiVA7sHgXKCR9ZIP1RUruZhmTmOSLc7W0k0R6KJ7HouDETh7guc2R4r4V5vGEqJ1kBpzlV7w_juajL4aTQnj_u-quRvPcLhHRFJFGZCWI0sagd6phEvWoqtR1hUesBMawfAQ8gI4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ%26num%3D1%26sig%3DAOD64_0ba4qR_60r2LP6vakMExON-S9buw%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:C4ho71PATZPTqBurKgrAPhbuqQNG8npBc3vvt6PECwI23ARABIABgyeamiPSjwBCCAR5jYS1tYi1hcHAtcHViLTM2ODY5ODE0MDc4Mzk2NDLIAQngAgCoAwGqBJ0CT9C6TXdzCM52U-rEpt_FZGENpXQU9V7d9wdTVB-qDWruNJ94s2UbmAN1rU52Nwhk7-ycnkWPggOyGdQYeOs3Pb1YArnUSrSp1D9dS2NylzE49E3QhZ8P9Ya73XRwALNhlK6Rvat-vulbsL8F4jYazKF9fVdM5IPPR5HBbrMPKJRELD8rqYUN3LM1swyOJHARylHoWJuYxSkcuZfeG4R3y-TQaaxI-Gve0ewdiOw8Ol-Gn5s39LIkIWiVA7sHgXKCR9ZIP1RUruZhmTmOSLc7W0k0R6KJ7HouDETh7guc2R4r4V5vGEqJ1kBpzlV7w_juajL4aTQnj_u-quRvPcLhHRFJFGZCWI0sagd6phEvWoqtR1hUesBMawfAQ8gI4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ\\u0026creatives_pb=Cv0ECCEQ9peto_ECGN777ejxAiAAKN2XwV4y4wRDNGhvNzFQQVRaUFRxQnVyS2dyQVBoYnVxUU5HOG5wQmMzdnZ0NlBFQ3dJMjNBUkFCSUFCZ3llYW1pUFNqd0JDQ0FSNWpZUzF0WWkxaGNIQXRjSFZpTFRNMk9EWTVPREUwTURjNE16azJORExJQVFuZ0FnQ29Bd0dxQkowQ1Q5QzZUWGR6Q001MlUtckVwdF9GWkdFTnBYUVU5VjdkOXdkVFZCLXFEV3J1Tko5NHMyVWJtQU4xclU1Mk53aGs3LXljbmtXUGdnT3lHZFFZZU9zM1BiMVlBcm5VU3JTcDFEOWRTMk55bHpFNDlFM1FoWjhQOVlhNzNYUndBTE5obEs2UnZhdC12dWxic0w4RjRqWWF6S0Y5ZlZkTTVJUFBSNUhCYnJNUEtKUkVMRDhycVlVTjNMTTFzd3lPSkhBUnlsSG9XSnVZeFNrY3VaZmVHNFIzeS1UUWFheEktR3ZlMGV3ZGlPdzhPbC1HbjVzMzlMSWtJV2lWQTdzSGdYS0NSOVpJUDFSVXJ1WmhtVG1PU0xjN1cwazBSNktKN0hvdURFVGg3Z3VjMlI0cjRWNXZHRXFKMWtCcHpsVjd3X2p1YWpMNGFUUW5qX3UtcXVSdlBjTGhIUkZKRkdaQ1dJMHNhZ2Q2cGhFdldvcXRSMWhVZXNCTWF3ZkFROGdJNEFRQmdBYnh6NjJWeXRDNzVaOEJvQVlocUFlbXZodW9CNWJZRzZnSHFwdXhBcWdIXzU2eEFxZ0gzNS14QXRnSEFOSUlEUWlBWVJBQk1nS0tBam9DZ0VENkN3SUlBWUFNQWRBVkFZQVhBUQ\\u0026debugDialog=AppID%3D461033172%26Creatives%3D99126823926%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CPSkgqyU4v0CFWqlAAAdhZ0KCA\\u0026creatives=crid0:99126823926,agcid0:99272588766,ctype0:33,ctid0:0,cuid0:198200285,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DC4ho71PATZPTqBurKgrAPhbuqQNG8npBc3vvt6PECwI23ARABIABgyeamiPSjwBCCAR5jYS1tYi1hcHAtcHViLTM2ODY5ODE0MDc4Mzk2NDLIAQngAgCoAwGqBJ0CT9C6TXdzCM52U-rEpt_FZGENpXQU9V7d9wdTVB-qDWruNJ94s2UbmAN1rU52Nwhk7-ycnkWPggOyGdQYeOs3Pb1YArnUSrSp1D9dS2NylzE49E3QhZ8P9Ya73XRwALNhlK6Rvat-vulbsL8F4jYazKF9fVdM5IPPR5HBbrMPKJRELD8rqYUN3LM1swyOJHARylHoWJuYxSkcuZfeG4R3y-TQaaxI-Gve0ewdiOw8Ol-Gn5s39LIkIWiVA7sHgXKCR9ZIP1RUruZhmTmOSLc7W0k0R6KJ7HouDETh7guc2R4r4V5vGEqJ1kBpzlV7w_juajL4aTQnj_u-quRvPcLhHRFJFGZCWI0sagd6phEvWoqtR1hUesBMawfAQ8gI4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ%26num%3D1%26sig%3DAOD64_0ba4qR_60r2LP6vakMExON-S9buw%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:C4ho71PATZPTqBurKgrAPhbuqQNG8npBc3vvt6PECwI23ARABIABgyeamiPSjwBCCAR5jYS1tYi1hcHAtcHViLTM2ODY5ODE0MDc4Mzk2NDLIAQngAgCoAwGqBJ0CT9C6TXdzCM52U-rEpt_FZGENpXQU9V7d9wdTVB-qDWruNJ94s2UbmAN1rU52Nwhk7-ycnkWPggOyGdQYeOs3Pb1YArnUSrSp1D9dS2NylzE49E3QhZ8P9Ya73XRwALNhlK6Rvat-vulbsL8F4jYazKF9fVdM5IPPR5HBbrMPKJRELD8rqYUN3LM1swyOJHARylHoWJuYxSkcuZfeG4R3y-TQaaxI-Gve0ewdiOw8Ol-Gn5s39LIkIWiVA7sHgXKCR9ZIP1RUruZhmTmOSLc7W0k0R6KJ7HouDETh7guc2R4r4V5vGEqJ1kBpzlV7w_juajL4aTQnj_u-quRvPcLhHRFJFGZCWI0sagd6phEvWoqtR1hUesBMawfAQ8gI4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ\\u0026creatives_pb=Cv0ECCEQ9peto_ECGN777ejxAiAAKN2XwV4y4wRDNGhvNzFQQVRaUFRxQnVyS2dyQVBoYnVxUU5HOG5wQmMzdnZ0NlBFQ3dJMjNBUkFCSUFCZ3llYW1pUFNqd0JDQ0FSNWpZUzF0WWkxaGNIQXRjSFZpTFRNMk9EWTVPREUwTURjNE16azJORExJQVFuZ0FnQ29Bd0dxQkowQ1Q5QzZUWGR6Q001MlUtckVwdF9GWkdFTnBYUVU5VjdkOXdkVFZCLXFEV3J1Tko5NHMyVWJtQU4xclU1Mk53aGs3LXljbmtXUGdnT3lHZFFZZU9zM1BiMVlBcm5VU3JTcDFEOWRTMk55bHpFNDlFM1FoWjhQOVlhNzNYUndBTE5obEs2UnZhdC12dWxic0w4RjRqWWF6S0Y5ZlZkTTVJUFBSNUhCYnJNUEtKUkVMRDhycVlVTjNMTTFzd3lPSkhBUnlsSG9XSnVZeFNrY3VaZmVHNFIzeS1UUWFheEktR3ZlMGV3ZGlPdzhPbC1HbjVzMzlMSWtJV2lWQTdzSGdYS0NSOVpJUDFSVXJ1WmhtVG1PU0xjN1cwazBSNktKN0hvdURFVGg3Z3VjMlI0cjRWNXZHRXFKMWtCcHpsVjd3X2p1YWpMNGFUUW5qX3UtcXVSdlBjTGhIUkZKRkdaQ1dJMHNhZ2Q2cGhFdldvcXRSMWhVZXNCTWF3ZkFROGdJNEFRQmdBYnh6NjJWeXRDNzVaOEJvQVlocUFlbXZodW9CNWJZRzZnSHFwdXhBcWdIXzU2eEFxZ0gzNS14QXRnSEFOSUlEUWlBWVJBQk1nS0tBam9DZ0VENkN3SUlBWUFNQWRBVkFZQVhBUQ\\u0026debugDialog=AppID%3D461033172%26Creatives%3D99126823926%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AdGroup+Creative+ID+0=99272588766&amp;AdGroup+ID+0=27049595286&amp;App+ID=461033172&amp;Backend+Query+ID=CPSkgqyU4v0CFWqlAAAdhZ0KCA&amp;Creative+ID+0=99126823926&amp;Customer+ID+0=198200285&amp;Landing+Page+0=http://ignore_this_destination.com&amp;URL+Clickstring+0=C4ho71PATZPTqBurKgrAPhbuqQNG8npBc3vvt6PECwI23ARABIABgyeamiPSjwBCCAR5jYS1tYi1hcHAtcHViLTM2ODY5ODE0MDc4Mzk2NDLIAQngAgCoAwGqBJ0CT9C6TXdzCM52U-rEpt_FZGENpXQU9V7d9wdTVB-qDWruNJ94s2UbmAN1rU52Nwhk7-ycnkWPggOyGdQYeOs3Pb1YArnUSrSp1D9dS2NylzE49E3QhZ8P9Ya73XRwALNhlK6Rvat-vulbsL8F4jYazKF9fVdM5IPPR5HBbrMPKJRELD8rqYUN3LM1swyOJHARylHoWJuYxSkcuZfeG4R3y-TQaaxI-Gve0ewdiOw8Ol-Gn5s39LIkIWiVA7sHgXKCR9ZIP1RUruZhmTmOSLc7W0k0R6KJ7HouDETh7guc2R4r4V5vGEqJ1kBpzlV7w_juajL4aTQnj_u-quRvPcLhHRFJFGZCWI0sagd6phEvWoqtR1hUesBMawfAQ8gI4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CPSkgqyU4v0CFWqlAAAdhZ0KCA'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://pubads.g.doubleclick.net/pagead/adview?ai=CTgSY1PATZPTqBurKgrAPhbuqQNG8npBc3vvt6PECwI23ARABIABgyeamiPSjwBCCAR5jYS1tYi1hcHAtcHViLTM2ODY5ODE0MDc4Mzk2NDLIAQngAgCoAwGqBJoCT9C6TXdzCM52U-rEpt_FZGENpXQU9V7d9wdTVB-qDWruNJ94s2UbmAN1rU52Nwhk7-ycnkWPggOyGdQYeOs3Pb1YArnUSrSp1D9dS2NylzE49E3QhZ8P9Ya73XRwALNhlK6Rvat-vulbsL8F4jYazKF9fVdM5IPPR5HBbrMPKJRELD8rqYUN3LM1swyOJHARylHoWJuYxSkcuZfeG4R3y-TQaaxI-Gve0ewdiOw8Ol-Gn5s39LIkIWiVA7sHgXKCR9ZIP1RUruZhmTmOSLc7W0k0R6KJ7HouDETh7guc2R4r4V5vGEqJ1kBpzlV7w_juajL4aTRljdssYiKpXjQnW4KgUPGD-rEEYyliSZTeHh1m7EZ4YgqutWQ24AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgECACgP6CwIIAYAMAdAVAYAXAbIXHAoaEhRwdWItMzY4Njk4MTQwNzgzOTY0MhjI-ho&amp;sigh=bzRU6vJ9OxQ&amp;uach_m=[UACH]&amp;cid=CAQShgEA1BOcplwbmrq1FwWnXgWz8FL7-VatS7ASR-ds2hlovNotCH8bbPJtj8mGvD_W9WRGwQq60_rzO9WNj7USzxguJgpQRbans0FR1R9HJ0grjpte-koIwYf-26zWmi8NKvmh6ypLoUvmW7-3tgZjARFpXP38OcOQD8njkAiVXm4yM_0DJO-AURgB&amp;tpd=AGWhJmtupsXnwzPFvdCPOL1ALktf-rYvN5QjN_7RYkTup08t7awkKohgX8t8hZI-24x4WS_jZ0XokQ0VWSdWTBKkdoVVynibbXEzX8Be5TQJWdXmbXEfGH3-AqYPRVmE61Abbwz3YNJhXj2pRSnbyNnBAcSvcnAntbiqU2l6p1meJ2BmACc9oG5bAi1K4ore8_KX-kkU0SrOMz73njdBrQ78WKElUXCY3XoUf4AeO0zePpZbxCrBaIiUREKLL4IAuYxFg08AcyQzpRbF1g-RnlEaUwkZGZQ_d30D_FaqFL6kbH9KAqRX7REUWUiCDKKQzcRZsPLFbuLhJyPRLtDPC2uy2wzWddBacp2-N46dnOoQsXMcY6-L0n9-HYjR-wuCA3UWdqW1Fq4aXSozkNWjPLntNuSKCHSyG1rKAF66CYXo1yqPODLRMHDrvpUz7jQ7y8JX2-kYwAqAH85tvXNI2wQSbuWagrjJqxeOcnWfr6idw6KHrt_caAmNxDXi3U5F36fopxHiMEsd_I4fmLrmfQRPqoqN-b-UWxkfKgz5YJKsZQPmrjhKFj-31-eHM40w9x0E4bgBXDlwSCCQa66M_wyiOg46hGTHzHN-T-xcbDXpgsQhs2oyCXLGj1BtHp6lNcLwwOYuR6JH8NvxNuG6xHVOKq4_EdBrIF26yXNNurQrfF9lICvMRtmeRe1nuwhDw1F2Ski9c5D1yoxHBxL_bLBoIdgLa8XEqQHO49jQ7ndqmJa1gxagW_61iRMStmVZ6gQtQJLjiAt2vvMDkGaBAPbE5Oi5ztmicLa8Br6gycjytMJre3RC37Eri81OMNZEQO8BdFGUlugZXlh7huvRJ-Zt4i3vCnlQQNwwbc3t_pxZZa_g-2qAHKU5FxJvTyo8mgD_idrD--MyhZdbBLsn2kq_8UhIo3HTntrdSYRhREea7ncXXnsNDy0ULw-nIE9fFXhnyPlydmnPt3tPDEwTCifj1VIHsPWj1OQko3HIhCtpgvpz3zlodxq1ctu-ojUzpZ47pUMcvR0qa1HUlmGS2FVi0kS2uZX50ZFlu81MSilqq7w6L_z9YdJbdQ9qmJ59gspv133Gw0cqNf7BT8sSjMKnp2b97sV9RvjIAMweGeysSA5x9wZVy7GrkSejjwnoGpgLVPpQLhP2nkTZNm4stmmXDQKiM2ZCbEdKbMEXcgWqgpVSvnLr9TlZkt6HBTBtVhoxddOSG3otwAtSmLG78wAj62cCNz4SGMhx4w81o14Gvt2WwzSU2uWsPa-xBSKOqZebhsf3k7EB0TKYH2_rlOJAV_Cr4r_BkVNawpQOzNO5KNQH7EC5ifkalFTb0nVB3hdbeF_r1_aDHpL1xI17d5EPwJgYojLwFDpjZxuzUMOsYZNU3372tBOwBoVVAk1LaHmRWbYJtGw0wKe0R1XQQGdohs01uZRMvrck&amp;fbs_aeid=[gw_fbsaeid]'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:16 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '31308'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-LineItem-Id', 'value': '-2'}, {'name': 'Google-Creative-Id', 'value': '-2'}, {'name': 'X-Afma-Gws-Query-Id', 'value': '1PATZIihIfOLmtUPxbK36As'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:16 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '0'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Content-Type', 'value': 'text/javascript;charset=UTF-8'}, {'name': 'Content-Length', 'value': '618'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Server', 'value': 'Server'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:21 GMT'}, {'name': 'x-amz-rid', 'value': 'Z5ZT8NAEQ4FYW0AWJR54'}, {'name': 'Vary', 'value': 'Content-Type,Accept-Encoding,User-Agent'}, {'name': 'Strict-Transport-Security', 'value': 'max-age=47474747; includeSubDomains; preload'}, {'name': 'X-Cache', 'value': 'Miss from cloudfront'}, {'name': 'Via', 'value': '1.1 42fa987334e4ecfd52be3ba1803e9b82.cloudfront.net (CloudFront)'}, {'name': 'X-Amz-Cf-Pop', 'value': 'ORD56-P6'}, {'name': 'X-Amz-Cf-Id', 'value': '2LLKFD_-FV_b7QUHts9yK0r6VbThv36EwGQivUQkePR9Akfpfficzg=='}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-MediationGroup-Id', 'value': '87897'}, {'name': 'Google-MediationTag-Id', 'value': '158627'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AdGroup+Creative+ID+0=99272588766&amp;AdGroup+ID+0=27049595286&amp;App+ID=461033172&amp;Backend+Query+ID=CL2-7K6U4v0CFWedAAAdGkcL7w&amp;Creative+ID+0=99126823926&amp;Customer+ID+0=198200285&amp;Landing+Page+0=http://ignore_this_destination.com&amp;URL+Clickstring+0=CM0eP2vATZL3pAue6grAPmo6t-A7RvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSiAk_Q2SiEo02L-Cilp-KPlU8j8K4rQU4y4vSO03aDTz-SWHM9wpjcDbvV7T_KEnW7ZuficZYnIwqKPF5O_qobVRc-TAYgUINWWfWxd-W3k0PX0xA2qNlx_2AHJV-QP2N6xBOhlYhAh2olhQLI2i7-ktbtKcuFZeXZXL6a83ixJYJKr266Uai1ik4jr7y290HiyoMcgvb7t5t3Rk67UDgIa5TtqgmT3JXffoxEB2Z3LrnhoJxnD1Dc8rZPOgV37t1ip4sn_eaFUcYG-yqLxdSGxiUhkUJNcmq6H4cxjQYjsDQl67BHkFhVQ51cbdsSCNWx3rDgFIecA52BuN7o52YdTP-YVzFGGw8oRin1wZ61gEwQVaAIham1_LD4oBWJ0HbVSkn04AQBgAa4iPLBxbCz9q0BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":true,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CL2-7K6U4v0CFWedAAAdGkcL7w\\u0026creatives=crid0:99126823926,agcid0:99272588766,ctype0:33,ctid0:0,cuid0:198200285,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCM0eP2vATZL3pAue6grAPmo6t-A7RvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSiAk_Q2SiEo02L-Cilp-KPlU8j8K4rQU4y4vSO03aDTz-SWHM9wpjcDbvV7T_KEnW7ZuficZYnIwqKPF5O_qobVRc-TAYgUINWWfWxd-W3k0PX0xA2qNlx_2AHJV-QP2N6xBOhlYhAh2olhQLI2i7-ktbtKcuFZeXZXL6a83ixJYJKr266Uai1ik4jr7y290HiyoMcgvb7t5t3Rk67UDgIa5TtqgmT3JXffoxEB2Z3LrnhoJxnD1Dc8rZPOgV37t1ip4sn_eaFUcYG-yqLxdSGxiUhkUJNcmq6H4cxjQYjsDQl67BHkFhVQ51cbdsSCNWx3rDgFIecA52BuN7o52YdTP-YVzFGGw8oRin1wZ61gEwQVaAIham1_LD4oBWJ0HbVSkn04AQBgAa4iPLBxbCz9q0BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ%26num%3D1%26sig%3DAOD64_36GInfsvFJoXPy-lwOQJYfIonWsg%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CM0eP2vATZL3pAue6grAPmo6t-A7RvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSiAk_Q2SiEo02L-Cilp-KPlU8j8K4rQU4y4vSO03aDTz-SWHM9wpjcDbvV7T_KEnW7ZuficZYnIwqKPF5O_qobVRc-TAYgUINWWfWxd-W3k0PX0xA2qNlx_2AHJV-QP2N6xBOhlYhAh2olhQLI2i7-ktbtKcuFZeXZXL6a83ixJYJKr266Uai1ik4jr7y290HiyoMcgvb7t5t3Rk67UDgIa5TtqgmT3JXffoxEB2Z3LrnhoJxnD1Dc8rZPOgV37t1ip4sn_eaFUcYG-yqLxdSGxiUhkUJNcmq6H4cxjQYjsDQl67BHkFhVQ51cbdsSCNWx3rDgFIecA52BuN7o52YdTP-YVzFGGw8oRin1wZ61gEwQVaAIham1_LD4oBWJ0HbVSkn04AQBgAa4iPLBxbCz9q0BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ\\u0026creatives_pb=CoUFCCEQ9peto_ECGN777ejxAiAAKN2XwV4y6wRDTTBlUDJ2QVRaTDNwQXVlNmdyQVBtbzZ0LUE3UnZKNlFYTjc3N2VqeEFzQ050d0VRQVNBQVlNbm1wb2owbzhBUWdnRWVZMkV0YldJdFlYQndMWEIxWWkwek5qZzJPVGd4TkRBM09ETTVOalF5eUFFSjRBSUFxQU1CcWdTaUFrX1EyU2lFbzAyTC1DaWxwLUtQbFU4ajhLNHJRVTR5NHZTTzAzYURUei1TV0hNOXdwamNEYnZWN1RfS0VuVzdadWZpY1pZbkl3cUtQRjVPX3FvYlZSYy1UQVlnVUlOV1dmV3hkLVczazBQWDB4QTJxTmx4XzJBSEpWLVFQMk42eEJPaGxZaEFoMm9saFFMSTJpNy1rdGJ0S2N1RlplWFpYTDZhODNpeEpZSktyMjY2VWFpMWlrNGpyN3kyOTBIaXlvTWNndmI3dDV0M1JrNjdVRGdJYTVUdHFnbVQzSlhmZm94RUIyWjNMcm5ob0p4bkQxRGM4clpQT2dWMzd0MWlwNHNuX2VhRlVjWUcteXFMeGRTR3hpVWhrVUpOY21xNkg0Y3hqUVlqc0RRbDY3QkhrRmhWUTUxY2Jkc1NDTld4M3JEZ0ZJZWNBNTJCdU43bzUyWWRUUC1ZVnpGR0d3OG9SaW4xd1o2MWdFd1FWYUFJaGFtMV9MRDRvQldKMEhiVlNrbjA0QVFCZ0FhNGlQTEJ4YkN6OXEwQm9BWWhxQWVtdmh1b0I1YllHNmdIcXB1eEFxZ0hfNTZ4QXFnSDM1LXhBdGdIQU5JSURRaUFZUkFCTWdLS0Fqb0NnRUQ2Q3dJSUFZQU1BZEFWQVlBWEFR\\u0026debugDialog=AppID%3D461033172%26Creatives%3D99126823926%26Lineitems%3D116141472\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CL2-7K6U4v0CFWedAAAdGkcL7w\\u0026creatives=crid0:99126823926,agcid0:99272588766,ctype0:33,ctid0:0,cuid0:198200285,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCM0eP2vATZL3pAue6grAPmo6t-A7RvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSiAk_Q2SiEo02L-Cilp-KPlU8j8K4rQU4y4vSO03aDTz-SWHM9wpjcDbvV7T_KEnW7ZuficZYnIwqKPF5O_qobVRc-TAYgUINWWfWxd-W3k0PX0xA2qNlx_2AHJV-QP2N6xBOhlYhAh2olhQLI2i7-ktbtKcuFZeXZXL6a83ixJYJKr266Uai1ik4jr7y290HiyoMcgvb7t5t3Rk67UDgIa5TtqgmT3JXffoxEB2Z3LrnhoJxnD1Dc8rZPOgV37t1ip4sn_eaFUcYG-yqLxdSGxiUhkUJNcmq6H4cxjQYjsDQl67BHkFhVQ51cbdsSCNWx3rDgFIecA52BuN7o52YdTP-YVzFGGw8oRin1wZ61gEwQVaAIham1_LD4oBWJ0HbVSkn04AQBgAa4iPLBxbCz9q0BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ%26num%3D1%26sig%3DAOD64_36GInfsvFJoXPy-lwOQJYfIonWsg%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CM0eP2vATZL3pAue6grAPmo6t-A7RvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSiAk_Q2SiEo02L-Cilp-KPlU8j8K4rQU4y4vSO03aDTz-SWHM9wpjcDbvV7T_KEnW7ZuficZYnIwqKPF5O_qobVRc-TAYgUINWWfWxd-W3k0PX0xA2qNlx_2AHJV-QP2N6xBOhlYhAh2olhQLI2i7-ktbtKcuFZeXZXL6a83ixJYJKr266Uai1ik4jr7y290HiyoMcgvb7t5t3Rk67UDgIa5TtqgmT3JXffoxEB2Z3LrnhoJxnD1Dc8rZPOgV37t1ip4sn_eaFUcYG-yqLxdSGxiUhkUJNcmq6H4cxjQYjsDQl67BHkFhVQ51cbdsSCNWx3rDgFIecA52BuN7o52YdTP-YVzFGGw8oRin1wZ61gEwQVaAIham1_LD4oBWJ0HbVSkn04AQBgAa4iPLBxbCz9q0BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ\\u0026creatives_pb=CoUFCCEQ9peto_ECGN777ejxAiAAKN2XwV4y6wRDTTBlUDJ2QVRaTDNwQXVlNmdyQVBtbzZ0LUE3UnZKNlFYTjc3N2VqeEFzQ050d0VRQVNBQVlNbm1wb2owbzhBUWdnRWVZMkV0YldJdFlYQndMWEIxWWkwek5qZzJPVGd4TkRBM09ETTVOalF5eUFFSjRBSUFxQU1CcWdTaUFrX1EyU2lFbzAyTC1DaWxwLUtQbFU4ajhLNHJRVTR5NHZTTzAzYURUei1TV0hNOXdwamNEYnZWN1RfS0VuVzdadWZpY1pZbkl3cUtQRjVPX3FvYlZSYy1UQVlnVUlOV1dmV3hkLVczazBQWDB4QTJxTmx4XzJBSEpWLVFQMk42eEJPaGxZaEFoMm9saFFMSTJpNy1rdGJ0S2N1RlplWFpYTDZhODNpeEpZSktyMjY2VWFpMWlrNGpyN3kyOTBIaXlvTWNndmI3dDV0M1JrNjdVRGdJYTVUdHFnbVQzSlhmZm94RUIyWjNMcm5ob0p4bkQxRGM4clpQT2dWMzd0MWlwNHNuX2VhRlVjWUcteXFMeGRTR3hpVWhrVUpOY21xNkg0Y3hqUVlqc0RRbDY3QkhrRmhWUTUxY2Jkc1NDTld4M3JEZ0ZJZWNBNTJCdU43bzUyWWRUUC1ZVnpGR0d3OG9SaW4xd1o2MWdFd1FWYUFJaGFtMV9MRDRvQldKMEhiVlNrbjA0QVFCZ0FhNGlQTEJ4YkN6OXEwQm9BWWhxQWVtdmh1b0I1YllHNmdIcXB1eEFxZ0hfNTZ4QXFnSDM1LXhBdGdIQU5JSURRaUFZUkFCTWdLS0Fqb0NnRUQ2Q3dJSUFZQU1BZEFWQVlBWEFR\\u0026debugDialog=AppID%3D461033172%26Creatives%3D99126823926%26Lineitems%3D116141472\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CL2-7K6U4v0CFWedAAAdGkcL7w","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"CM0eP2vATZL3pAue6grAPmo6t-A7RvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSiAk_Q2SiEo02L-Cilp-KPlU8j8K4rQU4y4vSO03aDTz-SWHM9wpjcDbvV7T_KEnW7ZuficZYnIwqKPF5O_qobVRc-TAYgUINWWfWxd-W3k0PX0xA2qNlx_2AHJV-QP2N6xBOhlYhAh2olhQLI2i7-ktbtKcuFZeXZXL6a83ixJYJKr266Uai1ik4jr7y290HiyoMcgvb7t5t3Rk67UDgIa5TtqgmT3JXffoxEB2Z3LrnhoJxnD1Dc8rZPOgV37t1ip4sn_eaFUcYG-yqLxdSGxiUhkUJNcmq6H4cxjQYjsDQl67BHkFhVQ51cbdsSCNWx3rDgFIecA52BuN7o52YdTP-YVzFGGw8oRin1wZ61gEwQVaAIham1_LD4oBWJ0HbVSkn04AQBgAa4iPLBxbCz9q0BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":true,"malicious_reporting_enabled":true,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Bidding-Data', 'value': '{"bidding_data":[{"buyer_network_id":1,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1503477,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1446796,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1289820,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1256517,"external_label":"Won","external_description":"Won the auction. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1234559,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1321765,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174568,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1203298,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1297865,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1418116,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174565,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1182088,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"}]}'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://pubads.g.doubleclick.net/pagead/adview?ai=CDf3Q2vATZL3pAue6grAPmo6t-A7RvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSfAk_Q2SiEo02L-Cilp-KPlU8j8K4rQU4y4vSO03aDTz-SWHM9wpjcDbvV7T_KEnW7ZuficZYnIwqKPF5O_qobVRc-TAYgUINWWfWxd-W3k0PX0xA2qNlx_2AHJV-QP2N6xBOhlYhAh2olhQLI2i7-ktbtKcuFZeXZXL6a83ixJYJKr266Uai1ik4jr7y290HiyoMcgvb7t5t3Rk67UDgIa5TtqgmT3JXffoxEB2Z3LrnhoJxnD1Dc8rZPOgV37t1ip4sn_eaFUcYG-yqLxdSGxiUhkUJNcmq6H4cxjQYjsDQl67BHkFhVQ51cbdsSCNWx3rDgFIecA52BuN6q5UaPhDleNMeAXZzBAr40Y6KdiWIIuiX5wT5-V67UuN9rDhUj4AQBgAa4iPLBxbCz9q0BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgECACgP6CwIIAYAMAdAVAYAXAbIXHAoaEhRwdWItMzY4Njk4MTQwNzgzOTY0MhjI-ho&amp;sigh=mJw1DGIAv6c&amp;uach_m=[UACH]&amp;cid=CAQShgEA1BOcpmB8XAwuMWwA_A52emJEv1Lj7pN537HIbk1SiVgvwXeA56Pd-Zc4T91DJ69mAgysnq2QulByrKmmgy-2q0E7I6Zzd1UYkTkUN9wgS-pEHIzLXbgxwFj6BkhU-7xxko84AmZi08SGRL1JCxvrQZPsx58GzHWJBwlyoGP80Q_sRBXsMhgB&amp;tpd=AGWhJmtvtREQgGMeZfuJ8NVNk6tGDyr8k00jWnmwlrIcvC8a7JwCHZWy3LmpAQO4tl8fX1DcRdzQfpM33bgLzR7umP1Wtg5qgRrXOtvxWq6jNF5clQ1QvmO-goHiTITVAcgUs8ohC-W75W2hUZPFgkwfW-KQSnGpda7jhv9Y9Oq6mMtmax2RPmADi31M_cuGMJ9iykD2IP22QNRjwBsZROxiMQZXcJscBgZ5aKNdSiw1OzLT_AVSHf0j1Q3AV8FLm9oq6d8wA0MDLmUzfTni9bUtTew-vfSCG2c0gjEcTtGVVYbs0xMilBnruOBrHP2aKii7lyHIgI1CNyjdlDIh1Yj2At11nfzF1wVRophJ7iJdhBWGT62nnjkDH0PlPxSjTsFVVx6IOEXT1x7hbBKk_CfGkB33x7t7k4aR05dCOVJv7phU7KtK4v0enlFgbtg-jtzeYCAR1r0aQMwxoG2ymBZ4zXeOktMPSMXoe0o6oxiKorvYGDiSabiS8ojDXpH29twdc9BspKEr_LZwp3-8riWaa4R71JpIyOAGYd1772cBD01xIFgQlhJWEXJ2qkMXVL2o3UMN8smBO2xWGGSBJaPoxBE43aiLnDB8iby0Fvgqu3StSkXbTDv4-V1PK_tWhZyRjZxYhd5vzVnep5UFzDCKq0lH4AloE0-D3qxcYiuHn9YUQBDpAOHEhv12l2Gk1Eh7pkmzOaHsV6KE5EVJuBTaEm4lpGE1Idn764orQ9d35bux5YZFaLl3ZtUPtfvCD3sSAo4x7ImT6iZRrARCm8jZ-J11p7CFz636vDResk46IZIZUzu4DAAZSIgThMKNjxICF9uCTca0LChgoMEhKllAkxE7P7i4syH_AJOoPHs8MYZTQl3D3DUIEK1--U6jaVp28yecHdguH2_UYVteZXdNWGwhuWpDaoEmkGf3VgoKNE8upBhip_pnGB4gr-OoZq6jEfSyLXo6qUUzbKE4Si55dIdhx69jK2MCk5bl5YQxowGZ4x_xso7kALpKPwWZeBt2OUjn2lFnX2NtMtZoOiFX0wkvWFIJoEo5j_KKCjhP3rm61U_2nXJczLlLz7L7Y855Lt3_7kC1_TWuhht-3WQ_hHHsco1djgj7xB-rWHujG3nkAjbsbtSYDbdDfRdhmCbRt7FTCviWWuurnCSId2xiTpxafFQVeHCJosaWBrXJzgM4yhyEwl7lxJTzmeooDIAdpVmECqaeaYoIwBpkOzsSYysqLpz-m2Biy0Cl3GbIt4JQQ3U46aYA341CEJwwwDnHboL1x-ooOi3QmuCqN-NpChzecBVqEeW67R3ckY1etWogEGLu-UOFYkarkhVYVTf_nIc2OTOx8d4AOrzbfcNqGbW4brbaZfUzB9OBQffQJsuiFX215vshNzIqiG9W-vEICW1DKA5hBsH6iBQSeBJ8ZqM7dkyirgS1&amp;fbs_aeid=[gw_fbsaeid]'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Ad-Size', 'value': '300x250'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CL2-7K6U4v0CFWedAAAdGkcL7w'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '300x250'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-Gws-Query-Id', 'value': '2vATZI0h15qCsA-g3IioDA'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:22 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '31524'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-LineItem-Id', 'value': '-2'}, {'name': 'Google-Creative-Id', 'value': '-2'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Gws-Query-Id', 'value': '3vATZPHqFIvS48APxOWkuA8'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:26 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '0'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-LineItem-Id', 'value': '-2'}, {'name': 'Google-Creative-Id', 'value': '-2'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Gws-Query-Id', 'value': '3_ATZNWjIvLD18cPyZyc8AI'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:27 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '0'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Content-Type', 'value': 'text/javascript;charset=UTF-8'}, {'name': 'Content-Length', 'value': '581'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Server', 'value': 'Server'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:27 GMT'}, {'name': 'x-amz-rid', 'value': 'R9SBYFY49CEZ2QWR91K4'}, {'name': 'Vary', 'value': 'Content-Type,Accept-Encoding,User-Agent'}, {'name': 'Strict-Transport-Security', 'value': 'max-age=47474747; includeSubDomains; preload'}, {'name': 'X-Cache', 'value': 'Miss from cloudfront'}, {'name': 'Via', 'value': '1.1 3b8f80fa4b6d1a664ab1c32f5f78420c.cloudfront.net (CloudFront)'}, {'name': 'X-Amz-Cf-Pop', 'value': 'ORD56-P6'}, {'name': 'X-Amz-Cf-Id', 'value': 'pGeMzAyHNE4E2XM9hAPHtc-VQrRfrkKazG04YSW5r9jQ7xpaFMlswg=='}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-MediationGroup-Id', 'value': '87897'}, {'name': 'Google-MediationTag-Id', 'value': '141946'}, {'name': 'X-Afma-Bidding-Data', 'value': '{"bidding_data":[{"buyer_network_id":1203298,"external_label":"Won","external_description":"Won the auction. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1182088,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1446796,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174568,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1289820,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1234559,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1297865,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1321765,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1503477,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174565,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1256517,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"}]}'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CIKW2bGU4v0CFX_hGAIdDLUIcg","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '320x50'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"CiKEL4PATZIKmAf_C48APjOqikAf-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSPAk_Q1SO84n4HjCz2hAStv08p_y5XZ3GzMBTUI7KGgdTLy9q213idqxTLvoiFsAZsLzSHFX3jNTK8xSVs5zADxBVA-yQnsKb9biTyUCSP4SPQv6WtEf6Hrn82VYaUEgbh8NXI6LaTw8ObuClnICOKxIH9U76TFa2I5Ij1YXAxgkjCWQnFd18a8tHGzTDj8fcVWCHSqbhp9k7KMfwsWcrGywyN1RMGkIf5eSFGoPOI0QiOTfUyjstyi-B1o8hXHNQj9mb3HM_UtuCpuQ9XZ2eWVSkOnQyuK3BrrsWrtRztiuXWh49T07KrUW3a2pIZwA5s9Hm0oqt6ds7mymBmQ_MROtRs8JvPiuriS9o4f-0JaYHgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":true,"malicious_reporting_enabled":true,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AdGroup+Creative+ID+0=97359194062&amp;AdGroup+ID+0=25972665742&amp;App+ID=461033172&amp;Backend+Query+ID=CIKW2bGU4v0CFX_hGAIdDLUIcg&amp;Creative+ID+0=97256181262&amp;Customer+ID+0=154007422&amp;Landing+Page+0=http://ignore_this_destination.com&amp;URL+Clickstring+0=CiKEL4PATZIKmAf_C48APjOqikAf-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSPAk_Q1SO84n4HjCz2hAStv08p_y5XZ3GzMBTUI7KGgdTLy9q213idqxTLvoiFsAZsLzSHFX3jNTK8xSVs5zADxBVA-yQnsKb9biTyUCSP4SPQv6WtEf6Hrn82VYaUEgbh8NXI6LaTw8ObuClnICOKxIH9U76TFa2I5Ij1YXAxgkjCWQnFd18a8tHGzTDj8fcVWCHSqbhp9k7KMfwsWcrGywyN1RMGkIf5eSFGoPOI0QiOTfUyjstyi-B1o8hXHNQj9mb3HM_UtuCpuQ9XZ2eWVSkOnQyuK3BrrsWrtRztiuXWh49T07KrUW3a2pIZwA5s9Hm0oqt6ds7mymBmQ_MROtRs8JvPiuriS9o4f-0JaYHgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CIKW2bGU4v0CFX_hGAIdDLUIcg'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":true,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CIKW2bGU4v0CFX_hGAIdDLUIcg\\u0026creatives=crid0:97256181262,agcid0:97359194062,ctype0:33,ctid0:0,cuid0:154007422,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCiKEL4PATZIKmAf_C48APjOqikAf-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSPAk_Q1SO84n4HjCz2hAStv08p_y5XZ3GzMBTUI7KGgdTLy9q213idqxTLvoiFsAZsLzSHFX3jNTK8xSVs5zADxBVA-yQnsKb9biTyUCSP4SPQv6WtEf6Hrn82VYaUEgbh8NXI6LaTw8ObuClnICOKxIH9U76TFa2I5Ij1YXAxgkjCWQnFd18a8tHGzTDj8fcVWCHSqbhp9k7KMfwsWcrGywyN1RMGkIf5eSFGoPOI0QiOTfUyjstyi-B1o8hXHNQj9mb3HM_UtuCpuQ9XZ2eWVSkOnQyuK3BrrsWrtRztiuXWh49T07KrUW3a2pIZwA5s9Hm0oqt6ds7mymBmQ_MROtRs8JvPiuriS9o4f-0JaYHgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE%26num%3D1%26sig%3DAOD64_1HbbbhiB417NCF14nm2QAl9DjB1g%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CiKEL4PATZIKmAf_C48APjOqikAf-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSPAk_Q1SO84n4HjCz2hAStv08p_y5XZ3GzMBTUI7KGgdTLy9q213idqxTLvoiFsAZsLzSHFX3jNTK8xSVs5zADxBVA-yQnsKb9biTyUCSP4SPQv6WtEf6Hrn82VYaUEgbh8NXI6LaTw8ObuClnICOKxIH9U76TFa2I5Ij1YXAxgkjCWQnFd18a8tHGzTDj8fcVWCHSqbhp9k7KMfwsWcrGywyN1RMGkIf5eSFGoPOI0QiOTfUyjstyi-B1o8hXHNQj9mb3HM_UtuCpuQ9XZ2eWVSkOnQyuK3BrrsWrtRztiuXWh49T07KrUW3a2pIZwA5s9Hm0oqt6ds7mymBmQ_MROtRs8JvPiuriS9o4f-0JaYHgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE\\u0026creatives_pb=CuoECCEQjpyup-oCGM7PvdjqAiAAKP7ut0ky0ARDaUtFTDRQQVRaSUttQWZfQzQ4QVBqT3Fpa0FmLTBfZXZYTTdQdmRqcUFzQ050d0VRQVNBQVlNbm1wb2owbzhBUWdnRWVZMkV0YldJdFlYQndMWEIxWWkwek5qZzJPVGd4TkRBM09ETTVOalF5eUFFSjRBSUFxQU1CcWdTUEFrX1ExU084NG40SGpDejJoQVN0djA4cF95NVhaM0d6TUJUVUk3S0dnZFRMeTlxMjEzaWRxeFRMdm9pRnNBWnNMelNIRlgzak5USzh4U1ZzNXpBRHhCVkEteVFuc0tiOWJpVHlVQ1NQNFNQUXY2V3RFZjZIcm44MlZZYVVFZ2JoOE5YSTZMYVR3OE9idUNsbklDT0t4SUg5VTc2VEZhMkk1SWoxWVhBeGdrakNXUW5GZDE4YTh0SEd6VERqOGZjVldDSFNxYmhwOWs3S01md3NXY3JHeXd5TjFSTUdrSWY1ZVNGR29QT0kwUWlPVGZVeWpzdHlpLUIxbzhoWEhOUWo5bWIzSE1fVXR1Q3B1UTlYWjJlV1ZTa09uUXl1SzNCcnJzV3J0Unp0aXVYV2g0OVQwN0tyVVczYTJwSVp3QTVzOUhtMG9xdDZkczdteW1CbVFfTVJPdFJzOEp2UGl1cmlTOW80Zi0wSmFZSGdCQUdBQnZYbnN0T3J1dnlpRzZBR0lhZ0hwcjRicUFlVzJCdW9CNnFic1FLb0JfLWVzUUtvQjktZnNRTFlCd0RTQ0EwSWdHRVFBVElDaWdJNkFvQkEtZ3NDQ0FHQURBSFFGUUdBRndF\\u0026debugDialog=AppID%3D461033172%26Creatives%3D97256181262%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CIKW2bGU4v0CFX_hGAIdDLUIcg\\u0026creatives=crid0:97256181262,agcid0:97359194062,ctype0:33,ctid0:0,cuid0:154007422,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCiKEL4PATZIKmAf_C48APjOqikAf-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSPAk_Q1SO84n4HjCz2hAStv08p_y5XZ3GzMBTUI7KGgdTLy9q213idqxTLvoiFsAZsLzSHFX3jNTK8xSVs5zADxBVA-yQnsKb9biTyUCSP4SPQv6WtEf6Hrn82VYaUEgbh8NXI6LaTw8ObuClnICOKxIH9U76TFa2I5Ij1YXAxgkjCWQnFd18a8tHGzTDj8fcVWCHSqbhp9k7KMfwsWcrGywyN1RMGkIf5eSFGoPOI0QiOTfUyjstyi-B1o8hXHNQj9mb3HM_UtuCpuQ9XZ2eWVSkOnQyuK3BrrsWrtRztiuXWh49T07KrUW3a2pIZwA5s9Hm0oqt6ds7mymBmQ_MROtRs8JvPiuriS9o4f-0JaYHgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE%26num%3D1%26sig%3DAOD64_1HbbbhiB417NCF14nm2QAl9DjB1g%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CiKEL4PATZIKmAf_C48APjOqikAf-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSPAk_Q1SO84n4HjCz2hAStv08p_y5XZ3GzMBTUI7KGgdTLy9q213idqxTLvoiFsAZsLzSHFX3jNTK8xSVs5zADxBVA-yQnsKb9biTyUCSP4SPQv6WtEf6Hrn82VYaUEgbh8NXI6LaTw8ObuClnICOKxIH9U76TFa2I5Ij1YXAxgkjCWQnFd18a8tHGzTDj8fcVWCHSqbhp9k7KMfwsWcrGywyN1RMGkIf5eSFGoPOI0QiOTfUyjstyi-B1o8hXHNQj9mb3HM_UtuCpuQ9XZ2eWVSkOnQyuK3BrrsWrtRztiuXWh49T07KrUW3a2pIZwA5s9Hm0oqt6ds7mymBmQ_MROtRs8JvPiuriS9o4f-0JaYHgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE\\u0026creatives_pb=CuoECCEQjpyup-oCGM7PvdjqAiAAKP7ut0ky0ARDaUtFTDRQQVRaSUttQWZfQzQ4QVBqT3Fpa0FmLTBfZXZYTTdQdmRqcUFzQ050d0VRQVNBQVlNbm1wb2owbzhBUWdnRWVZMkV0YldJdFlYQndMWEIxWWkwek5qZzJPVGd4TkRBM09ETTVOalF5eUFFSjRBSUFxQU1CcWdTUEFrX1ExU084NG40SGpDejJoQVN0djA4cF95NVhaM0d6TUJUVUk3S0dnZFRMeTlxMjEzaWRxeFRMdm9pRnNBWnNMelNIRlgzak5USzh4U1ZzNXpBRHhCVkEteVFuc0tiOWJpVHlVQ1NQNFNQUXY2V3RFZjZIcm44MlZZYVVFZ2JoOE5YSTZMYVR3OE9idUNsbklDT0t4SUg5VTc2VEZhMkk1SWoxWVhBeGdrakNXUW5GZDE4YTh0SEd6VERqOGZjVldDSFNxYmhwOWs3S01md3NXY3JHeXd5TjFSTUdrSWY1ZVNGR29QT0kwUWlPVGZVeWpzdHlpLUIxbzhoWEhOUWo5bWIzSE1fVXR1Q3B1UTlYWjJlV1ZTa09uUXl1SzNCcnJzV3J0Unp0aXVYV2g0OVQwN0tyVVczYTJwSVp3QTVzOUhtMG9xdDZkczdteW1CbVFfTVJPdFJzOEp2UGl1cmlTOW80Zi0wSmFZSGdCQUdBQnZYbnN0T3J1dnlpRzZBR0lhZ0hwcjRicUFlVzJCdW9CNnFic1FLb0JfLWVzUUtvQjktZnNRTFlCd0RTQ0EwSWdHRVFBVElDaWdJNkFvQkEtZ3NDQ0FHQURBSFFGUUdBRndF\\u0026debugDialog=AppID%3D461033172%26Creatives%3D97256181262%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'X-Afma-Gws-Query-Id', 'value': '3_ATZMvwO5rD48APkKSX8Aw'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://pubads.g.doubleclick.net/pagead/adview?ai=Cwmf-4PATZIKmAf_C48APjOqikAf-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSMAk_Q1SO84n4HjCz2hAStv08p_y5XZ3GzMBTUI7KGgdTLy9q213idqxTLvoiFsAZsLzSHFX3jNTK8xSVs5zADxBVA-yQnsKb9biTyUCSP4SPQv6WtEf6Hrn82VYaUEgbh8NXI6LaTw8ObuClnICOKxIH9U76TFa2I5Ij1YXAxgkjCWQnFd18a8tHGzTDj8fcVWCHSqbhp9k7KMfwsWcrGywyN1RMGkIf5eSFGoPOI0QiOTfUyjstyi-B1o8hXHNQj9mb3HM_UtuCpuQ9XZ2eWVSkOnQyuK3BrrsWrtRztiuXWh49T07KrUS_Y-gDMW-VYX5L3H39kzzJR9khvbeuxkRhySW1xlMb6nGXLS0bgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBAgAoD-gsCCAGADAHQFQGAFwGyFxwKGhIUcHViLTM2ODY5ODE0MDc4Mzk2NDIYyPoa&amp;sigh=2o6gXIlTyYk&amp;uach_m=[UACH]&amp;cid=CAQShgEA1BOcptHGdazj3oCnr4CP_KEqL6uYDT5LWdrI_r5zjIvPEXPxMk83j56bhttHxnFthNm42VjR6lS3_bQOZL9ET_Ql8PpC3xkWrYJJE267varikx1t8aoRlv-nV34c_CvIQ8Z5nkpSI2HfJf1-rlKpIg1GmJXkklarzhmF8rE8kydgLdhOPBgB&amp;tpd=AGWhJmuOL-uJWh15pxDzXsp10EYn6XQvztx9LHOD5bE1dJKfivDKfZ4ObPENsX9I0saL7SOFE0BghxTVaEjBn85izhdi8qBXp3CNEdjg6eFnx-N6OxJXnpCxjDr-K-BZXnEX3XmYra_ubOrEvA1OZsIJAcqtGNN51HPF4DJBkyjaK4UsjjsdI5R22XHaP593Bz9B8Xtc1UR6CVOdCFpCV3sqdfs4cUEZQZPRAcD1R_8oK7CT3y5Sk8iK0GBQh-Pgq67DLDHwolTwE0oI2qoVpuAGzB6EG1okaKDp3IbPw4aMqFpbDYoRfMYdItottO6jW3_zS072HLK6UWqC8kpCaGw3gB6MGMnn2NKe9Tq3qaru7NPXQV5j4ZGp_NgTYxPtdjiue96txdNWJ7TT70aucLfU-DoS62Ruv4I4tzZcxlBGkCvtr0y82e91t6npqkBg3ZIjnyk6CaE2nxWULD0uSoFiabg21NXjJCPevCllnmNssxbOnHiDwvIsYzhlVaKWOuuSwrB13oGei5zbran8VMLwS6AIipmK-E2dwhDdJH9y4jqr3AChEIHt5F25NimIVhOmef6RVqGGu67Hnx08sZU0o6CiMg12JYsp7LbuSQtZbwoDopr_4n8eNAj_7uPu1zlpRe8GK-S3vpGmUONyJ9uHTqgzDfg37Io5Ba6jljXsAcmahW4Z5avLe5bT1zFsUSanJQ8FwxC_zoZYCH2elGLvKsFAIV8-hN3U-fyy2tZDsOxlZHN3z7yAs5txONxXntXDfsowCR8iG9s5g2inNgKAaqTCpk-Fo71wYNQu_gMKw-clLigMyOaDWR9cvN_06zfKJGd_snRKzUtdhdakUpHOwlJoRjKz_vPH2DFohrN6G2i7eqdzyv72Is5Q28Gl35boOKBBC1ugwnsoV49xs4jdXsb3L4eP_n4ZAD9C2dHoJQcxEYEZgB7aKSiTtKLgWPVGtI5IkNNr42WWZ3H_mTgckPjleB0w1Pa3vU7OGe-_tjFjj9ip39C2yeCj9cUeJ-FFy2e1QOXI8_DGWgXDMUt9Ux8KSd5ZB7JAbJfq7c7HinUEQKqR15m4IeXwHzha2axWYgVw1DBs5UFfZLjpch1zMmDpdX2swnpcrfZJn_wOc5CwHflswFhDlVE_tYsOcFb5AqhV5PpefUfqekKw0svsPS7fjS5BUooPKlcmEpKJimQ_wHrZZ5RstNMLogqVxqLIpSz8cYs4vm4kzobc2LbfUV8QNqH_aiyL78rfa9kfpaFww-9X7xE_i4nMz5AVJy7qWmJU2mjJWzqjll0nutMrMFQFOUpN7yBrBfznfbgB_Y8lyn2f1SziY3k2mX4oY6cyRfzQTQt7pOoCbIxMh_rDq9GKUGwY2Fnk4687wOqC4Mmc93bJgNisK2eho6ivAIsOVJ5MnJrNURDSSGyVq-wEYEP3mXXE_Gy0hXNTzBF3L6iDohpVycT0c2W3VTUBWiBkqjzbkwtlOLH1NsnqHWfJcFAyIS8XVfQhjHSxVxcFIs_zfGsr4A&amp;fbs_aeid=[gw_fbsaeid]'}, {'name': 'X-Afma-Ad-Size', 'value': '320x50'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:28 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '31676'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Content-Type', 'value': 'text/javascript;charset=UTF-8'}, {'name': 'Content-Length', 'value': '601'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Server', 'value': 'Server'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:47 GMT'}, {'name': 'x-amz-rid', 'value': '7HFB3C7XZ4SAD0EHZ5AC'}, {'name': 'Vary', 'value': 'Content-Type,Accept-Encoding,User-Agent'}, {'name': 'Strict-Transport-Security', 'value': 'max-age=47474747; includeSubDomains; preload'}, {'name': 'X-Cache', 'value': 'Miss from cloudfront'}, {'name': 'Via', 'value': '1.1 592c261b9cfaf6b108698873e1d16e28.cloudfront.net (CloudFront)'}, {'name': 'X-Amz-Cf-Pop', 'value': 'ORD56-P6'}, {'name': 'X-Amz-Cf-Id', 'value': '8WN6ZTZmFF3LpRyg0oYvzS1vLkiG9O6XEiQVWZspt1i1kIqymLhbWw=='}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-MediationGroup-Id', 'value': '87897'}, {'name': 'Google-MediationTag-Id', 'value': '141946'}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"CUAx98_ATZIW2NJDSBP-_m4gL_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0OI3COZ-7Cy1rEBKJT4cTpnR5xH-YV_XNEBYRCYlbGWXuaDKMNewzz4hGh7NqcJU4Kgn4qLn8w-ulX5NjWZ981-Jiw3wFJQ3tt7E5a2I18k6HzpgkytQmjzNe6UnpBka-91DzO9Kk5qX21qA2ApZBb_yej9dYW1F_Q8KSElAPuyhoXZ__Jv1YjhittiseLnphS8b-ZooY_njcD0ttSn1uzyTr577SbH0zauV-Sb9sJP9YehwCTnzWW2UkpkuLKz7CjmVMUBVs4Bc7W4r0H334R-jGBatHQliq_251d4WtPQgJi_bjzute8BfwzBosyeMfx3HNLYXisvADiey0umfOpoIJZBqRgwMqewcBPSA4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":true,"malicious_reporting_enabled":true,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Ad-Size', 'value': '320x50'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CMX7k7uU4v0CFRApAQod_98GsQ","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'X-Afma-Bidding-Data', 'value': '{"bidding_data":[{"buyer_network_id":1297865,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1256517,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1203298,"external_label":"Won","external_description":"Won the auction. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1182088,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174565,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1446796,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1503477,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1234559,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1321765,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1289820,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174568,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"}]}'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":true,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CMX7k7uU4v0CFRApAQod_98GsQ\\u0026creatives=crid0:97256181262,agcid0:97359194062,ctype0:33,ctid0:0,cuid0:154007422,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCUAx98_ATZIW2NJDSBP-_m4gL_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0OI3COZ-7Cy1rEBKJT4cTpnR5xH-YV_XNEBYRCYlbGWXuaDKMNewzz4hGh7NqcJU4Kgn4qLn8w-ulX5NjWZ981-Jiw3wFJQ3tt7E5a2I18k6HzpgkytQmjzNe6UnpBka-91DzO9Kk5qX21qA2ApZBb_yej9dYW1F_Q8KSElAPuyhoXZ__Jv1YjhittiseLnphS8b-ZooY_njcD0ttSn1uzyTr577SbH0zauV-Sb9sJP9YehwCTnzWW2UkpkuLKz7CjmVMUBVs4Bc7W4r0H334R-jGBatHQliq_251d4WtPQgJi_bjzute8BfwzBosyeMfx3HNLYXisvADiey0umfOpoIJZBqRgwMqewcBPSA4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB%26num%3D1%26sig%3DAOD64_1NHA1xbdlwpnEVQM_VCG0u1ZLPmA%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CUAx98_ATZIW2NJDSBP-_m4gL_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0OI3COZ-7Cy1rEBKJT4cTpnR5xH-YV_XNEBYRCYlbGWXuaDKMNewzz4hGh7NqcJU4Kgn4qLn8w-ulX5NjWZ981-Jiw3wFJQ3tt7E5a2I18k6HzpgkytQmjzNe6UnpBka-91DzO9Kk5qX21qA2ApZBb_yej9dYW1F_Q8KSElAPuyhoXZ__Jv1YjhittiseLnphS8b-ZooY_njcD0ttSn1uzyTr577SbH0zauV-Sb9sJP9YehwCTnzWW2UkpkuLKz7CjmVMUBVs4Bc7W4r0H334R-jGBatHQliq_251d4WtPQgJi_bjzute8BfwzBosyeMfx3HNLYXisvADiey0umfOpoIJZBqRgwMqewcBPSA4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB\\u0026creatives_pb=CucECCEQjpyup-oCGM7PvdjqAiAAKP7ut0kyzQRDVUF4OThfQVRaSVcyTkpEU0JQLV9tNGdMX3RQM3Ixek96NzNZNmdMQWpiY0JFQUVnQUdESjVxYUk5S1BBRUlJQkhtTmhMVzFpTFdGd2NDMXdkV0l0TXpZNE5qazRNVFF3Tnpnek9UWTBNc2dCQ2VBQ0FLZ0RBYW9FandKUDBPSTNDT1otN0N5MXJFQktKVDRjVHBuUjV4SC1ZVl9YTkVCWVJDWWxiR1dYdWFES01OZXd6ejRoR2g3TnFjSlU0S2duNHFMbjh3LXVsWDVOaldaOTgxLUppdzN3RkpRM3R0N0U1YTJJMThrNkh6cGdreXRRbWp6TmU2VW5wQmthLTkxRHpPOUtrNXFYMjFxQTJBcFpCYl95ZWo5ZFlXMUZfUThLU0VsQVB1eWhvWFpfX0p2MVlqaGl0dGlzZUxucGhTOGItWm9vWV9uamNEMHR0U24xdXp5VHI1NzdTYkgwemF1Vi1TYjlzSlA5WWVod0NUbnpXVzJVa3BrdUxLejdDam1WTVVCVnM0QmM3VzRyMEgzMzRSLWpHQmF0SFFsaXFfMjUxZDRXdFBRZ0ppX2JqenV0ZThCZnd6Qm9zeWVNZngzSE5MWVhpc3ZBRGlleTB1bWZPcG9JSlpCcVJnd01xZXdjQlBTQTRBUUJnQWIxNTdMVHE3cjhvaHVnQmlHb0I2YS1HNmdIbHRnYnFBZXFtN0VDcUFmX25yRUNxQWZmbjdFQzJBY0EwZ2dOQ0lCaEVBRXlBb29DT2dLQVFQb0xBZ2dCZ0F3QjBCVUJnQmNC\\u0026debugDialog=AppID%3D461033172%26Creatives%3D97256181262%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CMX7k7uU4v0CFRApAQod_98GsQ\\u0026creatives=crid0:97256181262,agcid0:97359194062,ctype0:33,ctid0:0,cuid0:154007422,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCUAx98_ATZIW2NJDSBP-_m4gL_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0OI3COZ-7Cy1rEBKJT4cTpnR5xH-YV_XNEBYRCYlbGWXuaDKMNewzz4hGh7NqcJU4Kgn4qLn8w-ulX5NjWZ981-Jiw3wFJQ3tt7E5a2I18k6HzpgkytQmjzNe6UnpBka-91DzO9Kk5qX21qA2ApZBb_yej9dYW1F_Q8KSElAPuyhoXZ__Jv1YjhittiseLnphS8b-ZooY_njcD0ttSn1uzyTr577SbH0zauV-Sb9sJP9YehwCTnzWW2UkpkuLKz7CjmVMUBVs4Bc7W4r0H334R-jGBatHQliq_251d4WtPQgJi_bjzute8BfwzBosyeMfx3HNLYXisvADiey0umfOpoIJZBqRgwMqewcBPSA4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB%26num%3D1%26sig%3DAOD64_1NHA1xbdlwpnEVQM_VCG0u1ZLPmA%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CUAx98_ATZIW2NJDSBP-_m4gL_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0OI3COZ-7Cy1rEBKJT4cTpnR5xH-YV_XNEBYRCYlbGWXuaDKMNewzz4hGh7NqcJU4Kgn4qLn8w-ulX5NjWZ981-Jiw3wFJQ3tt7E5a2I18k6HzpgkytQmjzNe6UnpBka-91DzO9Kk5qX21qA2ApZBb_yej9dYW1F_Q8KSElAPuyhoXZ__Jv1YjhittiseLnphS8b-ZooY_njcD0ttSn1uzyTr577SbH0zauV-Sb9sJP9YehwCTnzWW2UkpkuLKz7CjmVMUBVs4Bc7W4r0H334R-jGBatHQliq_251d4WtPQgJi_bjzute8BfwzBosyeMfx3HNLYXisvADiey0umfOpoIJZBqRgwMqewcBPSA4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB\\u0026creatives_pb=CucECCEQjpyup-oCGM7PvdjqAiAAKP7ut0kyzQRDVUF4OThfQVRaSVcyTkpEU0JQLV9tNGdMX3RQM3Ixek96NzNZNmdMQWpiY0JFQUVnQUdESjVxYUk5S1BBRUlJQkhtTmhMVzFpTFdGd2NDMXdkV0l0TXpZNE5qazRNVFF3Tnpnek9UWTBNc2dCQ2VBQ0FLZ0RBYW9FandKUDBPSTNDT1otN0N5MXJFQktKVDRjVHBuUjV4SC1ZVl9YTkVCWVJDWWxiR1dYdWFES01OZXd6ejRoR2g3TnFjSlU0S2duNHFMbjh3LXVsWDVOaldaOTgxLUppdzN3RkpRM3R0N0U1YTJJMThrNkh6cGdreXRRbWp6TmU2VW5wQmthLTkxRHpPOUtrNXFYMjFxQTJBcFpCYl95ZWo5ZFlXMUZfUThLU0VsQVB1eWhvWFpfX0p2MVlqaGl0dGlzZUxucGhTOGItWm9vWV9uamNEMHR0U24xdXp5VHI1NzdTYkgwemF1Vi1TYjlzSlA5WWVod0NUbnpXVzJVa3BrdUxLejdDam1WTVVCVnM0QmM3VzRyMEgzMzRSLWpHQmF0SFFsaXFfMjUxZDRXdFBRZ0ppX2JqenV0ZThCZnd6Qm9zeWVNZngzSE5MWVhpc3ZBRGlleTB1bWZPcG9JSlpCcVJnd01xZXdjQlBTQTRBUUJnQWIxNTdMVHE3cjhvaHVnQmlHb0I2YS1HNmdIbHRnYnFBZXFtN0VDcUFmX25yRUNxQWZmbjdFQzJBY0EwZ2dOQ0lCaEVBRXlBb29DT2dLQVFQb0xBZ2dCZ0F3QjBCVUJnQmNC\\u0026debugDialog=AppID%3D461033172%26Creatives%3D97256181262%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AdGroup+Creative+ID+0=97359194062&amp;AdGroup+ID+0=25972665742&amp;App+ID=461033172&amp;Backend+Query+ID=CMX7k7uU4v0CFRApAQod_98GsQ&amp;Creative+ID+0=97256181262&amp;Customer+ID+0=154007422&amp;Landing+Page+0=http://ignore_this_destination.com&amp;URL+Clickstring+0=CUAx98_ATZIW2NJDSBP-_m4gL_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0OI3COZ-7Cy1rEBKJT4cTpnR5xH-YV_XNEBYRCYlbGWXuaDKMNewzz4hGh7NqcJU4Kgn4qLn8w-ulX5NjWZ981-Jiw3wFJQ3tt7E5a2I18k6HzpgkytQmjzNe6UnpBka-91DzO9Kk5qX21qA2ApZBb_yej9dYW1F_Q8KSElAPuyhoXZ__Jv1YjhittiseLnphS8b-ZooY_njcD0ttSn1uzyTr577SbH0zauV-Sb9sJP9YehwCTnzWW2UkpkuLKz7CjmVMUBVs4Bc7W4r0H334R-jGBatHQliq_251d4WtPQgJi_bjzute8BfwzBosyeMfx3HNLYXisvADiey0umfOpoIJZBqRgwMqewcBPSA4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://pubads.g.doubleclick.net/pagead/adview?ai=CvtpN8_ATZIW2NJDSBP-_m4gL_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjAJP0OI3COZ-7Cy1rEBKJT4cTpnR5xH-YV_XNEBYRCYlbGWXuaDKMNewzz4hGh7NqcJU4Kgn4qLn8w-ulX5NjWZ981-Jiw3wFJQ3tt7E5a2I18k6HzpgkytQmjzNe6UnpBka-91DzO9Kk5qX21qA2ApZBb_yej9dYW1F_Q8KSElAPuyhoXZ__Jv1YjhittiseLnphS8b-ZooY_njcD0ttSn1uzyTr577SbH0zauV-Sb9sJP9YehwCTnzWW2UkpkuLKz7CjmVMUBVs4Bc7W4r0H334R-jGBatHQliq_251d4WtPQgJi_bjzvveeDNFquDh4xnPKATKg_rPffoBwmqckJTJCP-m45GXtuzWti34AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQIAKA_oLAggBgAwB0BUBgBcBshccChoSFHB1Yi0zNjg2OTgxNDA3ODM5NjQyGMj6Gg&amp;sigh=s_bF7vQxZOc&amp;uach_m=[UACH]&amp;cid=CAQShgEA1BOcpr93I6Xx-Zk82I9LOWIDFj4Z7D6rSD4NbseoXI8MKjusQ1qLhNbphTW4yqKEp25LKxTuk5ODFY-Z7LWZR1fDb_41YyNfgJiG6H8daxZCjEmtvsQen_RfNNx38U_oJFiiM4fVopriFEkgzUhrsTa1RCaswEk_nkZu7uTw2OZbOxWw6BgB&amp;tpd=AGWhJmti0dystY_Gh9G6wTit7tRSVa4maFcZDrMYrzQ9NZvQjIzr8cfeAANtaOsLhjk-8Vyka1UBBiIIYOFaU22ec4d_3y0iduxQ0JZjZowYAaOknCyk7kNsOJMbfq9vNs0Z06ryfsxf7TmSwIW6jX0pgZqnpvvJUyxBd23kCLy1MHj-rWfSdNO2wzyNMgHtfNJPKjtdbou8TnUFmrVws6Ja6WKfUVsFNLVPTSIAhHhBqzDULPCio3X8y7NbLBedB_pmqVKcyCkx89F41dDf82kKGu2Uo6uPkJEzb8-QuAqhyPy4hXE8vKXjL1QfR_Aj-_FE7pUey5JpwRTZr9HjmZz80fs5lSQKkvFxP8UfRcJepm3R6IdQjFg9biqC9DAsvpEPQsOPT_L3QceMr5ypm86kWGPJwSpmZoKgLkZZtvQp_NzfYiQwX4LDnymJIaJg9YVGJtM3FLmmSWzPcxPk0_L-VbnkJwTcYJaimM3RtslZAehefsbiXIe9HbFGAHSnBEIg21UGdCRU_kyxr7HZQ3boVPawIyEeZ22J5j209yy6Y4NVOOe5K5M_373diK9HnikxstxttWj15-tenoDpSf215KOeTaFE1YYrAnNLOUcRKI6Ehuhtpp5CGWpXs625jvbYMG0_odezTNF7CPASSK-ROAHzvkY51_iE8MMKQLGZkCSZk64iEriAenJjQOGpgk9y7bt_-fuYgDv1bKVXFv9xMhgEng-hWlIxEoCpIpBMf7PQmMR2Mh0E9cRDF0coTZ64RGofNw8rvyNBxBhozWWVDCEDaRgwztx6YAh1LVZe_31Gcey4MY7Ogf2ySrJBB7BbwiQG7et38fD4SLrMGGAe9Y0GHEbzqMe1b-10kiuHqAKxpgpYyXRs14Pvl6b-ridPyPafjwVP2b6APpaM323CNasPgOcJwz5he6OXgh9Wv7gS0sKpdC_UAJS78wvP6eetp6dSqgIaeSolCdJy8kbuAZbdMiw3aBEQmE4mdaeiQsKH8bY7yJIfItV4XoVk2NQlQu7jk9q6sJEJBs2otmxhIe27yPfU-ULyRrt1aKF3IU5HFfVQm8edvsZ1Q2oXkIOxq2wi1hlsoVkt6J3m-zxLRoa6DrHBNx0hznRyAY3dLmxqyKvfWKUQvJ3uYDQM9xG43-MrLGBiwF9FTxP_eDpsTUcwqoeyAQhzvTJL4xCo9Hwny3PV8hyE5lbvTNCBQ4gUM4WP0ZqJUbus_y0jhM_c_Aw6Ub1WILuIoIyDqln_ItsYCfI7xoJvkEgEgYt78arjf5xUu4bJjCQj-G_u_0yGdrsUGe1iWjK5TPL9oFfeIU2hgac5FPHfGexJHPhYW5nSVyvCPcQbgrYKOR7GGazc-63STr6HtadPpJhhTVlvyq3j63GRBzZ3sIZMOx3hJ947P4E8V5q9AynbsoSh05VT9xtOD6kx1mlTS_Jb1uiQGv1zxXK5rgCIAiKYouDNcF1ilTNDDBukhtE2xY18Jx64V07srEGOSlFUTddOeuLwpVybxgk_gQ&amp;fbs_aeid=[gw_fbsaeid]'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Gws-Query-Id', 'value': '8_ATZJrRMYW9Bp3khaAO'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CMX7k7uU4v0CFRApAQod_98GsQ'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '320x50'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:48 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '31670'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Content-Type', 'value': 'text/javascript;charset=UTF-8'}, {'name': 'Content-Length', 'value': '618'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Server', 'value': 'Server'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:47:59 GMT'}, {'name': 'x-amz-rid', 'value': 'TD8ZSPBF7SNSNBHNT3PP'}, {'name': 'Vary', 'value': 'Content-Type,Accept-Encoding,User-Agent'}, {'name': 'Strict-Transport-Security', 'value': 'max-age=47474747; includeSubDomains; preload'}, {'name': 'X-Cache', 'value': 'Miss from cloudfront'}, {'name': 'Via', 'value': '1.1 c5445f293f8aab8bb6b7a6fda978e0d2.cloudfront.net (CloudFront)'}, {'name': 'X-Amz-Cf-Pop', 'value': 'ORD56-P6'}, {'name': 'X-Amz-Cf-Id', 'value': 'AmlegVziLRVqFPjRUgzq3-r98h0Qho7kYdpjgyYq_wlwRFf8v3RSDg=='}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CMfk5sCU4v0CFWq5AAAdXAkDOw","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"C6lHC__ATZIfpKurygrAP3JKM2AO-tJuZb-HnvrCWEc7q1IqMDhABIKCrtSVgyeamiPSjwBCgAavr-_kCyAEC4AIAqAMByAPIBKoEhwJP0LdSjFG7AsMQaaxt7cNRylAtM1hapCHkUK7ZEmeo1w9K0ifEuxXYBKlF6BXZf4oMmnw7jt0DcvuRuV5Ex9tMiQT5Y1JCuVWMzQaQs3PT7vYikXRBs9FkLgBsC99-NvxfCoA80guMy3D6EYVC3LDlirT_Gzw_VBAZaNeLUAwkDollegsbzkpl1xS6x8VdxOcYBF4NW__oOse-YGz6rL4A7j4COpbyyYj1WNNyyw7LSQXQQFrcaY1RqxnPQzXVLW9yveo-72-HRp69GOg4Wf5VUdC5LhpsYEqT1kXkEyXZ1OO9LISdXnMD3lcOV3WdFa1OVBIL345R-Plhh2mcEFaAKMijx_jh-cAEps2y7Z0D4AQBiAXGs-bHKJAGAaAGAtgGAoAHufPNsAGYBwOoB47OG6gHk9gbqAfulrECqAf-nrECqAeko7ECqAfVyRuoB6a-G6gHmgaoB_PRG6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcBoAj1qaYEsAgC0ggPCIBhEAEYHTICigI6AoBAsQmXg5e9Dw0lgIAKA5gLAcgLAbgMAdgTDIIUERoPd3d3LjExYWxpdmUuY29t0BUB-BYBgBcB","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":true,"malicious_reporting_enabled":false,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'X-Afma-Bidding-Data', 'value': '{"bidding_data":[{"buyer_network_id":1,"external_label":"Won","external_description":"Won the auction. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174568,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1256517,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1234559,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1289820,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1503477,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1203298,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1446796,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1182088,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1297865,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1418116,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1321765,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174565,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"}]}'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":true,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CMfk5sCU4v0CFWq5AAAdXAkDOw\\u0026creatives=crid0:649562468801,agcid0:590122824673,ctype0:2,ctid0:0,cuid0:370934624,lp0:https://www.google.com/aclk%3Fsa%3Dl%26ai%3DC6lHC__ATZIfpKurygrAP3JKM2AO-tJuZb-HnvrCWEc7q1IqMDhABIKCrtSVgyeamiPSjwBCgAavr-_kCyAEC4AIAqAMByAPIBKoEhwJP0LdSjFG7AsMQaaxt7cNRylAtM1hapCHkUK7ZEmeo1w9K0ifEuxXYBKlF6BXZf4oMmnw7jt0DcvuRuV5Ex9tMiQT5Y1JCuVWMzQaQs3PT7vYikXRBs9FkLgBsC99-NvxfCoA80guMy3D6EYVC3LDlirT_Gzw_VBAZaNeLUAwkDollegsbzkpl1xS6x8VdxOcYBF4NW__oOse-YGz6rL4A7j4COpbyyYj1WNNyyw7LSQXQQFrcaY1RqxnPQzXVLW9yveo-72-HRp69GOg4Wf5VUdC5LhpsYEqT1kXkEyXZ1OO9LISdXnMD3lcOV3WdFa1OVBIL345R-Plhh2mcEFaAKMijx_jh-cAEps2y7Z0D4AQBiAXGs-bHKJAGAaAGAtgGAoAHufPNsAGYBwOoB47OG6gHk9gbqAfulrECqAf-nrECqAeko7ECqAfVyRuoB6a-G6gHmgaoB_PRG6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcBoAj1qaYEsAgC0ggPCIBhEAEYHTICigI6AoBAsQmXg5e9Dw0lgIAKA5gLAcgLAbgMAdgTDIIUERoPd3d3LjExYWxpdmUuY29t0BUB-BYBgBcB%26ae%3D2%26num%3D1%26cid%3DCAQShgEA1BOcpuMlS5amP-DiP6WGz_aZK1ALCANujKDt71ZTSh4-4DXqrLK6gafQFJFZb1owPQzU2xmHeD304cnO_oC-u8gfKUjkW4IkOLD9NC5VKsXkZwzf_kdTNkr8zBFhtusVib0pKkdJADNqNQ5vNkf8KFPwD_eQqiaI2cV0odh71Em7WPV18RgB%26sig%3DAOD64_2fzZ34odOaEOq-fKShrOfe2y0saw%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttps://about.clarifion.com/disgrdm/%253Fhttps://about.clarifion.com/disgrdm/,loginfo0:C6lHC__ATZIfpKurygrAP3JKM2AO-tJuZb-HnvrCWEc7q1IqMDhABIKCrtSVgyeamiPSjwBCgAavr-_kCyAEC4AIAqAMByAPIBKoEhwJP0LdSjFG7AsMQaaxt7cNRylAtM1hapCHkUK7ZEmeo1w9K0ifEuxXYBKlF6BXZf4oMmnw7jt0DcvuRuV5Ex9tMiQT5Y1JCuVWMzQaQs3PT7vYikXRBs9FkLgBsC99-NvxfCoA80guMy3D6EYVC3LDlirT_Gzw_VBAZaNeLUAwkDollegsbzkpl1xS6x8VdxOcYBF4NW__oOse-YGz6rL4A7j4COpbyyYj1WNNyyw7LSQXQQFrcaY1RqxnPQzXVLW9yveo-72-HRp69GOg4Wf5VUdC5LhpsYEqT1kXkEyXZ1OO9LISdXnMD3lcOV3WdFa1OVBIL345R-Plhh2mcEFaAKMijx_jh-cAEps2y7Z0D4AQBiAXGs-bHKJAGAaAGAtgGAoAHufPNsAGYBwOoB47OG6gHk9gbqAfulrECqAf-nrECqAeko7ECqAfVyRuoB6a-G6gHmgaoB_PRG6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcBoAj1qaYEsAgC0ggPCIBhEAEYHTICigI6AoBAsQmXg5e9Dw0lgIAKA5gLAcgLAbgMAdgTDIIUERoPd3d3LjExYWxpdmUuY29t0BUB-BYBgBcB\\u0026creatives_pb=CuAFCAIQwePC5_MSGOHnvrCWESAAKOCG8LABMsUFQzZsSENfX0FUWklmcEt1cnlnckFQM0pLTTJBTy10SnVaYi1IbnZyQ1dFYzdxMUlxTURoQUJJS0NydFNWZ3llYW1pUFNqd0JDZ0FhdnItX2tDeUFFQzRBSUFxQU1CeUFQSUJLb0Vod0pQMExkU2pGRzdBc01RYWF4dDdjTlJ5bEF0TTFoYXBDSGtVSzdaRW1lbzF3OUswaWZFdXhYWUJLbEY2QlhaZjRvTW1udzdqdDBEY3Z1UnVWNUV4OXRNaVFUNVkxSkN1VldNelFhUXMzUFQ3dllpa1hSQnM5RmtMZ0JzQzk5LU52eGZDb0E4MGd1TXkzRDZFWVZDM0xEbGlyVF9HendfVkJBWmFOZUxVQXdrRG9sbGVnc2J6a3BsMXhTNng4VmR4T2NZQkY0TldfX29Pc2UtWUd6NnJMNEE3ajRDT3BieXlZajFXTk55eXc3TFNRWFFRRnJjYVkxUnF4blBRelhWTFc5eXZlby03Mi1IUnA2OUdPZzRXZjVWVWRDNUxocHNZRXFUMWtYa0V5WFoxT085TElTZFhuTUQzbGNPVjNXZEZhMU9WQklMMzQ1Ui1QbGhoMm1jRUZhQUtNaWp4X2poLWNBRXBzMnk3WjBENEFRQmlBWEdzLWJIS0pBR0FhQUdBdGdHQW9BSHVmUE5zQUdZQndPb0I0N09HNmdIazlnYnFBZnVsckVDcUFmLW5yRUNxQWVrbzdFQ3FBZlZ5UnVvQjZhLUc2Z0htZ2FvQl9QUkc2Z0hsdGdicUFlcW03RUNxQWZfbnJFQ3FBZmZuN0VDMkFjQm9BajFxYVlFc0FnQzBnZ1BDSUJoRUFFWUhUSUNpZ0k2QW9CQXNRbVhnNWU5RHcwbGdJQUtBNWdMQWNnTEFiZ01BZGdURElJVUVSb1BkM2QzTGpFeFlXeHBkbVV1WTI5dDBCVUItQllCZ0JjQg\\u0026debugDialog=AppID%3D461033172%26Creatives%3D649562468801%26Lineitems%3D116141472\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CMfk5sCU4v0CFWq5AAAdXAkDOw\\u0026creatives=crid0:649562468801,agcid0:590122824673,ctype0:2,ctid0:0,cuid0:370934624,lp0:https://www.google.com/aclk%3Fsa%3Dl%26ai%3DC6lHC__ATZIfpKurygrAP3JKM2AO-tJuZb-HnvrCWEc7q1IqMDhABIKCrtSVgyeamiPSjwBCgAavr-_kCyAEC4AIAqAMByAPIBKoEhwJP0LdSjFG7AsMQaaxt7cNRylAtM1hapCHkUK7ZEmeo1w9K0ifEuxXYBKlF6BXZf4oMmnw7jt0DcvuRuV5Ex9tMiQT5Y1JCuVWMzQaQs3PT7vYikXRBs9FkLgBsC99-NvxfCoA80guMy3D6EYVC3LDlirT_Gzw_VBAZaNeLUAwkDollegsbzkpl1xS6x8VdxOcYBF4NW__oOse-YGz6rL4A7j4COpbyyYj1WNNyyw7LSQXQQFrcaY1RqxnPQzXVLW9yveo-72-HRp69GOg4Wf5VUdC5LhpsYEqT1kXkEyXZ1OO9LISdXnMD3lcOV3WdFa1OVBIL345R-Plhh2mcEFaAKMijx_jh-cAEps2y7Z0D4AQBiAXGs-bHKJAGAaAGAtgGAoAHufPNsAGYBwOoB47OG6gHk9gbqAfulrECqAf-nrECqAeko7ECqAfVyRuoB6a-G6gHmgaoB_PRG6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcBoAj1qaYEsAgC0ggPCIBhEAEYHTICigI6AoBAsQmXg5e9Dw0lgIAKA5gLAcgLAbgMAdgTDIIUERoPd3d3LjExYWxpdmUuY29t0BUB-BYBgBcB%26ae%3D2%26num%3D1%26cid%3DCAQShgEA1BOcpuMlS5amP-DiP6WGz_aZK1ALCANujKDt71ZTSh4-4DXqrLK6gafQFJFZb1owPQzU2xmHeD304cnO_oC-u8gfKUjkW4IkOLD9NC5VKsXkZwzf_kdTNkr8zBFhtusVib0pKkdJADNqNQ5vNkf8KFPwD_eQqiaI2cV0odh71Em7WPV18RgB%26sig%3DAOD64_2fzZ34odOaEOq-fKShrOfe2y0saw%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttps://about.clarifion.com/disgrdm/%253Fhttps://about.clarifion.com/disgrdm/,loginfo0:C6lHC__ATZIfpKurygrAP3JKM2AO-tJuZb-HnvrCWEc7q1IqMDhABIKCrtSVgyeamiPSjwBCgAavr-_kCyAEC4AIAqAMByAPIBKoEhwJP0LdSjFG7AsMQaaxt7cNRylAtM1hapCHkUK7ZEmeo1w9K0ifEuxXYBKlF6BXZf4oMmnw7jt0DcvuRuV5Ex9tMiQT5Y1JCuVWMzQaQs3PT7vYikXRBs9FkLgBsC99-NvxfCoA80guMy3D6EYVC3LDlirT_Gzw_VBAZaNeLUAwkDollegsbzkpl1xS6x8VdxOcYBF4NW__oOse-YGz6rL4A7j4COpbyyYj1WNNyyw7LSQXQQFrcaY1RqxnPQzXVLW9yveo-72-HRp69GOg4Wf5VUdC5LhpsYEqT1kXkEyXZ1OO9LISdXnMD3lcOV3WdFa1OVBIL345R-Plhh2mcEFaAKMijx_jh-cAEps2y7Z0D4AQBiAXGs-bHKJAGAaAGAtgGAoAHufPNsAGYBwOoB47OG6gHk9gbqAfulrECqAf-nrECqAeko7ECqAfVyRuoB6a-G6gHmgaoB_PRG6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcBoAj1qaYEsAgC0ggPCIBhEAEYHTICigI6AoBAsQmXg5e9Dw0lgIAKA5gLAcgLAbgMAdgTDIIUERoPd3d3LjExYWxpdmUuY29t0BUB-BYBgBcB\\u0026creatives_pb=CuAFCAIQwePC5_MSGOHnvrCWESAAKOCG8LABMsUFQzZsSENfX0FUWklmcEt1cnlnckFQM0pLTTJBTy10SnVaYi1IbnZyQ1dFYzdxMUlxTURoQUJJS0NydFNWZ3llYW1pUFNqd0JDZ0FhdnItX2tDeUFFQzRBSUFxQU1CeUFQSUJLb0Vod0pQMExkU2pGRzdBc01RYWF4dDdjTlJ5bEF0TTFoYXBDSGtVSzdaRW1lbzF3OUswaWZFdXhYWUJLbEY2QlhaZjRvTW1udzdqdDBEY3Z1UnVWNUV4OXRNaVFUNVkxSkN1VldNelFhUXMzUFQ3dllpa1hSQnM5RmtMZ0JzQzk5LU52eGZDb0E4MGd1TXkzRDZFWVZDM0xEbGlyVF9HendfVkJBWmFOZUxVQXdrRG9sbGVnc2J6a3BsMXhTNng4VmR4T2NZQkY0TldfX29Pc2UtWUd6NnJMNEE3ajRDT3BieXlZajFXTk55eXc3TFNRWFFRRnJjYVkxUnF4blBRelhWTFc5eXZlby03Mi1IUnA2OUdPZzRXZjVWVWRDNUxocHNZRXFUMWtYa0V5WFoxT085TElTZFhuTUQzbGNPVjNXZEZhMU9WQklMMzQ1Ui1QbGhoMm1jRUZhQUtNaWp4X2poLWNBRXBzMnk3WjBENEFRQmlBWEdzLWJIS0pBR0FhQUdBdGdHQW9BSHVmUE5zQUdZQndPb0I0N09HNmdIazlnYnFBZnVsckVDcUFmLW5yRUNxQWVrbzdFQ3FBZlZ5UnVvQjZhLUc2Z0htZ2FvQl9QUkc2Z0hsdGdicUFlcW03RUNxQWZfbnJFQ3FBZmZuN0VDMkFjQm9BajFxYVlFc0FnQzBnZ1BDSUJoRUFFWUhUSUNpZ0k2QW9CQXNRbVhnNWU5RHcwbGdJQUtBNWdMQWNnTEFiZ01BZGdURElJVUVSb1BkM2QzTGpFeFlXeHBkbVV1WTI5dDBCVUItQllCZ0JjQg\\u0026debugDialog=AppID%3D461033172%26Creatives%3D649562468801%26Lineitems%3D116141472\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AdGroup+Creative+ID+0=590122824673&amp;AdGroup+ID+0=111093261990&amp;App+ID=461033172&amp;Backend+Query+ID=CMfk5sCU4v0CFWq5AAAdXAkDOw&amp;Creative+ID+0=649562468801&amp;Customer+ID+0=370934624&amp;Landing+Page+0=https://about.clarifion.com/disgrdm/%3Fhttps://about.clarifion.com/disgrdm/&amp;URL+Clickstring+0=C6lHC__ATZIfpKurygrAP3JKM2AO-tJuZb-HnvrCWEc7q1IqMDhABIKCrtSVgyeamiPSjwBCgAavr-_kCyAEC4AIAqAMByAPIBKoEhwJP0LdSjFG7AsMQaaxt7cNRylAtM1hapCHkUK7ZEmeo1w9K0ifEuxXYBKlF6BXZf4oMmnw7jt0DcvuRuV5Ex9tMiQT5Y1JCuVWMzQaQs3PT7vYikXRBs9FkLgBsC99-NvxfCoA80guMy3D6EYVC3LDlirT_Gzw_VBAZaNeLUAwkDollegsbzkpl1xS6x8VdxOcYBF4NW__oOse-YGz6rL4A7j4COpbyyYj1WNNyyw7LSQXQQFrcaY1RqxnPQzXVLW9yveo-72-HRp69GOg4Wf5VUdC5LhpsYEqT1kXkEyXZ1OO9LISdXnMD3lcOV3WdFa1OVBIL345R-Plhh2mcEFaAKMijx_jh-cAEps2y7Z0D4AQBiAXGs-bHKJAGAaAGAtgGAoAHufPNsAGYBwOoB47OG6gHk9gbqAfulrECqAf-nrECqAeko7ECqAfVyRuoB6a-G6gHmgaoB_PRG6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcBoAj1qaYEsAgC0ggPCIBhEAEYHTICigI6AoBAsQmXg5e9Dw0lgIAKA5gLAcgLAbgMAdgTDIIUERoPd3d3LjExYWxpdmUuY29t0BUB-BYBgBcB'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://pubads.g.doubleclick.net/pagead/adview?ai=C7QTG__ATZIfpKurygrAP3JKM2AO-tJuZb-HnvrCWEc7q1IqMDhABIKCrtSVgyeamiPSjwBCgAavr-_kCyAEC4AIAqAMByAPIBKoEhAJP0LdSjFG7AsMQaaxt7cNRylAtM1hapCHkUK7ZEmeo1w9K0ifEuxXYBKlF6BXZf4oMmnw7jt0DcvuRuV5Ex9tMiQT5Y1JCuVWMzQaQs3PT7vYikXRBs9FkLgBsC99-NvxfCoA80guMy3D6EYVC3LDlirT_Gzw_VBAZaNeLUAwkDollegsbzkpl1xS6x8VdxOcYBF4NW__oOse-YGz6rL4A7j4COpbyyYj1WNNyyw7LSQXQQFrcaY1RqxnPQzXVLW9yveo-72-HRp69GOg4Wf5VUdC5LhpsYEqT1kXkEyXZluGdvkRCrGvjLHCK5y0mjQFGfBslx3PMUKHaFcy2PE5C0yK7J8AEps2y7Z0D4AQBiAXGs-bHKJIFBAgEGAGSBQQIBRgEkAYBoAYC2AYCgAe5882wAZgHA6gHjs4bqAeT2BuoB-6WsQKoB_6esQKoB6SjsQKoB9XJG6gHpr4b2AcB8gcEEOfrUaAI9ammBLAIAtIIDwiAYRABGB0yAooCOgKAQIAKA8gLAdgTDIIUERoPd3d3LjExYWxpdmUuY29t0BUBgBcBshceChwIABIUcHViLTIyMTAyNzM1NTc5MTA0NDEYyPoa&amp;sigh=pJK5jjoTXY8&amp;uach_m=[UACH]&amp;cid=CAQShgEA1BOcpuMlS5amP-DiP6WGz_aZK1ALCANujKDt71ZTSh4-4DXqrLK6gafQFJFZb1owPQzU2xmHeD304cnO_oC-u8gfKUjkW4IkOLD9NC5VKsXkZwzf_kdTNkr8zBFhtusVib0pKkdJADNqNQ5vNkf8KFPwD_eQqiaI2cV0odh71Em7WPV18RgB&amp;fbs_aeid=[gw_fbsaeid]'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CMfk5sCU4v0CFWq5AAAdXAkDOw'}, {'name': 'X-Afma-Ad-Size', 'value': '300x250'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-Gws-Query-Id', 'value': '__ATZNykKJC8grAPk4m3kA8'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '300x250'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:48:00 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '79059'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Content-Type', 'value': 'text/javascript;charset=UTF-8'}, {'name': 'Content-Length', 'value': '618'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Server', 'value': 'Server'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:48:01 GMT'}, {'name': 'x-amz-rid', 'value': 'NGXR36AWH19GMDNPNHGC'}, {'name': 'Vary', 'value': 'Content-Type,Accept-Encoding,User-Agent'}, {'name': 'Strict-Transport-Security', 'value': 'max-age=47474747; includeSubDomains; preload'}, {'name': 'X-Cache', 'value': 'Miss from cloudfront'}, {'name': 'Via', 'value': '1.1 4db169e2924d635da444e5b8f26d65ce.cloudfront.net (CloudFront)'}, {'name': 'X-Amz-Cf-Pop', 'value': 'ORD56-P6'}, {'name': 'X-Amz-Cf-Id', 'value': 'JmXeBGgQZcpw2mOmvT1Ch6zmyN_6uwqIHR05fuF-78Xqv0I3ovDWrg=='}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Content-Type', 'value': 'text/javascript;charset=UTF-8'}, {'name': 'Content-Length', 'value': '599'}, {'name': 'Connection', 'value': 'keep-alive'}, {'name': 'Server', 'value': 'Server'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:48:01 GMT'}, {'name': 'x-amz-rid', 'value': '819DG8SRYKAPXFYKZ7RF'}, {'name': 'Vary', 'value': 'Content-Type,Accept-Encoding,User-Agent'}, {'name': 'Strict-Transport-Security', 'value': 'max-age=47474747; includeSubDomains; preload'}, {'name': 'X-Cache', 'value': 'Miss from cloudfront'}, {'name': 'Via', 'value': '1.1 0fd9d4972adcc8c2a75b1234d2dccfbe.cloudfront.net (CloudFront)'}, {'name': 'X-Amz-Cf-Pop', 'value': 'ORD56-P6'}, {'name': 'X-Amz-Cf-Id', 'value': 'PWHNqY685ajt7m_YFg2wLr14R7YZL8w7wRlmrYnB5cXb_4ffaP5DDw=='}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'Google-MediationGroup-Id', 'value': '87897'}, {'name': 'Google-MediationTag-Id', 'value': '158627'}, {'name': 'X-Afma-Bidding-Data', 'value': '{"bidding_data":[{"buyer_network_id":1182088,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1297865,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1321765,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1234559,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1256517,"external_label":"Won","external_description":"Won the auction. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1446796,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1503477,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1203298,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1289820,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174568,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174565,"external_label":"Submitted bid","external_description":"Lost to another bidder. &lt;https://support.google.com/admob/answer/&gt;"}]}'}, {'name': 'X-Afma-Gws-Query-Id', 'value': 'AfETZLiuDNKMmtUPwtCj8AI'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":true,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CK64xcGU4v0CFRY_AQodWLgACQ\\u0026creatives=crid0:99126823926,agcid0:99272588766,ctype0:33,ctid0:0,cuid0:198200285,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCRhk2AfETZO6zD5b-BNjwgkjRvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgScAk_Q4CZIjE7ZvhttIy9gsBnxU6QTf9G7KqpQV5s40KFn0u9z1swkFYN478wlR-_WArbrMl25JVKcBmiuSar3eI05v5DyHlurA0raWamb-aBxt2a1_n9swVtKFPF-QZ2JW1saOvwMMHXpHAJX6zH8P-V3IzFR9gshowHul3F-hWO_hkI-ZH0zJ8ePLyF-cQlX1rV4pB7ahOebmDXtA0O76MCIXOipW62ofq2hesD07dmsRsuk6r2iGJwZ3coazlpp_vtKTx0ng8pDc4Z9Zqe9vZZ6HT8AWLTal8ZfR1N_pNpBkrywsapbN3bDbE7tgR0j6bFjuESHOE1M9sbbLfzUPS7laDlxmB8a3eIWz3SxXilvD0cdee0cC6U6QJzg4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ%26num%3D1%26sig%3DAOD64_0UMhGRAHx14iC6RlGlOXaASx7VRw%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CRhk2AfETZO6zD5b-BNjwgkjRvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgScAk_Q4CZIjE7ZvhttIy9gsBnxU6QTf9G7KqpQV5s40KFn0u9z1swkFYN478wlR-_WArbrMl25JVKcBmiuSar3eI05v5DyHlurA0raWamb-aBxt2a1_n9swVtKFPF-QZ2JW1saOvwMMHXpHAJX6zH8P-V3IzFR9gshowHul3F-hWO_hkI-ZH0zJ8ePLyF-cQlX1rV4pB7ahOebmDXtA0O76MCIXOipW62ofq2hesD07dmsRsuk6r2iGJwZ3coazlpp_vtKTx0ng8pDc4Z9Zqe9vZZ6HT8AWLTal8ZfR1N_pNpBkrywsapbN3bDbE7tgR0j6bFjuESHOE1M9sbbLfzUPS7laDlxmB8a3eIWz3SxXilvD0cdee0cC6U6QJzg4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ\\u0026creatives_pb=CvkECCEQ9peto_ECGN777ejxAiAAKN2XwV4y3wRDUmhrMkFmRVRaTzZ6RDViLUJOandna2pSdko2UVhONzc3ZWp4QXNDTnR3RVFBU0FBWU1ubXBvajBvOEFRZ2dFZVkyRXRiV0l0WVhCd0xYQjFZaTB6TmpnMk9UZ3hOREEzT0RNNU5qUXl5QUVKNEFJQXFBTUJxZ1NjQWtfUTRDWklqRTdadmh0dEl5OWdzQm54VTZRVGY5RzdLcXBRVjVzNDBLRm4wdTl6MXN3a0ZZTjQ3OHdsUi1fV0FyYnJNbDI1SlZLY0JtaXVTYXIzZUkwNXY1RHlIbHVyQTByYVdhbWItYUJ4dDJhMV9uOXN3VnRLRlBGLVFaMkpXMXNhT3Z3TU1IWHBIQUpYNnpIOFAtVjNJekZSOWdzaG93SHVsM0YtaFdPX2hrSS1aSDB6SjhlUEx5Ri1jUWxYMXJWNHBCN2FoT2VibURYdEEwTzc2TUNJWE9pcFc2Mm9mcTJoZXNEMDdkbXNSc3VrNnIyaUdKd1ozY29hemxwcF92dEtUeDBuZzhwRGM0WjlacWU5dlpaNkhUOEFXTFRhbDhaZlIxTl9wTnBCa3J5d3NhcGJOM2JEYkU3dGdSMGo2YkZqdUVTSE9FMU05c2JiTGZ6VVBTN2xhRGx4bUI4YTNlSVd6M1N4WGlsdkQwY2RlZTBjQzZVNlFKemc0QVFCZ0FieHo2MlZ5dEM3NVo4Qm9BWWhxQWVtdmh1b0I1YllHNmdIcXB1eEFxZ0hfNTZ4QXFnSDM1LXhBdGdIQU5JSURRaUFZUkFCTWdLS0Fqb0NnRUQ2Q3dJSUFZQU1BZEFWQVlBWEFR\\u0026debugDialog=AppID%3D461033172%26Creatives%3D99126823926%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CK64xcGU4v0CFRY_AQodWLgACQ\\u0026creatives=crid0:99126823926,agcid0:99272588766,ctype0:33,ctid0:0,cuid0:198200285,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCRhk2AfETZO6zD5b-BNjwgkjRvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgScAk_Q4CZIjE7ZvhttIy9gsBnxU6QTf9G7KqpQV5s40KFn0u9z1swkFYN478wlR-_WArbrMl25JVKcBmiuSar3eI05v5DyHlurA0raWamb-aBxt2a1_n9swVtKFPF-QZ2JW1saOvwMMHXpHAJX6zH8P-V3IzFR9gshowHul3F-hWO_hkI-ZH0zJ8ePLyF-cQlX1rV4pB7ahOebmDXtA0O76MCIXOipW62ofq2hesD07dmsRsuk6r2iGJwZ3coazlpp_vtKTx0ng8pDc4Z9Zqe9vZZ6HT8AWLTal8ZfR1N_pNpBkrywsapbN3bDbE7tgR0j6bFjuESHOE1M9sbbLfzUPS7laDlxmB8a3eIWz3SxXilvD0cdee0cC6U6QJzg4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ%26num%3D1%26sig%3DAOD64_0UMhGRAHx14iC6RlGlOXaASx7VRw%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CRhk2AfETZO6zD5b-BNjwgkjRvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgScAk_Q4CZIjE7ZvhttIy9gsBnxU6QTf9G7KqpQV5s40KFn0u9z1swkFYN478wlR-_WArbrMl25JVKcBmiuSar3eI05v5DyHlurA0raWamb-aBxt2a1_n9swVtKFPF-QZ2JW1saOvwMMHXpHAJX6zH8P-V3IzFR9gshowHul3F-hWO_hkI-ZH0zJ8ePLyF-cQlX1rV4pB7ahOebmDXtA0O76MCIXOipW62ofq2hesD07dmsRsuk6r2iGJwZ3coazlpp_vtKTx0ng8pDc4Z9Zqe9vZZ6HT8AWLTal8ZfR1N_pNpBkrywsapbN3bDbE7tgR0j6bFjuESHOE1M9sbbLfzUPS7laDlxmB8a3eIWz3SxXilvD0cdee0cC6U6QJzg4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ\\u0026creatives_pb=CvkECCEQ9peto_ECGN777ejxAiAAKN2XwV4y3wRDUmhrMkFmRVRaTzZ6RDViLUJOandna2pSdko2UVhONzc3ZWp4QXNDTnR3RVFBU0FBWU1ubXBvajBvOEFRZ2dFZVkyRXRiV0l0WVhCd0xYQjFZaTB6TmpnMk9UZ3hOREEzT0RNNU5qUXl5QUVKNEFJQXFBTUJxZ1NjQWtfUTRDWklqRTdadmh0dEl5OWdzQm54VTZRVGY5RzdLcXBRVjVzNDBLRm4wdTl6MXN3a0ZZTjQ3OHdsUi1fV0FyYnJNbDI1SlZLY0JtaXVTYXIzZUkwNXY1RHlIbHVyQTByYVdhbWItYUJ4dDJhMV9uOXN3VnRLRlBGLVFaMkpXMXNhT3Z3TU1IWHBIQUpYNnpIOFAtVjNJekZSOWdzaG93SHVsM0YtaFdPX2hrSS1aSDB6SjhlUEx5Ri1jUWxYMXJWNHBCN2FoT2VibURYdEEwTzc2TUNJWE9pcFc2Mm9mcTJoZXNEMDdkbXNSc3VrNnIyaUdKd1ozY29hemxwcF92dEtUeDBuZzhwRGM0WjlacWU5dlpaNkhUOEFXTFRhbDhaZlIxTl9wTnBCa3J5d3NhcGJOM2JEYkU3dGdSMGo2YkZqdUVTSE9FMU05c2JiTGZ6VVBTN2xhRGx4bUI4YTNlSVd6M1N4WGlsdkQwY2RlZTBjQzZVNlFKemc0QVFCZ0FieHo2MlZ5dEM3NVo4Qm9BWWhxQWVtdmh1b0I1YllHNmdIcXB1eEFxZ0hfNTZ4QXFnSDM1LXhBdGdIQU5JSURRaUFZUkFCTWdLS0Fqb0NnRUQ2Q3dJSUFZQU1BZEFWQVlBWEFR\\u0026debugDialog=AppID%3D461033172%26Creatives%3D99126823926%26Lineitems%3D80310552\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://pubads.g.doubleclick.net/pagead/adview?ai=CZOaZAfETZO6zD5b-BNjwgkjRvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSZAk_Q4CZIjE7ZvhttIy9gsBnxU6QTf9G7KqpQV5s40KFn0u9z1swkFYN478wlR-_WArbrMl25JVKcBmiuSar3eI05v5DyHlurA0raWamb-aBxt2a1_n9swVtKFPF-QZ2JW1saOvwMMHXpHAJX6zH8P-V3IzFR9gshowHul3F-hWO_hkI-ZH0zJ8ePLyF-cQlX1rV4pB7ahOebmDXtA0O76MCIXOipW62ofq2hesD07dmsRsuk6r2iGJwZ3coazlpp_vtKTx0ng8pDc4Z9Zqe9vZZ6HT8AWLTal8ZfR1N_pNpBkrywsapbN3bDbE7tgR0j6bFjuETFOm3ePgAdTgoSe70MLK6wOiMy1MwOIPFAGr6kpFkxYSf-1cbM4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgECACgP6CwIIAYAMAdAVAYAXAbIXHAoaEhRwdWItMzY4Njk4MTQwNzgzOTY0MhjI-ho&amp;sigh=LiduiEDp1G4&amp;uach_m=[UACH]&amp;cid=CAQShgEA1BOcphTlWGHEi9cCUNbWf21vOSXHm3AwCjHIkhbVqM_8tYqQYPSjIFXeXyrMBtq6iQ8yg4ViUqbI7uk24RCmP6HH3e_BiKCfBm_KXFbAFEbuY9K9CzGvymyIJGtCFrxVnzhXsavFZkRNf_8I1NuZTZgymsp9awT5sOBTLzG802pMnxDNDRgB&amp;tpd=AGWhJmv7NtE_2rnXHeMZ1WzYYphY5IR2XMaTmn5Ss3HGY04ZaYH6gVKyU0Zqh7JtQnS4Xuc4OaRsME-5gtoDmff-L-42OMNXGxJE087IRWify7s3WmCXtLGxwe6AwBaCTkKw98P9VKhw1Sa0FuQ5Zti_RHRo7wODryovqE42CVJbZPn18tOtQFQ3qMBAX7o4JrTKE2qm9rkSSgvp3uOIvbE-2YaNVUnXt-8qsvP5BBxj0dn6SELxtzHGo0fyBMRlw4W15d1Fqi0pC1DVOJQDVASwLo6s7ujs0ftUbodmoSVzFHGPos8VWs-uo6jqOCADu-kmb0kAtV5C2STvMyKph1guKB1c5Rti337NG_821-vG6v3aIDx-j9QP4kjiFaVPTopTVay4KRqef5KYovwpxLQXB8HNf0UDVzqpyRZdmkGHn-YxJg8akgHCwLZRM4W9x4XZO-AH9E_29lakW8DOfmUXMtPn3jwTQ7WKx4J1YgLFR6Mx47uesaMBjarHsWktyg0j2u-KrndZU8NB85KjOYYvjFYVl9gBJelYcw-NLcDDJgNiRUcmUMS7WATsY87172IiP9kWo8QdGksQQOsHHpeDSUmNeSh39ICotb2Yw9xmGNjMkTERtVL0OwVWSHFflzDrC-wi2DOp1YLjaHs2uA6zqL-Nt597i7Zu4rYeWvE0swZEbajqTefY1UCjYe1RiaJzevQOQAI1_0F_bIwAu90C6Wv92V4k4yD8iMdS9AYS-4OCwMSbvGgmH3V5Q3C7fknioFHnIwx9TWN1Rb3JHuWh_BtqmAgwJPNGboy9E3cPfDd27hHV801rpVDixsvKtpFWqcJZPnh05lcc8VnI1HeK30XUO9BWAOwnKn86u1_59W9o0gav827XoyJS7-wfXi2yNUvHhs8fU65WsFfG4RCX92VM1NM2UOiKo6EPMjvIIB-BoejdQDEx90BDH6DhLlWOFQxXjaEH4nL27phWZy0dJI8cPsqYb5UsrnV7JqV3YsJSaUBTUbxzuX1-ELAaipkpyjhgOeXK9h-8huRUjxBWVQ0TKVkEJuo7dRErQL4JOj-TFMSvibXQru5xD6qrMqjweTZ0MrzzIIiCuy6TIxB0LmS9AitR63VrX1Qlzw_CuLH-gkS3HergB2xRHItFCmU3zgsEmnDVQ_1u6IWzQLnafiQelf4bS9qVws-73ki6Rw6q7qJnFx97_wYDVoez_GzQeOE90vMQk5VnTUG-Z2u290G1oB_zbRfY1r77xUPu033TT3jW9e-8fRr-4m7Tos2-XT4zwAuKNYWzbsd7ovOABKOWPSCAz9vb6D5OOmeaKWgTcFnCr6HRqWA8Ai-irYfgwxXJvZZ_ykfQRMnS0v-7QXKPByL9wEgAxg34dFGzkK4XaUzFCMC5jZdNfH_QdpN9PMUToZtjA-Z2xC7Dhji475YEeuiOXgg_&amp;fbs_aeid=[gw_fbsaeid]'}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"CRhk2AfETZO6zD5b-BNjwgkjRvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgScAk_Q4CZIjE7ZvhttIy9gsBnxU6QTf9G7KqpQV5s40KFn0u9z1swkFYN478wlR-_WArbrMl25JVKcBmiuSar3eI05v5DyHlurA0raWamb-aBxt2a1_n9swVtKFPF-QZ2JW1saOvwMMHXpHAJX6zH8P-V3IzFR9gshowHul3F-hWO_hkI-ZH0zJ8ePLyF-cQlX1rV4pB7ahOebmDXtA0O76MCIXOipW62ofq2hesD07dmsRsuk6r2iGJwZ3coazlpp_vtKTx0ng8pDc4Z9Zqe9vZZ6HT8AWLTal8ZfR1N_pNpBkrywsapbN3bDbE7tgR0j6bFjuESHOE1M9sbbLfzUPS7laDlxmB8a3eIWz3SxXilvD0cdee0cC6U6QJzg4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":true,"malicious_reporting_enabled":true,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Ad-Size', 'value': '320x50'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CK64xcGU4v0CFRY_AQodWLgACQ","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CK64xcGU4v0CFRY_AQodWLgACQ'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '320x50'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AdGroup+Creative+ID+0=99272588766&amp;AdGroup+ID+0=27049595286&amp;App+ID=461033172&amp;Backend+Query+ID=CK64xcGU4v0CFRY_AQodWLgACQ&amp;Creative+ID+0=99126823926&amp;Customer+ID+0=198200285&amp;Landing+Page+0=http://ignore_this_destination.com&amp;URL+Clickstring+0=CRhk2AfETZO6zD5b-BNjwgkjRvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgScAk_Q4CZIjE7ZvhttIy9gsBnxU6QTf9G7KqpQV5s40KFn0u9z1swkFYN478wlR-_WArbrMl25JVKcBmiuSar3eI05v5DyHlurA0raWamb-aBxt2a1_n9swVtKFPF-QZ2JW1saOvwMMHXpHAJX6zH8P-V3IzFR9gshowHul3F-hWO_hkI-ZH0zJ8ePLyF-cQlX1rV4pB7ahOebmDXtA0O76MCIXOipW62ofq2hesD07dmsRsuk6r2iGJwZ3coazlpp_vtKTx0ng8pDc4Z9Zqe9vZZ6HT8AWLTal8ZfR1N_pNpBkrywsapbN3bDbE7tgR0j6bFjuESHOE1M9sbbLfzUPS7laDlxmB8a3eIWz3SxXilvD0cdee0cC6U6QJzg4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:48:01 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '31368'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'P3P', 'value': 'policyref="https://googleads.g.doubleclick.net/pagead/gcn_p3p_.xml", CP="CURa ADMa DEVa TAIo PSAo PSDo OUR IND UNI PUR INT DEM STA PRE COM NAV OTC NOI DSP COR"'}, {'name': 'Timing-Allow-Origin', 'value': '*'}, {'name': 'Cross-Origin-Resource-Policy', 'value': 'cross-origin'}, {'name': 'X-Afma-Ad-Size', 'value': '300x250'}, {'name': 'X-Afma-Omid-Settings', 'value': '{"media_type":0}'}, {'name': 'X-Afma-Content-Url-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Safe-Browsing', 'value': '{"click_string":"CsKJBAfETZNe8Goz9BKy6qqgImJGal2WnguL_vw7AjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEpQJP0DxrtkJMEksMwO2w1wqZFn5uBIAJ0_Q0aJhwIHWIgoEeBRMj4-6dSFNNgOFENTOEYisU4EpOKsRSBPDA9zrBPdKFABu3L6eruTRuW_9qVbqd21tA9vtZIn0-I7O1QMltFIxaToP1BzgEqgeIuIrmmcrhNegQyTpVMvU7nyGmxoLemGticzIvK_jCo2ODgcV86ZlSFBaCNgE8G7t77Sm0HOTEoZ9_eUFEJnDXZPkfACVww8pvDR7XG0f-NeQZji7U4v8FXlHrxzwGkR94ooxFm3eZDXRM_IgyoJZjgVJZ8HARPkuuI3U4yom6YWQnUHUzsJwohA3w75xDXFE5BCHlD-R0j_G41E8_duo8tJ6n0uLk0Tci_88KCgWb0LE-YqIwYZfaeuAEAYAGr46A7c2aruIOoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ","report_url":"https://sb-ssl.google.com/safebrowsing/clientreport/malware","non_malicious_reporting_enabled":false,"rendered_ad_enabled":false,"header_to_scrub":["cookie"],"protection_enabled":true,"malicious_reporting_enabled":true,"allowed_headers":["referer"],"webview_permissions":[]}'}, {'name': 'X-Afma-Enable-Omid', 'value': 'true'}, {'name': 'X-Afma-Auto-Collect-Location', 'value': 'true'}, {'name': 'X-Afma-Debug-Dialog', 'value': 'AdGroup+Creative+ID+0=498215715111&amp;AdGroup+ID+0=127217781037&amp;App+ID=461033172&amp;Backend+Query+ID=CJHozsGU4v0CFYw-AQodLJ0KhQ&amp;Creative+ID+0=545739040993&amp;Customer+ID+0=776146550&amp;Landing+Page+0=http://ignore_this_destination.com&amp;URL+Clickstring+0=CsKJBAfETZNe8Goz9BKy6qqgImJGal2WnguL_vw7AjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEpQJP0DxrtkJMEksMwO2w1wqZFn5uBIAJ0_Q0aJhwIHWIgoEeBRMj4-6dSFNNgOFENTOEYisU4EpOKsRSBPDA9zrBPdKFABu3L6eruTRuW_9qVbqd21tA9vtZIn0-I7O1QMltFIxaToP1BzgEqgeIuIrmmcrhNegQyTpVMvU7nyGmxoLemGticzIvK_jCo2ODgcV86ZlSFBaCNgE8G7t77Sm0HOTEoZ9_eUFEJnDXZPkfACVww8pvDR7XG0f-NeQZji7U4v8FXlHrxzwGkR94ooxFm3eZDXRM_IgyoJZjgVJZ8HARPkuuI3U4yom6YWQnUHUzsJwohA3w75xDXFE5BCHlD-R0j_G41E8_duo8tJ6n0uLk0Tci_88KCgWb0LE-YqIwYZfaeuAEAYAGr46A7c2aruIOoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ'}, {'name': 'X-Afma-Disable-Activation-And-Scroll', 'value': '1'}, {'name': 'X-Afma-Use-Displayed-Impression', 'value': 'true'}, {'name': 'X-Afma-Debug-Signals', 'value': '{"backend_query_id":"CJHozsGU4v0CFYw-AQodLJ0KhQ","yield_group_ids":[],"third_party_sdk_info":[]}'}, {'name': 'X-Afma-Content-Vertical-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Auto-Protection-Configuration', 'value': '{"enable_protection":true,"reporting_urls":["https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CJfB0MGU4v0CFYw-AQodLJ0KhQ\\u0026creatives=crid0:545739040993,agcid0:498215715111,ctype0:33,ctid0:0,cuid0:776146550,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCsKJBAfETZNe8Goz9BKy6qqgImJGal2WnguL_vw7AjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEpQJP0DxrtkJMEksMwO2w1wqZFn5uBIAJ0_Q0aJhwIHWIgoEeBRMj4-6dSFNNgOFENTOEYisU4EpOKsRSBPDA9zrBPdKFABu3L6eruTRuW_9qVbqd21tA9vtZIn0-I7O1QMltFIxaToP1BzgEqgeIuIrmmcrhNegQyTpVMvU7nyGmxoLemGticzIvK_jCo2ODgcV86ZlSFBaCNgE8G7t77Sm0HOTEoZ9_eUFEJnDXZPkfACVww8pvDR7XG0f-NeQZji7U4v8FXlHrxzwGkR94ooxFm3eZDXRM_IgyoJZjgVJZ8HARPkuuI3U4yom6YWQnUHUzsJwohA3w75xDXFE5BCHlD-R0j_G41E8_duo8tJ6n0uLk0Tci_88KCgWb0LE-YqIwYZfaeuAEAYAGr46A7c2aruIOoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ%26num%3D1%26sig%3DAOD64_2NzKbrqHVi_06qSRjlmupszLpPFA%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CsKJBAfETZNe8Goz9BKy6qqgImJGal2WnguL_vw7AjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEpQJP0DxrtkJMEksMwO2w1wqZFn5uBIAJ0_Q0aJhwIHWIgoEeBRMj4-6dSFNNgOFENTOEYisU4EpOKsRSBPDA9zrBPdKFABu3L6eruTRuW_9qVbqd21tA9vtZIn0-I7O1QMltFIxaToP1BzgEqgeIuIrmmcrhNegQyTpVMvU7nyGmxoLemGticzIvK_jCo2ODgcV86ZlSFBaCNgE8G7t77Sm0HOTEoZ9_eUFEJnDXZPkfACVww8pvDR7XG0f-NeQZji7U4v8FXlHrxzwGkR94ooxFm3eZDXRM_IgyoJZjgVJZ8HARPkuuI3U4yom6YWQnUHUzsJwohA3w75xDXFE5BCHlD-R0j_G41E8_duo8tJ6n0uLk0Tci_88KCgWb0LE-YqIwYZfaeuAEAYAGr46A7c2aruIOoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ\\u0026creatives_pb=CoYFCCEQ4dHThPEPGKeC4v-_DiAAKPacjPICMusEQ3NLSkJBZkVUWk5lOEdvejlCS3k2cXFnSW1KR2FsMlduZ3VMX3Z3N0FqYmNCRUFFZ0FHREo1cWFJOUtQQUVJSUJIbU5oTFcxaUxXRndjQzF3ZFdJdE16WTROams0TVRRd056Z3pPVFkwTXNnQkNlQUNBS2dEQWFvRXBRSlAwRHhydGtKTUVrc013TzJ3MXdxWkZuNXVCSUFKMF9RMGFKaHdJSFdJZ29FZUJSTWo0LTZkU0ZOTmdPRkVOVE9FWWlzVTRFcE9Lc1JTQlBEQTl6ckJQZEtGQUJ1M0w2ZXJ1VFJ1V185cVZicWQyMXRBOXZ0WkluMC1JN08xUU1sdEZJeGFUb1AxQnpnRXFnZUl1SXJtbWNyaE5lZ1F5VHBWTXZVN255R214b0xlbUd0aWN6SXZLX2pDbzJPRGdjVjg2WmxTRkJhQ05nRThHN3Q3N1NtMEhPVEVvWjlfZVVGRUpuRFhaUGtmQUNWd3c4cHZEUjdYRzBmLU5lUVpqaTdVNHY4RlhsSHJ4endHa1I5NG9veEZtM2VaRFhSTV9JZ3lvSlpqZ1ZKWjhIQVJQa3V1STNVNHlvbTZZV1FuVUhVenNKd29oQTN3NzV4RFhGRTVCQ0hsRC1SMGpfRzQxRThfZHVvOHRKNm4wdUxrMFRjaV84OEtDZ1diMExFLVlxSXdZWmZhZXVBRUFZQUdyNDZBN2MyYXJ1SU9vQVlocUFlbXZodW9CNWJZRzZnSHFwdXhBcWdIXzU2eEFxZ0gzNS14QXRnSEFOSUlEUWlBWVJBQk1nS0tBam9DZ0VENkN3SUlBWUFNQWRBVkFZQVhBUQ\\u0026debugDialog=AppID%3D461033172%26Creatives%3D545739040993%26Lineitems%3D6026706459\\u0026navigationURL={NAVIGATION_URL}"],"reporting_url":"https://pagead2.googlesyndication.com/pagead/gen_204?id=gmob-apps\\u0026event=auto-protection\\u0026type=prevented-creative-action\\u0026qid=CJfB0MGU4v0CFYw-AQodLJ0KhQ\\u0026creatives=crid0:545739040993,agcid0:498215715111,ctype0:33,ctid0:0,cuid0:776146550,lp0:https://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCsKJBAfETZNe8Goz9BKy6qqgImJGal2WnguL_vw7AjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEpQJP0DxrtkJMEksMwO2w1wqZFn5uBIAJ0_Q0aJhwIHWIgoEeBRMj4-6dSFNNgOFENTOEYisU4EpOKsRSBPDA9zrBPdKFABu3L6eruTRuW_9qVbqd21tA9vtZIn0-I7O1QMltFIxaToP1BzgEqgeIuIrmmcrhNegQyTpVMvU7nyGmxoLemGticzIvK_jCo2ODgcV86ZlSFBaCNgE8G7t77Sm0HOTEoZ9_eUFEJnDXZPkfACVww8pvDR7XG0f-NeQZji7U4v8FXlHrxzwGkR94ooxFm3eZDXRM_IgyoJZjgVJZ8HARPkuuI3U4yom6YWQnUHUzsJwohA3w75xDXFE5BCHlD-R0j_G41E8_duo8tJ6n0uLk0Tci_88KCgWb0LE-YqIwYZfaeuAEAYAGr46A7c2aruIOoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ%26num%3D1%26sig%3DAOD64_2NzKbrqHVi_06qSRjlmupszLpPFA%26client%3Dca-mb-app-pub-3686981407839642%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26adurl%3Dhttp://ignore_this_destination.com,loginfo0:CsKJBAfETZNe8Goz9BKy6qqgImJGal2WnguL_vw7AjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEpQJP0DxrtkJMEksMwO2w1wqZFn5uBIAJ0_Q0aJhwIHWIgoEeBRMj4-6dSFNNgOFENTOEYisU4EpOKsRSBPDA9zrBPdKFABu3L6eruTRuW_9qVbqd21tA9vtZIn0-I7O1QMltFIxaToP1BzgEqgeIuIrmmcrhNegQyTpVMvU7nyGmxoLemGticzIvK_jCo2ODgcV86ZlSFBaCNgE8G7t77Sm0HOTEoZ9_eUFEJnDXZPkfACVww8pvDR7XG0f-NeQZji7U4v8FXlHrxzwGkR94ooxFm3eZDXRM_IgyoJZjgVJZ8HARPkuuI3U4yom6YWQnUHUzsJwohA3w75xDXFE5BCHlD-R0j_G41E8_duo8tJ6n0uLk0Tci_88KCgWb0LE-YqIwYZfaeuAEAYAGr46A7c2aruIOoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ\\u0026creatives_pb=CoYFCCEQ4dHThPEPGKeC4v-_DiAAKPacjPICMusEQ3NLSkJBZkVUWk5lOEdvejlCS3k2cXFnSW1KR2FsMlduZ3VMX3Z3N0FqYmNCRUFFZ0FHREo1cWFJOUtQQUVJSUJIbU5oTFcxaUxXRndjQzF3ZFdJdE16WTROams0TVRRd056Z3pPVFkwTXNnQkNlQUNBS2dEQWFvRXBRSlAwRHhydGtKTUVrc013TzJ3MXdxWkZuNXVCSUFKMF9RMGFKaHdJSFdJZ29FZUJSTWo0LTZkU0ZOTmdPRkVOVE9FWWlzVTRFcE9Lc1JTQlBEQTl6ckJQZEtGQUJ1M0w2ZXJ1VFJ1V185cVZicWQyMXRBOXZ0WkluMC1JN08xUU1sdEZJeGFUb1AxQnpnRXFnZUl1SXJtbWNyaE5lZ1F5VHBWTXZVN255R214b0xlbUd0aWN6SXZLX2pDbzJPRGdjVjg2WmxTRkJhQ05nRThHN3Q3N1NtMEhPVEVvWjlfZVVGRUpuRFhaUGtmQUNWd3c4cHZEUjdYRzBmLU5lUVpqaTdVNHY4RlhsSHJ4endHa1I5NG9veEZtM2VaRFhSTV9JZ3lvSlpqZ1ZKWjhIQVJQa3V1STNVNHlvbTZZV1FuVUhVenNKd29oQTN3NzV4RFhGRTVCQ0hsRC1SMGpfRzQxRThfZHVvOHRKNm4wdUxrMFRjaV84OEtDZ1diMExFLVlxSXdZWmZhZXVBRUFZQUdyNDZBN2MyYXJ1SU9vQVlocUFlbXZodW9CNWJZRzZnSHFwdXhBcWdIXzU2eEFxZ0gzNS14QXRnSEFOSUlEUWlBWVJBQk1nS0tBam9DZ0VENkN3SUlBWUFNQWRBVkFZQVhBUQ\\u0026debugDialog=AppID%3D461033172%26Creatives%3D545739040993%26Lineitems%3D6026706459\\u0026navigationURL={NAVIGATION_URL}"}'}, {'name': 'X-Afma-Use-Https', 'value': 'true'}, {'name': 'X-Afma-Tracking-Urls', 'value': 'https://securepubads.g.doubleclick.net/pcs/view?xai=AKAOjstXOns9OYwDGBIj0EqOD0a8PTZqtZ7izziXYvVyjCvksw2LyZrkczbx66utMTUJ8eHom-5BB7i4On035xmWpMzOrIQpVqmiZQ2ssO94biveZihizmv0md34TBpTXLsfaGYgYSSFEeItdPTIQDtYjt19u-1fz5bhTnTd87Rod7mE8wdhYN02INPw2gZwv8G9JFPDP9N1o9xPGoWG8e0psECKN4BQvnqhSinV1Wz1Df4VyjUwvvxdb63tb0PUnEnC_NUaZgLo3OJHDkn8ygrZl_lw1YjoiRx0V_YlGswRp7cfBMv1jioNPH9yBA8s9i6pnc_lCjJ3kw8niJAMAyCSm4GlOsxIzHovgAfvqL7aiYcgeg0XdgcpdiNKngh1Yf-Ut2rgWGOauPQmwpfxHbcMcQF3X_Cf0i7750wASgOc-YHF95FFLzetqxxulx69gH4LI-IbcQZZB3G0zOLPNDukdHEh0IeQ7wWfGKcKzUB7lklst_KlHJ_TVfPTfFtJU91AG14nb6IXjNxmxPOb390Ep6pYjPs_IKrIfFtVRUsjQLUC9WbwhC2ArHT35qgq965TRhYCDhLSwOWmvOH_EOKMaegsaQsXztNT6vjddmALy1bA61CG7BnLEv2rPvvGcqrUEdh7NxmYjZiqH0D_eyHo6yRV6-HtFtzMCBJscd1bp5br6W8gdMZIWRZcFvrk7qwU0fscgSzt3rJeMSQsGr87nnfKFhQTn8cjs95W24JuBLPvhKxEfUfHjwf8y55KFiB78t8Cj7Ai0ZxqnP3hThlzYIhhqCjVMz0J5-lzXSl_ZqpoXTMDkhJvU1T1EJMvXK5FbdB3E4xIAkJjCAhehcRmZffJDBdctLyC5Ag3iK3HRaFV1x9bDOHVwfkHacmDW2RFRYQ9LLqXJqWuCY9A9OqHb0s8ZqCtLZ21KJCgPdVFeR6On6DnOAzTUsTOUQ0LmIWc7A9o-yzvHs9Tlmwz4fcyxIykxFaYvCIXqIDn-hQ8MkMlmef6Tkcj6v-v7myJiLVyypjKgpgduu_hsltHcH_dv7SzMrlKdVyKcl5E97WEa2JQAQ0iLqINit5tieLvYhazX_6LMGZPEFmaRtyEB4tdXRIB0B-wX_i8N-7EMv8XETmaxduiSfkwfGt2wZl5pVrt4m3wyJqauUxponF-8dfS_YyuGOuMzzb6RkXAJwTPbS9FjugObFXSjR67mmMjpXpiF1bjgoIkKwaheEgYeVsSZs1nBR738Ig9k_6IV8OetspsTzn026a0e-g65TQ_G98O5C5hH00ftYTp0wQxWf7QCOOO5OnY7-2vjtSXnmralfmQJFA46lleBiBbmcPMjImzZ_ELwGyQ-5pjiQ&amp;sai=AMfl-YTA71TOQcsmcbA9S9XWiHoOs9mPLWXZZwM1km-j88D5W-I4PhftVrYKxcwL1J09RAg5iEXbjfkhx7mPNI-eDzb3wcGOlrhCYjpCvXmcPyoBmeXmikGderSPwmX89NnB9nSk8ZKRatHYG5_U2TkWRXQJrZBLLuKXD6LeQ2H0dpXcueE6EUh-dUolvHIQ1UDvoiw6tPYKwv12nhWY7m6yK2NIBeBxvDP2Rim0hd887UCMJMMSybkTvXlsYCKZAsxiWrZEJxyYZVL1411cjuqq9XL0na6xQqQHT5UdXuGqgj90hIu63TqAPTjMi-fZSaN5IQ1ixvTN78aWfXvuDlOtkYGjzWnyOdRsrfOSJWyTGzcMJb84KkMqKhrFLUa3TT6h8l2BJ3bv4EBkAFIDuek2tn6aaVTa6BqkrFj69Ii95trpCP5Fv1p38JiG-p395I-M_5_rb9bXuUCl5BDyWDejkznStgz17wiGvJS52ScwPAlaBjQeGT1AfbVXApiZTBTMKy3NWsE&amp;sig=Cg0ArKJSzFm3Ogq1tNUyEAE&amp;uach_m=[UACH]&amp;urlfix=1&amp;fbs_aeid=[gw_fbsaeid]&amp;adurl= https://ghent-gce-sc.bidswitch.net/win_notice/google_bid_json?rid=rOv6EnusoeXuM1aESFwB_D5iZntM1Xkm0UDr26YPgHNjtTB7h5Dvd7deYcsafo5TOjri8fneV79_v_lBAOIGmHSmIqahyXD6H72t9PHEB4WO4Jx82cZL2kjYef5v7exLkCudw193VhibZDfoDdVmKsE1vk6d5aFZWUax9G7ZDPHjmP7iq6mhUR1FmNGMNvkhcCLZLNG9pP6HbZ2J-GkgUaqG_LLsj8_TEGR7OE43e9ML09K4_Jc7I3xFmJCMiqR0UkLDuYVRxyp0Hwd8t99Dg1rD9Eh7bWPhLInocUwZqe8Ae2GVuQyzX1aUJ8hMUshKw3CUicTjwOjkv4Hz7CzmBQTgeoOdOvw1W9KlHoFoaULr3bQ3gtaP1qVF3r1yE6Q2Xg7ab4Obj4Fuf3e8butYhfUWu7W3afvYGVGrKSk86Av8Y_Qf5wPjHLjncr03hndRmHRbsgkbu4KuHkAwd7rlC1S0pprxkrm4t8FNpz4nmoN1f9JOHrw0GTexFstW_5GZCE6SJCLrROjb1N_MGIb-OUYyUwMb4dWy3H1tYWeDmEmHqEfhFn3kfe0HBj9KEIDf5Epkbmk-0vcgKpnIK8OCDDvnVSCAonmRmqpLuMK4OXXz5z75NKAduI8bZZqU9K3Q3qMBlPG5FWKUnQYmlRCGcqe5VNhY2jbSa_elMoqY5bqN-GfYHyKx6aBl7a5M8iVCCNW2RMyKzVTVcXb4ox5_DhQmRByPdKvRM8Wo0OD5JGiqSdrurnbIBzKMW_N6mgL_As00aXJpazGiGdA1E6Ra02GBWEC9bEZNZDuERj0pvvWY57J_Ml5C8gA6BaO2Rhegq-Z6F0fkBGFYZRONza2s7_48m9qebNVaR0raza5H6e6rDSmWwxHy9hKJmM-bwYsKRbHBO0tTQmEdRpyuqYX_gI_DfzdeatjAaIFDeX6paCyoz6m0WYn6S1F8JCjqPHPd_oMYcJlvQimtOHtmVGWVrWOpp1iInfYexgPg8tYsaZIGp9ME5u7S-1e7bf0Ag-q-dTm24uWAqMITfOlt9spbWYaal8GCyrhl_Nx_CkUNvwDXRGfURAPkSsFGQy-TmN50OWRwL62i4NQ0Q-pzuwhiJBQWBAgaQ2WEF9PiLaxW9QRxnOO4SOcK2Qle1KrhuXyXJtvag7k2Y5mVYGPVkHbQQyhScampvh-FQ97RU84y_aEd_NBe1qXarAiiLw38J4hIhA9AHKI_sElgE5Adtg&amp;p=ZBPxAQAGnlcKAT6MAAqdLCcTx_6XhmRm0Owg7A&amp;aid='}, {'name': 'X-Afma-Bidding-Data', 'value': '{"bidding_data":[{"buyer_network_id":1234559,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1,"external_label":"Won","external_description":"Won the auction. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1503477,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1297865,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1256517,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1182088,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1446796,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1203298,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174568,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1321765,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1289820,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1174565,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"},{"buyer_network_id":1418116,"external_label":"No ad returned","external_description":"Go to Help for details. &lt;https://support.google.com/admob/answer/&gt;"}]}'}, {'name': 'X-Afma-Gws-Query-Id', 'value': 'AfETZJnUF8GkBayUjsgE'}, {'name': 'X-Afma-On-Device-Brand-Safety-Opted-Out', 'value': 'true'}, {'name': 'X-Afma-Ad-Slot-Size', 'value': '300x250'}, {'name': 'X-Afma-Backend-Query-Id', 'value': 'CJHozsGU4v0CFYw-AQodLJ0KhQ'}, {'name': 'Date', 'value': 'Fri, 17 Mar 2023 04:48:02 GMT'}, {'name': 'Pragma', 'value': 'no-cache'}, {'name': 'Expires', 'value': 'Fri, 01 Jan 1990 00:00:00 GMT'}, {'name': 'Cache-Control', 'value': 'no-cache, must-revalidate'}, {'name': 'Content-Type', 'value': 'text/html; charset=UTF-8'}, {'name': 'X-Content-Type-Options', 'value': 'nosniff'}, {'name': 'Server', 'value': 'cafe'}, {'name': 'Content-Length', 'value': '40857'}, {'name': 'X-XSS-Protection', 'value': '0'}, {'name': 'Alt-Svc', 'value': 'h3=":443"; ma=2592000,h3-29=":443"; ma=2592000'}]</t>
+  </si>
+  <si>
     <t>responseBody_list</t>
   </si>
   <si>
+    <t>{'compression': 0, 'text': '{"msg":"ok","idChanged":false,"adId":"A7AHj-jiDUvMrvajPlbhPfc","rcode":1,"opt-out":0}\n', 'size': 86, 'mimeType': 'text/plain;charset=ISO-8859-1'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '&lt;!doctype html&gt;&lt;html&gt;&lt;head&gt;&lt;meta name="viewport" content="width=265, initial-scale=1.0, minimum-scale=1.0, maximum-scale=1.0, user-scalable=no"&gt;&lt;script&gt;var jscVersion = \'r20230315\';&lt;/script&gt;&lt;script&gt;var google_casm=["afma-sdk-i-v8.11.0"];&lt;/script&gt;&lt;script data-jc="84" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ function aa(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}}var m="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a}; function ba(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("Cannot find global object");}var ca=ba(this);function p(a,b){if(b)a:{var c=ca;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;m(c,a,{configurable:!0,writable:!0,value:b})}} p("Symbol",function(a){function b(f){if(this instanceof b)throw new TypeError("Symbol is not a constructor");return new c(d+(f||"")+"_"+e++,f)}function c(f,l){this.g=f;m(this,"description",{configurable:!0,writable:!0,value:l})}if(a)return a;c.prototype.toString=function(){return this.g};var d="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",e=0;return b}); p("Symbol.iterator",function(a){if(a)return a;a=Symbol("Symbol.iterator");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=ca[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;m(d.prototype,a,{configurable:!0,writable:!0,value:function(){return da(aa(this))}})}return a});function da(a){a={next:a};a[Symbol.iterator]=function(){return this};return a} function q(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];if(b)return b.call(a);if("number"==typeof a.length)return{next:aa(a)};throw Error(String(a)+" is not an iterable or ArrayLike");}var ea="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},r; if("function"==typeof Object.setPrototypeOf)r=Object.setPrototypeOf;else{var t;a:{var fa={a:!0},ha={};try{ha.__proto__=fa;t=ha.a;break a}catch(a){}t=!1}r=t?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ia=r; function u(a,b){a.prototype=ea(b.prototype);a.prototype.constructor=a;if(ia)ia(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.A=b.prototype}function v(a,b){return Object.prototype.hasOwnProperty.call(a,b)} p("WeakMap",function(a){function b(h){this.g=(g+=Math.random()+1).toString();if(h){h=q(h);for(var k;!(k=h.next()).done;)k=k.value,this.set(k[0],k[1])}}function c(){}function d(h){var k=typeof h;return"object"===k&amp;&amp;null!==h||"function"===k}function e(h){if(!v(h,l)){var k=new c;m(h,l,{value:k})}}function f(h){var k=Object[h];k&amp;&amp;(Object[h]=function(n){if(n instanceof c)return n;Object.isExtensible(n)&amp;&amp;e(n);return k(n)})}if(function(){if(!a||!Object.seal)return!1;try{var h=Object.seal({}),k=Object.seal({}), n=new a([[h,2],[k,3]]);if(2!=n.get(h)||3!=n.get(k))return!1;n.delete(h);n.set(k,4);return!n.has(h)&amp;&amp;4==n.get(k)}catch(A){return!1}}())return a;var l="$jscomp_hidden_"+Math.random();f("freeze");f("preventExtensions");f("seal");var g=0;b.prototype.set=function(h,k){if(!d(h))throw Error("Invalid WeakMap key");e(h);if(!v(h,l))throw Error("WeakMap key fail: "+h);h[l][this.g]=k;return this};b.prototype.get=function(h){return d(h)&amp;&amp;v(h,l)?h[l][this.g]:void 0};b.prototype.has=function(h){return d(h)&amp;&amp;v(h, l)&amp;&amp;v(h[l],this.g)};b.prototype.delete=function(h){return d(h)&amp;&amp;v(h,l)&amp;&amp;v(h[l],this.g)?delete h[l][this.g]:!1};return b}); p("Map",function(a){function b(){var g={};return g.s=g.next=g.head=g}function c(g,h){var k=g.g;return da(function(){if(k){for(;k.head!=g.g;)k=k.s;for(;k.next!=k.head;)return k=k.next,{done:!1,value:h(k)};k=null}return{done:!0,value:void 0}})}function d(g,h){var k=h&amp;&amp;typeof h;"object"==k||"function"==k?f.has(h)?k=f.get(h):(k=""+ ++l,f.set(h,k)):k="p_"+h;var n=g.i[k];if(n&amp;&amp;v(g.i,k))for(g=0;g&lt;n.length;g++){var A=n[g];if(h!==h&amp;&amp;A.key!==A.key||h===A.key)return{id:k,list:n,index:g,l:A}}return{id:k,list:n, index:-1,l:void 0}}function e(g){this.i={};this.g=b();this.size=0;if(g){g=q(g);for(var h;!(h=g.next()).done;)h=h.value,this.set(h[0],h[1])}}if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var g=Object.seal({x:4}),h=new a(q([[g,"s"]]));if("s"!=h.get(g)||1!=h.size||h.get({x:4})||h.set({x:4},"t")!=h||2!=h.size)return!1;var k=h.entries(),n=k.next();if(n.done||n.value[0]!=g||"s"!=n.value[1])return!1;n=k.next();return n.done||4!=n.value[0].x|| "t"!=n.value[1]||!k.next().done?!1:!0}catch(A){return!1}}())return a;var f=new WeakMap;e.prototype.set=function(g,h){g=0===g?0:g;var k=d(this,g);k.list||(k.list=this.i[k.id]=[]);k.l?k.l.value=h:(k.l={next:this.g,s:this.g.s,head:this.g,key:g,value:h},k.list.push(k.l),this.g.s.next=k.l,this.g.s=k.l,this.size++);return this};e.prototype.delete=function(g){g=d(this,g);return g.l&amp;&amp;g.list?(g.list.splice(g.index,1),g.list.length||delete this.i[g.id],g.l.s.next=g.l.next,g.l.next.s=g.l.s,g.l.head=null,this.size--, !0):!1};e.prototype.clear=function(){this.i={};this.g=this.g.s=b();this.size=0};e.prototype.has=function(g){return!!d(this,g).l};e.prototype.get=function(g){return(g=d(this,g).l)&amp;&amp;g.value};e.prototype.entries=function(){return c(this,function(g){return[g.key,g.value]})};e.prototype.keys=function(){return c(this,function(g){return g.key})};e.prototype.values=function(){return c(this,function(g){return g.value})};e.prototype.forEach=function(g,h){for(var k=this.entries(),n;!(n=k.next()).done;)n=n.value, g.call(h,n[1],n[0],this)};e.prototype[Symbol.iterator]=e.prototype.entries;var l=0;return e});function ja(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e}p("Array.prototype.entries",function(a){return a?a:function(){return ja(this,function(b,c){return[b,c]})}}); p("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)v(b,d)&amp;&amp;c.push([d,b[d]]);return c}});p("Array.prototype.findIndex",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++)if(b.call(c,d[f],f,d)){b=f;break a}b=-1}return b}});var w=this||self; function x(a,b,c){a=a.split(".");c=c||w;a[0]in c||"undefined"==typeof c.execScript||c.execScript("var "+a[0]);for(var d;a.length&amp;&amp;(d=a.shift());)a.length||void 0===b?c[d]&amp;&amp;c[d]!==Object.prototype[d]?c=c[d]:c=c[d]={}:c[d]=b}function y(a){var b=typeof a;return"object"==b&amp;&amp;null!=a||"function"==b}function ka(a,b,c){return a.call.apply(a.bind,arguments)} function la(a,b,c){if(!a)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var e=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(e,d);return a.apply(b,e)}}return function(){return a.apply(b,arguments)}}function z(a,b,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?z=ka:z=la;return z.apply(null,arguments)} function ma(a,b){var c=Array.prototype.slice.call(arguments,1);return function(){var d=c.slice();d.push.apply(d,arguments);return a.apply(this,d)}}function B(a,b){function c(){}c.prototype=b.prototype;a.A=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.L=function(d,e,f){for(var l=Array(arguments.length-2),g=2;g&lt;arguments.length;g++)l[g-2]=arguments[g];return b.prototype[e].apply(d,l)}}function C(a){return a};var na=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1};function D(){var a=w.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};function E(a){E[" "](a);return a}E[" "]=function(){};var oa=-1!=D().indexOf("Gecko")&amp;&amp;!(-1!=D().toLowerCase().indexOf("webkit")&amp;&amp;-1==D().indexOf("Edge"))&amp;&amp;!(-1!=D().indexOf("Trident")||-1!=D().indexOf("MSIE"))&amp;&amp;-1==D().indexOf("Edge");function pa(a,b,c){for(var d in a)b.call(c,a[d],d,a)}function qa(a){var b={},c;for(c in a)b[c]=a[c];return b}var ra="constructor hasOwnProperty isPrototypeOf propertyIsEnumerable toLocaleString toString valueOf".split(" ");function sa(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;ra.length;f++)c=ra[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};var F;function G(a,b){this.g=b===ta?a:""}G.prototype.toString=function(){return this.g+""};function ua(a){return a instanceof G&amp;&amp;a.constructor===G?a.g:"type_error:TrustedResourceUrl"}var ta={};function va(a){if(void 0===F){var b=null;var c=w.trustedTypes;if(c&amp;&amp;c.createPolicy){try{b=c.createPolicy("goog#html",{createHTML:C,createScript:C,createScriptURL:C})}catch(d){w.console&amp;&amp;w.console.error(d.message)}F=b}else F=b}a=(b=F)?b.createScriptURL(a):a;return new G(a,ta)};function wa(a){return a&amp;&amp;a.parentNode?a.parentNode.removeChild(a):null};function xa(a){a&amp;&amp;"function"==typeof a.I&amp;&amp;a.I()};function H(){this.u=this.u;this.o=this.o}H.prototype.u=!1;H.prototype.I=function(){this.u||(this.u=!0,this.i())};H.prototype.i=function(){if(this.o)for(;this.o.length;)this.o.shift()()};function I(a,b){this.type=a;this.g=this.target=b;this.defaultPrevented=!1}I.prototype.i=function(){this.defaultPrevented=!0};function J(a,b){this.messageName=a;this.parameters=b||{}}function ya(a,b){I.call(this,a.messageName,b);this.params=a.parameters||{}}u(ya,I);var za=-1!=(w.navigator?w.navigator.userAgent:"").indexOf("Android");/*  SPDX-License-Identifier: Apache-2.0 */ function Aa(a,b){var c=ua(a).toString();if(/#/.test(c))throw Error("");var d=/\\?/.test(c)?"&amp;":"?";b.forEach(function(e,f){e=e instanceof Array?e:[e];for(var l=0;l&lt;e.length;l++){var g=e[l];null!==g&amp;&amp;void 0!==g&amp;&amp;(c+=d+encodeURIComponent(f)+"="+encodeURIComponent(String(g)),d="&amp;")}});return va(c)};function Ba(a){var b=va("gmsg://mobileads.google.com/"+a.messageName);return Aa(b,new Map(Object.entries(a.parameters)))};var Ca=function(){if(!w.addEventListener||!Object.defineProperty)return!1;var a=!1,b=Object.defineProperty({},"passive",{get:function(){a=!0}});try{w.addEventListener("test",function(){},b),w.removeEventListener("test",function(){},b)}catch(c){}return a}();function K(a,b){I.call(this,a?a.type:"");this.relatedTarget=this.g=this.target=null;this.button=this.screenY=this.screenX=this.clientY=this.clientX=0;this.key="";this.metaKey=this.shiftKey=this.altKey=this.ctrlKey=!1;this.state=null;this.pointerId=0;this.pointerType="";this.h=null;if(a){var c=this.type=a.type,d=a.changedTouches&amp;&amp;a.changedTouches.length?a.changedTouches[0]:null;this.target=a.target||a.srcElement;this.g=b;if(b=a.relatedTarget){if(oa){a:{try{E(b.nodeName);var e=!0;break a}catch(f){}e= !1}e||(b=null)}}else"mouseover"==c?b=a.fromElement:"mouseout"==c&amp;&amp;(b=a.toElement);this.relatedTarget=b;d?(this.clientX=void 0!==d.clientX?d.clientX:d.pageX,this.clientY=void 0!==d.clientY?d.clientY:d.pageY,this.screenX=d.screenX||0,this.screenY=d.screenY||0):(this.clientX=void 0!==a.clientX?a.clientX:a.pageX,this.clientY=void 0!==a.clientY?a.clientY:a.pageY,this.screenX=a.screenX||0,this.screenY=a.screenY||0);this.button=a.button;this.key=a.key||"";this.ctrlKey=a.ctrlKey;this.altKey=a.altKey;this.shiftKey= a.shiftKey;this.metaKey=a.metaKey;this.pointerId=a.pointerId||0;this.pointerType="string"===typeof a.pointerType?a.pointerType:Da[a.pointerType]||"";this.state=a.state;this.h=a;a.defaultPrevented&amp;&amp;K.A.i.call(this)}}B(K,I);var Da={2:"touch",3:"pen",4:"mouse"};K.prototype.i=function(){K.A.i.call(this);var a=this.h;a.preventDefault?a.preventDefault():a.returnValue=!1};var L="closure_listenable_"+(1E6*Math.random()|0);var Ea=0;function Fa(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.G=e;this.key=++Ea;this.B=this.F=!1}function M(a){a.B=!0;a.listener=null;a.proxy=null;a.src=null;a.G=null};function N(a){this.src=a;this.g={};this.i=0}N.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.i++);var l=O(a,b,d,e);-1&lt;l?(b=a[l],c||(b.F=!1)):(b=new Fa(b,this.src,f,!!d,e),b.F=c,a.push(b));return b};function Ga(a,b,c,d,e){b=b.toString();if(b in a.g){var f=a.g[b];c=O(f,c,d,e);-1&lt;c&amp;&amp;(M(f[c]),Array.prototype.splice.call(f,c,1),0==f.length&amp;&amp;(delete a.g[b],a.i--))}} function P(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=na(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(M(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.i--))}}function O(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.B&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.G==d)return e}return-1};var Q="closure_lm_"+(1E6*Math.random()|0),Ha={},Ia=0;function Ja(a,b,c,d,e){if(d&amp;&amp;d.once)return R(a,b,c,d,e);if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)Ja(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!1,y(d)?!!d.capture:!!d,e):La(a,b,c,!1,d,e)} function La(a,b,c,d,e,f){if(!b)throw Error("Invalid event type");var l=y(e)?!!e.capture:!!e,g=Ma(a);g||(a[Q]=g=new N(a));c=g.add(b,c,d,l,f);if(c.proxy)return c;d=Na();c.proxy=d;d.src=a;d.listener=c;if(a.addEventListener)Ca||(e=l),void 0===e&amp;&amp;(e=!1),a.addEventListener(b.toString(),d,e);else if(a.attachEvent)a.attachEvent(Oa(b.toString()),d);else if(a.addListener&amp;&amp;a.removeListener)a.addListener(d);else throw Error("addEventListener and attachEvent are unavailable.");Ia++;return c} function Na(){function a(c){return b.call(a.src,a.listener,c)}var b=Pa;return a}function R(a,b,c,d,e){if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)R(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!0,y(d)?!!d.capture:!!d,e):La(a,b,c,!0,d,e)} function Qa(a,b,c,d,e){if(Array.isArray(b))for(var f=0;f&lt;b.length;f++)Qa(a,b[f],c,d,e);else(d=y(d)?!!d.capture:!!d,c=Ka(c),a&amp;&amp;a[L])?Ga(a.g,String(b),c,d,e):a&amp;&amp;(a=Ma(a))&amp;&amp;(b=a.g[b.toString()],a=-1,b&amp;&amp;(a=O(b,c,d,e)),(c=-1&lt;a?b[a]:null)&amp;&amp;Ra(c))} function Ra(a){if("number"!==typeof a&amp;&amp;a&amp;&amp;!a.B){var b=a.src;if(b&amp;&amp;b[L])P(b.g,a);else{var c=a.type,d=a.proxy;b.removeEventListener?b.removeEventListener(c,d,a.capture):b.detachEvent?b.detachEvent(Oa(c),d):b.addListener&amp;&amp;b.removeListener&amp;&amp;b.removeListener(d);Ia--;(c=Ma(b))?(P(c,a),0==c.i&amp;&amp;(c.src=null,b[Q]=null)):M(a)}}}function Oa(a){return a in Ha?Ha[a]:Ha[a]="on"+a}function Pa(a,b){if(a.B)a=!0;else{b=new K(b,this);var c=a.listener,d=a.G||a.src;a.F&amp;&amp;Ra(a);a=c.call(d,b)}return a} function Ma(a){a=a[Q];return a instanceof N?a:null}var Sa="__closure_events_fn_"+(1E9*Math.random()&gt;&gt;&gt;0);function Ka(a){if("function"===typeof a)return a;a[Sa]||(a[Sa]=function(b){return a.handleEvent(b)});return a[Sa]};function S(a){H.call(this);this.h=a;this.g={}}B(S,H);var Ta=[];function Ua(a){pa(a.g,function(b,c){this.g.hasOwnProperty(c)&amp;&amp;Ra(b)},a);a.g={}}S.prototype.i=function(){S.A.i.call(this);Ua(this)};S.prototype.handleEvent=function(){throw Error("EventHandler.handleEvent not implemented");};function T(){H.call(this);this.g=new N(this);this.J=this;this.C=null}B(T,H);T.prototype[L]=!0;T.prototype.addEventListener=function(a,b,c,d){Ja(this,a,b,c,d)};T.prototype.removeEventListener=function(a,b,c,d){Qa(this,a,b,c,d)}; function Va(a,b){var c,d=a.C;if(d)for(c=[];d;d=d.C)c.push(d);a=a.J;d=b.type||b;if("string"===typeof b)b=new I(b,a);else if(b instanceof I)b.target=b.target||a;else{var e=b;b=new I(d,a);sa(b,e)}e=!0;if(c)for(var f=c.length-1;0&lt;=f;f--){var l=b.g=c[f];e=U(l,d,!0,b)&amp;&amp;e}l=b.g=a;e=U(l,d,!0,b)&amp;&amp;e;e=U(l,d,!1,b)&amp;&amp;e;if(c)for(f=0;f&lt;c.length;f++)l=b.g=c[f],e=U(l,d,!1,b)&amp;&amp;e} T.prototype.i=function(){T.A.i.call(this);if(this.g){var a=this.g,b=0,c;for(c in a.g){for(var d=a.g[c],e=0;e&lt;d.length;e++)++b,M(d[e]);delete a.g[c];a.i--}}this.C=null};function U(a,b,c,d){b=a.g.g[String(b)];if(!b)return!0;b=b.concat();for(var e=!0,f=0;f&lt;b.length;++f){var l=b[f];if(l&amp;&amp;!l.B&amp;&amp;l.capture==c){var g=l.listener,h=l.G||l.src;l.F&amp;&amp;P(a.g,l);e=!1!==g.call(h,d)&amp;&amp;e}}return e&amp;&amp;!d.defaultPrevented};function V(a,b){T.call(this);this.v=a||1;this.m=b||w;this.H=z(this.K,this);this.D=Date.now()}B(V,T);V.prototype.j=!1;V.prototype.h=null;V.prototype.K=function(){if(this.j){var a=Date.now()-this.D;0&lt;a&amp;&amp;a&lt;.8*this.v?this.h=this.m.setTimeout(this.H,this.v-a):(this.h&amp;&amp;(this.m.clearTimeout(this.h),this.h=null),Va(this,"tick"),this.j&amp;&amp;(Wa(this),this.start()))}};V.prototype.start=function(){this.j=!0;this.h||(this.h=this.m.setTimeout(this.H,this.v),this.D=Date.now())}; function Wa(a){a.j=!1;a.h&amp;&amp;(a.m.clearTimeout(a.h),a.h=null)}V.prototype.i=function(){V.A.i.call(this);Wa(this);delete this.m};function Xa(){if(window.googleJsEnvironment&amp;&amp;("rhino"==window.googleJsEnvironment.environment||"jscore"==window.googleJsEnvironment.environment))return new W;if(za&amp;&amp;window.googleAdsJsInterface&amp;&amp;"notify"in window.googleAdsJsInterface)try{return window.googleAdsJsInterface.notify("gmsg://mobileads.google.com/noop"),new W}catch(a){}else if(window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler)return new Ya;return new Za}function $a(){ab||(ab=Xa());return ab} var ab=null;function X(){H.call(this)}u(X,H);function bb(a){var b=qa(a.parameters);b["google.afma.Notify_dt"]=(new Date).getTime();return Ba(new J(a.messageName,b)).toString()}function Y(a,b){H.call(this);this.v=a;this.C=b||1;this.m=[];this.j=new V(this.C);a=this.H=new S(this);b=this.j;var c=this.D,d="tick";Array.isArray(d)||(d&amp;&amp;(Ta[0]=d.toString()),d=Ta);for(var e=0;e&lt;d.length;e++){var f=Ja(b,d[e],c||a.handleEvent,!1,a.h||a);if(!f)break;a.g[f.key]=f}}u(Y,X); Y.prototype.sendMessage=function(a){this.m.push(a);this.j.j||(a=this.m.shift(),this.v(a),this.j.start())};Y.prototype.D=function(){var a=this.m.shift();a?this.v(a):Wa(this.j)}; function Za(){Y.call(this,function(b){var c=a.g[a.h];if(!c){var d=document;c="IFRAME";"application/xhtml+xml"===d.contentType&amp;&amp;(c=c.toLowerCase());c=d.createElement(c);c.id="afma-notify-"+(new Date).getTime();c.style.display="none";a.g[a.h]=c}a.h=(a.h+1)%25;d=qa(b.parameters);d["google.afma.Notify_dt"]=(new Date).getTime();b=Ba(new J(b.messageName,d));c.src=ua(b).toString();c.parentNode||document.body.appendChild(c)});var a=this;this.g=[];this.h=0}u(Za,Y); Za.prototype.i=function(){this.g.forEach(wa);this.g=[];Y.prototype.i.call(this)};function W(){H.call(this)}u(W,X);W.prototype.sendMessage=function(a){a=bb(a);window.googleAdsJsInterface&amp;&amp;window.googleAdsJsInterface.notify&amp;&amp;(window.googleAdsJsInterface.notify(a),window.googleAdsJsInterface.DEBUG&amp;&amp;console.log(a))};function Ya(){H.call(this)}u(Ya,X);Ya.prototype.sendMessage=function(a){a=bb(a);window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler.postMessage(a)};/*  Math.uuid.js (v1.4) http://www.broofa.com mailto:robert@broofa.com Copyright (c) 2010 Robert Kieffer Dual licensed under the MIT and GPL licenses. */ var cb="0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz".split("");function db(a){for(var b=Array(36),c=0,d,e=0;36&gt;e;e++)8==e||13==e||18==e||23==e?b[e]="-":14==e?b[e]="4":(2&gt;=c&amp;&amp;(c=33554432+16777216*Math.random()|0),d=c&amp;15,c&gt;&gt;=4,b[e]=cb[19==e?d&amp;3|8:d]);this.uuid=b.join("");this.callback=a} function eb(a){var b=w.imalib_globalCallbacks||new Map,c=b.get("AFMA_updateActiveView")||[];if(0===c.length&amp;&amp;w.AFMA_updateActiveView){var d=new db(w.AFMA_updateActiveView);c.push(d);w.AFMA_updateActiveView=void 0}w.AFMA_updateActiveView||(w.AFMA_updateActiveView=function(){var e=b.get("AFMA_updateActiveView");e=q(e);for(var f=e.next();!f.done;f=e.next())f.value.callback.apply(null,arguments)});a=new db(a);c.push(a);b.set("AFMA_updateActiveView",c);w.imalib_globalCallbacks=b;return a.uuid} function fb(a){if(w.AFMA_updateActiveView){var b=w.imalib_globalCallbacks;if(b){var c=b.get("AFMA_updateActiveView");if(c){var d=c.findIndex(function(e){return e.uuid===a});-1!==d&amp;&amp;(c.splice(d,1),0===c.length&amp;&amp;(w.AFMA_updateActiveView=void 0),b.set("AFMA_updateActiveView",c),w.imalib_globalCallbacks=b)}}}};function gb(){var a=this;this.o=[];this.h=window===window.top;this.j=!1;this.g=0;this.i=null;"undefined"!==typeof window.addEventListener&amp;&amp;window.addEventListener("message",function(b){return hb(a,b)})} function hb(a,b){var c=b.data;if((b=b.source)&amp;&amp;c){var d=a.o;if("arwebview_iframe_loaded"===c&amp;&amp;a.h)x("JavascriptWebViewBridge.incoming.postMessage",a.u.bind(a),w),-1===d.indexOf(b)&amp;&amp;d.push(b);else{var e=c.messageName;c=c.parameters;if(a.h)switch(e){case "mraid_loaded":!1===c.is_top_win&amp;&amp;(a.j=!0,a.i=eb(function(f){a.h&amp;&amp;ib(a,new J("update_activeview_action",f))}),-1===d.indexOf(b)&amp;&amp;(d.push(b),"undefined"!==typeof b.postMessage&amp;&amp;b.postMessage(new J("mraid_env_obj",window.MRAID_ENV),"*")));break;case "start_tracking_action":0== a.g&amp;&amp;window.AFMA_SendMessage("trackActiveViewUnit");a.g+=1;break;case "stop_tracking_action":--a.g,0==a.g&amp;&amp;(window.AFMA_SendMessage("untrackActiveViewUnit",{hashCode:c.hashCode}),a.i&amp;&amp;(fb(a.i),a.i=null))}else switch(e){case "mraid_env_obj":window.MRAID_ENV=c;break;case "update_activeview_action":window.AFMA_updateActiveView&amp;&amp;window.AFMA_updateActiveView(c);break;case "receive_message_action":window.AFMA_ReceiveMessage(c.messageName,c.parameters)}}}} gb.prototype.u=function(a){this.h&amp;&amp;ib(this,{name:"arwebview_message_forwarded",message:a})};function ib(a,b){a.o.forEach(function(c){return c.postMessage(b,"*")})};function Z(){T.call(this);this.j=$a();this.j=$a();var a=ma(xa,this.j);this.u?a():(this.o||(this.o=[]),this.o.push(a));this.h={};this.m=new gb}u(Z,T);Z.prototype.sendMessage=function(a,b){var c=this,d;"string"===typeof a?d=new J(a,b):a instanceof J&amp;&amp;(d=a);"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return c.j.sendMessage(d)},!1,this):this.j.sendMessage(d)}; Z.prototype.receiveMessage=function(a,b){if(this.shouldForwardMessageToIframe())this.forwardMessage(new J("receive_message_action",new J(a,b)));else{var c=document.getElementById("ad_iframe");void 0!=c&amp;&amp;void 0!=c.contentWindow&amp;&amp;void 0!=c.contentWindow.AFMA_ReceiveMessage&amp;&amp;c.contentWindow.AFMA_ReceiveMessage(a,b)}"onshow"==a&amp;&amp;"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return jb(a,null!=b?b:void 0)}):Va(this,new ya(new J(a,b),this))}; Z.prototype.addObserver=function(a,b,c){function d(e){return void c.call(b,e.type,e.params)}this.g.add(String(a),d,!1,void 0,void 0);this.h[a]||(this.h[a]={});this.h[a][b]=d};Z.prototype.removeObserver=function(a,b){this.h[a]&amp;&amp;this.h[a][b]&amp;&amp;(Ga(this.g,String(a),this.h[a][b]),delete this.h[a][b])};Z.prototype.shouldForwardMessageToIframe=function(){return this.m.j};Z.prototype.forwardMessage=function(a){ib(this.m,a)}; function kb(a,b){w.AFMA_Communicator?w.AFMA_Communicator.sendMessage(a,b):lb(a,b)}function lb(a,b){"loading"==document.readyState?(a=z(lb,null,a,b),R(w,"DOMContentLoaded",a,!1)):(a=new J(a,b),$a().sendMessage(a))}function jb(a,b){w.AFMA_Communicator.receiveMessage(a,b)}function mb(a,b,c,d){w.AFMA_Communicator.removeEventListener(a,b,c,d)}function nb(a,b,c,d){w.AFMA_Communicator.addEventListener(a,b,c,d)}function ob(a,b,c){w.AFMA_Communicator.addObserver(a,b,c)} function pb(a,b){w.AFMA_Communicator.removeObserver(a,b)}w.AFMA_Communicator||(x("AFMA_AddEventListener",nb,w),x("AFMA_RemoveEventListener",mb,w),x("AFMA_AddObserver",ob,w),x("AFMA_RemoveObserver",pb,w),x("AFMA_ReceiveMessage",jb,w),x("AFMA_SendMessage",kb,w),w.AFMA_Communicator=new Z);nb("onSdkImpression",function(){x("Goog_Omid_SdkImpressionReceived",!0)});nb("onSdkLoaded",function(){x("Goog_Omid_SdkLoadedReceived",!0)});}).call(this);&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omsdk-v1.js"&gt;&lt;/script&gt;&lt;style&gt;a { color: #000000 }&lt;/style&gt;&lt;script&gt;function su(id) {var a = document.getElementById(id);var b = (new Date()).getTime();if (a &amp;&amp; a.myt &amp;&amp; b) {var t = b - a.myt;if (window.css) {css(id,\'clkt\',t);return;}var bi = a.href.indexOf("&amp;clkt=");if (bi &gt; 0) {var c = a.href.substring(0, bi+6); var d = a.href.substring(bi+6, a.href.length);var ei = d.indexOf("&amp;");var r = \'\';if (ei &gt;= 0)r = d.substring(ei, d.length);a.href = c + t + r; } else {a.href += "&amp;clkt=" + t;}}}&lt;/script&gt;&lt;script data-jc="53" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ var aa="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},h;if("function"==typeof Object.setPrototypeOf)h=Object.setPrototypeOf;else{var l;a:{var ba={a:!0},m={};try{m.__proto__=ba;l=m.a;break a}catch(a){}l=!1}h=l?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ca=h; function da(a,b){a.prototype=aa(b.prototype);a.prototype.constructor=a;if(ca)ca(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.C=b.prototype}var n=this||self; function ea(a,b){function c(){}c.prototype=b.prototype;a.C=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.Ja=function(d,e,f){for(var q=Array(arguments.length-2),k=2;k&lt;arguments.length;k++)q[k-2]=arguments[k];return b.prototype[e].apply(d,q)}};var r,t;a:{for(var fa=["CLOSURE_FLAGS"],u=n,v=0;v&lt;fa.length;v++)if(u=u[fa[v]],null==u){t=null;break a}t=u}var ha=t&amp;&amp;t[610401301];r=null!=ha?ha:!1;var w,ia=n.navigator;w=ia?ia.userAgentData||null:null;function x(a){return r?w?w.brands.some(function(b){return(b=b.brand)&amp;&amp;-1!=b.indexOf(a)}):!1:!1}function y(a){var b;a:{if(b=n.navigator)if(b=b.userAgent)break a;b=""}return-1!=b.indexOf(a)};function z(){return r?!!w&amp;&amp;0&lt;w.brands.length:!1}function B(){return z()?x("Chromium"):(y("Chrome")||y("CriOS"))&amp;&amp;!(z()?0:y("Edge"))||y("Silk")};var ja=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1},ka=Array.prototype.forEach?function(a,b){Array.prototype.forEach.call(a,b,void 0)}:function(a,b){for(var c=a.length,d="string"===typeof a?a.split(""):a,e=0;e&lt;c;e++)e in d&amp;&amp;b.call(void 0,d[e],e,a)};!y("Android")||B();B();y("Safari")&amp;&amp;(B()||(z()?0:y("Coast"))||(z()?0:y("Opera"))||(z()?0:y("Edge"))||(z()?x("Microsoft Edge"):y("Edg/"))||z()&amp;&amp;x("Opera"));function la(a){var b=!1,c;return function(){b||(c=a(),b=!0);return c}};var C={Event:{m:"click",L:"dblclick",j:"mousedown",fa:"mouseup",ea:"mouseover",da:"mouseout",ca:"mousemove",aa:"mouseenter",ba:"mouseleave",Ba:"touchstart",Aa:"touchmove",za:"touchend",ya:"touchcancel",U:"keypress",s:"keydown",V:"keyup",N:"deviceorientation",ga:"MozOrientation",M:"devicemotion",na:"orientationchange",oa:"pagehide",pa:"pageshow",G:"beforeunload",H:"blur",J:"contextmenu",o:"DOMContentLoaded",P:"error",R:"focus",S:"hashchange",T:"help",u:"load",Y:"losecapture",Z:"message",ia:"msvisibilitychange", ha:"mozvisibilitychange",qa:"popstate",sa:"readystatechange",ta:"resize",ua:"scroll",wa:"storage",xa:"submit",Ea:"unload",Ga:"visibilitychange",Ia:"webkitvisibilitychange",Ca:"transitionend",Ha:"webkitTransitionEnd",I:"change",X:"loadstart",ra:"progress",D:"abort",W:"loadend",K:"crash",la:"onshow",ka:"onhide",ja:"onAdVisibilityChanged",O:"DOMNodeRemoved",Fa:"viewableChange",F:"animationend",va:"securitypolicyviolation",Da:"unhandledrejection"},v:{capture:!0},ma:{passive:!0}}; C.A=la(function(){var a=!1;try{var b=Object.defineProperty({},"passive",{get:function(){a=!0}});n.addEventListener("test",null,b)}catch(c){}return a});function ma(a){return a?a.passive&amp;&amp;C.A()?a:a.capture||!1:!1}C.i=function(a,b,c,d){return a.addEventListener?(a.addEventListener(b,c,ma(d)),!0):!1};C.La=function(a,b,c,d){return a.removeEventListener?(a.removeEventListener(b,c,ma(d)),!0):!1}; C.Ka=function(a,b,c){c=void 0===c?{}:c;if("function"===typeof window.CustomEvent)var d=new CustomEvent(b,c);else d=document.createEvent("CustomEvent"),d.initCustomEvent(b,!!c.bubbles,!!c.cancelable,c.detail);a.dispatchEvent(d)};function na(a,b){if(!a||!b)return!1;if(a.contains&amp;&amp;1==b.nodeType)return a==b||a.contains(b);if("undefined"!=typeof a.compareDocumentPosition)return a==b||!!(a.compareDocumentPosition(b)&amp;16);for(;b&amp;&amp;a!=b;)b=b.parentNode;return b==a};var D=document;var E=null;function oa(){var a=void 0===a?n:a;return(a=a.performance)&amp;&amp;a.now&amp;&amp;a.timing?Math.floor(a.now()+a.timing.navigationStart):Date.now()}function pa(){var a=void 0===a?n:a;return(a=a.performance)&amp;&amp;a.now?a.now():null};function qa(a,b){var c=pa()||oa();this.label=a;this.type=b;this.value=c;this.duration=0;this.uniqueId=Math.random();this.taskId=this.slotId=void 0};var F=n.performance,ra=!!(F&amp;&amp;F.mark&amp;&amp;F.measure&amp;&amp;F.clearMarks),H=la(function(){var a;if(a=ra){var b;if(null===E){E="";try{a="";try{a=n.top.location.hash}catch(c){a=n.location.hash}a&amp;&amp;(E=(b=a.match(/\\bdeid=([\\d,]+)/))?b[1]:"")}catch(c){}}b=E;a=!!b.indexOf&amp;&amp;0&lt;=b.indexOf("1337")}return a}); function I(){var a=window;this.g=[];this.B=a||n;var b=null;a&amp;&amp;(a.google_js_reporting_queue=a.google_js_reporting_queue||[],this.g=a.google_js_reporting_queue,b=a.google_measure_js_timing);this.h=H()||(null!=b?b:1&gt;Math.random())}function sa(a){a&amp;&amp;F&amp;&amp;H()&amp;&amp;(F.clearMarks("goog_"+a.label+"_"+a.uniqueId+"_start"),F.clearMarks("goog_"+a.label+"_"+a.uniqueId+"_end"))}I.prototype.start=function(a,b){if(!this.h)return null;a=new qa(a,b);b="goog_"+a.label+"_"+a.uniqueId+"_start";F&amp;&amp;H()&amp;&amp;F.mark(b);return a}; I.prototype.end=function(a){if(this.h&amp;&amp;"number"===typeof a.value){a.duration=(pa()||oa())-a.value;var b="goog_"+a.label+"_"+a.uniqueId+"_end";F&amp;&amp;H()&amp;&amp;F.mark(b);!this.h||2048&lt;this.g.length||this.g.push(a)}};function ta(){};var J=new I;function ua(){window.google_measure_js_timing||(J.h=!1,J.g!=J.B.google_js_reporting_queue&amp;&amp;(H()&amp;&amp;ka(J.g,sa),J.g.length=0))}"number"!==typeof window.google_srt&amp;&amp;(window.google_srt=Math.random());"complete"==window.document.readyState?ua():J.h&amp;&amp;(0,C.i)(window,C.Event.u,function(){ua()});function K(a,b,c,d,e){if(window.css)window.css(b,c,d,e,void 0);else if(a){b=a.href;e?d=b+("&amp;"+c+"="+d):(e="&amp;"+c+"=",c=b.indexOf(e),0&gt;c?d=b+e+d:(c+=e.length,e=b.indexOf("&amp;",c),d=0&lt;=e?b.substring(0,c)+d+b.substring(e):b.substring(0,c)+d));var f=void 0===f?window:f;f=parseInt(f.sumhl,10);a.href=d.length&gt;(0&lt;f?f:2E3)?b:d}};var va=!1,wa=!1,xa=null;function ya(){var a;null==(a=C.i)||a.call(C,document,C.Event.m,function(b){xa=b},C.v)}function za(){var a=xa;return a?va||wa?!1:(a.preventDefault?a.preventDefault():a.returnValue=!1,!0):!1}function Aa(){(0,C.i)(document,C.Event.j,function(){va=!0});(0,C.i)(document,C.Event.s,function(){wa=!0});ya()};function Ba(a,b){b=void 0===b?17:b;if(0&gt;b||Math.floor(b)!==b)b=17;L(a,b)}function Ca(a,b){L(a,b||1)}function Da(a){L(a,2)}function Ea(a,b){L(a,b||0)}var M={},N=!0;function L(a,b){var c;if(c=N)void 0===M[a]&amp;&amp;(M[a]=[]),(c=M[a][b])||(M[a][b]=!0);c||K(document.getElementById(a),a,"nb",b,N)};function Fa(){var a=this;this.g=this.h=null;D.addEventListener&amp;&amp;D.addEventListener(C.Event.j,function(b){a.h=b},!0);(0,C.i)(D,C.Event.o,function(){a.g=D.getElementById("common_15click_anchor")})}function O(a,b,c){var d=a.id||"";K(a,d,"nx",b);K(a,d,"ny",c)};var Ga=[0,2,1],Ha=null;function Ia(a){if(a){var b;if(b=window.event||Ha){var c;(c=b.which?1&lt;&lt;Ga[b.which-1]:b.button)&amp;&amp;b.shiftKey&amp;&amp;(c|=8);c&amp;&amp;b.altKey&amp;&amp;(c|=16);c&amp;&amp;b.ctrlKey&amp;&amp;(c|=32);b=c}else b=null;b&amp;&amp;K(a,a.id,"mb",b)}}document.addEventListener&amp;&amp;document.addEventListener("mousedown",function(a){Ha=a},!0);window.mb=Ia;var P={};function Ja(a,b,c){b=void 0===b?2:b;c=(c=void 0===c?"":c)?c:a;1!==b&amp;&amp;(void 0===P[c]?P[c]=1:P[c]++);0!==b&amp;&amp;P[c]&amp;&amp;K(document.getElementById(a),a,"nm",P[c])};var Q="closure_listenable_"+(1E6*Math.random()|0);var Ka=0;function La(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.h=e;this.key=++Ka;this.g=this.l=!1}function R(a){a.g=!0;a.listener=null;a.proxy=null;a.src=null;a.h=null};function S(a){this.src=a;this.g={};this.h=0}S.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.h++);var q=T(a,b,d,e);-1&lt;q?(b=a[q],c||(b.l=!1)):(b=new La(b,this.src,f,!!d,e),b.l=c,a.push(b));return b};function Ma(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=ja(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(R(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.h--))}} function T(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.g&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.h</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '', 'size': 0, 'mimeType': 'text/html; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '{"ads":{"m320x50p1":{"b":"JDy_kGVMARH6-9wUJgUZ3ecAAAGG7eQbQAEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAsQr-U","crid":"37198359","kvp":{"amznrdr":["default"],"amznp":["yw9yps"],"dc":["iad"]},"sz":"320x50","i":"https://aax-us-east.amazon-adsystem.com/e/msdk/imp?b=JDy_kGVMARH6-9wUJgUZ3ecAAAGG7eQbQAEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAsQr-U&amp;ps=m320x50p1"}},"instrPixelURL":"https://aax-us-east.amazon-adsystem.com/x/px/RDy_kGVMARH6-9wUJgUZ3ecAAAGG7eQacwEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAsQr-U/","errorCode":"200","request_id":"PL-QZUwBEfr73BQmBRnd5w","status":"ok"}\n', 'size': 597, 'mimeType': 'text/javascript;charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '&lt;!DOCTYPE html&gt;&lt;html lang=en&gt;&lt;head&gt;&lt;meta charset="UTF-8"&gt;&lt;meta name="viewport" content="width=320, initial-scale=1.0, minimum-scale=1.0, maximum-scale=1.0, user-scalable=no"&gt;&lt;script&gt;var jscVersion = \'r20230315\';&lt;/script&gt;&lt;script&gt;var google_casm=["afma-sdk-i-v8.11.0"];&lt;/script&gt;&lt;script data-jc="84" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ function aa(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}}var m="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a}; function ba(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("Cannot find global object");}var ca=ba(this);function p(a,b){if(b)a:{var c=ca;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;m(c,a,{configurable:!0,writable:!0,value:b})}} p("Symbol",function(a){function b(f){if(this instanceof b)throw new TypeError("Symbol is not a constructor");return new c(d+(f||"")+"_"+e++,f)}function c(f,l){this.g=f;m(this,"description",{configurable:!0,writable:!0,value:l})}if(a)return a;c.prototype.toString=function(){return this.g};var d="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",e=0;return b}); p("Symbol.iterator",function(a){if(a)return a;a=Symbol("Symbol.iterator");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=ca[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;m(d.prototype,a,{configurable:!0,writable:!0,value:function(){return da(aa(this))}})}return a});function da(a){a={next:a};a[Symbol.iterator]=function(){return this};return a} function q(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];if(b)return b.call(a);if("number"==typeof a.length)return{next:aa(a)};throw Error(String(a)+" is not an iterable or ArrayLike");}var ea="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},r; if("function"==typeof Object.setPrototypeOf)r=Object.setPrototypeOf;else{var t;a:{var fa={a:!0},ha={};try{ha.__proto__=fa;t=ha.a;break a}catch(a){}t=!1}r=t?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ia=r; function u(a,b){a.prototype=ea(b.prototype);a.prototype.constructor=a;if(ia)ia(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.A=b.prototype}function v(a,b){return Object.prototype.hasOwnProperty.call(a,b)} p("WeakMap",function(a){function b(h){this.g=(g+=Math.random()+1).toString();if(h){h=q(h);for(var k;!(k=h.next()).done;)k=k.value,this.set(k[0],k[1])}}function c(){}function d(h){var k=typeof h;return"object"===k&amp;&amp;null!==h||"function"===k}function e(h){if(!v(h,l)){var k=new c;m(h,l,{value:k})}}function f(h){var k=Object[h];k&amp;&amp;(Object[h]=function(n){if(n instanceof c)return n;Object.isExtensible(n)&amp;&amp;e(n);return k(n)})}if(function(){if(!a||!Object.seal)return!1;try{var h=Object.seal({}),k=Object.seal({}), n=new a([[h,2],[k,3]]);if(2!=n.get(h)||3!=n.get(k))return!1;n.delete(h);n.set(k,4);return!n.has(h)&amp;&amp;4==n.get(k)}catch(A){return!1}}())return a;var l="$jscomp_hidden_"+Math.random();f("freeze");f("preventExtensions");f("seal");var g=0;b.prototype.set=function(h,k){if(!d(h))throw Error("Invalid WeakMap key");e(h);if(!v(h,l))throw Error("WeakMap key fail: "+h);h[l][this.g]=k;return this};b.prototype.get=function(h){return d(h)&amp;&amp;v(h,l)?h[l][this.g]:void 0};b.prototype.has=function(h){return d(h)&amp;&amp;v(h, l)&amp;&amp;v(h[l],this.g)};b.prototype.delete=function(h){return d(h)&amp;&amp;v(h,l)&amp;&amp;v(h[l],this.g)?delete h[l][this.g]:!1};return b}); p("Map",function(a){function b(){var g={};return g.s=g.next=g.head=g}function c(g,h){var k=g.g;return da(function(){if(k){for(;k.head!=g.g;)k=k.s;for(;k.next!=k.head;)return k=k.next,{done:!1,value:h(k)};k=null}return{done:!0,value:void 0}})}function d(g,h){var k=h&amp;&amp;typeof h;"object"==k||"function"==k?f.has(h)?k=f.get(h):(k=""+ ++l,f.set(h,k)):k="p_"+h;var n=g.i[k];if(n&amp;&amp;v(g.i,k))for(g=0;g&lt;n.length;g++){var A=n[g];if(h!==h&amp;&amp;A.key!==A.key||h===A.key)return{id:k,list:n,index:g,l:A}}return{id:k,list:n, index:-1,l:void 0}}function e(g){this.i={};this.g=b();this.size=0;if(g){g=q(g);for(var h;!(h=g.next()).done;)h=h.value,this.set(h[0],h[1])}}if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var g=Object.seal({x:4}),h=new a(q([[g,"s"]]));if("s"!=h.get(g)||1!=h.size||h.get({x:4})||h.set({x:4},"t")!=h||2!=h.size)return!1;var k=h.entries(),n=k.next();if(n.done||n.value[0]!=g||"s"!=n.value[1])return!1;n=k.next();return n.done||4!=n.value[0].x|| "t"!=n.value[1]||!k.next().done?!1:!0}catch(A){return!1}}())return a;var f=new WeakMap;e.prototype.set=function(g,h){g=0===g?0:g;var k=d(this,g);k.list||(k.list=this.i[k.id]=[]);k.l?k.l.value=h:(k.l={next:this.g,s:this.g.s,head:this.g,key:g,value:h},k.list.push(k.l),this.g.s.next=k.l,this.g.s=k.l,this.size++);return this};e.prototype.delete=function(g){g=d(this,g);return g.l&amp;&amp;g.list?(g.list.splice(g.index,1),g.list.length||delete this.i[g.id],g.l.s.next=g.l.next,g.l.next.s=g.l.s,g.l.head=null,this.size--, !0):!1};e.prototype.clear=function(){this.i={};this.g=this.g.s=b();this.size=0};e.prototype.has=function(g){return!!d(this,g).l};e.prototype.get=function(g){return(g=d(this,g).l)&amp;&amp;g.value};e.prototype.entries=function(){return c(this,function(g){return[g.key,g.value]})};e.prototype.keys=function(){return c(this,function(g){return g.key})};e.prototype.values=function(){return c(this,function(g){return g.value})};e.prototype.forEach=function(g,h){for(var k=this.entries(),n;!(n=k.next()).done;)n=n.value, g.call(h,n[1],n[0],this)};e.prototype[Symbol.iterator]=e.prototype.entries;var l=0;return e});function ja(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e}p("Array.prototype.entries",function(a){return a?a:function(){return ja(this,function(b,c){return[b,c]})}}); p("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)v(b,d)&amp;&amp;c.push([d,b[d]]);return c}});p("Array.prototype.findIndex",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++)if(b.call(c,d[f],f,d)){b=f;break a}b=-1}return b}});var w=this||self; function x(a,b,c){a=a.split(".");c=c||w;a[0]in c||"undefined"==typeof c.execScript||c.execScript("var "+a[0]);for(var d;a.length&amp;&amp;(d=a.shift());)a.length||void 0===b?c[d]&amp;&amp;c[d]!==Object.prototype[d]?c=c[d]:c=c[d]={}:c[d]=b}function y(a){var b=typeof a;return"object"==b&amp;&amp;null!=a||"function"==b}function ka(a,b,c){return a.call.apply(a.bind,arguments)} function la(a,b,c){if(!a)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var e=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(e,d);return a.apply(b,e)}}return function(){return a.apply(b,arguments)}}function z(a,b,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?z=ka:z=la;return z.apply(null,arguments)} function ma(a,b){var c=Array.prototype.slice.call(arguments,1);return function(){var d=c.slice();d.push.apply(d,arguments);return a.apply(this,d)}}function B(a,b){function c(){}c.prototype=b.prototype;a.A=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.L=function(d,e,f){for(var l=Array(arguments.length-2),g=2;g&lt;arguments.length;g++)l[g-2]=arguments[g];return b.prototype[e].apply(d,l)}}function C(a){return a};var na=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1};function D(){var a=w.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};function E(a){E[" "](a);return a}E[" "]=function(){};var oa=-1!=D().indexOf("Gecko")&amp;&amp;!(-1!=D().toLowerCase().indexOf("webkit")&amp;&amp;-1==D().indexOf("Edge"))&amp;&amp;!(-1!=D().indexOf("Trident")||-1!=D().indexOf("MSIE"))&amp;&amp;-1==D().indexOf("Edge");function pa(a,b,c){for(var d in a)b.call(c,a[d],d,a)}function qa(a){var b={},c;for(c in a)b[c]=a[c];return b}var ra="constructor hasOwnProperty isPrototypeOf propertyIsEnumerable toLocaleString toString valueOf".split(" ");function sa(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;ra.length;f++)c=ra[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};var F;function G(a,b){this.g=b===ta?a:""}G.prototype.toString=function(){return this.g+""};function ua(a){return a instanceof G&amp;&amp;a.constructor===G?a.g:"type_error:TrustedResourceUrl"}var ta={};function va(a){if(void 0===F){var b=null;var c=w.trustedTypes;if(c&amp;&amp;c.createPolicy){try{b=c.createPolicy("goog#html",{createHTML:C,createScript:C,createScriptURL:C})}catch(d){w.console&amp;&amp;w.console.error(d.message)}F=b}else F=b}a=(b=F)?b.createScriptURL(a):a;return new G(a,ta)};function wa(a){return a&amp;&amp;a.parentNode?a.parentNode.removeChild(a):null};function xa(a){a&amp;&amp;"function"==typeof a.I&amp;&amp;a.I()};function H(){this.u=this.u;this.o=this.o}H.prototype.u=!1;H.prototype.I=function(){this.u||(this.u=!0,this.i())};H.prototype.i=function(){if(this.o)for(;this.o.length;)this.o.shift()()};function I(a,b){this.type=a;this.g=this.target=b;this.defaultPrevented=!1}I.prototype.i=function(){this.defaultPrevented=!0};function J(a,b){this.messageName=a;this.parameters=b||{}}function ya(a,b){I.call(this,a.messageName,b);this.params=a.parameters||{}}u(ya,I);var za=-1!=(w.navigator?w.navigator.userAgent:"").indexOf("Android");/*  SPDX-License-Identifier: Apache-2.0 */ function Aa(a,b){var c=ua(a).toString();if(/#/.test(c))throw Error("");var d=/\\?/.test(c)?"&amp;":"?";b.forEach(function(e,f){e=e instanceof Array?e:[e];for(var l=0;l&lt;e.length;l++){var g=e[l];null!==g&amp;&amp;void 0!==g&amp;&amp;(c+=d+encodeURIComponent(f)+"="+encodeURIComponent(String(g)),d="&amp;")}});return va(c)};function Ba(a){var b=va("gmsg://mobileads.google.com/"+a.messageName);return Aa(b,new Map(Object.entries(a.parameters)))};var Ca=function(){if(!w.addEventListener||!Object.defineProperty)return!1;var a=!1,b=Object.defineProperty({},"passive",{get:function(){a=!0}});try{w.addEventListener("test",function(){},b),w.removeEventListener("test",function(){},b)}catch(c){}return a}();function K(a,b){I.call(this,a?a.type:"");this.relatedTarget=this.g=this.target=null;this.button=this.screenY=this.screenX=this.clientY=this.clientX=0;this.key="";this.metaKey=this.shiftKey=this.altKey=this.ctrlKey=!1;this.state=null;this.pointerId=0;this.pointerType="";this.h=null;if(a){var c=this.type=a.type,d=a.changedTouches&amp;&amp;a.changedTouches.length?a.changedTouches[0]:null;this.target=a.target||a.srcElement;this.g=b;if(b=a.relatedTarget){if(oa){a:{try{E(b.nodeName);var e=!0;break a}catch(f){}e= !1}e||(b=null)}}else"mouseover"==c?b=a.fromElement:"mouseout"==c&amp;&amp;(b=a.toElement);this.relatedTarget=b;d?(this.clientX=void 0!==d.clientX?d.clientX:d.pageX,this.clientY=void 0!==d.clientY?d.clientY:d.pageY,this.screenX=d.screenX||0,this.screenY=d.screenY||0):(this.clientX=void 0!==a.clientX?a.clientX:a.pageX,this.clientY=void 0!==a.clientY?a.clientY:a.pageY,this.screenX=a.screenX||0,this.screenY=a.screenY||0);this.button=a.button;this.key=a.key||"";this.ctrlKey=a.ctrlKey;this.altKey=a.altKey;this.shiftKey= a.shiftKey;this.metaKey=a.metaKey;this.pointerId=a.pointerId||0;this.pointerType="string"===typeof a.pointerType?a.pointerType:Da[a.pointerType]||"";this.state=a.state;this.h=a;a.defaultPrevented&amp;&amp;K.A.i.call(this)}}B(K,I);var Da={2:"touch",3:"pen",4:"mouse"};K.prototype.i=function(){K.A.i.call(this);var a=this.h;a.preventDefault?a.preventDefault():a.returnValue=!1};var L="closure_listenable_"+(1E6*Math.random()|0);var Ea=0;function Fa(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.G=e;this.key=++Ea;this.B=this.F=!1}function M(a){a.B=!0;a.listener=null;a.proxy=null;a.src=null;a.G=null};function N(a){this.src=a;this.g={};this.i=0}N.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.i++);var l=O(a,b,d,e);-1&lt;l?(b=a[l],c||(b.F=!1)):(b=new Fa(b,this.src,f,!!d,e),b.F=c,a.push(b));return b};function Ga(a,b,c,d,e){b=b.toString();if(b in a.g){var f=a.g[b];c=O(f,c,d,e);-1&lt;c&amp;&amp;(M(f[c]),Array.prototype.splice.call(f,c,1),0==f.length&amp;&amp;(delete a.g[b],a.i--))}} function P(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=na(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(M(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.i--))}}function O(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.B&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.G==d)return e}return-1};var Q="closure_lm_"+(1E6*Math.random()|0),Ha={},Ia=0;function Ja(a,b,c,d,e){if(d&amp;&amp;d.once)return R(a,b,c,d,e);if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)Ja(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!1,y(d)?!!d.capture:!!d,e):La(a,b,c,!1,d,e)} function La(a,b,c,d,e,f){if(!b)throw Error("Invalid event type");var l=y(e)?!!e.capture:!!e,g=Ma(a);g||(a[Q]=g=new N(a));c=g.add(b,c,d,l,f);if(c.proxy)return c;d=Na();c.proxy=d;d.src=a;d.listener=c;if(a.addEventListener)Ca||(e=l),void 0===e&amp;&amp;(e=!1),a.addEventListener(b.toString(),d,e);else if(a.attachEvent)a.attachEvent(Oa(b.toString()),d);else if(a.addListener&amp;&amp;a.removeListener)a.addListener(d);else throw Error("addEventListener and attachEvent are unavailable.");Ia++;return c} function Na(){function a(c){return b.call(a.src,a.listener,c)}var b=Pa;return a}function R(a,b,c,d,e){if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)R(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!0,y(d)?!!d.capture:!!d,e):La(a,b,c,!0,d,e)} function Qa(a,b,c,d,e){if(Array.isArray(b))for(var f=0;f&lt;b.length;f++)Qa(a,b[f],c,d,e);else(d=y(d)?!!d.capture:!!d,c=Ka(c),a&amp;&amp;a[L])?Ga(a.g,String(b),c,d,e):a&amp;&amp;(a=Ma(a))&amp;&amp;(b=a.g[b.toString()],a=-1,b&amp;&amp;(a=O(b,c,d,e)),(c=-1&lt;a?b[a]:null)&amp;&amp;Ra(c))} function Ra(a){if("number"!==typeof a&amp;&amp;a&amp;&amp;!a.B){var b=a.src;if(b&amp;&amp;b[L])P(b.g,a);else{var c=a.type,d=a.proxy;b.removeEventListener?b.removeEventListener(c,d,a.capture):b.detachEvent?b.detachEvent(Oa(c),d):b.addListener&amp;&amp;b.removeListener&amp;&amp;b.removeListener(d);Ia--;(c=Ma(b))?(P(c,a),0==c.i&amp;&amp;(c.src=null,b[Q]=null)):M(a)}}}function Oa(a){return a in Ha?Ha[a]:Ha[a]="on"+a}function Pa(a,b){if(a.B)a=!0;else{b=new K(b,this);var c=a.listener,d=a.G||a.src;a.F&amp;&amp;Ra(a);a=c.call(d,b)}return a} function Ma(a){a=a[Q];return a instanceof N?a:null}var Sa="__closure_events_fn_"+(1E9*Math.random()&gt;&gt;&gt;0);function Ka(a){if("function"===typeof a)return a;a[Sa]||(a[Sa]=function(b){return a.handleEvent(b)});return a[Sa]};function S(a){H.call(this);this.h=a;this.g={}}B(S,H);var Ta=[];function Ua(a){pa(a.g,function(b,c){this.g.hasOwnProperty(c)&amp;&amp;Ra(b)},a);a.g={}}S.prototype.i=function(){S.A.i.call(this);Ua(this)};S.prototype.handleEvent=function(){throw Error("EventHandler.handleEvent not implemented");};function T(){H.call(this);this.g=new N(this);this.J=this;this.C=null}B(T,H);T.prototype[L]=!0;T.prototype.addEventListener=function(a,b,c,d){Ja(this,a,b,c,d)};T.prototype.removeEventListener=function(a,b,c,d){Qa(this,a,b,c,d)}; function Va(a,b){var c,d=a.C;if(d)for(c=[];d;d=d.C)c.push(d);a=a.J;d=b.type||b;if("string"===typeof b)b=new I(b,a);else if(b instanceof I)b.target=b.target||a;else{var e=b;b=new I(d,a);sa(b,e)}e=!0;if(c)for(var f=c.length-1;0&lt;=f;f--){var l=b.g=c[f];e=U(l,d,!0,b)&amp;&amp;e}l=b.g=a;e=U(l,d,!0,b)&amp;&amp;e;e=U(l,d,!1,b)&amp;&amp;e;if(c)for(f=0;f&lt;c.length;f++)l=b.g=c[f],e=U(l,d,!1,b)&amp;&amp;e} T.prototype.i=function(){T.A.i.call(this);if(this.g){var a=this.g,b=0,c;for(c in a.g){for(var d=a.g[c],e=0;e&lt;d.length;e++)++b,M(d[e]);delete a.g[c];a.i--}}this.C=null};function U(a,b,c,d){b=a.g.g[String(b)];if(!b)return!0;b=b.concat();for(var e=!0,f=0;f&lt;b.length;++f){var l=b[f];if(l&amp;&amp;!l.B&amp;&amp;l.capture==c){var g=l.listener,h=l.G||l.src;l.F&amp;&amp;P(a.g,l);e=!1!==g.call(h,d)&amp;&amp;e}}return e&amp;&amp;!d.defaultPrevented};function V(a,b){T.call(this);this.v=a||1;this.m=b||w;this.H=z(this.K,this);this.D=Date.now()}B(V,T);V.prototype.j=!1;V.prototype.h=null;V.prototype.K=function(){if(this.j){var a=Date.now()-this.D;0&lt;a&amp;&amp;a&lt;.8*this.v?this.h=this.m.setTimeout(this.H,this.v-a):(this.h&amp;&amp;(this.m.clearTimeout(this.h),this.h=null),Va(this,"tick"),this.j&amp;&amp;(Wa(this),this.start()))}};V.prototype.start=function(){this.j=!0;this.h||(this.h=this.m.setTimeout(this.H,this.v),this.D=Date.now())}; function Wa(a){a.j=!1;a.h&amp;&amp;(a.m.clearTimeout(a.h),a.h=null)}V.prototype.i=function(){V.A.i.call(this);Wa(this);delete this.m};function Xa(){if(window.googleJsEnvironment&amp;&amp;("rhino"==window.googleJsEnvironment.environment||"jscore"==window.googleJsEnvironment.environment))return new W;if(za&amp;&amp;window.googleAdsJsInterface&amp;&amp;"notify"in window.googleAdsJsInterface)try{return window.googleAdsJsInterface.notify("gmsg://mobileads.google.com/noop"),new W}catch(a){}else if(window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler)return new Ya;return new Za}function $a(){ab||(ab=Xa());return ab} var ab=null;function X(){H.call(this)}u(X,H);function bb(a){var b=qa(a.parameters);b["google.afma.Notify_dt"]=(new Date).getTime();return Ba(new J(a.messageName,b)).toString()}function Y(a,b){H.call(this);this.v=a;this.C=b||1;this.m=[];this.j=new V(this.C);a=this.H=new S(this);b=this.j;var c=this.D,d="tick";Array.isArray(d)||(d&amp;&amp;(Ta[0]=d.toString()),d=Ta);for(var e=0;e&lt;d.length;e++){var f=Ja(b,d[e],c||a.handleEvent,!1,a.h||a);if(!f)break;a.g[f.key]=f}}u(Y,X); Y.prototype.sendMessage=function(a){this.m.push(a);this.j.j||(a=this.m.shift(),this.v(a),this.j.start())};Y.prototype.D=function(){var a=this.m.shift();a?this.v(a):Wa(this.j)}; function Za(){Y.call(this,function(b){var c=a.g[a.h];if(!c){var d=document;c="IFRAME";"application/xhtml+xml"===d.contentType&amp;&amp;(c=c.toLowerCase());c=d.createElement(c);c.id="afma-notify-"+(new Date).getTime();c.style.display="none";a.g[a.h]=c}a.h=(a.h+1)%25;d=qa(b.parameters);d["google.afma.Notify_dt"]=(new Date).getTime();b=Ba(new J(b.messageName,d));c.src=ua(b).toString();c.parentNode||document.body.appendChild(c)});var a=this;this.g=[];this.h=0}u(Za,Y); Za.prototype.i=function(){this.g.forEach(wa);this.g=[];Y.prototype.i.call(this)};function W(){H.call(this)}u(W,X);W.prototype.sendMessage=function(a){a=bb(a);window.googleAdsJsInterface&amp;&amp;window.googleAdsJsInterface.notify&amp;&amp;(window.googleAdsJsInterface.notify(a),window.googleAdsJsInterface.DEBUG&amp;&amp;console.log(a))};function Ya(){H.call(this)}u(Ya,X);Ya.prototype.sendMessage=function(a){a=bb(a);window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler.postMessage(a)};/*  Math.uuid.js (v1.4) http://www.broofa.com mailto:robert@broofa.com Copyright (c) 2010 Robert Kieffer Dual licensed under the MIT and GPL licenses. */ var cb="0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz".split("");function db(a){for(var b=Array(36),c=0,d,e=0;36&gt;e;e++)8==e||13==e||18==e||23==e?b[e]="-":14==e?b[e]="4":(2&gt;=c&amp;&amp;(c=33554432+16777216*Math.random()|0),d=c&amp;15,c&gt;&gt;=4,b[e]=cb[19==e?d&amp;3|8:d]);this.uuid=b.join("");this.callback=a} function eb(a){var b=w.imalib_globalCallbacks||new Map,c=b.get("AFMA_updateActiveView")||[];if(0===c.length&amp;&amp;w.AFMA_updateActiveView){var d=new db(w.AFMA_updateActiveView);c.push(d);w.AFMA_updateActiveView=void 0}w.AFMA_updateActiveView||(w.AFMA_updateActiveView=function(){var e=b.get("AFMA_updateActiveView");e=q(e);for(var f=e.next();!f.done;f=e.next())f.value.callback.apply(null,arguments)});a=new db(a);c.push(a);b.set("AFMA_updateActiveView",c);w.imalib_globalCallbacks=b;return a.uuid} function fb(a){if(w.AFMA_updateActiveView){var b=w.imalib_globalCallbacks;if(b){var c=b.get("AFMA_updateActiveView");if(c){var d=c.findIndex(function(e){return e.uuid===a});-1!==d&amp;&amp;(c.splice(d,1),0===c.length&amp;&amp;(w.AFMA_updateActiveView=void 0),b.set("AFMA_updateActiveView",c),w.imalib_globalCallbacks=b)}}}};function gb(){var a=this;this.o=[];this.h=window===window.top;this.j=!1;this.g=0;this.i=null;"undefined"!==typeof window.addEventListener&amp;&amp;window.addEventListener("message",function(b){return hb(a,b)})} function hb(a,b){var c=b.data;if((b=b.source)&amp;&amp;c){var d=a.o;if("arwebview_iframe_loaded"===c&amp;&amp;a.h)x("JavascriptWebViewBridge.incoming.postMessage",a.u.bind(a),w),-1===d.indexOf(b)&amp;&amp;d.push(b);else{var e=c.messageName;c=c.parameters;if(a.h)switch(e){case "mraid_loaded":!1===c.is_top_win&amp;&amp;(a.j=!0,a.i=eb(function(f){a.h&amp;&amp;ib(a,new J("update_activeview_action",f))}),-1===d.indexOf(b)&amp;&amp;(d.push(b),"undefined"!==typeof b.postMessage&amp;&amp;b.postMessage(new J("mraid_env_obj",window.MRAID_ENV),"*")));break;case "start_tracking_action":0== a.g&amp;&amp;window.AFMA_SendMessage("trackActiveViewUnit");a.g+=1;break;case "stop_tracking_action":--a.g,0==a.g&amp;&amp;(window.AFMA_SendMessage("untrackActiveViewUnit",{hashCode:c.hashCode}),a.i&amp;&amp;(fb(a.i),a.i=null))}else switch(e){case "mraid_env_obj":window.MRAID_ENV=c;break;case "update_activeview_action":window.AFMA_updateActiveView&amp;&amp;window.AFMA_updateActiveView(c);break;case "receive_message_action":window.AFMA_ReceiveMessage(c.messageName,c.parameters)}}}} gb.prototype.u=function(a){this.h&amp;&amp;ib(this,{name:"arwebview_message_forwarded",message:a})};function ib(a,b){a.o.forEach(function(c){return c.postMessage(b,"*")})};function Z(){T.call(this);this.j=$a();this.j=$a();var a=ma(xa,this.j);this.u?a():(this.o||(this.o=[]),this.o.push(a));this.h={};this.m=new gb}u(Z,T);Z.prototype.sendMessage=function(a,b){var c=this,d;"string"===typeof a?d=new J(a,b):a instanceof J&amp;&amp;(d=a);"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return c.j.sendMessage(d)},!1,this):this.j.sendMessage(d)}; Z.prototype.receiveMessage=function(a,b){if(this.shouldForwardMessageToIframe())this.forwardMessage(new J("receive_message_action",new J(a,b)));else{var c=document.getElementById("ad_iframe");void 0!=c&amp;&amp;void 0!=c.contentWindow&amp;&amp;void 0!=c.contentWindow.AFMA_ReceiveMessage&amp;&amp;c.contentWindow.AFMA_ReceiveMessage(a,b)}"onshow"==a&amp;&amp;"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return jb(a,null!=b?b:void 0)}):Va(this,new ya(new J(a,b),this))}; Z.prototype.addObserver=function(a,b,c){function d(e){return void c.call(b,e.type,e.params)}this.g.add(String(a),d,!1,void 0,void 0);this.h[a]||(this.h[a]={});this.h[a][b]=d};Z.prototype.removeObserver=function(a,b){this.h[a]&amp;&amp;this.h[a][b]&amp;&amp;(Ga(this.g,String(a),this.h[a][b]),delete this.h[a][b])};Z.prototype.shouldForwardMessageToIframe=function(){return this.m.j};Z.prototype.forwardMessage=function(a){ib(this.m,a)}; function kb(a,b){w.AFMA_Communicator?w.AFMA_Communicator.sendMessage(a,b):lb(a,b)}function lb(a,b){"loading"==document.readyState?(a=z(lb,null,a,b),R(w,"DOMContentLoaded",a,!1)):(a=new J(a,b),$a().sendMessage(a))}function jb(a,b){w.AFMA_Communicator.receiveMessage(a,b)}function mb(a,b,c,d){w.AFMA_Communicator.removeEventListener(a,b,c,d)}function nb(a,b,c,d){w.AFMA_Communicator.addEventListener(a,b,c,d)}function ob(a,b,c){w.AFMA_Communicator.addObserver(a,b,c)} function pb(a,b){w.AFMA_Communicator.removeObserver(a,b)}w.AFMA_Communicator||(x("AFMA_AddEventListener",nb,w),x("AFMA_RemoveEventListener",mb,w),x("AFMA_AddObserver",ob,w),x("AFMA_RemoveObserver",pb,w),x("AFMA_ReceiveMessage",jb,w),x("AFMA_SendMessage",kb,w),w.AFMA_Communicator=new Z);nb("onSdkImpression",function(){x("Goog_Omid_SdkImpressionReceived",!0)});nb("onSdkLoaded",function(){x("Goog_Omid_SdkLoadedReceived",!0)});}).call(this);&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omsdk-v1.js"&gt;&lt;/script&gt;&lt;style&gt;HTML,BODY{height:100%;width:100%;margin:0;padding:0;overflow:hidden;}#mys-wrapper{height:100%;width:100%;overflow:hidden;position:absolute;top:0;left:0;align-items:center;display:flex;justify-content:center;line-height:normal;}#mys-overlay{height:100%;width:100%;overflow:hidden;position:absolute;top:0;left:0;box-sizing:border-box;pointer-events:none;z-index:1;display:none;}.mys-wrapper A,.mys-wrapper A:visited,.mys-wrapper A:hover,.mys-wrapper A:active{color:inherit;cursor:pointer;text-decoration:inherit;}[dir=rtl] .flip-on-rtl{transform:scale(-1,1);transform-origin:center;}#mys-content{flex-shrink:0;position:relative;overflow:hidden;z-index:0;}&lt;/style&gt;&lt;style x-ns-76zpk-l="banner-extra-small" x-phase="assemble"&gt;.ns-76zpk-l-banner-extra-small{opacity:.01;position:absolute;top:0;left:0;display:block;width:320px;height:50px;}.ns-76zpk-e-0{line-height:1.3;display:flex;flex-direction:column;box-sizing:border-box;width:100%;height:100%;font-family:"Google Sans",Arial,sans-serif;border:0;}.ns-76zpk-e-1{line-height:1.3;box-sizing:border-box;display:flex;align-items:center;flex-direction:row;justify-content:space-between;height:100%;max-height:48px;}.ns-76zpk-e-2{line-height:1.3;box-sizing:border-box;display:flex;align-items:center;flex-direction:row;justify-content:flex-start;}.ns-76zpk-e-3{line-height:1.3;box-sizing:border-box;display:flex;flex-direction:column;}.ns-76zpk-e-4,.ns-76zpk-e-15,.ns-76zpk-e-21,.ns-76zpk-e-25{display:flex;}.ns-76zpk-e-5{display:block;flex-shrink:0;flex-grow:0;}.ns-76zpk-e-6,.ns-76zpk-e-16,.ns-76zpk-e-19,.ns-76zpk-e-20{line-height:1.3;box-sizing:border-box;}.ns-76zpk-e-7{line-height:1.3;box-sizing:border-box;display:flex;flex-direction:column;height:100%;max-height:48px;flex-grow:1;align-items:center;justify-content:center;}.ns-76zpk-e-8{box-sizing:border-box;line-height:1.4em;min-height:1em;font-weight:500;min-width:4em;align-self:flex-start;width:100%;flex-shrink:0;max-height:1.5em;}.ns-76zpk-e-10{line-height:1.3;box-sizing:border-box;display:flex;align-items:center;flex-direction:row;align-self:flex-start;}.ns-76zpk-e-11,.ns-76zpk-e-17,.ns-76zpk-e-18{line-height:1.3;box-sizing:border-box;display:flex;align-items:center;flex-direction:row;}.ns-76zpk-e-12{box-sizing:border-box;line-height:1.2em;font-weight:400;}.ns-76zpk-e-14{line-height:1.3;box-sizing:border-box;width:3px;}.ns-76zpk-e-22{line-height:1.2em;font-weight:400;max-height:1.5em;}.ns-76zpk-e-23,.ns-76zpk-e-28{display:inline;}.ns-76zpk-e-24{line-height:1.3;box-sizing:border-box;display:flex;flex-direction:row;align-items:center;justify-content:flex-end;}.ns-76zpk-e-26{box-sizing:border-box;line-height:1.2em;min-width:80px;max-width:160px;padding:0 16px;display:flex;align-items:center;justify-content:center;}.ns-76zpk-e-27{line-height:1.2em;text-align:center;font-weight:600;max-height:1.5em;}.ns-76zpk-v-7 .ns-76zpk-e-1{padding:0 6px 0 18px;}.ns-76zpk-v-7 .ns-76zpk-e-3{padding:3.5px 0 3.5px 6px;}.ns-76zpk-v-7 .ns-76zpk-e-5{height:38px;}.ns-76zpk-v-7 .ns-76zpk-e-6,.ns-76zpk-v-7 .ns-76zpk-e-20{width:6px;}.ns-76zpk-v-7 .ns-76zpk-e-7{padding:4px 3.5px;}.ns-76zpk-v-7 .ns-76zpk-e-8{font-size:14px;letter-spacing:0px;}.ns-76zpk-v-7 .ns-76zpk-e-12,.ns-76zpk-v-7 .ns-76zpk-e-22{font-size:11px;}.ns-76zpk-v-7 .ns-76zpk-e-16{width:11px;height:11px;}.ns-76zpk-v-7 .ns-76zpk-e-24{padding:0 6px;}.ns-76zpk-v-7 .ns-76zpk-e-26{font-size:14px;height:36px;}&lt;/style&gt;&lt;style x-ns-76zpk-l="banner-extra-small" x-phase="decorate"&gt;.ns-76zpk-l-banner-extra-small{opacity:1;position:relative;}.ns-76zpk-e-0{background-color:#fff;}.ns-76zpk-e-5{background-repeat:no-repeat;background-size:contain;border-radius:22.5%;box-shadow:0 1px 1px 0 rgba(0,0,0,0.14),0 2px 1px -1px rgba(0,0,0,0.12),0 1px 3px 0 rgba(0,0,0,0.20);background-size:cover;}.ns-76zpk-e-8{color:#000;font-family:"Google Sans", "Roboto","Google Sans",Arial,sans-serif;}.ns-76zpk-e-9,.ns-76zpk-e-13,.ns-76zpk-e-23,.ns-76zpk-e-28{white-space:nowrap;}.ns-76zpk-e-12{color:#5f6368;font-family:"Google Sans", "Roboto","Google Sans",Arial,sans-serif;}.ns-76zpk-e-22{color:#007aff;font-family:"Google Sans", "Roboto","Google Sans",Arial,sans-serif;}.ns-76zpk-e-26{border-radius:320px;background-color:#007aff;color:#fff;}.ns-76zpk-e-27{color:#fff;font-family:"Google Sans", "Roboto","Google Sans",Arial,sans-serif;}.ns-76zpk-e-5{background-image:url(https://lh3.googleusercontent.com/SDhND2zJduAMZQbPnHTx9ZXcgIIr8mc8WAU4PMZJslI8qri0KTYHBbvB9CqnnorQHIO03EPZOsg=w76-h76-l80-v1);}&lt;/style&gt;&lt;link as="style" data-reload-stylesheet="true" href="https://fonts.googleapis.com/css?family=Google%20Sans%3A400%2C500%2C600" rel="preload"&gt;&lt;script&gt;&lt;/script&gt;&lt;script&gt;if (typeof(ss) === "undefined") { ss = function(){}; }function st(id) {var a = document.getElementById(id);if (a) {}}function ha(a,x){  }function ia(a,e,x) {}function ja(a,x) {}function ga(o,e,x) {if (document.getElementById) {var a=o.id.substring(1),p="",r="",g=e.target,t,f,h;if (g) {t=g.id;f=g.parentNode;if (f) {p=f.id;h=f.parentNode;if (h)r=h.id;}} else {h=e.srcElement;f=h.parentNode;if (f)p=f.id;t=h.id;}if (t==a||p==a||r==a)return true;ia(a,e,x);top.location.href=document.getElementById(a).href;}}&lt;/script&gt;&lt;/head&gt;&lt;body&gt;&lt;div id="mys-wrapper" class="mys-wrapper"&gt;&lt;div id="mys-overlay"&gt;&lt;/div&gt;&lt;div id="mys-content" style="width:320px;height:50px;"x-frame-width="320" x-frame-height="50"&gt;&lt;div id="mys-meta" style="position:absolute;display:none;"&gt;&lt;meta content="776" index="0" name="sampling_mod"&gt;&lt;/meta&gt;&lt;meta content="st_5" index="0" name="environment"&gt;&lt;/meta&gt;&lt;meta content="ns-76zpk" index="0" name="namespace"&gt;&lt;/meta&gt;&lt;meta content="[3,2]" index="0" name="page_element"&gt;&lt;/meta&gt;&lt;meta content="[[[&amp;quot;.x-layout&amp;quot;,[[&amp;quot;class&amp;quot;,&amp;quot;GoogleActiveViewElement&amp;quot;],[&amp;quot;data-google-av-cxn&amp;quot;,&amp;quot;https://pagead2.googlesyndication.com/pcs/activeview?xai=AKAOjsuS5HWMYhlHMdbJuuI9l-RX1S05t7lznGFzF0m3zeaYnRmeQUnJElVLHBD2CBXEe0mVcvP1rzCOpAFUamyh8m1rBkx0LpqmhvjQ9lFikQshMrxROd5jaTCHEMpV9xe3yPsokXD8_v8v4sV0FTXx4dx0b4Dd3TVJ047JdklQDl_uAH-Bt5Tv6RgMKZo_vIBWD_Ic0AgzC_fJMy-qiQ&amp;amp;sai=AMfl-YQVnVTg1H3DZHs_uzVvyMBfUCwU0lsur2PQbLFY0PJMUvTLMkAjJVLG-V9N87kTIzF2lKeMkcJGIUiHxuoU-umYqv-Yj2gqAfP69khMSJFAStK5gda5kNQ1GvS1okZ5hXwWBJfz0BHXj0ZD7w0x2QLS905jzu5gB9gKA8Ifyg9oftrKLwRAyjhww5U2jtG10z0U9Ygk8dD5nhQ3cYZi_5h6MH0uC5bqkGNh&amp;amp;sig=Cg0ArKJSzBG0KhkEyWFEEAE&amp;quot;],[&amp;quot;data-google-av-adk&amp;quot;,&amp;quot;3519121124&amp;quot;],[&amp;quot;data-google-av-metadata&amp;quot;,&amp;quot;la=0&amp;amp;omid=1&amp;amp;sloi=1&amp;amp;&amp;quot;],[&amp;quot;data-google-av-ufs-integrator-metadata&amp;quot;,&amp;quot;&amp;quot;],[&amp;quot;data-google-av-override&amp;quot;,&amp;quot;-1&amp;quot;],[&amp;quot;data-google-av-aid&amp;quot;,&amp;quot;0&amp;quot;],[&amp;quot;data-google-av-naid&amp;quot;,&amp;quot;1&amp;quot;],[&amp;quot;data-google-av-inapp&amp;quot;,&amp;quot;true&amp;quot;],[&amp;quot;data-google-av-slift&amp;quot;,&amp;quot;&amp;quot;],[&amp;quot;data-google-av-cpmav&amp;quot;,&amp;quot;&amp;quot;],[&amp;quot;data-google-av-btr&amp;quot;,&amp;quot;&amp;quot;],[&amp;quot;data-google-av-itpl&amp;quot;,&amp;quot;22&amp;quot;],[&amp;quot;data-google-av-rs&amp;quot;,&amp;quot;9&amp;quot;],[&amp;quot;data-google-av-dm&amp;quot;,&amp;quot;2&amp;quot;],[&amp;quot;data-google-av-flags&amp;quot;,&amp;quot;[\\&amp;quot;x%278440&amp;#39;9efotm(&amp;amp;753374%2bejvf/%27844&amp;gt;&amp;#39;9wuvb$&amp;amp;56533&amp;gt;!=|vqc)!273794&amp;amp;&amp;lt;qqvb/%&amp;lt;1735020!=nehu`/!364=5051!9abk{a($160210:3&amp;amp;&amp;lt;cbotf+*0150034:%2bejvf/%72;17613!=efdwa*&amp;#39;76463;21$?ebkpb$&amp;amp;0366717&amp;gt;*&amp;gt;bgipf+!3=712363%9aihwc)!7202&amp;lt;217&amp;#39;9efotm(&amp;amp;20061;48&amp;amp;&amp;gt;`dopb/%&amp;lt;1707200!=8(&amp;amp;2005575?&amp;amp;&amp;gt;`dopb/%&amp;lt;170642?!=|vqc)!7201;=50&amp;#39;9wuvb$&amp;amp;03641654*&amp;gt;bgipf+!3=731103%9aihwc)!7200?073&amp;#39;9efotm(&amp;amp;2004?51;&amp;amp;&amp;gt;`dopb/%&amp;lt;17&amp;gt;474&amp;gt;!=nehu`/!36406412!9abk{a($160&amp;gt;358&amp;lt;&amp;amp;&amp;lt;cbotfz\\&amp;quot;]&amp;quot;],[&amp;quot;lang&amp;quot;,&amp;quot;en&amp;quot;]]]]]" index="0" name="attribute_setter"&gt;&lt;/meta&gt;&lt;meta content="[[320,50,5,&amp;quot;text_ctd/mulan_with_squares_2&amp;quot;,1,0,null,&amp;quot;_top&amp;quot;,&amp;quot;Mozilla/5.0 (iPhone; CPU iPhone OS 12_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Mobile/15E148,gzip(gfe)&amp;quot;,[null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,[],null,null,null,null,null,null,null,null,null,1],[&amp;quot;Arial&amp;quot;,null,null,null,null,null,null,0,[&amp;quot;#000000&amp;quot;,&amp;quot;#ffffff&amp;quot;,&amp;quot;#ffffff&amp;quot;,&amp;quot;#7ecc84&amp;quot;,&amp;quot;#456fc6&amp;quot;,&amp;quot;#ffffff&amp;quot;],0],null,&amp;quot;afma-sdk-i-v8.11.0&amp;quot;,&amp;quot;US&amp;quot;,null,0,0,&amp;quot;en&amp;quot;,null,null,1,null,776,null,null,0,[],&amp;quot;&amp;quot;,&amp;quot;en&amp;quot;,null,1,2,null,null,null,0,0,null,0,0,1,2,1,0,3,null,375,667,null,0,1,[0,0],5,0,null,0,0,0,null,&amp;quot;ca-mb-app-pub-3686981407839642&amp;quot;,&amp;quot;9623039018&amp;quot;,0,&amp;quot;461033172&amp;quot;,[0],&amp;quot;&amp;quot;,&amp;quot;&amp;quot;],null,null,null,null,null,null,null,null,null,null,[null,1,1,null,null,0,1,[],null,null,null,null,null,null,null,null,null,1,1],nu</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '{"instrPixelURL":"https://aax-us-east.amazon-adsystem.com/x/px/p/RKXQiQ8TDu6PZnhtNJEbSLAAAAGG7eQ7_AEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICDL2xIW/","errorMessage":"no results","errorCode":"503","status":"error"}\n', 'size': 220, 'mimeType': 'text/javascript;charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '&lt;!doctype html&gt;&lt;html&gt;&lt;head&gt;&lt;meta name="viewport" content="width=320, initial-scale=1.0, minimum-scale=1.0, maximum-scale=1.0, user-scalable=no"&gt;&lt;script&gt;var jscVersion = \'r20230315\';&lt;/script&gt;&lt;script&gt;var google_casm=["afma-sdk-i-v8.11.0"];&lt;/script&gt;&lt;script data-jc="84" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ function aa(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}}var m="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a}; function ba(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("Cannot find global object");}var ca=ba(this);function p(a,b){if(b)a:{var c=ca;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;m(c,a,{configurable:!0,writable:!0,value:b})}} p("Symbol",function(a){function b(f){if(this instanceof b)throw new TypeError("Symbol is not a constructor");return new c(d+(f||"")+"_"+e++,f)}function c(f,l){this.g=f;m(this,"description",{configurable:!0,writable:!0,value:l})}if(a)return a;c.prototype.toString=function(){return this.g};var d="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",e=0;return b}); p("Symbol.iterator",function(a){if(a)return a;a=Symbol("Symbol.iterator");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=ca[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;m(d.prototype,a,{configurable:!0,writable:!0,value:function(){return da(aa(this))}})}return a});function da(a){a={next:a};a[Symbol.iterator]=function(){return this};return a} function q(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];if(b)return b.call(a);if("number"==typeof a.length)return{next:aa(a)};throw Error(String(a)+" is not an iterable or ArrayLike");}var ea="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},r; if("function"==typeof Object.setPrototypeOf)r=Object.setPrototypeOf;else{var t;a:{var fa={a:!0},ha={};try{ha.__proto__=fa;t=ha.a;break a}catch(a){}t=!1}r=t?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ia=r; function u(a,b){a.prototype=ea(b.prototype);a.prototype.constructor=a;if(ia)ia(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.A=b.prototype}function v(a,b){return Object.prototype.hasOwnProperty.call(a,b)} p("WeakMap",function(a){function b(h){this.g=(g+=Math.random()+1).toString();if(h){h=q(h);for(var k;!(k=h.next()).done;)k=k.value,this.set(k[0],k[1])}}function c(){}function d(h){var k=typeof h;return"object"===k&amp;&amp;null!==h||"function"===k}function e(h){if(!v(h,l)){var k=new c;m(h,l,{value:k})}}function f(h){var k=Object[h];k&amp;&amp;(Object[h]=function(n){if(n instanceof c)return n;Object.isExtensible(n)&amp;&amp;e(n);return k(n)})}if(function(){if(!a||!Object.seal)return!1;try{var h=Object.seal({}),k=Object.seal({}), n=new a([[h,2],[k,3]]);if(2!=n.get(h)||3!=n.get(k))return!1;n.delete(h);n.set(k,4);return!n.has(h)&amp;&amp;4==n.get(k)}catch(A){return!1}}())return a;var l="$jscomp_hidden_"+Math.random();f("freeze");f("preventExtensions");f("seal");var g=0;b.prototype.set=function(h,k){if(!d(h))throw Error("Invalid WeakMap key");e(h);if(!v(h,l))throw Error("WeakMap key fail: "+h);h[l][this.g]=k;return this};b.prototype.get=function(h){return d(h)&amp;&amp;v(h,l)?h[l][this.g]:void 0};b.prototype.has=function(h){return d(h)&amp;&amp;v(h, l)&amp;&amp;v(h[l],this.g)};b.prototype.delete=function(h){return d(h)&amp;&amp;v(h,l)&amp;&amp;v(h[l],this.g)?delete h[l][this.g]:!1};return b}); p("Map",function(a){function b(){var g={};return g.s=g.next=g.head=g}function c(g,h){var k=g.g;return da(function(){if(k){for(;k.head!=g.g;)k=k.s;for(;k.next!=k.head;)return k=k.next,{done:!1,value:h(k)};k=null}return{done:!0,value:void 0}})}function d(g,h){var k=h&amp;&amp;typeof h;"object"==k||"function"==k?f.has(h)?k=f.get(h):(k=""+ ++l,f.set(h,k)):k="p_"+h;var n=g.i[k];if(n&amp;&amp;v(g.i,k))for(g=0;g&lt;n.length;g++){var A=n[g];if(h!==h&amp;&amp;A.key!==A.key||h===A.key)return{id:k,list:n,index:g,l:A}}return{id:k,list:n, index:-1,l:void 0}}function e(g){this.i={};this.g=b();this.size=0;if(g){g=q(g);for(var h;!(h=g.next()).done;)h=h.value,this.set(h[0],h[1])}}if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var g=Object.seal({x:4}),h=new a(q([[g,"s"]]));if("s"!=h.get(g)||1!=h.size||h.get({x:4})||h.set({x:4},"t")!=h||2!=h.size)return!1;var k=h.entries(),n=k.next();if(n.done||n.value[0]!=g||"s"!=n.value[1])return!1;n=k.next();return n.done||4!=n.value[0].x|| "t"!=n.value[1]||!k.next().done?!1:!0}catch(A){return!1}}())return a;var f=new WeakMap;e.prototype.set=function(g,h){g=0===g?0:g;var k=d(this,g);k.list||(k.list=this.i[k.id]=[]);k.l?k.l.value=h:(k.l={next:this.g,s:this.g.s,head:this.g,key:g,value:h},k.list.push(k.l),this.g.s.next=k.l,this.g.s=k.l,this.size++);return this};e.prototype.delete=function(g){g=d(this,g);return g.l&amp;&amp;g.list?(g.list.splice(g.index,1),g.list.length||delete this.i[g.id],g.l.s.next=g.l.next,g.l.next.s=g.l.s,g.l.head=null,this.size--, !0):!1};e.prototype.clear=function(){this.i={};this.g=this.g.s=b();this.size=0};e.prototype.has=function(g){return!!d(this,g).l};e.prototype.get=function(g){return(g=d(this,g).l)&amp;&amp;g.value};e.prototype.entries=function(){return c(this,function(g){return[g.key,g.value]})};e.prototype.keys=function(){return c(this,function(g){return g.key})};e.prototype.values=function(){return c(this,function(g){return g.value})};e.prototype.forEach=function(g,h){for(var k=this.entries(),n;!(n=k.next()).done;)n=n.value, g.call(h,n[1],n[0],this)};e.prototype[Symbol.iterator]=e.prototype.entries;var l=0;return e});function ja(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e}p("Array.prototype.entries",function(a){return a?a:function(){return ja(this,function(b,c){return[b,c]})}}); p("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)v(b,d)&amp;&amp;c.push([d,b[d]]);return c}});p("Array.prototype.findIndex",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++)if(b.call(c,d[f],f,d)){b=f;break a}b=-1}return b}});var w=this||self; function x(a,b,c){a=a.split(".");c=c||w;a[0]in c||"undefined"==typeof c.execScript||c.execScript("var "+a[0]);for(var d;a.length&amp;&amp;(d=a.shift());)a.length||void 0===b?c[d]&amp;&amp;c[d]!==Object.prototype[d]?c=c[d]:c=c[d]={}:c[d]=b}function y(a){var b=typeof a;return"object"==b&amp;&amp;null!=a||"function"==b}function ka(a,b,c){return a.call.apply(a.bind,arguments)} function la(a,b,c){if(!a)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var e=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(e,d);return a.apply(b,e)}}return function(){return a.apply(b,arguments)}}function z(a,b,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?z=ka:z=la;return z.apply(null,arguments)} function ma(a,b){var c=Array.prototype.slice.call(arguments,1);return function(){var d=c.slice();d.push.apply(d,arguments);return a.apply(this,d)}}function B(a,b){function c(){}c.prototype=b.prototype;a.A=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.L=function(d,e,f){for(var l=Array(arguments.length-2),g=2;g&lt;arguments.length;g++)l[g-2]=arguments[g];return b.prototype[e].apply(d,l)}}function C(a){return a};var na=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1};function D(){var a=w.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};function E(a){E[" "](a);return a}E[" "]=function(){};var oa=-1!=D().indexOf("Gecko")&amp;&amp;!(-1!=D().toLowerCase().indexOf("webkit")&amp;&amp;-1==D().indexOf("Edge"))&amp;&amp;!(-1!=D().indexOf("Trident")||-1!=D().indexOf("MSIE"))&amp;&amp;-1==D().indexOf("Edge");function pa(a,b,c){for(var d in a)b.call(c,a[d],d,a)}function qa(a){var b={},c;for(c in a)b[c]=a[c];return b}var ra="constructor hasOwnProperty isPrototypeOf propertyIsEnumerable toLocaleString toString valueOf".split(" ");function sa(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;ra.length;f++)c=ra[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};var F;function G(a,b){this.g=b===ta?a:""}G.prototype.toString=function(){return this.g+""};function ua(a){return a instanceof G&amp;&amp;a.constructor===G?a.g:"type_error:TrustedResourceUrl"}var ta={};function va(a){if(void 0===F){var b=null;var c=w.trustedTypes;if(c&amp;&amp;c.createPolicy){try{b=c.createPolicy("goog#html",{createHTML:C,createScript:C,createScriptURL:C})}catch(d){w.console&amp;&amp;w.console.error(d.message)}F=b}else F=b}a=(b=F)?b.createScriptURL(a):a;return new G(a,ta)};function wa(a){return a&amp;&amp;a.parentNode?a.parentNode.removeChild(a):null};function xa(a){a&amp;&amp;"function"==typeof a.I&amp;&amp;a.I()};function H(){this.u=this.u;this.o=this.o}H.prototype.u=!1;H.prototype.I=function(){this.u||(this.u=!0,this.i())};H.prototype.i=function(){if(this.o)for(;this.o.length;)this.o.shift()()};function I(a,b){this.type=a;this.g=this.target=b;this.defaultPrevented=!1}I.prototype.i=function(){this.defaultPrevented=!0};function J(a,b){this.messageName=a;this.parameters=b||{}}function ya(a,b){I.call(this,a.messageName,b);this.params=a.parameters||{}}u(ya,I);var za=-1!=(w.navigator?w.navigator.userAgent:"").indexOf("Android");/*  SPDX-License-Identifier: Apache-2.0 */ function Aa(a,b){var c=ua(a).toString();if(/#/.test(c))throw Error("");var d=/\\?/.test(c)?"&amp;":"?";b.forEach(function(e,f){e=e instanceof Array?e:[e];for(var l=0;l&lt;e.length;l++){var g=e[l];null!==g&amp;&amp;void 0!==g&amp;&amp;(c+=d+encodeURIComponent(f)+"="+encodeURIComponent(String(g)),d="&amp;")}});return va(c)};function Ba(a){var b=va("gmsg://mobileads.google.com/"+a.messageName);return Aa(b,new Map(Object.entries(a.parameters)))};var Ca=function(){if(!w.addEventListener||!Object.defineProperty)return!1;var a=!1,b=Object.defineProperty({},"passive",{get:function(){a=!0}});try{w.addEventListener("test",function(){},b),w.removeEventListener("test",function(){},b)}catch(c){}return a}();function K(a,b){I.call(this,a?a.type:"");this.relatedTarget=this.g=this.target=null;this.button=this.screenY=this.screenX=this.clientY=this.clientX=0;this.key="";this.metaKey=this.shiftKey=this.altKey=this.ctrlKey=!1;this.state=null;this.pointerId=0;this.pointerType="";this.h=null;if(a){var c=this.type=a.type,d=a.changedTouches&amp;&amp;a.changedTouches.length?a.changedTouches[0]:null;this.target=a.target||a.srcElement;this.g=b;if(b=a.relatedTarget){if(oa){a:{try{E(b.nodeName);var e=!0;break a}catch(f){}e= !1}e||(b=null)}}else"mouseover"==c?b=a.fromElement:"mouseout"==c&amp;&amp;(b=a.toElement);this.relatedTarget=b;d?(this.clientX=void 0!==d.clientX?d.clientX:d.pageX,this.clientY=void 0!==d.clientY?d.clientY:d.pageY,this.screenX=d.screenX||0,this.screenY=d.screenY||0):(this.clientX=void 0!==a.clientX?a.clientX:a.pageX,this.clientY=void 0!==a.clientY?a.clientY:a.pageY,this.screenX=a.screenX||0,this.screenY=a.screenY||0);this.button=a.button;this.key=a.key||"";this.ctrlKey=a.ctrlKey;this.altKey=a.altKey;this.shiftKey= a.shiftKey;this.metaKey=a.metaKey;this.pointerId=a.pointerId||0;this.pointerType="string"===typeof a.pointerType?a.pointerType:Da[a.pointerType]||"";this.state=a.state;this.h=a;a.defaultPrevented&amp;&amp;K.A.i.call(this)}}B(K,I);var Da={2:"touch",3:"pen",4:"mouse"};K.prototype.i=function(){K.A.i.call(this);var a=this.h;a.preventDefault?a.preventDefault():a.returnValue=!1};var L="closure_listenable_"+(1E6*Math.random()|0);var Ea=0;function Fa(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.G=e;this.key=++Ea;this.B=this.F=!1}function M(a){a.B=!0;a.listener=null;a.proxy=null;a.src=null;a.G=null};function N(a){this.src=a;this.g={};this.i=0}N.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.i++);var l=O(a,b,d,e);-1&lt;l?(b=a[l],c||(b.F=!1)):(b=new Fa(b,this.src,f,!!d,e),b.F=c,a.push(b));return b};function Ga(a,b,c,d,e){b=b.toString();if(b in a.g){var f=a.g[b];c=O(f,c,d,e);-1&lt;c&amp;&amp;(M(f[c]),Array.prototype.splice.call(f,c,1),0==f.length&amp;&amp;(delete a.g[b],a.i--))}} function P(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=na(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(M(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.i--))}}function O(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.B&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.G==d)return e}return-1};var Q="closure_lm_"+(1E6*Math.random()|0),Ha={},Ia=0;function Ja(a,b,c,d,e){if(d&amp;&amp;d.once)return R(a,b,c,d,e);if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)Ja(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!1,y(d)?!!d.capture:!!d,e):La(a,b,c,!1,d,e)} function La(a,b,c,d,e,f){if(!b)throw Error("Invalid event type");var l=y(e)?!!e.capture:!!e,g=Ma(a);g||(a[Q]=g=new N(a));c=g.add(b,c,d,l,f);if(c.proxy)return c;d=Na();c.proxy=d;d.src=a;d.listener=c;if(a.addEventListener)Ca||(e=l),void 0===e&amp;&amp;(e=!1),a.addEventListener(b.toString(),d,e);else if(a.attachEvent)a.attachEvent(Oa(b.toString()),d);else if(a.addListener&amp;&amp;a.removeListener)a.addListener(d);else throw Error("addEventListener and attachEvent are unavailable.");Ia++;return c} function Na(){function a(c){return b.call(a.src,a.listener,c)}var b=Pa;return a}function R(a,b,c,d,e){if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)R(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!0,y(d)?!!d.capture:!!d,e):La(a,b,c,!0,d,e)} function Qa(a,b,c,d,e){if(Array.isArray(b))for(var f=0;f&lt;b.length;f++)Qa(a,b[f],c,d,e);else(d=y(d)?!!d.capture:!!d,c=Ka(c),a&amp;&amp;a[L])?Ga(a.g,String(b),c,d,e):a&amp;&amp;(a=Ma(a))&amp;&amp;(b=a.g[b.toString()],a=-1,b&amp;&amp;(a=O(b,c,d,e)),(c=-1&lt;a?b[a]:null)&amp;&amp;Ra(c))} function Ra(a){if("number"!==typeof a&amp;&amp;a&amp;&amp;!a.B){var b=a.src;if(b&amp;&amp;b[L])P(b.g,a);else{var c=a.type,d=a.proxy;b.removeEventListener?b.removeEventListener(c,d,a.capture):b.detachEvent?b.detachEvent(Oa(c),d):b.addListener&amp;&amp;b.removeListener&amp;&amp;b.removeListener(d);Ia--;(c=Ma(b))?(P(c,a),0==c.i&amp;&amp;(c.src=null,b[Q]=null)):M(a)}}}function Oa(a){return a in Ha?Ha[a]:Ha[a]="on"+a}function Pa(a,b){if(a.B)a=!0;else{b=new K(b,this);var c=a.listener,d=a.G||a.src;a.F&amp;&amp;Ra(a);a=c.call(d,b)}return a} function Ma(a){a=a[Q];return a instanceof N?a:null}var Sa="__closure_events_fn_"+(1E9*Math.random()&gt;&gt;&gt;0);function Ka(a){if("function"===typeof a)return a;a[Sa]||(a[Sa]=function(b){return a.handleEvent(b)});return a[Sa]};function S(a){H.call(this);this.h=a;this.g={}}B(S,H);var Ta=[];function Ua(a){pa(a.g,function(b,c){this.g.hasOwnProperty(c)&amp;&amp;Ra(b)},a);a.g={}}S.prototype.i=function(){S.A.i.call(this);Ua(this)};S.prototype.handleEvent=function(){throw Error("EventHandler.handleEvent not implemented");};function T(){H.call(this);this.g=new N(this);this.J=this;this.C=null}B(T,H);T.prototype[L]=!0;T.prototype.addEventListener=function(a,b,c,d){Ja(this,a,b,c,d)};T.prototype.removeEventListener=function(a,b,c,d){Qa(this,a,b,c,d)}; function Va(a,b){var c,d=a.C;if(d)for(c=[];d;d=d.C)c.push(d);a=a.J;d=b.type||b;if("string"===typeof b)b=new I(b,a);else if(b instanceof I)b.target=b.target||a;else{var e=b;b=new I(d,a);sa(b,e)}e=!0;if(c)for(var f=c.length-1;0&lt;=f;f--){var l=b.g=c[f];e=U(l,d,!0,b)&amp;&amp;e}l=b.g=a;e=U(l,d,!0,b)&amp;&amp;e;e=U(l,d,!1,b)&amp;&amp;e;if(c)for(f=0;f&lt;c.length;f++)l=b.g=c[f],e=U(l,d,!1,b)&amp;&amp;e} T.prototype.i=function(){T.A.i.call(this);if(this.g){var a=this.g,b=0,c;for(c in a.g){for(var d=a.g[c],e=0;e&lt;d.length;e++)++b,M(d[e]);delete a.g[c];a.i--}}this.C=null};function U(a,b,c,d){b=a.g.g[String(b)];if(!b)return!0;b=b.concat();for(var e=!0,f=0;f&lt;b.length;++f){var l=b[f];if(l&amp;&amp;!l.B&amp;&amp;l.capture==c){var g=l.listener,h=l.G||l.src;l.F&amp;&amp;P(a.g,l);e=!1!==g.call(h,d)&amp;&amp;e}}return e&amp;&amp;!d.defaultPrevented};function V(a,b){T.call(this);this.v=a||1;this.m=b||w;this.H=z(this.K,this);this.D=Date.now()}B(V,T);V.prototype.j=!1;V.prototype.h=null;V.prototype.K=function(){if(this.j){var a=Date.now()-this.D;0&lt;a&amp;&amp;a&lt;.8*this.v?this.h=this.m.setTimeout(this.H,this.v-a):(this.h&amp;&amp;(this.m.clearTimeout(this.h),this.h=null),Va(this,"tick"),this.j&amp;&amp;(Wa(this),this.start()))}};V.prototype.start=function(){this.j=!0;this.h||(this.h=this.m.setTimeout(this.H,this.v),this.D=Date.now())}; function Wa(a){a.j=!1;a.h&amp;&amp;(a.m.clearTimeout(a.h),a.h=null)}V.prototype.i=function(){V.A.i.call(this);Wa(this);delete this.m};function Xa(){if(window.googleJsEnvironment&amp;&amp;("rhino"==window.googleJsEnvironment.environment||"jscore"==window.googleJsEnvironment.environment))return new W;if(za&amp;&amp;window.googleAdsJsInterface&amp;&amp;"notify"in window.googleAdsJsInterface)try{return window.googleAdsJsInterface.notify("gmsg://mobileads.google.com/noop"),new W}catch(a){}else if(window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler)return new Ya;return new Za}function $a(){ab||(ab=Xa());return ab} var ab=null;function X(){H.call(this)}u(X,H);function bb(a){var b=qa(a.parameters);b["google.afma.Notify_dt"]=(new Date).getTime();return Ba(new J(a.messageName,b)).toString()}function Y(a,b){H.call(this);this.v=a;this.C=b||1;this.m=[];this.j=new V(this.C);a=this.H=new S(this);b=this.j;var c=this.D,d="tick";Array.isArray(d)||(d&amp;&amp;(Ta[0]=d.toString()),d=Ta);for(var e=0;e&lt;d.length;e++){var f=Ja(b,d[e],c||a.handleEvent,!1,a.h||a);if(!f)break;a.g[f.key]=f}}u(Y,X); Y.prototype.sendMessage=function(a){this.m.push(a);this.j.j||(a=this.m.shift(),this.v(a),this.j.start())};Y.prototype.D=function(){var a=this.m.shift();a?this.v(a):Wa(this.j)}; function Za(){Y.call(this,function(b){var c=a.g[a.h];if(!c){var d=document;c="IFRAME";"application/xhtml+xml"===d.contentType&amp;&amp;(c=c.toLowerCase());c=d.createElement(c);c.id="afma-notify-"+(new Date).getTime();c.style.display="none";a.g[a.h]=c}a.h=(a.h+1)%25;d=qa(b.parameters);d["google.afma.Notify_dt"]=(new Date).getTime();b=Ba(new J(b.messageName,d));c.src=ua(b).toString();c.parentNode||document.body.appendChild(c)});var a=this;this.g=[];this.h=0}u(Za,Y); Za.prototype.i=function(){this.g.forEach(wa);this.g=[];Y.prototype.i.call(this)};function W(){H.call(this)}u(W,X);W.prototype.sendMessage=function(a){a=bb(a);window.googleAdsJsInterface&amp;&amp;window.googleAdsJsInterface.notify&amp;&amp;(window.googleAdsJsInterface.notify(a),window.googleAdsJsInterface.DEBUG&amp;&amp;console.log(a))};function Ya(){H.call(this)}u(Ya,X);Ya.prototype.sendMessage=function(a){a=bb(a);window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler.postMessage(a)};/*  Math.uuid.js (v1.4) http://www.broofa.com mailto:robert@broofa.com Copyright (c) 2010 Robert Kieffer Dual licensed under the MIT and GPL licenses. */ var cb="0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz".split("");function db(a){for(var b=Array(36),c=0,d,e=0;36&gt;e;e++)8==e||13==e||18==e||23==e?b[e]="-":14==e?b[e]="4":(2&gt;=c&amp;&amp;(c=33554432+16777216*Math.random()|0),d=c&amp;15,c&gt;&gt;=4,b[e]=cb[19==e?d&amp;3|8:d]);this.uuid=b.join("");this.callback=a} function eb(a){var b=w.imalib_globalCallbacks||new Map,c=b.get("AFMA_updateActiveView")||[];if(0===c.length&amp;&amp;w.AFMA_updateActiveView){var d=new db(w.AFMA_updateActiveView);c.push(d);w.AFMA_updateActiveView=void 0}w.AFMA_updateActiveView||(w.AFMA_updateActiveView=function(){var e=b.get("AFMA_updateActiveView");e=q(e);for(var f=e.next();!f.done;f=e.next())f.value.callback.apply(null,arguments)});a=new db(a);c.push(a);b.set("AFMA_updateActiveView",c);w.imalib_globalCallbacks=b;return a.uuid} function fb(a){if(w.AFMA_updateActiveView){var b=w.imalib_globalCallbacks;if(b){var c=b.get("AFMA_updateActiveView");if(c){var d=c.findIndex(function(e){return e.uuid===a});-1!==d&amp;&amp;(c.splice(d,1),0===c.length&amp;&amp;(w.AFMA_updateActiveView=void 0),b.set("AFMA_updateActiveView",c),w.imalib_globalCallbacks=b)}}}};function gb(){var a=this;this.o=[];this.h=window===window.top;this.j=!1;this.g=0;this.i=null;"undefined"!==typeof window.addEventListener&amp;&amp;window.addEventListener("message",function(b){return hb(a,b)})} function hb(a,b){var c=b.data;if((b=b.source)&amp;&amp;c){var d=a.o;if("arwebview_iframe_loaded"===c&amp;&amp;a.h)x("JavascriptWebViewBridge.incoming.postMessage",a.u.bind(a),w),-1===d.indexOf(b)&amp;&amp;d.push(b);else{var e=c.messageName;c=c.parameters;if(a.h)switch(e){case "mraid_loaded":!1===c.is_top_win&amp;&amp;(a.j=!0,a.i=eb(function(f){a.h&amp;&amp;ib(a,new J("update_activeview_action",f))}),-1===d.indexOf(b)&amp;&amp;(d.push(b),"undefined"!==typeof b.postMessage&amp;&amp;b.postMessage(new J("mraid_env_obj",window.MRAID_ENV),"*")));break;case "start_tracking_action":0== a.g&amp;&amp;window.AFMA_SendMessage("trackActiveViewUnit");a.g+=1;break;case "stop_tracking_action":--a.g,0==a.g&amp;&amp;(window.AFMA_SendMessage("untrackActiveViewUnit",{hashCode:c.hashCode}),a.i&amp;&amp;(fb(a.i),a.i=null))}else switch(e){case "mraid_env_obj":window.MRAID_ENV=c;break;case "update_activeview_action":window.AFMA_updateActiveView&amp;&amp;window.AFMA_updateActiveView(c);break;case "receive_message_action":window.AFMA_ReceiveMessage(c.messageName,c.parameters)}}}} gb.prototype.u=function(a){this.h&amp;&amp;ib(this,{name:"arwebview_message_forwarded",message:a})};function ib(a,b){a.o.forEach(function(c){return c.postMessage(b,"*")})};function Z(){T.call(this);this.j=$a();this.j=$a();var a=ma(xa,this.j);this.u?a():(this.o||(this.o=[]),this.o.push(a));this.h={};this.m=new gb}u(Z,T);Z.prototype.sendMessage=function(a,b){var c=this,d;"string"===typeof a?d=new J(a,b):a instanceof J&amp;&amp;(d=a);"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return c.j.sendMessage(d)},!1,this):this.j.sendMessage(d)}; Z.prototype.receiveMessage=function(a,b){if(this.shouldForwardMessageToIframe())this.forwardMessage(new J("receive_message_action",new J(a,b)));else{var c=document.getElementById("ad_iframe");void 0!=c&amp;&amp;void 0!=c.contentWindow&amp;&amp;void 0!=c.contentWindow.AFMA_ReceiveMessage&amp;&amp;c.contentWindow.AFMA_ReceiveMessage(a,b)}"onshow"==a&amp;&amp;"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return jb(a,null!=b?b:void 0)}):Va(this,new ya(new J(a,b),this))}; Z.prototype.addObserver=function(a,b,c){function d(e){return void c.call(b,e.type,e.params)}this.g.add(String(a),d,!1,void 0,void 0);this.h[a]||(this.h[a]={});this.h[a][b]=d};Z.prototype.removeObserver=function(a,b){this.h[a]&amp;&amp;this.h[a][b]&amp;&amp;(Ga(this.g,String(a),this.h[a][b]),delete this.h[a][b])};Z.prototype.shouldForwardMessageToIframe=function(){return this.m.j};Z.prototype.forwardMessage=function(a){ib(this.m,a)}; function kb(a,b){w.AFMA_Communicator?w.AFMA_Communicator.sendMessage(a,b):lb(a,b)}function lb(a,b){"loading"==document.readyState?(a=z(lb,null,a,b),R(w,"DOMContentLoaded",a,!1)):(a=new J(a,b),$a().sendMessage(a))}function jb(a,b){w.AFMA_Communicator.receiveMessage(a,b)}function mb(a,b,c,d){w.AFMA_Communicator.removeEventListener(a,b,c,d)}function nb(a,b,c,d){w.AFMA_Communicator.addEventListener(a,b,c,d)}function ob(a,b,c){w.AFMA_Communicator.addObserver(a,b,c)} function pb(a,b){w.AFMA_Communicator.removeObserver(a,b)}w.AFMA_Communicator||(x("AFMA_AddEventListener",nb,w),x("AFMA_RemoveEventListener",mb,w),x("AFMA_AddObserver",ob,w),x("AFMA_RemoveObserver",pb,w),x("AFMA_ReceiveMessage",jb,w),x("AFMA_SendMessage",kb,w),w.AFMA_Communicator=new Z);nb("onSdkImpression",function(){x("Goog_Omid_SdkImpressionReceived",!0)});nb("onSdkLoaded",function(){x("Goog_Omid_SdkLoadedReceived",!0)});}).call(this);&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omsdk-v1.js"&gt;&lt;/script&gt;&lt;/head&gt;&lt;body leftMargin="0" topMargin="0" marginwidth="0" marginheight="0"&gt;&lt;div class="GoogleActiveViewInnerContainer"style="left:0px;top:0px;width:100%;height:100%;position:fixed;pointer-events:none;z-index:-9999;"&gt;&lt;/div&gt;&lt;div style="display:inline"class="GoogleActiveViewElement"data-google-av-cxn="https://pagead2.googlesyndication.com/pcs/activeview?xai=AKAOjstXcgcRqU8h58f9bPyFfv9H6S8gt-6_lbnIhVR6GmkU7fgFBL-cmhlATpxJejYLOl-8Tp54pcCp4NQpOd68kqRheSPw&amp;amp;sig=Cg0ArKJSzOxnX3rthlt2EAE"data-google-av-adk="1334126877"data-google-av-metadata="la=0&amp;amp;omid=1&amp;amp;sloi=1&amp;amp;"data-google-av-ufs-integrator-metadata=""data-google-av-override="-1"data-google-av-dm="2"data-google-av-aid="0"data-google-av-naid="1"data-google-av-inapp data-google-av-slift=""data-google-av-cpmav=""data-google-av-btr=""data-google-av-itpl="20"data-google-av-rs="9"data-google-av-flags="[&amp;quot;x%278440&amp;#39;9efotm(&amp;amp;753374%2bejvf/%27844&amp;gt;&amp;#39;9wuvb$&amp;amp;56533&amp;gt;!=|vqc)!273794&amp;amp;&amp;lt;qqvb/%&amp;lt;1735020!=nehu`/!364=5051!9abk{a($160210:3&amp;amp;&amp;lt;cbotf+*0150034:%2bejvf/%72;17613!=efdwa*&amp;#39;76463;21$?ebkpb$&amp;amp;0366717&amp;gt;*&amp;gt;bgipf+!3=712363%9aihwc)!7202&amp;lt;217&amp;#39;9efotm(&amp;amp;20061;48&amp;amp;&amp;gt;`dopb/%&amp;lt;1707200!=8(&amp;amp;2005575?&amp;amp;&amp;gt;`dopb/%&amp;lt;170642?!=|vqc)!7201;=50&amp;#39;9wuvb$&amp;amp;03641654*&amp;gt;bgipf+!3=731103%9aihwc)!7200?073&amp;#39;9efotm(&amp;amp;2004?51;&amp;amp;&amp;gt;`dopb/%&amp;lt;17&amp;gt;474&amp;gt;!=nehu`/!36406412!9abk{a($160&amp;gt;358&amp;lt;&amp;amp;&amp;lt;cbotfz&amp;quot;]"&gt;    &lt;script type="text/javascript"&gt;\n      rubicon_cb = Math.random(); rubicon_rurl = document.referrer; if(top.location==document.location){rubicon_rurl = document.location;} rubicon_rurl = escape(rubicon_rurl);\n      window.rubicon_ad = "4357852" + "." + "js";\n      window.rubicon_creative = "4957212" + "." + "js";\n    &lt;/script&gt;\n&lt;div data-rp-type="trp-display-creative" data-rp-impression-id="7ea9dea0-84d0-42ba-bf72-9838b53a6890" data-rp-aqid="2132:30069426" data-rp-acct-id="17752"&gt;\n\n\n&lt;script src="mraid.js"&gt;&lt;/script&gt;&lt;iframe src="https://eastads.simpli.fi/ads/3341154/30069426/_p.html?sifi=8475,3341154,30069426,0,28,0,0,0,0,389,6,v,26.95680,1BACC8E50A22C964,0,0,0,23,5AF99DBF55B9840BA87AA4044345318A,0,0,0,1270,400,1,0,0,607,0,702,bidder-base-prd-us-east4-b-6a5f6ae7:9009-1679028403933-59311216,1,0,395291,2,0,28,12,47404,0,0.00,1,220412618550898,0,0,3,137847689,1,-4,0,97,,5,355726,0,0,2,3,17752,8,277,4254679&amp;hash_rid=C5773E117CB367AD785907CA8AAB5264&amp;sifi_exchange_uid=973d876f0da652cb5d27495da456620f47626fa3&amp;request_id=ca3859d54e16afd2c9dda3282817fe98d2accd31" width="320" height="50" frameborder="0" marginwidth="0" marginheight="0" scrolling="no"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n&lt;/div&gt;&lt;script data-jc="22" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/window_focus.js" async data-jc-version="r20230315" data-jcp-url="https://googleads.g.doubleclick.net/pagead/interaction/?ai=CKBOss_ATZICxMIKXgrAPn_2ruAP-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMByAMCqgSPAk_Q8Hmvk18Ql4PWbMdL3e6T8MR4lkbhk8oeLkuiYy7hIyhkzukxaHgfLJ2QWn1s9pqWQE_pa2eukzXW6CaF9YvugQPJtueJOy7M94MA22toCnfVaVrOO-Id1bYnvZ_37m4XODO8VaiA9QeF4F4RP9pqjzT4vHwi5wTM3Pw3pZW7tsPFtiNyv1Eo4I2TIhSz1qqDvy5zz0wIoZhDYYMy74Zhf0Am3FWcke_keFHiyjdAi94HgUftWA5MP_AfGqn142n7Lhjvl2Yf8nmZHT-fU4xYpFMw3IizN9dclwyq_hHh3hHF9q82L8pJ3viC_frg4qgV7-vYr7-HrmrRhTW35yCInGd9tfUzKajIEEha7BPgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE&amp;amp;sigh=-AKgizmu_q4&amp;amp;cid=CAQShgEA1BOcpnoJoCXDGJEZRk9D2XxLCoDo_1oN6BLhivnbRUO55as_3Kva8YqX0g5E06FEvFJTz8KPpk2bzabLTGUd_TVmxCnCtEI4npRtdC8ggimYIuP6-lx_c2rfxOSdfdLFfq7mdlutRbG2ZvpGFFiCiV7laaiQ8xWvkarW8aqN3-Qe6gy9mw" data-jcp-gws-id="s_ATZKm_LauQgrAP1J6K2A8" data-jcp-qem-id="CMDWzZyU4v0CFYKLAAAdn_4KNw"&gt;&lt;/script&gt;&lt;script data-jc="23" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/qs_click_protection.js" data-jc-version="r20230315"&gt;&lt;/script&gt;&lt;script&gt;googqscp.init([[[[null,1500,99,2,4,null,null,null,1],[null,500,99,2,9,null,null,null,1]]]]);&lt;/script&gt;&lt;div style="bottom:0;right:0;width:320px;height:50px;background:initial !important;position:absolute !important;max-width:100% !important;max-height:100% !important;pointer-events:none !important;image-rendering:pixelated !important;background-repeat:no-repeat !important;z-index:2147483647;background-image:url(\'data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAQ4AAAAyBAMAAABfUCj0AAAABlBMVEUAAAD+AciWmZzWAAAAAnRSTlMAApidrBQAAAFASURBVFjD7VbRCsNACIt/4P9/7XrTqC17XGAMb6XUXnaUaDTAjyyLdT1cjxV5LMCvR0ZK6Hl31rkfSEYW3xjfCUZKqOW7eM/I8+9xREZKaIWI63FOXM9zFNCxZ/h0jOPDMV+HjvpwEjYzaeT2lnQBlLVsZOpW2U5SpwgU0BZw0PRUNW4YIdSo7+QrdOXUd1L7plgJjV0HlcRksgsBLT8tNPZ7I4GoEmv5CaHZY1G3YCyp4i3JVUJbSyjFT9mhFO9K6Kjsrp2ucOsyGxWugJbSDa32Vrqj1a6Edj/1mkLvTFLnHFhq6JyMncw5GSuZSuict2Mm95wa41sKvVEEZnSyyRpzJXRkkp3t/CqTbIIG00K7sqvd3iq7OvMUwfehWL++fn39+vr19evr19evr19fv75+ff36+vX16+vX/8CvvwBmkWnpieDNLAAAAABJRU5ErkJggg==\') !important;"&gt;&lt;/div&gt;&lt;script id="googleOmidDisplayScript" src="https://www.googletagservices.com/activeview/js/current/lidar.js?cache=r20110914"&gt;&lt;/script&gt;&lt;script data-jc="28" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ var e=this||self;function f(b,a,c){return b.call.apply(b.bind,arguments)}function g(b,a,c){if(!b)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var k=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(k,d);return b.apply(a,k)}}return function(){return b.apply(a,arguments)}}function h(b,a,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?h=f:h=g;return h.apply(null,arguments)};var l,m;a:{for(var n=["CLOSURE_FLAGS"],p=e,q=0;q&lt;n.length;q++)if(p=p[n[q]],null==p){m=null;break a}m=p}var r=m&amp;&amp;m[610401301];l=null!=r?r:!1;var t,u=e.navigator;t=u?u.userAgentData||null:null;function v(b){return l?t?t.brands.some(function(a){return(a=a.brand)&amp;&amp;-1!=a.indexOf(b)}):!1:!1}function w(b){var a;a:{if(a=e.navigator)if(a=a.userAgent)break a;a=""}return-1!=a.indexOf(b)};function x(){return l?!!t&amp;&amp;0&lt;t.brands.length:!1}function y(){return x()?v("Chromium"):(w("Chrome")||w("CriOS"))&amp;&amp;!(x()?0:w("Edge"))||w("Silk")};!w("Android")||y();y();w("Safari")&amp;&amp;(y()||(x()?0:w("Coast"))||(x()?0:w("Opera"))||(x()?0:w("Edge"))||(x()?v("Microsoft Edge"):w("Edg/"))||x()&amp;&amp;v("Opera"));function z(b){this.h=null;var a={top:10,right:10,bottom:10,left:10};b&amp;&amp;(b=b.split(","),4!=b.length||isNaN(b[0])||isNaN(b[1])||isNaN(b[2])||isNaN(b[3])||(a.top=+b[0],a.right=+b[1],a.bottom=+b[2],a.left=+b[3]));this.g=a} z.prototype.i=function(b){for(var a=!1,c=b.target;c;c=c.parentNode)if("abgc"==c.id){a=!0;break}if(!a){var d=this.h.getBoundingClientRect();a=d.width;c=d.height;var k=b.clientX-d.left;d=b.clientY-d.top;a="number"!==typeof a||"number"!==typeof c||"number"!==typeof b.clientX||"number"!==typeof b.clientY||0&gt;=a||0&gt;=c||0&gt;k||0&gt;d?!0:k&gt;=this.g.left&amp;&amp;a-k&gt;=this.g.right&amp;&amp;d&gt;=this.g.top&amp;&amp;c-d&gt;=this.g.bottom}a||(b.preventDefault?b.preventDefault():b.returnValue=!1)};function A(b,a){a||(a="");a=new z(a);a.h=b;b=a.h;var c=h(a.i,a);b.addEventListener&amp;&amp;b.addEventListener("click",c,!1);return a}var B=["googleInitIc"],C=e;B[0]in C||"undefined"==typeof C.execScript||C.execScript("var "+B[0]);for(var D;B.length&amp;&amp;(D=B.shift());)B.length||void 0===A?C[D]&amp;&amp;C[D]!==Object.prototype[D]?C=C[D]:C=C[D]={}:C[D]=A;}).call(this);&lt;/script&gt;&lt;script&gt;googleInitIc(document.body,\'10,10,10,10\');&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omid_session_bin.js"&gt;&lt;/script&gt;&lt;script type="text/javascript"&gt;(function() {var omidSession = new OmidCreativeSession([]);})();&lt;/script&gt;&lt;/body&gt;&lt;/html&gt;', 'size': 31684, 'mimeType': 'text/html; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '&lt;!doctype html&gt;&lt;html&gt;&lt;head&gt;&lt;meta name="viewport" content="width=320, initial-scale=1.0, minimum-scale=1.0, maximum-scale=1.0, user-scalable=no"&gt;&lt;script&gt;var jscVersion = \'r20230315\';&lt;/script&gt;&lt;script&gt;var google_casm=["afma-sdk-i-v8.11.0"];&lt;/script&gt;&lt;script data-jc="84" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ function aa(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}}var m="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a}; function ba(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("Cannot find global object");}var ca=ba(this);function p(a,b){if(b)a:{var c=ca;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;m(c,a,{configurable:!0,writable:!0,value:b})}} p("Symbol",function(a){function b(f){if(this instanceof b)throw new TypeError("Symbol is not a constructor");return new c(d+(f||"")+"_"+e++,f)}function c(f,l){this.g=f;m(this,"description",{configurable:!0,writable:!0,value:l})}if(a)return a;c.prototype.toString=function(){return this.g};var d="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",e=0;return b}); p("Symbol.iterator",function(a){if(a)return a;a=Symbol("Symbol.iterator");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=ca[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;m(d.prototype,a,{configurable:!0,writable:!0,value:function(){return da(aa(this))}})}return a});function da(a){a={next:a};a[Symbol.iterator]=function(){return this};return a} function q(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];if(b)return b.call(a);if("number"==typeof a.length)return{next:aa(a)};throw Error(String(a)+" is not an iterable or ArrayLike");}var ea="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},r; if("function"==typeof Object.setPrototypeOf)r=Object.setPrototypeOf;else{var t;a:{var fa={a:!0},ha={};try{ha.__proto__=fa;t=ha.a;break a}catch(a){}t=!1}r=t?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ia=r; function u(a,b){a.prototype=ea(b.prototype);a.prototype.constructor=a;if(ia)ia(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.A=b.prototype}function v(a,b){return Object.prototype.hasOwnProperty.call(a,b)} p("WeakMap",function(a){function b(h){this.g=(g+=Math.random()+1).toString();if(h){h=q(h);for(var k;!(k=h.next()).done;)k=k.value,this.set(k[0],k[1])}}function c(){}function d(h){var k=typeof h;return"object"===k&amp;&amp;null!==h||"function"===k}function e(h){if(!v(h,l)){var k=new c;m(h,l,{value:k})}}function f(h){var k=Object[h];k&amp;&amp;(Object[h]=function(n){if(n instanceof c)return n;Object.isExtensible(n)&amp;&amp;e(n);return k(n)})}if(function(){if(!a||!Object.seal)return!1;try{var h=Object.seal({}),k=Object.seal({}), n=new a([[h,2],[k,3]]);if(2!=n.get(h)||3!=n.get(k))return!1;n.delete(h);n.set(k,4);return!n.has(h)&amp;&amp;4==n.get(k)}catch(A){return!1}}())return a;var l="$jscomp_hidden_"+Math.random();f("freeze");f("preventExtensions");f("seal");var g=0;b.prototype.set=function(h,k){if(!d(h))throw Error("Invalid WeakMap key");e(h);if(!v(h,l))throw Error("WeakMap key fail: "+h);h[l][this.g]=k;return this};b.prototype.get=function(h){return d(h)&amp;&amp;v(h,l)?h[l][this.g]:void 0};b.prototype.has=function(h){return d(h)&amp;&amp;v(h, l)&amp;&amp;v(h[l],this.g)};b.prototype.delete=function(h){return d(h)&amp;&amp;v(h,l)&amp;&amp;v(h[l],this.g)?delete h[l][this.g]:!1};return b}); p("Map",function(a){function b(){var g={};return g.s=g.next=g.head=g}function c(g,h){var k=g.g;return da(function(){if(k){for(;k.head!=g.g;)k=k.s;for(;k.next!=k.head;)return k=k.next,{done:!1,value:h(k)};k=null}return{done:!0,value:void 0}})}function d(g,h){var k=h&amp;&amp;typeof h;"object"==k||"function"==k?f.has(h)?k=f.get(h):(k=""+ ++l,f.set(h,k)):k="p_"+h;var n=g.i[k];if(n&amp;&amp;v(g.i,k))for(g=0;g&lt;n.length;g++){var A=n[g];if(h!==h&amp;&amp;A.key!==A.key||h===A.key)return{id:k,list:n,index:g,l:A}}return{id:k,list:n, index:-1,l:void 0}}function e(g){this.i={};this.g=b();this.size=0;if(g){g=q(g);for(var h;!(h=g.next()).done;)h=h.value,this.set(h[0],h[1])}}if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var g=Object.seal({x:4}),h=new a(q([[g,"s"]]));if("s"!=h.get(g)||1!=h.size||h.get({x:4})||h.set({x:4},"t")!=h||2!=h.size)return!1;var k=h.entries(),n=k.next();if(n.done||n.value[0]!=g||"s"!=n.value[1])return!1;n=k.next();return n.done||4!=n.value[0].x|| "t"!=n.value[1]||!k.next().done?!1:!0}catch(A){return!1}}())return a;var f=new WeakMap;e.prototype.set=function(g,h){g=0===g?0:g;var k=d(this,g);k.list||(k.list=this.i[k.id]=[]);k.l?k.l.value=h:(k.l={next:this.g,s:this.g.s,head:this.g,key:g,value:h},k.list.push(k.l),this.g.s.next=k.l,this.g.s=k.l,this.size++);return this};e.prototype.delete=function(g){g=d(this,g);return g.l&amp;&amp;g.list?(g.list.splice(g.index,1),g.list.length||delete this.i[g.id],g.l.s.next=g.l.next,g.l.next.s=g.l.s,g.l.head=null,this.size--, !0):!1};e.prototype.clear=function(){this.i={};this.g=this.g.s=b();this.size=0};e.prototype.has=function(g){return!!d(this,g).l};e.prototype.get=function(g){return(g=d(this,g).l)&amp;&amp;g.value};e.prototype.entries=function(){return c(this,function(g){return[g.key,g.value]})};e.prototype.keys=function(){return c(this,function(g){return g.key})};e.prototype.values=function(){return c(this,function(g){return g.value})};e.prototype.forEach=function(g,h){for(var k=this.entries(),n;!(n=k.next()).done;)n=n.value, g.call(h,n[1],n[0],this)};e.prototype[Symbol.iterator]=e.prototype.entries;var l=0;return e});function ja(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e}p("Array.prototype.entries",function(a){return a?a:function(){return ja(this,function(b,c){return[b,c]})}}); p("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)v(b,d)&amp;&amp;c.push([d,b[d]]);return c}});p("Array.prototype.findIndex",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++)if(b.call(c,d[f],f,d)){b=f;break a}b=-1}return b}});var w=this||self; function x(a,b,c){a=a.split(".");c=c||w;a[0]in c||"undefined"==typeof c.execScript||c.execScript("var "+a[0]);for(var d;a.length&amp;&amp;(d=a.shift());)a.length||void 0===b?c[d]&amp;&amp;c[d]!==Object.prototype[d]?c=c[d]:c=c[d]={}:c[d]=b}function y(a){var b=typeof a;return"object"==b&amp;&amp;null!=a||"function"==b}function ka(a,b,c){return a.call.apply(a.bind,arguments)} function la(a,b,c){if(!a)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var e=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(e,d);return a.apply(b,e)}}return function(){return a.apply(b,arguments)}}function z(a,b,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?z=ka:z=la;return z.apply(null,arguments)} function ma(a,b){var c=Array.prototype.slice.call(arguments,1);return function(){var d=c.slice();d.push.apply(d,arguments);return a.apply(this,d)}}function B(a,b){function c(){}c.prototype=b.prototype;a.A=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.L=function(d,e,f){for(var l=Array(arguments.length-2),g=2;g&lt;arguments.length;g++)l[g-2]=arguments[g];return b.prototype[e].apply(d,l)}}function C(a){return a};var na=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1};function D(){var a=w.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};function E(a){E[" "](a);return a}E[" "]=function(){};var oa=-1!=D().indexOf("Gecko")&amp;&amp;!(-1!=D().toLowerCase().indexOf("webkit")&amp;&amp;-1==D().indexOf("Edge"))&amp;&amp;!(-1!=D().indexOf("Trident")||-1!=D().indexOf("MSIE"))&amp;&amp;-1==D().indexOf("Edge");function pa(a,b,c){for(var d in a)b.call(c,a[d],d,a)}function qa(a){var b={},c;for(c in a)b[c]=a[c];return b}var ra="constructor hasOwnProperty isPrototypeOf propertyIsEnumerable toLocaleString toString valueOf".split(" ");function sa(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;ra.length;f++)c=ra[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};var F;function G(a,b){this.g=b===ta?a:""}G.prototype.toString=function(){return this.g+""};function ua(a){return a instanceof G&amp;&amp;a.constructor===G?a.g:"type_error:TrustedResourceUrl"}var ta={};function va(a){if(void 0===F){var b=null;var c=w.trustedTypes;if(c&amp;&amp;c.createPolicy){try{b=c.createPolicy("goog#html",{createHTML:C,createScript:C,createScriptURL:C})}catch(d){w.console&amp;&amp;w.console.error(d.message)}F=b}else F=b}a=(b=F)?b.createScriptURL(a):a;return new G(a,ta)};function wa(a){return a&amp;&amp;a.parentNode?a.parentNode.removeChild(a):null};function xa(a){a&amp;&amp;"function"==typeof a.I&amp;&amp;a.I()};function H(){this.u=this.u;this.o=this.o}H.prototype.u=!1;H.prototype.I=function(){this.u||(this.u=!0,this.i())};H.prototype.i=function(){if(this.o)for(;this.o.length;)this.o.shift()()};function I(a,b){this.type=a;this.g=this.target=b;this.defaultPrevented=!1}I.prototype.i=function(){this.defaultPrevented=!0};function J(a,b){this.messageName=a;this.parameters=b||{}}function ya(a,b){I.call(this,a.messageName,b);this.params=a.parameters||{}}u(ya,I);var za=-1!=(w.navigator?w.navigator.userAgent:"").indexOf("Android");/*  SPDX-License-Identifier: Apache-2.0 */ function Aa(a,b){var c=ua(a).toString();if(/#/.test(c))throw Error("");var d=/\\?/.test(c)?"&amp;":"?";b.forEach(function(e,f){e=e instanceof Array?e:[e];for(var l=0;l&lt;e.length;l++){var g=e[l];null!==g&amp;&amp;void 0!==g&amp;&amp;(c+=d+encodeURIComponent(f)+"="+encodeURIComponent(String(g)),d="&amp;")}});return va(c)};function Ba(a){var b=va("gmsg://mobileads.google.com/"+a.messageName);return Aa(b,new Map(Object.entries(a.parameters)))};var Ca=function(){if(!w.addEventListener||!Object.defineProperty)return!1;var a=!1,b=Object.defineProperty({},"passive",{get:function(){a=!0}});try{w.addEventListener("test",function(){},b),w.removeEventListener("test",function(){},b)}catch(c){}return a}();function K(a,b){I.call(this,a?a.type:"");this.relatedTarget=this.g=this.target=null;this.button=this.screenY=this.screenX=this.clientY=this.clientX=0;this.key="";this.metaKey=this.shiftKey=this.altKey=this.ctrlKey=!1;this.state=null;this.pointerId=0;this.pointerType="";this.h=null;if(a){var c=this.type=a.type,d=a.changedTouches&amp;&amp;a.changedTouches.length?a.changedTouches[0]:null;this.target=a.target||a.srcElement;this.g=b;if(b=a.relatedTarget){if(oa){a:{try{E(b.nodeName);var e=!0;break a}catch(f){}e= !1}e||(b=null)}}else"mouseover"==c?b=a.fromElement:"mouseout"==c&amp;&amp;(b=a.toElement);this.relatedTarget=b;d?(this.clientX=void 0!==d.clientX?d.clientX:d.pageX,this.clientY=void 0!==d.clientY?d.clientY:d.pageY,this.screenX=d.screenX||0,this.screenY=d.screenY||0):(this.clientX=void 0!==a.clientX?a.clientX:a.pageX,this.clientY=void 0!==a.clientY?a.clientY:a.pageY,this.screenX=a.screenX||0,this.screenY=a.screenY||0);this.button=a.button;this.key=a.key||"";this.ctrlKey=a.ctrlKey;this.altKey=a.altKey;this.shiftKey= a.shiftKey;this.metaKey=a.metaKey;this.pointerId=a.pointerId||0;this.pointerType="string"===typeof a.pointerType?a.pointerType:Da[a.pointerType]||"";this.state=a.state;this.h=a;a.defaultPrevented&amp;&amp;K.A.i.call(this)}}B(K,I);var Da={2:"touch",3:"pen",4:"mouse"};K.prototype.i=function(){K.A.i.call(this);var a=this.h;a.preventDefault?a.preventDefault():a.returnValue=!1};var L="closure_listenable_"+(1E6*Math.random()|0);var Ea=0;function Fa(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.G=e;this.key=++Ea;this.B=this.F=!1}function M(a){a.B=!0;a.listener=null;a.proxy=null;a.src=null;a.G=null};function N(a){this.src=a;this.g={};this.i=0}N.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.i++);var l=O(a,b,d,e);-1&lt;l?(b=a[l],c||(b.F=!1)):(b=new Fa(b,this.src,f,!!d,e),b.F=c,a.push(b));return b};function Ga(a,b,c,d,e){b=b.toString();if(b in a.g){var f=a.g[b];c=O(f,c,d,e);-1&lt;c&amp;&amp;(M(f[c]),Array.prototype.splice.call(f,c,1),0==f.length&amp;&amp;(delete a.g[b],a.i--))}} function P(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=na(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(M(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.i--))}}function O(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.B&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.G==d)return e}return-1};var Q="closure_lm_"+(1E6*Math.random()|0),Ha={},Ia=0;function Ja(a,b,c,d,e){if(d&amp;&amp;d.once)return R(a,b,c,d,e);if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)Ja(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!1,y(d)?!!d.capture:!!d,e):La(a,b,c,!1,d,e)} function La(a,b,c,d,e,f){if(!b)throw Error("Invalid event type");var l=y(e)?!!e.capture:!!e,g=Ma(a);g||(a[Q]=g=new N(a));c=g.add(b,c,d,l,f);if(c.proxy)return c;d=Na();c.proxy=d;d.src=a;d.listener=c;if(a.addEventListener)Ca||(e=l),void 0===e&amp;&amp;(e=!1),a.addEventListener(b.toString(),d,e);else if(a.attachEvent)a.attachEvent(Oa(b.toString()),d);else if(a.addListener&amp;&amp;a.removeListener)a.addListener(d);else throw Error("addEventListener and attachEvent are unavailable.");Ia++;return c} function Na(){function a(c){return b.call(a.src,a.listener,c)}var b=Pa;return a}function R(a,b,c,d,e){if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)R(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!0,y(d)?!!d.capture:!!d,e):La(a,b,c,!0,d,e)} function Qa(a,b,c,d,e){if(Array.isArray(b))for(var f=0;f&lt;b.length;f++)Qa(a,b[f],c,d,e);else(d=y(d)?!!d.capture:!!d,c=Ka(c),a&amp;&amp;a[L])?Ga(a.g,String(b),c,d,e):a&amp;&amp;(a=Ma(a))&amp;&amp;(b=a.g[b.toString()],a=-1,b&amp;&amp;(a=O(b,c,d,e)),(c=-1&lt;a?b[a]:null)&amp;&amp;Ra(c))} function Ra(a){if("number"!==typeof a&amp;&amp;a&amp;&amp;!a.B){var b=a.src;if(b&amp;&amp;b[L])P(b.g,a);else{var c=a.type,d=a.proxy;b.removeEventListener?b.removeEventListener(c,d,a.capture):b.detachEvent?b.detachEvent(Oa(c),d):b.addListener&amp;&amp;b.removeListener&amp;&amp;b.removeListener(d);Ia--;(c=Ma(b))?(P(c,a),0==c.i&amp;&amp;(c.src=null,b[Q]=null)):M(a)}}}function Oa(a){return a in Ha?Ha[a]:Ha[a]="on"+a}function Pa(a,b){if(a.B)a=!0;else{b=new K(b,this);var c=a.listener,d=a.G||a.src;a.F&amp;&amp;Ra(a);a=c.call(d,b)}return a} function Ma(a){a=a[Q];return a instanceof N?a:null}var Sa="__closure_events_fn_"+(1E9*Math.random()&gt;&gt;&gt;0);function Ka(a){if("function"===typeof a)return a;a[Sa]||(a[Sa]=function(b){return a.handleEvent(b)});return a[Sa]};function S(a){H.call(this);this.h=a;this.g={}}B(S,H);var Ta=[];function Ua(a){pa(a.g,function(b,c){this.g.hasOwnProperty(c)&amp;&amp;Ra(b)},a);a.g={}}S.prototype.i=function(){S.A.i.call(this);Ua(this)};S.prototype.handleEvent=function(){throw Error("EventHandler.handleEvent not implemented");};function T(){H.call(this);this.g=new N(this);this.J=this;this.C=null}B(T,H);T.prototype[L]=!0;T.prototype.addEventListener=function(a,b,c,d){Ja(this,a,b,c,d)};T.prototype.removeEventListener=function(a,b,c,d){Qa(this,a,b,c,d)}; function Va(a,b){var c,d=a.C;if(d)for(c=[];d;d=d.C)c.push(d);a=a.J;d=b.type||b;if("string"===typeof b)b=new I(b,a);else if(b instanceof I)b.target=b.target||a;else{var e=b;b=new I(d,a);sa(b,e)}e=!0;if(c)for(var f=c.length-1;0&lt;=f;f--){var l=b.g=c[f];e=U(l,d,!0,b)&amp;&amp;e}l=b.g=a;e=U(l,d,!0,b)&amp;&amp;e;e=U(l,d,!1,b)&amp;&amp;e;if(c)for(f=0;f&lt;c.length;f++)l=b.g=c[f],e=U(l,d,!1,b)&amp;&amp;e} T.prototype.i=function(){T.A.i.call(this);if(this.g){var a=this.g,b=0,c;for(c in a.g){for(var d=a.g[c],e=0;e&lt;d.length;e++)++b,M(d[e]);delete a.g[c];a.i--}}this.C=null};function U(a,b,c,d){b=a.g.g[String(b)];if(!b)return!0;b=b.concat();for(var e=!0,f=0;f&lt;b.length;++f){var l=b[f];if(l&amp;&amp;!l.B&amp;&amp;l.capture==c){var g=l.listener,h=l.G||l.src;l.F&amp;&amp;P(a.g,l);e=!1!==g.call(h,d)&amp;&amp;e}}return e&amp;&amp;!d.defaultPrevented};function V(a,b){T.call(this);this.v=a||1;this.m=b||w;this.H=z(this.K,this);this.D=Date.now()}B(V,T);V.prototype.j=!1;V.prototype.h=null;V.prototype.K=function(){if(this.j){var a=Date.now()-this.D;0&lt;a&amp;&amp;a&lt;.8*this.v?this.h=this.m.setTimeout(this.H,this.v-a):(this.h&amp;&amp;(this.m.clearTimeout(this.h),this.h=null),Va(this,"tick"),this.j&amp;&amp;(Wa(this),this.start()))}};V.prototype.start=function(){this.j=!0;this.h||(this.h=this.m.setTimeout(this.H,this.v),this.D=Date.now())}; function Wa(a){a.j=!1;a.h&amp;&amp;(a.m.clearTimeout(a.h),a.h=null)}V.prototype.i=function(){V.A.i.call(this);Wa(this);delete this.m};function Xa(){if(window.googleJsEnvironment&amp;&amp;("rhino"==window.googleJsEnvironment.environment||"jscore"==window.googleJsEnvironment.environment))return new W;if(za&amp;&amp;window.googleAdsJsInterface&amp;&amp;"notify"in window.googleAdsJsInterface)try{return window.googleAdsJsInterface.notify("gmsg://mobileads.google.com/noop"),new W}catch(a){}else if(window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler)return new Ya;return new Za}function $a(){ab||(ab=Xa());return ab} var ab=null;function X(){H.call(this)}u(X,H);function bb(a){var b=qa(a.parameters);b["google.afma.Notify_dt"]=(new Date).getTime();return Ba(new J(a.messageName,b)).toString()}function Y(a,b){H.call(this);this.v=a;this.C=b||1;this.m=[];this.j=new V(this.C);a=this.H=new S(this);b=this.j;var c=this.D,d="tick";Array.isArray(d)||(d&amp;&amp;(Ta[0]=d.toString()),d=Ta);for(var e=0;e&lt;d.length;e++){var f=Ja(b,d[e],c||a.handleEvent,!1,a.h||a);if(!f)break;a.g[f.key]=f}}u(Y,X); Y.prototype.sendMessage=function(a){this.m.push(a);this.j.j||(a=this.m.shift(),this.v(a),this.j.start())};Y.prototype.D=function(){var a=this.m.shift();a?this.v(a):Wa(this.j)}; function Za(){Y.call(this,function(b){var c=a.g[a.h];if(!c){var d=document;c="IFRAME";"application/xhtml+xml"===d.contentType&amp;&amp;(c=c.toLowerCase());c=d.createElement(c);c.id="afma-notify-"+(new Date).getTime();c.style.display="none";a.g[a.h]=c}a.h=(a.h+1)%25;d=qa(b.parameters);d["google.afma.Notify_dt"]=(new Date).getTime();b=Ba(new J(b.messageName,d));c.src=ua(b).toString();c.parentNode||document.body.appendChild(c)});var a=this;this.g=[];this.h=0}u(Za,Y); Za.prototype.i=function(){this.g.forEach(wa);this.g=[];Y.prototype.i.call(this)};function W(){H.call(this)}u(W,X);W.prototype.sendMessage=function(a){a=bb(a);window.googleAdsJsInterface&amp;&amp;window.googleAdsJsInterface.notify&amp;&amp;(window.googleAdsJsInterface.notify(a),window.googleAdsJsInterface.DEBUG&amp;&amp;console.log(a))};function Ya(){H.call(this)}u(Ya,X);Ya.prototype.sendMessage=function(a){a=bb(a);window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler.postMessage(a)};/*  Math.uuid.js (v1.4) http://www.broofa.com mailto:robert@broofa.com Copyright (c) 2010 Robert Kieffer Dual licensed under the MIT and GPL licenses. */ var cb="0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz".split("");function db(a){for(var b=Array(36),c=0,d,e=0;36&gt;e;e++)8==e||13==e||18==e||23==e?b[e]="-":14==e?b[e]="4":(2&gt;=c&amp;&amp;(c=33554432+16777216*Math.random()|0),d=c&amp;15,c&gt;&gt;=4,b[e]=cb[19==e?d&amp;3|8:d]);this.uuid=b.join("");this.callback=a} function eb(a){var b=w.imalib_globalCallbacks||new Map,c=b.get("AFMA_updateActiveView")||[];if(0===c.length&amp;&amp;w.AFMA_updateActiveView){var d=new db(w.AFMA_updateActiveView);c.push(d);w.AFMA_updateActiveView=void 0}w.AFMA_updateActiveView||(w.AFMA_updateActiveView=function(){var e=b.get("AFMA_updateActiveView");e=q(e);for(var f=e.next();!f.done;f=e.next())f.value.callback.apply(null,arguments)});a=new db(a);c.push(a);b.set("AFMA_updateActiveView",c);w.imalib_globalCallbacks=b;return a.uuid} function fb(a){if(w.AFMA_updateActiveView){var b=w.imalib_globalCallbacks;if(b){var c=b.get("AFMA_updateActiveView");if(c){var d=c.findIndex(function(e){return e.uuid===a});-1!==d&amp;&amp;(c.splice(d,1),0===c.length&amp;&amp;(w.AFMA_updateActiveView=void 0),b.set("AFMA_updateActiveView",c),w.imalib_globalCallbacks=b)}}}};function gb(){var a=this;this.o=[];this.h=window===window.top;this.j=!1;this.g=0;this.i=null;"undefined"!==typeof window.addEventListener&amp;&amp;window.addEventListener("message",function(b){return hb(a,b)})} function hb(a,b){var c=b.data;if((b=b.source)&amp;&amp;c){var d=a.o;if("arwebview_iframe_loaded"===c&amp;&amp;a.h)x("JavascriptWebViewBridge.incoming.postMessage",a.u.bind(a),w),-1===d.indexOf(b)&amp;&amp;d.push(b);else{var e=c.messageName;c=c.parameters;if(a.h)switch(e){case "mraid_loaded":!1===c.is_top_win&amp;&amp;(a.j=!0,a.i=eb(function(f){a.h&amp;&amp;ib(a,new J("update_activeview_action",f))}),-1===d.indexOf(b)&amp;&amp;(d.push(b),"undefined"!==typeof b.postMessage&amp;&amp;b.postMessage(new J("mraid_env_obj",window.MRAID_ENV),"*")));break;case "start_tracking_action":0== a.g&amp;&amp;window.AFMA_SendMessage("trackActiveViewUnit");a.g+=1;break;case "stop_tracking_action":--a.g,0==a.g&amp;&amp;(window.AFMA_SendMessage("untrackActiveViewUnit",{hashCode:c.hashCode}),a.i&amp;&amp;(fb(a.i),a.i=null))}else switch(e){case "mraid_env_obj":window.MRAID_ENV=c;break;case "update_activeview_action":window.AFMA_updateActiveView&amp;&amp;window.AFMA_updateActiveView(c);break;case "receive_message_action":window.AFMA_ReceiveMessage(c.messageName,c.parameters)}}}} gb.prototype.u=function(a){this.h&amp;&amp;ib(this,{name:"arwebview_message_forwarded",message:a})};function ib(a,b){a.o.forEach(function(c){return c.postMessage(b,"*")})};function Z(){T.call(this);this.j=$a();this.j=$a();var a=ma(xa,this.j);this.u?a():(this.o||(this.o=[]),this.o.push(a));this.h={};this.m=new gb}u(Z,T);Z.prototype.sendMessage=function(a,b){var c=this,d;"string"===typeof a?d=new J(a,b):a instanceof J&amp;&amp;(d=a);"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return c.j.sendMessage(d)},!1,this):this.j.sendMessage(d)}; Z.prototype.receiveMessage=function(a,b){if(this.shouldForwardMessageToIframe())this.forwardMessage(new J("receive_message_action",new J(a,b)));else{var c=document.getElementById("ad_iframe");void 0!=c&amp;&amp;void 0!=c.contentWindow&amp;&amp;void 0!=c.contentWindow.AFMA_ReceiveMessage&amp;&amp;c.contentWindow.AFMA_ReceiveMessage(a,b)}"onshow"==a&amp;&amp;"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return jb(a,null!=b?b:void 0)}):Va(this,new ya(new J(a,b),this))}; Z.prototype.addObserver=function(a,b,c){function d(e){return void c.call(b,e.type,e.params)}this.g.add(String(a),d,!1,void 0,void 0);this.h[a]||(this.h[a]={});this.h[a][b]=d};Z.prototype.removeObserver=function(a,b){this.h[a]&amp;&amp;this.h[a][b]&amp;&amp;(Ga(this.g,String(a),this.h[a][b]),delete this.h[a][b])};Z.prototype.shouldForwardMessageToIframe=function(){return this.m.j};Z.prototype.forwardMessage=function(a){ib(this.m,a)}; function kb(a,b){w.AFMA_Communicator?w.AFMA_Communicator.sendMessage(a,b):lb(a,b)}function lb(a,b){"loading"==document.readyState?(a=z(lb,null,a,b),R(w,"DOMContentLoaded",a,!1)):(a=new J(a,b),$a().sendMessage(a))}function jb(a,b){w.AFMA_Communicator.receiveMessage(a,b)}function mb(a,b,c,d){w.AFMA_Communicator.removeEventListener(a,b,c,d)}function nb(a,b,c,d){w.AFMA_Communicator.addEventListener(a,b,c,d)}function ob(a,b,c){w.AFMA_Communicator.addObserver(a,b,c)} function pb(a,b){w.AFMA_Communicator.removeObserver(a,b)}w.AFMA_Communicator||(x("AFMA_AddEventListener",nb,w),x("AFMA_RemoveEventListener",mb,w),x("AFMA_AddObserver",ob,w),x("AFMA_RemoveObserver",pb,w),x("AFMA_ReceiveMessage",jb,w),x("AFMA_SendMessage",kb,w),w.AFMA_Communicator=new Z);nb("onSdkImpression",function(){x("Goog_Omid_SdkImpressionReceived",!0)});nb("onSdkLoaded",function(){x("Goog_Omid_SdkLoadedReceived",!0)});}).call(this);&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omsdk-v1.js"&gt;&lt;/script&gt;&lt;/head&gt;&lt;body leftMargin="0" topMargin="0" marginwidth="0" marginheight="0"&gt;&lt;div class="GoogleActiveViewInnerContainer"style="left:0px;top:0px;width:100%;height:100%;position:fixed;pointer-events:none;z-index:-9999;"&gt;&lt;/div&gt;&lt;div style="display:inline"class="GoogleActiveViewElement"data-google-av-cxn="https://pagead2.googlesyndication.com/pcs/activeview?xai=AKAOjsvX-79dzj4pM7v9u4de3CR8cWqieW08RvkYNaZtlQm1LDUGKl1vqq5OC33-mAZ3L6Rg1kgh3XekcMwuKqVlGoARS0el&amp;amp;sig=Cg0ArKJSzEss4gzi2ZT4EAE"data-google-av-adk="1334126877"data-google-av-metadata="la=0&amp;amp;omid=1&amp;amp;sloi=1&amp;amp;"data-google-av-ufs-integrator-metadata=""data-google-av-override="-1"data-google-av-dm="2"data-google-av-aid="0"data-google-av-naid="1"data-google-av-inapp data-google-av-slift=""data-google-av-cpmav=""data-google-av-btr=""data-google-av-itpl="20"data-google-av-rs="9"data-google-av-flags="[&amp;quot;x%278440&amp;#39;9efotm(&amp;amp;753374%2bejvf/%27844&amp;gt;&amp;#39;9wuvb$&amp;amp;56533&amp;gt;!=|vqc)!273794&amp;amp;&amp;lt;qqvb/%&amp;lt;1735020!=nehu`/!364=5051!9abk{a($160210:3&amp;amp;&amp;lt;cbotf+*0150034:%2bejvf/%72;17613!=efdwa*&amp;#39;76463;21$?ebkpb$&amp;amp;0366717&amp;gt;*&amp;gt;bgipf+!3=712363%9aihwc)!7202&amp;lt;217&amp;#39;9efotm(&amp;amp;20061;48&amp;amp;&amp;gt;`dopb/%&amp;lt;1707200!=8(&amp;amp;2005575?&amp;amp;&amp;gt;`dopb/%&amp;lt;170642?!=|vqc)!7201;=50&amp;#39;9wuvb$&amp;amp;03641654*&amp;gt;bgipf+!3=731103%9aihwc)!7200?073&amp;#39;9efotm(&amp;amp;2004?51;&amp;amp;&amp;gt;`dopb/%&amp;lt;17&amp;gt;474&amp;gt;!=nehu`/!36406412!9abk{a($160&amp;gt;358&amp;lt;&amp;amp;&amp;lt;cbotfz&amp;quot;]"&gt;    &lt;script type="text/javascript"&gt;\n      rubicon_cb = Math.random(); rubicon_rurl = document.referrer; if(top.location==document.location){rubicon_rurl = document.location;} rubicon_rurl = escape(rubicon_rurl);\n      window.rubicon_ad = "4357852" + "." + "js";\n      window.rubicon_creative = "4957212" + "." + "js";\n    &lt;/script&gt;\n&lt;div data-rp-type="trp-display-creative" data-rp-impression-id="71f1e0c1-9371-4b11-a199-89d4490190e6" data-rp-aqid="2132:30069426" data-rp-acct-id="17752"&gt;\n\n\n&lt;script src="mraid.js"&gt;&lt;/script&gt;&lt;iframe src="https://westads.simpli.fi/ads/3341154/30069426/_p.html?sifi=8475,3341154,30069426,0,28,0,0,0,0,389,6,v,26.95680,1BACC8E50A22C964,0,0,0,23,5AF99DBF55B9840BA87AA4044345318A,0,1,0,1210,400,1,0,0,607,0,702,bidder-base-prd-us-west1-b-5c29d211:9020-1679028423003-63740779,1,0,395291,2,0,28,12,47404,0,0.00,1,220412618550898,0,0,3,137847689,1,-4,0,97,,5,355726,0,0,2,3,17752,8,277,4254679&amp;hash_rid=C5773E117CB367AD785907CA8AAB5264&amp;sifi_exchange_uid=973d876f0da652cb5d27495da456620f47626fa3&amp;request_id=7cabd49066580813be1c252c19f0fb943d7fbaea" width="320" height="50" frameborder="0" marginwidth="0" marginheight="0" scrolling="no"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n&lt;/div&gt;&lt;script data-jc="22" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/window_focus.js" async data-jc-version="r20230315" data-jcp-url="https://googleads.g.doubleclick.net/pagead/interaction/?ai=Cn1KVxvATZIWPMef8BO_jrbgO_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0FOH2VxAS5iG1qIIUDzytB9GMFTJLXcGAzFMboVhSUUuW3KIosMmZRaTCyCT9qrwo1axur2-0hlRvPH_NrC2xe23rU-qzcpqJFucIPjvWUXQNeqAYoKhFMTXdj-DjyE5IB-3mMQ3z_CdTRa9CpkCvZYAle2kLVsMVuauUfyW_rUhrOpWvIPd5B4yFwMMrAFYbu5hBxVCgWjLPHFNetnofEmkpbfAZwkvaBf4MMA_kLEMso18o3OizDrRiZ-L91IiSJwZCyCVk8rJIftt1r9fbBg8tZllqxjdWzQVhHTxWbFbuIBW7ZprVKQn7A0XsbRoXC3GmsbaA8IpHqn8V51uh9hyJHGQ8qNJY0MH9lgq4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB&amp;amp;sigh=kZiEdUEhTDc&amp;amp;cid=CAQShgEA1BOcpv2t_60dXKP09V-BmdEHjtAnDN99zzPYbAzqt6OU_MgaYO6wGjE75QYgeCq5aBQ6TFMB1S5k4ABmtOc083wQXklh7nnrggH-3xHeE2045k_78KdF5UTyKtRiLZjki_35fCGdi5r7dQi4PJnfe6Y4GsgPv3Cur0FTvebOJiFlIe8iGw" data-jcp-gws-id="xvATZNCOLpS7BM2cnrgJ" data-jcp-qem-id="CIWK1qWU4v0CFWc-AQod73EL5w"&gt;&lt;/script&gt;&lt;script data-jc="23" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/qs_click_protection.js" data-jc-version="r20230315"&gt;&lt;/script&gt;&lt;script&gt;googqscp.init([[[[null,1500,99,2,4,null,null,null,1],[null,500,99,2,9,null,null,null,1]]]]);&lt;/script&gt;&lt;div style="bottom:0;right:0;width:320px;height:50px;background:initial !important;position:absolute !important;max-width:100% !important;max-height:100% !important;pointer-events:none !important;image-rendering:pixelated !important;background-repeat:no-repeat !important;z-index:2147483647;background-image:url(\'data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAQ4AAAAyBAMAAABfUCj0AAAABlBMVEUAAAD+AciWmZzWAAAAAnRSTlMAApidrBQAAAE8SURBVFjD7ZZbCoUwDEQnO8j+V3sxr6baTwfkkiIW9VhCO9MO8JEm3iCwK57UGxR2eWOi9gb5vp7Ea7QhrLcnJirIur33uyLr9t7uTBTrIxTPcSA4jENA+zcch8FpmLfRpo+ofV/JqP226AR0KTtm6qbsmNTdBO+jy8BGnFz99DoDvYoOZbc5u4oOZa/pZaIpGb/KTvG3LI3ZvDLRfJfLGPXH77mMzvLQ5iE0iZfd0CTORLHKRvd8lY3meSLalZ2lNYUvmQkZTW+H0WN/SaeH0X0rYqJ9Pw1Ct50vBpN9k3wfLQcdjyk9HVMMdPO3IkXe/C0okTPRlhSSkC0p5GCqTLSdiVobrtZKutYk7M1E62SU7vU6GbV5nYli8vrk9cnrk9cnr09en7w+eX3y+uT1yeuT1yevT17/g7z+A7dKaKUE4PCtAAAAAElFTkSuQmCC\') !important;"&gt;&lt;/div&gt;&lt;script id="googleOmidDisplayScript" src="https://www.googletagservices.com/activeview/js/current/lidar.js?cache=r20110914"&gt;&lt;/script&gt;&lt;script data-jc="28" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ var e=this||self;function f(b,a,c){return b.call.apply(b.bind,arguments)}function g(b,a,c){if(!b)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var k=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(k,d);return b.apply(a,k)}}return function(){return b.apply(a,arguments)}}function h(b,a,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?h=f:h=g;return h.apply(null,arguments)};var l,m;a:{for(var n=["CLOSURE_FLAGS"],p=e,q=0;q&lt;n.length;q++)if(p=p[n[q]],null==p){m=null;break a}m=p}var r=m&amp;&amp;m[610401301];l=null!=r?r:!1;var t,u=e.navigator;t=u?u.userAgentData||null:null;function v(b){return l?t?t.brands.some(function(a){return(a=a.brand)&amp;&amp;-1!=a.indexOf(b)}):!1:!1}function w(b){var a;a:{if(a=e.navigator)if(a=a.userAgent)break a;a=""}return-1!=a.indexOf(b)};function x(){return l?!!t&amp;&amp;0&lt;t.brands.length:!1}function y(){return x()?v("Chromium"):(w("Chrome")||w("CriOS"))&amp;&amp;!(x()?0:w("Edge"))||w("Silk")};!w("Android")||y();y();w("Safari")&amp;&amp;(y()||(x()?0:w("Coast"))||(x()?0:w("Opera"))||(x()?0:w("Edge"))||(x()?v("Microsoft Edge"):w("Edg/"))||x()&amp;&amp;v("Opera"));function z(b){this.h=null;var a={top:10,right:10,bottom:10,left:10};b&amp;&amp;(b=b.split(","),4!=b.length||isNaN(b[0])||isNaN(b[1])||isNaN(b[2])||isNaN(b[3])||(a.top=+b[0],a.right=+b[1],a.bottom=+b[2],a.left=+b[3]));this.g=a} z.prototype.i=function(b){for(var a=!1,c=b.target;c;c=c.parentNode)if("abgc"==c.id){a=!0;break}if(!a){var d=this.h.getBoundingClientRect();a=d.width;c=d.height;var k=b.clientX-d.left;d=b.clientY-d.top;a="number"!==typeof a||"number"!==typeof c||"number"!==typeof b.clientX||"number"!==typeof b.clientY||0&gt;=a||0&gt;=c||0&gt;k||0&gt;d?!0:k&gt;=this.g.left&amp;&amp;a-k&gt;=this.g.right&amp;&amp;d&gt;=this.g.top&amp;&amp;c-d&gt;=this.g.bottom}a||(b.preventDefault?b.preventDefault():b.returnValue=!1)};function A(b,a){a||(a="");a=new z(a);a.h=b;b=a.h;var c=h(a.i,a);b.addEventListener&amp;&amp;b.addEventListener("click",c,!1);return a}var B=["googleInitIc"],C=e;B[0]in C||"undefined"==typeof C.execScript||C.execScript("var "+B[0]);for(var D;B.length&amp;&amp;(D=B.shift());)B.length||void 0===A?C[D]&amp;&amp;C[D]!==Object.prototype[D]?C=C[D]:C=C[D]={}:C[D]=A;}).call(this);&lt;/script&gt;&lt;script&gt;googleInitIc(document.body,\'10,10,10,10\');&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omid_session_bin.js"&gt;&lt;/script&gt;&lt;script type="text/javascript"&gt;(function() {var omidSession = new OmidCreativeSession([]);})();&lt;/script&gt;&lt;/body&gt;&lt;/html&gt;', 'size': 31666, 'mimeType': 'text/html; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '{"ads":{"m300x250p120":{"b":"JK5QIGtU9pUwj0706q77EPwAAAGG7eSNRgEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAoa0HU","crid":"4945_84215_525451_ssl","kvp":{"amznrdr":["default"],"amznp":["16nylfk"],"dc":["iad"]},"sz":"300x250","i":"https://aax-us-east.amazon-adsystem.com/e/msdk/imp?b=JK5QIGtU9pUwj0706q77EPwAAAGG7eSNRgEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAoa0HU&amp;ps=m300x250p120"}},"instrPixelURL":"https://aax-us-east.amazon-adsystem.com/x/px/RK5QIGtU9pUwj0706q77EPwAAAGG7eSMEgEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAoa0HU/","errorCode":"200","request_id":"rlAga1T2lTCPTvTqrvsQ.A","status":"ok"}\n', 'size': 618, 'mimeType': 'text/javascript;charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '&lt;!doctype html&gt;&lt;html&gt;&lt;head&gt;&lt;meta charset="UTF-8"&gt;&lt;meta name="viewport" content="width=300, initial-scale=1.0, minimum-scale=1.0, maximum-scale=1.0, user-scalable=no"&gt;&lt;script&gt;var jscVersion = \'r20230315\';&lt;/script&gt;&lt;script&gt;var google_casm=["afma-sdk-i-v8.11.0"];&lt;/script&gt;&lt;script data-jc="84" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ function aa(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}}var m="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a}; function ba(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("Cannot find global object");}var ca=ba(this);function p(a,b){if(b)a:{var c=ca;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;m(c,a,{configurable:!0,writable:!0,value:b})}} p("Symbol",function(a){function b(f){if(this instanceof b)throw new TypeError("Symbol is not a constructor");return new c(d+(f||"")+"_"+e++,f)}function c(f,l){this.g=f;m(this,"description",{configurable:!0,writable:!0,value:l})}if(a)return a;c.prototype.toString=function(){return this.g};var d="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",e=0;return b}); p("Symbol.iterator",function(a){if(a)return a;a=Symbol("Symbol.iterator");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=ca[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;m(d.prototype,a,{configurable:!0,writable:!0,value:function(){return da(aa(this))}})}return a});function da(a){a={next:a};a[Symbol.iterator]=function(){return this};return a} function q(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];if(b)return b.call(a);if("number"==typeof a.length)return{next:aa(a)};throw Error(String(a)+" is not an iterable or ArrayLike");}var ea="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},r; if("function"==typeof Object.setPrototypeOf)r=Object.setPrototypeOf;else{var t;a:{var fa={a:!0},ha={};try{ha.__proto__=fa;t=ha.a;break a}catch(a){}t=!1}r=t?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ia=r; function u(a,b){a.prototype=ea(b.prototype);a.prototype.constructor=a;if(ia)ia(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.A=b.prototype}function v(a,b){return Object.prototype.hasOwnProperty.call(a,b)} p("WeakMap",function(a){function b(h){this.g=(g+=Math.random()+1).toString();if(h){h=q(h);for(var k;!(k=h.next()).done;)k=k.value,this.set(k[0],k[1])}}function c(){}function d(h){var k=typeof h;return"object"===k&amp;&amp;null!==h||"function"===k}function e(h){if(!v(h,l)){var k=new c;m(h,l,{value:k})}}function f(h){var k=Object[h];k&amp;&amp;(Object[h]=function(n){if(n instanceof c)return n;Object.isExtensible(n)&amp;&amp;e(n);return k(n)})}if(function(){if(!a||!Object.seal)return!1;try{var h=Object.seal({}),k=Object.seal({}), n=new a([[h,2],[k,3]]);if(2!=n.get(h)||3!=n.get(k))return!1;n.delete(h);n.set(k,4);return!n.has(h)&amp;&amp;4==n.get(k)}catch(A){return!1}}())return a;var l="$jscomp_hidden_"+Math.random();f("freeze");f("preventExtensions");f("seal");var g=0;b.prototype.set=function(h,k){if(!d(h))throw Error("Invalid WeakMap key");e(h);if(!v(h,l))throw Error("WeakMap key fail: "+h);h[l][this.g]=k;return this};b.prototype.get=function(h){return d(h)&amp;&amp;v(h,l)?h[l][this.g]:void 0};b.prototype.has=function(h){return d(h)&amp;&amp;v(h, l)&amp;&amp;v(h[l],this.g)};b.prototype.delete=function(h){return d(h)&amp;&amp;v(h,l)&amp;&amp;v(h[l],this.g)?delete h[l][this.g]:!1};return b}); p("Map",function(a){function b(){var g={};return g.s=g.next=g.head=g}function c(g,h){var k=g.g;return da(function(){if(k){for(;k.head!=g.g;)k=k.s;for(;k.next!=k.head;)return k=k.next,{done:!1,value:h(k)};k=null}return{done:!0,value:void 0}})}function d(g,h){var k=h&amp;&amp;typeof h;"object"==k||"function"==k?f.has(h)?k=f.get(h):(k=""+ ++l,f.set(h,k)):k="p_"+h;var n=g.i[k];if(n&amp;&amp;v(g.i,k))for(g=0;g&lt;n.length;g++){var A=n[g];if(h!==h&amp;&amp;A.key!==A.key||h===A.key)return{id:k,list:n,index:g,l:A}}return{id:k,list:n, index:-1,l:void 0}}function e(g){this.i={};this.g=b();this.size=0;if(g){g=q(g);for(var h;!(h=g.next()).done;)h=h.value,this.set(h[0],h[1])}}if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var g=Object.seal({x:4}),h=new a(q([[g,"s"]]));if("s"!=h.get(g)||1!=h.size||h.get({x:4})||h.set({x:4},"t")!=h||2!=h.size)return!1;var k=h.entries(),n=k.next();if(n.done||n.value[0]!=g||"s"!=n.value[1])return!1;n=k.next();return n.done||4!=n.value[0].x|| "t"!=n.value[1]||!k.next().done?!1:!0}catch(A){return!1}}())return a;var f=new WeakMap;e.prototype.set=function(g,h){g=0===g?0:g;var k=d(this,g);k.list||(k.list=this.i[k.id]=[]);k.l?k.l.value=h:(k.l={next:this.g,s:this.g.s,head:this.g,key:g,value:h},k.list.push(k.l),this.g.s.next=k.l,this.g.s=k.l,this.size++);return this};e.prototype.delete=function(g){g=d(this,g);return g.l&amp;&amp;g.list?(g.list.splice(g.index,1),g.list.length||delete this.i[g.id],g.l.s.next=g.l.next,g.l.next.s=g.l.s,g.l.head=null,this.size--, !0):!1};e.prototype.clear=function(){this.i={};this.g=this.g.s=b();this.size=0};e.prototype.has=function(g){return!!d(this,g).l};e.prototype.get=function(g){return(g=d(this,g).l)&amp;&amp;g.value};e.prototype.entries=function(){return c(this,function(g){return[g.key,g.value]})};e.prototype.keys=function(){return c(this,function(g){return g.key})};e.prototype.values=function(){return c(this,function(g){return g.value})};e.prototype.forEach=function(g,h){for(var k=this.entries(),n;!(n=k.next()).done;)n=n.value, g.call(h,n[1],n[0],this)};e.prototype[Symbol.iterator]=e.prototype.entries;var l=0;return e});function ja(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e}p("Array.prototype.entries",function(a){return a?a:function(){return ja(this,function(b,c){return[b,c]})}}); p("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)v(b,d)&amp;&amp;c.push([d,b[d]]);return c}});p("Array.prototype.findIndex",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++)if(b.call(c,d[f],f,d)){b=f;break a}b=-1}return b}});var w=this||self; function x(a,b,c){a=a.split(".");c=c||w;a[0]in c||"undefined"==typeof c.execScript||c.execScript("var "+a[0]);for(var d;a.length&amp;&amp;(d=a.shift());)a.length||void 0===b?c[d]&amp;&amp;c[d]!==Object.prototype[d]?c=c[d]:c=c[d]={}:c[d]=b}function y(a){var b=typeof a;return"object"==b&amp;&amp;null!=a||"function"==b}function ka(a,b,c){return a.call.apply(a.bind,arguments)} function la(a,b,c){if(!a)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var e=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(e,d);return a.apply(b,e)}}return function(){return a.apply(b,arguments)}}function z(a,b,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?z=ka:z=la;return z.apply(null,arguments)} function ma(a,b){var c=Array.prototype.slice.call(arguments,1);return function(){var d=c.slice();d.push.apply(d,arguments);return a.apply(this,d)}}function B(a,b){function c(){}c.prototype=b.prototype;a.A=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.L=function(d,e,f){for(var l=Array(arguments.length-2),g=2;g&lt;arguments.length;g++)l[g-2]=arguments[g];return b.prototype[e].apply(d,l)}}function C(a){return a};var na=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1};function D(){var a=w.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};function E(a){E[" "](a);return a}E[" "]=function(){};var oa=-1!=D().indexOf("Gecko")&amp;&amp;!(-1!=D().toLowerCase().indexOf("webkit")&amp;&amp;-1==D().indexOf("Edge"))&amp;&amp;!(-1!=D().indexOf("Trident")||-1!=D().indexOf("MSIE"))&amp;&amp;-1==D().indexOf("Edge");function pa(a,b,c){for(var d in a)b.call(c,a[d],d,a)}function qa(a){var b={},c;for(c in a)b[c]=a[c];return b}var ra="constructor hasOwnProperty isPrototypeOf propertyIsEnumerable toLocaleString toString valueOf".split(" ");function sa(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;ra.length;f++)c=ra[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};var F;function G(a,b){this.g=b===ta?a:""}G.prototype.toString=function(){return this.g+""};function ua(a){return a instanceof G&amp;&amp;a.constructor===G?a.g:"type_error:TrustedResourceUrl"}var ta={};function va(a){if(void 0===F){var b=null;var c=w.trustedTypes;if(c&amp;&amp;c.createPolicy){try{b=c.createPolicy("goog#html",{createHTML:C,createScript:C,createScriptURL:C})}catch(d){w.console&amp;&amp;w.console.error(d.message)}F=b}else F=b}a=(b=F)?b.createScriptURL(a):a;return new G(a,ta)};function wa(a){return a&amp;&amp;a.parentNode?a.parentNode.removeChild(a):null};function xa(a){a&amp;&amp;"function"==typeof a.I&amp;&amp;a.I()};function H(){this.u=this.u;this.o=this.o}H.prototype.u=!1;H.prototype.I=function(){this.u||(this.u=!0,this.i())};H.prototype.i=function(){if(this.o)for(;this.o.length;)this.o.shift()()};function I(a,b){this.type=a;this.g=this.target=b;this.defaultPrevented=!1}I.prototype.i=function(){this.defaultPrevented=!0};function J(a,b){this.messageName=a;this.parameters=b||{}}function ya(a,b){I.call(this,a.messageName,b);this.params=a.parameters||{}}u(ya,I);var za=-1!=(w.navigator?w.navigator.userAgent:"").indexOf("Android");/*  SPDX-License-Identifier: Apache-2.0 */ function Aa(a,b){var c=ua(a).toString();if(/#/.test(c))throw Error("");var d=/\\?/.test(c)?"&amp;":"?";b.forEach(function(e,f){e=e instanceof Array?e:[e];for(var l=0;l&lt;e.length;l++){var g=e[l];null!==g&amp;&amp;void 0!==g&amp;&amp;(c+=d+encodeURIComponent(f)+"="+encodeURIComponent(String(g)),d="&amp;")}});return va(c)};function Ba(a){var b=va("gmsg://mobileads.google.com/"+a.messageName);return Aa(b,new Map(Object.entries(a.parameters)))};var Ca=function(){if(!w.addEventListener||!Object.defineProperty)return!1;var a=!1,b=Object.defineProperty({},"passive",{get:function(){a=!0}});try{w.addEventListener("test",function(){},b),w.removeEventListener("test",function(){},b)}catch(c){}return a}();function K(a,b){I.call(this,a?a.type:"");this.relatedTarget=this.g=this.target=null;this.button=this.screenY=this.screenX=this.clientY=this.clientX=0;this.key="";this.metaKey=this.shiftKey=this.altKey=this.ctrlKey=!1;this.state=null;this.pointerId=0;this.pointerType="";this.h=null;if(a){var c=this.type=a.type,d=a.changedTouches&amp;&amp;a.changedTouches.length?a.changedTouches[0]:null;this.target=a.target||a.srcElement;this.g=b;if(b=a.relatedTarget){if(oa){a:{try{E(b.nodeName);var e=!0;break a}catch(f){}e= !1}e||(b=null)}}else"mouseover"==c?b=a.fromElement:"mouseout"==c&amp;&amp;(b=a.toElement);this.relatedTarget=b;d?(this.clientX=void 0!==d.clientX?d.clientX:d.pageX,this.clientY=void 0!==d.clientY?d.clientY:d.pageY,this.screenX=d.screenX||0,this.screenY=d.screenY||0):(this.clientX=void 0!==a.clientX?a.clientX:a.pageX,this.clientY=void 0!==a.clientY?a.clientY:a.pageY,this.screenX=a.screenX||0,this.screenY=a.screenY||0);this.button=a.button;this.key=a.key||"";this.ctrlKey=a.ctrlKey;this.altKey=a.altKey;this.shiftKey= a.shiftKey;this.metaKey=a.metaKey;this.pointerId=a.pointerId||0;this.pointerType="string"===typeof a.pointerType?a.pointerType:Da[a.pointerType]||"";this.state=a.state;this.h=a;a.defaultPrevented&amp;&amp;K.A.i.call(this)}}B(K,I);var Da={2:"touch",3:"pen",4:"mouse"};K.prototype.i=function(){K.A.i.call(this);var a=this.h;a.preventDefault?a.preventDefault():a.returnValue=!1};var L="closure_listenable_"+(1E6*Math.random()|0);var Ea=0;function Fa(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.G=e;this.key=++Ea;this.B=this.F=!1}function M(a){a.B=!0;a.listener=null;a.proxy=null;a.src=null;a.G=null};function N(a){this.src=a;this.g={};this.i=0}N.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.i++);var l=O(a,b,d,e);-1&lt;l?(b=a[l],c||(b.F=!1)):(b=new Fa(b,this.src,f,!!d,e),b.F=c,a.push(b));return b};function Ga(a,b,c,d,e){b=b.toString();if(b in a.g){var f=a.g[b];c=O(f,c,d,e);-1&lt;c&amp;&amp;(M(f[c]),Array.prototype.splice.call(f,c,1),0==f.length&amp;&amp;(delete a.g[b],a.i--))}} function P(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=na(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(M(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.i--))}}function O(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.B&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.G==d)return e}return-1};var Q="closure_lm_"+(1E6*Math.random()|0),Ha={},Ia=0;function Ja(a,b,c,d,e){if(d&amp;&amp;d.once)return R(a,b,c,d,e);if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)Ja(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!1,y(d)?!!d.capture:!!d,e):La(a,b,c,!1,d,e)} function La(a,b,c,d,e,f){if(!b)throw Error("Invalid event type");var l=y(e)?!!e.capture:!!e,g=Ma(a);g||(a[Q]=g=new N(a));c=g.add(b,c,d,l,f);if(c.proxy)return c;d=Na();c.proxy=d;d.src=a;d.listener=c;if(a.addEventListener)Ca||(e=l),void 0===e&amp;&amp;(e=!1),a.addEventListener(b.toString(),d,e);else if(a.attachEvent)a.attachEvent(Oa(b.toString()),d);else if(a.addListener&amp;&amp;a.removeListener)a.addListener(d);else throw Error("addEventListener and attachEvent are unavailable.");Ia++;return c} function Na(){function a(c){return b.call(a.src,a.listener,c)}var b=Pa;return a}function R(a,b,c,d,e){if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)R(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!0,y(d)?!!d.capture:!!d,e):La(a,b,c,!0,d,e)} function Qa(a,b,c,d,e){if(Array.isArray(b))for(var f=0;f&lt;b.length;f++)Qa(a,b[f],c,d,e);else(d=y(d)?!!d.capture:!!d,c=Ka(c),a&amp;&amp;a[L])?Ga(a.g,String(b),c,d,e):a&amp;&amp;(a=Ma(a))&amp;&amp;(b=a.g[b.toString()],a=-1,b&amp;&amp;(a=O(b,c,d,e)),(c=-1&lt;a?b[a]:null)&amp;&amp;Ra(c))} function Ra(a){if("number"!==typeof a&amp;&amp;a&amp;&amp;!a.B){var b=a.src;if(b&amp;&amp;b[L])P(b.g,a);else{var c=a.type,d=a.proxy;b.removeEventListener?b.removeEventListener(c,d,a.capture):b.detachEvent?b.detachEvent(Oa(c),d):b.addListener&amp;&amp;b.removeListener&amp;&amp;b.removeListener(d);Ia--;(c=Ma(b))?(P(c,a),0==c.i&amp;&amp;(c.src=null,b[Q]=null)):M(a)}}}function Oa(a){return a in Ha?Ha[a]:Ha[a]="on"+a}function Pa(a,b){if(a.B)a=!0;else{b=new K(b,this);var c=a.listener,d=a.G||a.src;a.F&amp;&amp;Ra(a);a=c.call(d,b)}return a} function Ma(a){a=a[Q];return a instanceof N?a:null}var Sa="__closure_events_fn_"+(1E9*Math.random()&gt;&gt;&gt;0);function Ka(a){if("function"===typeof a)return a;a[Sa]||(a[Sa]=function(b){return a.handleEvent(b)});return a[Sa]};function S(a){H.call(this);this.h=a;this.g={}}B(S,H);var Ta=[];function Ua(a){pa(a.g,function(b,c){this.g.hasOwnProperty(c)&amp;&amp;Ra(b)},a);a.g={}}S.prototype.i=function(){S.A.i.call(this);Ua(this)};S.prototype.handleEvent=function(){throw Error("EventHandler.handleEvent not implemented");};function T(){H.call(this);this.g=new N(this);this.J=this;this.C=null}B(T,H);T.prototype[L]=!0;T.prototype.addEventListener=function(a,b,c,d){Ja(this,a,b,c,d)};T.prototype.removeEventListener=function(a,b,c,d){Qa(this,a,b,c,d)}; function Va(a,b){var c,d=a.C;if(d)for(c=[];d;d=d.C)c.push(d);a=a.J;d=b.type||b;if("string"===typeof b)b=new I(b,a);else if(b instanceof I)b.target=b.target||a;else{var e=b;b=new I(d,a);sa(b,e)}e=!0;if(c)for(var f=c.length-1;0&lt;=f;f--){var l=b.g=c[f];e=U(l,d,!0,b)&amp;&amp;e}l=b.g=a;e=U(l,d,!0,b)&amp;&amp;e;e=U(l,d,!1,b)&amp;&amp;e;if(c)for(f=0;f&lt;c.length;f++)l=b.g=c[f],e=U(l,d,!1,b)&amp;&amp;e} T.prototype.i=function(){T.A.i.call(this);if(this.g){var a=this.g,b=0,c;for(c in a.g){for(var d=a.g[c],e=0;e&lt;d.length;e++)++b,M(d[e]);delete a.g[c];a.i--}}this.C=null};function U(a,b,c,d){b=a.g.g[String(b)];if(!b)return!0;b=b.concat();for(var e=!0,f=0;f&lt;b.length;++f){var l=b[f];if(l&amp;&amp;!l.B&amp;&amp;l.capture==c){var g=l.listener,h=l.G||l.src;l.F&amp;&amp;P(a.g,l);e=!1!==g.call(h,d)&amp;&amp;e}}return e&amp;&amp;!d.defaultPrevented};function V(a,b){T.call(this);this.v=a||1;this.m=b||w;this.H=z(this.K,this);this.D=Date.now()}B(V,T);V.prototype.j=!1;V.prototype.h=null;V.prototype.K=function(){if(this.j){var a=Date.now()-this.D;0&lt;a&amp;&amp;a&lt;.8*this.v?this.h=this.m.setTimeout(this.H,this.v-a):(this.h&amp;&amp;(this.m.clearTimeout(this.h),this.h=null),Va(this,"tick"),this.j&amp;&amp;(Wa(this),this.start()))}};V.prototype.start=function(){this.j=!0;this.h||(this.h=this.m.setTimeout(this.H,this.v),this.D=Date.now())}; function Wa(a){a.j=!1;a.h&amp;&amp;(a.m.clearTimeout(a.h),a.h=null)}V.prototype.i=function(){V.A.i.call(this);Wa(this);delete this.m};function Xa(){if(window.googleJsEnvironment&amp;&amp;("rhino"==window.googleJsEnvironment.environment||"jscore"==window.googleJsEnvironment.environment))return new W;if(za&amp;&amp;window.googleAdsJsInterface&amp;&amp;"notify"in window.googleAdsJsInterface)try{return window.googleAdsJsInterface.notify("gmsg://mobileads.google.com/noop"),new W}catch(a){}else if(window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler)return new Ya;return new Za}function $a(){ab||(ab=Xa());return ab} var ab=null;function X(){H.call(this)}u(X,H);function bb(a){var b=qa(a.parameters);b["google.afma.Notify_dt"]=(new Date).getTime();return Ba(new J(a.messageName,b)).toString()}function Y(a,b){H.call(this);this.v=a;this.C=b||1;this.m=[];this.j=new V(this.C);a=this.H=new S(this);b=this.j;var c=this.D,d="tick";Array.isArray(d)||(d&amp;&amp;(Ta[0]=d.toString()),d=Ta);for(var e=0;e&lt;d.length;e++){var f=Ja(b,d[e],c||a.handleEvent,!1,a.h||a);if(!f)break;a.g[f.key]=f}}u(Y,X); Y.prototype.sendMessage=function(a){this.m.push(a);this.j.j||(a=this.m.shift(),this.v(a),this.j.start())};Y.prototype.D=function(){var a=this.m.shift();a?this.v(a):Wa(this.j)}; function Za(){Y.call(this,function(b){var c=a.g[a.h];if(!c){var d=document;c="IFRAME";"application/xhtml+xml"===d.contentType&amp;&amp;(c=c.toLowerCase());c=d.createElement(c);c.id="afma-notify-"+(new Date).getTime();c.style.display="none";a.g[a.h]=c}a.h=(a.h+1)%25;d=qa(b.parameters);d["google.afma.Notify_dt"]=(new Date).getTime();b=Ba(new J(b.messageName,d));c.src=ua(b).toString();c.parentNode||document.body.appendChild(c)});var a=this;this.g=[];this.h=0}u(Za,Y); Za.prototype.i=function(){this.g.forEach(wa);this.g=[];Y.prototype.i.call(this)};function W(){H.call(this)}u(W,X);W.prototype.sendMessage=function(a){a=bb(a);window.googleAdsJsInterface&amp;&amp;window.googleAdsJsInterface.notify&amp;&amp;(window.googleAdsJsInterface.notify(a),window.googleAdsJsInterface.DEBUG&amp;&amp;console.log(a))};function Ya(){H.call(this)}u(Ya,X);Ya.prototype.sendMessage=function(a){a=bb(a);window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler.postMessage(a)};/*  Math.uuid.js (v1.4) http://www.broofa.com mailto:robert@broofa.com Copyright (c) 2010 Robert Kieffer Dual licensed under the MIT and GPL licenses. */ var cb="0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz".split("");function db(a){for(var b=Array(36),c=0,d,e=0;36&gt;e;e++)8==e||13==e||18==e||23==e?b[e]="-":14==e?b[e]="4":(2&gt;=c&amp;&amp;(c=33554432+16777216*Math.random()|0),d=c&amp;15,c&gt;&gt;=4,b[e]=cb[19==e?d&amp;3|8:d]);this.uuid=b.join("");this.callback=a} function eb(a){var b=w.imalib_globalCallbacks||new Map,c=b.get("AFMA_updateActiveView")||[];if(0===c.length&amp;&amp;w.AFMA_updateActiveView){var d=new db(w.AFMA_updateActiveView);c.push(d);w.AFMA_updateActiveView=void 0}w.AFMA_updateActiveView||(w.AFMA_updateActiveView=function(){var e=b.get("AFMA_updateActiveView");e=q(e);for(var f=e.next();!f.done;f=e.next())f.value.callback.apply(null,arguments)});a=new db(a);c.push(a);b.set("AFMA_updateActiveView",c);w.imalib_globalCallbacks=b;return a.uuid} function fb(a){if(w.AFMA_updateActiveView){var b=w.imalib_globalCallbacks;if(b){var c=b.get("AFMA_updateActiveView");if(c){var d=c.findIndex(function(e){return e.uuid===a});-1!==d&amp;&amp;(c.splice(d,1),0===c.length&amp;&amp;(w.AFMA_updateActiveView=void 0),b.set("AFMA_updateActiveView",c),w.imalib_globalCallbacks=b)}}}};function gb(){var a=this;this.o=[];this.h=window===window.top;this.j=!1;this.g=0;this.i=null;"undefined"!==typeof window.addEventListener&amp;&amp;window.addEventListener("message",function(b){return hb(a,b)})} function hb(a,b){var c=b.data;if((b=b.source)&amp;&amp;c){var d=a.o;if("arwebview_iframe_loaded"===c&amp;&amp;a.h)x("JavascriptWebViewBridge.incoming.postMessage",a.u.bind(a),w),-1===d.indexOf(b)&amp;&amp;d.push(b);else{var e=c.messageName;c=c.parameters;if(a.h)switch(e){case "mraid_loaded":!1===c.is_top_win&amp;&amp;(a.j=!0,a.i=eb(function(f){a.h&amp;&amp;ib(a,new J("update_activeview_action",f))}),-1===d.indexOf(b)&amp;&amp;(d.push(b),"undefined"!==typeof b.postMessage&amp;&amp;b.postMessage(new J("mraid_env_obj",window.MRAID_ENV),"*")));break;case "start_tracking_action":0== a.g&amp;&amp;window.AFMA_SendMessage("trackActiveViewUnit");a.g+=1;break;case "stop_tracking_action":--a.g,0==a.g&amp;&amp;(window.AFMA_SendMessage("untrackActiveViewUnit",{hashCode:c.hashCode}),a.i&amp;&amp;(fb(a.i),a.i=null))}else switch(e){case "mraid_env_obj":window.MRAID_ENV=c;break;case "update_activeview_action":window.AFMA_updateActiveView&amp;&amp;window.AFMA_updateActiveView(c);break;case "receive_message_action":window.AFMA_ReceiveMessage(c.messageName,c.parameters)}}}} gb.prototype.u=function(a){this.h&amp;&amp;ib(this,{name:"arwebview_message_forwarded",message:a})};function ib(a,b){a.o.forEach(function(c){return c.postMessage(b,"*")})};function Z(){T.call(this);this.j=$a();this.j=$a();var a=ma(xa,this.j);this.u?a():(this.o||(this.o=[]),this.o.push(a));this.h={};this.m=new gb}u(Z,T);Z.prototype.sendMessage=function(a,b){var c=this,d;"string"===typeof a?d=new J(a,b):a instanceof J&amp;&amp;(d=a);"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return c.j.sendMessage(d)},!1,this):this.j.sendMessage(d)}; Z.prototype.receiveMessage=function(a,b){if(this.shouldForwardMessageToIframe())this.forwardMessage(new J("receive_message_action",new J(a,b)));else{var c=document.getElementById("ad_iframe");void 0!=c&amp;&amp;void 0!=c.contentWindow&amp;&amp;void 0!=c.contentWindow.AFMA_ReceiveMessage&amp;&amp;c.contentWindow.AFMA_ReceiveMessage(a,b)}"onshow"==a&amp;&amp;"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return jb(a,null!=b?b:void 0)}):Va(this,new ya(new J(a,b),this))}; Z.prototype.addObserver=function(a,b,c){function d(e){return void c.call(b,e.type,e.params)}this.g.add(String(a),d,!1,void 0,void 0);this.h[a]||(this.h[a]={});this.h[a][b]=d};Z.prototype.removeObserver=function(a,b){this.h[a]&amp;&amp;this.h[a][b]&amp;&amp;(Ga(this.g,String(a),this.h[a][b]),delete this.h[a][b])};Z.prototype.shouldForwardMessageToIframe=function(){return this.m.j};Z.prototype.forwardMessage=function(a){ib(this.m,a)}; function kb(a,b){w.AFMA_Communicator?w.AFMA_Communicator.sendMessage(a,b):lb(a,b)}function lb(a,b){"loading"==document.readyState?(a=z(lb,null,a,b),R(w,"DOMContentLoaded",a,!1)):(a=new J(a,b),$a().sendMessage(a))}function jb(a,b){w.AFMA_Communicator.receiveMessage(a,b)}function mb(a,b,c,d){w.AFMA_Communicator.removeEventListener(a,b,c,d)}function nb(a,b,c,d){w.AFMA_Communicator.addEventListener(a,b,c,d)}function ob(a,b,c){w.AFMA_Communicator.addObserver(a,b,c)} function pb(a,b){w.AFMA_Communicator.removeObserver(a,b)}w.AFMA_Communicator||(x("AFMA_AddEventListener",nb,w),x("AFMA_RemoveEventListener",mb,w),x("AFMA_AddObserver",ob,w),x("AFMA_RemoveObserver",pb,w),x("AFMA_ReceiveMessage",jb,w),x("AFMA_SendMessage",kb,w),w.AFMA_Communicator=new Z);nb("onSdkImpression",function(){x("Goog_Omid_SdkImpressionReceived",!0)});nb("onSdkLoaded",function(){x("Goog_Omid_SdkLoadedReceived",!0)});}).call(this);&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omsdk-v1.js"&gt;&lt;/script&gt;&lt;link href="https://fonts.googleapis.com/css?family=Roboto:300,400,700&amp;lang=en" rel="stylesheet" type="text/css"&gt;&lt;style&gt;a.rh-ms-mute-undo {color:#ffffff;}body,table,div,ul,li{margin:0;padding:0}body{font-family:"Roboto",arial,sans-serif;}#adunit {background-color: #000000;border: 0px solid #456fc6;height: 250px;width: 300px;}#ads {height: 250px;left: 0px;position: absolute;top: 0px;width: 300px;}#ads ul{list-style: none;}#ads ul li {clear: both;float: left;line-height: 0;overflow: hidden;position: relative;  }#ads table {border-collapse: collapse;border-spacing: 0;}.rhsvgpngicon {vertical-align:middle;}.rh-gradient {width: 100%;height: 100%;position: absolute;left: 0;top: 0;}.ads_chrome_top {position: absolute;overflow: hidden;top: 0px;width: 300px;height:0px;}.ads_chrome_bottom {position: absolute;overflow: hidden;bottom: 0px;width: 300px;height:0px;}.ads_chrome_left {position: absolute;overflow: hidden;left: 0px;width:0px;height: 250px;}.ads_chrome_right {position: absolute;overflow: hidden;right: 0px;width:0px;height: 250px;}.rhtitle.rhdefaultcolored {color: #ffffff;}.rhtitle {text-decoration: none;word-wrap: break-word;}.rhimage, .rhimage_nolink {display: inline-block;}.rhimage img {cursor: pointer;}.rhimage_nolink img, .rhimage_nolink img:hover {border: none;}.rhimage-container {position: relative;display: inline-block;}.rhimage-container:hover .rhoverlay-text,.rhimage-container.expanded .rhoverlay-text {opacity: 1.0;}.rhoverlay-text {position: absolute;top: 0;width: 100%;color: #999;opacity: 0.0;padding: 3px;font-family: arial, sans-serif;background: linear-gradient(rgba(255, 255, 255, 1.0), rgba(255, 255, 255, 0.0));height: 20px;line-height: 1em;font-size: 12px;}.taw0 .rh00 img {border: 1px solid #2ea4b2;}.taw0 .rh00 img:hover {border-color: #ffffff;}.rhbutton-container {position: relative;visibility: hidden;}.rhbutton {cursor: pointer;display: inline-block;margin: 0;text-align: center;visibility: visible;white-space: nowrap;}.rhbutton .message {color: white;display: inline-block;overflow: hidden;vertical-align: middle;}.rhbutton .message span {margin-left: 0.3em;margin-right: 0.3em;}.onhoverbg {background: #0c0c0c;}.rhbutton .icon-container {display: inline-block;vertical-align: middle;}.rhbutton .icon, .rhbutton .rhsvgpngicon {border-width: 0;}.taw0 .rh121 .rhbutton-container {text-align: right;width: 261px;left: -113px;}.taw0 .rh121 .rhbutton {background: #2ea4b2;-webkit-border-radius: 2px;border-radius: 2px;border-width: 0px;height: 40px;min-width: 148px;max-width: 261px;}.taw0 .rh121 .rhbutton:hover {background: #20757f;}.taw0 .rh121 .icon-container {height: 40px;line-height: 40px;width: 22px;}.taw0 .rh121 .icon, .taw0 .rh121 .icon-container .rhsvgpngicon {height: 22px;margin-left: 0px;vertical-align: top;margin-top: 9px;}.taw0 .rh121 .message {line-height: 40px;font-size: 13px;max-width: 0;}.taw0 .rh121 .one-point-five-click .message {color: white;max-width: 239px;}#ads .rh00 .rhimage{-moz-border-radius:17.544%;-ms-border-radius:17.544%;-o-border-radius:17.544%;-webkit-border-radius:17.544%;border-radius:17.544%;display:block} #ads .rh00 .rhimage img{-moz-border-radius:17.544%;-ms-border-radius:17.544%;-o-border-radius:17.544%;-webkit-border-radius:17.544%;border:none;border-radius:17.544%} #ads .rh0100{color:#000000;text-overflow:ellipsis} #ads .rh0100 .rhtitle{color:#000000} #ads .rh01200 .rhprice{color:#2ea4b2} #ads .rh10 .rhpromotext{color:#000000} #ads .rh11 .rhbody{color:#000000} #ads .rh121 .rhbutton{-moz-border-radius:3px;-moz-box-shadow:0px 1px 1px 0px rgba(0,0,0,0.3);-ms-border-radius:3px;-ms-box-shadow:0px 1px 1px 0px rgba(0,0,0,0.3);-o-border-radius:3px;-o-box-shadow:0px 1px 1px 0px rgba(0,0,0,0.3);-webkit-border-radius:3px;-webkit-box-shadow:0px 1px 1px 0px rgba(0,0,0,0.3);background-color:#2ea4b2;border-radius:3px;box-shadow:0px 1px 1px 0px rgba(0,0,0,0.3);font-family:"Roboto", sans-serif;font-weight:400} #ads .rh121 .rhbutton .message{color:#ffffff} .rh{background-color:#fafafa;display:inline-block;font-size:0;height:250px;line-height:0;overflow:hidden;padding:0;width:300px} .rh &gt; table{width:100%} .rh0{display:inline-block;font-size:0;height:67px;line-height:0;overflow:hidden;padding:10px 0 10px 10px;width:290px} .rh0 &gt; table{height:100%} .rh00{display:inline-block;height:67px;overflow:hidden;padding:0;width:67px} .rh00c{height:67px;padding:0;text-align:left;vertical-align:top;width:67px} .rh01{display:inline-block;font-size:0;height:67px;line-height:0;overflow:hidden;padding:0 10px 0 10px;width:203px} .rh01 &gt; table{width:100%} .rh010{display:inline-block;font-size:0;height:28px;line-height:0;overflow:hidden;padding:0;width:203px} .rh010 &gt; table{height:100%} .rh0100{display:inline-block;font-family:"Roboto",arial,sans-serif;font-size:17px;font-weight:400;height:28px;line-height:22px;overflow:hidden;padding:0;white-space:nowrap;width:203px} .rh0100c{height:28px;padding:0;text-align:left;width:203px} .rh010c{height:28px;padding:0;width:203px} .rh011{display:inline-block;font-size:0;height:17px;line-height:0;padding:0;width:53px} .rh011 &gt; table{height:100%} .rh0110{display:inline-block;font-size:0;line-height:0;overflow:hidden;padding:0 4px 0 0} .rh0110 &gt; table{height:100%} .rh01100{color:#4c4c4c;display:inline-block;font-family:"Roboto",arial,sans-serif;font-size:13px;font-weight:400;height:17px;line-height:17px;overflow:hidden;padding:0 4px 0 0;white-space:nowrap} .rh01100c{height:17px;padding:0;vertical-align:middle} .rh01101{display:inline-block;height:17px;overflow:hidden;padding:0} .rh01101c{height:17px;padding:0;vertical-align:middle} .rh0110c{padding:0;text-align:left;vertical-align:middle} .rh011c{height:17px;padding:0;width:203px} .rh012{display:inline-block;font-size:0;height:22px;line-height:0;overflow:hidden;padding:0;width:31px} .rh012 &gt; table{height:100%} .rh0120{display:inline-block;font-size:0;height:17px;line-height:0;overflow:hidden;padding:0;width:31px} .rh0120 &gt; table{width:100%} .rh01200{display:inline-block;font-family:"Roboto",arial,sans-serif;font-size:13px;font-weight:700;height:17px;line-height:17px;max-width:31px;overflow:hidden;padding:0;white-space:nowrap} .rh01200c{height:17px;padding:0;text-align:left;vertical-align:middle} .rh0120c{height:22px;padding:0;vertical-align:middle;width:31px} .rh012c{height:22px;padding:0;width:203px} .rh01c{height:67px;padding:0;text-align:left;vertical-align:top;width:223px} .rh0c{height:87px;padding:0;text-align:left;vertical-align:top;width:300px} .rh1{background-color:#eceff1;display:inline-block;font-size:0;height:143px;line-height:0;padding:10px;width:280px} .rh1 &gt; table{width:100%} .rh10{display:inline-block;font-family:"Roboto",arial,sans-serif;font-size:13px;font-weight:700;height:21px;line-height:17px;overflow:hidden;padding:0;width:280px} .rh10c{height:21px;padding:0;text-align:left;vertical-align:middle;width:280px} .rh11{display:inline-block;font-family:"Roboto",arial,sans-serif;font-size:13px;font-weight:400;height:72px;line-height:17px;overflow:hidden;padding:0;width:280px} .rh11c{height:72px;padding:0;text-align:left;vertical-align:middle;width:280px} .rh12{display:inline-block;font-size:0;height:40px;line-height:0;padding:10px 0 0 0;width:280px} .rh12 &gt; table{height:100%} .rh120{display:inline-block;font-family:"Roboto",arial,sans-serif;font-size:19px;font-weight:400;line-height:25px;overflow:hidden;padding:0;white-space:nowrap;width:132px} .rh120c{padding:0;text-align:left;vertical-align:middle;width:132px} .rh121{display:inline-block;font-size:13px;height:40px;line-height:16px;padding:0;width:148px} .rh121c{height:40px;padding:0;text-align:right;width:148px} .rh12c{height:50px;padding:0;width:280px} .rh1c{height:163px;padding:0;text-align:center;vertical-align:middle;width:300px} .taw{height:250px;width:300px}.rhprice.rhdefaultcolored {color: #7d7d7d;}.rhprice {white-space: nowrap;word-wrap: break-word;}.rhsaleprice.rhdefaultcolored {color: #7d7d7d;}.rhsaleprice {font-weight: normal;text-decoration: line-through;white-space: nowrap;word-wrap: break-word;}.rhprice {text-decoration: none;}a.rhprice:hover {text-decoration: underline;}.rhpromotext.rhdefaultcolored {color: #ffffff}.rhbody.rhdefaultcolored {color: #ffffff;}.rhbody {text-decoration: none;word-wrap: break-word;}a.rhbody:hover {text-decoration: underline;}.rhstoreicon_clickable {text-decoration: none;cursor: pointer;}&lt;/style&gt;&lt;script&gt;&lt;/script&gt;&lt;script&gt;if (typeof(ss) === "undefined") { ss = function(){}; }function st(id) {var a = document.getElementById(id);if (a) {}}function ha(a,x){  }function ia(a,e,x) {}function ja(a,x) {}function ga(o,e,x) {if (document.getElementById) {var a=o.id.substring(1),p="",r="",g=e.target,t,f,h;if (g) {t=g.id;f=g.parentNode;if (f) {p=f.id;h=f.parentNode;i</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '{"ads":{"m320x50p23":{"b":"JLO9r1QTK-afVCHoA2hN6d4AAAGG7eSvXQEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICB0o8rD","crid":"405085687","kvp":{"amznrdr":["default"],"amznp":["1b3s3k0"],"dc":["iad"]},"sz":"320x50","i":"https://aax-us-east.amazon-adsystem.com/e/msdk/imp?b=JLO9r1QTK-afVCHoA2hN6d4AAAGG7eSvXQEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICB0o8rD&amp;ps=m320x50p23"}},"instrPixelURL":"https://aax-us-east.amazon-adsystem.com/x/px/RLO9r1QTK-afVCHoA2hN6d4AAAGG7eSuTQEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICB0o8rD/","errorCode":"200","request_id":"s72vVBMr5p9UIegDaE3p3g","status":"ok"}\n', 'size': 601, 'mimeType': 'text/javascript;charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '&lt;!doctype html&gt;&lt;html&gt;&lt;head&gt;&lt;meta name="viewport" content="width=320, initial-scale=1.0, minimum-scale=1.0, maximum-scale=1.0, user-scalable=no"&gt;&lt;script&gt;var jscVersion = \'r20230315\';&lt;/script&gt;&lt;script&gt;var google_casm=["afma-sdk-i-v8.11.0"];&lt;/script&gt;&lt;script data-jc="84" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ function aa(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}}var m="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a}; function ba(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("Cannot find global object");}var ca=ba(this);function p(a,b){if(b)a:{var c=ca;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;m(c,a,{configurable:!0,writable:!0,value:b})}} p("Symbol",function(a){function b(f){if(this instanceof b)throw new TypeError("Symbol is not a constructor");return new c(d+(f||"")+"_"+e++,f)}function c(f,l){this.g=f;m(this,"description",{configurable:!0,writable:!0,value:l})}if(a)return a;c.prototype.toString=function(){return this.g};var d="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",e=0;return b}); p("Symbol.iterator",function(a){if(a)return a;a=Symbol("Symbol.iterator");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=ca[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;m(d.prototype,a,{configurable:!0,writable:!0,value:function(){return da(aa(this))}})}return a});function da(a){a={next:a};a[Symbol.iterator]=function(){return this};return a} function q(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];if(b)return b.call(a);if("number"==typeof a.length)return{next:aa(a)};throw Error(String(a)+" is not an iterable or ArrayLike");}var ea="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},r; if("function"==typeof Object.setPrototypeOf)r=Object.setPrototypeOf;else{var t;a:{var fa={a:!0},ha={};try{ha.__proto__=fa;t=ha.a;break a}catch(a){}t=!1}r=t?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ia=r; function u(a,b){a.prototype=ea(b.prototype);a.prototype.constructor=a;if(ia)ia(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.A=b.prototype}function v(a,b){return Object.prototype.hasOwnProperty.call(a,b)} p("WeakMap",function(a){function b(h){this.g=(g+=Math.random()+1).toString();if(h){h=q(h);for(var k;!(k=h.next()).done;)k=k.value,this.set(k[0],k[1])}}function c(){}function d(h){var k=typeof h;return"object"===k&amp;&amp;null!==h||"function"===k}function e(h){if(!v(h,l)){var k=new c;m(h,l,{value:k})}}function f(h){var k=Object[h];k&amp;&amp;(Object[h]=function(n){if(n instanceof c)return n;Object.isExtensible(n)&amp;&amp;e(n);return k(n)})}if(function(){if(!a||!Object.seal)return!1;try{var h=Object.seal({}),k=Object.seal({}), n=new a([[h,2],[k,3]]);if(2!=n.get(h)||3!=n.get(k))return!1;n.delete(h);n.set(k,4);return!n.has(h)&amp;&amp;4==n.get(k)}catch(A){return!1}}())return a;var l="$jscomp_hidden_"+Math.random();f("freeze");f("preventExtensions");f("seal");var g=0;b.prototype.set=function(h,k){if(!d(h))throw Error("Invalid WeakMap key");e(h);if(!v(h,l))throw Error("WeakMap key fail: "+h);h[l][this.g]=k;return this};b.prototype.get=function(h){return d(h)&amp;&amp;v(h,l)?h[l][this.g]:void 0};b.prototype.has=function(h){return d(h)&amp;&amp;v(h, l)&amp;&amp;v(h[l],this.g)};b.prototype.delete=function(h){return d(h)&amp;&amp;v(h,l)&amp;&amp;v(h[l],this.g)?delete h[l][this.g]:!1};return b}); p("Map",function(a){function b(){var g={};return g.s=g.next=g.head=g}function c(g,h){var k=g.g;return da(function(){if(k){for(;k.head!=g.g;)k=k.s;for(;k.next!=k.head;)return k=k.next,{done:!1,value:h(k)};k=null}return{done:!0,value:void 0}})}function d(g,h){var k=h&amp;&amp;typeof h;"object"==k||"function"==k?f.has(h)?k=f.get(h):(k=""+ ++l,f.set(h,k)):k="p_"+h;var n=g.i[k];if(n&amp;&amp;v(g.i,k))for(g=0;g&lt;n.length;g++){var A=n[g];if(h!==h&amp;&amp;A.key!==A.key||h===A.key)return{id:k,list:n,index:g,l:A}}return{id:k,list:n, index:-1,l:void 0}}function e(g){this.i={};this.g=b();this.size=0;if(g){g=q(g);for(var h;!(h=g.next()).done;)h=h.value,this.set(h[0],h[1])}}if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var g=Object.seal({x:4}),h=new a(q([[g,"s"]]));if("s"!=h.get(g)||1!=h.size||h.get({x:4})||h.set({x:4},"t")!=h||2!=h.size)return!1;var k=h.entries(),n=k.next();if(n.done||n.value[0]!=g||"s"!=n.value[1])return!1;n=k.next();return n.done||4!=n.value[0].x|| "t"!=n.value[1]||!k.next().done?!1:!0}catch(A){return!1}}())return a;var f=new WeakMap;e.prototype.set=function(g,h){g=0===g?0:g;var k=d(this,g);k.list||(k.list=this.i[k.id]=[]);k.l?k.l.value=h:(k.l={next:this.g,s:this.g.s,head:this.g,key:g,value:h},k.list.push(k.l),this.g.s.next=k.l,this.g.s=k.l,this.size++);return this};e.prototype.delete=function(g){g=d(this,g);return g.l&amp;&amp;g.list?(g.list.splice(g.index,1),g.list.length||delete this.i[g.id],g.l.s.next=g.l.next,g.l.next.s=g.l.s,g.l.head=null,this.size--, !0):!1};e.prototype.clear=function(){this.i={};this.g=this.g.s=b();this.size=0};e.prototype.has=function(g){return!!d(this,g).l};e.prototype.get=function(g){return(g=d(this,g).l)&amp;&amp;g.value};e.prototype.entries=function(){return c(this,function(g){return[g.key,g.value]})};e.prototype.keys=function(){return c(this,function(g){return g.key})};e.prototype.values=function(){return c(this,function(g){return g.value})};e.prototype.forEach=function(g,h){for(var k=this.entries(),n;!(n=k.next()).done;)n=n.value, g.call(h,n[1],n[0],this)};e.prototype[Symbol.iterator]=e.prototype.entries;var l=0;return e});function ja(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e}p("Array.prototype.entries",function(a){return a?a:function(){return ja(this,function(b,c){return[b,c]})}}); p("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)v(b,d)&amp;&amp;c.push([d,b[d]]);return c}});p("Array.prototype.findIndex",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++)if(b.call(c,d[f],f,d)){b=f;break a}b=-1}return b}});var w=this||self; function x(a,b,c){a=a.split(".");c=c||w;a[0]in c||"undefined"==typeof c.execScript||c.execScript("var "+a[0]);for(var d;a.length&amp;&amp;(d=a.shift());)a.length||void 0===b?c[d]&amp;&amp;c[d]!==Object.prototype[d]?c=c[d]:c=c[d]={}:c[d]=b}function y(a){var b=typeof a;return"object"==b&amp;&amp;null!=a||"function"==b}function ka(a,b,c){return a.call.apply(a.bind,arguments)} function la(a,b,c){if(!a)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var e=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(e,d);return a.apply(b,e)}}return function(){return a.apply(b,arguments)}}function z(a,b,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?z=ka:z=la;return z.apply(null,arguments)} function ma(a,b){var c=Array.prototype.slice.call(arguments,1);return function(){var d=c.slice();d.push.apply(d,arguments);return a.apply(this,d)}}function B(a,b){function c(){}c.prototype=b.prototype;a.A=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.L=function(d,e,f){for(var l=Array(arguments.length-2),g=2;g&lt;arguments.length;g++)l[g-2]=arguments[g];return b.prototype[e].apply(d,l)}}function C(a){return a};var na=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1};function D(){var a=w.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};function E(a){E[" "](a);return a}E[" "]=function(){};var oa=-1!=D().indexOf("Gecko")&amp;&amp;!(-1!=D().toLowerCase().indexOf("webkit")&amp;&amp;-1==D().indexOf("Edge"))&amp;&amp;!(-1!=D().indexOf("Trident")||-1!=D().indexOf("MSIE"))&amp;&amp;-1==D().indexOf("Edge");function pa(a,b,c){for(var d in a)b.call(c,a[d],d,a)}function qa(a){var b={},c;for(c in a)b[c]=a[c];return b}var ra="constructor hasOwnProperty isPrototypeOf propertyIsEnumerable toLocaleString toString valueOf".split(" ");function sa(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;ra.length;f++)c=ra[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};var F;function G(a,b){this.g=b===ta?a:""}G.prototype.toString=function(){return this.g+""};function ua(a){return a instanceof G&amp;&amp;a.constructor===G?a.g:"type_error:TrustedResourceUrl"}var ta={};function va(a){if(void 0===F){var b=null;var c=w.trustedTypes;if(c&amp;&amp;c.createPolicy){try{b=c.createPolicy("goog#html",{createHTML:C,createScript:C,createScriptURL:C})}catch(d){w.console&amp;&amp;w.console.error(d.message)}F=b}else F=b}a=(b=F)?b.createScriptURL(a):a;return new G(a,ta)};function wa(a){return a&amp;&amp;a.parentNode?a.parentNode.removeChild(a):null};function xa(a){a&amp;&amp;"function"==typeof a.I&amp;&amp;a.I()};function H(){this.u=this.u;this.o=this.o}H.prototype.u=!1;H.prototype.I=function(){this.u||(this.u=!0,this.i())};H.prototype.i=function(){if(this.o)for(;this.o.length;)this.o.shift()()};function I(a,b){this.type=a;this.g=this.target=b;this.defaultPrevented=!1}I.prototype.i=function(){this.defaultPrevented=!0};function J(a,b){this.messageName=a;this.parameters=b||{}}function ya(a,b){I.call(this,a.messageName,b);this.params=a.parameters||{}}u(ya,I);var za=-1!=(w.navigator?w.navigator.userAgent:"").indexOf("Android");/*  SPDX-License-Identifier: Apache-2.0 */ function Aa(a,b){var c=ua(a).toString();if(/#/.test(c))throw Error("");var d=/\\?/.test(c)?"&amp;":"?";b.forEach(function(e,f){e=e instanceof Array?e:[e];for(var l=0;l&lt;e.length;l++){var g=e[l];null!==g&amp;&amp;void 0!==g&amp;&amp;(c+=d+encodeURIComponent(f)+"="+encodeURIComponent(String(g)),d="&amp;")}});return va(c)};function Ba(a){var b=va("gmsg://mobileads.google.com/"+a.messageName);return Aa(b,new Map(Object.entries(a.parameters)))};var Ca=function(){if(!w.addEventListener||!Object.defineProperty)return!1;var a=!1,b=Object.defineProperty({},"passive",{get:function(){a=!0}});try{w.addEventListener("test",function(){},b),w.removeEventListener("test",function(){},b)}catch(c){}return a}();function K(a,b){I.call(this,a?a.type:"");this.relatedTarget=this.g=this.target=null;this.button=this.screenY=this.screenX=this.clientY=this.clientX=0;this.key="";this.metaKey=this.shiftKey=this.altKey=this.ctrlKey=!1;this.state=null;this.pointerId=0;this.pointerType="";this.h=null;if(a){var c=this.type=a.type,d=a.changedTouches&amp;&amp;a.changedTouches.length?a.changedTouches[0]:null;this.target=a.target||a.srcElement;this.g=b;if(b=a.relatedTarget){if(oa){a:{try{E(b.nodeName);var e=!0;break a}catch(f){}e= !1}e||(b=null)}}else"mouseover"==c?b=a.fromElement:"mouseout"==c&amp;&amp;(b=a.toElement);this.relatedTarget=b;d?(this.clientX=void 0!==d.clientX?d.clientX:d.pageX,this.clientY=void 0!==d.clientY?d.clientY:d.pageY,this.screenX=d.screenX||0,this.screenY=d.screenY||0):(this.clientX=void 0!==a.clientX?a.clientX:a.pageX,this.clientY=void 0!==a.clientY?a.clientY:a.pageY,this.screenX=a.screenX||0,this.screenY=a.screenY||0);this.button=a.button;this.key=a.key||"";this.ctrlKey=a.ctrlKey;this.altKey=a.altKey;this.shiftKey= a.shiftKey;this.metaKey=a.metaKey;this.pointerId=a.pointerId||0;this.pointerType="string"===typeof a.pointerType?a.pointerType:Da[a.pointerType]||"";this.state=a.state;this.h=a;a.defaultPrevented&amp;&amp;K.A.i.call(this)}}B(K,I);var Da={2:"touch",3:"pen",4:"mouse"};K.prototype.i=function(){K.A.i.call(this);var a=this.h;a.preventDefault?a.preventDefault():a.returnValue=!1};var L="closure_listenable_"+(1E6*Math.random()|0);var Ea=0;function Fa(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.G=e;this.key=++Ea;this.B=this.F=!1}function M(a){a.B=!0;a.listener=null;a.proxy=null;a.src=null;a.G=null};function N(a){this.src=a;this.g={};this.i=0}N.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.i++);var l=O(a,b,d,e);-1&lt;l?(b=a[l],c||(b.F=!1)):(b=new Fa(b,this.src,f,!!d,e),b.F=c,a.push(b));return b};function Ga(a,b,c,d,e){b=b.toString();if(b in a.g){var f=a.g[b];c=O(f,c,d,e);-1&lt;c&amp;&amp;(M(f[c]),Array.prototype.splice.call(f,c,1),0==f.length&amp;&amp;(delete a.g[b],a.i--))}} function P(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=na(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(M(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.i--))}}function O(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.B&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.G==d)return e}return-1};var Q="closure_lm_"+(1E6*Math.random()|0),Ha={},Ia=0;function Ja(a,b,c,d,e){if(d&amp;&amp;d.once)return R(a,b,c,d,e);if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)Ja(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!1,y(d)?!!d.capture:!!d,e):La(a,b,c,!1,d,e)} function La(a,b,c,d,e,f){if(!b)throw Error("Invalid event type");var l=y(e)?!!e.capture:!!e,g=Ma(a);g||(a[Q]=g=new N(a));c=g.add(b,c,d,l,f);if(c.proxy)return c;d=Na();c.proxy=d;d.src=a;d.listener=c;if(a.addEventListener)Ca||(e=l),void 0===e&amp;&amp;(e=!1),a.addEventListener(b.toString(),d,e);else if(a.attachEvent)a.attachEvent(Oa(b.toString()),d);else if(a.addListener&amp;&amp;a.removeListener)a.addListener(d);else throw Error("addEventListener and attachEvent are unavailable.");Ia++;return c} function Na(){function a(c){return b.call(a.src,a.listener,c)}var b=Pa;return a}function R(a,b,c,d,e){if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)R(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!0,y(d)?!!d.capture:!!d,e):La(a,b,c,!0,d,e)} function Qa(a,b,c,d,e){if(Array.isArray(b))for(var f=0;f&lt;b.length;f++)Qa(a,b[f],c,d,e);else(d=y(d)?!!d.capture:!!d,c=Ka(c),a&amp;&amp;a[L])?Ga(a.g,String(b),c,d,e):a&amp;&amp;(a=Ma(a))&amp;&amp;(b=a.g[b.toString()],a=-1,b&amp;&amp;(a=O(b,c,d,e)),(c=-1&lt;a?b[a]:null)&amp;&amp;Ra(c))} function Ra(a){if("number"!==typeof a&amp;&amp;a&amp;&amp;!a.B){var b=a.src;if(b&amp;&amp;b[L])P(b.g,a);else{var c=a.type,d=a.proxy;b.removeEventListener?b.removeEventListener(c,d,a.capture):b.detachEvent?b.detachEvent(Oa(c),d):b.addListener&amp;&amp;b.removeListener&amp;&amp;b.removeListener(d);Ia--;(c=Ma(b))?(P(c,a),0==c.i&amp;&amp;(c.src=null,b[Q]=null)):M(a)}}}function Oa(a){return a in Ha?Ha[a]:Ha[a]="on"+a}function Pa(a,b){if(a.B)a=!0;else{b=new K(b,this);var c=a.listener,d=a.G||a.src;a.F&amp;&amp;Ra(a);a=c.call(d,b)}return a} function Ma(a){a=a[Q];return a instanceof N?a:null}var Sa="__closure_events_fn_"+(1E9*Math.random()&gt;&gt;&gt;0);function Ka(a){if("function"===typeof a)return a;a[Sa]||(a[Sa]=function(b){return a.handleEvent(b)});return a[Sa]};function S(a){H.call(this);this.h=a;this.g={}}B(S,H);var Ta=[];function Ua(a){pa(a.g,function(b,c){this.g.hasOwnProperty(c)&amp;&amp;Ra(b)},a);a.g={}}S.prototype.i=function(){S.A.i.call(this);Ua(this)};S.prototype.handleEvent=function(){throw Error("EventHandler.handleEvent not implemented");};function T(){H.call(this);this.g=new N(this);this.J=this;this.C=null}B(T,H);T.prototype[L]=!0;T.prototype.addEventListener=function(a,b,c,d){Ja(this,a,b,c,d)};T.prototype.removeEventListener=function(a,b,c,d){Qa(this,a,b,c,d)}; function Va(a,b){var c,d=a.C;if(d)for(c=[];d;d=d.C)c.push(d);a=a.J;d=b.type||b;if("string"===typeof b)b=new I(b,a);else if(b instanceof I)b.target=b.target||a;else{var e=b;b=new I(d,a);sa(b,e)}e=!0;if(c)for(var f=c.length-1;0&lt;=f;f--){var l=b.g=c[f];e=U(l,d,!0,b)&amp;&amp;e}l=b.g=a;e=U(l,d,!0,b)&amp;&amp;e;e=U(l,d,!1,b)&amp;&amp;e;if(c)for(f=0;f&lt;c.length;f++)l=b.g=c[f],e=U(l,d,!1,b)&amp;&amp;e} T.prototype.i=function(){T.A.i.call(this);if(this.g){var a=this.g,b=0,c;for(c in a.g){for(var d=a.g[c],e=0;e&lt;d.length;e++)++b,M(d[e]);delete a.g[c];a.i--}}this.C=null};function U(a,b,c,d){b=a.g.g[String(b)];if(!b)return!0;b=b.concat();for(var e=!0,f=0;f&lt;b.length;++f){var l=b[f];if(l&amp;&amp;!l.B&amp;&amp;l.capture==c){var g=l.listener,h=l.G||l.src;l.F&amp;&amp;P(a.g,l);e=!1!==g.call(h,d)&amp;&amp;e}}return e&amp;&amp;!d.defaultPrevented};function V(a,b){T.call(this);this.v=a||1;this.m=b||w;this.H=z(this.K,this);this.D=Date.now()}B(V,T);V.prototype.j=!1;V.prototype.h=null;V.prototype.K=function(){if(this.j){var a=Date.now()-this.D;0&lt;a&amp;&amp;a&lt;.8*this.v?this.h=this.m.setTimeout(this.H,this.v-a):(this.h&amp;&amp;(this.m.clearTimeout(this.h),this.h=null),Va(this,"tick"),this.j&amp;&amp;(Wa(this),this.start()))}};V.prototype.start=function(){this.j=!0;this.h||(this.h=this.m.setTimeout(this.H,this.v),this.D=Date.now())}; function Wa(a){a.j=!1;a.h&amp;&amp;(a.m.clearTimeout(a.h),a.h=null)}V.prototype.i=function(){V.A.i.call(this);Wa(this);delete this.m};function Xa(){if(window.googleJsEnvironment&amp;&amp;("rhino"==window.googleJsEnvironment.environment||"jscore"==window.googleJsEnvironment.environment))return new W;if(za&amp;&amp;window.googleAdsJsInterface&amp;&amp;"notify"in window.googleAdsJsInterface)try{return window.googleAdsJsInterface.notify("gmsg://mobileads.google.com/noop"),new W}catch(a){}else if(window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler)return new Ya;return new Za}function $a(){ab||(ab=Xa());return ab} var ab=null;function X(){H.call(this)}u(X,H);function bb(a){var b=qa(a.parameters);b["google.afma.Notify_dt"]=(new Date).getTime();return Ba(new J(a.messageName,b)).toString()}function Y(a,b){H.call(this);this.v=a;this.C=b||1;this.m=[];this.j=new V(this.C);a=this.H=new S(this);b=this.j;var c=this.D,d="tick";Array.isArray(d)||(d&amp;&amp;(Ta[0]=d.toString()),d=Ta);for(var e=0;e&lt;d.length;e++){var f=Ja(b,d[e],c||a.handleEvent,!1,a.h||a);if(!f)break;a.g[f.key]=f}}u(Y,X); Y.prototype.sendMessage=function(a){this.m.push(a);this.j.j||(a=this.m.shift(),this.v(a),this.j.start())};Y.prototype.D=function(){var a=this.m.shift();a?this.v(a):Wa(this.j)}; function Za(){Y.call(this,function(b){var c=a.g[a.h];if(!c){var d=document;c="IFRAME";"application/xhtml+xml"===d.contentType&amp;&amp;(c=c.toLowerCase());c=d.createElement(c);c.id="afma-notify-"+(new Date).getTime();c.style.display="none";a.g[a.h]=c}a.h=(a.h+1)%25;d=qa(b.parameters);d["google.afma.Notify_dt"]=(new Date).getTime();b=Ba(new J(b.messageName,d));c.src=ua(b).toString();c.parentNode||document.body.appendChild(c)});var a=this;this.g=[];this.h=0}u(Za,Y); Za.prototype.i=function(){this.g.forEach(wa);this.g=[];Y.prototype.i.call(this)};function W(){H.call(this)}u(W,X);W.prototype.sendMessage=function(a){a=bb(a);window.googleAdsJsInterface&amp;&amp;window.googleAdsJsInterface.notify&amp;&amp;(window.googleAdsJsInterface.notify(a),window.googleAdsJsInterface.DEBUG&amp;&amp;console.log(a))};function Ya(){H.call(this)}u(Ya,X);Ya.prototype.sendMessage=function(a){a=bb(a);window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler.postMessage(a)};/*  Math.uuid.js (v1.4) http://www.broofa.com mailto:robert@broofa.com Copyright (c) 2010 Robert Kieffer Dual licensed under the MIT and GPL licenses. */ var cb="0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz".split("");function db(a){for(var b=Array(36),c=0,d,e=0;36&gt;e;e++)8==e||13==e||18==e||23==e?b[e]="-":14==e?b[e]="4":(2&gt;=c&amp;&amp;(c=33554432+16777216*Math.random()|0),d=c&amp;15,c&gt;&gt;=4,b[e]=cb[19==e?d&amp;3|8:d]);this.uuid=b.join("");this.callback=a} function eb(a){var b=w.imalib_globalCallbacks||new Map,c=b.get("AFMA_updateActiveView")||[];if(0===c.length&amp;&amp;w.AFMA_updateActiveView){var d=new db(w.AFMA_updateActiveView);c.push(d);w.AFMA_updateActiveView=void 0}w.AFMA_updateActiveView||(w.AFMA_updateActiveView=function(){var e=b.get("AFMA_updateActiveView");e=q(e);for(var f=e.next();!f.done;f=e.next())f.value.callback.apply(null,arguments)});a=new db(a);c.push(a);b.set("AFMA_updateActiveView",c);w.imalib_globalCallbacks=b;return a.uuid} function fb(a){if(w.AFMA_updateActiveView){var b=w.imalib_globalCallbacks;if(b){var c=b.get("AFMA_updateActiveView");if(c){var d=c.findIndex(function(e){return e.uuid===a});-1!==d&amp;&amp;(c.splice(d,1),0===c.length&amp;&amp;(w.AFMA_updateActiveView=void 0),b.set("AFMA_updateActiveView",c),w.imalib_globalCallbacks=b)}}}};function gb(){var a=this;this.o=[];this.h=window===window.top;this.j=!1;this.g=0;this.i=null;"undefined"!==typeof window.addEventListener&amp;&amp;window.addEventListener("message",function(b){return hb(a,b)})} function hb(a,b){var c=b.data;if((b=b.source)&amp;&amp;c){var d=a.o;if("arwebview_iframe_loaded"===c&amp;&amp;a.h)x("JavascriptWebViewBridge.incoming.postMessage",a.u.bind(a),w),-1===d.indexOf(b)&amp;&amp;d.push(b);else{var e=c.messageName;c=c.parameters;if(a.h)switch(e){case "mraid_loaded":!1===c.is_top_win&amp;&amp;(a.j=!0,a.i=eb(function(f){a.h&amp;&amp;ib(a,new J("update_activeview_action",f))}),-1===d.indexOf(b)&amp;&amp;(d.push(b),"undefined"!==typeof b.postMessage&amp;&amp;b.postMessage(new J("mraid_env_obj",window.MRAID_ENV),"*")));break;case "start_tracking_action":0== a.g&amp;&amp;window.AFMA_SendMessage("trackActiveViewUnit");a.g+=1;break;case "stop_tracking_action":--a.g,0==a.g&amp;&amp;(window.AFMA_SendMessage("untrackActiveViewUnit",{hashCode:c.hashCode}),a.i&amp;&amp;(fb(a.i),a.i=null))}else switch(e){case "mraid_env_obj":window.MRAID_ENV=c;break;case "update_activeview_action":window.AFMA_updateActiveView&amp;&amp;window.AFMA_updateActiveView(c);break;case "receive_message_action":window.AFMA_ReceiveMessage(c.messageName,c.parameters)}}}} gb.prototype.u=function(a){this.h&amp;&amp;ib(this,{name:"arwebview_message_forwarded",message:a})};function ib(a,b){a.o.forEach(function(c){return c.postMessage(b,"*")})};function Z(){T.call(this);this.j=$a();this.j=$a();var a=ma(xa,this.j);this.u?a():(this.o||(this.o=[]),this.o.push(a));this.h={};this.m=new gb}u(Z,T);Z.prototype.sendMessage=function(a,b){var c=this,d;"string"===typeof a?d=new J(a,b):a instanceof J&amp;&amp;(d=a);"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return c.j.sendMessage(d)},!1,this):this.j.sendMessage(d)}; Z.prototype.receiveMessage=function(a,b){if(this.shouldForwardMessageToIframe())this.forwardMessage(new J("receive_message_action",new J(a,b)));else{var c=document.getElementById("ad_iframe");void 0!=c&amp;&amp;void 0!=c.contentWindow&amp;&amp;void 0!=c.contentWindow.AFMA_ReceiveMessage&amp;&amp;c.contentWindow.AFMA_ReceiveMessage(a,b)}"onshow"==a&amp;&amp;"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return jb(a,null!=b?b:void 0)}):Va(this,new ya(new J(a,b),this))}; Z.prototype.addObserver=function(a,b,c){function d(e){return void c.call(b,e.type,e.params)}this.g.add(String(a),d,!1,void 0,void 0);this.h[a]||(this.h[a]={});this.h[a][b]=d};Z.prototype.removeObserver=function(a,b){this.h[a]&amp;&amp;this.h[a][b]&amp;&amp;(Ga(this.g,String(a),this.h[a][b]),delete this.h[a][b])};Z.prototype.shouldForwardMessageToIframe=function(){return this.m.j};Z.prototype.forwardMessage=function(a){ib(this.m,a)}; function kb(a,b){w.AFMA_Communicator?w.AFMA_Communicator.sendMessage(a,b):lb(a,b)}function lb(a,b){"loading"==document.readyState?(a=z(lb,null,a,b),R(w,"DOMContentLoaded",a,!1)):(a=new J(a,b),$a().sendMessage(a))}function jb(a,b){w.AFMA_Communicator.receiveMessage(a,b)}function mb(a,b,c,d){w.AFMA_Communicator.removeEventListener(a,b,c,d)}function nb(a,b,c,d){w.AFMA_Communicator.addEventListener(a,b,c,d)}function ob(a,b,c){w.AFMA_Communicator.addObserver(a,b,c)} function pb(a,b){w.AFMA_Communicator.removeObserver(a,b)}w.AFMA_Communicator||(x("AFMA_AddEventListener",nb,w),x("AFMA_RemoveEventListener",mb,w),x("AFMA_AddObserver",ob,w),x("AFMA_RemoveObserver",pb,w),x("AFMA_ReceiveMessage",jb,w),x("AFMA_SendMessage",kb,w),w.AFMA_Communicator=new Z);nb("onSdkImpression",function(){x("Goog_Omid_SdkImpressionReceived",!0)});nb("onSdkLoaded",function(){x("Goog_Omid_SdkLoadedReceived",!0)});}).call(this);&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omsdk-v1.js"&gt;&lt;/script&gt;&lt;/head&gt;&lt;body leftMargin="0" topMargin="0" marginwidth="0" marginheight="0"&gt;&lt;div class="GoogleActiveViewInnerContainer"style="left:0px;top:0px;width:100%;height:100%;position:fixed;pointer-events:none;z-index:-9999;"&gt;&lt;/div&gt;&lt;div style="display:inline"class="GoogleActiveViewElement"data-google-av-cxn="https://pagead2.googlesyndication.com/pcs/activeview?xai=AKAOjsuxXTwEGGzDoW4Zssxb7XOquiErybFq1vMgqURxE931Q4-NOcHuINxLbvbIo-XoLiPWr--JYptL3i_p750OZbFlAmWC&amp;amp;sig=Cg0ArKJSzN0QmM44tR0UEAE"data-google-av-adk="3519121124"data-google-av-metadata="la=0&amp;amp;omid=1&amp;amp;sloi=1&amp;amp;"data-google-av-ufs-integrator-metadata=""data-google-av-override="-1"data-google-av-dm="2"data-google-av-aid="0"data-google-av-naid="1"data-google-av-inapp data-google-av-slift=""data-google-av-cpmav=""data-google-av-btr=""data-google-av-itpl="20"data-google-av-rs="9"data-google-av-flags="[&amp;quot;x%278440&amp;#39;9efotm(&amp;amp;753374%2bejvf/%27844&amp;gt;&amp;#39;9wuvb$&amp;amp;56533&amp;gt;!=|vqc)!273794&amp;amp;&amp;lt;qqvb/%&amp;lt;1735020!=nehu`/!364=5051!9abk{a($160210:3&amp;amp;&amp;lt;cbotf+*0150034:%2bejvf/%72;17613!=efdwa*&amp;#39;76463;21$?ebkpb$&amp;amp;0366717&amp;gt;*&amp;gt;bgipf+!3=712363%9aihwc)!7202&amp;lt;217&amp;#39;9efotm(&amp;amp;20061;48&amp;amp;&amp;gt;`dopb/%&amp;lt;1707200!=8(&amp;amp;2005575?&amp;amp;&amp;gt;`dopb/%&amp;lt;170642?!=|vqc)!7201;=50&amp;#39;9wuvb$&amp;amp;03641654*&amp;gt;bgipf+!3=731103%9aihwc)!7200?073&amp;#39;9efotm(&amp;amp;2004?51;&amp;amp;&amp;gt;`dopb/%&amp;lt;17&amp;gt;474&amp;gt;!=nehu`/!36406412!9abk{a($160&amp;gt;358&amp;lt;&amp;amp;&amp;lt;cbotfz&amp;quot;]"&gt;&lt;script src="https://cdn.indexww.com/om/ixomclient.js?cb=1679025600" id="ixomclient" data-debug="false" data-impurl-0="https://a2758.casalemedia.com/impression/v1?bidID=591c5b8a-f6bc-41f2-bd77-dc90b98a14db&amp;amp;traceID=cg9v1ke6lkiakh50p4tg&amp;amp;dspID=90&amp;amp;userID=&amp;amp;cmpro=0&amp;amp;deviceType=4&amp;amp;expiryTime=1679039233&amp;amp;profileIDs=&amp;amp;ap=ZBPw0QABO9kC9fMhAAmN-0JEIvCgtfgw7X5o3Q&amp;amp;siteID=547660&amp;amp;creativeID=230dc1c&amp;amp;pubID=184977&amp;amp;format=banner&amp;amp;channel=app" data-pid="184977" data-tid="cg9v1ke6lkiakh50p4tg" data-eturl="" &gt;&lt;/script&gt; &lt;script src="mraid.js"&gt;&lt;/script&gt;&lt;iframe src="https://eastads.simpli.fi/ads/3341154/30069426/ad.html?sifi=8475,3341154,30069426,0,28,0,0,0,0,,22,v,26.95680,ZBPw0QAAAAAQ3csvnaSET9oJ1ohUiXygRZoedA,0,0,0,23,5AF99DBF55B9840BA87AA4044345318A,0,2,0,1270,400,1,0,0,607,0,702,bidder-base-prd-us-east4-a-b58f3085:9002-1679028433190-77853083,1,0,395291,2,0,28,12,47404,0,0.00,1,220412618550898,0,0,3,137847689,1,-4,0,33,IXIVPPOLITICALDISPLAYSIMPLIFI,5,355726,0,0,2,3,184977,8,277,4254679&amp;hash_rid=C5773E117CB367AD785907CA8AAB5264&amp;sifi_exchange_uid=&amp;request_id=78b7f128-c5b5-4aa5-8957-b3a9042027aa" width="320" height="50" frameborder="0" marginwidth="0" marginheight="0" scrolling="no"&gt;&lt;/iframe&gt;&lt;iframe width="0" height="0" frameborder="0" scrolling="no" src="https://ssum-sec.casalemedia.com/usermatch?ix_um=1&amp;cb=https%3A%2F%2Fjs-sec.indexww.com%2Fht%2Fhtw-pixel.gif%3F&amp;s=184977&amp;us_privacy=&amp;gdpr_consent=&amp;gdpr=0&amp;gpp=&amp;gpp_sid=" style="display: none;" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;/div&gt;&lt;script data-jc="22" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/window_focus.js" async data-jc-version="r20230315" data-jcp-url="https://googleads.g.doubleclick.net/pagead/interaction/?ai=CEHHs0fATZNn3BKHm18cP-5umiAaeoaGuXKH56P6fA8CNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSfAk_QcgubT4spLUSLhIcKYzuo1ZLHNJvOaqzG5ipOyDWmDYtiusW_DklVi7UM70OwegMXwjNXcQjH4A1ELrZltwZ5DE6dR3XW8Zlt5U4_Pg4MGhW-SUiLlULzXe4j1stcktmPYQGdIqfCulFacpGIMGJpJ7R00TNhGtzkUelGv59qYcRNqVcV0INAg33G8y_95f_g5p2Sy1ReUgayfuTqE1JbKm_U7jW-H_sUwIT5lWZ1fTF4nyEKEi7iVaMiG9h4vRYrzbINjSz19QjI5i_wVr71YSdoFiNKKoL1vsPR2WzcYKhuUe64KbuSjZ4qcDuzy54tw-JhzLjTPeFpyNCFcAUMDYDzbzLwQTe-vXiTj0rp7SOp3QrdGeP28tkgY_Mb4AQBgAat9KGuz-jno9wBoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ&amp;amp;sigh=MqKRTlCXQog&amp;amp;cid=CAQShgEA1BOcpjjAdkvdtEkbDaFssP48sTc4BDTaODT18EIxN7RaTSEjc8Re0SFYUPuvV3gwI99ow4ZavtJ3ah5nNWumqmMxzOm4xw9WUK4On4hA6lhM-IGOGNwGII-_TCrbGf6jdzQ3D0-tx58Rzm23DVgwL8ZcimPxFMi9S0AP3Vo_64LUX9cPyA" data-jcp-gws-id="0fATZPuGAuXC18cPuc-iiAw" data-jcp-qem-id="CJmkyaqU4v0CFSHz9QId-40JYQ"&gt;&lt;/script&gt;&lt;script data-jc="23" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/qs_click_protection.js" data-jc-version="r20230315"&gt;&lt;/script&gt;&lt;script&gt;googqscp.init([[[[null,1500,99,2,4,null,null,null,1],[null,500,99,2,9,null,null,null,1]]]]);&lt;/script&gt;&lt;div style="bottom:0;right:0;width:320px;height:50px;background:initial !important;position:absolute !important;max-width:100% !important;max-height:100% !important;pointer-events:none !important;image-rendering:pixelated !important;background-repeat:no-repeat !important;z-index:2147483647;background-image:url(\'data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAQ4AAAAyBAMAAABfUCj0AAAABlBMVEUAAAD+AciWmZzWAAAAAnRSTlMAApidrBQAAAE7SURBVFjD7VbRDgMhCKt/wP9/7XZCAe/2uCbLgiZGdw3poGiBHxnLx97UyXwAXK6hhL6Pm45d0/K0nOM1rzhxUkLXprx8kyfblHcEM56UUOTHQrQ4FazHUUCTuefrztxTe/uTAmjThxmelVwe61Z0AZRaTt6HspN3bwIFtLewc3/29Ydu/z40eDNVPhG8mVWfSij4M/W9d4xAfe+dFnqq2r8Ap6p3EC20CmjMl7UCMmlRTinUK+k3S7a9JzQuoWx7HfSpa9bz0PWq9Img2emxlnao7aylElr3KdhR1u46sPlCZzpoe3uQ5PszhSSvhLaPwd6ThbqVY1laaDFPq3AwT6sAKbT7MT6PVpVMmwA1tCmb4jmVTZ2ZFIrx6+PXx6+PXx+/Pn59/Pr49fHr49fHr49fH78+fv0P/PoLZKJsueNvIuoAAAAASUVORK5CYII=\') !important;"&gt;&lt;/div&gt;&lt;script id="googleOmidDisplayScript" src="https://www.googletagservices.com/activeview/js/current/lidar.js?cache=r20110914"&gt;&lt;/script&gt;&lt;script data-jc="28" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ var e=this||self;function f(b,a,c){return b.call.apply(b.bind,arguments)}function g(b,a,c){if(!b)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var k=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(k,d);return b.apply(a,k)}}return function(){return b.apply(a,arguments)}}function h(b,a,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?h=f:h=g;return h.apply(null,arguments)};var l,m;a:{for(var n=["CLOSURE_FLAGS"],p=e,q=0;q&lt;n.length;q++)if(p=p[n[q]],null==p){m=null;break a}m=p}var r=m&amp;&amp;m[610401301];l=null!=r?r:!1;var t,u=e.navigator;t=u?u.userAgentData||null:null;function v(b){return l?t?t.brands.some(function(a){return(a=a.brand)&amp;&amp;-1!=a.indexOf(b)}):!1:!1}function w(b){var a;a:{if(a=e.navigator)if(a=a.userAgent)break a;a=""}return-1!=a.indexOf(b)};function x(){return l?!!t&amp;&amp;0&lt;t.brands.length:!1}function y(){return x()?v("Chromium"):(w("Chrome")||w("CriOS"))&amp;&amp;!(x()?0:w("Edge"))||w("Silk")};!w("Android")||y();y();w("Safari")&amp;&amp;(y()||(x()?0:w("Coast"))||(x()?0:w("Opera"))||(x()?0:w("Edge"))||(x()?v("Microsoft Edge"):w("Edg/"))||x()&amp;&amp;v("Opera"));function z(b){this.h=null;var a={top:10,right:10,bottom:10,left:10};b&amp;&amp;(b=b.split(","),4!=b.length||isNaN(b[0])||isNaN(b[1])||isNaN(b[2])||isNaN(b[3])||(a.top=+b[0],a.right=+b[1],a.bottom=+b[2],a.left=+b[3]));this.g=a} z.prototype.i=function(b){for(var a=!1,c=b.target;c;c=c.parentNode)if("abgc"==c.id){a=!0;break}if(!a){var d=this.h.getBoundingClientRect();a=d.width;c=d.height;var k=b.clientX-d.left;d=b.clientY-d.top;a="number"!==typeof a||"number"!==typeof c||"number"!==typeof b.clientX||"number"!==typeof b.clientY||0&gt;=a||0&gt;=c||0&gt;k||0&gt;d?!0:k&gt;=this.g.left&amp;&amp;a-k&gt;=this.g.right&amp;&amp;d&gt;=this.g.top&amp;&amp;c-d&gt;=this.g.bottom}a||(b.preventDefault?b.preventDefault():b.returnValue=!1)};function A(b,a){a||(a="");a=new z(a);a.h=b;b=a.h;var c=h(a.i,a);b.addEventListener&amp;&amp;b.addEventListener("click",c,!1);return a}var B=["googleInitIc"],C=e;B[0]in C||"undefined"==typeof C.execScript||C.execScript("var "+B[0]);for(var D;B.length&amp;&amp;(D=B.shift());)B.length||void 0===A?C[D]&amp;&amp;C[D]!==Object.prototype[D]?C=C[D]:C=C[D]={}:C[D]=A;}).call(this);&lt;/script&gt;&lt;script&gt;googleInitIc(document.body,\'10,10,10,10\');&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omid_session_bin.js"&gt;&lt;/script&gt;&lt;script type="text/javascript"&gt;(function() {var omidSession = new OmidCreativeSession([]);})();&lt;/script&gt;&lt;/body&gt;&lt;/html&gt;', 'size': 32050, 'mimeType': 'text/html; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '{"ads":{"m320x50p49":{"b":"JITA6zlsjXLURsHMztvk9HIAAAGG7eS7TAEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICCCynZl","crid":"420404073","kvp":{"amznrdr":["default"],"amznp":["1b3s3k0"],"dc":["iad"]},"sz":"320x50","i":"https://aax-us-east.amazon-adsystem.com/e/msdk/imp?b=JITA6zlsjXLURsHMztvk9HIAAAGG7eS7TAEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICCCynZl&amp;ps=m320x50p49"}},"instrPixelURL":"https://aax-us-east.amazon-adsystem.com/x/px/RITA6zlsjXLURsHMztvk9HIAAAGG7eS6fgEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICCCynZl/","errorCode":"200","request_id":"hMDrOWyNctRGwczO2-T0cg","status":"ok"}\n', 'size': 601, 'mimeType': 'text/javascript;charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '&lt;!doctype html&gt;&lt;html&gt;&lt;head&gt;&lt;meta name="viewport" content="width=320, initial-scale=1.0, minimum-scale=1.0, maximum-scale=1.0, user-scalable=no"&gt;&lt;script&gt;var jscVersion = \'r20230315\';&lt;/script&gt;&lt;script&gt;var google_casm=["afma-sdk-i-v8.11.0"];&lt;/script&gt;&lt;script data-jc="84" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ function aa(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}}var m="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a}; function ba(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("Cannot find global object");}var ca=ba(this);function p(a,b){if(b)a:{var c=ca;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;m(c,a,{configurable:!0,writable:!0,value:b})}} p("Symbol",function(a){function b(f){if(this instanceof b)throw new TypeError("Symbol is not a constructor");return new c(d+(f||"")+"_"+e++,f)}function c(f,l){this.g=f;m(this,"description",{configurable:!0,writable:!0,value:l})}if(a)return a;c.prototype.toString=function(){return this.g};var d="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",e=0;return b}); p("Symbol.iterator",function(a){if(a)return a;a=Symbol("Symbol.iterator");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=ca[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;m(d.prototype,a,{configurable:!0,writable:!0,value:function(){return da(aa(this))}})}return a});function da(a){a={next:a};a[Symbol.iterator]=function(){return this};return a} function q(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];if(b)return b.call(a);if("number"==typeof a.length)return{next:aa(a)};throw Error(String(a)+" is not an iterable or ArrayLike");}var ea="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},r; if("function"==typeof Object.setPrototypeOf)r=Object.setPrototypeOf;else{var t;a:{var fa={a:!0},ha={};try{ha.__proto__=fa;t=ha.a;break a}catch(a){}t=!1}r=t?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ia=r; function u(a,b){a.prototype=ea(b.prototype);a.prototype.constructor=a;if(ia)ia(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.A=b.prototype}function v(a,b){return Object.prototype.hasOwnProperty.call(a,b)} p("WeakMap",function(a){function b(h){this.g=(g+=Math.random()+1).toString();if(h){h=q(h);for(var k;!(k=h.next()).done;)k=k.value,this.set(k[0],k[1])}}function c(){}function d(h){var k=typeof h;return"object"===k&amp;&amp;null!==h||"function"===k}function e(h){if(!v(h,l)){var k=new c;m(h,l,{value:k})}}function f(h){var k=Object[h];k&amp;&amp;(Object[h]=function(n){if(n instanceof c)return n;Object.isExtensible(n)&amp;&amp;e(n);return k(n)})}if(function(){if(!a||!Object.seal)return!1;try{var h=Object.seal({}),k=Object.seal({}), n=new a([[h,2],[k,3]]);if(2!=n.get(h)||3!=n.get(k))return!1;n.delete(h);n.set(k,4);return!n.has(h)&amp;&amp;4==n.get(k)}catch(A){return!1}}())return a;var l="$jscomp_hidden_"+Math.random();f("freeze");f("preventExtensions");f("seal");var g=0;b.prototype.set=function(h,k){if(!d(h))throw Error("Invalid WeakMap key");e(h);if(!v(h,l))throw Error("WeakMap key fail: "+h);h[l][this.g]=k;return this};b.prototype.get=function(h){return d(h)&amp;&amp;v(h,l)?h[l][this.g]:void 0};b.prototype.has=function(h){return d(h)&amp;&amp;v(h, l)&amp;&amp;v(h[l],this.g)};b.prototype.delete=function(h){return d(h)&amp;&amp;v(h,l)&amp;&amp;v(h[l],this.g)?delete h[l][this.g]:!1};return b}); p("Map",function(a){function b(){var g={};return g.s=g.next=g.head=g}function c(g,h){var k=g.g;return da(function(){if(k){for(;k.head!=g.g;)k=k.s;for(;k.next!=k.head;)return k=k.next,{done:!1,value:h(k)};k=null}return{done:!0,value:void 0}})}function d(g,h){var k=h&amp;&amp;typeof h;"object"==k||"function"==k?f.has(h)?k=f.get(h):(k=""+ ++l,f.set(h,k)):k="p_"+h;var n=g.i[k];if(n&amp;&amp;v(g.i,k))for(g=0;g&lt;n.length;g++){var A=n[g];if(h!==h&amp;&amp;A.key!==A.key||h===A.key)return{id:k,list:n,index:g,l:A}}return{id:k,list:n, index:-1,l:void 0}}function e(g){this.i={};this.g=b();this.size=0;if(g){g=q(g);for(var h;!(h=g.next()).done;)h=h.value,this.set(h[0],h[1])}}if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var g=Object.seal({x:4}),h=new a(q([[g,"s"]]));if("s"!=h.get(g)||1!=h.size||h.get({x:4})||h.set({x:4},"t")!=h||2!=h.size)return!1;var k=h.entries(),n=k.next();if(n.done||n.value[0]!=g||"s"!=n.value[1])return!1;n=k.next();return n.done||4!=n.value[0].x|| "t"!=n.value[1]||!k.next().done?!1:!0}catch(A){return!1}}())return a;var f=new WeakMap;e.prototype.set=function(g,h){g=0===g?0:g;var k=d(this,g);k.list||(k.list=this.i[k.id]=[]);k.l?k.l.value=h:(k.l={next:this.g,s:this.g.s,head:this.g,key:g,value:h},k.list.push(k.l),this.g.s.next=k.l,this.g.s=k.l,this.size++);return this};e.prototype.delete=function(g){g=d(this,g);return g.l&amp;&amp;g.list?(g.list.splice(g.index,1),g.list.length||delete this.i[g.id],g.l.s.next=g.l.next,g.l.next.s=g.l.s,g.l.head=null,this.size--, !0):!1};e.prototype.clear=function(){this.i={};this.g=this.g.s=b();this.size=0};e.prototype.has=function(g){return!!d(this,g).l};e.prototype.get=function(g){return(g=d(this,g).l)&amp;&amp;g.value};e.prototype.entries=function(){return c(this,function(g){return[g.key,g.value]})};e.prototype.keys=function(){return c(this,function(g){return g.key})};e.prototype.values=function(){return c(this,function(g){return g.value})};e.prototype.forEach=function(g,h){for(var k=this.entries(),n;!(n=k.next()).done;)n=n.value, g.call(h,n[1],n[0],this)};e.prototype[Symbol.iterator]=e.prototype.entries;var l=0;return e});function ja(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e}p("Array.prototype.entries",function(a){return a?a:function(){return ja(this,function(b,c){return[b,c]})}}); p("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)v(b,d)&amp;&amp;c.push([d,b[d]]);return c}});p("Array.prototype.findIndex",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++)if(b.call(c,d[f],f,d)){b=f;break a}b=-1}return b}});var w=this||self; function x(a,b,c){a=a.split(".");c=c||w;a[0]in c||"undefined"==typeof c.execScript||c.execScript("var "+a[0]);for(var d;a.length&amp;&amp;(d=a.shift());)a.length||void 0===b?c[d]&amp;&amp;c[d]!==Object.prototype[d]?c=c[d]:c=c[d]={}:c[d]=b}function y(a){var b=typeof a;return"object"==b&amp;&amp;null!=a||"function"==b}function ka(a,b,c){return a.call.apply(a.bind,arguments)} function la(a,b,c){if(!a)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var e=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(e,d);return a.apply(b,e)}}return function(){return a.apply(b,arguments)}}function z(a,b,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?z=ka:z=la;return z.apply(null,arguments)} function ma(a,b){var c=Array.prototype.slice.call(arguments,1);return function(){var d=c.slice();d.push.apply(d,arguments);return a.apply(this,d)}}function B(a,b){function c(){}c.prototype=b.prototype;a.A=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.L=function(d,e,f){for(var l=Array(arguments.length-2),g=2;g&lt;arguments.length;g++)l[g-2]=arguments[g];return b.prototype[e].apply(d,l)}}function C(a){return a};var na=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1};function D(){var a=w.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};function E(a){E[" "](a);return a}E[" "]=function(){};var oa=-1!=D().indexOf("Gecko")&amp;&amp;!(-1!=D().toLowerCase().indexOf("webkit")&amp;&amp;-1==D().indexOf("Edge"))&amp;&amp;!(-1!=D().indexOf("Trident")||-1!=D().indexOf("MSIE"))&amp;&amp;-1==D().indexOf("Edge");function pa(a,b,c){for(var d in a)b.call(c,a[d],d,a)}function qa(a){var b={},c;for(c in a)b[c]=a[c];return b}var ra="constructor hasOwnProperty isPrototypeOf propertyIsEnumerable toLocaleString toString valueOf".split(" ");function sa(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;ra.length;f++)c=ra[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};var F;function G(a,b){this.g=b===ta?a:""}G.prototype.toString=function(){return this.g+""};function ua(a){return a instanceof G&amp;&amp;a.constructor===G?a.g:"type_error:TrustedResourceUrl"}var ta={};function va(a){if(void 0===F){var b=null;var c=w.trustedTypes;if(c&amp;&amp;c.createPolicy){try{b=c.createPolicy("goog#html",{createHTML:C,createScript:C,createScriptURL:C})}catch(d){w.console&amp;&amp;w.console.error(d.message)}F=b}else F=b}a=(b=F)?b.createScriptURL(a):a;return new G(a,ta)};function wa(a){return a&amp;&amp;a.parentNode?a.parentNode.removeChild(a):null};function xa(a){a&amp;&amp;"function"==typeof a.I&amp;&amp;a.I()};function H(){this.u=this.u;this.o=this.o}H.prototype.u=!1;H.prototype.I=function(){this.u||(this.u=!0,this.i())};H.prototype.i=function(){if(this.o)for(;this.o.length;)this.o.shift()()};function I(a,b){this.type=a;this.g=this.target=b;this.defaultPrevented=!1}I.prototype.i=function(){this.defaultPrevented=!0};function J(a,b){this.messageName=a;this.parameters=b||{}}function ya(a,b){I.call(this,a.messageName,b);this.params=a.parameters||{}}u(ya,I);var za=-1!=(w.navigator?w.navigator.userAgent:"").indexOf("Android");/*  SPDX-License-Identifier: Apache-2.0 */ function Aa(a,b){var c=ua(a).toString();if(/#/.test(c))throw Error("");var d=/\\?/.test(c)?"&amp;":"?";b.forEach(function(e,f){e=e instanceof Array?e:[e];for(var l=0;l&lt;e.length;l++){var g=e[l];null!==g&amp;&amp;void 0!==g&amp;&amp;(c+=d+encodeURIComponent(f)+"="+encodeURIComponent(String(g)),d="&amp;")}});return va(c)};function Ba(a){var b=va("gmsg://mobileads.google.com/"+a.messageName);return Aa(b,new Map(Object.entries(a.parameters)))};var Ca=function(){if(!w.addEventListener||!Object.defineProperty)return!1;var a=!1,b=Object.defineProperty({},"passive",{get:function(){a=!0}});try{w.addEventListener("test",function(){},b),w.removeEventListener("test",function(){},b)}catch(c){}return a}();function K(a,b){I.call(this,a?a.type:"");this.relatedTarget=this.g=this.target=null;this.button=this.screenY=this.screenX=this.clientY=this.clientX=0;this.key="";this.metaKey=this.shiftKey=this.altKey=this.ctrlKey=!1;this.state=null;this.pointerId=0;this.pointerType="";this.h=null;if(a){var c=this.type=a.type,d=a.changedTouches&amp;&amp;a.changedTouches.length?a.changedTouches[0]:null;this.target=a.target||a.srcElement;this.g=b;if(b=a.relatedTarget){if(oa){a:{try{E(b.nodeName);var e=!0;break a}catch(f){}e= !1}e||(b=null)}}else"mouseover"==c?b=a.fromElement:"mouseout"==c&amp;&amp;(b=a.toElement);this.relatedTarget=b;d?(this.clientX=void 0!==d.clientX?d.clientX:d.pageX,this.clientY=void 0!==d.clientY?d.clientY:d.pageY,this.screenX=d.screenX||0,this.screenY=d.screenY||0):(this.clientX=void 0!==a.clientX?a.clientX:a.pageX,this.clientY=void 0!==a.clientY?a.clientY:a.pageY,this.screenX=a.screenX||0,this.screenY=a.screenY||0);this.button=a.button;this.key=a.key||"";this.ctrlKey=a.ctrlKey;this.altKey=a.altKey;this.shiftKey= a.shiftKey;this.metaKey=a.metaKey;this.pointerId=a.pointerId||0;this.pointerType="string"===typeof a.pointerType?a.pointerType:Da[a.pointerType]||"";this.state=a.state;this.h=a;a.defaultPrevented&amp;&amp;K.A.i.call(this)}}B(K,I);var Da={2:"touch",3:"pen",4:"mouse"};K.prototype.i=function(){K.A.i.call(this);var a=this.h;a.preventDefault?a.preventDefault():a.returnValue=!1};var L="closure_listenable_"+(1E6*Math.random()|0);var Ea=0;function Fa(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.G=e;this.key=++Ea;this.B=this.F=!1}function M(a){a.B=!0;a.listener=null;a.proxy=null;a.src=null;a.G=null};function N(a){this.src=a;this.g={};this.i=0}N.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.i++);var l=O(a,b,d,e);-1&lt;l?(b=a[l],c||(b.F=!1)):(b=new Fa(b,this.src,f,!!d,e),b.F=c,a.push(b));return b};function Ga(a,b,c,d,e){b=b.toString();if(b in a.g){var f=a.g[b];c=O(f,c,d,e);-1&lt;c&amp;&amp;(M(f[c]),Array.prototype.splice.call(f,c,1),0==f.length&amp;&amp;(delete a.g[b],a.i--))}} function P(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=na(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(M(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.i--))}}function O(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.B&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.G==d)return e}return-1};var Q="closure_lm_"+(1E6*Math.random()|0),Ha={},Ia=0;function Ja(a,b,c,d,e){if(d&amp;&amp;d.once)return R(a,b,c,d,e);if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)Ja(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!1,y(d)?!!d.capture:!!d,e):La(a,b,c,!1,d,e)} function La(a,b,c,d,e,f){if(!b)throw Error("Invalid event type");var l=y(e)?!!e.capture:!!e,g=Ma(a);g||(a[Q]=g=new N(a));c=g.add(b,c,d,l,f);if(c.proxy)return c;d=Na();c.proxy=d;d.src=a;d.listener=c;if(a.addEventListener)Ca||(e=l),void 0===e&amp;&amp;(e=!1),a.addEventListener(b.toString(),d,e);else if(a.attachEvent)a.attachEvent(Oa(b.toString()),d);else if(a.addListener&amp;&amp;a.removeListener)a.addListener(d);else throw Error("addEventListener and attachEvent are unavailable.");Ia++;return c} function Na(){function a(c){return b.call(a.src,a.listener,c)}var b=Pa;return a}function R(a,b,c,d,e){if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)R(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!0,y(d)?!!d.capture:!!d,e):La(a,b,c,!0,d,e)} function Qa(a,b,c,d,e){if(Array.isArray(b))for(var f=0;f&lt;b.length;f++)Qa(a,b[f],c,d,e);else(d=y(d)?!!d.capture:!!d,c=Ka(c),a&amp;&amp;a[L])?Ga(a.g,String(b),c,d,e):a&amp;&amp;(a=Ma(a))&amp;&amp;(b=a.g[b.toString()],a=-1,b&amp;&amp;(a=O(b,c,d,e)),(c=-1&lt;a?b[a]:null)&amp;&amp;Ra(c))} function Ra(a){if("number"!==typeof a&amp;&amp;a&amp;&amp;!a.B){var b=a.src;if(b&amp;&amp;b[L])P(b.g,a);else{var c=a.type,d=a.proxy;b.removeEventListener?b.removeEventListener(c,d,a.capture):b.detachEvent?b.detachEvent(Oa(c),d):b.addListener&amp;&amp;b.removeListener&amp;&amp;b.removeListener(d);Ia--;(c=Ma(b))?(P(c,a),0==c.i&amp;&amp;(c.src=null,b[Q]=null)):M(a)}}}function Oa(a){return a in Ha?Ha[a]:Ha[a]="on"+a}function Pa(a,b){if(a.B)a=!0;else{b=new K(b,this);var c=a.listener,d=a.G||a.src;a.F&amp;&amp;Ra(a);a=c.call(d,b)}return a} function Ma(a){a=a[Q];return a instanceof N?a:null}var Sa="__closure_events_fn_"+(1E9*Math.random()&gt;&gt;&gt;0);function Ka(a){if("function"===typeof a)return a;a[Sa]||(a[Sa]=function(b){return a.handleEvent(b)});return a[Sa]};function S(a){H.call(this);this.h=a;this.g={}}B(S,H);var Ta=[];function Ua(a){pa(a.g,function(b,c){this.g.hasOwnProperty(c)&amp;&amp;Ra(b)},a);a.g={}}S.prototype.i=function(){S.A.i.call(this);Ua(this)};S.prototype.handleEvent=function(){throw Error("EventHandler.handleEvent not implemented");};function T(){H.call(this);this.g=new N(this);this.J=this;this.C=null}B(T,H);T.prototype[L]=!0;T.prototype.addEventListener=function(a,b,c,d){Ja(this,a,b,c,d)};T.prototype.removeEventListener=function(a,b,c,d){Qa(this,a,b,c,d)}; function Va(a,b){var c,d=a.C;if(d)for(c=[];d;d=d.C)c.push(d);a=a.J;d=b.type||b;if("string"===typeof b)b=new I(b,a);else if(b instanceof I)b.target=b.target||a;else{var e=b;b=new I(d,a);sa(b,e)}e=!0;if(c)for(var f=c.length-1;0&lt;=f;f--){var l=b.g=c[f];e=U(l,d,!0,b)&amp;&amp;e}l=b.g=a;e=U(l,d,!0,b)&amp;&amp;e;e=U(l,d,!1,b)&amp;&amp;e;if(c)for(f=0;f&lt;c.length;f++)l=b.g=c[f],e=U(l,d,!1,b)&amp;&amp;e} T.prototype.i=function(){T.A.i.call(this);if(this.g){var a=this.g,b=0,c;for(c in a.g){for(var d=a.g[c],e=0;e&lt;d.length;e++)++b,M(d[e]);delete a.g[c];a.i--}}this.C=null};function U(a,b,c,d){b=a.g.g[String(b)];if(!b)return!0;b=b.concat();for(var e=!0,f=0;f&lt;b.length;++f){var l=b[f];if(l&amp;&amp;!l.B&amp;&amp;l.capture==c){var g=l.listener,h=l.G||l.src;l.F&amp;&amp;P(a.g,l);e=!1!==g.call(h,d)&amp;&amp;e}}return e&amp;&amp;!d.defaultPrevented};function V(a,b){T.call(this);this.v=a||1;this.m=b||w;this.H=z(this.K,this);this.D=Date.now()}B(V,T);V.prototype.j=!1;V.prototype.h=null;V.prototype.K=function(){if(this.j){var a=Date.now()-this.D;0&lt;a&amp;&amp;a&lt;.8*this.v?this.h=this.m.setTimeout(this.H,this.v-a):(this.h&amp;&amp;(this.m.clearTimeout(this.h),this.h=null),Va(this,"tick"),this.j&amp;&amp;(Wa(this),this.start()))}};V.prototype.start=function(){this.j=!0;this.h||(this.h=this.m.setTimeout(this.H,this.v),this.D=Date.now())}; function Wa(a){a.j=!1;a.h&amp;&amp;(a.m.clearTimeout(a.h),a.h=null)}V.prototype.i=function(){V.A.i.call(this);Wa(this);delete this.m};function Xa(){if(window.googleJsEnvironment&amp;&amp;("rhino"==window.googleJsEnvironment.environment||"jscore"==window.googleJsEnvironment.environment))return new W;if(za&amp;&amp;window.googleAdsJsInterface&amp;&amp;"notify"in window.googleAdsJsInterface)try{return window.googleAdsJsInterface.notify("gmsg://mobileads.google.com/noop"),new W}catch(a){}else if(window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler)return new Ya;return new Za}function $a(){ab||(ab=Xa());return ab} var ab=null;function X(){H.call(this)}u(X,H);function bb(a){var b=qa(a.parameters);b["google.afma.Notify_dt"]=(new Date).getTime();return Ba(new J(a.messageName,b)).toString()}function Y(a,b){H.call(this);this.v=a;this.C=b||1;this.m=[];this.j=new V(this.C);a=this.H=new S(this);b=this.j;var c=this.D,d="tick";Array.isArray(d)||(d&amp;&amp;(Ta[0]=d.toString()),d=Ta);for(var e=0;e&lt;d.length;e++){var f=Ja(b,d[e],c||a.handleEvent,!1,a.h||a);if(!f)break;a.g[f.key]=f}}u(Y,X); Y.prototype.sendMessage=function(a){this.m.push(a);this.j.j||(a=this.m.shift(),this.v(a),this.j.start())};Y.prototype.D=function(){var a=this.m.shift();a?this.v(a):Wa(this.j)}; function Za(){Y.call(this,function(b){var c=a.g[a.h];if(!c){var d=document;c="IFRAME";"application/xhtml+xml"===d.contentType&amp;&amp;(c=c.toLowerCase());c=d.createElement(c);c.id="afma-notify-"+(new Date).getTime();c.style.display="none";a.g[a.h]=c}a.h=(a.h+1)%25;d=qa(b.parameters);d["google.afma.Notify_dt"]=(new Date).getTime();b=Ba(new J(b.messageName,d));c.src=ua(b).toString();c.parentNode||document.body.appendChild(c)});var a=this;this.g=[];this.h=0}u(Za,Y); Za.prototype.i=function(){this.g.forEach(wa);this.g=[];Y.prototype.i.call(this)};function W(){H.call(this)}u(W,X);W.prototype.sendMessage=function(a){a=bb(a);window.googleAdsJsInterface&amp;&amp;window.googleAdsJsInterface.notify&amp;&amp;(window.googleAdsJsInterface.notify(a),window.googleAdsJsInterface.DEBUG&amp;&amp;console.log(a))};function Ya(){H.call(this)}u(Ya,X);Ya.prototype.sendMessage=function(a){a=bb(a);window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler.postMessage(a)};/*  Math.uuid.js (v1.4) http://www.broofa.com mailto:robert@broofa.com Copyright (c) 2010 Robert Kieffer Dual licensed under the MIT and GPL licenses. */ var cb="0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz".split("");function db(a){for(var b=Array(36),c=0,d,e=0;36&gt;e;e++)8==e||13==e||18==e||23==e?b[e]="-":14==e?b[e]="4":(2&gt;=c&amp;&amp;(c=33554432+16777216*Math.random()|0),d=c&amp;15,c&gt;&gt;=4,b[e]=cb[19==e?d&amp;3|8:d]);this.uuid=b.join("");this.callback=a} function eb(a){var b=w.imalib_globalCallbacks||new Map,c=b.get("AFMA_updateActiveView")||[];if(0===c.length&amp;&amp;w.AFMA_updateActiveView){var d=new db(w.AFMA_updateActiveView);c.push(d);w.AFMA_updateActiveView=void 0}w.AFMA_updateActiveView||(w.AFMA_updateActiveView=function(){var e=b.get("AFMA_updateActiveView");e=q(e);for(var f=e.next();!f.done;f=e.next())f.value.callback.apply(null,arguments)});a=new db(a);c.push(a);b.set("AFMA_updateActiveView",c);w.imalib_globalCallbacks=b;return a.uuid} function fb(a){if(w.AFMA_updateActiveView){var b=w.imalib_globalCallbacks;if(b){var c=b.get("AFMA_updateActiveView");if(c){var d=c.findIndex(function(e){return e.uuid===a});-1!==d&amp;&amp;(c.splice(d,1),0===c.length&amp;&amp;(w.AFMA_updateActiveView=void 0),b.set("AFMA_updateActiveView",c),w.imalib_globalCallbacks=b)}}}};function gb(){var a=this;this.o=[];this.h=window===window.top;this.j=!1;this.g=0;this.i=null;"undefined"!==typeof window.addEventListener&amp;&amp;window.addEventListener("message",function(b){return hb(a,b)})} function hb(a,b){var c=b.data;if((b=b.source)&amp;&amp;c){var d=a.o;if("arwebview_iframe_loaded"===c&amp;&amp;a.h)x("JavascriptWebViewBridge.incoming.postMessage",a.u.bind(a),w),-1===d.indexOf(b)&amp;&amp;d.push(b);else{var e=c.messageName;c=c.parameters;if(a.h)switch(e){case "mraid_loaded":!1===c.is_top_win&amp;&amp;(a.j=!0,a.i=eb(function(f){a.h&amp;&amp;ib(a,new J("update_activeview_action",f))}),-1===d.indexOf(b)&amp;&amp;(d.push(b),"undefined"!==typeof b.postMessage&amp;&amp;b.postMessage(new J("mraid_env_obj",window.MRAID_ENV),"*")));break;case "start_tracking_action":0== a.g&amp;&amp;window.AFMA_SendMessage("trackActiveViewUnit");a.g+=1;break;case "stop_tracking_action":--a.g,0==a.g&amp;&amp;(window.AFMA_SendMessage("untrackActiveViewUnit",{hashCode:c.hashCode}),a.i&amp;&amp;(fb(a.i),a.i=null))}else switch(e){case "mraid_env_obj":window.MRAID_ENV=c;break;case "update_activeview_action":window.AFMA_updateActiveView&amp;&amp;window.AFMA_updateActiveView(c);break;case "receive_message_action":window.AFMA_ReceiveMessage(c.messageName,c.parameters)}}}} gb.prototype.u=function(a){this.h&amp;&amp;ib(this,{name:"arwebview_message_forwarded",message:a})};function ib(a,b){a.o.forEach(function(c){return c.postMessage(b,"*")})};function Z(){T.call(this);this.j=$a();this.j=$a();var a=ma(xa,this.j);this.u?a():(this.o||(this.o=[]),this.o.push(a));this.h={};this.m=new gb}u(Z,T);Z.prototype.sendMessage=function(a,b){var c=this,d;"string"===typeof a?d=new J(a,b):a instanceof J&amp;&amp;(d=a);"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return c.j.sendMessage(d)},!1,this):this.j.sendMessage(d)}; Z.prototype.receiveMessage=function(a,b){if(this.shouldForwardMessageToIframe())this.forwardMessage(new J("receive_message_action",new J(a,b)));else{var c=document.getElementById("ad_iframe");void 0!=c&amp;&amp;void 0!=c.contentWindow&amp;&amp;void 0!=c.contentWindow.AFMA_ReceiveMessage&amp;&amp;c.contentWindow.AFMA_ReceiveMessage(a,b)}"onshow"==a&amp;&amp;"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return jb(a,null!=b?b:void 0)}):Va(this,new ya(new J(a,b),this))}; Z.prototype.addObserver=function(a,b,c){function d(e){return void c.call(b,e.type,e.params)}this.g.add(String(a),d,!1,void 0,void 0);this.h[a]||(this.h[a]={});this.h[a][b]=d};Z.prototype.removeObserver=function(a,b){this.h[a]&amp;&amp;this.h[a][b]&amp;&amp;(Ga(this.g,String(a),this.h[a][b]),delete this.h[a][b])};Z.prototype.shouldForwardMessageToIframe=function(){return this.m.j};Z.prototype.forwardMessage=function(a){ib(this.m,a)}; function kb(a,b){w.AFMA_Communicator?w.AFMA_Communicator.sendMessage(a,b):lb(a,b)}function lb(a,b){"loading"==document.readyState?(a=z(lb,null,a,b),R(w,"DOMContentLoaded",a,!1)):(a=new J(a,b),$a().sendMessage(a))}function jb(a,b){w.AFMA_Communicator.receiveMessage(a,b)}function mb(a,b,c,d){w.AFMA_Communicator.removeEventListener(a,b,c,d)}function nb(a,b,c,d){w.AFMA_Communicator.addEventListener(a,b,c,d)}function ob(a,b,c){w.AFMA_Communicator.addObserver(a,b,c)} function pb(a,b){w.AFMA_Communicator.removeObserver(a,b)}w.AFMA_Communicator||(x("AFMA_AddEventListener",nb,w),x("AFMA_RemoveEventListener",mb,w),x("AFMA_AddObserver",ob,w),x("AFMA_RemoveObserver",pb,w),x("AFMA_ReceiveMessage",jb,w),x("AFMA_SendMessage",kb,w),w.AFMA_Communicator=new Z);nb("onSdkImpression",function(){x("Goog_Omid_SdkImpressionReceived",!0)});nb("onSdkLoaded",function(){x("Goog_Omid_SdkLoadedReceived",!0)});}).call(this);&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omsdk-v1.js"&gt;&lt;/script&gt;&lt;/head&gt;&lt;body leftMargin="0" topMargin="0" marginwidth="0" marginheight="0"&gt;&lt;div class="GoogleActiveViewInnerContainer"style="left:0px;top:0px;width:100%;height:100%;position:fixed;pointer-events:none;z-index:-9999;"&gt;&lt;/div&gt;&lt;div style="display:inline"class="GoogleActiveViewElement"data-google-av-cxn="https://pagead2.googlesyndication.com/pcs/activeview?xai=AKAOjsvm4YgYftVkMZpD89560aRZZBoZyICDWA7fZlBCo2KDL75wCCxRNisdtnK0KKbPui4Q_is3h4FusdQ9wk7F5UAgnbLF&amp;amp;sig=Cg0ArKJSzMgJKqmOEAGYEAE"data-google-av-adk="3519121124"data-google-av-metadata="la=0&amp;amp;omid=1&amp;amp;sloi=1&amp;amp;"data-google-av-ufs-integrator-metadata=""data-google-av-override="-1"data-google-av-dm="2"data-google-av-aid="0"data-google-av-naid="1"data-google-av-inapp data-google-av-slift=""data-google-av-cpmav=""data-google-av-btr=""data-google-av-itpl="20"data-google-av-rs="9"data-google-av-flags="[&amp;quot;x%278440&amp;#39;9efotm(&amp;amp;753374%2bejvf/%27844&amp;gt;&amp;#39;9wuvb$&amp;amp;56533&amp;gt;!=|vqc)!273794&amp;amp;&amp;lt;qqvb/%&amp;lt;1735020!=nehu`/!364=5051!9abk{a($160210:3&amp;amp;&amp;lt;cbotf+*0150034:%2bejvf/%72;17613!=efdwa*&amp;#39;76463;21$?ebkpb$&amp;amp;0366717&amp;gt;*&amp;gt;bgipf+!3=712363%9aihwc)!7202&amp;lt;217&amp;#39;9efotm(&amp;amp;20061;48&amp;amp;&amp;gt;`dopb/%&amp;lt;1707200!=8(&amp;amp;2005575?&amp;amp;&amp;gt;`dopb/%&amp;lt;170642?!=|vqc)!7201;=50&amp;#39;9wuvb$&amp;amp;03641654*&amp;gt;bgipf+!3=731103%9aihwc)!7200?073&amp;#39;9efotm(&amp;amp;2004?51;&amp;amp;&amp;gt;`dopb/%&amp;lt;17&amp;gt;474&amp;gt;!=nehu`/!36406412!9abk{a($160&amp;gt;358&amp;lt;&amp;amp;&amp;lt;cbotfz&amp;quot;]"&gt;&lt;script type="text/javascript" src="https://eastads.simpli.fi/ads/3341221/30070362/ad.js?sifi=8475,3341221,30070362,0,28,0,0,0,0,389,21,v,22.46400,1.728,0,0,0,23,5AF99DBF55B9840BA87AA4044345318A,0,0,0,1270,400,1,0,0,607,0,702,bidder-base-prd-us-east4-b-e84e8789:9031-1679028436219-53725478,1,0,395291,2,0,28,12,47401,0,0.00,1,220412618550898,3848128698,0,3,137852212,1,-4,0,33,,5,355842,0,0,2,3,1100040622,8,277,4254679&amp;hash_rid=C5773E117CB367AD785907CA8AAB5264&amp;sifi_exchange_uid=CAESEM8wl2a54Ac2-mUBlncFX9Y&amp;request_id=c3b3c1de-a06a-ce98-5da9-b3533f635ba5"&gt;&lt;/script&gt;&lt;img src="https://ums.acuityplatform.com/tum?umid=21&amp;rurl=https%3A%2F%2Fs.ad.smaato.net%2Fc%2F%3FdspId%3D1001249%26dspCookie%3D___AUID___" /&gt;&lt;img src="https://match.adsrvr.org/track/cmf/generic?ttd_pid=bc2yu5z&amp;ttd_tpi=1" /&gt;&lt;/div&gt;&lt;script data-jc="22" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/window_focus.js" async data-jc-version="r20230315" data-jcp-url="https://googleads.g.doubleclick.net/pagead/interaction/?ai=C4ho71PATZPTqBurKgrAPhbuqQNG8npBc3vvt6PECwI23ARABIABgyeamiPSjwBCCAR5jYS1tYi1hcHAtcHViLTM2ODY5ODE0MDc4Mzk2NDLIAQngAgCoAwGqBJ0CT9C6TXdzCM52U-rEpt_FZGENpXQU9V7d9wdTVB-qDWruNJ94s2UbmAN1rU52Nwhk7-ycnkWPggOyGdQYeOs3Pb1YArnUSrSp1D9dS2NylzE49E3QhZ8P9Ya73XRwALNhlK6Rvat-vulbsL8F4jYazKF9fVdM5IPPR5HBbrMPKJRELD8rqYUN3LM1swyOJHARylHoWJuYxSkcuZfeG4R3y-TQaaxI-Gve0ewdiOw8Ol-Gn5s39LIkIWiVA7sHgXKCR9ZIP1RUruZhmTmOSLc7W0k0R6KJ7HouDETh7guc2R4r4V5vGEqJ1kBpzlV7w_juajL4aTQnj_u-quRvPcLhHRFJFGZCWI0sagd6phEvWoqtR1hUesBMawfAQ8gI4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ&amp;amp;sigh=P4ClTzMEOEQ&amp;amp;cid=CAQShgEA1BOcplwbmrq1FwWnXgWz8FL7-VatS7ASR-ds2hlovNotCH8bbPJtj8mGvD_W9WRGwQq60_rzO9WNj7USzxguJgpQRbans0FR1R9HJ0grjpte-koIwYf-26zWmi8NKvmh6ypLoUvmW7-3tgZjARFpXP38OcOQD8njkAiVXm4yM_0DJO-AUQ" data-jcp-gws-id="1PATZIKdBJ6rgrAP9ZCMmA4" data-jcp-qem-id="CPSkgqyU4v0CFWqlAAAdhZ0KCA"&gt;&lt;/script&gt;&lt;script data-jc="23" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/qs_click_protection.js" data-jc-version="r20230315"&gt;&lt;/script&gt;&lt;script&gt;googqscp.init([[[[null,1500,99,2,4,null,null,null,1],[null,500,99,2,9,null,null,null,1]]]]);&lt;/script&gt;&lt;div style="bottom:0;right:0;width:320px;height:50px;background:initial !important;position:absolute !important;max-width:100% !important;max-height:100% !important;pointer-events:none !important;image-rendering:pixelated !important;background-repeat:no-repeat !important;z-index:2147483647;background-image:url(\'data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAQ4AAAAyBAMAAABfUCj0AAAABlBMVEUAAAD+AciWmZzWAAAAAnRSTlMAApidrBQAAAE9SURBVFjD7VZBDsMwCDM/4P+v3QqFeGmOszRN9FCFYCESTDDwI5/lB7vWbXl+8Peul6WEIjbjf3nKsswxg6AsJTSyhaWrrcgWnlHKUkKxnI5DHMMpjgC6fIZTGMchzPehxI90bZXMKHvRBdDFbDsy209N8H0odbDndT3b+tnsAmhuEbezkn4zurgdlRRCK+eb2tXwAFG7Gl4J5fpF3nkKql/kHYGUUNQ9wfttuRZ5pbB+hsRQLGcRJlcVp0oXKx2UiI07f6Z3RtrprYBuRaRuoyLqoTxvvY+ANRkN6xFUQuvtR+sF0CRA6wWsoaGAgocx6s5YDcD6AEooKwUrCn0oBS+2KaE0E6mSPRmNKmlSaE9GY7XWk9FJ2CmhGL0+en30+uj10euj10evj14fvT56ffT66PXR66PX/0CvvwBJoGX5Iu/k9AAAAABJRU5ErkJggg==\') !important;"&gt;&lt;/div&gt;&lt;script id="googleOmidDisplayScript" src="https://www.googletagservices.com/activeview/js/current/lidar.js?cache=r20110914"&gt;&lt;/script&gt;&lt;script data-jc="28" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ var e=this||self;function f(b,a,c){return b.call.apply(b.bind,arguments)}function g(b,a,c){if(!b)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var k=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(k,d);return b.apply(a,k)}}return function(){return b.apply(a,arguments)}}function h(b,a,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?h=f:h=g;return h.apply(null,arguments)};var l,m;a:{for(var n=["CLOSURE_FLAGS"],p=e,q=0;q&lt;n.length;q++)if(p=p[n[q]],null==p){m=null;break a}m=p}var r=m&amp;&amp;m[610401301];l=null!=r?r:!1;var t,u=e.navigator;t=u?u.userAgentData||null:null;function v(b){return l?t?t.brands.some(function(a){return(a=a.brand)&amp;&amp;-1!=a.indexOf(b)}):!1:!1}function w(b){var a;a:{if(a=e.navigator)if(a=a.userAgent)break a;a=""}return-1!=a.indexOf(b)};function x(){return l?!!t&amp;&amp;0&lt;t.brands.length:!1}function y(){return x()?v("Chromium"):(w("Chrome")||w("CriOS"))&amp;&amp;!(x()?0:w("Edge"))||w("Silk")};!w("Android")||y();y();w("Safari")&amp;&amp;(y()||(x()?0:w("Coast"))||(x()?0:w("Opera"))||(x()?0:w("Edge"))||(x()?v("Microsoft Edge"):w("Edg/"))||x()&amp;&amp;v("Opera"));function z(b){this.h=null;var a={top:10,right:10,bottom:10,left:10};b&amp;&amp;(b=b.split(","),4!=b.length||isNaN(b[0])||isNaN(b[1])||isNaN(b[2])||isNaN(b[3])||(a.top=+b[0],a.right=+b[1],a.bottom=+b[2],a.left=+b[3]));this.g=a} z.prototype.i=function(b){for(var a=!1,c=b.target;c;c=c.parentNode)if("abgc"==c.id){a=!0;break}if(!a){var d=this.h.getBoundingClientRect();a=d.width;c=d.height;var k=b.clientX-d.left;d=b.clientY-d.top;a="number"!==typeof a||"number"!==typeof c||"number"!==typeof b.clientX||"number"!==typeof b.clientY||0&gt;=a||0&gt;=c||0&gt;k||0&gt;d?!0:k&gt;=this.g.left&amp;&amp;a-k&gt;=this.g.right&amp;&amp;d&gt;=this.g.top&amp;&amp;c-d&gt;=this.g.bottom}a||(b.preventDefault?b.preventDefault():b.returnValue=!1)};function A(b,a){a||(a="");a=new z(a);a.h=b;b=a.h;var c=h(a.i,a);b.addEventListener&amp;&amp;b.addEventListener("click",c,!1);return a}var B=["googleInitIc"],C=e;B[0]in C||"undefined"==typeof C.execScript||C.execScript("var "+B[0]);for(var D;B.length&amp;&amp;(D=B.shift());)B.length||void 0===A?C[D]&amp;&amp;C[D]!==Object.prototype[D]?C=C[D]:C=C[D]={}:C[D]=A;}).call(this);&lt;/script&gt;&lt;script&gt;googleInitIc(document.body,\'10,10,10,10\');&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omid_session_bin.js"&gt;&lt;/script&gt;&lt;script type="text/javascript"&gt;(function() {var omidSession = new OmidCreativeSession([]);})();&lt;/script&gt;&lt;/body&gt;&lt;/html&gt;', 'size': 31308, 'mimeType': 'text/html; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '{"ads":{"m300x250p120":{"b":"JPL4dg17ZZRLlDbz7M3lWGoAAAGG7eTS0gEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICB85PbR","crid":"4945_84215_525451_ssl","kvp":{"amznrdr":["default"],"amznp":["16nylfk"],"dc":["iad"]},"sz":"300x250","i":"https://aax-us-east.amazon-adsystem.com/e/msdk/imp?b=JPL4dg17ZZRLlDbz7M3lWGoAAAGG7eTS0gEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICB85PbR&amp;ps=m300x250p120"}},"instrPixelURL":"https://aax-us-east.amazon-adsystem.com/x/px/RPL4dg17ZZRLlDbz7M3lWGoAAAGG7eTSEQEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICB85PbR/","errorCode":"200","request_id":"8vh2DXtllEuUNvPszeVYag","status":"ok"}\n', 'size': 618, 'mimeType': 'text/javascript;charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '&lt;!doctype html&gt;&lt;html&gt;&lt;head&gt;&lt;meta name="viewport" content="width=300, initial-scale=1.0, minimum-scale=1.0, maximum-scale=1.0, user-scalable=no"&gt;&lt;script&gt;var jscVersion = \'r20230315\';&lt;/script&gt;&lt;script&gt;var google_casm=["afma-sdk-i-v8.11.0"];&lt;/script&gt;&lt;script data-jc="84" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ function aa(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}}var m="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a}; function ba(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("Cannot find global object");}var ca=ba(this);function p(a,b){if(b)a:{var c=ca;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;m(c,a,{configurable:!0,writable:!0,value:b})}} p("Symbol",function(a){function b(f){if(this instanceof b)throw new TypeError("Symbol is not a constructor");return new c(d+(f||"")+"_"+e++,f)}function c(f,l){this.g=f;m(this,"description",{configurable:!0,writable:!0,value:l})}if(a)return a;c.prototype.toString=function(){return this.g};var d="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",e=0;return b}); p("Symbol.iterator",function(a){if(a)return a;a=Symbol("Symbol.iterator");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=ca[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;m(d.prototype,a,{configurable:!0,writable:!0,value:function(){return da(aa(this))}})}return a});function da(a){a={next:a};a[Symbol.iterator]=function(){return this};return a} function q(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];if(b)return b.call(a);if("number"==typeof a.length)return{next:aa(a)};throw Error(String(a)+" is not an iterable or ArrayLike");}var ea="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},r; if("function"==typeof Object.setPrototypeOf)r=Object.setPrototypeOf;else{var t;a:{var fa={a:!0},ha={};try{ha.__proto__=fa;t=ha.a;break a}catch(a){}t=!1}r=t?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ia=r; function u(a,b){a.prototype=ea(b.prototype);a.prototype.constructor=a;if(ia)ia(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.A=b.prototype}function v(a,b){return Object.prototype.hasOwnProperty.call(a,b)} p("WeakMap",function(a){function b(h){this.g=(g+=Math.random()+1).toString();if(h){h=q(h);for(var k;!(k=h.next()).done;)k=k.value,this.set(k[0],k[1])}}function c(){}function d(h){var k=typeof h;return"object"===k&amp;&amp;null!==h||"function"===k}function e(h){if(!v(h,l)){var k=new c;m(h,l,{value:k})}}function f(h){var k=Object[h];k&amp;&amp;(Object[h]=function(n){if(n instanceof c)return n;Object.isExtensible(n)&amp;&amp;e(n);return k(n)})}if(function(){if(!a||!Object.seal)return!1;try{var h=Object.seal({}),k=Object.seal({}), n=new a([[h,2],[k,3]]);if(2!=n.get(h)||3!=n.get(k))return!1;n.delete(h);n.set(k,4);return!n.has(h)&amp;&amp;4==n.get(k)}catch(A){return!1}}())return a;var l="$jscomp_hidden_"+Math.random();f("freeze");f("preventExtensions");f("seal");var g=0;b.prototype.set=function(h,k){if(!d(h))throw Error("Invalid WeakMap key");e(h);if(!v(h,l))throw Error("WeakMap key fail: "+h);h[l][this.g]=k;return this};b.prototype.get=function(h){return d(h)&amp;&amp;v(h,l)?h[l][this.g]:void 0};b.prototype.has=function(h){return d(h)&amp;&amp;v(h, l)&amp;&amp;v(h[l],this.g)};b.prototype.delete=function(h){return d(h)&amp;&amp;v(h,l)&amp;&amp;v(h[l],this.g)?delete h[l][this.g]:!1};return b}); p("Map",function(a){function b(){var g={};return g.s=g.next=g.head=g}function c(g,h){var k=g.g;return da(function(){if(k){for(;k.head!=g.g;)k=k.s;for(;k.next!=k.head;)return k=k.next,{done:!1,value:h(k)};k=null}return{done:!0,value:void 0}})}function d(g,h){var k=h&amp;&amp;typeof h;"object"==k||"function"==k?f.has(h)?k=f.get(h):(k=""+ ++l,f.set(h,k)):k="p_"+h;var n=g.i[k];if(n&amp;&amp;v(g.i,k))for(g=0;g&lt;n.length;g++){var A=n[g];if(h!==h&amp;&amp;A.key!==A.key||h===A.key)return{id:k,list:n,index:g,l:A}}return{id:k,list:n, index:-1,l:void 0}}function e(g){this.i={};this.g=b();this.size=0;if(g){g=q(g);for(var h;!(h=g.next()).done;)h=h.value,this.set(h[0],h[1])}}if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var g=Object.seal({x:4}),h=new a(q([[g,"s"]]));if("s"!=h.get(g)||1!=h.size||h.get({x:4})||h.set({x:4},"t")!=h||2!=h.size)return!1;var k=h.entries(),n=k.next();if(n.done||n.value[0]!=g||"s"!=n.value[1])return!1;n=k.next();return n.done||4!=n.value[0].x|| "t"!=n.value[1]||!k.next().done?!1:!0}catch(A){return!1}}())return a;var f=new WeakMap;e.prototype.set=function(g,h){g=0===g?0:g;var k=d(this,g);k.list||(k.list=this.i[k.id]=[]);k.l?k.l.value=h:(k.l={next:this.g,s:this.g.s,head:this.g,key:g,value:h},k.list.push(k.l),this.g.s.next=k.l,this.g.s=k.l,this.size++);return this};e.prototype.delete=function(g){g=d(this,g);return g.l&amp;&amp;g.list?(g.list.splice(g.index,1),g.list.length||delete this.i[g.id],g.l.s.next=g.l.next,g.l.next.s=g.l.s,g.l.head=null,this.size--, !0):!1};e.prototype.clear=function(){this.i={};this.g=this.g.s=b();this.size=0};e.prototype.has=function(g){return!!d(this,g).l};e.prototype.get=function(g){return(g=d(this,g).l)&amp;&amp;g.value};e.prototype.entries=function(){return c(this,function(g){return[g.key,g.value]})};e.prototype.keys=function(){return c(this,function(g){return g.key})};e.prototype.values=function(){return c(this,function(g){return g.value})};e.prototype.forEach=function(g,h){for(var k=this.entries(),n;!(n=k.next()).done;)n=n.value, g.call(h,n[1],n[0],this)};e.prototype[Symbol.iterator]=e.prototype.entries;var l=0;return e});function ja(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e}p("Array.prototype.entries",function(a){return a?a:function(){return ja(this,function(b,c){return[b,c]})}}); p("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)v(b,d)&amp;&amp;c.push([d,b[d]]);return c}});p("Array.prototype.findIndex",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++)if(b.call(c,d[f],f,d)){b=f;break a}b=-1}return b}});var w=this||self; function x(a,b,c){a=a.split(".");c=c||w;a[0]in c||"undefined"==typeof c.execScript||c.execScript("var "+a[0]);for(var d;a.length&amp;&amp;(d=a.shift());)a.length||void 0===b?c[d]&amp;&amp;c[d]!==Object.prototype[d]?c=c[d]:c=c[d]={}:c[d]=b}function y(a){var b=typeof a;return"object"==b&amp;&amp;null!=a||"function"==b}function ka(a,b,c){return a.call.apply(a.bind,arguments)} function la(a,b,c){if(!a)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var e=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(e,d);return a.apply(b,e)}}return function(){return a.apply(b,arguments)}}function z(a,b,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?z=ka:z=la;return z.apply(null,arguments)} function ma(a,b){var c=Array.prototype.slice.call(arguments,1);return function(){var d=c.slice();d.push.apply(d,arguments);return a.apply(this,d)}}function B(a,b){function c(){}c.prototype=b.prototype;a.A=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.L=function(d,e,f){for(var l=Array(arguments.length-2),g=2;g&lt;arguments.length;g++)l[g-2]=arguments[g];return b.prototype[e].apply(d,l)}}function C(a){return a};var na=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1};function D(){var a=w.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};function E(a){E[" "](a);return a}E[" "]=function(){};var oa=-1!=D().indexOf("Gecko")&amp;&amp;!(-1!=D().toLowerCase().indexOf("webkit")&amp;&amp;-1==D().indexOf("Edge"))&amp;&amp;!(-1!=D().indexOf("Trident")||-1!=D().indexOf("MSIE"))&amp;&amp;-1==D().indexOf("Edge");function pa(a,b,c){for(var d in a)b.call(c,a[d],d,a)}function qa(a){var b={},c;for(c in a)b[c]=a[c];return b}var ra="constructor hasOwnProperty isPrototypeOf propertyIsEnumerable toLocaleString toString valueOf".split(" ");function sa(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;ra.length;f++)c=ra[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};var F;function G(a,b){this.g=b===ta?a:""}G.prototype.toString=function(){return this.g+""};function ua(a){return a instanceof G&amp;&amp;a.constructor===G?a.g:"type_error:TrustedResourceUrl"}var ta={};function va(a){if(void 0===F){var b=null;var c=w.trustedTypes;if(c&amp;&amp;c.createPolicy){try{b=c.createPolicy("goog#html",{createHTML:C,createScript:C,createScriptURL:C})}catch(d){w.console&amp;&amp;w.console.error(d.message)}F=b}else F=b}a=(b=F)?b.createScriptURL(a):a;return new G(a,ta)};function wa(a){return a&amp;&amp;a.parentNode?a.parentNode.removeChild(a):null};function xa(a){a&amp;&amp;"function"==typeof a.I&amp;&amp;a.I()};function H(){this.u=this.u;this.o=this.o}H.prototype.u=!1;H.prototype.I=function(){this.u||(this.u=!0,this.i())};H.prototype.i=function(){if(this.o)for(;this.o.length;)this.o.shift()()};function I(a,b){this.type=a;this.g=this.target=b;this.defaultPrevented=!1}I.prototype.i=function(){this.defaultPrevented=!0};function J(a,b){this.messageName=a;this.parameters=b||{}}function ya(a,b){I.call(this,a.messageName,b);this.params=a.parameters||{}}u(ya,I);var za=-1!=(w.navigator?w.navigator.userAgent:"").indexOf("Android");/*  SPDX-License-Identifier: Apache-2.0 */ function Aa(a,b){var c=ua(a).toString();if(/#/.test(c))throw Error("");var d=/\\?/.test(c)?"&amp;":"?";b.forEach(function(e,f){e=e instanceof Array?e:[e];for(var l=0;l&lt;e.length;l++){var g=e[l];null!==g&amp;&amp;void 0!==g&amp;&amp;(c+=d+encodeURIComponent(f)+"="+encodeURIComponent(String(g)),d="&amp;")}});return va(c)};function Ba(a){var b=va("gmsg://mobileads.google.com/"+a.messageName);return Aa(b,new Map(Object.entries(a.parameters)))};var Ca=function(){if(!w.addEventListener||!Object.defineProperty)return!1;var a=!1,b=Object.defineProperty({},"passive",{get:function(){a=!0}});try{w.addEventListener("test",function(){},b),w.removeEventListener("test",function(){},b)}catch(c){}return a}();function K(a,b){I.call(this,a?a.type:"");this.relatedTarget=this.g=this.target=null;this.button=this.screenY=this.screenX=this.clientY=this.clientX=0;this.key="";this.metaKey=this.shiftKey=this.altKey=this.ctrlKey=!1;this.state=null;this.pointerId=0;this.pointerType="";this.h=null;if(a){var c=this.type=a.type,d=a.changedTouches&amp;&amp;a.changedTouches.length?a.changedTouches[0]:null;this.target=a.target||a.srcElement;this.g=b;if(b=a.relatedTarget){if(oa){a:{try{E(b.nodeName);var e=!0;break a}catch(f){}e= !1}e||(b=null)}}else"mouseover"==c?b=a.fromElement:"mouseout"==c&amp;&amp;(b=a.toElement);this.relatedTarget=b;d?(this.clientX=void 0!==d.clientX?d.clientX:d.pageX,this.clientY=void 0!==d.clientY?d.clientY:d.pageY,this.screenX=d.screenX||0,this.screenY=d.screenY||0):(this.clientX=void 0!==a.clientX?a.clientX:a.pageX,this.clientY=void 0!==a.clientY?a.clientY:a.pageY,this.screenX=a.screenX||0,this.screenY=a.screenY||0);this.button=a.button;this.key=a.key||"";this.ctrlKey=a.ctrlKey;this.altKey=a.altKey;this.shiftKey= a.shiftKey;this.metaKey=a.metaKey;this.pointerId=a.pointerId||0;this.pointerType="string"===typeof a.pointerType?a.pointerType:Da[a.pointerType]||"";this.state=a.state;this.h=a;a.defaultPrevented&amp;&amp;K.A.i.call(this)}}B(K,I);var Da={2:"touch",3:"pen",4:"mouse"};K.prototype.i=function(){K.A.i.call(this);var a=this.h;a.preventDefault?a.preventDefault():a.returnValue=!1};var L="closure_listenable_"+(1E6*Math.random()|0);var Ea=0;function Fa(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.G=e;this.key=++Ea;this.B=this.F=!1}function M(a){a.B=!0;a.listener=null;a.proxy=null;a.src=null;a.G=null};function N(a){this.src=a;this.g={};this.i=0}N.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.i++);var l=O(a,b,d,e);-1&lt;l?(b=a[l],c||(b.F=!1)):(b=new Fa(b,this.src,f,!!d,e),b.F=c,a.push(b));return b};function Ga(a,b,c,d,e){b=b.toString();if(b in a.g){var f=a.g[b];c=O(f,c,d,e);-1&lt;c&amp;&amp;(M(f[c]),Array.prototype.splice.call(f,c,1),0==f.length&amp;&amp;(delete a.g[b],a.i--))}} function P(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=na(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(M(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.i--))}}function O(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.B&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.G==d)return e}return-1};var Q="closure_lm_"+(1E6*Math.random()|0),Ha={},Ia=0;function Ja(a,b,c,d,e){if(d&amp;&amp;d.once)return R(a,b,c,d,e);if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)Ja(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!1,y(d)?!!d.capture:!!d,e):La(a,b,c,!1,d,e)} function La(a,b,c,d,e,f){if(!b)throw Error("Invalid event type");var l=y(e)?!!e.capture:!!e,g=Ma(a);g||(a[Q]=g=new N(a));c=g.add(b,c,d,l,f);if(c.proxy)return c;d=Na();c.proxy=d;d.src=a;d.listener=c;if(a.addEventListener)Ca||(e=l),void 0===e&amp;&amp;(e=!1),a.addEventListener(b.toString(),d,e);else if(a.attachEvent)a.attachEvent(Oa(b.toString()),d);else if(a.addListener&amp;&amp;a.removeListener)a.addListener(d);else throw Error("addEventListener and attachEvent are unavailable.");Ia++;return c} function Na(){function a(c){return b.call(a.src,a.listener,c)}var b=Pa;return a}function R(a,b,c,d,e){if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)R(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!0,y(d)?!!d.capture:!!d,e):La(a,b,c,!0,d,e)} function Qa(a,b,c,d,e){if(Array.isArray(b))for(var f=0;f&lt;b.length;f++)Qa(a,b[f],c,d,e);else(d=y(d)?!!d.capture:!!d,c=Ka(c),a&amp;&amp;a[L])?Ga(a.g,String(b),c,d,e):a&amp;&amp;(a=Ma(a))&amp;&amp;(b=a.g[b.toString()],a=-1,b&amp;&amp;(a=O(b,c,d,e)),(c=-1&lt;a?b[a]:null)&amp;&amp;Ra(c))} function Ra(a){if("number"!==typeof a&amp;&amp;a&amp;&amp;!a.B){var b=a.src;if(b&amp;&amp;b[L])P(b.g,a);else{var c=a.type,d=a.proxy;b.removeEventListener?b.removeEventListener(c,d,a.capture):b.detachEvent?b.detachEvent(Oa(c),d):b.addListener&amp;&amp;b.removeListener&amp;&amp;b.removeListener(d);Ia--;(c=Ma(b))?(P(c,a),0==c.i&amp;&amp;(c.src=null,b[Q]=null)):M(a)}}}function Oa(a){return a in Ha?Ha[a]:Ha[a]="on"+a}function Pa(a,b){if(a.B)a=!0;else{b=new K(b,this);var c=a.listener,d=a.G||a.src;a.F&amp;&amp;Ra(a);a=c.call(d,b)}return a} function Ma(a){a=a[Q];return a instanceof N?a:null}var Sa="__closure_events_fn_"+(1E9*Math.random()&gt;&gt;&gt;0);function Ka(a){if("function"===typeof a)return a;a[Sa]||(a[Sa]=function(b){return a.handleEvent(b)});return a[Sa]};function S(a){H.call(this);this.h=a;this.g={}}B(S,H);var Ta=[];function Ua(a){pa(a.g,function(b,c){this.g.hasOwnProperty(c)&amp;&amp;Ra(b)},a);a.g={}}S.prototype.i=function(){S.A.i.call(this);Ua(this)};S.prototype.handleEvent=function(){throw Error("EventHandler.handleEvent not implemented");};function T(){H.call(this);this.g=new N(this);this.J=this;this.C=null}B(T,H);T.prototype[L]=!0;T.prototype.addEventListener=function(a,b,c,d){Ja(this,a,b,c,d)};T.prototype.removeEventListener=function(a,b,c,d){Qa(this,a,b,c,d)}; function Va(a,b){var c,d=a.C;if(d)for(c=[];d;d=d.C)c.push(d);a=a.J;d=b.type||b;if("string"===typeof b)b=new I(b,a);else if(b instanceof I)b.target=b.target||a;else{var e=b;b=new I(d,a);sa(b,e)}e=!0;if(c)for(var f=c.length-1;0&lt;=f;f--){var l=b.g=c[f];e=U(l,d,!0,b)&amp;&amp;e}l=b.g=a;e=U(l,d,!0,b)&amp;&amp;e;e=U(l,d,!1,b)&amp;&amp;e;if(c)for(f=0;f&lt;c.length;f++)l=b.g=c[f],e=U(l,d,!1,b)&amp;&amp;e} T.prototype.i=function(){T.A.i.call(this);if(this.g){var a=this.g,b=0,c;for(c in a.g){for(var d=a.g[c],e=0;e&lt;d.length;e++)++b,M(d[e]);delete a.g[c];a.i--}}this.C=null};function U(a,b,c,d){b=a.g.g[String(b)];if(!b)return!0;b=b.concat();for(var e=!0,f=0;f&lt;b.length;++f){var l=b[f];if(l&amp;&amp;!l.B&amp;&amp;l.capture==c){var g=l.listener,h=l.G||l.src;l.F&amp;&amp;P(a.g,l);e=!1!==g.call(h,d)&amp;&amp;e}}return e&amp;&amp;!d.defaultPrevented};function V(a,b){T.call(this);this.v=a||1;this.m=b||w;this.H=z(this.K,this);this.D=Date.now()}B(V,T);V.prototype.j=!1;V.prototype.h=null;V.prototype.K=function(){if(this.j){var a=Date.now()-this.D;0&lt;a&amp;&amp;a&lt;.8*this.v?this.h=this.m.setTimeout(this.H,this.v-a):(this.h&amp;&amp;(this.m.clearTimeout(this.h),this.h=null),Va(this,"tick"),this.j&amp;&amp;(Wa(this),this.start()))}};V.prototype.start=function(){this.j=!0;this.h||(this.h=this.m.setTimeout(this.H,this.v),this.D=Date.now())}; function Wa(a){a.j=!1;a.h&amp;&amp;(a.m.clearTimeout(a.h),a.h=null)}V.prototype.i=function(){V.A.i.call(this);Wa(this);delete this.m};function Xa(){if(window.googleJsEnvironment&amp;&amp;("rhino"==window.googleJsEnvironment.environment||"jscore"==window.googleJsEnvironment.environment))return new W;if(za&amp;&amp;window.googleAdsJsInterface&amp;&amp;"notify"in window.googleAdsJsInterface)try{return window.googleAdsJsInterface.notify("gmsg://mobileads.google.com/noop"),new W}catch(a){}else if(window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler)return new Ya;return new Za}function $a(){ab||(ab=Xa());return ab} var ab=null;function X(){H.call(this)}u(X,H);function bb(a){var b=qa(a.parameters);b["google.afma.Notify_dt"]=(new Date).getTime();return Ba(new J(a.messageName,b)).toString()}function Y(a,b){H.call(this);this.v=a;this.C=b||1;this.m=[];this.j=new V(this.C);a=this.H=new S(this);b=this.j;var c=this.D,d="tick";Array.isArray(d)||(d&amp;&amp;(Ta[0]=d.toString()),d=Ta);for(var e=0;e&lt;d.length;e++){var f=Ja(b,d[e],c||a.handleEvent,!1,a.h||a);if(!f)break;a.g[f.key]=f}}u(Y,X); Y.prototype.sendMessage=function(a){this.m.push(a);this.j.j||(a=this.m.shift(),this.v(a),this.j.start())};Y.prototype.D=function(){var a=this.m.shift();a?this.v(a):Wa(this.j)}; function Za(){Y.call(this,function(b){var c=a.g[a.h];if(!c){var d=document;c="IFRAME";"application/xhtml+xml"===d.contentType&amp;&amp;(c=c.toLowerCase());c=d.createElement(c);c.id="afma-notify-"+(new Date).getTime();c.style.display="none";a.g[a.h]=c}a.h=(a.h+1)%25;d=qa(b.parameters);d["google.afma.Notify_dt"]=(new Date).getTime();b=Ba(new J(b.messageName,d));c.src=ua(b).toString();c.parentNode||document.body.appendChild(c)});var a=this;this.g=[];this.h=0}u(Za,Y); Za.prototype.i=function(){this.g.forEach(wa);this.g=[];Y.prototype.i.call(this)};function W(){H.call(this)}u(W,X);W.prototype.sendMessage=function(a){a=bb(a);window.googleAdsJsInterface&amp;&amp;window.googleAdsJsInterface.notify&amp;&amp;(window.googleAdsJsInterface.notify(a),window.googleAdsJsInterface.DEBUG&amp;&amp;console.log(a))};function Ya(){H.call(this)}u(Ya,X);Ya.prototype.sendMessage=function(a){a=bb(a);window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler.postMessage(a)};/*  Math.uuid.js (v1.4) http://www.broofa.com mailto:robert@broofa.com Copyright (c) 2010 Robert Kieffer Dual licensed under the MIT and GPL licenses. */ var cb="0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz".split("");function db(a){for(var b=Array(36),c=0,d,e=0;36&gt;e;e++)8==e||13==e||18==e||23==e?b[e]="-":14==e?b[e]="4":(2&gt;=c&amp;&amp;(c=33554432+16777216*Math.random()|0),d=c&amp;15,c&gt;&gt;=4,b[e]=cb[19==e?d&amp;3|8:d]);this.uuid=b.join("");this.callback=a} function eb(a){var b=w.imalib_globalCallbacks||new Map,c=b.get("AFMA_updateActiveView")||[];if(0===c.length&amp;&amp;w.AFMA_updateActiveView){var d=new db(w.AFMA_updateActiveView);c.push(d);w.AFMA_updateActiveView=void 0}w.AFMA_updateActiveView||(w.AFMA_updateActiveView=function(){var e=b.get("AFMA_updateActiveView");e=q(e);for(var f=e.next();!f.done;f=e.next())f.value.callback.apply(null,arguments)});a=new db(a);c.push(a);b.set("AFMA_updateActiveView",c);w.imalib_globalCallbacks=b;return a.uuid} function fb(a){if(w.AFMA_updateActiveView){var b=w.imalib_globalCallbacks;if(b){var c=b.get("AFMA_updateActiveView");if(c){var d=c.findIndex(function(e){return e.uuid===a});-1!==d&amp;&amp;(c.splice(d,1),0===c.length&amp;&amp;(w.AFMA_updateActiveView=void 0),b.set("AFMA_updateActiveView",c),w.imalib_globalCallbacks=b)}}}};function gb(){var a=this;this.o=[];this.h=window===window.top;this.j=!1;this.g=0;this.i=null;"undefined"!==typeof window.addEventListener&amp;&amp;window.addEventListener("message",function(b){return hb(a,b)})} function hb(a,b){var c=b.data;if((b=b.source)&amp;&amp;c){var d=a.o;if("arwebview_iframe_loaded"===c&amp;&amp;a.h)x("JavascriptWebViewBridge.incoming.postMessage",a.u.bind(a),w),-1===d.indexOf(b)&amp;&amp;d.push(b);else{var e=c.messageName;c=c.parameters;if(a.h)switch(e){case "mraid_loaded":!1===c.is_top_win&amp;&amp;(a.j=!0,a.i=eb(function(f){a.h&amp;&amp;ib(a,new J("update_activeview_action",f))}),-1===d.indexOf(b)&amp;&amp;(d.push(b),"undefined"!==typeof b.postMessage&amp;&amp;b.postMessage(new J("mraid_env_obj",window.MRAID_ENV),"*")));break;case "start_tracking_action":0== a.g&amp;&amp;window.AFMA_SendMessage("trackActiveViewUnit");a.g+=1;break;case "stop_tracking_action":--a.g,0==a.g&amp;&amp;(window.AFMA_SendMessage("untrackActiveViewUnit",{hashCode:c.hashCode}),a.i&amp;&amp;(fb(a.i),a.i=null))}else switch(e){case "mraid_env_obj":window.MRAID_ENV=c;break;case "update_activeview_action":window.AFMA_updateActiveView&amp;&amp;window.AFMA_updateActiveView(c);break;case "receive_message_action":window.AFMA_ReceiveMessage(c.messageName,c.parameters)}}}} gb.prototype.u=function(a){this.h&amp;&amp;ib(this,{name:"arwebview_message_forwarded",message:a})};function ib(a,b){a.o.forEach(function(c){return c.postMessage(b,"*")})};function Z(){T.call(this);this.j=$a();this.j=$a();var a=ma(xa,this.j);this.u?a():(this.o||(this.o=[]),this.o.push(a));this.h={};this.m=new gb}u(Z,T);Z.prototype.sendMessage=function(a,b){var c=this,d;"string"===typeof a?d=new J(a,b):a instanceof J&amp;&amp;(d=a);"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return c.j.sendMessage(d)},!1,this):this.j.sendMessage(d)}; Z.prototype.receiveMessage=function(a,b){if(this.shouldForwardMessageToIframe())this.forwardMessage(new J("receive_message_action",new J(a,b)));else{var c=document.getElementById("ad_iframe");void 0!=c&amp;&amp;void 0!=c.contentWindow&amp;&amp;void 0!=c.contentWindow.AFMA_ReceiveMessage&amp;&amp;c.contentWindow.AFMA_ReceiveMessage(a,b)}"onshow"==a&amp;&amp;"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return jb(a,null!=b?b:void 0)}):Va(this,new ya(new J(a,b),this))}; Z.prototype.addObserver=function(a,b,c){function d(e){return void c.call(b,e.type,e.params)}this.g.add(String(a),d,!1,void 0,void 0);this.h[a]||(this.h[a]={});this.h[a][b]=d};Z.prototype.removeObserver=function(a,b){this.h[a]&amp;&amp;this.h[a][b]&amp;&amp;(Ga(this.g,String(a),this.h[a][b]),delete this.h[a][b])};Z.prototype.shouldForwardMessageToIframe=function(){return this.m.j};Z.prototype.forwardMessage=function(a){ib(this.m,a)}; function kb(a,b){w.AFMA_Communicator?w.AFMA_Communicator.sendMessage(a,b):lb(a,b)}function lb(a,b){"loading"==document.readyState?(a=z(lb,null,a,b),R(w,"DOMContentLoaded",a,!1)):(a=new J(a,b),$a().sendMessage(a))}function jb(a,b){w.AFMA_Communicator.receiveMessage(a,b)}function mb(a,b,c,d){w.AFMA_Communicator.removeEventListener(a,b,c,d)}function nb(a,b,c,d){w.AFMA_Communicator.addEventListener(a,b,c,d)}function ob(a,b,c){w.AFMA_Communicator.addObserver(a,b,c)} function pb(a,b){w.AFMA_Communicator.removeObserver(a,b)}w.AFMA_Communicator||(x("AFMA_AddEventListener",nb,w),x("AFMA_RemoveEventListener",mb,w),x("AFMA_AddObserver",ob,w),x("AFMA_RemoveObserver",pb,w),x("AFMA_ReceiveMessage",jb,w),x("AFMA_SendMessage",kb,w),w.AFMA_Communicator=new Z);nb("onSdkImpression",function(){x("Goog_Omid_SdkImpressionReceived",!0)});nb("onSdkLoaded",function(){x("Goog_Omid_SdkLoadedReceived",!0)});}).call(this);&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omsdk-v1.js"&gt;&lt;/script&gt;&lt;/head&gt;&lt;body leftMargin="0" topMargin="0" marginwidth="0" marginheight="0"&gt;&lt;div class="GoogleActiveViewInnerContainer"style="left:0px;top:0px;width:100%;height:100%;position:fixed;pointer-events:none;z-index:-9999;"&gt;&lt;/div&gt;&lt;div style="display:inline"class="GoogleActiveViewElement"data-google-av-cxn="https://pagead2.googlesyndication.com/pcs/activeview?xai=AKAOjsuqAGXjUFwGoKIU-fkqTjXObj08p7MGi9_eE6xq1O27UtRMh4GhUam8zbqnAVbvJPhHGUL5Aw0S8RO_8rwAV-gnEq7n&amp;amp;sig=Cg0ArKJSzOsmcBWJEyaWEAE"data-google-av-adk="3183022332"data-google-av-metadata="la=0&amp;amp;omid=1&amp;amp;sloi=1&amp;amp;"data-google-av-ufs-integrator-metadata=""data-google-av-override="-1"data-google-av-dm="2"data-google-av-aid="0"data-google-av-naid="1"data-google-av-inapp data-google-av-slift=""data-google-av-cpmav=""data-google-av-btr=""data-google-av-itpl="20"data-google-av-rs="9"data-google-av-flags="[&amp;quot;x%278440&amp;#39;9efotm(&amp;amp;753374%2bejvf/%27844&amp;gt;&amp;#39;9wuvb$&amp;amp;56533&amp;gt;!=|vqc)!273794&amp;amp;&amp;lt;qqvb/%&amp;lt;1735020!=nehu`/!364=5051!9abk{a($160210:3&amp;amp;&amp;lt;cbotf+*0150034:%2bejvf/%72;17613!=efdwa*&amp;#39;76463;21$?ebkpb$&amp;amp;0366717&amp;gt;*&amp;gt;bgipf+!3=712363%9aihwc)!7202&amp;lt;217&amp;#39;9efotm(&amp;amp;20061;48&amp;amp;&amp;gt;`dopb/%&amp;lt;1707200!=8(&amp;amp;2005575?&amp;amp;&amp;gt;`dopb/%&amp;lt;170642?!=|vqc)!7201;=50&amp;#39;9wuvb$&amp;amp;03641654*&amp;gt;bgipf+!3=731103%9aihwc)!7200?073&amp;#39;9efotm(&amp;amp;2004?51;&amp;amp;&amp;gt;`dopb/%&amp;lt;17&amp;gt;474&amp;gt;!=nehu`/!36406412!9abk{a($160&amp;gt;358&amp;lt;&amp;amp;&amp;lt;cbotfz&amp;quot;]"&gt;&lt;script type="text/javascript" src="https://eastads.simpli.fi/ads/3341154/30069430/ad.js?sifi=8475,3341154,30069430,0,1,0,0,0,0,389,21,v,26.95680,2.0736,0,0,1,23,5AF99DBF55B9840BA87AA4044345318A,0,3,0,1270,400,1,0,0,607,0,702,bidder-base-prd-us-east4-b-d7667019:9016-1679028442167-82819755,1,0,395291,2,0,28,12,47401,0,0.00,1,220412618550898,3848128698,0,3,137847689,1,-4,0,33,,5,355726,0,0,2,3,1100040622,8,277,4254679&amp;hash_rid=C5773E117CB367AD785907CA8AAB5264&amp;sifi_exchange_uid=CAESEM8wl2a54Ac2-mUBlncFX9Y&amp;request_id=d5b5b7d3-2e1a-c56a-6f76-e037b4049bec"&gt;&lt;/script&gt;&lt;img src="https://us-u.openx.net/w/1.0/cm?id=a9dcab4e-14df-43e4-a5aa-817bd9887939&amp;r=https%3A%2F%2Fs.ad.smaato.net%2Fc%2F%3FdspId%3D1001758%26dspCookie%3D" /&gt;&lt;img src="https://match.adsrvr.org/track/cmf/generic?ttd_pid=bc2yu5z&amp;ttd_tpi=1" /&gt;&lt;/div&gt;&lt;script data-jc="22" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/window_focus.js" async data-jc-version="r20230315" data-jcp-url="https://googleads.g.doubleclick.net/pagead/interaction/?ai=CM0eP2vATZL3pAue6grAPmo6t-A7RvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSiAk_Q2SiEo02L-Cilp-KPlU8j8K4rQU4y4vSO03aDTz-SWHM9wpjcDbvV7T_KEnW7ZuficZYnIwqKPF5O_qobVRc-TAYgUINWWfWxd-W3k0PX0xA2qNlx_2AHJV-QP2N6xBOhlYhAh2olhQLI2i7-ktbtKcuFZeXZXL6a83ixJYJKr266Uai1ik4jr7y290HiyoMcgvb7t5t3Rk67UDgIa5TtqgmT3JXffoxEB2Z3LrnhoJxnD1Dc8rZPOgV37t1ip4sn_eaFUcYG-yqLxdSGxiUhkUJNcmq6H4cxjQYjsDQl67BHkFhVQ51cbdsSCNWx3rDgFIecA52BuN7o52YdTP-YVzFGGw8oRin1wZ61gEwQVaAIham1_LD4oBWJ0HbVSkn04AQBgAa4iPLBxbCz9q0BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ&amp;amp;sigh=wTLxqdYx5X0&amp;amp;cid=CAQShgEA1BOcpmB8XAwuMWwA_A52emJEv1Lj7pN537HIbk1SiVgvwXeA56Pd-Zc4T91DJ69mAgysnq2QulByrKmmgy-2q0E7I6Zzd1UYkTkUN9wgS-pEHIzLXbgxwFj6BkhU-7xxko84AmZi08SGRL1JCxvrQZPsx58GzHWJBwlyoGP80Q_sRBXsMg" data-jcp-gws-id="2vATZI0h15qCsA-g3IioDA" data-jcp-qem-id="CL2-7K6U4v0CFWedAAAdGkcL7w"&gt;&lt;/script&gt;&lt;script data-jc="23" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/qs_click_protection.js" data-jc-version="r20230315"&gt;&lt;/script&gt;&lt;script&gt;googqscp.init([[[[null,1500,99,2,4,null,null,null,1],[null,500,99,2,9,null,null,null,1]]]]);&lt;/script&gt;&lt;div style="bottom:0;right:0;width:300px;height:250px;background:initial !important;position:absolute !important;max-width:100% !important;max-height:100% !important;pointer-events:none !important;image-rendering:pixelated !important;background-repeat:no-repeat !important;z-index:2147483647;background-image:url(\'data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAQ4AAADIBAMAAADrWRKLAAAABlBMVEUAAAD+AciWmZzWAAAAAnRSTlMAApidrBQAAAHNSURBVHja7dZRjsQgCIBhuAH3P+3OgCCaPpZksvnbZKe2xLAq+on8yKVxxWO1LK7v28/f1ZoM/bzxdOz7yaqlkaOn6b/emgz1bMVv3S3PVvz2brw1GVrNlfTVTyR99zMR2r/pYzf21M3bocf6kKeZlMdJfz0013LO5rmyczaPIpgI3QUcH++q9vu+JkI16/sYL8v67kM7GZpZr71llVTOY2xDsgPnQjNlbduLSqZsbSeyydBc1TloNWJaG18b3LlQqZTzwUMq5Xz4Pk2GtpVtOWB7MiWLSvtkjoTuSs8N96z03JuPTeH90L2fHjOp/QysmZwM3SdjfLpPxujlOkTfDz3O2xVl0k+/1eF0aHuV/0HPfI2qxTE1F9pmsspd2kxWuYvOhtbKrsVzrOxaZ70IBkIFr+N1vI7X8Tpex+t4Ha/jdbyO1/E6XsfreB2v43W8jtfxOl7H63gdr+N1vI7X8Tpex+t4Ha/jdbyO1/E6XsfreB2v43W8jtfxOl7H63gdr+N1vI7X8Tpex+t4Ha/jdbyO1/E6XsfreB2v43W8jtfxOl7H63gdr+N1vI7X8Tpex+t4Ha/jdbyO1/E6XsfreB2v43W8jtfx+r/0+h/wk7Qe7gpXfwAAAABJRU5ErkJggg==\') !important;"&gt;&lt;/div&gt;&lt;script id="googleOmidDisplayScript" src="https://www.googletagservices.com/activeview/js/current/lidar.js?cache=r20110914"&gt;&lt;/script&gt;&lt;script data-jc="28" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ var e=this||self;function f(b,a,c){return b.call.apply(b.bind,arguments)}function g(b,a,c){if(!b)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var k=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(k,d);return b.apply(a,k)}}return function(){return b.apply(a,arguments)}}function h(b,a,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?h=f:h=g;return h.apply(null,arguments)};var l,m;a:{for(var n=["CLOSURE_FLAGS"],p=e,q=0;q&lt;n.length;q++)if(p=p[n[q]],null==p){m=null;break a}m=p}var r=m&amp;&amp;m[610401301];l=null!=r?r:!1;var t,u=e.navigator;t=u?u.userAgentData||null:null;function v(b){return l?t?t.brands.some(function(a){return(a=a.brand)&amp;&amp;-1!=a.indexOf(b)}):!1:!1}function w(b){var a;a:{if(a=e.navigator)if(a=a.userAgent)break a;a=""}return-1!=a.indexOf(b)};function x(){return l?!!t&amp;&amp;0&lt;t.brands.length:!1}function y(){return x()?v("Chromium"):(w("Chrome")||w("CriOS"))&amp;&amp;!(x()?0:w("Edge"))||w("Silk")};!w("Android")||y();y();w("Safari")&amp;&amp;(y()||(x()?0:w("Coast"))||(x()?0:w("Opera"))||(x()?0:w("Edge"))||(x()?v("Microsoft Edge"):w("Edg/"))||x()&amp;&amp;v("Opera"));function z(b){this.h=null;var a={top:10,right:10,bottom:10,left:10};b&amp;&amp;(b=b.split(","),4!=b.length||isNaN(b[0])||isNaN(b[1])||isNaN(b[2])||isNaN(b[3])||(a.top=+b[0],a.right=+b[1],a.bottom=+b[2],a.left=+b[3]));this.g=a} z.prototype.i=function(b){for(var a=!1,c=b.target;c;c=c.parentNode)if("abgc"==c.id){a=!0;break}if(!a){var d=this.h.getBoundingClientRect();a=d.width;c=d.height;var k=b.clientX-d.left;d=b.clientY-d.top;a="number"!==typeof a||"number"!==typeof c||"number"!==typeof b.clientX||"number"!==typeof b.clientY||0&gt;=a||0&gt;=c||0&gt;k||0&gt;d?!0:k&gt;=this.g.left&amp;&amp;a-k&gt;=this.g.right&amp;&amp;d&gt;=this.g.top&amp;&amp;c-d&gt;=this.g.bottom}a||(b.preventDefault?b.preventDefault():b.returnValue=!1)};function A(b,a){a||(a="");a=new z(a);a.h=b;b=a.h;var c=h(a.i,a);b.addEventListener&amp;&amp;b.addEventListener("click",c,!1);return a}var B=["googleInitIc"],C=e;B[0]in C||"undefined"==typeof C.execScript||C.execScript("var "+B[0]);for(var D;B.length&amp;&amp;(D=B.shift());)B.length||void 0===A?C[D]&amp;&amp;C[D]!==Object.prototype[D]?C=C[D]:C=C[D]={}:C[D]=A;}).call(this);&lt;/script&gt;&lt;script&gt;googleInitIc(document.body,\'10,10,10,10\');&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omid_session_bin.js"&gt;&lt;/script&gt;&lt;script type="text/javascript"&gt;(function() {var omidSession = new OmidCreativeSession([]);})();&lt;/script&gt;&lt;/body&gt;&lt;/html&gt;', 'size': 31524, 'mimeType': 'text/html; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '{"ads":{"m320x50p17":{"b":"JEGGWQSJ54jQd1qf7E2WnQcAAAGG7eTqeAEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICBaJcaU","kvp":{"amznrdr":["default"],"amznp":["biq680"],"dc":["iad"]},"sz":"320x50","i":"https://aax-us-east.amazon-adsystem.com/e/msdk/imp?b=JEGGWQSJ54jQd1qf7E2WnQcAAAGG7eTqeAEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICBaJcaU&amp;ps=m320x50p17"}},"instrPixelURL":"https://aax-us-east.amazon-adsystem.com/x/px/REGGWQSJ54jQd1qf7E2WnQcAAAGG7eTptQEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICBaJcaU/","errorCode":"200","request_id":"QYZZBInniNB3Wp.sTZadBw","status":"ok"}\n', 'size': 581, 'mimeType': 'text/javascript;charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '&lt;!doctype html&gt;&lt;html&gt;&lt;head&gt;&lt;meta name="viewport" content="width=320, initial-scale=1.0, minimum-scale=1.0, maximum-scale=1.0, user-scalable=no"&gt;&lt;script&gt;var jscVersion = \'r20230315\';&lt;/script&gt;&lt;script&gt;var google_casm=["afma-sdk-i-v8.11.0"];&lt;/script&gt;&lt;script data-jc="84" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ function aa(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}}var m="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a}; function ba(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("Cannot find global object");}var ca=ba(this);function p(a,b){if(b)a:{var c=ca;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;m(c,a,{configurable:!0,writable:!0,value:b})}} p("Symbol",function(a){function b(f){if(this instanceof b)throw new TypeError("Symbol is not a constructor");return new c(d+(f||"")+"_"+e++,f)}function c(f,l){this.g=f;m(this,"description",{configurable:!0,writable:!0,value:l})}if(a)return a;c.prototype.toString=function(){return this.g};var d="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",e=0;return b}); p("Symbol.iterator",function(a){if(a)return a;a=Symbol("Symbol.iterator");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=ca[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;m(d.prototype,a,{configurable:!0,writable:!0,value:function(){return da(aa(this))}})}return a});function da(a){a={next:a};a[Symbol.iterator]=function(){return this};return a} function q(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];if(b)return b.call(a);if("number"==typeof a.length)return{next:aa(a)};throw Error(String(a)+" is not an iterable or ArrayLike");}var ea="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},r; if("function"==typeof Object.setPrototypeOf)r=Object.setPrototypeOf;else{var t;a:{var fa={a:!0},ha={};try{ha.__proto__=fa;t=ha.a;break a}catch(a){}t=!1}r=t?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ia=r; function u(a,b){a.prototype=ea(b.prototype);a.prototype.constructor=a;if(ia)ia(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.A=b.prototype}function v(a,b){return Object.prototype.hasOwnProperty.call(a,b)} p("WeakMap",function(a){function b(h){this.g=(g+=Math.random()+1).toString();if(h){h=q(h);for(var k;!(k=h.next()).done;)k=k.value,this.set(k[0],k[1])}}function c(){}function d(h){var k=typeof h;return"object"===k&amp;&amp;null!==h||"function"===k}function e(h){if(!v(h,l)){var k=new c;m(h,l,{value:k})}}function f(h){var k=Object[h];k&amp;&amp;(Object[h]=function(n){if(n instanceof c)return n;Object.isExtensible(n)&amp;&amp;e(n);return k(n)})}if(function(){if(!a||!Object.seal)return!1;try{var h=Object.seal({}),k=Object.seal({}), n=new a([[h,2],[k,3]]);if(2!=n.get(h)||3!=n.get(k))return!1;n.delete(h);n.set(k,4);return!n.has(h)&amp;&amp;4==n.get(k)}catch(A){return!1}}())return a;var l="$jscomp_hidden_"+Math.random();f("freeze");f("preventExtensions");f("seal");var g=0;b.prototype.set=function(h,k){if(!d(h))throw Error("Invalid WeakMap key");e(h);if(!v(h,l))throw Error("WeakMap key fail: "+h);h[l][this.g]=k;return this};b.prototype.get=function(h){return d(h)&amp;&amp;v(h,l)?h[l][this.g]:void 0};b.prototype.has=function(h){return d(h)&amp;&amp;v(h, l)&amp;&amp;v(h[l],this.g)};b.prototype.delete=function(h){return d(h)&amp;&amp;v(h,l)&amp;&amp;v(h[l],this.g)?delete h[l][this.g]:!1};return b}); p("Map",function(a){function b(){var g={};return g.s=g.next=g.head=g}function c(g,h){var k=g.g;return da(function(){if(k){for(;k.head!=g.g;)k=k.s;for(;k.next!=k.head;)return k=k.next,{done:!1,value:h(k)};k=null}return{done:!0,value:void 0}})}function d(g,h){var k=h&amp;&amp;typeof h;"object"==k||"function"==k?f.has(h)?k=f.get(h):(k=""+ ++l,f.set(h,k)):k="p_"+h;var n=g.i[k];if(n&amp;&amp;v(g.i,k))for(g=0;g&lt;n.length;g++){var A=n[g];if(h!==h&amp;&amp;A.key!==A.key||h===A.key)return{id:k,list:n,index:g,l:A}}return{id:k,list:n, index:-1,l:void 0}}function e(g){this.i={};this.g=b();this.size=0;if(g){g=q(g);for(var h;!(h=g.next()).done;)h=h.value,this.set(h[0],h[1])}}if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var g=Object.seal({x:4}),h=new a(q([[g,"s"]]));if("s"!=h.get(g)||1!=h.size||h.get({x:4})||h.set({x:4},"t")!=h||2!=h.size)return!1;var k=h.entries(),n=k.next();if(n.done||n.value[0]!=g||"s"!=n.value[1])return!1;n=k.next();return n.done||4!=n.value[0].x|| "t"!=n.value[1]||!k.next().done?!1:!0}catch(A){return!1}}())return a;var f=new WeakMap;e.prototype.set=function(g,h){g=0===g?0:g;var k=d(this,g);k.list||(k.list=this.i[k.id]=[]);k.l?k.l.value=h:(k.l={next:this.g,s:this.g.s,head:this.g,key:g,value:h},k.list.push(k.l),this.g.s.next=k.l,this.g.s=k.l,this.size++);return this};e.prototype.delete=function(g){g=d(this,g);return g.l&amp;&amp;g.list?(g.list.splice(g.index,1),g.list.length||delete this.i[g.id],g.l.s.next=g.l.next,g.l.next.s=g.l.s,g.l.head=null,this.size--, !0):!1};e.prototype.clear=function(){this.i={};this.g=this.g.s=b();this.size=0};e.prototype.has=function(g){return!!d(this,g).l};e.prototype.get=function(g){return(g=d(this,g).l)&amp;&amp;g.value};e.prototype.entries=function(){return c(this,function(g){return[g.key,g.value]})};e.prototype.keys=function(){return c(this,function(g){return g.key})};e.prototype.values=function(){return c(this,function(g){return g.value})};e.prototype.forEach=function(g,h){for(var k=this.entries(),n;!(n=k.next()).done;)n=n.value, g.call(h,n[1],n[0],this)};e.prototype[Symbol.iterator]=e.prototype.entries;var l=0;return e});function ja(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e}p("Array.prototype.entries",function(a){return a?a:function(){return ja(this,function(b,c){return[b,c]})}}); p("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)v(b,d)&amp;&amp;c.push([d,b[d]]);return c}});p("Array.prototype.findIndex",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++)if(b.call(c,d[f],f,d)){b=f;break a}b=-1}return b}});var w=this||self; function x(a,b,c){a=a.split(".");c=c||w;a[0]in c||"undefined"==typeof c.execScript||c.execScript("var "+a[0]);for(var d;a.length&amp;&amp;(d=a.shift());)a.length||void 0===b?c[d]&amp;&amp;c[d]!==Object.prototype[d]?c=c[d]:c=c[d]={}:c[d]=b}function y(a){var b=typeof a;return"object"==b&amp;&amp;null!=a||"function"==b}function ka(a,b,c){return a.call.apply(a.bind,arguments)} function la(a,b,c){if(!a)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var e=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(e,d);return a.apply(b,e)}}return function(){return a.apply(b,arguments)}}function z(a,b,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?z=ka:z=la;return z.apply(null,arguments)} function ma(a,b){var c=Array.prototype.slice.call(arguments,1);return function(){var d=c.slice();d.push.apply(d,arguments);return a.apply(this,d)}}function B(a,b){function c(){}c.prototype=b.prototype;a.A=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.L=function(d,e,f){for(var l=Array(arguments.length-2),g=2;g&lt;arguments.length;g++)l[g-2]=arguments[g];return b.prototype[e].apply(d,l)}}function C(a){return a};var na=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1};function D(){var a=w.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};function E(a){E[" "](a);return a}E[" "]=function(){};var oa=-1!=D().indexOf("Gecko")&amp;&amp;!(-1!=D().toLowerCase().indexOf("webkit")&amp;&amp;-1==D().indexOf("Edge"))&amp;&amp;!(-1!=D().indexOf("Trident")||-1!=D().indexOf("MSIE"))&amp;&amp;-1==D().indexOf("Edge");function pa(a,b,c){for(var d in a)b.call(c,a[d],d,a)}function qa(a){var b={},c;for(c in a)b[c]=a[c];return b}var ra="constructor hasOwnProperty isPrototypeOf propertyIsEnumerable toLocaleString toString valueOf".split(" ");function sa(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;ra.length;f++)c=ra[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};var F;function G(a,b){this.g=b===ta?a:""}G.prototype.toString=function(){return this.g+""};function ua(a){return a instanceof G&amp;&amp;a.constructor===G?a.g:"type_error:TrustedResourceUrl"}var ta={};function va(a){if(void 0===F){var b=null;var c=w.trustedTypes;if(c&amp;&amp;c.createPolicy){try{b=c.createPolicy("goog#html",{createHTML:C,createScript:C,createScriptURL:C})}catch(d){w.console&amp;&amp;w.console.error(d.message)}F=b}else F=b}a=(b=F)?b.createScriptURL(a):a;return new G(a,ta)};function wa(a){return a&amp;&amp;a.parentNode?a.parentNode.removeChild(a):null};function xa(a){a&amp;&amp;"function"==typeof a.I&amp;&amp;a.I()};function H(){this.u=this.u;this.o=this.o}H.prototype.u=!1;H.prototype.I=function(){this.u||(this.u=!0,this.i())};H.prototype.i=function(){if(this.o)for(;this.o.length;)this.o.shift()()};function I(a,b){this.type=a;this.g=this.target=b;this.defaultPrevented=!1}I.prototype.i=function(){this.defaultPrevented=!0};function J(a,b){this.messageName=a;this.parameters=b||{}}function ya(a,b){I.call(this,a.messageName,b);this.params=a.parameters||{}}u(ya,I);var za=-1!=(w.navigator?w.navigator.userAgent:"").indexOf("Android");/*  SPDX-License-Identifier: Apache-2.0 */ function Aa(a,b){var c=ua(a).toString();if(/#/.test(c))throw Error("");var d=/\\?/.test(c)?"&amp;":"?";b.forEach(function(e,f){e=e instanceof Array?e:[e];for(var l=0;l&lt;e.length;l++){var g=e[l];null!==g&amp;&amp;void 0!==g&amp;&amp;(c+=d+encodeURIComponent(f)+"="+encodeURIComponent(String(g)),d="&amp;")}});return va(c)};function Ba(a){var b=va("gmsg://mobileads.google.com/"+a.messageName);return Aa(b,new Map(Object.entries(a.parameters)))};var Ca=function(){if(!w.addEventListener||!Object.defineProperty)return!1;var a=!1,b=Object.defineProperty({},"passive",{get:function(){a=!0}});try{w.addEventListener("test",function(){},b),w.removeEventListener("test",function(){},b)}catch(c){}return a}();function K(a,b){I.call(this,a?a.type:"");this.relatedTarget=this.g=this.target=null;this.button=this.screenY=this.screenX=this.clientY=this.clientX=0;this.key="";this.metaKey=this.shiftKey=this.altKey=this.ctrlKey=!1;this.state=null;this.pointerId=0;this.pointerType="";this.h=null;if(a){var c=this.type=a.type,d=a.changedTouches&amp;&amp;a.changedTouches.length?a.changedTouches[0]:null;this.target=a.target||a.srcElement;this.g=b;if(b=a.relatedTarget){if(oa){a:{try{E(b.nodeName);var e=!0;break a}catch(f){}e= !1}e||(b=null)}}else"mouseover"==c?b=a.fromElement:"mouseout"==c&amp;&amp;(b=a.toElement);this.relatedTarget=b;d?(this.clientX=void 0!==d.clientX?d.clientX:d.pageX,this.clientY=void 0!==d.clientY?d.clientY:d.pageY,this.screenX=d.screenX||0,this.screenY=d.screenY||0):(this.clientX=void 0!==a.clientX?a.clientX:a.pageX,this.clientY=void 0!==a.clientY?a.clientY:a.pageY,this.screenX=a.screenX||0,this.screenY=a.screenY||0);this.button=a.button;this.key=a.key||"";this.ctrlKey=a.ctrlKey;this.altKey=a.altKey;this.shiftKey= a.shiftKey;this.metaKey=a.metaKey;this.pointerId=a.pointerId||0;this.pointerType="string"===typeof a.pointerType?a.pointerType:Da[a.pointerType]||"";this.state=a.state;this.h=a;a.defaultPrevented&amp;&amp;K.A.i.call(this)}}B(K,I);var Da={2:"touch",3:"pen",4:"mouse"};K.prototype.i=function(){K.A.i.call(this);var a=this.h;a.preventDefault?a.preventDefault():a.returnValue=!1};var L="closure_listenable_"+(1E6*Math.random()|0);var Ea=0;function Fa(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.G=e;this.key=++Ea;this.B=this.F=!1}function M(a){a.B=!0;a.listener=null;a.proxy=null;a.src=null;a.G=null};function N(a){this.src=a;this.g={};this.i=0}N.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.i++);var l=O(a,b,d,e);-1&lt;l?(b=a[l],c||(b.F=!1)):(b=new Fa(b,this.src,f,!!d,e),b.F=c,a.push(b));return b};function Ga(a,b,c,d,e){b=b.toString();if(b in a.g){var f=a.g[b];c=O(f,c,d,e);-1&lt;c&amp;&amp;(M(f[c]),Array.prototype.splice.call(f,c,1),0==f.length&amp;&amp;(delete a.g[b],a.i--))}} function P(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=na(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(M(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.i--))}}function O(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.B&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.G==d)return e}return-1};var Q="closure_lm_"+(1E6*Math.random()|0),Ha={},Ia=0;function Ja(a,b,c,d,e){if(d&amp;&amp;d.once)return R(a,b,c,d,e);if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)Ja(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!1,y(d)?!!d.capture:!!d,e):La(a,b,c,!1,d,e)} function La(a,b,c,d,e,f){if(!b)throw Error("Invalid event type");var l=y(e)?!!e.capture:!!e,g=Ma(a);g||(a[Q]=g=new N(a));c=g.add(b,c,d,l,f);if(c.proxy)return c;d=Na();c.proxy=d;d.src=a;d.listener=c;if(a.addEventListener)Ca||(e=l),void 0===e&amp;&amp;(e=!1),a.addEventListener(b.toString(),d,e);else if(a.attachEvent)a.attachEvent(Oa(b.toString()),d);else if(a.addListener&amp;&amp;a.removeListener)a.addListener(d);else throw Error("addEventListener and attachEvent are unavailable.");Ia++;return c} function Na(){function a(c){return b.call(a.src,a.listener,c)}var b=Pa;return a}function R(a,b,c,d,e){if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)R(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!0,y(d)?!!d.capture:!!d,e):La(a,b,c,!0,d,e)} function Qa(a,b,c,d,e){if(Array.isArray(b))for(var f=0;f&lt;b.length;f++)Qa(a,b[f],c,d,e);else(d=y(d)?!!d.capture:!!d,c=Ka(c),a&amp;&amp;a[L])?Ga(a.g,String(b),c,d,e):a&amp;&amp;(a=Ma(a))&amp;&amp;(b=a.g[b.toString()],a=-1,b&amp;&amp;(a=O(b,c,d,e)),(c=-1&lt;a?b[a]:null)&amp;&amp;Ra(c))} function Ra(a){if("number"!==typeof a&amp;&amp;a&amp;&amp;!a.B){var b=a.src;if(b&amp;&amp;b[L])P(b.g,a);else{var c=a.type,d=a.proxy;b.removeEventListener?b.removeEventListener(c,d,a.capture):b.detachEvent?b.detachEvent(Oa(c),d):b.addListener&amp;&amp;b.removeListener&amp;&amp;b.removeListener(d);Ia--;(c=Ma(b))?(P(c,a),0==c.i&amp;&amp;(c.src=null,b[Q]=null)):M(a)}}}function Oa(a){return a in Ha?Ha[a]:Ha[a]="on"+a}function Pa(a,b){if(a.B)a=!0;else{b=new K(b,this);var c=a.listener,d=a.G||a.src;a.F&amp;&amp;Ra(a);a=c.call(d,b)}return a} function Ma(a){a=a[Q];return a instanceof N?a:null}var Sa="__closure_events_fn_"+(1E9*Math.random()&gt;&gt;&gt;0);function Ka(a){if("function"===typeof a)return a;a[Sa]||(a[Sa]=function(b){return a.handleEvent(b)});return a[Sa]};function S(a){H.call(this);this.h=a;this.g={}}B(S,H);var Ta=[];function Ua(a){pa(a.g,function(b,c){this.g.hasOwnProperty(c)&amp;&amp;Ra(b)},a);a.g={}}S.prototype.i=function(){S.A.i.call(this);Ua(this)};S.prototype.handleEvent=function(){throw Error("EventHandler.handleEvent not implemented");};function T(){H.call(this);this.g=new N(this);this.J=this;this.C=null}B(T,H);T.prototype[L]=!0;T.prototype.addEventListener=function(a,b,c,d){Ja(this,a,b,c,d)};T.prototype.removeEventListener=function(a,b,c,d){Qa(this,a,b,c,d)}; function Va(a,b){var c,d=a.C;if(d)for(c=[];d;d=d.C)c.push(d);a=a.J;d=b.type||b;if("string"===typeof b)b=new I(b,a);else if(b instanceof I)b.target=b.target||a;else{var e=b;b=new I(d,a);sa(b,e)}e=!0;if(c)for(var f=c.length-1;0&lt;=f;f--){var l=b.g=c[f];e=U(l,d,!0,b)&amp;&amp;e}l=b.g=a;e=U(l,d,!0,b)&amp;&amp;e;e=U(l,d,!1,b)&amp;&amp;e;if(c)for(f=0;f&lt;c.length;f++)l=b.g=c[f],e=U(l,d,!1,b)&amp;&amp;e} T.prototype.i=function(){T.A.i.call(this);if(this.g){var a=this.g,b=0,c;for(c in a.g){for(var d=a.g[c],e=0;e&lt;d.length;e++)++b,M(d[e]);delete a.g[c];a.i--}}this.C=null};function U(a,b,c,d){b=a.g.g[String(b)];if(!b)return!0;b=b.concat();for(var e=!0,f=0;f&lt;b.length;++f){var l=b[f];if(l&amp;&amp;!l.B&amp;&amp;l.capture==c){var g=l.listener,h=l.G||l.src;l.F&amp;&amp;P(a.g,l);e=!1!==g.call(h,d)&amp;&amp;e}}return e&amp;&amp;!d.defaultPrevented};function V(a,b){T.call(this);this.v=a||1;this.m=b||w;this.H=z(this.K,this);this.D=Date.now()}B(V,T);V.prototype.j=!1;V.prototype.h=null;V.prototype.K=function(){if(this.j){var a=Date.now()-this.D;0&lt;a&amp;&amp;a&lt;.8*this.v?this.h=this.m.setTimeout(this.H,this.v-a):(this.h&amp;&amp;(this.m.clearTimeout(this.h),this.h=null),Va(this,"tick"),this.j&amp;&amp;(Wa(this),this.start()))}};V.prototype.start=function(){this.j=!0;this.h||(this.h=this.m.setTimeout(this.H,this.v),this.D=Date.now())}; function Wa(a){a.j=!1;a.h&amp;&amp;(a.m.clearTimeout(a.h),a.h=null)}V.prototype.i=function(){V.A.i.call(this);Wa(this);delete this.m};function Xa(){if(window.googleJsEnvironment&amp;&amp;("rhino"==window.googleJsEnvironment.environment||"jscore"==window.googleJsEnvironment.environment))return new W;if(za&amp;&amp;window.googleAdsJsInterface&amp;&amp;"notify"in window.googleAdsJsInterface)try{return window.googleAdsJsInterface.notify("gmsg://mobileads.google.com/noop"),new W}catch(a){}else if(window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler)return new Ya;return new Za}function $a(){ab||(ab=Xa());return ab} var ab=null;function X(){H.call(this)}u(X,H);function bb(a){var b=qa(a.parameters);b["google.afma.Notify_dt"]=(new Date).getTime();return Ba(new J(a.messageName,b)).toString()}function Y(a,b){H.call(this);this.v=a;this.C=b||1;this.m=[];this.j=new V(this.C);a=this.H=new S(this);b=this.j;var c=this.D,d="tick";Array.isArray(d)||(d&amp;&amp;(Ta[0]=d.toString()),d=Ta);for(var e=0;e&lt;d.length;e++){var f=Ja(b,d[e],c||a.handleEvent,!1,a.h||a);if(!f)break;a.g[f.key]=f}}u(Y,X); Y.prototype.sendMessage=function(a){this.m.push(a);this.j.j||(a=this.m.shift(),this.v(a),this.j.start())};Y.prototype.D=function(){var a=this.m.shift();a?this.v(a):Wa(this.j)}; function Za(){Y.call(this,function(b){var c=a.g[a.h];if(!c){var d=document;c="IFRAME";"application/xhtml+xml"===d.contentType&amp;&amp;(c=c.toLowerCase());c=d.createElement(c);c.id="afma-notify-"+(new Date).getTime();c.style.display="none";a.g[a.h]=c}a.h=(a.h+1)%25;d=qa(b.parameters);d["google.afma.Notify_dt"]=(new Date).getTime();b=Ba(new J(b.messageName,d));c.src=ua(b).toString();c.parentNode||document.body.appendChild(c)});var a=this;this.g=[];this.h=0}u(Za,Y); Za.prototype.i=function(){this.g.forEach(wa);this.g=[];Y.prototype.i.call(this)};function W(){H.call(this)}u(W,X);W.prototype.sendMessage=function(a){a=bb(a);window.googleAdsJsInterface&amp;&amp;window.googleAdsJsInterface.notify&amp;&amp;(window.googleAdsJsInterface.notify(a),window.googleAdsJsInterface.DEBUG&amp;&amp;console.log(a))};function Ya(){H.call(this)}u(Ya,X);Ya.prototype.sendMessage=function(a){a=bb(a);window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler.postMessage(a)};/*  Math.uuid.js (v1.4) http://www.broofa.com mailto:robert@broofa.com Copyright (c) 2010 Robert Kieffer Dual licensed under the MIT and GPL licenses. */ var cb="0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz".split("");function db(a){for(var b=Array(36),c=0,d,e=0;36&gt;e;e++)8==e||13==e||18==e||23==e?b[e]="-":14==e?b[e]="4":(2&gt;=c&amp;&amp;(c=33554432+16777216*Math.random()|0),d=c&amp;15,c&gt;&gt;=4,b[e]=cb[19==e?d&amp;3|8:d]);this.uuid=b.join("");this.callback=a} function eb(a){var b=w.imalib_globalCallbacks||new Map,c=b.get("AFMA_updateActiveView")||[];if(0===c.length&amp;&amp;w.AFMA_updateActiveView){var d=new db(w.AFMA_updateActiveView);c.push(d);w.AFMA_updateActiveView=void 0}w.AFMA_updateActiveView||(w.AFMA_updateActiveView=function(){var e=b.get("AFMA_updateActiveView");e=q(e);for(var f=e.next();!f.done;f=e.next())f.value.callback.apply(null,arguments)});a=new db(a);c.push(a);b.set("AFMA_updateActiveView",c);w.imalib_globalCallbacks=b;return a.uuid} function fb(a){if(w.AFMA_updateActiveView){var b=w.imalib_globalCallbacks;if(b){var c=b.get("AFMA_updateActiveView");if(c){var d=c.findIndex(function(e){return e.uuid===a});-1!==d&amp;&amp;(c.splice(d,1),0===c.length&amp;&amp;(w.AFMA_updateActiveView=void 0),b.set("AFMA_updateActiveView",c),w.imalib_globalCallbacks=b)}}}};function gb(){var a=this;this.o=[];this.h=window===window.top;this.j=!1;this.g=0;this.i=null;"undefined"!==typeof window.addEventListener&amp;&amp;window.addEventListener("message",function(b){return hb(a,b)})} function hb(a,b){var c=b.data;if((b=b.source)&amp;&amp;c){var d=a.o;if("arwebview_iframe_loaded"===c&amp;&amp;a.h)x("JavascriptWebViewBridge.incoming.postMessage",a.u.bind(a),w),-1===d.indexOf(b)&amp;&amp;d.push(b);else{var e=c.messageName;c=c.parameters;if(a.h)switch(e){case "mraid_loaded":!1===c.is_top_win&amp;&amp;(a.j=!0,a.i=eb(function(f){a.h&amp;&amp;ib(a,new J("update_activeview_action",f))}),-1===d.indexOf(b)&amp;&amp;(d.push(b),"undefined"!==typeof b.postMessage&amp;&amp;b.postMessage(new J("mraid_env_obj",window.MRAID_ENV),"*")));break;case "start_tracking_action":0== a.g&amp;&amp;window.AFMA_SendMessage("trackActiveViewUnit");a.g+=1;break;case "stop_tracking_action":--a.g,0==a.g&amp;&amp;(window.AFMA_SendMessage("untrackActiveViewUnit",{hashCode:c.hashCode}),a.i&amp;&amp;(fb(a.i),a.i=null))}else switch(e){case "mraid_env_obj":window.MRAID_ENV=c;break;case "update_activeview_action":window.AFMA_updateActiveView&amp;&amp;window.AFMA_updateActiveView(c);break;case "receive_message_action":window.AFMA_ReceiveMessage(c.messageName,c.parameters)}}}} gb.prototype.u=function(a){this.h&amp;&amp;ib(this,{name:"arwebview_message_forwarded",message:a})};function ib(a,b){a.o.forEach(function(c){return c.postMessage(b,"*")})};function Z(){T.call(this);this.j=$a();this.j=$a();var a=ma(xa,this.j);this.u?a():(this.o||(this.o=[]),this.o.push(a));this.h={};this.m=new gb}u(Z,T);Z.prototype.sendMessage=function(a,b){var c=this,d;"string"===typeof a?d=new J(a,b):a instanceof J&amp;&amp;(d=a);"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return c.j.sendMessage(d)},!1,this):this.j.sendMessage(d)}; Z.prototype.receiveMessage=function(a,b){if(this.shouldForwardMessageToIframe())this.forwardMessage(new J("receive_message_action",new J(a,b)));else{var c=document.getElementById("ad_iframe");void 0!=c&amp;&amp;void 0!=c.contentWindow&amp;&amp;void 0!=c.contentWindow.AFMA_ReceiveMessage&amp;&amp;c.contentWindow.AFMA_ReceiveMessage(a,b)}"onshow"==a&amp;&amp;"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return jb(a,null!=b?b:void 0)}):Va(this,new ya(new J(a,b),this))}; Z.prototype.addObserver=function(a,b,c){function d(e){return void c.call(b,e.type,e.params)}this.g.add(String(a),d,!1,void 0,void 0);this.h[a]||(this.h[a]={});this.h[a][b]=d};Z.prototype.removeObserver=function(a,b){this.h[a]&amp;&amp;this.h[a][b]&amp;&amp;(Ga(this.g,String(a),this.h[a][b]),delete this.h[a][b])};Z.prototype.shouldForwardMessageToIframe=function(){return this.m.j};Z.prototype.forwardMessage=function(a){ib(this.m,a)}; function kb(a,b){w.AFMA_Communicator?w.AFMA_Communicator.sendMessage(a,b):lb(a,b)}function lb(a,b){"loading"==document.readyState?(a=z(lb,null,a,b),R(w,"DOMContentLoaded",a,!1)):(a=new J(a,b),$a().sendMessage(a))}function jb(a,b){w.AFMA_Communicator.receiveMessage(a,b)}function mb(a,b,c,d){w.AFMA_Communicator.removeEventListener(a,b,c,d)}function nb(a,b,c,d){w.AFMA_Communicator.addEventListener(a,b,c,d)}function ob(a,b,c){w.AFMA_Communicator.addObserver(a,b,c)} function pb(a,b){w.AFMA_Communicator.removeObserver(a,b)}w.AFMA_Communicator||(x("AFMA_AddEventListener",nb,w),x("AFMA_RemoveEventListener",mb,w),x("AFMA_AddObserver",ob,w),x("AFMA_RemoveObserver",pb,w),x("AFMA_ReceiveMessage",jb,w),x("AFMA_SendMessage",kb,w),w.AFMA_Communicator=new Z);nb("onSdkImpression",function(){x("Goog_Omid_SdkImpressionReceived",!0)});nb("onSdkLoaded",function(){x("Goog_Omid_SdkLoadedReceived",!0)});}).call(this);&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omsdk-v1.js"&gt;&lt;/script&gt;&lt;/head&gt;&lt;body leftMargin="0" topMargin="0" marginwidth="0" marginheight="0"&gt;&lt;div class="GoogleActiveViewInnerContainer"style="left:0px;top:0px;width:100%;height:100%;position:fixed;pointer-events:none;z-index:-9999;"&gt;&lt;/div&gt;&lt;div style="display:inline"class="GoogleActiveViewElement"data-google-av-cxn="https://pagead2.googlesyndication.com/pcs/activeview?xai=AKAOjsvxTTvuL7vefnxzvKOFIWcvUXjINfBjsfPZJsRgdpTzzqKUxksX-b3RxhaPCNI78EuUgja8P1d6bg8m7hHb7NV09kCN&amp;amp;sig=Cg0ArKJSzC3pPwU5tUTrEAE"data-google-av-adk="1334126877"data-google-av-metadata="la=0&amp;amp;omid=1&amp;amp;sloi=1&amp;amp;"data-google-av-ufs-integrator-metadata=""data-google-av-override="-1"data-google-av-dm="2"data-google-av-aid="0"data-google-av-naid="1"data-google-av-inapp data-google-av-slift=""data-google-av-cpmav=""data-google-av-btr=""data-google-av-itpl="20"data-google-av-rs="9"data-google-av-flags="[&amp;quot;x%278440&amp;#39;9efotm(&amp;amp;753374%2bejvf/%27844&amp;gt;&amp;#39;9wuvb$&amp;amp;56533&amp;gt;!=|vqc)!273794&amp;amp;&amp;lt;qqvb/%&amp;lt;1735020!=nehu`/!364=5051!9abk{a($160210:3&amp;amp;&amp;lt;cbotf+*0150034:%2bejvf/%72;17613!=efdwa*&amp;#39;76463;21$?ebkpb$&amp;amp;0366717&amp;gt;*&amp;gt;bgipf+!3=712363%9aihwc)!7202&amp;lt;217&amp;#39;9efotm(&amp;amp;20061;48&amp;amp;&amp;gt;`dopb/%&amp;lt;1707200!=8(&amp;amp;2005575?&amp;amp;&amp;gt;`dopb/%&amp;lt;170642?!=|vqc)!7201;=50&amp;#39;9wuvb$&amp;amp;03641654*&amp;gt;bgipf+!3=731103%9aihwc)!7200?073&amp;#39;9efotm(&amp;amp;2004?51;&amp;amp;&amp;gt;`dopb/%&amp;lt;17&amp;gt;474&amp;gt;!=nehu`/!36406412!9abk{a($160&amp;gt;358&amp;lt;&amp;amp;&amp;lt;cbotfz&amp;quot;]"&gt;    &lt;script type="text/javascript"&gt;\n      rubicon_cb = Math.random(); rubicon_rurl = document.referrer; if(top.location==document.location){rubicon_rurl = document.location;} rubicon_rurl = escape(rubicon_rurl);\n      window.rubicon_ad = "4357852" + "." + "js";\n      window.rubicon_creative = "4957212" + "." + "js";\n    &lt;/script&gt;\n&lt;div data-rp-type="trp-display-creative" data-rp-impression-id="fc8e0138-bccd-46e7-8b0c-ac3c736c6c0a" data-rp-aqid="2132:30069426" data-rp-acct-id="17752"&gt;\n\n\n&lt;script src="mraid.js"&gt;&lt;/script&gt;&lt;iframe src="https://westads.simpli.fi/ads/3341154/30069426/_p.html?sifi=8475,3341154,30069426,0,28,0,0,0,0,389,6,v,26.95680,1BACC8E50A22C964,0,0,0,23,5AF99DBF55B9840BA87AA4044345318A,0,4,0,1210,400,1,0,0,607,0,702,bidder-base-prd-us-west1-b-b51b4ab6:9019-1679028448202-62939718,1,0,395291,2,0,28,12,47404,0,0.00,1,220412618550898,0,0,3,137847689,1,-4,0,97,,5,355726,0,0,2,3,17752,8,277,4254679&amp;hash_rid=C5773E117CB367AD785907CA8AAB5264&amp;sifi_exchange_uid=973d876f0da652cb5d27495da456620f47626fa3&amp;request_id=02ae1a07e2c3bfe772a3459dfe280b3f53ba8c67" width="320" height="50" frameborder="0" marginwidth="0" marginheight="0" scrolling="no"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n&lt;/div&gt;&lt;script data-jc="22" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/window_focus.js" async data-jc-version="r20230315" data-jcp-url="https://googleads.g.doubleclick.net/pagead/interaction/?ai=CiKEL4PATZIKmAf_C48APjOqikAf-0_evXM7PvdjqAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgSPAk_Q1SO84n4HjCz2hAStv08p_y5XZ3GzMBTUI7KGgdTLy9q213idqxTLvoiFsAZsLzSHFX3jNTK8xSVs5zADxBVA-yQnsKb9biTyUCSP4SPQv6WtEf6Hrn82VYaUEgbh8NXI6LaTw8ObuClnICOKxIH9U76TFa2I5Ij1YXAxgkjCWQnFd18a8tHGzTDj8fcVWCHSqbhp9k7KMfwsWcrGywyN1RMGkIf5eSFGoPOI0QiOTfUyjstyi-B1o8hXHNQj9mb3HM_UtuCpuQ9XZ2eWVSkOnQyuK3BrrsWrtRztiuXWh49T07KrUW3a2pIZwA5s9Hm0oqt6ds7mymBmQ_MROtRs8JvPiuriS9o4f-0JaYHgBAGABvXnstOruvyiG6AGIagHpr4bqAeW2BuoB6qbsQKoB_-esQKoB9-fsQLYBwDSCA0IgGEQATICigI6AoBA-gsCCAGADAHQFQGAFwE&amp;amp;sigh=-kctdXVkeEM&amp;amp;cid=CAQShgEA1BOcptHGdazj3oCnr4CP_KEqL6uYDT5LWdrI_r5zjIvPEXPxMk83j56bhttHxnFthNm42VjR6lS3_bQOZL9ET_Ql8PpC3xkWrYJJE267varikx1t8aoRlv-nV34c_CvIQ8Z5nkpSI2HfJf1-rlKpIg1GmJXkklarzhmF8rE8kydgLdhOPA" data-jcp-gws-id="3_ATZMvwO5rD48APkKSX8Aw" data-jcp-qem-id="CIKW2bGU4v0CFX_hGAIdDLUIcg"&gt;&lt;/script&gt;&lt;script data-jc="23" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/qs_click_protection.js" data-jc-version="r20230315"&gt;&lt;/script&gt;&lt;script&gt;googqscp.init([[[[null,1500,99,2,4,null,null,null,1],[null,500,99,2,9,null,null,null,1]]]]);&lt;/script&gt;&lt;div style="bottom:0;right:0;width:320px;height:50px;background:initial !important;position:absolute !important;max-width:100% !important;max-height:100% !important;pointer-events:none !important;image-rendering:pixelated !important;background-repeat:no-repeat !important;z-index:2147483647;background-image:url(\'data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAQ4AAAAyBAMAAABfUCj0AAAABlBMVEUAAAD+AciWmZzWAAAAAnRSTlMAApidrBQAAAE+SURBVFjD7VZJDsQgDAs/4P+vncHZ2x5raTRKSxfAiqwsxCI/ci29vj9n+GzrJYJhMyYUa+I7MVvKEUbwxYwJBVts2BdvsIUN+543EyqxqLwudpT01Q4DWvbWo5n9ZOZ1aM0PA/VImr1L0N+Hei5HNFtmRzRrETCgWcBn417VUiFMKFi7n7CNYG3jq65VFzOhfqAodbv97NEfu4UKVbb2AKJltXc8sIb8JkJ1bYfPLKLmK3OvR5QJdc7hLgznHJ49gwltme25kym+PLdbijOgWekRz1bpEc96KLwPzfM080ejFXTTHBNaO2Nkd+uMkd1MaO+30QxqZ8xmwIQmc8l+UJhL9gMmtEbSjpZzrxKzLEEmtHdGR/XOaAaZUBm9Pnp99Pro9dHro9dHr49eH70+en30+uj10euj1/9Ar38ApYZrdlHtrPcAAAAASUVORK5CYII=\') !important;"&gt;&lt;/div&gt;&lt;script id="googleOmidDisplayScript" src="https://www.googletagservices.com/activeview/js/current/lidar.js?cache=r20110914"&gt;&lt;/script&gt;&lt;script data-jc="28" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ var e=this||self;function f(b,a,c){return b.call.apply(b.bind,arguments)}function g(b,a,c){if(!b)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var k=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(k,d);return b.apply(a,k)}}return function(){return b.apply(a,arguments)}}function h(b,a,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?h=f:h=g;return h.apply(null,arguments)};var l,m;a:{for(var n=["CLOSURE_FLAGS"],p=e,q=0;q&lt;n.length;q++)if(p=p[n[q]],null==p){m=null;break a}m=p}var r=m&amp;&amp;m[610401301];l=null!=r?r:!1;var t,u=e.navigator;t=u?u.userAgentData||null:null;function v(b){return l?t?t.brands.some(function(a){return(a=a.brand)&amp;&amp;-1!=a.indexOf(b)}):!1:!1}function w(b){var a;a:{if(a=e.navigator)if(a=a.userAgent)break a;a=""}return-1!=a.indexOf(b)};function x(){return l?!!t&amp;&amp;0&lt;t.brands.length:!1}function y(){return x()?v("Chromium"):(w("Chrome")||w("CriOS"))&amp;&amp;!(x()?0:w("Edge"))||w("Silk")};!w("Android")||y();y();w("Safari")&amp;&amp;(y()||(x()?0:w("Coast"))||(x()?0:w("Opera"))||(x()?0:w("Edge"))||(x()?v("Microsoft Edge"):w("Edg/"))||x()&amp;&amp;v("Opera"));function z(b){this.h=null;var a={top:10,right:10,bottom:10,left:10};b&amp;&amp;(b=b.split(","),4!=b.length||isNaN(b[0])||isNaN(b[1])||isNaN(b[2])||isNaN(b[3])||(a.top=+b[0],a.right=+b[1],a.bottom=+b[2],a.left=+b[3]));this.g=a} z.prototype.i=function(b){for(var a=!1,c=b.target;c;c=c.parentNode)if("abgc"==c.id){a=!0;break}if(!a){var d=this.h.getBoundingClientRect();a=d.width;c=d.height;var k=b.clientX-d.left;d=b.clientY-d.top;a="number"!==typeof a||"number"!==typeof c||"number"!==typeof b.clientX||"number"!==typeof b.clientY||0&gt;=a||0&gt;=c||0&gt;k||0&gt;d?!0:k&gt;=this.g.left&amp;&amp;a-k&gt;=this.g.right&amp;&amp;d&gt;=this.g.top&amp;&amp;c-d&gt;=this.g.bottom}a||(b.preventDefault?b.preventDefault():b.returnValue=!1)};function A(b,a){a||(a="");a=new z(a);a.h=b;b=a.h;var c=h(a.i,a);b.addEventListener&amp;&amp;b.addEventListener("click",c,!1);return a}var B=["googleInitIc"],C=e;B[0]in C||"undefined"==typeof C.execScript||C.execScript("var "+B[0]);for(var D;B.length&amp;&amp;(D=B.shift());)B.length||void 0===A?C[D]&amp;&amp;C[D]!==Object.prototype[D]?C=C[D]:C=C[D]={}:C[D]=A;}).call(this);&lt;/script&gt;&lt;script&gt;googleInitIc(document.body,\'10,10,10,10\');&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omid_session_bin.js"&gt;&lt;/script&gt;&lt;script type="text/javascript"&gt;(function() {var omidSession = new OmidCreativeSession([]);})();&lt;/script&gt;&lt;/body&gt;&lt;/html&gt;', 'size': 31676, 'mimeType': 'text/html; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '{"ads":{"m320x50p45":{"b":"JOwvhCct9gYkarbnqNxDgIwAAAGG7eU38QEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAYP5wO","crid":"420404073","kvp":{"amznrdr":["default"],"amznp":["1b3s3k0"],"dc":["iad"]},"sz":"320x50","i":"https://aax-us-east.amazon-adsystem.com/e/msdk/imp?b=JOwvhCct9gYkarbnqNxDgIwAAAGG7eU38QEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAYP5wO&amp;ps=m320x50p45"}},"instrPixelURL":"https://aax-us-east.amazon-adsystem.com/x/px/ROwvhCct9gYkarbnqNxDgIwAAAGG7eU3MgEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAYP5wO/","errorCode":"200","request_id":"7C-EJy32BiRqtueo3EOAjA","status":"ok"}\n', 'size': 601, 'mimeType': 'text/javascript;charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '&lt;!doctype html&gt;&lt;html&gt;&lt;head&gt;&lt;meta name="viewport" content="width=320, initial-scale=1.0, minimum-scale=1.0, maximum-scale=1.0, user-scalable=no"&gt;&lt;script&gt;var jscVersion = \'r20230315\';&lt;/script&gt;&lt;script&gt;var google_casm=["afma-sdk-i-v8.11.0"];&lt;/script&gt;&lt;script data-jc="84" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ function aa(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}}var m="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a}; function ba(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("Cannot find global object");}var ca=ba(this);function p(a,b){if(b)a:{var c=ca;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;m(c,a,{configurable:!0,writable:!0,value:b})}} p("Symbol",function(a){function b(f){if(this instanceof b)throw new TypeError("Symbol is not a constructor");return new c(d+(f||"")+"_"+e++,f)}function c(f,l){this.g=f;m(this,"description",{configurable:!0,writable:!0,value:l})}if(a)return a;c.prototype.toString=function(){return this.g};var d="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",e=0;return b}); p("Symbol.iterator",function(a){if(a)return a;a=Symbol("Symbol.iterator");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=ca[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;m(d.prototype,a,{configurable:!0,writable:!0,value:function(){return da(aa(this))}})}return a});function da(a){a={next:a};a[Symbol.iterator]=function(){return this};return a} function q(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];if(b)return b.call(a);if("number"==typeof a.length)return{next:aa(a)};throw Error(String(a)+" is not an iterable or ArrayLike");}var ea="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},r; if("function"==typeof Object.setPrototypeOf)r=Object.setPrototypeOf;else{var t;a:{var fa={a:!0},ha={};try{ha.__proto__=fa;t=ha.a;break a}catch(a){}t=!1}r=t?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ia=r; function u(a,b){a.prototype=ea(b.prototype);a.prototype.constructor=a;if(ia)ia(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.A=b.prototype}function v(a,b){return Object.prototype.hasOwnProperty.call(a,b)} p("WeakMap",function(a){function b(h){this.g=(g+=Math.random()+1).toString();if(h){h=q(h);for(var k;!(k=h.next()).done;)k=k.value,this.set(k[0],k[1])}}function c(){}function d(h){var k=typeof h;return"object"===k&amp;&amp;null!==h||"function"===k}function e(h){if(!v(h,l)){var k=new c;m(h,l,{value:k})}}function f(h){var k=Object[h];k&amp;&amp;(Object[h]=function(n){if(n instanceof c)return n;Object.isExtensible(n)&amp;&amp;e(n);return k(n)})}if(function(){if(!a||!Object.seal)return!1;try{var h=Object.seal({}),k=Object.seal({}), n=new a([[h,2],[k,3]]);if(2!=n.get(h)||3!=n.get(k))return!1;n.delete(h);n.set(k,4);return!n.has(h)&amp;&amp;4==n.get(k)}catch(A){return!1}}())return a;var l="$jscomp_hidden_"+Math.random();f("freeze");f("preventExtensions");f("seal");var g=0;b.prototype.set=function(h,k){if(!d(h))throw Error("Invalid WeakMap key");e(h);if(!v(h,l))throw Error("WeakMap key fail: "+h);h[l][this.g]=k;return this};b.prototype.get=function(h){return d(h)&amp;&amp;v(h,l)?h[l][this.g]:void 0};b.prototype.has=function(h){return d(h)&amp;&amp;v(h, l)&amp;&amp;v(h[l],this.g)};b.prototype.delete=function(h){return d(h)&amp;&amp;v(h,l)&amp;&amp;v(h[l],this.g)?delete h[l][this.g]:!1};return b}); p("Map",function(a){function b(){var g={};return g.s=g.next=g.head=g}function c(g,h){var k=g.g;return da(function(){if(k){for(;k.head!=g.g;)k=k.s;for(;k.next!=k.head;)return k=k.next,{done:!1,value:h(k)};k=null}return{done:!0,value:void 0}})}function d(g,h){var k=h&amp;&amp;typeof h;"object"==k||"function"==k?f.has(h)?k=f.get(h):(k=""+ ++l,f.set(h,k)):k="p_"+h;var n=g.i[k];if(n&amp;&amp;v(g.i,k))for(g=0;g&lt;n.length;g++){var A=n[g];if(h!==h&amp;&amp;A.key!==A.key||h===A.key)return{id:k,list:n,index:g,l:A}}return{id:k,list:n, index:-1,l:void 0}}function e(g){this.i={};this.g=b();this.size=0;if(g){g=q(g);for(var h;!(h=g.next()).done;)h=h.value,this.set(h[0],h[1])}}if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var g=Object.seal({x:4}),h=new a(q([[g,"s"]]));if("s"!=h.get(g)||1!=h.size||h.get({x:4})||h.set({x:4},"t")!=h||2!=h.size)return!1;var k=h.entries(),n=k.next();if(n.done||n.value[0]!=g||"s"!=n.value[1])return!1;n=k.next();return n.done||4!=n.value[0].x|| "t"!=n.value[1]||!k.next().done?!1:!0}catch(A){return!1}}())return a;var f=new WeakMap;e.prototype.set=function(g,h){g=0===g?0:g;var k=d(this,g);k.list||(k.list=this.i[k.id]=[]);k.l?k.l.value=h:(k.l={next:this.g,s:this.g.s,head:this.g,key:g,value:h},k.list.push(k.l),this.g.s.next=k.l,this.g.s=k.l,this.size++);return this};e.prototype.delete=function(g){g=d(this,g);return g.l&amp;&amp;g.list?(g.list.splice(g.index,1),g.list.length||delete this.i[g.id],g.l.s.next=g.l.next,g.l.next.s=g.l.s,g.l.head=null,this.size--, !0):!1};e.prototype.clear=function(){this.i={};this.g=this.g.s=b();this.size=0};e.prototype.has=function(g){return!!d(this,g).l};e.prototype.get=function(g){return(g=d(this,g).l)&amp;&amp;g.value};e.prototype.entries=function(){return c(this,function(g){return[g.key,g.value]})};e.prototype.keys=function(){return c(this,function(g){return g.key})};e.prototype.values=function(){return c(this,function(g){return g.value})};e.prototype.forEach=function(g,h){for(var k=this.entries(),n;!(n=k.next()).done;)n=n.value, g.call(h,n[1],n[0],this)};e.prototype[Symbol.iterator]=e.prototype.entries;var l=0;return e});function ja(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e}p("Array.prototype.entries",function(a){return a?a:function(){return ja(this,function(b,c){return[b,c]})}}); p("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)v(b,d)&amp;&amp;c.push([d,b[d]]);return c}});p("Array.prototype.findIndex",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++)if(b.call(c,d[f],f,d)){b=f;break a}b=-1}return b}});var w=this||self; function x(a,b,c){a=a.split(".");c=c||w;a[0]in c||"undefined"==typeof c.execScript||c.execScript("var "+a[0]);for(var d;a.length&amp;&amp;(d=a.shift());)a.length||void 0===b?c[d]&amp;&amp;c[d]!==Object.prototype[d]?c=c[d]:c=c[d]={}:c[d]=b}function y(a){var b=typeof a;return"object"==b&amp;&amp;null!=a||"function"==b}function ka(a,b,c){return a.call.apply(a.bind,arguments)} function la(a,b,c){if(!a)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var e=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(e,d);return a.apply(b,e)}}return function(){return a.apply(b,arguments)}}function z(a,b,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?z=ka:z=la;return z.apply(null,arguments)} function ma(a,b){var c=Array.prototype.slice.call(arguments,1);return function(){var d=c.slice();d.push.apply(d,arguments);return a.apply(this,d)}}function B(a,b){function c(){}c.prototype=b.prototype;a.A=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.L=function(d,e,f){for(var l=Array(arguments.length-2),g=2;g&lt;arguments.length;g++)l[g-2]=arguments[g];return b.prototype[e].apply(d,l)}}function C(a){return a};var na=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1};function D(){var a=w.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};function E(a){E[" "](a);return a}E[" "]=function(){};var oa=-1!=D().indexOf("Gecko")&amp;&amp;!(-1!=D().toLowerCase().indexOf("webkit")&amp;&amp;-1==D().indexOf("Edge"))&amp;&amp;!(-1!=D().indexOf("Trident")||-1!=D().indexOf("MSIE"))&amp;&amp;-1==D().indexOf("Edge");function pa(a,b,c){for(var d in a)b.call(c,a[d],d,a)}function qa(a){var b={},c;for(c in a)b[c]=a[c];return b}var ra="constructor hasOwnProperty isPrototypeOf propertyIsEnumerable toLocaleString toString valueOf".split(" ");function sa(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;ra.length;f++)c=ra[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};var F;function G(a,b){this.g=b===ta?a:""}G.prototype.toString=function(){return this.g+""};function ua(a){return a instanceof G&amp;&amp;a.constructor===G?a.g:"type_error:TrustedResourceUrl"}var ta={};function va(a){if(void 0===F){var b=null;var c=w.trustedTypes;if(c&amp;&amp;c.createPolicy){try{b=c.createPolicy("goog#html",{createHTML:C,createScript:C,createScriptURL:C})}catch(d){w.console&amp;&amp;w.console.error(d.message)}F=b}else F=b}a=(b=F)?b.createScriptURL(a):a;return new G(a,ta)};function wa(a){return a&amp;&amp;a.parentNode?a.parentNode.removeChild(a):null};function xa(a){a&amp;&amp;"function"==typeof a.I&amp;&amp;a.I()};function H(){this.u=this.u;this.o=this.o}H.prototype.u=!1;H.prototype.I=function(){this.u||(this.u=!0,this.i())};H.prototype.i=function(){if(this.o)for(;this.o.length;)this.o.shift()()};function I(a,b){this.type=a;this.g=this.target=b;this.defaultPrevented=!1}I.prototype.i=function(){this.defaultPrevented=!0};function J(a,b){this.messageName=a;this.parameters=b||{}}function ya(a,b){I.call(this,a.messageName,b);this.params=a.parameters||{}}u(ya,I);var za=-1!=(w.navigator?w.navigator.userAgent:"").indexOf("Android");/*  SPDX-License-Identifier: Apache-2.0 */ function Aa(a,b){var c=ua(a).toString();if(/#/.test(c))throw Error("");var d=/\\?/.test(c)?"&amp;":"?";b.forEach(function(e,f){e=e instanceof Array?e:[e];for(var l=0;l&lt;e.length;l++){var g=e[l];null!==g&amp;&amp;void 0!==g&amp;&amp;(c+=d+encodeURIComponent(f)+"="+encodeURIComponent(String(g)),d="&amp;")}});return va(c)};function Ba(a){var b=va("gmsg://mobileads.google.com/"+a.messageName);return Aa(b,new Map(Object.entries(a.parameters)))};var Ca=function(){if(!w.addEventListener||!Object.defineProperty)return!1;var a=!1,b=Object.defineProperty({},"passive",{get:function(){a=!0}});try{w.addEventListener("test",function(){},b),w.removeEventListener("test",function(){},b)}catch(c){}return a}();function K(a,b){I.call(this,a?a.type:"");this.relatedTarget=this.g=this.target=null;this.button=this.screenY=this.screenX=this.clientY=this.clientX=0;this.key="";this.metaKey=this.shiftKey=this.altKey=this.ctrlKey=!1;this.state=null;this.pointerId=0;this.pointerType="";this.h=null;if(a){var c=this.type=a.type,d=a.changedTouches&amp;&amp;a.changedTouches.length?a.changedTouches[0]:null;this.target=a.target||a.srcElement;this.g=b;if(b=a.relatedTarget){if(oa){a:{try{E(b.nodeName);var e=!0;break a}catch(f){}e= !1}e||(b=null)}}else"mouseover"==c?b=a.fromElement:"mouseout"==c&amp;&amp;(b=a.toElement);this.relatedTarget=b;d?(this.clientX=void 0!==d.clientX?d.clientX:d.pageX,this.clientY=void 0!==d.clientY?d.clientY:d.pageY,this.screenX=d.screenX||0,this.screenY=d.screenY||0):(this.clientX=void 0!==a.clientX?a.clientX:a.pageX,this.clientY=void 0!==a.clientY?a.clientY:a.pageY,this.screenX=a.screenX||0,this.screenY=a.screenY||0);this.button=a.button;this.key=a.key||"";this.ctrlKey=a.ctrlKey;this.altKey=a.altKey;this.shiftKey= a.shiftKey;this.metaKey=a.metaKey;this.pointerId=a.pointerId||0;this.pointerType="string"===typeof a.pointerType?a.pointerType:Da[a.pointerType]||"";this.state=a.state;this.h=a;a.defaultPrevented&amp;&amp;K.A.i.call(this)}}B(K,I);var Da={2:"touch",3:"pen",4:"mouse"};K.prototype.i=function(){K.A.i.call(this);var a=this.h;a.preventDefault?a.preventDefault():a.returnValue=!1};var L="closure_listenable_"+(1E6*Math.random()|0);var Ea=0;function Fa(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.G=e;this.key=++Ea;this.B=this.F=!1}function M(a){a.B=!0;a.listener=null;a.proxy=null;a.src=null;a.G=null};function N(a){this.src=a;this.g={};this.i=0}N.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.i++);var l=O(a,b,d,e);-1&lt;l?(b=a[l],c||(b.F=!1)):(b=new Fa(b,this.src,f,!!d,e),b.F=c,a.push(b));return b};function Ga(a,b,c,d,e){b=b.toString();if(b in a.g){var f=a.g[b];c=O(f,c,d,e);-1&lt;c&amp;&amp;(M(f[c]),Array.prototype.splice.call(f,c,1),0==f.length&amp;&amp;(delete a.g[b],a.i--))}} function P(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=na(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(M(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.i--))}}function O(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.B&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.G==d)return e}return-1};var Q="closure_lm_"+(1E6*Math.random()|0),Ha={},Ia=0;function Ja(a,b,c,d,e){if(d&amp;&amp;d.once)return R(a,b,c,d,e);if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)Ja(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!1,y(d)?!!d.capture:!!d,e):La(a,b,c,!1,d,e)} function La(a,b,c,d,e,f){if(!b)throw Error("Invalid event type");var l=y(e)?!!e.capture:!!e,g=Ma(a);g||(a[Q]=g=new N(a));c=g.add(b,c,d,l,f);if(c.proxy)return c;d=Na();c.proxy=d;d.src=a;d.listener=c;if(a.addEventListener)Ca||(e=l),void 0===e&amp;&amp;(e=!1),a.addEventListener(b.toString(),d,e);else if(a.attachEvent)a.attachEvent(Oa(b.toString()),d);else if(a.addListener&amp;&amp;a.removeListener)a.addListener(d);else throw Error("addEventListener and attachEvent are unavailable.");Ia++;return c} function Na(){function a(c){return b.call(a.src,a.listener,c)}var b=Pa;return a}function R(a,b,c,d,e){if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)R(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!0,y(d)?!!d.capture:!!d,e):La(a,b,c,!0,d,e)} function Qa(a,b,c,d,e){if(Array.isArray(b))for(var f=0;f&lt;b.length;f++)Qa(a,b[f],c,d,e);else(d=y(d)?!!d.capture:!!d,c=Ka(c),a&amp;&amp;a[L])?Ga(a.g,String(b),c,d,e):a&amp;&amp;(a=Ma(a))&amp;&amp;(b=a.g[b.toString()],a=-1,b&amp;&amp;(a=O(b,c,d,e)),(c=-1&lt;a?b[a]:null)&amp;&amp;Ra(c))} function Ra(a){if("number"!==typeof a&amp;&amp;a&amp;&amp;!a.B){var b=a.src;if(b&amp;&amp;b[L])P(b.g,a);else{var c=a.type,d=a.proxy;b.removeEventListener?b.removeEventListener(c,d,a.capture):b.detachEvent?b.detachEvent(Oa(c),d):b.addListener&amp;&amp;b.removeListener&amp;&amp;b.removeListener(d);Ia--;(c=Ma(b))?(P(c,a),0==c.i&amp;&amp;(c.src=null,b[Q]=null)):M(a)}}}function Oa(a){return a in Ha?Ha[a]:Ha[a]="on"+a}function Pa(a,b){if(a.B)a=!0;else{b=new K(b,this);var c=a.listener,d=a.G||a.src;a.F&amp;&amp;Ra(a);a=c.call(d,b)}return a} function Ma(a){a=a[Q];return a instanceof N?a:null}var Sa="__closure_events_fn_"+(1E9*Math.random()&gt;&gt;&gt;0);function Ka(a){if("function"===typeof a)return a;a[Sa]||(a[Sa]=function(b){return a.handleEvent(b)});return a[Sa]};function S(a){H.call(this);this.h=a;this.g={}}B(S,H);var Ta=[];function Ua(a){pa(a.g,function(b,c){this.g.hasOwnProperty(c)&amp;&amp;Ra(b)},a);a.g={}}S.prototype.i=function(){S.A.i.call(this);Ua(this)};S.prototype.handleEvent=function(){throw Error("EventHandler.handleEvent not implemented");};function T(){H.call(this);this.g=new N(this);this.J=this;this.C=null}B(T,H);T.prototype[L]=!0;T.prototype.addEventListener=function(a,b,c,d){Ja(this,a,b,c,d)};T.prototype.removeEventListener=function(a,b,c,d){Qa(this,a,b,c,d)}; function Va(a,b){var c,d=a.C;if(d)for(c=[];d;d=d.C)c.push(d);a=a.J;d=b.type||b;if("string"===typeof b)b=new I(b,a);else if(b instanceof I)b.target=b.target||a;else{var e=b;b=new I(d,a);sa(b,e)}e=!0;if(c)for(var f=c.length-1;0&lt;=f;f--){var l=b.g=c[f];e=U(l,d,!0,b)&amp;&amp;e}l=b.g=a;e=U(l,d,!0,b)&amp;&amp;e;e=U(l,d,!1,b)&amp;&amp;e;if(c)for(f=0;f&lt;c.length;f++)l=b.g=c[f],e=U(l,d,!1,b)&amp;&amp;e} T.prototype.i=function(){T.A.i.call(this);if(this.g){var a=this.g,b=0,c;for(c in a.g){for(var d=a.g[c],e=0;e&lt;d.length;e++)++b,M(d[e]);delete a.g[c];a.i--}}this.C=null};function U(a,b,c,d){b=a.g.g[String(b)];if(!b)return!0;b=b.concat();for(var e=!0,f=0;f&lt;b.length;++f){var l=b[f];if(l&amp;&amp;!l.B&amp;&amp;l.capture==c){var g=l.listener,h=l.G||l.src;l.F&amp;&amp;P(a.g,l);e=!1!==g.call(h,d)&amp;&amp;e}}return e&amp;&amp;!d.defaultPrevented};function V(a,b){T.call(this);this.v=a||1;this.m=b||w;this.H=z(this.K,this);this.D=Date.now()}B(V,T);V.prototype.j=!1;V.prototype.h=null;V.prototype.K=function(){if(this.j){var a=Date.now()-this.D;0&lt;a&amp;&amp;a&lt;.8*this.v?this.h=this.m.setTimeout(this.H,this.v-a):(this.h&amp;&amp;(this.m.clearTimeout(this.h),this.h=null),Va(this,"tick"),this.j&amp;&amp;(Wa(this),this.start()))}};V.prototype.start=function(){this.j=!0;this.h||(this.h=this.m.setTimeout(this.H,this.v),this.D=Date.now())}; function Wa(a){a.j=!1;a.h&amp;&amp;(a.m.clearTimeout(a.h),a.h=null)}V.prototype.i=function(){V.A.i.call(this);Wa(this);delete this.m};function Xa(){if(window.googleJsEnvironment&amp;&amp;("rhino"==window.googleJsEnvironment.environment||"jscore"==window.googleJsEnvironment.environment))return new W;if(za&amp;&amp;window.googleAdsJsInterface&amp;&amp;"notify"in window.googleAdsJsInterface)try{return window.googleAdsJsInterface.notify("gmsg://mobileads.google.com/noop"),new W}catch(a){}else if(window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler)return new Ya;return new Za}function $a(){ab||(ab=Xa());return ab} var ab=null;function X(){H.call(this)}u(X,H);function bb(a){var b=qa(a.parameters);b["google.afma.Notify_dt"]=(new Date).getTime();return Ba(new J(a.messageName,b)).toString()}function Y(a,b){H.call(this);this.v=a;this.C=b||1;this.m=[];this.j=new V(this.C);a=this.H=new S(this);b=this.j;var c=this.D,d="tick";Array.isArray(d)||(d&amp;&amp;(Ta[0]=d.toString()),d=Ta);for(var e=0;e&lt;d.length;e++){var f=Ja(b,d[e],c||a.handleEvent,!1,a.h||a);if(!f)break;a.g[f.key]=f}}u(Y,X); Y.prototype.sendMessage=function(a){this.m.push(a);this.j.j||(a=this.m.shift(),this.v(a),this.j.start())};Y.prototype.D=function(){var a=this.m.shift();a?this.v(a):Wa(this.j)}; function Za(){Y.call(this,function(b){var c=a.g[a.h];if(!c){var d=document;c="IFRAME";"application/xhtml+xml"===d.contentType&amp;&amp;(c=c.toLowerCase());c=d.createElement(c);c.id="afma-notify-"+(new Date).getTime();c.style.display="none";a.g[a.h]=c}a.h=(a.h+1)%25;d=qa(b.parameters);d["google.afma.Notify_dt"]=(new Date).getTime();b=Ba(new J(b.messageName,d));c.src=ua(b).toString();c.parentNode||document.body.appendChild(c)});var a=this;this.g=[];this.h=0}u(Za,Y); Za.prototype.i=function(){this.g.forEach(wa);this.g=[];Y.prototype.i.call(this)};function W(){H.call(this)}u(W,X);W.prototype.sendMessage=function(a){a=bb(a);window.googleAdsJsInterface&amp;&amp;window.googleAdsJsInterface.notify&amp;&amp;(window.googleAdsJsInterface.notify(a),window.googleAdsJsInterface.DEBUG&amp;&amp;console.log(a))};function Ya(){H.call(this)}u(Ya,X);Ya.prototype.sendMessage=function(a){a=bb(a);window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler.postMessage(a)};/*  Math.uuid.js (v1.4) http://www.broofa.com mailto:robert@broofa.com Copyright (c) 2010 Robert Kieffer Dual licensed under the MIT and GPL licenses. */ var cb="0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz".split("");function db(a){for(var b=Array(36),c=0,d,e=0;36&gt;e;e++)8==e||13==e||18==e||23==e?b[e]="-":14==e?b[e]="4":(2&gt;=c&amp;&amp;(c=33554432+16777216*Math.random()|0),d=c&amp;15,c&gt;&gt;=4,b[e]=cb[19==e?d&amp;3|8:d]);this.uuid=b.join("");this.callback=a} function eb(a){var b=w.imalib_globalCallbacks||new Map,c=b.get("AFMA_updateActiveView")||[];if(0===c.length&amp;&amp;w.AFMA_updateActiveView){var d=new db(w.AFMA_updateActiveView);c.push(d);w.AFMA_updateActiveView=void 0}w.AFMA_updateActiveView||(w.AFMA_updateActiveView=function(){var e=b.get("AFMA_updateActiveView");e=q(e);for(var f=e.next();!f.done;f=e.next())f.value.callback.apply(null,arguments)});a=new db(a);c.push(a);b.set("AFMA_updateActiveView",c);w.imalib_globalCallbacks=b;return a.uuid} function fb(a){if(w.AFMA_updateActiveView){var b=w.imalib_globalCallbacks;if(b){var c=b.get("AFMA_updateActiveView");if(c){var d=c.findIndex(function(e){return e.uuid===a});-1!==d&amp;&amp;(c.splice(d,1),0===c.length&amp;&amp;(w.AFMA_updateActiveView=void 0),b.set("AFMA_updateActiveView",c),w.imalib_globalCallbacks=b)}}}};function gb(){var a=this;this.o=[];this.h=window===window.top;this.j=!1;this.g=0;this.i=null;"undefined"!==typeof window.addEventListener&amp;&amp;window.addEventListener("message",function(b){return hb(a,b)})} function hb(a,b){var c=b.data;if((b=b.source)&amp;&amp;c){var d=a.o;if("arwebview_iframe_loaded"===c&amp;&amp;a.h)x("JavascriptWebViewBridge.incoming.postMessage",a.u.bind(a),w),-1===d.indexOf(b)&amp;&amp;d.push(b);else{var e=c.messageName;c=c.parameters;if(a.h)switch(e){case "mraid_loaded":!1===c.is_top_win&amp;&amp;(a.j=!0,a.i=eb(function(f){a.h&amp;&amp;ib(a,new J("update_activeview_action",f))}),-1===d.indexOf(b)&amp;&amp;(d.push(b),"undefined"!==typeof b.postMessage&amp;&amp;b.postMessage(new J("mraid_env_obj",window.MRAID_ENV),"*")));break;case "start_tracking_action":0== a.g&amp;&amp;window.AFMA_SendMessage("trackActiveViewUnit");a.g+=1;break;case "stop_tracking_action":--a.g,0==a.g&amp;&amp;(window.AFMA_SendMessage("untrackActiveViewUnit",{hashCode:c.hashCode}),a.i&amp;&amp;(fb(a.i),a.i=null))}else switch(e){case "mraid_env_obj":window.MRAID_ENV=c;break;case "update_activeview_action":window.AFMA_updateActiveView&amp;&amp;window.AFMA_updateActiveView(c);break;case "receive_message_action":window.AFMA_ReceiveMessage(c.messageName,c.parameters)}}}} gb.prototype.u=function(a){this.h&amp;&amp;ib(this,{name:"arwebview_message_forwarded",message:a})};function ib(a,b){a.o.forEach(function(c){return c.postMessage(b,"*")})};function Z(){T.call(this);this.j=$a();this.j=$a();var a=ma(xa,this.j);this.u?a():(this.o||(this.o=[]),this.o.push(a));this.h={};this.m=new gb}u(Z,T);Z.prototype.sendMessage=function(a,b){var c=this,d;"string"===typeof a?d=new J(a,b):a instanceof J&amp;&amp;(d=a);"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return c.j.sendMessage(d)},!1,this):this.j.sendMessage(d)}; Z.prototype.receiveMessage=function(a,b){if(this.shouldForwardMessageToIframe())this.forwardMessage(new J("receive_message_action",new J(a,b)));else{var c=document.getElementById("ad_iframe");void 0!=c&amp;&amp;void 0!=c.contentWindow&amp;&amp;void 0!=c.contentWindow.AFMA_ReceiveMessage&amp;&amp;c.contentWindow.AFMA_ReceiveMessage(a,b)}"onshow"==a&amp;&amp;"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return jb(a,null!=b?b:void 0)}):Va(this,new ya(new J(a,b),this))}; Z.prototype.addObserver=function(a,b,c){function d(e){return void c.call(b,e.type,e.params)}this.g.add(String(a),d,!1,void 0,void 0);this.h[a]||(this.h[a]={});this.h[a][b]=d};Z.prototype.removeObserver=function(a,b){this.h[a]&amp;&amp;this.h[a][b]&amp;&amp;(Ga(this.g,String(a),this.h[a][b]),delete this.h[a][b])};Z.prototype.shouldForwardMessageToIframe=function(){return this.m.j};Z.prototype.forwardMessage=function(a){ib(this.m,a)}; function kb(a,b){w.AFMA_Communicator?w.AFMA_Communicator.sendMessage(a,b):lb(a,b)}function lb(a,b){"loading"==document.readyState?(a=z(lb,null,a,b),R(w,"DOMContentLoaded",a,!1)):(a=new J(a,b),$a().sendMessage(a))}function jb(a,b){w.AFMA_Communicator.receiveMessage(a,b)}function mb(a,b,c,d){w.AFMA_Communicator.removeEventListener(a,b,c,d)}function nb(a,b,c,d){w.AFMA_Communicator.addEventListener(a,b,c,d)}function ob(a,b,c){w.AFMA_Communicator.addObserver(a,b,c)} function pb(a,b){w.AFMA_Communicator.removeObserver(a,b)}w.AFMA_Communicator||(x("AFMA_AddEventListener",nb,w),x("AFMA_RemoveEventListener",mb,w),x("AFMA_AddObserver",ob,w),x("AFMA_RemoveObserver",pb,w),x("AFMA_ReceiveMessage",jb,w),x("AFMA_SendMessage",kb,w),w.AFMA_Communicator=new Z);nb("onSdkImpression",function(){x("Goog_Omid_SdkImpressionReceived",!0)});nb("onSdkLoaded",function(){x("Goog_Omid_SdkLoadedReceived",!0)});}).call(this);&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omsdk-v1.js"&gt;&lt;/script&gt;&lt;/head&gt;&lt;body leftMargin="0" topMargin="0" marginwidth="0" marginheight="0"&gt;&lt;div class="GoogleActiveViewInnerContainer"style="left:0px;top:0px;width:100%;height:100%;position:fixed;pointer-events:none;z-index:-9999;"&gt;&lt;/div&gt;&lt;div style="display:inline"class="GoogleActiveViewElement"data-google-av-cxn="https://pagead2.googlesyndication.com/pcs/activeview?xai=AKAOjssY2i11TuybDaQ-Six7MwfYSJj_Q1R6TIoMwzRcPE4VXgv3ltwUga_dP22BqH19rJNH9geBoD5yS_bCP-vqxRWMcHp3&amp;amp;sig=Cg0ArKJSzCgdPFDy03_REAE"data-google-av-adk="1334126877"data-google-av-metadata="la=0&amp;amp;omid=1&amp;amp;sloi=1&amp;amp;"data-google-av-ufs-integrator-metadata=""data-google-av-override="-1"data-google-av-dm="2"data-google-av-aid="0"data-google-av-naid="1"data-google-av-inapp data-google-av-slift=""data-google-av-cpmav=""data-google-av-btr=""data-google-av-itpl="20"data-google-av-rs="9"data-google-av-flags="[&amp;quot;x%278440&amp;#39;9efotm(&amp;amp;753374%2bejvf/%27844&amp;gt;&amp;#39;9wuvb$&amp;amp;56533&amp;gt;!=|vqc)!273794&amp;amp;&amp;lt;qqvb/%&amp;lt;1735020!=nehu`/!364=5051!9abk{a($160210:3&amp;amp;&amp;lt;cbotf+*0150034:%2bejvf/%72;17613!=efdwa*&amp;#39;76463;21$?ebkpb$&amp;amp;0366717&amp;gt;*&amp;gt;bgipf+!3=712363%9aihwc)!7202&amp;lt;217&amp;#39;9efotm(&amp;amp;20061;48&amp;amp;&amp;gt;`dopb/%&amp;lt;1707200!=8(&amp;amp;2005575?&amp;amp;&amp;gt;`dopb/%&amp;lt;170642?!=|vqc)!7201;=50&amp;#39;9wuvb$&amp;amp;03641654*&amp;gt;bgipf+!3=731103%9aihwc)!7200?073&amp;#39;9efotm(&amp;amp;2004?51;&amp;amp;&amp;gt;`dopb/%&amp;lt;17&amp;gt;474&amp;gt;!=nehu`/!36406412!9abk{a($160&amp;gt;358&amp;lt;&amp;amp;&amp;lt;cbotfz&amp;quot;]"&gt;    &lt;script type="text/javascript"&gt;\n      rubicon_cb = Math.random(); rubicon_rurl = document.referrer; if(top.location==document.location){rubicon_rurl = document.location;} rubicon_rurl = escape(rubicon_rurl);\n      window.rubicon_ad = "4357852" + "." + "js";\n      window.rubicon_creative = "4957212" + "." + "js";\n    &lt;/script&gt;\n&lt;div data-rp-type="trp-display-creative" data-rp-impression-id="6d8d0de4-a5e6-4ce3-8d5a-3d38e410d15e" data-rp-aqid="2132:30069426" data-rp-acct-id="17752"&gt;\n\n\n&lt;script src="mraid.js"&gt;&lt;/script&gt;&lt;iframe src="https://westads.simpli.fi/ads/3341154/30069426/_p.html?sifi=8475,3341154,30069426,0,28,0,0,0,0,389,6,v,26.95680,1BACC8E50A22C964,0,0,0,23,5AF99DBF55B9840BA87AA4044345318A,0,5,0,1210,400,1,0,0,607,0,702,bidder-base-prd-us-west1-c-12797dec:9004-1679028468042-63083522,1,0,395291,2,0,28,12,47404,0,0.00,1,220412618550898,0,0,3,137847689,1,-4,0,97,,5,355726,0,0,2,3,17752,8,277,4254679&amp;hash_rid=C5773E117CB367AD785907CA8AAB5264&amp;sifi_exchange_uid=973d876f0da652cb5d27495da456620f47626fa3&amp;request_id=d73a17af85234deadfe7813e9de9383d9e665a9d" width="320" height="50" frameborder="0" marginwidth="0" marginheight="0" scrolling="no"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n&lt;/div&gt;&lt;script data-jc="22" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/window_focus.js" async data-jc-version="r20230315" data-jcp-url="https://googleads.g.doubleclick.net/pagead/interaction/?ai=CUAx98_ATZIW2NJDSBP-_m4gL_tP3r1zOz73Y6gLAjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEjwJP0OI3COZ-7Cy1rEBKJT4cTpnR5xH-YV_XNEBYRCYlbGWXuaDKMNewzz4hGh7NqcJU4Kgn4qLn8w-ulX5NjWZ981-Jiw3wFJQ3tt7E5a2I18k6HzpgkytQmjzNe6UnpBka-91DzO9Kk5qX21qA2ApZBb_yej9dYW1F_Q8KSElAPuyhoXZ__Jv1YjhittiseLnphS8b-ZooY_njcD0ttSn1uzyTr577SbH0zauV-Sb9sJP9YehwCTnzWW2UkpkuLKz7CjmVMUBVs4Bc7W4r0H334R-jGBatHQliq_251d4WtPQgJi_bjzute8BfwzBosyeMfx3HNLYXisvADiey0umfOpoIJZBqRgwMqewcBPSA4AQBgAb157LTq7r8ohugBiGoB6a-G6gHltgbqAeqm7ECqAf_nrECqAffn7EC2AcA0ggNCIBhEAEyAooCOgKAQPoLAggBgAwB0BUBgBcB&amp;amp;sigh=-QNq9g_c_JE&amp;amp;cid=CAQShgEA1BOcpr93I6Xx-Zk82I9LOWIDFj4Z7D6rSD4NbseoXI8MKjusQ1qLhNbphTW4yqKEp25LKxTuk5ODFY-Z7LWZR1fDb_41YyNfgJiG6H8daxZCjEmtvsQen_RfNNx38U_oJFiiM4fVopriFEkgzUhrsTa1RCaswEk_nkZu7uTw2OZbOxWw6A" data-jcp-gws-id="8_ATZJrRMYW9Bp3khaAO" data-jcp-qem-id="CMX7k7uU4v0CFRApAQod_98GsQ"&gt;&lt;/script&gt;&lt;script data-jc="23" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/qs_click_protection.js" data-jc-version="r20230315"&gt;&lt;/script&gt;&lt;script&gt;googqscp.init([[[[null,1500,99,2,4,null,null,null,1],[null,500,99,2,9,null,null,null,1]]]]);&lt;/script&gt;&lt;div style="bottom:0;right:0;width:320px;height:50px;background:initial !important;position:absolute !important;max-width:100% !important;max-height:100% !important;pointer-events:none !important;image-rendering:pixelated !important;background-repeat:no-repeat !important;z-index:2147483647;background-image:url(\'data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAQ4AAAAyBAMAAABfUCj0AAAABlBMVEUAAAD+AciWmZzWAAAAAnRSTlMAApidrBQAAAE9SURBVFjD7VZLbgUxCDM34P6nbRP+VZbP0lNFFqNhYiFPMMHAlyyx9fsCqUhtAYrzsMWEnm9nKWzXIzGOsEQRMaFy2Np3qUgPW0th9E/EhGYI+HmNPPCjnXkY0LYnzzT6SvNxaNOHviopz6IToKHlqOZUdlRzNAEDWg1sx/S3qzEwROhlLfW0vrqstZ73iJnQIO3aQRYTJTNkMXnQVE12ubh2TNmhajWZ0aD3tJJ9/YFtRar4Aya033p9s269locGbcpW17aiFO5Kyzw8aO/06qne6dl+TGjdp5qqvrd9F7fx5UJrMuYwGJMxh0Efop+H9nlb+mnTT5pZYEKTuWB0ujNX9E7nQdElE8x1qCuGFReaypansvXVBAQo1q+vX1+/vn59/fr69fXr69fXr69fX7++fn39+vr1f+DXfwCbZ2fXJPrDLAAAAABJRU5ErkJggg==\') !important;"&gt;&lt;/div&gt;&lt;script id="googleOmidDisplayScript" src="https://www.googletagservices.com/activeview/js/current/lidar.js?cache=r20110914"&gt;&lt;/script&gt;&lt;script data-jc="28" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ var e=this||self;function f(b,a,c){return b.call.apply(b.bind,arguments)}function g(b,a,c){if(!b)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var k=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(k,d);return b.apply(a,k)}}return function(){return b.apply(a,arguments)}}function h(b,a,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?h=f:h=g;return h.apply(null,arguments)};var l,m;a:{for(var n=["CLOSURE_FLAGS"],p=e,q=0;q&lt;n.length;q++)if(p=p[n[q]],null==p){m=null;break a}m=p}var r=m&amp;&amp;m[610401301];l=null!=r?r:!1;var t,u=e.navigator;t=u?u.userAgentData||null:null;function v(b){return l?t?t.brands.some(function(a){return(a=a.brand)&amp;&amp;-1!=a.indexOf(b)}):!1:!1}function w(b){var a;a:{if(a=e.navigator)if(a=a.userAgent)break a;a=""}return-1!=a.indexOf(b)};function x(){return l?!!t&amp;&amp;0&lt;t.brands.length:!1}function y(){return x()?v("Chromium"):(w("Chrome")||w("CriOS"))&amp;&amp;!(x()?0:w("Edge"))||w("Silk")};!w("Android")||y();y();w("Safari")&amp;&amp;(y()||(x()?0:w("Coast"))||(x()?0:w("Opera"))||(x()?0:w("Edge"))||(x()?v("Microsoft Edge"):w("Edg/"))||x()&amp;&amp;v("Opera"));function z(b){this.h=null;var a={top:10,right:10,bottom:10,left:10};b&amp;&amp;(b=b.split(","),4!=b.length||isNaN(b[0])||isNaN(b[1])||isNaN(b[2])||isNaN(b[3])||(a.top=+b[0],a.right=+b[1],a.bottom=+b[2],a.left=+b[3]));this.g=a} z.prototype.i=function(b){for(var a=!1,c=b.target;c;c=c.parentNode)if("abgc"==c.id){a=!0;break}if(!a){var d=this.h.getBoundingClientRect();a=d.width;c=d.height;var k=b.clientX-d.left;d=b.clientY-d.top;a="number"!==typeof a||"number"!==typeof c||"number"!==typeof b.clientX||"number"!==typeof b.clientY||0&gt;=a||0&gt;=c||0&gt;k||0&gt;d?!0:k&gt;=this.g.left&amp;&amp;a-k&gt;=this.g.right&amp;&amp;d&gt;=this.g.top&amp;&amp;c-d&gt;=this.g.bottom}a||(b.preventDefault?b.preventDefault():b.returnValue=!1)};function A(b,a){a||(a="");a=new z(a);a.h=b;b=a.h;var c=h(a.i,a);b.addEventListener&amp;&amp;b.addEventListener("click",c,!1);return a}var B=["googleInitIc"],C=e;B[0]in C||"undefined"==typeof C.execScript||C.execScript("var "+B[0]);for(var D;B.length&amp;&amp;(D=B.shift());)B.length||void 0===A?C[D]&amp;&amp;C[D]!==Object.prototype[D]?C=C[D]:C=C[D]={}:C[D]=A;}).call(this);&lt;/script&gt;&lt;script&gt;googleInitIc(document.body,\'10,10,10,10\');&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omid_session_bin.js"&gt;&lt;/script&gt;&lt;script type="text/javascript"&gt;(function() {var omidSession = new OmidCreativeSession([]);})();&lt;/script&gt;&lt;/body&gt;&lt;/html&gt;', 'size': 31670, 'mimeType': 'text/html; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '{"ads":{"m300x250p120":{"b":"JPUNH9EkcFKXWfBuCotDxCQAAAGG7eVmQQEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAZ4NMf","crid":"4945_84215_525451_ssl","kvp":{"amznrdr":["default"],"amznp":["16nylfk"],"dc":["iad"]},"sz":"300x250","i":"https://aax-us-east.amazon-adsystem.com/e/msdk/imp?b=JPUNH9EkcFKXWfBuCotDxCQAAAGG7eVmQQEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAZ4NMf&amp;ps=m300x250p120"}},"instrPixelURL":"https://aax-us-east.amazon-adsystem.com/x/px/RPUNH9EkcFKXWfBuCotDxCQAAAGG7eVlhwEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICAZ4NMf/","errorCode":"200","request_id":"9Q0f0SRwUpdZ8G4Ki0PEJA","status":"ok"}\n', 'size': 618, 'mimeType': 'text/javascript;charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '&lt;html&gt;&lt;head&gt;&lt;meta name="viewport" content="width=300, initial-scale=1.0, minimum-scale=1.0, maximum-scale=1.0, user-scalable=no"&gt;&lt;script&gt;var jscVersion = \'r20230315\';&lt;/script&gt;&lt;script&gt;var google_casm=["afma-sdk-i-v8.11.0"];&lt;/script&gt;&lt;script data-jc="84" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ function aa(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}}var m="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a}; function ba(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("Cannot find global object");}var ca=ba(this);function p(a,b){if(b)a:{var c=ca;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;m(c,a,{configurable:!0,writable:!0,value:b})}} p("Symbol",function(a){function b(f){if(this instanceof b)throw new TypeError("Symbol is not a constructor");return new c(d+(f||"")+"_"+e++,f)}function c(f,l){this.g=f;m(this,"description",{configurable:!0,writable:!0,value:l})}if(a)return a;c.prototype.toString=function(){return this.g};var d="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",e=0;return b}); p("Symbol.iterator",function(a){if(a)return a;a=Symbol("Symbol.iterator");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=ca[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;m(d.prototype,a,{configurable:!0,writable:!0,value:function(){return da(aa(this))}})}return a});function da(a){a={next:a};a[Symbol.iterator]=function(){return this};return a} function q(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];if(b)return b.call(a);if("number"==typeof a.length)return{next:aa(a)};throw Error(String(a)+" is not an iterable or ArrayLike");}var ea="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},r; if("function"==typeof Object.setPrototypeOf)r=Object.setPrototypeOf;else{var t;a:{var fa={a:!0},ha={};try{ha.__proto__=fa;t=ha.a;break a}catch(a){}t=!1}r=t?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ia=r; function u(a,b){a.prototype=ea(b.prototype);a.prototype.constructor=a;if(ia)ia(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.A=b.prototype}function v(a,b){return Object.prototype.hasOwnProperty.call(a,b)} p("WeakMap",function(a){function b(h){this.g=(g+=Math.random()+1).toString();if(h){h=q(h);for(var k;!(k=h.next()).done;)k=k.value,this.set(k[0],k[1])}}function c(){}function d(h){var k=typeof h;return"object"===k&amp;&amp;null!==h||"function"===k}function e(h){if(!v(h,l)){var k=new c;m(h,l,{value:k})}}function f(h){var k=Object[h];k&amp;&amp;(Object[h]=function(n){if(n instanceof c)return n;Object.isExtensible(n)&amp;&amp;e(n);return k(n)})}if(function(){if(!a||!Object.seal)return!1;try{var h=Object.seal({}),k=Object.seal({}), n=new a([[h,2],[k,3]]);if(2!=n.get(h)||3!=n.get(k))return!1;n.delete(h);n.set(k,4);return!n.has(h)&amp;&amp;4==n.get(k)}catch(A){return!1}}())return a;var l="$jscomp_hidden_"+Math.random();f("freeze");f("preventExtensions");f("seal");var g=0;b.prototype.set=function(h,k){if(!d(h))throw Error("Invalid WeakMap key");e(h);if(!v(h,l))throw Error("WeakMap key fail: "+h);h[l][this.g]=k;return this};b.prototype.get=function(h){return d(h)&amp;&amp;v(h,l)?h[l][this.g]:void 0};b.prototype.has=function(h){return d(h)&amp;&amp;v(h, l)&amp;&amp;v(h[l],this.g)};b.prototype.delete=function(h){return d(h)&amp;&amp;v(h,l)&amp;&amp;v(h[l],this.g)?delete h[l][this.g]:!1};return b}); p("Map",function(a){function b(){var g={};return g.s=g.next=g.head=g}function c(g,h){var k=g.g;return da(function(){if(k){for(;k.head!=g.g;)k=k.s;for(;k.next!=k.head;)return k=k.next,{done:!1,value:h(k)};k=null}return{done:!0,value:void 0}})}function d(g,h){var k=h&amp;&amp;typeof h;"object"==k||"function"==k?f.has(h)?k=f.get(h):(k=""+ ++l,f.set(h,k)):k="p_"+h;var n=g.i[k];if(n&amp;&amp;v(g.i,k))for(g=0;g&lt;n.length;g++){var A=n[g];if(h!==h&amp;&amp;A.key!==A.key||h===A.key)return{id:k,list:n,index:g,l:A}}return{id:k,list:n, index:-1,l:void 0}}function e(g){this.i={};this.g=b();this.size=0;if(g){g=q(g);for(var h;!(h=g.next()).done;)h=h.value,this.set(h[0],h[1])}}if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var g=Object.seal({x:4}),h=new a(q([[g,"s"]]));if("s"!=h.get(g)||1!=h.size||h.get({x:4})||h.set({x:4},"t")!=h||2!=h.size)return!1;var k=h.entries(),n=k.next();if(n.done||n.value[0]!=g||"s"!=n.value[1])return!1;n=k.next();return n.done||4!=n.value[0].x|| "t"!=n.value[1]||!k.next().done?!1:!0}catch(A){return!1}}())return a;var f=new WeakMap;e.prototype.set=function(g,h){g=0===g?0:g;var k=d(this,g);k.list||(k.list=this.i[k.id]=[]);k.l?k.l.value=h:(k.l={next:this.g,s:this.g.s,head:this.g,key:g,value:h},k.list.push(k.l),this.g.s.next=k.l,this.g.s=k.l,this.size++);return this};e.prototype.delete=function(g){g=d(this,g);return g.l&amp;&amp;g.list?(g.list.splice(g.index,1),g.list.length||delete this.i[g.id],g.l.s.next=g.l.next,g.l.next.s=g.l.s,g.l.head=null,this.size--, !0):!1};e.prototype.clear=function(){this.i={};this.g=this.g.s=b();this.size=0};e.prototype.has=function(g){return!!d(this,g).l};e.prototype.get=function(g){return(g=d(this,g).l)&amp;&amp;g.value};e.prototype.entries=function(){return c(this,function(g){return[g.key,g.value]})};e.prototype.keys=function(){return c(this,function(g){return g.key})};e.prototype.values=function(){return c(this,function(g){return g.value})};e.prototype.forEach=function(g,h){for(var k=this.entries(),n;!(n=k.next()).done;)n=n.value, g.call(h,n[1],n[0],this)};e.prototype[Symbol.iterator]=e.prototype.entries;var l=0;return e});function ja(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e}p("Array.prototype.entries",function(a){return a?a:function(){return ja(this,function(b,c){return[b,c]})}}); p("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)v(b,d)&amp;&amp;c.push([d,b[d]]);return c}});p("Array.prototype.findIndex",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++)if(b.call(c,d[f],f,d)){b=f;break a}b=-1}return b}});var w=this||self; function x(a,b,c){a=a.split(".");c=c||w;a[0]in c||"undefined"==typeof c.execScript||c.execScript("var "+a[0]);for(var d;a.length&amp;&amp;(d=a.shift());)a.length||void 0===b?c[d]&amp;&amp;c[d]!==Object.prototype[d]?c=c[d]:c=c[d]={}:c[d]=b}function y(a){var b=typeof a;return"object"==b&amp;&amp;null!=a||"function"==b}function ka(a,b,c){return a.call.apply(a.bind,arguments)} function la(a,b,c){if(!a)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var e=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(e,d);return a.apply(b,e)}}return function(){return a.apply(b,arguments)}}function z(a,b,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?z=ka:z=la;return z.apply(null,arguments)} function ma(a,b){var c=Array.prototype.slice.call(arguments,1);return function(){var d=c.slice();d.push.apply(d,arguments);return a.apply(this,d)}}function B(a,b){function c(){}c.prototype=b.prototype;a.A=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.L=function(d,e,f){for(var l=Array(arguments.length-2),g=2;g&lt;arguments.length;g++)l[g-2]=arguments[g];return b.prototype[e].apply(d,l)}}function C(a){return a};var na=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1};function D(){var a=w.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};function E(a){E[" "](a);return a}E[" "]=function(){};var oa=-1!=D().indexOf("Gecko")&amp;&amp;!(-1!=D().toLowerCase().indexOf("webkit")&amp;&amp;-1==D().indexOf("Edge"))&amp;&amp;!(-1!=D().indexOf("Trident")||-1!=D().indexOf("MSIE"))&amp;&amp;-1==D().indexOf("Edge");function pa(a,b,c){for(var d in a)b.call(c,a[d],d,a)}function qa(a){var b={},c;for(c in a)b[c]=a[c];return b}var ra="constructor hasOwnProperty isPrototypeOf propertyIsEnumerable toLocaleString toString valueOf".split(" ");function sa(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;ra.length;f++)c=ra[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};var F;function G(a,b){this.g=b===ta?a:""}G.prototype.toString=function(){return this.g+""};function ua(a){return a instanceof G&amp;&amp;a.constructor===G?a.g:"type_error:TrustedResourceUrl"}var ta={};function va(a){if(void 0===F){var b=null;var c=w.trustedTypes;if(c&amp;&amp;c.createPolicy){try{b=c.createPolicy("goog#html",{createHTML:C,createScript:C,createScriptURL:C})}catch(d){w.console&amp;&amp;w.console.error(d.message)}F=b}else F=b}a=(b=F)?b.createScriptURL(a):a;return new G(a,ta)};function wa(a){return a&amp;&amp;a.parentNode?a.parentNode.removeChild(a):null};function xa(a){a&amp;&amp;"function"==typeof a.I&amp;&amp;a.I()};function H(){this.u=this.u;this.o=this.o}H.prototype.u=!1;H.prototype.I=function(){this.u||(this.u=!0,this.i())};H.prototype.i=function(){if(this.o)for(;this.o.length;)this.o.shift()()};function I(a,b){this.type=a;this.g=this.target=b;this.defaultPrevented=!1}I.prototype.i=function(){this.defaultPrevented=!0};function J(a,b){this.messageName=a;this.parameters=b||{}}function ya(a,b){I.call(this,a.messageName,b);this.params=a.parameters||{}}u(ya,I);var za=-1!=(w.navigator?w.navigator.userAgent:"").indexOf("Android");/*  SPDX-License-Identifier: Apache-2.0 */ function Aa(a,b){var c=ua(a).toString();if(/#/.test(c))throw Error("");var d=/\\?/.test(c)?"&amp;":"?";b.forEach(function(e,f){e=e instanceof Array?e:[e];for(var l=0;l&lt;e.length;l++){var g=e[l];null!==g&amp;&amp;void 0!==g&amp;&amp;(c+=d+encodeURIComponent(f)+"="+encodeURIComponent(String(g)),d="&amp;")}});return va(c)};function Ba(a){var b=va("gmsg://mobileads.google.com/"+a.messageName);return Aa(b,new Map(Object.entries(a.parameters)))};var Ca=function(){if(!w.addEventListener||!Object.defineProperty)return!1;var a=!1,b=Object.defineProperty({},"passive",{get:function(){a=!0}});try{w.addEventListener("test",function(){},b),w.removeEventListener("test",function(){},b)}catch(c){}return a}();function K(a,b){I.call(this,a?a.type:"");this.relatedTarget=this.g=this.target=null;this.button=this.screenY=this.screenX=this.clientY=this.clientX=0;this.key="";this.metaKey=this.shiftKey=this.altKey=this.ctrlKey=!1;this.state=null;this.pointerId=0;this.pointerType="";this.h=null;if(a){var c=this.type=a.type,d=a.changedTouches&amp;&amp;a.changedTouches.length?a.changedTouches[0]:null;this.target=a.target||a.srcElement;this.g=b;if(b=a.relatedTarget){if(oa){a:{try{E(b.nodeName);var e=!0;break a}catch(f){}e= !1}e||(b=null)}}else"mouseover"==c?b=a.fromElement:"mouseout"==c&amp;&amp;(b=a.toElement);this.relatedTarget=b;d?(this.clientX=void 0!==d.clientX?d.clientX:d.pageX,this.clientY=void 0!==d.clientY?d.clientY:d.pageY,this.screenX=d.screenX||0,this.screenY=d.screenY||0):(this.clientX=void 0!==a.clientX?a.clientX:a.pageX,this.clientY=void 0!==a.clientY?a.clientY:a.pageY,this.screenX=a.screenX||0,this.screenY=a.screenY||0);this.button=a.button;this.key=a.key||"";this.ctrlKey=a.ctrlKey;this.altKey=a.altKey;this.shiftKey= a.shiftKey;this.metaKey=a.metaKey;this.pointerId=a.pointerId||0;this.pointerType="string"===typeof a.pointerType?a.pointerType:Da[a.pointerType]||"";this.state=a.state;this.h=a;a.defaultPrevented&amp;&amp;K.A.i.call(this)}}B(K,I);var Da={2:"touch",3:"pen",4:"mouse"};K.prototype.i=function(){K.A.i.call(this);var a=this.h;a.preventDefault?a.preventDefault():a.returnValue=!1};var L="closure_listenable_"+(1E6*Math.random()|0);var Ea=0;function Fa(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.G=e;this.key=++Ea;this.B=this.F=!1}function M(a){a.B=!0;a.listener=null;a.proxy=null;a.src=null;a.G=null};function N(a){this.src=a;this.g={};this.i=0}N.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.i++);var l=O(a,b,d,e);-1&lt;l?(b=a[l],c||(b.F=!1)):(b=new Fa(b,this.src,f,!!d,e),b.F=c,a.push(b));return b};function Ga(a,b,c,d,e){b=b.toString();if(b in a.g){var f=a.g[b];c=O(f,c,d,e);-1&lt;c&amp;&amp;(M(f[c]),Array.prototype.splice.call(f,c,1),0==f.length&amp;&amp;(delete a.g[b],a.i--))}} function P(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=na(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(M(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.i--))}}function O(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.B&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.G==d)return e}return-1};var Q="closure_lm_"+(1E6*Math.random()|0),Ha={},Ia=0;function Ja(a,b,c,d,e){if(d&amp;&amp;d.once)return R(a,b,c,d,e);if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)Ja(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!1,y(d)?!!d.capture:!!d,e):La(a,b,c,!1,d,e)} function La(a,b,c,d,e,f){if(!b)throw Error("Invalid event type");var l=y(e)?!!e.capture:!!e,g=Ma(a);g||(a[Q]=g=new N(a));c=g.add(b,c,d,l,f);if(c.proxy)return c;d=Na();c.proxy=d;d.src=a;d.listener=c;if(a.addEventListener)Ca||(e=l),void 0===e&amp;&amp;(e=!1),a.addEventListener(b.toString(),d,e);else if(a.attachEvent)a.attachEvent(Oa(b.toString()),d);else if(a.addListener&amp;&amp;a.removeListener)a.addListener(d);else throw Error("addEventListener and attachEvent are unavailable.");Ia++;return c} function Na(){function a(c){return b.call(a.src,a.listener,c)}var b=Pa;return a}function R(a,b,c,d,e){if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)R(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!0,y(d)?!!d.capture:!!d,e):La(a,b,c,!0,d,e)} function Qa(a,b,c,d,e){if(Array.isArray(b))for(var f=0;f&lt;b.length;f++)Qa(a,b[f],c,d,e);else(d=y(d)?!!d.capture:!!d,c=Ka(c),a&amp;&amp;a[L])?Ga(a.g,String(b),c,d,e):a&amp;&amp;(a=Ma(a))&amp;&amp;(b=a.g[b.toString()],a=-1,b&amp;&amp;(a=O(b,c,d,e)),(c=-1&lt;a?b[a]:null)&amp;&amp;Ra(c))} function Ra(a){if("number"!==typeof a&amp;&amp;a&amp;&amp;!a.B){var b=a.src;if(b&amp;&amp;b[L])P(b.g,a);else{var c=a.type,d=a.proxy;b.removeEventListener?b.removeEventListener(c,d,a.capture):b.detachEvent?b.detachEvent(Oa(c),d):b.addListener&amp;&amp;b.removeListener&amp;&amp;b.removeListener(d);Ia--;(c=Ma(b))?(P(c,a),0==c.i&amp;&amp;(c.src=null,b[Q]=null)):M(a)}}}function Oa(a){return a in Ha?Ha[a]:Ha[a]="on"+a}function Pa(a,b){if(a.B)a=!0;else{b=new K(b,this);var c=a.listener,d=a.G||a.src;a.F&amp;&amp;Ra(a);a=c.call(d,b)}return a} function Ma(a){a=a[Q];return a instanceof N?a:null}var Sa="__closure_events_fn_"+(1E9*Math.random()&gt;&gt;&gt;0);function Ka(a){if("function"===typeof a)return a;a[Sa]||(a[Sa]=function(b){return a.handleEvent(b)});return a[Sa]};function S(a){H.call(this);this.h=a;this.g={}}B(S,H);var Ta=[];function Ua(a){pa(a.g,function(b,c){this.g.hasOwnProperty(c)&amp;&amp;Ra(b)},a);a.g={}}S.prototype.i=function(){S.A.i.call(this);Ua(this)};S.prototype.handleEvent=function(){throw Error("EventHandler.handleEvent not implemented");};function T(){H.call(this);this.g=new N(this);this.J=this;this.C=null}B(T,H);T.prototype[L]=!0;T.prototype.addEventListener=function(a,b,c,d){Ja(this,a,b,c,d)};T.prototype.removeEventListener=function(a,b,c,d){Qa(this,a,b,c,d)}; function Va(a,b){var c,d=a.C;if(d)for(c=[];d;d=d.C)c.push(d);a=a.J;d=b.type||b;if("string"===typeof b)b=new I(b,a);else if(b instanceof I)b.target=b.target||a;else{var e=b;b=new I(d,a);sa(b,e)}e=!0;if(c)for(var f=c.length-1;0&lt;=f;f--){var l=b.g=c[f];e=U(l,d,!0,b)&amp;&amp;e}l=b.g=a;e=U(l,d,!0,b)&amp;&amp;e;e=U(l,d,!1,b)&amp;&amp;e;if(c)for(f=0;f&lt;c.length;f++)l=b.g=c[f],e=U(l,d,!1,b)&amp;&amp;e} T.prototype.i=function(){T.A.i.call(this);if(this.g){var a=this.g,b=0,c;for(c in a.g){for(var d=a.g[c],e=0;e&lt;d.length;e++)++b,M(d[e]);delete a.g[c];a.i--}}this.C=null};function U(a,b,c,d){b=a.g.g[String(b)];if(!b)return!0;b=b.concat();for(var e=!0,f=0;f&lt;b.length;++f){var l=b[f];if(l&amp;&amp;!l.B&amp;&amp;l.capture==c){var g=l.listener,h=l.G||l.src;l.F&amp;&amp;P(a.g,l);e=!1!==g.call(h,d)&amp;&amp;e}}return e&amp;&amp;!d.defaultPrevented};function V(a,b){T.call(this);this.v=a||1;this.m=b||w;this.H=z(this.K,this);this.D=Date.now()}B(V,T);V.prototype.j=!1;V.prototype.h=null;V.prototype.K=function(){if(this.j){var a=Date.now()-this.D;0&lt;a&amp;&amp;a&lt;.8*this.v?this.h=this.m.setTimeout(this.H,this.v-a):(this.h&amp;&amp;(this.m.clearTimeout(this.h),this.h=null),Va(this,"tick"),this.j&amp;&amp;(Wa(this),this.start()))}};V.prototype.start=function(){this.j=!0;this.h||(this.h=this.m.setTimeout(this.H,this.v),this.D=Date.now())}; function Wa(a){a.j=!1;a.h&amp;&amp;(a.m.clearTimeout(a.h),a.h=null)}V.prototype.i=function(){V.A.i.call(this);Wa(this);delete this.m};function Xa(){if(window.googleJsEnvironment&amp;&amp;("rhino"==window.googleJsEnvironment.environment||"jscore"==window.googleJsEnvironment.environment))return new W;if(za&amp;&amp;window.googleAdsJsInterface&amp;&amp;"notify"in window.googleAdsJsInterface)try{return window.googleAdsJsInterface.notify("gmsg://mobileads.google.com/noop"),new W}catch(a){}else if(window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler)return new Ya;return new Za}function $a(){ab||(ab=Xa());return ab} var ab=null;function X(){H.call(this)}u(X,H);function bb(a){var b=qa(a.parameters);b["google.afma.Notify_dt"]=(new Date).getTime();return Ba(new J(a.messageName,b)).toString()}function Y(a,b){H.call(this);this.v=a;this.C=b||1;this.m=[];this.j=new V(this.C);a=this.H=new S(this);b=this.j;var c=this.D,d="tick";Array.isArray(d)||(d&amp;&amp;(Ta[0]=d.toString()),d=Ta);for(var e=0;e&lt;d.length;e++){var f=Ja(b,d[e],c||a.handleEvent,!1,a.h||a);if(!f)break;a.g[f.key]=f}}u(Y,X); Y.prototype.sendMessage=function(a){this.m.push(a);this.j.j||(a=this.m.shift(),this.v(a),this.j.start())};Y.prototype.D=function(){var a=this.m.shift();a?this.v(a):Wa(this.j)}; function Za(){Y.call(this,function(b){var c=a.g[a.h];if(!c){var d=document;c="IFRAME";"application/xhtml+xml"===d.contentType&amp;&amp;(c=c.toLowerCase());c=d.createElement(c);c.id="afma-notify-"+(new Date).getTime();c.style.display="none";a.g[a.h]=c}a.h=(a.h+1)%25;d=qa(b.parameters);d["google.afma.Notify_dt"]=(new Date).getTime();b=Ba(new J(b.messageName,d));c.src=ua(b).toString();c.parentNode||document.body.appendChild(c)});var a=this;this.g=[];this.h=0}u(Za,Y); Za.prototype.i=function(){this.g.forEach(wa);this.g=[];Y.prototype.i.call(this)};function W(){H.call(this)}u(W,X);W.prototype.sendMessage=function(a){a=bb(a);window.googleAdsJsInterface&amp;&amp;window.googleAdsJsInterface.notify&amp;&amp;(window.googleAdsJsInterface.notify(a),window.googleAdsJsInterface.DEBUG&amp;&amp;console.log(a))};function Ya(){H.call(this)}u(Ya,X);Ya.prototype.sendMessage=function(a){a=bb(a);window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler.postMessage(a)};/*  Math.uuid.js (v1.4) http://www.broofa.com mailto:robert@broofa.com Copyright (c) 2010 Robert Kieffer Dual licensed under the MIT and GPL licenses. */ var cb="0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz".split("");function db(a){for(var b=Array(36),c=0,d,e=0;36&gt;e;e++)8==e||13==e||18==e||23==e?b[e]="-":14==e?b[e]="4":(2&gt;=c&amp;&amp;(c=33554432+16777216*Math.random()|0),d=c&amp;15,c&gt;&gt;=4,b[e]=cb[19==e?d&amp;3|8:d]);this.uuid=b.join("");this.callback=a} function eb(a){var b=w.imalib_globalCallbacks||new Map,c=b.get("AFMA_updateActiveView")||[];if(0===c.length&amp;&amp;w.AFMA_updateActiveView){var d=new db(w.AFMA_updateActiveView);c.push(d);w.AFMA_updateActiveView=void 0}w.AFMA_updateActiveView||(w.AFMA_updateActiveView=function(){var e=b.get("AFMA_updateActiveView");e=q(e);for(var f=e.next();!f.done;f=e.next())f.value.callback.apply(null,arguments)});a=new db(a);c.push(a);b.set("AFMA_updateActiveView",c);w.imalib_globalCallbacks=b;return a.uuid} function fb(a){if(w.AFMA_updateActiveView){var b=w.imalib_globalCallbacks;if(b){var c=b.get("AFMA_updateActiveView");if(c){var d=c.findIndex(function(e){return e.uuid===a});-1!==d&amp;&amp;(c.splice(d,1),0===c.length&amp;&amp;(w.AFMA_updateActiveView=void 0),b.set("AFMA_updateActiveView",c),w.imalib_globalCallbacks=b)}}}};function gb(){var a=this;this.o=[];this.h=window===window.top;this.j=!1;this.g=0;this.i=null;"undefined"!==typeof window.addEventListener&amp;&amp;window.addEventListener("message",function(b){return hb(a,b)})} function hb(a,b){var c=b.data;if((b=b.source)&amp;&amp;c){var d=a.o;if("arwebview_iframe_loaded"===c&amp;&amp;a.h)x("JavascriptWebViewBridge.incoming.postMessage",a.u.bind(a),w),-1===d.indexOf(b)&amp;&amp;d.push(b);else{var e=c.messageName;c=c.parameters;if(a.h)switch(e){case "mraid_loaded":!1===c.is_top_win&amp;&amp;(a.j=!0,a.i=eb(function(f){a.h&amp;&amp;ib(a,new J("update_activeview_action",f))}),-1===d.indexOf(b)&amp;&amp;(d.push(b),"undefined"!==typeof b.postMessage&amp;&amp;b.postMessage(new J("mraid_env_obj",window.MRAID_ENV),"*")));break;case "start_tracking_action":0== a.g&amp;&amp;window.AFMA_SendMessage("trackActiveViewUnit");a.g+=1;break;case "stop_tracking_action":--a.g,0==a.g&amp;&amp;(window.AFMA_SendMessage("untrackActiveViewUnit",{hashCode:c.hashCode}),a.i&amp;&amp;(fb(a.i),a.i=null))}else switch(e){case "mraid_env_obj":window.MRAID_ENV=c;break;case "update_activeview_action":window.AFMA_updateActiveView&amp;&amp;window.AFMA_updateActiveView(c);break;case "receive_message_action":window.AFMA_ReceiveMessage(c.messageName,c.parameters)}}}} gb.prototype.u=function(a){this.h&amp;&amp;ib(this,{name:"arwebview_message_forwarded",message:a})};function ib(a,b){a.o.forEach(function(c){return c.postMessage(b,"*")})};function Z(){T.call(this);this.j=$a();this.j=$a();var a=ma(xa,this.j);this.u?a():(this.o||(this.o=[]),this.o.push(a));this.h={};this.m=new gb}u(Z,T);Z.prototype.sendMessage=function(a,b){var c=this,d;"string"===typeof a?d=new J(a,b):a instanceof J&amp;&amp;(d=a);"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return c.j.sendMessage(d)},!1,this):this.j.sendMessage(d)}; Z.prototype.receiveMessage=function(a,b){if(this.shouldForwardMessageToIframe())this.forwardMessage(new J("receive_message_action",new J(a,b)));else{var c=document.getElementById("ad_iframe");void 0!=c&amp;&amp;void 0!=c.contentWindow&amp;&amp;void 0!=c.contentWindow.AFMA_ReceiveMessage&amp;&amp;c.contentWindow.AFMA_ReceiveMessage(a,b)}"onshow"==a&amp;&amp;"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return jb(a,null!=b?b:void 0)}):Va(this,new ya(new J(a,b),this))}; Z.prototype.addObserver=function(a,b,c){function d(e){return void c.call(b,e.type,e.params)}this.g.add(String(a),d,!1,void 0,void 0);this.h[a]||(this.h[a]={});this.h[a][b]=d};Z.prototype.removeObserver=function(a,b){this.h[a]&amp;&amp;this.h[a][b]&amp;&amp;(Ga(this.g,String(a),this.h[a][b]),delete this.h[a][b])};Z.prototype.shouldForwardMessageToIframe=function(){return this.m.j};Z.prototype.forwardMessage=function(a){ib(this.m,a)}; function kb(a,b){w.AFMA_Communicator?w.AFMA_Communicator.sendMessage(a,b):lb(a,b)}function lb(a,b){"loading"==document.readyState?(a=z(lb,null,a,b),R(w,"DOMContentLoaded",a,!1)):(a=new J(a,b),$a().sendMessage(a))}function jb(a,b){w.AFMA_Communicator.receiveMessage(a,b)}function mb(a,b,c,d){w.AFMA_Communicator.removeEventListener(a,b,c,d)}function nb(a,b,c,d){w.AFMA_Communicator.addEventListener(a,b,c,d)}function ob(a,b,c){w.AFMA_Communicator.addObserver(a,b,c)} function pb(a,b){w.AFMA_Communicator.removeObserver(a,b)}w.AFMA_Communicator||(x("AFMA_AddEventListener",nb,w),x("AFMA_RemoveEventListener",mb,w),x("AFMA_AddObserver",ob,w),x("AFMA_RemoveObserver",pb,w),x("AFMA_ReceiveMessage",jb,w),x("AFMA_SendMessage",kb,w),w.AFMA_Communicator=new Z);nb("onSdkImpression",function(){x("Goog_Omid_SdkImpressionReceived",!0)});nb("onSdkLoaded",function(){x("Goog_Omid_SdkLoadedReceived",!0)});}).call(this);&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omsdk-v1.js"&gt;&lt;/script&gt;&lt;style&gt;a { color: #ffffff }&lt;/style&gt;&lt;script&gt;&lt;/script&gt;&lt;script data-jc="55" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ var g=this||self;var h,k;a:{for(var l=["CLOSURE_FLAGS"],m=g,q=0;q&lt;l.length;q++)if(m=m[l[q]],null==m){k=null;break a}k=m}var r=k&amp;&amp;k[610401301];h=null!=r?r:!1;var t,u=g.navigator;t=u?u.userAgentData||null:null;function v(a){return h?t?t.brands.some(function(b){return(b=b.brand)&amp;&amp;-1!=b.indexOf(a)}):!1:!1}function w(a){var b;a:{if(b=g.navigator)if(b=b.userAgent)break a;b=""}return-1!=b.indexOf(a)};function x(){return h?!!t&amp;&amp;0&lt;t.brands.length:!1}function y(){return x()?v("Chromium"):(w("Chrome")||w("CriOS"))&amp;&amp;!(x()?0:w("Edge"))||w("Silk")};var z=Array.prototype.forEach?function(a,b){Array.prototype.forEach.call(a,b,void 0)}:function(a,b){for(var c=a.length,d="string"===typeof a?a.split(""):a,f=0;f&lt;c;f++)f in d&amp;&amp;b.call(void 0,d[f],f,a)};!w("Android")||y();y();w("Safari")&amp;&amp;(y()||(x()?0:w("Coast"))||(x()?0:w("Opera"))||(x()?0:w("Edge"))||(x()?v("Microsoft Edge"):w("Edg/"))||x()&amp;&amp;v("Opera"));function A(a,b){this.g=b===B?a:""}A.prototype.toString=function(){return this.g.toString()};A.prototype.h=!0;var C;try{new URL("s://g"),C=!0}catch(a){C=!1}var D=C,B={},E=new A("about:invalid#zClosurez",B);function F(a,b,c){if(Array.isArray(b))for(var d=0;d&lt;b.length;d++)F(a,String(b[d]),c);else null!=b&amp;&amp;c.push(a+(""===b?"":"="+encodeURIComponent(String(b))))};/*  SPDX-License-Identifier: Apache-2.0 */ function G(a){this.j=a}function H(a){return new G(function(b){return b.substr(0,a.length+1).toLowerCase()===a+":"})}var I=new G(function(a){return/^[^:]*([/?#]|$)/.test(a)}),J=H("http"),K=H("https"),L=H("ftp"),M=H("mailto"),N=[H("data"),J,K,M,L,I];function O(a,b,c,d,f){if(f)c=a+("&amp;"+b+"="+c);else{var n="&amp;"+b+"=",e=a.indexOf(n);0&gt;e?c=a+n+c:(e+=n.length,n=a.indexOf("&amp;",e),c=0&lt;=n?a.substring(0,e)+c+a.substring(n):a.substring(0,e)+c)}var p=void 0===p?window:p;p=parseInt(p.sumhl,10);return c.length&gt;(0&lt;p?p:2E3)?void 0!==d?O(a,b,d,void 0,f):a:c};var P=window;var Q=[J,K,M,L,I,H("market"),H("itms"),H("intent"),H("itms-appss")]; function aa(){var a=(ba()?"http:":"https:")+"//pagead2.googlesyndication.com/pagead/gen_204";return function(b){b={id:"unsafeurl",ctx:600,url:b};var c=[];for(d in b)F(d,b[d],c);var d=c.join("&amp;");if(d){b=a.indexOf("#");0&gt;b&amp;&amp;(b=a.length);c=a.indexOf("?");if(0&gt;c||c&gt;b){c=b;var f=""}else f=a.substring(c+1,b);b=[a.slice(0,c),f,a.slice(b)];c=b[1];b[1]=d?c?c+"&amp;"+d:d:c;d=b[0]+(b[1]?"?"+b[1]:"")+b[2]}else d=a;navigator.sendBeacon&amp;&amp;navigator.sendBeacon(d,"")}};function ba(){var a=void 0===a?P:a;return"http:"===a.location.protocol};var R=null;function S(){var a=void 0===a?g:a;return(a=a.performance)&amp;&amp;a.now&amp;&amp;a.timing?Math.floor(a.now()+a.timing.navigationStart):Date.now()}function T(){var a=void 0===a?g:a;return(a=a.performance)&amp;&amp;a.now?a.now():null};function ca(a,b){var c=T()||S();this.label=a;this.type=b;this.value=c;this.duration=0;this.uniqueId=Math.random();this.taskId=this.slotId=void 0};var U=g.performance,da=!!(U&amp;&amp;U.mark&amp;&amp;U.measure&amp;&amp;U.clearMarks),V=function(a){var b=!1,c;return function(){b||(c=a(),b=!0);return c}}(function(){var a;if(a=da){var b;if(null===R){R="";try{a="";try{a=g.top.location.hash}catch(c){a=g.location.hash}a&amp;&amp;(R=(b=a.match(/\\bdeid=([\\d,]+)/))?b[1]:"")}catch(c){}}b=R;a=!!b.indexOf&amp;&amp;0&lt;=b.indexOf("1337")}return a}); function W(){var a=window;this.g=[];this.i=a||g;var b=null;a&amp;&amp;(a.google_js_reporting_queue=a.google_js_reporting_queue||[],this.g=a.google_js_reporting_queue,b=a.google_measure_js_timing);this.h=V()||(null!=b?b:1&gt;Math.random())}function ea(a){a&amp;&amp;U&amp;&amp;V()&amp;&amp;(U.clearMarks("goog_"+a.label+"_"+a.uniqueId+"_start"),U.clearMarks("goog_"+a.label+"_"+a.uniqueId+"_end"))}W.prototype.start=function(a,b){if(!this.h)return null;a=new ca(a,b);b="goog_"+a.label+"_"+a.uniqueId+"_start";U&amp;&amp;V()&amp;&amp;U.mark(b);return a}; W.prototype.end=function(a){if(this.h&amp;&amp;"number"===typeof a.value){a.duration=(T()||S())-a.value;var b="goog_"+a.label+"_"+a.uniqueId+"_end";U&amp;&amp;V()&amp;&amp;U.mark(b);!this.h||2048&lt;this.g.length||this.g.push(a)}};var X=new W;function Y(){window.google_measure_js_timing||(X.h=!1,X.g!=X.i.google_js_reporting_queue&amp;&amp;(V()&amp;&amp;z(X.g,ea),X.g.length=0))}"number"!==typeof window.google_srt&amp;&amp;(window.google_srt=Math.random());if("complete"==window.document.readyState)Y();else if(X.h){var fa=function(){Y()},Z=window;Z.addEventListener&amp;&amp;Z.addEventListener.call(Z,"load",fa,!1)};window.bgz=function(a){if(a=document.getElementById(a)){var b=O(a.href,"bg","10");var c=aa();if(!(b instanceof A)){var d=Q;d=void 0===d?N:d;b:{d=void 0===d?N:d;for(var f=0;f&lt;d.length;++f){var n=d[f];if(n instanceof G&amp;&amp;n.j(b)){d=new A(b,B);break b}}d=void 0}d=d||E;d===E&amp;&amp;c(b);b=d}if(b instanceof A)var e=b;else if(b instanceof A)e=b;else{b="object"==typeof b&amp;&amp;b.h?b.g.toString():String(b);b:if(c=b,D){try{e=new URL(c)}catch(p){e="https:";break b}e=e.protocol}else c:{e=document.createElement("a");try{e.href= c}catch(p){e=void 0;break c}e=e.protocol;e=":"===e||""===e?"https:":e}"javascript:"===e&amp;&amp;(b="about:invalid#zClosurez");e=new A(b,B)}a.href=e instanceof A&amp;&amp;e.constructor===A?e.g:"type_error:SafeUrl"}};}).call(this);&lt;/script&gt;&lt;script data-jc="53" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ var aa="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},h;if("function"==typeof Object.setPrototypeOf)h=Object.setPrototypeOf;else{var l;a:{var ba={a:!0},m={};try{m.__proto__=ba;l=m.a;break a}catch(a){}l=!1}h=l?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ca=h; function da(a,b){a.prototype=aa(b.prototype);a.prototype.constructor=a;if(ca)ca(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.C=b.prototype}var n=this||self; function ea(a,b){function c(){}c.prototype=b.prototype;a.C=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.Ja=function(d,e,f){for(var q=Array(arguments.length-2),k=2;k&lt;arguments.length;k++)q[k-2]=arguments[k];return b.prototype[e].apply(d,q)}};var r,t;a:{for(var fa=["CLOSURE_FLAGS"],u=n,v=0;v&lt;fa.length;v++)if(u=u[fa[v]],null==u){t=null;break a}t=u}var ha=t&amp;&amp;t[610401301];r=null!=ha?ha:!1;var w,ia=n.navigator;w=ia?ia.userAgentData||null:null;function x(a){return r?w?w.brands.some(function(b){return(b=b.brand)&amp;&amp;-1!=b.indexOf(a)}):!1:!1}function y(a){var b;a:{if(b=n.navigator)if(b=b.userAgent)break a;b=""}return-1!=b.indexOf(a)};function z(){return r?!!w&amp;&amp;0&lt;w.brands.length:!1}function B(){return z()?x("Chromium"):(y("Chrome")||y("CriOS"))&amp;&amp;!(z()?0:y("Edge"))||y("Silk")};var ja=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1},ka=Array.prototype.forEach?function(a,b){Array.prototype.forEach.call(a,b,void 0)}:function(a,b){for(var c=a.length,d="string"===typeof a?a.split(""):a,e=0;e&lt;c;e++)e in d&amp;&amp;b.call(void 0,d[e],e,a)};!y("Android")||B();B();y("Safari")&amp;&amp;(B()||(z()?0:y("Coast"))||(z()?0:y("Opera"))||(z()?0:y("Edge"))||(z()?x("Microsoft Edge"):y("Edg/"))||z()&amp;&amp;x("Opera"));function la(a){var b=!1,c;return function(){b||(c=a(),b=!0);return c}};var C={Event:{m:"click",L:"dblclick",j:"mousedown",fa:"mouseup",ea:"mouseover",da:"mouseout",ca:"mousemove",aa:"mouseenter",ba:"mouseleave",Ba:"touchstart",Aa:"touchmove",za:"touchend",ya:"touchcancel",U:"keypress",s:"keydown",V:"keyup",N:"deviceorientation",ga:"MozOrientation",M:"devicemotion",na:"orientationchange",oa:"pagehide",pa:"pageshow",G:"beforeunload",H:"blur",J:"contextmenu",o:"DOMContentLoaded",P:"error",R:"focus",S:"hashchange",T:"help",u:"load",Y:"losecapture",Z:"message",ia:"msvisibilitychange", ha:"mozvisibilitychange",qa:"popstate",sa:"readystatechange",ta:"resize",ua:"scroll",wa:"storage",xa:"submit",Ea:"unload",Ga:"visibilitychange",Ia:"webkitvisibilitychange",Ca:"transitionend",Ha:"webkitTransitionEnd",I:"change",X:"loadstart",ra:"progress",D:"abort",W:"loadend",K:"crash",la:"onshow",ka:"onhide",ja:"onAdVisibilityChanged",O:"DOMNodeRemoved",Fa:"viewableChange",F:"animationend",va:"securitypolicyviolation",Da:"unhandledrejection"},v:{capture:!0},ma:{passive:!0}}; C.A=la(function(){var a=!1;try{var b=Object.defineProperty({},"passive",{get:function(){a=!0}});n.addEventListener("test",null,b)}catch(c){}return a});function ma(a){return a?a.passive&amp;&amp;C.A()?a:a.capture||!1:!1}C.i=function(a,b,c,d){return a.addEventListener?(a.addEventListener(b,c,ma(d)),!0):!1};C.La=function(a,b,c,d){retur</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '{"ads":{"m300x250p120":{"b":"JK_F9qUSCUg6XZTOUckYxH8AAAGG7eVsggEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICA6F3qb","crid":"4945_84215_525451_ssl","kvp":{"amznrdr":["default"],"amznp":["16nylfk"],"dc":["iad"]},"sz":"300x250","i":"https://aax-us-east.amazon-adsystem.com/e/msdk/imp?b=JK_F9qUSCUg6XZTOUckYxH8AAAGG7eVsggEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICA6F3qb&amp;ps=m300x250p120"}},"instrPixelURL":"https://aax-us-east.amazon-adsystem.com/x/px/RK_F9qUSCUg6XZTOUckYxH8AAAGG7eVrYAEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICA6F3qb/","errorCode":"200","request_id":"r8X2pRIJSDpdlM5RyRjEfw","status":"ok"}\n', 'size': 618, 'mimeType': 'text/javascript;charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '{"ads":{"m320x50p15":{"b":"JNXDzBPZeewuPCb4XbV8BhQAAAGG7eVsRwEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICDiIy4d","crid":"28256655","kvp":{"amznrdr":["default"],"amznp":["yw9yps"],"dc":["iad"]},"sz":"320x50","i":"https://aax-us-east.amazon-adsystem.com/e/msdk/imp?b=JNXDzBPZeewuPCb4XbV8BhQAAAGG7eVsRwEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICDiIy4d&amp;ps=m320x50p15"}},"instrPixelURL":"https://aax-us-east.amazon-adsystem.com/x/px/RNXDzBPZeewuPCb4XbV8BhQAAAGG7eVragEAAA-qAgBhcHNfdHhuX2JpZDEgICBOL0EgICAgICAgICAgICDiIy4d/","errorCode":"200","request_id":"1cPME9l57C48JvhdtXwGFA","status":"ok"}\n', 'size': 599, 'mimeType': 'text/javascript;charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '&lt;!doctype html&gt;&lt;html&gt;&lt;head&gt;&lt;meta name="viewport" content="width=320, initial-scale=1.0, minimum-scale=1.0, maximum-scale=1.0, user-scalable=no"&gt;&lt;script&gt;var jscVersion = \'r20230315\';&lt;/script&gt;&lt;script&gt;window[\'sumhl\'] = 60000;&lt;/script&gt;&lt;script&gt;var google_casm=["afma-sdk-i-v8.11.0"];&lt;/script&gt;&lt;script data-jc="84" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ function aa(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}}var m="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a}; function ba(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("Cannot find global object");}var ca=ba(this);function p(a,b){if(b)a:{var c=ca;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;m(c,a,{configurable:!0,writable:!0,value:b})}} p("Symbol",function(a){function b(f){if(this instanceof b)throw new TypeError("Symbol is not a constructor");return new c(d+(f||"")+"_"+e++,f)}function c(f,l){this.g=f;m(this,"description",{configurable:!0,writable:!0,value:l})}if(a)return a;c.prototype.toString=function(){return this.g};var d="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",e=0;return b}); p("Symbol.iterator",function(a){if(a)return a;a=Symbol("Symbol.iterator");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=ca[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;m(d.prototype,a,{configurable:!0,writable:!0,value:function(){return da(aa(this))}})}return a});function da(a){a={next:a};a[Symbol.iterator]=function(){return this};return a} function q(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];if(b)return b.call(a);if("number"==typeof a.length)return{next:aa(a)};throw Error(String(a)+" is not an iterable or ArrayLike");}var ea="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},r; if("function"==typeof Object.setPrototypeOf)r=Object.setPrototypeOf;else{var t;a:{var fa={a:!0},ha={};try{ha.__proto__=fa;t=ha.a;break a}catch(a){}t=!1}r=t?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ia=r; function u(a,b){a.prototype=ea(b.prototype);a.prototype.constructor=a;if(ia)ia(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.A=b.prototype}function v(a,b){return Object.prototype.hasOwnProperty.call(a,b)} p("WeakMap",function(a){function b(h){this.g=(g+=Math.random()+1).toString();if(h){h=q(h);for(var k;!(k=h.next()).done;)k=k.value,this.set(k[0],k[1])}}function c(){}function d(h){var k=typeof h;return"object"===k&amp;&amp;null!==h||"function"===k}function e(h){if(!v(h,l)){var k=new c;m(h,l,{value:k})}}function f(h){var k=Object[h];k&amp;&amp;(Object[h]=function(n){if(n instanceof c)return n;Object.isExtensible(n)&amp;&amp;e(n);return k(n)})}if(function(){if(!a||!Object.seal)return!1;try{var h=Object.seal({}),k=Object.seal({}), n=new a([[h,2],[k,3]]);if(2!=n.get(h)||3!=n.get(k))return!1;n.delete(h);n.set(k,4);return!n.has(h)&amp;&amp;4==n.get(k)}catch(A){return!1}}())return a;var l="$jscomp_hidden_"+Math.random();f("freeze");f("preventExtensions");f("seal");var g=0;b.prototype.set=function(h,k){if(!d(h))throw Error("Invalid WeakMap key");e(h);if(!v(h,l))throw Error("WeakMap key fail: "+h);h[l][this.g]=k;return this};b.prototype.get=function(h){return d(h)&amp;&amp;v(h,l)?h[l][this.g]:void 0};b.prototype.has=function(h){return d(h)&amp;&amp;v(h, l)&amp;&amp;v(h[l],this.g)};b.prototype.delete=function(h){return d(h)&amp;&amp;v(h,l)&amp;&amp;v(h[l],this.g)?delete h[l][this.g]:!1};return b}); p("Map",function(a){function b(){var g={};return g.s=g.next=g.head=g}function c(g,h){var k=g.g;return da(function(){if(k){for(;k.head!=g.g;)k=k.s;for(;k.next!=k.head;)return k=k.next,{done:!1,value:h(k)};k=null}return{done:!0,value:void 0}})}function d(g,h){var k=h&amp;&amp;typeof h;"object"==k||"function"==k?f.has(h)?k=f.get(h):(k=""+ ++l,f.set(h,k)):k="p_"+h;var n=g.i[k];if(n&amp;&amp;v(g.i,k))for(g=0;g&lt;n.length;g++){var A=n[g];if(h!==h&amp;&amp;A.key!==A.key||h===A.key)return{id:k,list:n,index:g,l:A}}return{id:k,list:n, index:-1,l:void 0}}function e(g){this.i={};this.g=b();this.size=0;if(g){g=q(g);for(var h;!(h=g.next()).done;)h=h.value,this.set(h[0],h[1])}}if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var g=Object.seal({x:4}),h=new a(q([[g,"s"]]));if("s"!=h.get(g)||1!=h.size||h.get({x:4})||h.set({x:4},"t")!=h||2!=h.size)return!1;var k=h.entries(),n=k.next();if(n.done||n.value[0]!=g||"s"!=n.value[1])return!1;n=k.next();return n.done||4!=n.value[0].x|| "t"!=n.value[1]||!k.next().done?!1:!0}catch(A){return!1}}())return a;var f=new WeakMap;e.prototype.set=function(g,h){g=0===g?0:g;var k=d(this,g);k.list||(k.list=this.i[k.id]=[]);k.l?k.l.value=h:(k.l={next:this.g,s:this.g.s,head:this.g,key:g,value:h},k.list.push(k.l),this.g.s.next=k.l,this.g.s=k.l,this.size++);return this};e.prototype.delete=function(g){g=d(this,g);return g.l&amp;&amp;g.list?(g.list.splice(g.index,1),g.list.length||delete this.i[g.id],g.l.s.next=g.l.next,g.l.next.s=g.l.s,g.l.head=null,this.size--, !0):!1};e.prototype.clear=function(){this.i={};this.g=this.g.s=b();this.size=0};e.prototype.has=function(g){return!!d(this,g).l};e.prototype.get=function(g){return(g=d(this,g).l)&amp;&amp;g.value};e.prototype.entries=function(){return c(this,function(g){return[g.key,g.value]})};e.prototype.keys=function(){return c(this,function(g){return g.key})};e.prototype.values=function(){return c(this,function(g){return g.value})};e.prototype.forEach=function(g,h){for(var k=this.entries(),n;!(n=k.next()).done;)n=n.value, g.call(h,n[1],n[0],this)};e.prototype[Symbol.iterator]=e.prototype.entries;var l=0;return e});function ja(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e}p("Array.prototype.entries",function(a){return a?a:function(){return ja(this,function(b,c){return[b,c]})}}); p("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)v(b,d)&amp;&amp;c.push([d,b[d]]);return c}});p("Array.prototype.findIndex",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++)if(b.call(c,d[f],f,d)){b=f;break a}b=-1}return b}});var w=this||self; function x(a,b,c){a=a.split(".");c=c||w;a[0]in c||"undefined"==typeof c.execScript||c.execScript("var "+a[0]);for(var d;a.length&amp;&amp;(d=a.shift());)a.length||void 0===b?c[d]&amp;&amp;c[d]!==Object.prototype[d]?c=c[d]:c=c[d]={}:c[d]=b}function y(a){var b=typeof a;return"object"==b&amp;&amp;null!=a||"function"==b}function ka(a,b,c){return a.call.apply(a.bind,arguments)} function la(a,b,c){if(!a)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var e=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(e,d);return a.apply(b,e)}}return function(){return a.apply(b,arguments)}}function z(a,b,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?z=ka:z=la;return z.apply(null,arguments)} function ma(a,b){var c=Array.prototype.slice.call(arguments,1);return function(){var d=c.slice();d.push.apply(d,arguments);return a.apply(this,d)}}function B(a,b){function c(){}c.prototype=b.prototype;a.A=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.L=function(d,e,f){for(var l=Array(arguments.length-2),g=2;g&lt;arguments.length;g++)l[g-2]=arguments[g];return b.prototype[e].apply(d,l)}}function C(a){return a};var na=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1};function D(){var a=w.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};function E(a){E[" "](a);return a}E[" "]=function(){};var oa=-1!=D().indexOf("Gecko")&amp;&amp;!(-1!=D().toLowerCase().indexOf("webkit")&amp;&amp;-1==D().indexOf("Edge"))&amp;&amp;!(-1!=D().indexOf("Trident")||-1!=D().indexOf("MSIE"))&amp;&amp;-1==D().indexOf("Edge");function pa(a,b,c){for(var d in a)b.call(c,a[d],d,a)}function qa(a){var b={},c;for(c in a)b[c]=a[c];return b}var ra="constructor hasOwnProperty isPrototypeOf propertyIsEnumerable toLocaleString toString valueOf".split(" ");function sa(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;ra.length;f++)c=ra[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};var F;function G(a,b){this.g=b===ta?a:""}G.prototype.toString=function(){return this.g+""};function ua(a){return a instanceof G&amp;&amp;a.constructor===G?a.g:"type_error:TrustedResourceUrl"}var ta={};function va(a){if(void 0===F){var b=null;var c=w.trustedTypes;if(c&amp;&amp;c.createPolicy){try{b=c.createPolicy("goog#html",{createHTML:C,createScript:C,createScriptURL:C})}catch(d){w.console&amp;&amp;w.console.error(d.message)}F=b}else F=b}a=(b=F)?b.createScriptURL(a):a;return new G(a,ta)};function wa(a){return a&amp;&amp;a.parentNode?a.parentNode.removeChild(a):null};function xa(a){a&amp;&amp;"function"==typeof a.I&amp;&amp;a.I()};function H(){this.u=this.u;this.o=this.o}H.prototype.u=!1;H.prototype.I=function(){this.u||(this.u=!0,this.i())};H.prototype.i=function(){if(this.o)for(;this.o.length;)this.o.shift()()};function I(a,b){this.type=a;this.g=this.target=b;this.defaultPrevented=!1}I.prototype.i=function(){this.defaultPrevented=!0};function J(a,b){this.messageName=a;this.parameters=b||{}}function ya(a,b){I.call(this,a.messageName,b);this.params=a.parameters||{}}u(ya,I);var za=-1!=(w.navigator?w.navigator.userAgent:"").indexOf("Android");/*  SPDX-License-Identifier: Apache-2.0 */ function Aa(a,b){var c=ua(a).toString();if(/#/.test(c))throw Error("");var d=/\\?/.test(c)?"&amp;":"?";b.forEach(function(e,f){e=e instanceof Array?e:[e];for(var l=0;l&lt;e.length;l++){var g=e[l];null!==g&amp;&amp;void 0!==g&amp;&amp;(c+=d+encodeURIComponent(f)+"="+encodeURIComponent(String(g)),d="&amp;")}});return va(c)};function Ba(a){var b=va("gmsg://mobileads.google.com/"+a.messageName);return Aa(b,new Map(Object.entries(a.parameters)))};var Ca=function(){if(!w.addEventListener||!Object.defineProperty)return!1;var a=!1,b=Object.defineProperty({},"passive",{get:function(){a=!0}});try{w.addEventListener("test",function(){},b),w.removeEventListener("test",function(){},b)}catch(c){}return a}();function K(a,b){I.call(this,a?a.type:"");this.relatedTarget=this.g=this.target=null;this.button=this.screenY=this.screenX=this.clientY=this.clientX=0;this.key="";this.metaKey=this.shiftKey=this.altKey=this.ctrlKey=!1;this.state=null;this.pointerId=0;this.pointerType="";this.h=null;if(a){var c=this.type=a.type,d=a.changedTouches&amp;&amp;a.changedTouches.length?a.changedTouches[0]:null;this.target=a.target||a.srcElement;this.g=b;if(b=a.relatedTarget){if(oa){a:{try{E(b.nodeName);var e=!0;break a}catch(f){}e= !1}e||(b=null)}}else"mouseover"==c?b=a.fromElement:"mouseout"==c&amp;&amp;(b=a.toElement);this.relatedTarget=b;d?(this.clientX=void 0!==d.clientX?d.clientX:d.pageX,this.clientY=void 0!==d.clientY?d.clientY:d.pageY,this.screenX=d.screenX||0,this.screenY=d.screenY||0):(this.clientX=void 0!==a.clientX?a.clientX:a.pageX,this.clientY=void 0!==a.clientY?a.clientY:a.pageY,this.screenX=a.screenX||0,this.screenY=a.screenY||0);this.button=a.button;this.key=a.key||"";this.ctrlKey=a.ctrlKey;this.altKey=a.altKey;this.shiftKey= a.shiftKey;this.metaKey=a.metaKey;this.pointerId=a.pointerId||0;this.pointerType="string"===typeof a.pointerType?a.pointerType:Da[a.pointerType]||"";this.state=a.state;this.h=a;a.defaultPrevented&amp;&amp;K.A.i.call(this)}}B(K,I);var Da={2:"touch",3:"pen",4:"mouse"};K.prototype.i=function(){K.A.i.call(this);var a=this.h;a.preventDefault?a.preventDefault():a.returnValue=!1};var L="closure_listenable_"+(1E6*Math.random()|0);var Ea=0;function Fa(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.G=e;this.key=++Ea;this.B=this.F=!1}function M(a){a.B=!0;a.listener=null;a.proxy=null;a.src=null;a.G=null};function N(a){this.src=a;this.g={};this.i=0}N.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.i++);var l=O(a,b,d,e);-1&lt;l?(b=a[l],c||(b.F=!1)):(b=new Fa(b,this.src,f,!!d,e),b.F=c,a.push(b));return b};function Ga(a,b,c,d,e){b=b.toString();if(b in a.g){var f=a.g[b];c=O(f,c,d,e);-1&lt;c&amp;&amp;(M(f[c]),Array.prototype.splice.call(f,c,1),0==f.length&amp;&amp;(delete a.g[b],a.i--))}} function P(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=na(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(M(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.i--))}}function O(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.B&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.G==d)return e}return-1};var Q="closure_lm_"+(1E6*Math.random()|0),Ha={},Ia=0;function Ja(a,b,c,d,e){if(d&amp;&amp;d.once)return R(a,b,c,d,e);if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)Ja(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!1,y(d)?!!d.capture:!!d,e):La(a,b,c,!1,d,e)} function La(a,b,c,d,e,f){if(!b)throw Error("Invalid event type");var l=y(e)?!!e.capture:!!e,g=Ma(a);g||(a[Q]=g=new N(a));c=g.add(b,c,d,l,f);if(c.proxy)return c;d=Na();c.proxy=d;d.src=a;d.listener=c;if(a.addEventListener)Ca||(e=l),void 0===e&amp;&amp;(e=!1),a.addEventListener(b.toString(),d,e);else if(a.attachEvent)a.attachEvent(Oa(b.toString()),d);else if(a.addListener&amp;&amp;a.removeListener)a.addListener(d);else throw Error("addEventListener and attachEvent are unavailable.");Ia++;return c} function Na(){function a(c){return b.call(a.src,a.listener,c)}var b=Pa;return a}function R(a,b,c,d,e){if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)R(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!0,y(d)?!!d.capture:!!d,e):La(a,b,c,!0,d,e)} function Qa(a,b,c,d,e){if(Array.isArray(b))for(var f=0;f&lt;b.length;f++)Qa(a,b[f],c,d,e);else(d=y(d)?!!d.capture:!!d,c=Ka(c),a&amp;&amp;a[L])?Ga(a.g,String(b),c,d,e):a&amp;&amp;(a=Ma(a))&amp;&amp;(b=a.g[b.toString()],a=-1,b&amp;&amp;(a=O(b,c,d,e)),(c=-1&lt;a?b[a]:null)&amp;&amp;Ra(c))} function Ra(a){if("number"!==typeof a&amp;&amp;a&amp;&amp;!a.B){var b=a.src;if(b&amp;&amp;b[L])P(b.g,a);else{var c=a.type,d=a.proxy;b.removeEventListener?b.removeEventListener(c,d,a.capture):b.detachEvent?b.detachEvent(Oa(c),d):b.addListener&amp;&amp;b.removeListener&amp;&amp;b.removeListener(d);Ia--;(c=Ma(b))?(P(c,a),0==c.i&amp;&amp;(c.src=null,b[Q]=null)):M(a)}}}function Oa(a){return a in Ha?Ha[a]:Ha[a]="on"+a}function Pa(a,b){if(a.B)a=!0;else{b=new K(b,this);var c=a.listener,d=a.G||a.src;a.F&amp;&amp;Ra(a);a=c.call(d,b)}return a} function Ma(a){a=a[Q];return a instanceof N?a:null}var Sa="__closure_events_fn_"+(1E9*Math.random()&gt;&gt;&gt;0);function Ka(a){if("function"===typeof a)return a;a[Sa]||(a[Sa]=function(b){return a.handleEvent(b)});return a[Sa]};function S(a){H.call(this);this.h=a;this.g={}}B(S,H);var Ta=[];function Ua(a){pa(a.g,function(b,c){this.g.hasOwnProperty(c)&amp;&amp;Ra(b)},a);a.g={}}S.prototype.i=function(){S.A.i.call(this);Ua(this)};S.prototype.handleEvent=function(){throw Error("EventHandler.handleEvent not implemented");};function T(){H.call(this);this.g=new N(this);this.J=this;this.C=null}B(T,H);T.prototype[L]=!0;T.prototype.addEventListener=function(a,b,c,d){Ja(this,a,b,c,d)};T.prototype.removeEventListener=function(a,b,c,d){Qa(this,a,b,c,d)}; function Va(a,b){var c,d=a.C;if(d)for(c=[];d;d=d.C)c.push(d);a=a.J;d=b.type||b;if("string"===typeof b)b=new I(b,a);else if(b instanceof I)b.target=b.target||a;else{var e=b;b=new I(d,a);sa(b,e)}e=!0;if(c)for(var f=c.length-1;0&lt;=f;f--){var l=b.g=c[f];e=U(l,d,!0,b)&amp;&amp;e}l=b.g=a;e=U(l,d,!0,b)&amp;&amp;e;e=U(l,d,!1,b)&amp;&amp;e;if(c)for(f=0;f&lt;c.length;f++)l=b.g=c[f],e=U(l,d,!1,b)&amp;&amp;e} T.prototype.i=function(){T.A.i.call(this);if(this.g){var a=this.g,b=0,c;for(c in a.g){for(var d=a.g[c],e=0;e&lt;d.length;e++)++b,M(d[e]);delete a.g[c];a.i--}}this.C=null};function U(a,b,c,d){b=a.g.g[String(b)];if(!b)return!0;b=b.concat();for(var e=!0,f=0;f&lt;b.length;++f){var l=b[f];if(l&amp;&amp;!l.B&amp;&amp;l.capture==c){var g=l.listener,h=l.G||l.src;l.F&amp;&amp;P(a.g,l);e=!1!==g.call(h,d)&amp;&amp;e}}return e&amp;&amp;!d.defaultPrevented};function V(a,b){T.call(this);this.v=a||1;this.m=b||w;this.H=z(this.K,this);this.D=Date.now()}B(V,T);V.prototype.j=!1;V.prototype.h=null;V.prototype.K=function(){if(this.j){var a=Date.now()-this.D;0&lt;a&amp;&amp;a&lt;.8*this.v?this.h=this.m.setTimeout(this.H,this.v-a):(this.h&amp;&amp;(this.m.clearTimeout(this.h),this.h=null),Va(this,"tick"),this.j&amp;&amp;(Wa(this),this.start()))}};V.prototype.start=function(){this.j=!0;this.h||(this.h=this.m.setTimeout(this.H,this.v),this.D=Date.now())}; function Wa(a){a.j=!1;a.h&amp;&amp;(a.m.clearTimeout(a.h),a.h=null)}V.prototype.i=function(){V.A.i.call(this);Wa(this);delete this.m};function Xa(){if(window.googleJsEnvironment&amp;&amp;("rhino"==window.googleJsEnvironment.environment||"jscore"==window.googleJsEnvironment.environment))return new W;if(za&amp;&amp;window.googleAdsJsInterface&amp;&amp;"notify"in window.googleAdsJsInterface)try{return window.googleAdsJsInterface.notify("gmsg://mobileads.google.com/noop"),new W}catch(a){}else if(window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler)return new Ya;return new Za}function $a(){ab||(ab=Xa());return ab} var ab=null;function X(){H.call(this)}u(X,H);function bb(a){var b=qa(a.parameters);b["google.afma.Notify_dt"]=(new Date).getTime();return Ba(new J(a.messageName,b)).toString()}function Y(a,b){H.call(this);this.v=a;this.C=b||1;this.m=[];this.j=new V(this.C);a=this.H=new S(this);b=this.j;var c=this.D,d="tick";Array.isArray(d)||(d&amp;&amp;(Ta[0]=d.toString()),d=Ta);for(var e=0;e&lt;d.length;e++){var f=Ja(b,d[e],c||a.handleEvent,!1,a.h||a);if(!f)break;a.g[f.key]=f}}u(Y,X); Y.prototype.sendMessage=function(a){this.m.push(a);this.j.j||(a=this.m.shift(),this.v(a),this.j.start())};Y.prototype.D=function(){var a=this.m.shift();a?this.v(a):Wa(this.j)}; function Za(){Y.call(this,function(b){var c=a.g[a.h];if(!c){var d=document;c="IFRAME";"application/xhtml+xml"===d.contentType&amp;&amp;(c=c.toLowerCase());c=d.createElement(c);c.id="afma-notify-"+(new Date).getTime();c.style.display="none";a.g[a.h]=c}a.h=(a.h+1)%25;d=qa(b.parameters);d["google.afma.Notify_dt"]=(new Date).getTime();b=Ba(new J(b.messageName,d));c.src=ua(b).toString();c.parentNode||document.body.appendChild(c)});var a=this;this.g=[];this.h=0}u(Za,Y); Za.prototype.i=function(){this.g.forEach(wa);this.g=[];Y.prototype.i.call(this)};function W(){H.call(this)}u(W,X);W.prototype.sendMessage=function(a){a=bb(a);window.googleAdsJsInterface&amp;&amp;window.googleAdsJsInterface.notify&amp;&amp;(window.googleAdsJsInterface.notify(a),window.googleAdsJsInterface.DEBUG&amp;&amp;console.log(a))};function Ya(){H.call(this)}u(Ya,X);Ya.prototype.sendMessage=function(a){a=bb(a);window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler.postMessage(a)};/*  Math.uuid.js (v1.4) http://www.broofa.com mailto:robert@broofa.com Copyright (c) 2010 Robert Kieffer Dual licensed under the MIT and GPL licenses. */ var cb="0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz".split("");function db(a){for(var b=Array(36),c=0,d,e=0;36&gt;e;e++)8==e||13==e||18==e||23==e?b[e]="-":14==e?b[e]="4":(2&gt;=c&amp;&amp;(c=33554432+16777216*Math.random()|0),d=c&amp;15,c&gt;&gt;=4,b[e]=cb[19==e?d&amp;3|8:d]);this.uuid=b.join("");this.callback=a} function eb(a){var b=w.imalib_globalCallbacks||new Map,c=b.get("AFMA_updateActiveView")||[];if(0===c.length&amp;&amp;w.AFMA_updateActiveView){var d=new db(w.AFMA_updateActiveView);c.push(d);w.AFMA_updateActiveView=void 0}w.AFMA_updateActiveView||(w.AFMA_updateActiveView=function(){var e=b.get("AFMA_updateActiveView");e=q(e);for(var f=e.next();!f.done;f=e.next())f.value.callback.apply(null,arguments)});a=new db(a);c.push(a);b.set("AFMA_updateActiveView",c);w.imalib_globalCallbacks=b;return a.uuid} function fb(a){if(w.AFMA_updateActiveView){var b=w.imalib_globalCallbacks;if(b){var c=b.get("AFMA_updateActiveView");if(c){var d=c.findIndex(function(e){return e.uuid===a});-1!==d&amp;&amp;(c.splice(d,1),0===c.length&amp;&amp;(w.AFMA_updateActiveView=void 0),b.set("AFMA_updateActiveView",c),w.imalib_globalCallbacks=b)}}}};function gb(){var a=this;this.o=[];this.h=window===window.top;this.j=!1;this.g=0;this.i=null;"undefined"!==typeof window.addEventListener&amp;&amp;window.addEventListener("message",function(b){return hb(a,b)})} function hb(a,b){var c=b.data;if((b=b.source)&amp;&amp;c){var d=a.o;if("arwebview_iframe_loaded"===c&amp;&amp;a.h)x("JavascriptWebViewBridge.incoming.postMessage",a.u.bind(a),w),-1===d.indexOf(b)&amp;&amp;d.push(b);else{var e=c.messageName;c=c.parameters;if(a.h)switch(e){case "mraid_loaded":!1===c.is_top_win&amp;&amp;(a.j=!0,a.i=eb(function(f){a.h&amp;&amp;ib(a,new J("update_activeview_action",f))}),-1===d.indexOf(b)&amp;&amp;(d.push(b),"undefined"!==typeof b.postMessage&amp;&amp;b.postMessage(new J("mraid_env_obj",window.MRAID_ENV),"*")));break;case "start_tracking_action":0== a.g&amp;&amp;window.AFMA_SendMessage("trackActiveViewUnit");a.g+=1;break;case "stop_tracking_action":--a.g,0==a.g&amp;&amp;(window.AFMA_SendMessage("untrackActiveViewUnit",{hashCode:c.hashCode}),a.i&amp;&amp;(fb(a.i),a.i=null))}else switch(e){case "mraid_env_obj":window.MRAID_ENV=c;break;case "update_activeview_action":window.AFMA_updateActiveView&amp;&amp;window.AFMA_updateActiveView(c);break;case "receive_message_action":window.AFMA_ReceiveMessage(c.messageName,c.parameters)}}}} gb.prototype.u=function(a){this.h&amp;&amp;ib(this,{name:"arwebview_message_forwarded",message:a})};function ib(a,b){a.o.forEach(function(c){return c.postMessage(b,"*")})};function Z(){T.call(this);this.j=$a();this.j=$a();var a=ma(xa,this.j);this.u?a():(this.o||(this.o=[]),this.o.push(a));this.h={};this.m=new gb}u(Z,T);Z.prototype.sendMessage=function(a,b){var c=this,d;"string"===typeof a?d=new J(a,b):a instanceof J&amp;&amp;(d=a);"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return c.j.sendMessage(d)},!1,this):this.j.sendMessage(d)}; Z.prototype.receiveMessage=function(a,b){if(this.shouldForwardMessageToIframe())this.forwardMessage(new J("receive_message_action",new J(a,b)));else{var c=document.getElementById("ad_iframe");void 0!=c&amp;&amp;void 0!=c.contentWindow&amp;&amp;void 0!=c.contentWindow.AFMA_ReceiveMessage&amp;&amp;c.contentWindow.AFMA_ReceiveMessage(a,b)}"onshow"==a&amp;&amp;"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return jb(a,null!=b?b:void 0)}):Va(this,new ya(new J(a,b),this))}; Z.prototype.addObserver=function(a,b,c){function d(e){return void c.call(b,e.type,e.params)}this.g.add(String(a),d,!1,void 0,void 0);this.h[a]||(this.h[a]={});this.h[a][b]=d};Z.prototype.removeObserver=function(a,b){this.h[a]&amp;&amp;this.h[a][b]&amp;&amp;(Ga(this.g,String(a),this.h[a][b]),delete this.h[a][b])};Z.prototype.shouldForwardMessageToIframe=function(){return this.m.j};Z.prototype.forwardMessage=function(a){ib(this.m,a)}; function kb(a,b){w.AFMA_Communicator?w.AFMA_Communicator.sendMessage(a,b):lb(a,b)}function lb(a,b){"loading"==document.readyState?(a=z(lb,null,a,b),R(w,"DOMContentLoaded",a,!1)):(a=new J(a,b),$a().sendMessage(a))}function jb(a,b){w.AFMA_Communicator.receiveMessage(a,b)}function mb(a,b,c,d){w.AFMA_Communicator.removeEventListener(a,b,c,d)}function nb(a,b,c,d){w.AFMA_Communicator.addEventListener(a,b,c,d)}function ob(a,b,c){w.AFMA_Communicator.addObserver(a,b,c)} function pb(a,b){w.AFMA_Communicator.removeObserver(a,b)}w.AFMA_Communicator||(x("AFMA_AddEventListener",nb,w),x("AFMA_RemoveEventListener",mb,w),x("AFMA_AddObserver",ob,w),x("AFMA_RemoveObserver",pb,w),x("AFMA_ReceiveMessage",jb,w),x("AFMA_SendMessage",kb,w),w.AFMA_Communicator=new Z);nb("onSdkImpression",function(){x("Goog_Omid_SdkImpressionReceived",!0)});nb("onSdkLoaded",function(){x("Goog_Omid_SdkLoadedReceived",!0)});}).call(this);&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omsdk-v1.js"&gt;&lt;/script&gt;&lt;/head&gt;&lt;body leftMargin="0" topMargin="0" marginwidth="0" marginheight="0"&gt;&lt;div class="GoogleActiveViewInnerContainer"style="left:0px;top:0px;width:100%;height:100%;position:fixed;pointer-events:none;z-index:-9999;"&gt;&lt;/div&gt;&lt;div style="display:inline"class="GoogleActiveViewElement"data-google-av-cxn="https://pagead2.googlesyndication.com/pcs/activeview?xai=AKAOjsujq1JMs9lpOZcCmr1BXvrIzz6GrLSkhJAJynIp6MR7T2M0Uj2YeuyjuxK664zhw_g_hFnwcAu9KDO4bfXELhsb30jT&amp;amp;sig=Cg0ArKJSzCGimEQuDpluEAE"data-google-av-adk="3519121124"data-google-av-metadata="la=0&amp;amp;omid=1&amp;amp;sloi=1&amp;amp;"data-google-av-ufs-integrator-metadata=""data-google-av-override="-1"data-google-av-dm="2"data-google-av-aid="0"data-google-av-naid="1"data-google-av-inapp data-google-av-slift=""data-google-av-cpmav=""data-google-av-btr=""data-google-av-itpl="20"data-google-av-rs="9"data-google-av-flags="[&amp;quot;x%278440&amp;#39;9efotm(&amp;amp;753374%2bejvf/%27844&amp;gt;&amp;#39;9wuvb$&amp;amp;56533&amp;gt;!=|vqc)!273794&amp;amp;&amp;lt;qqvb/%&amp;lt;1735020!=nehu`/!364=5051!9abk{a($160210:3&amp;amp;&amp;lt;cbotf+*0150034:%2bejvf/%72;17613!=efdwa*&amp;#39;76463;21$?ebkpb$&amp;amp;0366717&amp;gt;*&amp;gt;bgipf+!3=712363%9aihwc)!7202&amp;lt;217&amp;#39;9efotm(&amp;amp;20061;48&amp;amp;&amp;gt;`dopb/%&amp;lt;1707200!=8(&amp;amp;2005575?&amp;amp;&amp;gt;`dopb/%&amp;lt;170642?!=|vqc)!7201;=50&amp;#39;9wuvb$&amp;amp;03641654*&amp;gt;bgipf+!3=731103%9aihwc)!7200?073&amp;#39;9efotm(&amp;amp;2004?51;&amp;amp;&amp;gt;`dopb/%&amp;lt;17&amp;gt;474&amp;gt;!=nehu`/!36406412!9abk{a($160&amp;gt;358&amp;lt;&amp;amp;&amp;lt;cbotfz&amp;quot;]"&gt;&lt;script type="text/javascript" src="https://eastads.simpli.fi/ads/3341221/30070362/ad.js?sifi=8475,3341221,30070362,0,28,0,0,0,0,389,21,v,22.46400,1.728,0,0,0,23,5AF99DBF55B9840BA87AA4044345318A,0,1,0,1270,400,1,0,0,607,0,702,bidder-base-prd-us-east4-a-566a29a7:9040-1679028481367-83597264,1,0,395291,2,0,28,12,47401,0,0.00,1,220412618550898,3848128698,0,3,137852212,1,-4,0,33,,5,355842,0,0,2,3,1100040622,8,277,4254679&amp;hash_rid=C5773E117CB367AD785907CA8AAB5264&amp;sifi_exchange_uid=CAESEM8wl2a54Ac2-mUBlncFX9Y&amp;request_id=9689798f-2306-5575-3b3e-1e830dea3f1a"&gt;&lt;/script&gt;&lt;img src="https://cs.iqzone.com/63505dafeb6d3196172708c50967187f.gif?puid=[UID]&amp;redir=https%3A%2F%2Fs.ad.smaato.net%2Fc%2F%3FdspId%3D1001950%26dspCookie%3D%5BUID%5D" /&gt;&lt;img src="https://match.adsrvr.org/track/cmf/generic?ttd_pid=bc2yu5z&amp;ttd_tpi=1" /&gt;&lt;/div&gt;&lt;script data-jc="22" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/window_focus.js" async data-jc-version="r20230315" data-jcp-url="https://googleads.g.doubleclick.net/pagead/interaction/?ai=CRhk2AfETZO6zD5b-BNjwgkjRvJ6QXN777ejxAsCNtwEQASAAYMnmpoj0o8AQggEeY2EtbWItYXBwLXB1Yi0zNjg2OTgxNDA3ODM5NjQyyAEJ4AIAqAMBqgScAk_Q4CZIjE7ZvhttIy9gsBnxU6QTf9G7KqpQV5s40KFn0u9z1swkFYN478wlR-_WArbrMl25JVKcBmiuSar3eI05v5DyHlurA0raWamb-aBxt2a1_n9swVtKFPF-QZ2JW1saOvwMMHXpHAJX6zH8P-V3IzFR9gshowHul3F-hWO_hkI-ZH0zJ8ePLyF-cQlX1rV4pB7ahOebmDXtA0O76MCIXOipW62ofq2hesD07dmsRsuk6r2iGJwZ3coazlpp_vtKTx0ng8pDc4Z9Zqe9vZZ6HT8AWLTal8ZfR1N_pNpBkrywsapbN3bDbE7tgR0j6bFjuESHOE1M9sbbLfzUPS7laDlxmB8a3eIWz3SxXilvD0cdee0cC6U6QJzg4AQBgAbxz62VytC75Z8BoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ&amp;amp;sigh=Y5TQlV471IQ&amp;amp;cid=CAQShgEA1BOcphTlWGHEi9cCUNbWf21vOSXHm3AwCjHIkhbVqM_8tYqQYPSjIFXeXyrMBtq6iQ8yg4ViUqbI7uk24RCmP6HH3e_BiKCfBm_KXFbAFEbuY9K9CzGvymyIJGtCFrxVnzhXsavFZkRNf_8I1NuZTZgymsp9awT5sOBTLzG802pMnxDNDQ" data-jcp-gws-id="AfETZLiuDNKMmtUPwtCj8AI" data-jcp-qem-id="CK64xcGU4v0CFRY_AQodWLgACQ"&gt;&lt;/script&gt;&lt;script data-jc="23" src="https://tpc.googlesyndication.com/pagead/js/r20230315/r20110914/client/qs_click_protection.js" data-jc-version="r20230315"&gt;&lt;/script&gt;&lt;script&gt;googqscp.init([[[[null,1500,99,2,4,null,null,null,1],[null,500,99,2,9,null,null,null,1]]]]);&lt;/script&gt;&lt;div style="bottom:0;right:0;width:320px;height:50px;background:initial !important;position:absolute !important;max-width:100% !important;max-height:100% !important;pointer-events:none !important;image-rendering:pixelated !important;background-repeat:no-repeat !important;z-index:2147483647;background-image:url(\'data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAQ4AAAAyBAMAAABfUCj0AAAABlBMVEUAAAD+AciWmZzWAAAAAnRSTlMAApidrBQAAAE8SURBVFjD7ZZrDsMgDIOTG3D/067LgxjKTyxNU9qpgvEtYnUSLPIjl/rlwzkbfn2/fZ4xY6LPN7adEYOYqe/RPvF4nkzUditw28x2K3B/Z0xU5qIN9jgW4hWHgeKaHMPIKcxtFPMjoFXJiLeJfh/NXJ46Lpk9dcQiYKBVwCbkq6oFESaqWd+SQplYWd+hor1iJpodRQbImc1HFOQUKhrvaM9vf51bfjPRqWAu+TAWM4oPqahWkmTPVc1fZjSHmShk9oD3VlkMwlHRWenVcbHSqzlDUyCg1U9j3f+BVp0b5OGYKJyMcELCyVj9j4lCGWUpDdhd5pjM0mKhy4716BTGyVRcRlHJtAqLkmkVVtHvo3AygleAk7FSm4lK+/X26+3X26+3X2+/3n69/Xr79fbr7dfbr7dfb7/+B379A7d3bOwYj1ZiAAAAAElFTkSuQmCC\') !important;"&gt;&lt;/div&gt;&lt;script id="googleOmidDisplayScript" src="https://www.googletagservices.com/activeview/js/current/lidar.js?cache=r20110914"&gt;&lt;/script&gt;&lt;script data-jc="28" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ var e=this||self;function f(b,a,c){return b.call.apply(b.bind,arguments)}function g(b,a,c){if(!b)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var k=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(k,d);return b.apply(a,k)}}return function(){return b.apply(a,arguments)}}function h(b,a,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?h=f:h=g;return h.apply(null,arguments)};var l,m;a:{for(var n=["CLOSURE_FLAGS"],p=e,q=0;q&lt;n.length;q++)if(p=p[n[q]],null==p){m=null;break a}m=p}var r=m&amp;&amp;m[610401301];l=null!=r?r:!1;var t,u=e.navigator;t=u?u.userAgentData||null:null;function v(b){return l?t?t.brands.some(function(a){return(a=a.brand)&amp;&amp;-1!=a.indexOf(b)}):!1:!1}function w(b){var a;a:{if(a=e.navigator)if(a=a.userAgent)break a;a=""}return-1!=a.indexOf(b)};function x(){return l?!!t&amp;&amp;0&lt;t.brands.length:!1}function y(){return x()?v("Chromium"):(w("Chrome")||w("CriOS"))&amp;&amp;!(x()?0:w("Edge"))||w("Silk")};!w("Android")||y();y();w("Safari")&amp;&amp;(y()||(x()?0:w("Coast"))||(x()?0:w("Opera"))||(x()?0:w("Edge"))||(x()?v("Microsoft Edge"):w("Edg/"))||x()&amp;&amp;v("Opera"));function z(b){this.h=null;var a={top:10,right:10,bottom:10,left:10};b&amp;&amp;(b=b.split(","),4!=b.length||isNaN(b[0])||isNaN(b[1])||isNaN(b[2])||isNaN(b[3])||(a.top=+b[0],a.right=+b[1],a.bottom=+b[2],a.left=+b[3]));this.g=a} z.prototype.i=function(b){for(var a=!1,c=b.target;c;c=c.parentNode)if("abgc"==c.id){a=!0;break}if(!a){var d=this.h.getBoundingClientRect();a=d.width;c=d.height;var k=b.clientX-d.left;d=b.clientY-d.top;a="number"!==typeof a||"number"!==typeof c||"number"!==typeof b.clientX||"number"!==typeof b.clientY||0&gt;=a||0&gt;=c||0&gt;k||0&gt;d?!0:k&gt;=this.g.left&amp;&amp;a-k&gt;=this.g.right&amp;&amp;d&gt;=this.g.top&amp;&amp;c-d&gt;=this.g.bottom}a||(b.preventDefault?b.preventDefault():b.returnValue=!1)};function A(b,a){a||(a="");a=new z(a);a.h=b;b=a.h;var c=h(a.i,a);b.addEventListener&amp;&amp;b.addEventListener("click",c,!1);return a}var B=["googleInitIc"],C=e;B[0]in C||"undefined"==typeof C.execScript||C.execScript("var "+B[0]);for(var D;B.length&amp;&amp;(D=B.shift());)B.length||void 0===A?C[D]&amp;&amp;C[D]!==Object.prototype[D]?C=C[D]:C=C[D]={}:C[D]=A;}).call(this);&lt;/script&gt;&lt;script&gt;googleInitIc(document.body,\'10,10,10,10\');&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omid_session_bin.js"&gt;&lt;/script&gt;&lt;script type="text/javascript"&gt;(function() {var omidSession = new OmidCreativeSession([]);})();&lt;/script&gt;&lt;/body&gt;&lt;/html&gt;', 'size': 31368, 'mimeType': 'text/html; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>{'compression': 0, 'text': '&lt;!doctype html&gt;&lt;html&gt;&lt;head&gt;&lt;meta name="viewport" content="width=300, initial-scale=1.0, minimum-scale=1.0, maximum-scale=1.0, user-scalable=no"&gt;&lt;script&gt;var jscVersion = \'r20230315\';&lt;/script&gt;&lt;script&gt;window[\'sumhl\'] = 60000;&lt;/script&gt;&lt;script&gt;var google_casm=["afma-sdk-i-v8.11.0"];&lt;/script&gt;&lt;script data-jc="84" data-jc-version="r20230315"&gt;(function(){/*  Copyright The Closure Library Authors. SPDX-License-Identifier: Apache-2.0 */ function aa(a){var b=0;return function(){return b&lt;a.length?{done:!1,value:a[b++]}:{done:!0}}}var m="function"==typeof Object.defineProperties?Object.defineProperty:function(a,b,c){if(a==Array.prototype||a==Object.prototype)return a;a[b]=c.value;return a}; function ba(a){a=["object"==typeof globalThis&amp;&amp;globalThis,a,"object"==typeof window&amp;&amp;window,"object"==typeof self&amp;&amp;self,"object"==typeof global&amp;&amp;global];for(var b=0;b&lt;a.length;++b){var c=a[b];if(c&amp;&amp;c.Math==Math)return c}throw Error("Cannot find global object");}var ca=ba(this);function p(a,b){if(b)a:{var c=ca;a=a.split(".");for(var d=0;d&lt;a.length-1;d++){var e=a[d];if(!(e in c))break a;c=c[e]}a=a[a.length-1];d=c[a];b=b(d);b!=d&amp;&amp;null!=b&amp;&amp;m(c,a,{configurable:!0,writable:!0,value:b})}} p("Symbol",function(a){function b(f){if(this instanceof b)throw new TypeError("Symbol is not a constructor");return new c(d+(f||"")+"_"+e++,f)}function c(f,l){this.g=f;m(this,"description",{configurable:!0,writable:!0,value:l})}if(a)return a;c.prototype.toString=function(){return this.g};var d="jscomp_symbol_"+(1E9*Math.random()&gt;&gt;&gt;0)+"_",e=0;return b}); p("Symbol.iterator",function(a){if(a)return a;a=Symbol("Symbol.iterator");for(var b="Array Int8Array Uint8Array Uint8ClampedArray Int16Array Uint16Array Int32Array Uint32Array Float32Array Float64Array".split(" "),c=0;c&lt;b.length;c++){var d=ca[b[c]];"function"===typeof d&amp;&amp;"function"!=typeof d.prototype[a]&amp;&amp;m(d.prototype,a,{configurable:!0,writable:!0,value:function(){return da(aa(this))}})}return a});function da(a){a={next:a};a[Symbol.iterator]=function(){return this};return a} function q(a){var b="undefined"!=typeof Symbol&amp;&amp;Symbol.iterator&amp;&amp;a[Symbol.iterator];if(b)return b.call(a);if("number"==typeof a.length)return{next:aa(a)};throw Error(String(a)+" is not an iterable or ArrayLike");}var ea="function"==typeof Object.create?Object.create:function(a){function b(){}b.prototype=a;return new b},r; if("function"==typeof Object.setPrototypeOf)r=Object.setPrototypeOf;else{var t;a:{var fa={a:!0},ha={};try{ha.__proto__=fa;t=ha.a;break a}catch(a){}t=!1}r=t?function(a,b){a.__proto__=b;if(a.__proto__!==b)throw new TypeError(a+" is not extensible");return a}:null}var ia=r; function u(a,b){a.prototype=ea(b.prototype);a.prototype.constructor=a;if(ia)ia(a,b);else for(var c in b)if("prototype"!=c)if(Object.defineProperties){var d=Object.getOwnPropertyDescriptor(b,c);d&amp;&amp;Object.defineProperty(a,c,d)}else a[c]=b[c];a.A=b.prototype}function v(a,b){return Object.prototype.hasOwnProperty.call(a,b)} p("WeakMap",function(a){function b(h){this.g=(g+=Math.random()+1).toString();if(h){h=q(h);for(var k;!(k=h.next()).done;)k=k.value,this.set(k[0],k[1])}}function c(){}function d(h){var k=typeof h;return"object"===k&amp;&amp;null!==h||"function"===k}function e(h){if(!v(h,l)){var k=new c;m(h,l,{value:k})}}function f(h){var k=Object[h];k&amp;&amp;(Object[h]=function(n){if(n instanceof c)return n;Object.isExtensible(n)&amp;&amp;e(n);return k(n)})}if(function(){if(!a||!Object.seal)return!1;try{var h=Object.seal({}),k=Object.seal({}), n=new a([[h,2],[k,3]]);if(2!=n.get(h)||3!=n.get(k))return!1;n.delete(h);n.set(k,4);return!n.has(h)&amp;&amp;4==n.get(k)}catch(A){return!1}}())return a;var l="$jscomp_hidden_"+Math.random();f("freeze");f("preventExtensions");f("seal");var g=0;b.prototype.set=function(h,k){if(!d(h))throw Error("Invalid WeakMap key");e(h);if(!v(h,l))throw Error("WeakMap key fail: "+h);h[l][this.g]=k;return this};b.prototype.get=function(h){return d(h)&amp;&amp;v(h,l)?h[l][this.g]:void 0};b.prototype.has=function(h){return d(h)&amp;&amp;v(h, l)&amp;&amp;v(h[l],this.g)};b.prototype.delete=function(h){return d(h)&amp;&amp;v(h,l)&amp;&amp;v(h[l],this.g)?delete h[l][this.g]:!1};return b}); p("Map",function(a){function b(){var g={};return g.s=g.next=g.head=g}function c(g,h){var k=g.g;return da(function(){if(k){for(;k.head!=g.g;)k=k.s;for(;k.next!=k.head;)return k=k.next,{done:!1,value:h(k)};k=null}return{done:!0,value:void 0}})}function d(g,h){var k=h&amp;&amp;typeof h;"object"==k||"function"==k?f.has(h)?k=f.get(h):(k=""+ ++l,f.set(h,k)):k="p_"+h;var n=g.i[k];if(n&amp;&amp;v(g.i,k))for(g=0;g&lt;n.length;g++){var A=n[g];if(h!==h&amp;&amp;A.key!==A.key||h===A.key)return{id:k,list:n,index:g,l:A}}return{id:k,list:n, index:-1,l:void 0}}function e(g){this.i={};this.g=b();this.size=0;if(g){g=q(g);for(var h;!(h=g.next()).done;)h=h.value,this.set(h[0],h[1])}}if(function(){if(!a||"function"!=typeof a||!a.prototype.entries||"function"!=typeof Object.seal)return!1;try{var g=Object.seal({x:4}),h=new a(q([[g,"s"]]));if("s"!=h.get(g)||1!=h.size||h.get({x:4})||h.set({x:4},"t")!=h||2!=h.size)return!1;var k=h.entries(),n=k.next();if(n.done||n.value[0]!=g||"s"!=n.value[1])return!1;n=k.next();return n.done||4!=n.value[0].x|| "t"!=n.value[1]||!k.next().done?!1:!0}catch(A){return!1}}())return a;var f=new WeakMap;e.prototype.set=function(g,h){g=0===g?0:g;var k=d(this,g);k.list||(k.list=this.i[k.id]=[]);k.l?k.l.value=h:(k.l={next:this.g,s:this.g.s,head:this.g,key:g,value:h},k.list.push(k.l),this.g.s.next=k.l,this.g.s=k.l,this.size++);return this};e.prototype.delete=function(g){g=d(this,g);return g.l&amp;&amp;g.list?(g.list.splice(g.index,1),g.list.length||delete this.i[g.id],g.l.s.next=g.l.next,g.l.next.s=g.l.s,g.l.head=null,this.size--, !0):!1};e.prototype.clear=function(){this.i={};this.g=this.g.s=b();this.size=0};e.prototype.has=function(g){return!!d(this,g).l};e.prototype.get=function(g){return(g=d(this,g).l)&amp;&amp;g.value};e.prototype.entries=function(){return c(this,function(g){return[g.key,g.value]})};e.prototype.keys=function(){return c(this,function(g){return g.key})};e.prototype.values=function(){return c(this,function(g){return g.value})};e.prototype.forEach=function(g,h){for(var k=this.entries(),n;!(n=k.next()).done;)n=n.value, g.call(h,n[1],n[0],this)};e.prototype[Symbol.iterator]=e.prototype.entries;var l=0;return e});function ja(a,b){a instanceof String&amp;&amp;(a+="");var c=0,d=!1,e={next:function(){if(!d&amp;&amp;c&lt;a.length){var f=c++;return{value:b(f,a[f]),done:!1}}d=!0;return{done:!0,value:void 0}}};e[Symbol.iterator]=function(){return e};return e}p("Array.prototype.entries",function(a){return a?a:function(){return ja(this,function(b,c){return[b,c]})}}); p("Object.entries",function(a){return a?a:function(b){var c=[],d;for(d in b)v(b,d)&amp;&amp;c.push([d,b[d]]);return c}});p("Array.prototype.findIndex",function(a){return a?a:function(b,c){a:{var d=this;d instanceof String&amp;&amp;(d=String(d));for(var e=d.length,f=0;f&lt;e;f++)if(b.call(c,d[f],f,d)){b=f;break a}b=-1}return b}});var w=this||self; function x(a,b,c){a=a.split(".");c=c||w;a[0]in c||"undefined"==typeof c.execScript||c.execScript("var "+a[0]);for(var d;a.length&amp;&amp;(d=a.shift());)a.length||void 0===b?c[d]&amp;&amp;c[d]!==Object.prototype[d]?c=c[d]:c=c[d]={}:c[d]=b}function y(a){var b=typeof a;return"object"==b&amp;&amp;null!=a||"function"==b}function ka(a,b,c){return a.call.apply(a.bind,arguments)} function la(a,b,c){if(!a)throw Error();if(2&lt;arguments.length){var d=Array.prototype.slice.call(arguments,2);return function(){var e=Array.prototype.slice.call(arguments);Array.prototype.unshift.apply(e,d);return a.apply(b,e)}}return function(){return a.apply(b,arguments)}}function z(a,b,c){Function.prototype.bind&amp;&amp;-1!=Function.prototype.bind.toString().indexOf("native code")?z=ka:z=la;return z.apply(null,arguments)} function ma(a,b){var c=Array.prototype.slice.call(arguments,1);return function(){var d=c.slice();d.push.apply(d,arguments);return a.apply(this,d)}}function B(a,b){function c(){}c.prototype=b.prototype;a.A=b.prototype;a.prototype=new c;a.prototype.constructor=a;a.L=function(d,e,f){for(var l=Array(arguments.length-2),g=2;g&lt;arguments.length;g++)l[g-2]=arguments[g];return b.prototype[e].apply(d,l)}}function C(a){return a};var na=Array.prototype.indexOf?function(a,b){return Array.prototype.indexOf.call(a,b,void 0)}:function(a,b){if("string"===typeof a)return"string"!==typeof b||1!=b.length?-1:a.indexOf(b,0);for(var c=0;c&lt;a.length;c++)if(c in a&amp;&amp;a[c]===b)return c;return-1};function D(){var a=w.navigator;return a&amp;&amp;(a=a.userAgent)?a:""};function E(a){E[" "](a);return a}E[" "]=function(){};var oa=-1!=D().indexOf("Gecko")&amp;&amp;!(-1!=D().toLowerCase().indexOf("webkit")&amp;&amp;-1==D().indexOf("Edge"))&amp;&amp;!(-1!=D().indexOf("Trident")||-1!=D().indexOf("MSIE"))&amp;&amp;-1==D().indexOf("Edge");function pa(a,b,c){for(var d in a)b.call(c,a[d],d,a)}function qa(a){var b={},c;for(c in a)b[c]=a[c];return b}var ra="constructor hasOwnProperty isPrototypeOf propertyIsEnumerable toLocaleString toString valueOf".split(" ");function sa(a,b){for(var c,d,e=1;e&lt;arguments.length;e++){d=arguments[e];for(c in d)a[c]=d[c];for(var f=0;f&lt;ra.length;f++)c=ra[f],Object.prototype.hasOwnProperty.call(d,c)&amp;&amp;(a[c]=d[c])}};var F;function G(a,b){this.g=b===ta?a:""}G.prototype.toString=function(){return this.g+""};function ua(a){return a instanceof G&amp;&amp;a.constructor===G?a.g:"type_error:TrustedResourceUrl"}var ta={};function va(a){if(void 0===F){var b=null;var c=w.trustedTypes;if(c&amp;&amp;c.createPolicy){try{b=c.createPolicy("goog#html",{createHTML:C,createScript:C,createScriptURL:C})}catch(d){w.console&amp;&amp;w.console.error(d.message)}F=b}else F=b}a=(b=F)?b.createScriptURL(a):a;return new G(a,ta)};function wa(a){return a&amp;&amp;a.parentNode?a.parentNode.removeChild(a):null};function xa(a){a&amp;&amp;"function"==typeof a.I&amp;&amp;a.I()};function H(){this.u=this.u;this.o=this.o}H.prototype.u=!1;H.prototype.I=function(){this.u||(this.u=!0,this.i())};H.prototype.i=function(){if(this.o)for(;this.o.length;)this.o.shift()()};function I(a,b){this.type=a;this.g=this.target=b;this.defaultPrevented=!1}I.prototype.i=function(){this.defaultPrevented=!0};function J(a,b){this.messageName=a;this.parameters=b||{}}function ya(a,b){I.call(this,a.messageName,b);this.params=a.parameters||{}}u(ya,I);var za=-1!=(w.navigator?w.navigator.userAgent:"").indexOf("Android");/*  SPDX-License-Identifier: Apache-2.0 */ function Aa(a,b){var c=ua(a).toString();if(/#/.test(c))throw Error("");var d=/\\?/.test(c)?"&amp;":"?";b.forEach(function(e,f){e=e instanceof Array?e:[e];for(var l=0;l&lt;e.length;l++){var g=e[l];null!==g&amp;&amp;void 0!==g&amp;&amp;(c+=d+encodeURIComponent(f)+"="+encodeURIComponent(String(g)),d="&amp;")}});return va(c)};function Ba(a){var b=va("gmsg://mobileads.google.com/"+a.messageName);return Aa(b,new Map(Object.entries(a.parameters)))};var Ca=function(){if(!w.addEventListener||!Object.defineProperty)return!1;var a=!1,b=Object.defineProperty({},"passive",{get:function(){a=!0}});try{w.addEventListener("test",function(){},b),w.removeEventListener("test",function(){},b)}catch(c){}return a}();function K(a,b){I.call(this,a?a.type:"");this.relatedTarget=this.g=this.target=null;this.button=this.screenY=this.screenX=this.clientY=this.clientX=0;this.key="";this.metaKey=this.shiftKey=this.altKey=this.ctrlKey=!1;this.state=null;this.pointerId=0;this.pointerType="";this.h=null;if(a){var c=this.type=a.type,d=a.changedTouches&amp;&amp;a.changedTouches.length?a.changedTouches[0]:null;this.target=a.target||a.srcElement;this.g=b;if(b=a.relatedTarget){if(oa){a:{try{E(b.nodeName);var e=!0;break a}catch(f){}e= !1}e||(b=null)}}else"mouseover"==c?b=a.fromElement:"mouseout"==c&amp;&amp;(b=a.toElement);this.relatedTarget=b;d?(this.clientX=void 0!==d.clientX?d.clientX:d.pageX,this.clientY=void 0!==d.clientY?d.clientY:d.pageY,this.screenX=d.screenX||0,this.screenY=d.screenY||0):(this.clientX=void 0!==a.clientX?a.clientX:a.pageX,this.clientY=void 0!==a.clientY?a.clientY:a.pageY,this.screenX=a.screenX||0,this.screenY=a.screenY||0);this.button=a.button;this.key=a.key||"";this.ctrlKey=a.ctrlKey;this.altKey=a.altKey;this.shiftKey= a.shiftKey;this.metaKey=a.metaKey;this.pointerId=a.pointerId||0;this.pointerType="string"===typeof a.pointerType?a.pointerType:Da[a.pointerType]||"";this.state=a.state;this.h=a;a.defaultPrevented&amp;&amp;K.A.i.call(this)}}B(K,I);var Da={2:"touch",3:"pen",4:"mouse"};K.prototype.i=function(){K.A.i.call(this);var a=this.h;a.preventDefault?a.preventDefault():a.returnValue=!1};var L="closure_listenable_"+(1E6*Math.random()|0);var Ea=0;function Fa(a,b,c,d,e){this.listener=a;this.proxy=null;this.src=b;this.type=c;this.capture=!!d;this.G=e;this.key=++Ea;this.B=this.F=!1}function M(a){a.B=!0;a.listener=null;a.proxy=null;a.src=null;a.G=null};function N(a){this.src=a;this.g={};this.i=0}N.prototype.add=function(a,b,c,d,e){var f=a.toString();a=this.g[f];a||(a=this.g[f]=[],this.i++);var l=O(a,b,d,e);-1&lt;l?(b=a[l],c||(b.F=!1)):(b=new Fa(b,this.src,f,!!d,e),b.F=c,a.push(b));return b};function Ga(a,b,c,d,e){b=b.toString();if(b in a.g){var f=a.g[b];c=O(f,c,d,e);-1&lt;c&amp;&amp;(M(f[c]),Array.prototype.splice.call(f,c,1),0==f.length&amp;&amp;(delete a.g[b],a.i--))}} function P(a,b){var c=b.type;if(c in a.g){var d=a.g[c],e=na(d,b),f;(f=0&lt;=e)&amp;&amp;Array.prototype.splice.call(d,e,1);f&amp;&amp;(M(b),0==a.g[c].length&amp;&amp;(delete a.g[c],a.i--))}}function O(a,b,c,d){for(var e=0;e&lt;a.length;++e){var f=a[e];if(!f.B&amp;&amp;f.listener==b&amp;&amp;f.capture==!!c&amp;&amp;f.G==d)return e}return-1};var Q="closure_lm_"+(1E6*Math.random()|0),Ha={},Ia=0;function Ja(a,b,c,d,e){if(d&amp;&amp;d.once)return R(a,b,c,d,e);if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)Ja(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!1,y(d)?!!d.capture:!!d,e):La(a,b,c,!1,d,e)} function La(a,b,c,d,e,f){if(!b)throw Error("Invalid event type");var l=y(e)?!!e.capture:!!e,g=Ma(a);g||(a[Q]=g=new N(a));c=g.add(b,c,d,l,f);if(c.proxy)return c;d=Na();c.proxy=d;d.src=a;d.listener=c;if(a.addEventListener)Ca||(e=l),void 0===e&amp;&amp;(e=!1),a.addEventListener(b.toString(),d,e);else if(a.attachEvent)a.attachEvent(Oa(b.toString()),d);else if(a.addListener&amp;&amp;a.removeListener)a.addListener(d);else throw Error("addEventListener and attachEvent are unavailable.");Ia++;return c} function Na(){function a(c){return b.call(a.src,a.listener,c)}var b=Pa;return a}function R(a,b,c,d,e){if(Array.isArray(b)){for(var f=0;f&lt;b.length;f++)R(a,b[f],c,d,e);return null}c=Ka(c);return a&amp;&amp;a[L]?a.g.add(String(b),c,!0,y(d)?!!d.capture:!!d,e):La(a,b,c,!0,d,e)} function Qa(a,b,c,d,e){if(Array.isArray(b))for(var f=0;f&lt;b.length;f++)Qa(a,b[f],c,d,e);else(d=y(d)?!!d.capture:!!d,c=Ka(c),a&amp;&amp;a[L])?Ga(a.g,String(b),c,d,e):a&amp;&amp;(a=Ma(a))&amp;&amp;(b=a.g[b.toString()],a=-1,b&amp;&amp;(a=O(b,c,d,e)),(c=-1&lt;a?b[a]:null)&amp;&amp;Ra(c))} function Ra(a){if("number"!==typeof a&amp;&amp;a&amp;&amp;!a.B){var b=a.src;if(b&amp;&amp;b[L])P(b.g,a);else{var c=a.type,d=a.proxy;b.removeEventListener?b.removeEventListener(c,d,a.capture):b.detachEvent?b.detachEvent(Oa(c),d):b.addListener&amp;&amp;b.removeListener&amp;&amp;b.removeListener(d);Ia--;(c=Ma(b))?(P(c,a),0==c.i&amp;&amp;(c.src=null,b[Q]=null)):M(a)}}}function Oa(a){return a in Ha?Ha[a]:Ha[a]="on"+a}function Pa(a,b){if(a.B)a=!0;else{b=new K(b,this);var c=a.listener,d=a.G||a.src;a.F&amp;&amp;Ra(a);a=c.call(d,b)}return a} function Ma(a){a=a[Q];return a instanceof N?a:null}var Sa="__closure_events_fn_"+(1E9*Math.random()&gt;&gt;&gt;0);function Ka(a){if("function"===typeof a)return a;a[Sa]||(a[Sa]=function(b){return a.handleEvent(b)});return a[Sa]};function S(a){H.call(this);this.h=a;this.g={}}B(S,H);var Ta=[];function Ua(a){pa(a.g,function(b,c){this.g.hasOwnProperty(c)&amp;&amp;Ra(b)},a);a.g={}}S.prototype.i=function(){S.A.i.call(this);Ua(this)};S.prototype.handleEvent=function(){throw Error("EventHandler.handleEvent not implemented");};function T(){H.call(this);this.g=new N(this);this.J=this;this.C=null}B(T,H);T.prototype[L]=!0;T.prototype.addEventListener=function(a,b,c,d){Ja(this,a,b,c,d)};T.prototype.removeEventListener=function(a,b,c,d){Qa(this,a,b,c,d)}; function Va(a,b){var c,d=a.C;if(d)for(c=[];d;d=d.C)c.push(d);a=a.J;d=b.type||b;if("string"===typeof b)b=new I(b,a);else if(b instanceof I)b.target=b.target||a;else{var e=b;b=new I(d,a);sa(b,e)}e=!0;if(c)for(var f=c.length-1;0&lt;=f;f--){var l=b.g=c[f];e=U(l,d,!0,b)&amp;&amp;e}l=b.g=a;e=U(l,d,!0,b)&amp;&amp;e;e=U(l,d,!1,b)&amp;&amp;e;if(c)for(f=0;f&lt;c.length;f++)l=b.g=c[f],e=U(l,d,!1,b)&amp;&amp;e} T.prototype.i=function(){T.A.i.call(this);if(this.g){var a=this.g,b=0,c;for(c in a.g){for(var d=a.g[c],e=0;e&lt;d.length;e++)++b,M(d[e]);delete a.g[c];a.i--}}this.C=null};function U(a,b,c,d){b=a.g.g[String(b)];if(!b)return!0;b=b.concat();for(var e=!0,f=0;f&lt;b.length;++f){var l=b[f];if(l&amp;&amp;!l.B&amp;&amp;l.capture==c){var g=l.listener,h=l.G||l.src;l.F&amp;&amp;P(a.g,l);e=!1!==g.call(h,d)&amp;&amp;e}}return e&amp;&amp;!d.defaultPrevented};function V(a,b){T.call(this);this.v=a||1;this.m=b||w;this.H=z(this.K,this);this.D=Date.now()}B(V,T);V.prototype.j=!1;V.prototype.h=null;V.prototype.K=function(){if(this.j){var a=Date.now()-this.D;0&lt;a&amp;&amp;a&lt;.8*this.v?this.h=this.m.setTimeout(this.H,this.v-a):(this.h&amp;&amp;(this.m.clearTimeout(this.h),this.h=null),Va(this,"tick"),this.j&amp;&amp;(Wa(this),this.start()))}};V.prototype.start=function(){this.j=!0;this.h||(this.h=this.m.setTimeout(this.H,this.v),this.D=Date.now())}; function Wa(a){a.j=!1;a.h&amp;&amp;(a.m.clearTimeout(a.h),a.h=null)}V.prototype.i=function(){V.A.i.call(this);Wa(this);delete this.m};function Xa(){if(window.googleJsEnvironment&amp;&amp;("rhino"==window.googleJsEnvironment.environment||"jscore"==window.googleJsEnvironment.environment))return new W;if(za&amp;&amp;window.googleAdsJsInterface&amp;&amp;"notify"in window.googleAdsJsInterface)try{return window.googleAdsJsInterface.notify("gmsg://mobileads.google.com/noop"),new W}catch(a){}else if(window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler)return new Ya;return new Za}function $a(){ab||(ab=Xa());return ab} var ab=null;function X(){H.call(this)}u(X,H);function bb(a){var b=qa(a.parameters);b["google.afma.Notify_dt"]=(new Date).getTime();return Ba(new J(a.messageName,b)).toString()}function Y(a,b){H.call(this);this.v=a;this.C=b||1;this.m=[];this.j=new V(this.C);a=this.H=new S(this);b=this.j;var c=this.D,d="tick";Array.isArray(d)||(d&amp;&amp;(Ta[0]=d.toString()),d=Ta);for(var e=0;e&lt;d.length;e++){var f=Ja(b,d[e],c||a.handleEvent,!1,a.h||a);if(!f)break;a.g[f.key]=f}}u(Y,X); Y.prototype.sendMessage=function(a){this.m.push(a);this.j.j||(a=this.m.shift(),this.v(a),this.j.start())};Y.prototype.D=function(){var a=this.m.shift();a?this.v(a):Wa(this.j)}; function Za(){Y.call(this,function(b){var c=a.g[a.h];if(!c){var d=document;c="IFRAME";"application/xhtml+xml"===d.contentType&amp;&amp;(c=c.toLowerCase());c=d.createElement(c);c.id="afma-notify-"+(new Date).getTime();c.style.display="none";a.g[a.h]=c}a.h=(a.h+1)%25;d=qa(b.parameters);d["google.afma.Notify_dt"]=(new Date).getTime();b=Ba(new J(b.messageName,d));c.src=ua(b).toString();c.parentNode||document.body.appendChild(c)});var a=this;this.g=[];this.h=0}u(Za,Y); Za.prototype.i=function(){this.g.forEach(wa);this.g=[];Y.prototype.i.call(this)};function W(){H.call(this)}u(W,X);W.prototype.sendMessage=function(a){a=bb(a);window.googleAdsJsInterface&amp;&amp;window.googleAdsJsInterface.notify&amp;&amp;(window.googleAdsJsInterface.notify(a),window.googleAdsJsInterface.DEBUG&amp;&amp;console.log(a))};function Ya(){H.call(this)}u(Ya,X);Ya.prototype.sendMessage=function(a){a=bb(a);window.webkit&amp;&amp;window.webkit.messageHandlers&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler&amp;&amp;window.webkit.messageHandlers.gadGMSGHandler.postMessage(a)};/*  Math.uuid.js (v1.4) http://www.broofa.com mailto:robert@broofa.com Copyright (c) 2010 Robert Kieffer Dual licensed under the MIT and GPL licenses. */ var cb="0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz".split("");function db(a){for(var b=Array(36),c=0,d,e=0;36&gt;e;e++)8==e||13==e||18==e||23==e?b[e]="-":14==e?b[e]="4":(2&gt;=c&amp;&amp;(c=33554432+16777216*Math.random()|0),d=c&amp;15,c&gt;&gt;=4,b[e]=cb[19==e?d&amp;3|8:d]);this.uuid=b.join("");this.callback=a} function eb(a){var b=w.imalib_globalCallbacks||new Map,c=b.get("AFMA_updateActiveView")||[];if(0===c.length&amp;&amp;w.AFMA_updateActiveView){var d=new db(w.AFMA_updateActiveView);c.push(d);w.AFMA_updateActiveView=void 0}w.AFMA_updateActiveView||(w.AFMA_updateActiveView=function(){var e=b.get("AFMA_updateActiveView");e=q(e);for(var f=e.next();!f.done;f=e.next())f.value.callback.apply(null,arguments)});a=new db(a);c.push(a);b.set("AFMA_updateActiveView",c);w.imalib_globalCallbacks=b;return a.uuid} function fb(a){if(w.AFMA_updateActiveView){var b=w.imalib_globalCallbacks;if(b){var c=b.get("AFMA_updateActiveView");if(c){var d=c.findIndex(function(e){return e.uuid===a});-1!==d&amp;&amp;(c.splice(d,1),0===c.length&amp;&amp;(w.AFMA_updateActiveView=void 0),b.set("AFMA_updateActiveView",c),w.imalib_globalCallbacks=b)}}}};function gb(){var a=this;this.o=[];this.h=window===window.top;this.j=!1;this.g=0;this.i=null;"undefined"!==typeof window.addEventListener&amp;&amp;window.addEventListener("message",function(b){return hb(a,b)})} function hb(a,b){var c=b.data;if((b=b.source)&amp;&amp;c){var d=a.o;if("arwebview_iframe_loaded"===c&amp;&amp;a.h)x("JavascriptWebViewBridge.incoming.postMessage",a.u.bind(a),w),-1===d.indexOf(b)&amp;&amp;d.push(b);else{var e=c.messageName;c=c.parameters;if(a.h)switch(e){case "mraid_loaded":!1===c.is_top_win&amp;&amp;(a.j=!0,a.i=eb(function(f){a.h&amp;&amp;ib(a,new J("update_activeview_action",f))}),-1===d.indexOf(b)&amp;&amp;(d.push(b),"undefined"!==typeof b.postMessage&amp;&amp;b.postMessage(new J("mraid_env_obj",window.MRAID_ENV),"*")));break;case "start_tracking_action":0== a.g&amp;&amp;window.AFMA_SendMessage("trackActiveViewUnit");a.g+=1;break;case "stop_tracking_action":--a.g,0==a.g&amp;&amp;(window.AFMA_SendMessage("untrackActiveViewUnit",{hashCode:c.hashCode}),a.i&amp;&amp;(fb(a.i),a.i=null))}else switch(e){case "mraid_env_obj":window.MRAID_ENV=c;break;case "update_activeview_action":window.AFMA_updateActiveView&amp;&amp;window.AFMA_updateActiveView(c);break;case "receive_message_action":window.AFMA_ReceiveMessage(c.messageName,c.parameters)}}}} gb.prototype.u=function(a){this.h&amp;&amp;ib(this,{name:"arwebview_message_forwarded",message:a})};function ib(a,b){a.o.forEach(function(c){return c.postMessage(b,"*")})};function Z(){T.call(this);this.j=$a();this.j=$a();var a=ma(xa,this.j);this.u?a():(this.o||(this.o=[]),this.o.push(a));this.h={};this.m=new gb}u(Z,T);Z.prototype.sendMessage=function(a,b){var c=this,d;"string"===typeof a?d=new J(a,b):a instanceof J&amp;&amp;(d=a);"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return c.j.sendMessage(d)},!1,this):this.j.sendMessage(d)}; Z.prototype.receiveMessage=function(a,b){if(this.shouldForwardMessageToIframe())this.forwardMessage(new J("receive_message_action",new J(a,b)));else{var c=document.getElementById("ad_iframe");void 0!=c&amp;&amp;void 0!=c.contentWindow&amp;&amp;void 0!=c.contentWindow.AFMA_ReceiveMessage&amp;&amp;c.contentWindow.AFMA_ReceiveMessage(a,b)}"onshow"==a&amp;&amp;"loading"==document.readyState?R(w,"DOMContentLoaded",function(){return jb(a,null!=b?b:void 0)}):Va(this,new ya(new J(a,b),this))}; Z.prototype.addObserver=function(a,b,c){function d(e){return void c.call(b,e.type,e.params)}this.g.add(String(a),d,!1,void 0,void 0);this.h[a]||(this.h[a]={});this.h[a][b]=d};Z.prototype.removeObserver=function(a,b){this.h[a]&amp;&amp;this.h[a][b]&amp;&amp;(Ga(this.g,String(a),this.h[a][b]),delete this.h[a][b])};Z.prototype.shouldForwardMessageToIframe=function(){return this.m.j};Z.prototype.forwardMessage=function(a){ib(this.m,a)}; function kb(a,b){w.AFMA_Communicator?w.AFMA_Communicator.sendMessage(a,b):lb(a,b)}function lb(a,b){"loading"==document.readyState?(a=z(lb,null,a,b),R(w,"DOMContentLoaded",a,!1)):(a=new J(a,b),$a().sendMessage(a))}function jb(a,b){w.AFMA_Communicator.receiveMessage(a,b)}function mb(a,b,c,d){w.AFMA_Communicator.removeEventListener(a,b,c,d)}function nb(a,b,c,d){w.AFMA_Communicator.addEventListener(a,b,c,d)}function ob(a,b,c){w.AFMA_Communicator.addObserver(a,b,c)} function pb(a,b){w.AFMA_Communicator.removeObserver(a,b)}w.AFMA_Communicator||(x("AFMA_AddEventListener",nb,w),x("AFMA_RemoveEventListener",mb,w),x("AFMA_AddObserver",ob,w),x("AFMA_RemoveObserver",pb,w),x("AFMA_ReceiveMessage",jb,w),x("AFMA_SendMessage",kb,w),w.AFMA_Communicator=new Z);nb("onSdkImpression",function(){x("Goog_Omid_SdkImpressionReceived",!0)});nb("onSdkLoaded",function(){x("Goog_Omid_SdkLoadedReceived",!0)});}).call(this);&lt;/script&gt;&lt;script src="https://pagead2.googlesyndication.com/omsdk/releases/live/omsdk-v1.js"&gt;&lt;/script&gt;&lt;/head&gt;&lt;body leftMargin="0" topMargin="0" marginwidth="0" marginheight="0"&gt;&lt;div class="GoogleActiveViewInnerContainer"style="left:0px;top:0px;width:100%;height:100%;position:fixed;pointer-events:none;z-index:-9999;"&gt;&lt;/div&gt;&lt;div style="display:inline"class="GoogleActiveViewElement"data-google-av-cxn="https://pagead2.googlesyndication.com/pcs/activeview?xai=AKAOjsvvSw1mRmnZ_I6jH2BR1MUycJi6BSHPC8bj57J9qqLl1884h3pgFM4firLhqYPDqAEIwRpCrPI1XPdZCORWooT7qZRr0RP1FnvX1fDT3Mhw-fPJCdu3_946EKD5uE8Xr0yrYlxPHhI6I-KRzHyH5i2k77b8UiPthLsZYupeP0VPOtYePyK0uB1QlQ&amp;amp;sig=Cg0ArKJSzPi99aSgAG3FEAE"data-google-av-adk="1561289525"data-google-av-metadata="la=0&amp;amp;omid=1&amp;amp;sloi=1&amp;amp;"data-google-av-ufs-integrator-metadata=""data-google-av-override="-1"data-google-av-dm="2"data-google-av-aid="0"data-google-av-naid="1"data-google-av-inapp data-google-av-slift=""data-google-av-cpmav=""data-google-av-btr=""data-google-av-itpl="20"data-google-av-rs="9"data-google-av-flags="[&amp;quot;x%278440&amp;#39;9efotm(&amp;amp;753374%2bejvf/%27844&amp;gt;&amp;#39;9wuvb$&amp;amp;56533&amp;gt;!=|vqc)!273794&amp;amp;&amp;lt;qqvb/%&amp;lt;1735020!=nehu`/!364=5051!9abk{a($160210:3&amp;amp;&amp;lt;cbotf+*0150034:%2bejvf/%72;17613!=efdwa*&amp;#39;76463;21$?ebkpb$&amp;amp;0366717&amp;gt;*&amp;gt;bgipf+!3=712363%9aihwc)!7202&amp;lt;217&amp;#39;9efotm(&amp;amp;20061;48&amp;amp;&amp;gt;`dopb/%&amp;lt;1707200!=8(&amp;amp;2005575?&amp;amp;&amp;gt;`dopb/%&amp;lt;170642?!=|vqc)!7201;=50&amp;#39;9wuvb$&amp;amp;03641654*&amp;gt;bgipf+!3=731103%9aihwc)!7200?073&amp;#39;9efotm(&amp;amp;2004?51;&amp;amp;&amp;gt;`dopb/%&amp;lt;17&amp;gt;474&amp;gt;!=nehu`/!36406412!9abk{a($160&amp;gt;358&amp;lt;&amp;amp;&amp;lt;cbotfz&amp;quot;]"&gt;&lt;style&gt;#agheeChoefai5hu9tijaiqu7r{display:none;vertical-align:middle}#queeMai1iec5fei6oolohfaiv:hover #agheeChoefai5hu9tijaiqu7r{display:inline}&lt;/style&gt;&lt;div id="queeMai1iec5fei6oolohfaiv" style="position: absolute; height: 15px;border-bottom-left-radius: 8px;z-index: 1000001; top: 0px; right: 0px; border: 0;background-color: #CCCCCC; opacity: 0.7;font-size:11px; font-family: Arial;line-height:15px;padding:1px 1px 1px 4px;"&gt;&lt;a style="text-decoration:none;color:black;" target="_blank" href="https://prod-use.perf-serving.com/"&gt;&lt;span id="agheeChoefai5hu9tijaiqu7r"&gt;Cookie Statement &amp; Opt-out&lt;/span&gt;&lt;img src="https://prod-use.perf-serving.com/adc_icon.png" width="13px" style="margin-left:4px;vertical-align: middle;"&gt;&lt;/a&gt;&lt;/div&gt;&lt;style&gt;    \n\n        .rtb_300x250_container {\n            background-color: #fff;\n            cursor: pointer;\n            font-family: \'Roboto\', sans-serif;\n            height: 250px;\n            line-height: 1.1em;\n            position: relative;\n            width: 300px;\n        }\n\n        .rtb_300x250_container .photo {\n            height: auto;\n            width: 300px;\n        }\n\n        .rtb_300x250_container .headline {\n            font-size: 15px;\n            font-weight: 500;\n            margin: 6px 15px 0;\n            -webkit-touch-callout: none; /* iOS Safari */\n            -webkit-user-select: none; /* Safari */\n            -khtml-user-select: none; /* Konqueror HTML */\n            -moz-user-select: none; /* Firefox */\n            -ms-user-select: none; /* Internet Explorer/Edge */\n            user-select: none; /* Non-prefixed version, currently supported by Chrome and Opera */\n        }\n\n        .rtb_300x250_container .brand {\n            bottom: 5px;\n            font-size: 11px;\n            left: 15px;\n            position: absolute;\n        }\n\n        .rtb_300x250_container .cta {\n            bottom: 5px;\n            color: #3778f0;\n            font-size: 15px;\n            right: 25px;\n            position: absolute;\n        }\n\n        .rtb_300x250_container .cta .ctaArrow {\n            bottom: 2px;\n            display: inline-block;\n            font-size: 28px;\n            margin-left: 5px;\n            position: absolute;\n        }\n\n    &lt;/style&gt;\n\n    &lt;div class="rtb_300x250_container" onclick="window.open(\'https://prod-use.perf-serving.com/click/KHHbUYkb9UAN78dqOpJAM_TOAQvbj7xSQHeOyC0d6yBzP_BCiEB5W68NEcg6q2lT6B4sU8bcPCKPaAFBaIrO8C-YfzmqI246Tn9s98DY6MMwnroZsBcHKe-5YZmHO65Z7iOsQ7hkx0nJnsNtM6LfR2P_uZ9FQwFpo9HpI1D1VK_-1_RlY-TumegV9u-_Ar6e5lDu99aJHtz2imtGSeszR-E9IFQ1NCCYicgDb95JFqOTqHdIZvOMH2UVN0hRYKHOO0ZTIIVWM-UDWRa7snPpTELnYwFlz1Ez3xQ-3SgQeJ_0aA9VbkiRkjvorpwKNekViOIV_-60NYOxVC8k_y7iAX4NgkBkrwB97xf7CYj_mbkhXguhLbw6jmS6R_hi_83d_qO5wrJis-W2aetP7-fnHcxdj1e2QwshMNfnL1Fw3FnnaNGGv-ttntIf9JFOCBuWkZVhSXuhju-M6-rQEUTILmKOuMq8Gswlpdk_MtGr4CZ7PofcJ0YR9ayjffYY7vUIwUS-Z0Pu3eR_wdZUH_ZMcM1RbS8nS5Lbb7gHboaa16dW5IjLTu4aORil2Wb8pSZu8lu-MyHQpr3XNBnntYIQVyFVWcxs-g6O20Jm_I_5OmbDf_Scn5AwlId0rv6_v22hP-Lj_2BbOu5Jl_rhYeQIf3aA-vWZ5omdYFZ7OxgdzQeNWFzj3ODnscKBIC8dr6K_VcGpahzJRDV_Ko1bVHlK5jjrFtACVPSn4p0Kii8B9E9yQfTy76AhCLA-S7tFeInPv-_4exkKH_6Yd8K7cY7MPVcxW55DjTfr2GD01VATetQEcq1WH8SKA7wpAhFGILHs-C-B0C0oBKQr57Q54mU6Vbgjar-zCqS1zKprst62KqrPEm9LP6q7KC8E3ZMk1Tt3qZE5b54QNVojDFLqeVbYcEDOxvRG4uT3q7XpwL2VKipxv2LC5hCUah18dDgguKo9fnMYZclLasEGI3upnpJ7d-o-01r7bLY7orJYO99KRkN6x8jx_UWNqmRteFepRyVHKgQq9ANoHMSxDoAUOaaslXeYXsqKMN8rDtiCfewjyPeWHOM0Ag3D7PvnSaEbWmiLALh73O26QWnLwHen2_vqQikSfmnN-U41piUNRgf28hlPodHjcD_WmFNpaY2eNe9wcctoEmqMLDeoxAzO1hMCtLpqL6tOZIjhBEnbLJsX9ok9ToADOHUVZIB_e5EHIldld5t3HbxqcpH9p8w4U9cGzMa-jzw8hYbK7nreNIs1f_ZzyD2KVsLma4D2RBlYlagAjtnVW-4cGhustr7YbxIFPMexW4s//https://adclick.g.doubleclick.net/pcs/click%3Fxai%3DAKAOjsvRpbne7QUpFiFQ2UMFUZLcMbE7fj-qNcTkmqjww9szZCQ-I1qRHcxCCK6RnXTtQgBwfyrGAAgRbYvO-nrfyfAtHN-bpyQQ1KoPu7p6--5zqeCtmYtoD5S2u4k_N3q0eZtZyDlYnoFnBXh9G3oXL9o7UhhjgB7mfO-Ds1hmVsy7lnI2-gBy6yiwc2QxBShLw-oyOxnqJjUuPp-lVOK7Com7B-5mWT9Iq_rmMsqqT4kYW8VZQu7ygcUjcc56oAW6hLlhnHhfhB2xWukmYkgnblK0XqKaR9qtvpJ6nEabT1gYFJlc5fLjhFVMD4i9ZKY7trcrGDxAeO0JugYfklzXx-mMtxh-2kd3xqYYcbUSuaRrdpICYc9dSmGmRw%26sai%3DAMfl-YR22mPJZCadz0hjo9ehvjHu5dApgm8r5ydBS0fe6WbH5T27lhvXPmpNHYn0UFWalx-KvA1jXHlKRFIhJSsEM5Gaz-uBG3xyTAjzgwLFIpDboQM6kkQqNl-HGqLisp7EdTMDUMLzUCDVrY8TyKxH7K1_o_kpnodRVIj5vsQRaDaAUR00A-RYrpKQPsgirHV84nf8869S2OYJCGk0m896YCM4p2ULEt97rHsFkcE%26sig%3DCg0ArKJSzCF__tj34gxtEAE%26fbs_aeid%3D%5Bgw_fbsaeid%5D%26urlfix%3D1%26adurl%3Dhttps://adclick.g.doubleclick.net/aclk%3Fsa%3DL%26ai%3DCsKJBAfETZNe8Goz9BKy6qqgImJGal2WnguL_vw7AjbcBEAEgAGDJ5qaI9KPAEIIBHmNhLW1iLWFwcC1wdWItMzY4Njk4MTQwNzgzOTY0MsgBCeACAKgDAaoEpQJP0DxrtkJMEksMwO2w1wqZFn5uBIAJ0_Q0aJhwIHWIgoEeBRMj4-6dSFNNgOFENTOEYisU4EpOKsRSBPDA9zrBPdKFABu3L6eruTRuW_9qVbqd21tA9vtZIn0-I7O1QMltFIxaToP1BzgEqgeIuIrmmcrhNegQyTpVMvU7nyGmxoLemGticzIvK_jCo2ODgcV86ZlSFBaCNgE8G7t77Sm0HOTEoZ9_eUFEJnDXZPkfACVww8pvDR7XG0f-NeQZji7U4v8FXlHrxzwGkR94ooxFm3eZDXRM_IgyoJZjgVJZ8HARPkuuI3U4yom6YWQnUHUzsJwohA3w75xDXFE5BCHlD-R0j_G41E8_duo8tJ6n0uLk0Tci_88KCgWb0LE-YqIwYZfaeuAEAYAGr46A7c2aruIOoAYhqAemvhuoB5bYG6gHqpuxAqgH_56xAqgH35-xAtgHANIIDQiAYRABMgKKAjoCgED6CwIIAYAMAdAVAYAXAQ%26num%3D1%26sig%3DAOD64_2NzKbrqHVi_06qSRjlmupszLpPFA%26client%3Dca-mb-app-pub-3686981407839642%26adurl%3D/https://article.kleanears.com/klean-2-10/?uid=4&amp;oid=1&amp;affid=41&amp;pp=uxQxr7zWhklMRheeGy5lMrLbS6K3ONjcB3RthdaOpxCM3JAXpMR-l63InxziQqzN6CNi_Xx1F33tn6ATp2U6Qy9nD3CxTI5RvydZlLnU9FhGQMP3oHpFpciYYYaMpPAR4fIAogxvbb4v-U6r_oPg-Zij2kSNZ1NIsaDViyQMVQUgBOVb8_rec0I7AeeGVfWRqQlihw523qoVIuasm9-cirS9v_aI7pz5-gOxiw\')"&gt;\n        &lt;div&gt;&lt;img class="photo" src="https://images.perf-serving.com/4am/15253/klean-ears4-1200x627.jpg"&gt;&lt;/div&gt;\n        &lt;div class="headline"&gt;Earwax is known to cause hearing and memory loss. Use this easy trick to clear earwax.&lt;/div&gt;\n        &lt;div class="brand"&gt;KleanEars&lt;/div&gt;\n        &lt;div class="cta"&gt;&lt;span class="ctaArrow"&gt;&amp;rsaquo;&lt;/span&gt;&lt;/div&gt;\n    &lt;/div&gt;&lt;img src="https://prod-use.perf-serving.com/imp_notice_c2s/v1/KHHbUYkb9UAN78dqOpJAM_TOAQvbj7xSQHeOyC0d6yBzP_BCiEB5W68NEcg6q2lT6B4sU8bcPCKPaAFBaIrO8C-YfzmqI246Tn9s98DY6MMwnroZsBcHKe-5YZmHO65Z7iOsQ7hkx0nJnsNtM6LfR2P_uZ9FQwFpo9HpI1D1VK_-1_RlY-TumegV9u-_Ar6e5lDu99aJHtz2imtGSeszR-E9IFQ1NCCYicgDb95JFqOTqHdIZvOMH2UVN0hRYKHOO0ZTIIVWM-UDWRa7snPpTELnYwFlz1Ez3xQ-3SgQeJ_0aA9VbkiRkjvorpwKNekViOIV_-60NYOxVC8k_y7iAX4NgkBkrwB97xf7CYj_mbkhXguhLbw6jmS6R_hi_83d_qO5wrJis-W2aetP7-fnHcxdj1e2QwshMNfnL1Fw3FnnaNGGv-ttntIf9JFOCBuWkZVhSXuhju-M6-rQEUTILmKOuMq8Gswlpdk_MtGr4CZ7PofcJ0YR9ayjffYY7vUIwUS-Z0Pu3eR_wdZUH_ZMcM1RbS8nS5Lbb7gHboaa16dW5IjLTu4aORil2Wb8pSZu8lu-MyHQpr3XNBnntYIQVyFVWcxs-g6O20Jm_I_5OmbDf_Scn5AwlId0rv6_v22hP-Lj_2BbOu5Jl_rhYeQIf3aA-vWZ5omdYFZ7OxgdzQeNWFzj3ODnscKBIC8dr6K_VcGpahzJRDV_Ko1bVHlK5jjrFtACVPSn4p0Kii8B9E9yQfTy76AhCLA-S7tFeInPv-_4exkKH_6Yd8K7cY7MPVcxW55DjTfr2GD01VATetQEcq1WH8SKA7wpAhFGILHs-C-B0C0oBKQr57Q54mU6Vbgjar-zCqS1zKprst62KqrPEm9LP6q7KC8E3ZMk1Tt3qZE5b54QNVojDFLqeVbYcEDOxvRG4uT3q7XpwL2VKipxv2LC5hCUah18dDgguKo9fnMYZclLasEGI3upnpJ7d-o-01r7bLY7orJYO99KRkN6x8jx_UWNqmRteFepRyVHKgQq9ANoHMSxDoAUOaaslXeYXsqKMN8rDtiCfewjyPeWHOM0Ag3D7PvnSaEbWmiLALh73O26QWnLwHen2_vqQikSfmnN-U41piUNRgf28hlPodHjcD_WmFNpaY2eNe9wcctoEmqMLDeoxAzO1hMCtLpqL6tOZIjhBEnbLJsX9ok9ToA</t>
+  </si>
+  <si>
     <t>note_list</t>
   </si>
   <si>
+    <t>postData</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
     <t>matchRule</t>
+  </si>
+  <si>
+    <t>mappingByAPI</t>
   </si>
   <si>
     <t>keyData</t>
@@ -393,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,40 +740,2664 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="F2" t="s">
         <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" t="s">
+        <v>123</v>
+      </c>
+      <c r="M20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" t="s">
+        <v>123</v>
+      </c>
+      <c r="M22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" t="s">
+        <v>123</v>
+      </c>
+      <c r="M23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" t="s">
+        <v>121</v>
+      </c>
+      <c r="L25" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" t="s">
+        <v>120</v>
+      </c>
+      <c r="L26" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L27" t="s">
+        <v>123</v>
+      </c>
+      <c r="M27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" t="s">
+        <v>120</v>
+      </c>
+      <c r="L30" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" t="s">
+        <v>120</v>
+      </c>
+      <c r="L31" t="s">
+        <v>123</v>
+      </c>
+      <c r="M31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" t="s">
+        <v>121</v>
+      </c>
+      <c r="L32" t="s">
+        <v>123</v>
+      </c>
+      <c r="M32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" t="s">
+        <v>121</v>
+      </c>
+      <c r="L33" t="s">
+        <v>123</v>
+      </c>
+      <c r="M33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" t="s">
+        <v>93</v>
+      </c>
+      <c r="K34" t="s">
+        <v>120</v>
+      </c>
+      <c r="L34" t="s">
+        <v>123</v>
+      </c>
+      <c r="M34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35" t="s">
+        <v>123</v>
+      </c>
+      <c r="M35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" t="s">
+        <v>121</v>
+      </c>
+      <c r="L36" t="s">
+        <v>123</v>
+      </c>
+      <c r="M36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" t="s">
+        <v>95</v>
+      </c>
+      <c r="K37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37" t="s">
+        <v>123</v>
+      </c>
+      <c r="M37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" t="s">
+        <v>120</v>
+      </c>
+      <c r="L38" t="s">
+        <v>123</v>
+      </c>
+      <c r="M38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" t="s">
+        <v>97</v>
+      </c>
+      <c r="K39" t="s">
+        <v>121</v>
+      </c>
+      <c r="L39" t="s">
+        <v>123</v>
+      </c>
+      <c r="M39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" t="s">
+        <v>121</v>
+      </c>
+      <c r="L40" t="s">
+        <v>123</v>
+      </c>
+      <c r="M40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" t="s">
+        <v>120</v>
+      </c>
+      <c r="L41" t="s">
+        <v>123</v>
+      </c>
+      <c r="M41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" t="s">
+        <v>99</v>
+      </c>
+      <c r="K42" t="s">
+        <v>121</v>
+      </c>
+      <c r="L42" t="s">
+        <v>123</v>
+      </c>
+      <c r="M42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43" t="s">
+        <v>121</v>
+      </c>
+      <c r="L43" t="s">
+        <v>123</v>
+      </c>
+      <c r="M43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" t="s">
+        <v>101</v>
+      </c>
+      <c r="K44" t="s">
+        <v>120</v>
+      </c>
+      <c r="L44" t="s">
+        <v>123</v>
+      </c>
+      <c r="M44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s">
+        <v>102</v>
+      </c>
+      <c r="K45" t="s">
+        <v>121</v>
+      </c>
+      <c r="L45" t="s">
+        <v>123</v>
+      </c>
+      <c r="M45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s">
+        <v>103</v>
+      </c>
+      <c r="K46" t="s">
+        <v>120</v>
+      </c>
+      <c r="L46" t="s">
+        <v>123</v>
+      </c>
+      <c r="M46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" t="s">
+        <v>104</v>
+      </c>
+      <c r="K47" t="s">
+        <v>121</v>
+      </c>
+      <c r="L47" t="s">
+        <v>123</v>
+      </c>
+      <c r="M47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s">
+        <v>105</v>
+      </c>
+      <c r="K48" t="s">
+        <v>120</v>
+      </c>
+      <c r="L48" t="s">
+        <v>123</v>
+      </c>
+      <c r="M48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+      <c r="J49" t="s">
+        <v>95</v>
+      </c>
+      <c r="K49" t="s">
+        <v>121</v>
+      </c>
+      <c r="L49" t="s">
+        <v>123</v>
+      </c>
+      <c r="M49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s">
+        <v>106</v>
+      </c>
+      <c r="K50" t="s">
+        <v>121</v>
+      </c>
+      <c r="L50" t="s">
+        <v>123</v>
+      </c>
+      <c r="M50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s">
+        <v>95</v>
+      </c>
+      <c r="K51" t="s">
+        <v>121</v>
+      </c>
+      <c r="L51" t="s">
+        <v>123</v>
+      </c>
+      <c r="M51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s">
+        <v>53</v>
+      </c>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s">
+        <v>107</v>
+      </c>
+      <c r="K52" t="s">
+        <v>120</v>
+      </c>
+      <c r="L52" t="s">
+        <v>123</v>
+      </c>
+      <c r="M52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s">
+        <v>108</v>
+      </c>
+      <c r="K53" t="s">
+        <v>121</v>
+      </c>
+      <c r="L53" t="s">
+        <v>123</v>
+      </c>
+      <c r="M53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+      <c r="J54" t="s">
+        <v>95</v>
+      </c>
+      <c r="K54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L54" t="s">
+        <v>123</v>
+      </c>
+      <c r="M54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s">
+        <v>95</v>
+      </c>
+      <c r="K55" t="s">
+        <v>121</v>
+      </c>
+      <c r="L55" t="s">
+        <v>123</v>
+      </c>
+      <c r="M55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H56" t="s">
+        <v>54</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+      <c r="J56" t="s">
+        <v>109</v>
+      </c>
+      <c r="K56" t="s">
+        <v>120</v>
+      </c>
+      <c r="L56" t="s">
+        <v>123</v>
+      </c>
+      <c r="M56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+      <c r="J57" t="s">
+        <v>110</v>
+      </c>
+      <c r="K57" t="s">
+        <v>121</v>
+      </c>
+      <c r="L57" t="s">
+        <v>123</v>
+      </c>
+      <c r="M57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+      <c r="J58" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58" t="s">
+        <v>120</v>
+      </c>
+      <c r="L58" t="s">
+        <v>123</v>
+      </c>
+      <c r="M58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J59" t="s">
+        <v>112</v>
+      </c>
+      <c r="K59" t="s">
+        <v>121</v>
+      </c>
+      <c r="L59" t="s">
+        <v>123</v>
+      </c>
+      <c r="M59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+      <c r="J60" t="s">
+        <v>113</v>
+      </c>
+      <c r="K60" t="s">
+        <v>120</v>
+      </c>
+      <c r="L60" t="s">
+        <v>123</v>
+      </c>
+      <c r="M60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J61" t="s">
+        <v>114</v>
+      </c>
+      <c r="K61" t="s">
+        <v>121</v>
+      </c>
+      <c r="L61" t="s">
+        <v>123</v>
+      </c>
+      <c r="M61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+      <c r="J62" t="s">
+        <v>115</v>
+      </c>
+      <c r="K62" t="s">
+        <v>120</v>
+      </c>
+      <c r="L62" t="s">
+        <v>123</v>
+      </c>
+      <c r="M62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+      <c r="J63" t="s">
+        <v>116</v>
+      </c>
+      <c r="K63" t="s">
+        <v>120</v>
+      </c>
+      <c r="L63" t="s">
+        <v>123</v>
+      </c>
+      <c r="M63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+      <c r="J64" t="s">
+        <v>117</v>
+      </c>
+      <c r="K64" t="s">
+        <v>121</v>
+      </c>
+      <c r="L64" t="s">
+        <v>123</v>
+      </c>
+      <c r="M64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+      <c r="J65" t="s">
+        <v>118</v>
+      </c>
+      <c r="K65" t="s">
+        <v>121</v>
+      </c>
+      <c r="L65" t="s">
+        <v>123</v>
+      </c>
+      <c r="M65" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
